--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="310">
   <si>
     <t>Doi</t>
   </si>
@@ -1386,6 +1386,306 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0, Megan%McCullough%NULL%0, Megan%McCullough%NULL%0, Michael A.%Fuery%NULL%0, Fouad%Chouairi%NULL%0, Fouad%Chouairi%NULL%0, Craig%Keating%NULL%0, Neal G.%Ravindra%NULL%0, P. Elliott%Miller%NULL%0, Maricar%Malinis%NULL%0, Nitu%Kashyap%NULL%0, Allen%Hsiao%NULL%0, F. Perry%Wilson%NULL%0, Jeptha P.%Curtis%NULL%0, Matthew%Grant%NULL%0, Eric J.%Velazquez%NULL%0, Nihar R.%Desai%NULL%0, Tariq%Ahmad%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim
+To describe associations between frailty, ethnicity, socioeconomic position and mortality in a cohort of older patients presenting to hospital with COVID-19.
+Findings
+id="Par6666"&gt;Frailty did not appear to be associated with mortality rates after COVID-19, though an interaction was evident indicating much larger excess mortality in fitter, compared with frailer patients.
+Message
+id="Par777"&gt;Frailty may not be a good measure of prognosis in COVID-19 and different mechanisms may underlie pathways to death depending on pre-morbid frailty.
+</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,  Thomas E.%Webb%NULL%2,  Thomas E.%Webb%NULL%0,  Benjamin C.%Mcloughlin%NULL%2,  Benjamin C.%Mcloughlin%NULL%0,  Imran%Mannan%NULL%2,  Imran%Mannan%NULL%0,  Arshad%Rather%NULL%2,  Arshad%Rather%NULL%0,  Paul%Knopp%NULL%1,  Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
+ We investigated this in the UK Biobank study.
+Methods
+id="Par2"&gt;The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
+ SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
+ Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
+ We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
+ We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
+Results
+id="Par3"&gt;Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
+ These ethnic groups were more likely to be hospital cases compared to the white British.
+ Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
+ Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
+Conclusions
+id="Par4"&gt;Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
+ An urgent response to addressing these elevated risks is required.
+</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,  Catherine A.%O’Donnell%NULL%1,  Bhautesh Dinesh%Jani%NULL%1,  Evangelia%Demou%NULL%1,  Frederick K.%Ho%NULL%1,  Carlos%Celis-Morales%NULL%1,  Barbara I.%Nicholl%NULL%1,  Frances S.%Mair%NULL%1,  Paul%Welsh%NULL%1,  Naveed%Sattar%NULL%1,  Jill P.%Pell%NULL%1,  S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
+S.
+ with new confirmed cases continuing to rise following the re-opening of most states.
+ Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
+Methods
+id="Par2"&gt;A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
+S.
+) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
+Results
+id="Par3"&gt;Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
+Conclusion
+id="Par4"&gt;sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
+ Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
+</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,  Jennifer%Beam%NULL%2,  Jennifer%Beam%NULL%0,  Haley%Maier%NULL%1,  Whitney%Haggerson%NULL%1,  Karen%Boudreau%NULL%1,  Jamie%Carlson%NULL%1,  Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+id="Par2"&gt;This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+id="Par3"&gt;The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,  Hannah C.%Jarvis%NULL%2,  Hannah C.%Jarvis%NULL%0,  Ezgi%Ozcan%NULL%1,  Thomas L. P.%Burns%NULL%1,  Rabia A.%Warraich%NULL%1,  Lisa J.%Amani%NULL%1,  Amina%Jaffer%NULL%1,  Stephanie%Paget%NULL%1,  Anand%Sivaramakrishnan%NULL%1,  Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim
+To describe associations between frailty, ethnicity, socioeconomic position and mortality in a cohort of older patients presenting to hospital with COVID-19.
+Findings
+Frailty did not appear to be associated with mortality rates after COVID-19, though an interaction was evident indicating much larger excess mortality in fitter, compared with frailer patients.
+Message
+id="Par777"&gt;Frailty may not be a good measure of prognosis in COVID-19 and different mechanisms may underlie pathways to death depending on pre-morbid frailty.
+</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,   Thomas E.%Webb%NULL%2,   Thomas E.%Webb%NULL%0,   Benjamin C.%Mcloughlin%NULL%2,   Benjamin C.%Mcloughlin%NULL%0,   Imran%Mannan%NULL%2,   Imran%Mannan%NULL%0,   Arshad%Rather%NULL%2,   Arshad%Rather%NULL%0,   Paul%Knopp%NULL%1,   Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
+ We investigated this in the UK Biobank study.
+Methods
+The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
+ SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
+ Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
+ We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
+ We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
+Results
+id="Par3"&gt;Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
+ These ethnic groups were more likely to be hospital cases compared to the white British.
+ Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
+ Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
+Conclusions
+id="Par4"&gt;Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
+ An urgent response to addressing these elevated risks is required.
+</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,   Catherine A.%O’Donnell%NULL%1,   Bhautesh Dinesh%Jani%NULL%1,   Evangelia%Demou%NULL%1,   Frederick K.%Ho%NULL%1,   Carlos%Celis-Morales%NULL%1,   Barbara I.%Nicholl%NULL%1,   Frances S.%Mair%NULL%1,   Paul%Welsh%NULL%1,   Naveed%Sattar%NULL%0,   Jill P.%Pell%NULL%1,   S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
+S.
+ with new confirmed cases continuing to rise following the re-opening of most states.
+ Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
+Methods
+A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
+S.
+) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
+Results
+id="Par3"&gt;Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
+Conclusion
+id="Par4"&gt;sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
+ Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
+</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,   Jennifer%Beam%NULL%2,   Jennifer%Beam%NULL%0,   Haley%Maier%NULL%1,   Whitney%Haggerson%NULL%1,   Karen%Boudreau%NULL%1,   Jamie%Carlson%NULL%1,   Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+id="Par3"&gt;The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,   Hannah C.%Jarvis%NULL%2,   Hannah C.%Jarvis%NULL%0,   Ezgi%Ozcan%NULL%1,   Thomas L. P.%Burns%NULL%1,   Rabia A.%Warraich%NULL%1,   Lisa J.%Amani%NULL%1,   Amina%Jaffer%NULL%1,   Stephanie%Paget%NULL%1,   Anand%Sivaramakrishnan%NULL%1,   Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim
+To describe associations between frailty, ethnicity, socioeconomic position and mortality in a cohort of older patients presenting to hospital with COVID-19.
+Findings
+Frailty did not appear to be associated with mortality rates after COVID-19, though an interaction was evident indicating much larger excess mortality in fitter, compared with frailer patients.
+Message
+Frailty may not be a good measure of prognosis in COVID-19 and different mechanisms may underlie pathways to death depending on pre-morbid frailty.
+</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,    Thomas E.%Webb%NULL%2,    Thomas E.%Webb%NULL%0,    Benjamin C.%Mcloughlin%NULL%2,    Benjamin C.%Mcloughlin%NULL%0,    Imran%Mannan%NULL%2,    Imran%Mannan%NULL%0,    Arshad%Rather%NULL%2,    Arshad%Rather%NULL%0,    Paul%Knopp%NULL%1,    Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
+ We investigated this in the UK Biobank study.
+Methods
+The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
+ SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
+ Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
+ We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
+ We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
+Results
+Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
+ These ethnic groups were more likely to be hospital cases compared to the white British.
+ Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
+ Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
+Conclusions
+id="Par4"&gt;Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
+ An urgent response to addressing these elevated risks is required.
+</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,    Catherine A.%O’Donnell%NULL%2,    Bhautesh Dinesh%Jani%NULL%1,    Evangelia%Demou%NULL%1,    Frederick K.%Ho%NULL%1,    Carlos%Celis-Morales%NULL%1,    Barbara I.%Nicholl%NULL%1,    Frances S.%Mair%NULL%2,    Paul%Welsh%NULL%2,    Naveed%Sattar%NULL%2,    Jill P.%Pell%NULL%2,    S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
+S.
+ with new confirmed cases continuing to rise following the re-opening of most states.
+ Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
+Methods
+A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
+S.
+) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
+Results
+Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
+Conclusion
+id="Par4"&gt;sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
+ Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
+</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,    Jennifer%Beam%NULL%2,    Jennifer%Beam%NULL%0,    Haley%Maier%NULL%1,    Whitney%Haggerson%NULL%1,    Karen%Boudreau%NULL%1,    Jamie%Carlson%NULL%1,    Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,    Hannah C.%Jarvis%NULL%2,    Hannah C.%Jarvis%NULL%0,    Ezgi%Ozcan%NULL%1,    Thomas L. P.%Burns%NULL%1,    Rabia A.%Warraich%NULL%1,    Lisa J.%Amani%NULL%1,    Amina%Jaffer%NULL%1,    Stephanie%Paget%NULL%1,    Anand%Sivaramakrishnan%NULL%1,    Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
+ We investigated this in the UK Biobank study.
+Methods
+The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
+ SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
+ Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
+ We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
+ We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
+Results
+Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
+ These ethnic groups were more likely to be hospital cases compared to the white British.
+ Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
+ Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
+Conclusions
+Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
+ An urgent response to addressing these elevated risks is required.
+</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,     Catherine A.%O’Donnell%NULL%1,     Bhautesh Dinesh%Jani%NULL%1,     Evangelia%Demou%NULL%1,     Frederick K.%Ho%NULL%1,     Carlos%Celis-Morales%NULL%1,     Barbara I.%Nicholl%NULL%1,     Frances S.%Mair%NULL%1,     Paul%Welsh%NULL%1,     Naveed%Sattar%NULL%1,     Jill P.%Pell%NULL%1,     S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
+S.
+ with new confirmed cases continuing to rise following the re-opening of most states.
+ Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
+Methods
+A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
+S.
+) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
+Results
+Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
+Conclusion
+sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
+ Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
+</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,     Jennifer%Beam%NULL%2,     Jennifer%Beam%NULL%0,     Haley%Maier%NULL%1,     Whitney%Haggerson%NULL%1,     Karen%Boudreau%NULL%1,     Jamie%Carlson%NULL%1,     Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,     Hannah C.%Jarvis%NULL%2,     Hannah C.%Jarvis%NULL%0,     Ezgi%Ozcan%NULL%1,     Thomas L. P.%Burns%NULL%1,     Rabia A.%Warraich%NULL%1,     Lisa J.%Amani%NULL%1,     Amina%Jaffer%NULL%1,     Stephanie%Paget%NULL%1,     Anand%Sivaramakrishnan%NULL%1,     Dean D.%Creer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2203,10 +2503,10 @@
         <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -2281,10 +2581,10 @@
         <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -2593,10 +2893,10 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -2645,10 +2945,10 @@
         <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="280">
   <si>
     <t>Doi</t>
   </si>
@@ -1386,306 +1386,6 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0, Megan%McCullough%NULL%0, Megan%McCullough%NULL%0, Michael A.%Fuery%NULL%0, Fouad%Chouairi%NULL%0, Fouad%Chouairi%NULL%0, Craig%Keating%NULL%0, Neal G.%Ravindra%NULL%0, P. Elliott%Miller%NULL%0, Maricar%Malinis%NULL%0, Nitu%Kashyap%NULL%0, Allen%Hsiao%NULL%0, F. Perry%Wilson%NULL%0, Jeptha P.%Curtis%NULL%0, Matthew%Grant%NULL%0, Eric J.%Velazquez%NULL%0, Nihar R.%Desai%NULL%0, Tariq%Ahmad%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aim
-To describe associations between frailty, ethnicity, socioeconomic position and mortality in a cohort of older patients presenting to hospital with COVID-19.
-Findings
-id="Par6666"&gt;Frailty did not appear to be associated with mortality rates after COVID-19, though an interaction was evident indicating much larger excess mortality in fitter, compared with frailer patients.
-Message
-id="Par777"&gt;Frailty may not be a good measure of prognosis in COVID-19 and different mechanisms may underlie pathways to death depending on pre-morbid frailty.
-</t>
-  </si>
-  <si>
-    <t>[Amy%Miles%NULL%1,  Thomas E.%Webb%NULL%2,  Thomas E.%Webb%NULL%0,  Benjamin C.%Mcloughlin%NULL%2,  Benjamin C.%Mcloughlin%NULL%0,  Imran%Mannan%NULL%2,  Imran%Mannan%NULL%0,  Arshad%Rather%NULL%2,  Arshad%Rather%NULL%0,  Paul%Knopp%NULL%1,  Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
- We investigated this in the UK Biobank study.
-Methods
-id="Par2"&gt;The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
- SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
- Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
- We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
- We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
-Results
-id="Par3"&gt;Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
- These ethnic groups were more likely to be hospital cases compared to the white British.
- Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
- Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
-Conclusions
-id="Par4"&gt;Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
- An urgent response to addressing these elevated risks is required.
-</t>
-  </si>
-  <si>
-    <t>[Claire L.%Niedzwiedz%NULL%1,  Catherine A.%O’Donnell%NULL%1,  Bhautesh Dinesh%Jani%NULL%1,  Evangelia%Demou%NULL%1,  Frederick K.%Ho%NULL%1,  Carlos%Celis-Morales%NULL%1,  Barbara I.%Nicholl%NULL%1,  Frances S.%Mair%NULL%1,  Paul%Welsh%NULL%1,  Naveed%Sattar%NULL%1,  Jill P.%Pell%NULL%1,  S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
-S.
- with new confirmed cases continuing to rise following the re-opening of most states.
- Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
-Methods
-id="Par2"&gt;A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
-S.
-) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
-Results
-id="Par3"&gt;Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
-Conclusion
-id="Par4"&gt;sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
- Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
-</t>
-  </si>
-  <si>
-    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,  Jennifer%Beam%NULL%2,  Jennifer%Beam%NULL%0,  Haley%Maier%NULL%1,  Whitney%Haggerson%NULL%1,  Karen%Boudreau%NULL%1,  Jamie%Carlson%NULL%1,  Rhonda%Medows%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
- There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
-Methods
-id="Par2"&gt;This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
- Demographic, clinical and biochemical data were extracted.
- The primary endpoint was death during the index hospital admission.
- The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
-Results
-id="Par3"&gt;The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
- Presenting clinical and biochemical features were consistent with those reported elsewhere.
- The ethnic breakdown of patients admitted was similar to that of our underlying local population.
- Inpatient mortality was high at 38%.
-Conclusions
-id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
- The ethnic composition of our caseload was similar to the underlying population.
- While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
-</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%3,  Hannah C.%Jarvis%NULL%2,  Hannah C.%Jarvis%NULL%0,  Ezgi%Ozcan%NULL%1,  Thomas L. P.%Burns%NULL%1,  Rabia A.%Warraich%NULL%1,  Lisa J.%Amani%NULL%1,  Amina%Jaffer%NULL%1,  Stephanie%Paget%NULL%1,  Anand%Sivaramakrishnan%NULL%1,  Dean D.%Creer%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aim
-To describe associations between frailty, ethnicity, socioeconomic position and mortality in a cohort of older patients presenting to hospital with COVID-19.
-Findings
-Frailty did not appear to be associated with mortality rates after COVID-19, though an interaction was evident indicating much larger excess mortality in fitter, compared with frailer patients.
-Message
-id="Par777"&gt;Frailty may not be a good measure of prognosis in COVID-19 and different mechanisms may underlie pathways to death depending on pre-morbid frailty.
-</t>
-  </si>
-  <si>
-    <t>[Amy%Miles%NULL%1,   Thomas E.%Webb%NULL%2,   Thomas E.%Webb%NULL%0,   Benjamin C.%Mcloughlin%NULL%2,   Benjamin C.%Mcloughlin%NULL%0,   Imran%Mannan%NULL%2,   Imran%Mannan%NULL%0,   Arshad%Rather%NULL%2,   Arshad%Rather%NULL%0,   Paul%Knopp%NULL%1,   Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
- We investigated this in the UK Biobank study.
-Methods
-The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
- SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
- Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
- We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
- We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
-Results
-id="Par3"&gt;Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
- These ethnic groups were more likely to be hospital cases compared to the white British.
- Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
- Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
-Conclusions
-id="Par4"&gt;Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
- An urgent response to addressing these elevated risks is required.
-</t>
-  </si>
-  <si>
-    <t>[Claire L.%Niedzwiedz%NULL%1,   Catherine A.%O’Donnell%NULL%1,   Bhautesh Dinesh%Jani%NULL%1,   Evangelia%Demou%NULL%1,   Frederick K.%Ho%NULL%1,   Carlos%Celis-Morales%NULL%1,   Barbara I.%Nicholl%NULL%1,   Frances S.%Mair%NULL%1,   Paul%Welsh%NULL%1,   Naveed%Sattar%NULL%0,   Jill P.%Pell%NULL%1,   S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
-S.
- with new confirmed cases continuing to rise following the re-opening of most states.
- Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
-Methods
-A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
-S.
-) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
-Results
-id="Par3"&gt;Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
-Conclusion
-id="Par4"&gt;sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
- Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
-</t>
-  </si>
-  <si>
-    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,   Jennifer%Beam%NULL%2,   Jennifer%Beam%NULL%0,   Haley%Maier%NULL%1,   Whitney%Haggerson%NULL%1,   Karen%Boudreau%NULL%1,   Jamie%Carlson%NULL%1,   Rhonda%Medows%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
- There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
-Methods
-This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
- Demographic, clinical and biochemical data were extracted.
- The primary endpoint was death during the index hospital admission.
- The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
-Results
-id="Par3"&gt;The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
- Presenting clinical and biochemical features were consistent with those reported elsewhere.
- The ethnic breakdown of patients admitted was similar to that of our underlying local population.
- Inpatient mortality was high at 38%.
-Conclusions
-id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
- The ethnic composition of our caseload was similar to the underlying population.
- While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
-</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%3,   Hannah C.%Jarvis%NULL%2,   Hannah C.%Jarvis%NULL%0,   Ezgi%Ozcan%NULL%1,   Thomas L. P.%Burns%NULL%1,   Rabia A.%Warraich%NULL%1,   Lisa J.%Amani%NULL%1,   Amina%Jaffer%NULL%1,   Stephanie%Paget%NULL%1,   Anand%Sivaramakrishnan%NULL%1,   Dean D.%Creer%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aim
-To describe associations between frailty, ethnicity, socioeconomic position and mortality in a cohort of older patients presenting to hospital with COVID-19.
-Findings
-Frailty did not appear to be associated with mortality rates after COVID-19, though an interaction was evident indicating much larger excess mortality in fitter, compared with frailer patients.
-Message
-Frailty may not be a good measure of prognosis in COVID-19 and different mechanisms may underlie pathways to death depending on pre-morbid frailty.
-</t>
-  </si>
-  <si>
-    <t>[Amy%Miles%NULL%1,    Thomas E.%Webb%NULL%2,    Thomas E.%Webb%NULL%0,    Benjamin C.%Mcloughlin%NULL%2,    Benjamin C.%Mcloughlin%NULL%0,    Imran%Mannan%NULL%2,    Imran%Mannan%NULL%0,    Arshad%Rather%NULL%2,    Arshad%Rather%NULL%0,    Paul%Knopp%NULL%1,    Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
- We investigated this in the UK Biobank study.
-Methods
-The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
- SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
- Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
- We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
- We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
-Results
-Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
- These ethnic groups were more likely to be hospital cases compared to the white British.
- Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
- Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
-Conclusions
-id="Par4"&gt;Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
- An urgent response to addressing these elevated risks is required.
-</t>
-  </si>
-  <si>
-    <t>[Claire L.%Niedzwiedz%NULL%1,    Catherine A.%O’Donnell%NULL%2,    Bhautesh Dinesh%Jani%NULL%1,    Evangelia%Demou%NULL%1,    Frederick K.%Ho%NULL%1,    Carlos%Celis-Morales%NULL%1,    Barbara I.%Nicholl%NULL%1,    Frances S.%Mair%NULL%2,    Paul%Welsh%NULL%2,    Naveed%Sattar%NULL%2,    Jill P.%Pell%NULL%2,    S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
-S.
- with new confirmed cases continuing to rise following the re-opening of most states.
- Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
-Methods
-A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
-S.
-) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
-Results
-Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
-Conclusion
-id="Par4"&gt;sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
- Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
-</t>
-  </si>
-  <si>
-    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,    Jennifer%Beam%NULL%2,    Jennifer%Beam%NULL%0,    Haley%Maier%NULL%1,    Whitney%Haggerson%NULL%1,    Karen%Boudreau%NULL%1,    Jamie%Carlson%NULL%1,    Rhonda%Medows%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
- There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
-Methods
-This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
- Demographic, clinical and biochemical data were extracted.
- The primary endpoint was death during the index hospital admission.
- The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
-Results
-The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
- Presenting clinical and biochemical features were consistent with those reported elsewhere.
- The ethnic breakdown of patients admitted was similar to that of our underlying local population.
- Inpatient mortality was high at 38%.
-Conclusions
-id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
- The ethnic composition of our caseload was similar to the underlying population.
- While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
-</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%3,    Hannah C.%Jarvis%NULL%2,    Hannah C.%Jarvis%NULL%0,    Ezgi%Ozcan%NULL%1,    Thomas L. P.%Burns%NULL%1,    Rabia A.%Warraich%NULL%1,    Lisa J.%Amani%NULL%1,    Amina%Jaffer%NULL%1,    Stephanie%Paget%NULL%1,    Anand%Sivaramakrishnan%NULL%1,    Dean D.%Creer%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
- We investigated this in the UK Biobank study.
-Methods
-The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
- SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
- Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
- We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
- We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
-Results
-Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
- These ethnic groups were more likely to be hospital cases compared to the white British.
- Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
- Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
-Conclusions
-Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
- An urgent response to addressing these elevated risks is required.
-</t>
-  </si>
-  <si>
-    <t>[Claire L.%Niedzwiedz%NULL%1,     Catherine A.%O’Donnell%NULL%1,     Bhautesh Dinesh%Jani%NULL%1,     Evangelia%Demou%NULL%1,     Frederick K.%Ho%NULL%1,     Carlos%Celis-Morales%NULL%1,     Barbara I.%Nicholl%NULL%1,     Frances S.%Mair%NULL%1,     Paul%Welsh%NULL%1,     Naveed%Sattar%NULL%1,     Jill P.%Pell%NULL%1,     S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
-S.
- with new confirmed cases continuing to rise following the re-opening of most states.
- Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
-Methods
-A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
-S.
-) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
-Results
-Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
-Conclusion
-sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
- Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
-</t>
-  </si>
-  <si>
-    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,     Jennifer%Beam%NULL%2,     Jennifer%Beam%NULL%0,     Haley%Maier%NULL%1,     Whitney%Haggerson%NULL%1,     Karen%Boudreau%NULL%1,     Jamie%Carlson%NULL%1,     Rhonda%Medows%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
- There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
-Methods
-This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
- Demographic, clinical and biochemical data were extracted.
- The primary endpoint was death during the index hospital admission.
- The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
-Results
-The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
- Presenting clinical and biochemical features were consistent with those reported elsewhere.
- The ethnic breakdown of patients admitted was similar to that of our underlying local population.
- Inpatient mortality was high at 38%.
-Conclusions
-Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
- The ethnic composition of our caseload was similar to the underlying population.
- While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
-</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%3,     Hannah C.%Jarvis%NULL%2,     Hannah C.%Jarvis%NULL%0,     Ezgi%Ozcan%NULL%1,     Thomas L. P.%Burns%NULL%1,     Rabia A.%Warraich%NULL%1,     Lisa J.%Amani%NULL%1,     Amina%Jaffer%NULL%1,     Stephanie%Paget%NULL%1,     Anand%Sivaramakrishnan%NULL%1,     Dean D.%Creer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2503,10 +2203,10 @@
         <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -2581,10 +2281,10 @@
         <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -2893,10 +2593,10 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -2945,10 +2645,10 @@
         <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="333">
   <si>
     <t>Doi</t>
   </si>
@@ -1386,6 +1386,165 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0, Megan%McCullough%NULL%0, Megan%McCullough%NULL%0, Michael A.%Fuery%NULL%0, Fouad%Chouairi%NULL%0, Fouad%Chouairi%NULL%0, Craig%Keating%NULL%0, Neal G.%Ravindra%NULL%0, P. Elliott%Miller%NULL%0, Maricar%Malinis%NULL%0, Nitu%Kashyap%NULL%0, Allen%Hsiao%NULL%0, F. Perry%Wilson%NULL%0, Jeptha P.%Curtis%NULL%0, Matthew%Grant%NULL%0, Eric J.%Velazquez%NULL%0, Nihar R.%Desai%NULL%0, Tariq%Ahmad%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,   R. U.% Shah%null%1,   M.% Bale%null%1,   J. B.% Peacock%null%1,   B.% Berger%null%1,   A.% Brown%null%1,   S.% Mann%null%1,   W.% West%null%1,   V.% Martin%null%1,   V.% Fernandez%null%1,   S.% Grineski%null%1,   B. J.% Brintz%null%1,   M. H.% Samore%null%1,   M. J.% Ferrari%null%1,   D. T.% Leung%null%1,   L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,  Samuel L%Bruce%NULL%1,  Cody L%Slater%NULL%1,  Jonathan R%Tiao%NULL%1,  Matthew R%Baldwin%NULL%1,  R Graham%Barr%NULL%1,  Bernard P%Chang%NULL%1,  Katherine H%Chau%NULL%1,  Justin J%Choi%NULL%1,  Nicholas%Gavin%NULL%1,  Parag%Goyal%NULL%1,  Angela M%Mills%NULL%1,  Ashmi A%Patel%NULL%1,  Marie-Laure S%Romney%NULL%1,  Monika M%Safford%NULL%1,  Neil W%Schluger%NULL%1,  Soumitra%Sengupta%NULL%1,  Magdalena E%Sobieszczyk%NULL%0,  Jason E%Zucker%NULL%1,  Paul A%Asadourian%NULL%1,  Fletcher M%Bell%NULL%1,  Rebekah%Boyd%NULL%1,  Matthew F%Cohen%NULL%1,  MacAlistair I%Colquhoun%NULL%1,  Lucy A%Colville%NULL%1,  Joseph H%de Jonge%NULL%1,  Lyle B%Dershowitz%NULL%1,  Shirin A%Dey%NULL%1,  Katherine A%Eiseman%NULL%1,  Zachary P%Girvin%NULL%1,  Daniella T%Goni%NULL%1,  Amro A%Harb%NULL%1,  Nicholas%Herzik%NULL%1,  Sarah%Householder%NULL%1,  Lara E%Karaaslan%NULL%1,  Heather%Lee%NULL%1,  Evan%Lieberman%NULL%1,  Andrew%Ling%NULL%1,  Ree%Lu%NULL%1,  Arthur Y%Shou%NULL%1,  Alexander C%Sisti%NULL%1,  Zachary E%Snow%NULL%1,  Colin P%Sperring%NULL%1,  Yuqing%Xiong%NULL%1,  Henry W%Zhou%NULL%1,  Karthik%Natarajan%NULL%1,  George%Hripcsak%NULL%1,  Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,  Megan%McCullough%NULL%4,  Megan%McCullough%NULL%0,  Michael A.%Fuery%NULL%2,  Fouad%Chouairi%NULL%4,  Fouad%Chouairi%NULL%0,  Craig%Keating%NULL%2,  Neal G.%Ravindra%NULL%2,  P. Elliott%Miller%NULL%2,  Maricar%Malinis%NULL%2,  Nitu%Kashyap%NULL%2,  Allen%Hsiao%NULL%2,  F. Perry%Wilson%NULL%2,  Jeptha P.%Curtis%NULL%2,  Matthew%Grant%NULL%2,  Eric J.%Velazquez%NULL%2,  Nihar R.%Desai%NULL%2,  Tariq%Ahmad%NULL%2,  Chiara%Lazzeri%NULL%18,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,  Karen K.%Wong%NULL%1,  Christine M.%Szablewski%NULL%1,  Priti R.%Patel%NULL%1,  John%Rossow%NULL%1,  Juliana%da Silva%NULL%1,  Pavithra%Natarajan%NULL%1,  Sapna Bamrah%Morris%NULL%3,  Robyn Neblett%Fanfair%NULL%1,  Jessica%Rogers-Brown%NULL%1,  Beau B.%Bruce%NULL%1,  Sean D.%Browning%NULL%1,  Alfonso C.%Hernandez-Romieu%NULL%2,  Nathan W.%Furukawa%NULL%1,  Mohleen%Kang%NULL%1,  Mary E.%Evans%NULL%1,  Nadine%Oosmanally%NULL%1,  Melissa%Tobin-D’Angelo%NULL%1,  Cherie%Drenzek%NULL%1,  David J.%Murphy%NULL%2,  Julie%Hollberg%NULL%1,  James M.%Blum%NULL%2,  Robert%Jansen%NULL%1,  David W.%Wright%NULL%1,  William M.%Sewell%NULL%1,  Jack D.%Owens%NULL%1,  Benjamin%Lefkove%NULL%1,  Frank W.%Brown%NULL%1,  Deron C.%Burton%NULL%1,  Timothy M.%Uyeki%NULL%3,  Stephanie R.%Bialek%NULL%1,  Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,  Jasmine A.%Mack%NULL%1,  Maxwell%Salvatore%NULL%1,  Swaraaj Prabhu%Sankar%NULL%1,  Thomas S.%Valley%NULL%1,  Karandeep%Singh%NULL%1,  Brahmajee K.%Nallamothu%NULL%1,  Sachin%Kheterpal%NULL%1,  Lynda%Lisabeth%NULL%1,  Lars G.%Fritsche%NULL%1,  Bhramar%Mukherjee%NULL%1,   T.%Gu%null%1,   J. A.% Mack%null%1,   M.% Salvatore%null%1,   S. P.% Sankar%null%1,   T. S.% Valley%null%1,   K.% Singh%null%1,   B. K.% Nallamothu%null%1,   S.% Kheterpal%null%1,   L.% Lisabeth%null%1,   L. G.% Fritsche%null%1,   B. G. % Mukherjee%null%1,  T.%Gu%null%1,  J. A.% Mack%null%1,  M.% Salvatore%null%1,  S. P.% Sankar%null%1,  T. S.% Valley%null%1,  K.% Singh%null%1,  B. K.% Nallamothu%null%1,  S.% Kheterpal%null%1,  L.% Lisabeth%null%1,  L. G.% Fritsche%null%1,  B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,   S.% Nirenberg%null%1,   P.% Kovatch%null%1,   K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,  Shikha%Garg%NULL%1,  Alissa%O’Halloran%NULL%1,  Michael%Whitaker%NULL%1,  Huong%Pham%NULL%1,  Evan J%Anderson%NULL%1,  Isaac%Armistead%NULL%1,  Nancy M%Bennett%NULL%1,  Laurie%Billing%NULL%1,  Kathryn%Como-Sabetti%NULL%1,  Mary%Hill%NULL%1,  Sue%Kim%NULL%1,  Maya L%Monroe%NULL%1,  Alison%Muse%NULL%1,  Arthur L%Reingold%NULL%1,  William%Schaffner%NULL%1,  Melissa%Sutton%NULL%1,  H Keipp%Talbot%NULL%1,  Salina M%Torres%NULL%1,  Kimberly%Yousey-Hindes%NULL%1,  Rachel%Holstein%NULL%1,  Charisse%Cummings%NULL%1,  Lynette%Brammer%NULL%1,  Aron J%Hall%NULL%1,  Alicia M%Fry%NULL%1,  Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,   S.% Richardson%null%1,   K.% Coppa%null%1,   D. P.% Barnaby%null%1,   T.% McGinn%null%1,   L. B.% Becker%null%1,   K. W.% Davidson%null%1,   S. L.% Cohen%null%1,   J. S.% Hirsch%null%1,   T.% Zanos%null%1,     % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,   L. H.% Nguyen%null%1,   D. A.% Drew%null%1,   M. S.% Graham%null%1,   E. T.% Warner%null%1,   A. D.% Joshi%null%1,   C. M.% Astley%null%1,   C.-G.% Guo%null%1,   W.% Ma%null%1,   R. S.% Mehta%null%1,   S.% Kwon%null%1,   M.% Song%null%1,   R.% Davies%null%1,   J.% Capdevila%null%1,   K. A.% Lee%null%1,   M. N.% Lochlainn%null%1,   T.% Varsavsky%null%1,   C. H.% Sudre%null%1,   J.% Wolf%null%1,   Y. C.% Cozier%null%1,   L.% Rosenberg%null%1,   L. R.% Wilkens%null%1,   C. A.% Haiman%null%1,   L. L.% Marchand%null%1,   J. R.% Palmer%null%1,   T. D.% Spector%null%1,   S.% Ourselin%null%1,   C. J.% Steves%null%1,   A. T.% Chan%null%1,     % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,  Jienchi%Dorward%NULL%1,  Ana%Correa%NULL%1,  Nicholas%Jones%NULL%1,  Oluwafunmi%Akinyemi%NULL%1,  Gayatri%Amirthalingam%NULL%1,  Nick%Andrews%NULL%1,  Rachel%Byford%NULL%1,  Gavin%Dabrera%NULL%1,  Alex%Elliot%NULL%1,  Joanna%Ellis%NULL%1,  Filipa%Ferreira%NULL%1,  Jamie%Lopez Bernal%NULL%1,  Cecilia%Okusi%NULL%1,  Mary%Ramsay%NULL%1,  Julian%Sherlock%NULL%1,  Gillian%Smith%NULL%1,  John%Williams%NULL%1,  Gary%Howsam%NULL%1,  Maria%Zambon%NULL%1,  Mark%Joy%NULL%1,  F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,  Johanna%Dolle%NULL%2,  Johanna%Dolle%NULL%0,  Sheila%Grami%NULL%1,  Richard%Adule%NULL%1,  Zeyu%Li%NULL%1,  Kathleen%Tatem%NULL%1,  Chinyere%Anyaogu%NULL%1,  Stephen%Apfelroth%NULL%1,  Raji%Ayinla%NULL%2,  Raji%Ayinla%NULL%0,  Noella%Boma%NULL%1,  Terence%Brady%NULL%1,  Braulio F.%Cosme-Thormann%NULL%1,  Roseann%Costarella%NULL%1,  Kenra%Ford%NULL%1,  Kecia%Gaither%NULL%1,  Jessica%Jacobson%NULL%1,  Marc%Kanter%NULL%1,  Stuart%Kessler%NULL%1,  Ross B.%Kristal%NULL%1,  Joseph J.%Lieber%NULL%1,  Vikramjit%Mukherjee%NULL%1,  Vincent%Rizzo%NULL%1,  Madden%Rowell%NULL%1,  David%Stevens%NULL%1,  Elana%Sydney%NULL%1,  Andrew%Wallach%NULL%2,  Andrew%Wallach%NULL%0,  Dave A.%Chokshi%NULL%1,  Nichola%Davis%NULL%1,  NULL%NULL%NULL%0,  Sze Yan%Liu%NULL%2,  Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,  Mark%Caridi-Scheible%NULL%1,  James M.%Blum%NULL%0,  Chad%Robichaux%NULL%1,  Colleen%Kraft%NULL%1,  Jesse T.%Jacob%NULL%1,  Craig S.%Jabaley%NULL%1,  David%Carpenter%NULL%1,  Roberta%Kaplow%NULL%1,  Alfonso C.%Hernandez-Romieu%NULL%0,  Max W.%Adelman%NULL%1,  Greg S.%Martin%NULL%1,  Craig M.%Coopersmith%NULL%1,  David J.%Murphy%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%2,   Seunghee%Kim-Schulze%null%1,   Hsin-Hui%Huang%null%1,   Noam D.%Beckmann%null%1,   Sharon%Nirenberg%null%1,   Bo%Wang%null%6,   Yonit%Lavin%null%1,   Talia H.%Swartz%null%1,   Deepu%Madduri%null%1,   Aryeh%Stock%null%1,   Thomas U.%Marron%null%1,   Hui%Xie%null%1,   Manishkumar%Patel%null%1,   Kevin%Tuballes%null%1,   Oliver%Oekelen%null%1,   Adeeb%Rahman%null%1,   Patricia%Kovatch%null%2,   Judith A.%Aberg%null%1,   Eric%Schadt%null%1,   Sundar%Jagannath%null%1,   Madhu%Mazumdar%null%1,   Alexander W.%Charney%null%0,   Adolfo%Firpo-Betancourt%null%1,   Damodara Rao%Mendu%null%1,   Jeffrey%Jhang%null%2,   David%Reich%null%1,   Keith%Sigel%null%1,   Carlos%Cordon-Cardo%null%0,   Marc%Feldmann%null%1,   Samir%Parekh%null%1,   Miriam%Merad%null%1,   Sacha%Gnjatic%null%1,  Diane Marie%Del Valle%null%0,  Seunghee%Kim-Schulze%null%1,  Hsin-Hui%Huang%null%1,  Noam D.%Beckmann%null%1,  Sharon%Nirenberg%null%0,  Bo%Wang%null%1,  Yonit%Lavin%null%1,  Talia H.%Swartz%null%1,  Deepu%Madduri%null%1,  Aryeh%Stock%null%1,  Thomas U.%Marron%null%1,  Hui%Xie%null%0,  Manishkumar%Patel%null%1,  Kevin%Tuballes%null%1,  Oliver%Oekelen%null%1,  Adeeb%Rahman%null%1,  Patricia%Kovatch%null%0,  Judith A.%Aberg%null%1,  Eric%Schadt%null%0,  Sundar%Jagannath%null%1,  Madhu%Mazumdar%null%1,  Alexander W.%Charney%null%1,  Adolfo%Firpo-Betancourt%null%1,  Damodara Rao%Mendu%null%1,  Jeffrey%Jhang%null%0,  David%Reich%null%0,  Keith%Sigel%null%1,  Carlos%Cordon-Cardo%null%1,  Marc%Feldmann%null%1,  Samir%Parekh%null%1,  Miriam%Merad%null%1,  Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,  David R.%Jenkins%NULL%1,  Jatinder S.%Minhas%NULL%1,  Laura J.%Gray%NULL%1,  Julian%Tang%NULL%1,  Caroline%Williams%NULL%1,  Shirley%Sze%NULL%1,  Daniel%Pan%NULL%1,  William%Jones%NULL%1,  Raman%Verma%NULL%1,  Scott%Knapp%NULL%1,  Rupert%Major%NULL%1,  Melanie%Davies%NULL%1,  Nigel%Brunskill%NULL%1,  Martin%Wiselka%NULL%1,  Chris%Brightling%NULL%1,  Kamlesh%Khunti%NULL%1,  Pranab%Haldar%NULL%1,  Manish%Pareek%mp426@le.ac.uk%1,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,  Kelly E%Hathorn%NULL%2,  Kelly E%Hathorn%NULL%0,  Walker D%Redd%NULL%1,  Nicolette J%Rodriguez%NULL%1,  Joyce C%Zhou%NULL%1,  Ahmad Najdat%Bazarbashi%NULL%1,  Cheikh%Njie%NULL%1,  Danny%Wong%NULL%1,  Quoc-Dien%Trinh%NULL%1,  Lin%Shen%NULL%1,  Valerie E%Stone%NULL%2,  Valerie E%Stone%NULL%0,  Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,   S.% Apewokin%null%1,   A. A.% Wells%null%1,   A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,  Thomas E.%Webb%NULL%2,  Thomas E.%Webb%NULL%0,  Benjamin C.%Mcloughlin%NULL%2,  Benjamin C.%Mcloughlin%NULL%0,  Imran%Mannan%NULL%2,  Imran%Mannan%NULL%0,  Arshad%Rather%NULL%2,  Arshad%Rather%NULL%0,  Paul%Knopp%NULL%1,  Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,  Rajat%Suri%NULL%2,  Rajat%Suri%NULL%0,  Iheanacho O.%Emeruwa%NULL%2,  Iheanacho O.%Emeruwa%NULL%0,  Robert J.%Stretch%NULL%1,  Roxana Y.%Cortes-Lopez%NULL%2,  Roxana Y.%Cortes-Lopez%NULL%0,  Alexander%Sherman%NULL%1,  Catherine C.%Lindsay%NULL%1,  Jennifer A.%Fulcher%NULL%1,  David%Goodman-Meza%NULL%2,  David%Goodman-Meza%NULL%0,  Anil%Sapru%NULL%2,  Anil%Sapru%NULL%0,  Russell G.%Buhr%NULL%1,  Steven Y.%Chang%NULL%2,  Steven Y.%Chang%NULL%0,  Tisha%Wang%NULL%1,  Nida%Qadir%NULL%1,  Giordano%Madeddu%NULL%8,  Giordano%Madeddu%NULL%0,  Giordano%Madeddu%NULL%0,  Ana C.%Monteiro%NULL%2,  Ana C.%Monteiro%NULL%0,  Giordano%Madeddu%NULL%0,  Giordano%Madeddu%NULL%0,  Giordano%Madeddu%NULL%0,  Giordano%Madeddu%NULL%0,  Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,   D.% Stefanov%null%1,   A. S.% Chau%null%1,   A. G.% Weber%null%1,   G. S.% Marder%null%1,   B.% Kaplan%null%1,   P.% Malhotra%null%1,   O.% Bloom%null%1,   A.% Liu%null%1,   M.% Lesser%null%1,   N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,  Catherine A.%O’Donnell%NULL%1,  Bhautesh Dinesh%Jani%NULL%1,  Evangelia%Demou%NULL%1,  Frederick K.%Ho%NULL%1,  Carlos%Celis-Morales%NULL%1,  Barbara I.%Nicholl%NULL%1,  Frances S.%Mair%NULL%1,  Paul%Welsh%NULL%1,  Naveed%Sattar%NULL%1,  Jill P.%Pell%NULL%1,  S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,  Alex J%Walker%NULL%1,  Krishnan%Bhaskaran%NULL%1,  Seb%Bacon%NULL%1,  Chris%Bates%NULL%1,  Caroline E%Morton%NULL%1,  Helen J%Curtis%NULL%1,  Amir%Mehrkar%NULL%1,  David%Evans%NULL%1,  Peter%Inglesby%NULL%1,  Jonathan%Cockburn%NULL%1,  Helen I%McDonald%NULL%1,  Brian%MacKenna%NULL%1,  Laurie%Tomlinson%NULL%1,  Ian J%Douglas%NULL%1,  Christopher T%Rentsch%NULL%1,  Rohini%Mathur%NULL%1,  Angel YS%Wong%NULL%1,  Richard%Grieve%NULL%1,  David%Harrison%NULL%1,  Harriet%Forbes%NULL%1,  Anna%Schultze%NULL%2,  Richard%Croker%NULL%1,  John%Parry%NULL%1,  Frank%Hester%NULL%1,  Sam%Harper%NULL%1,  Rafael%Perera%NULL%1,  Stephen JW%Evans%NULL%1,  Liam%Smeeth%NULL%1,  Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,  Ajay%Bhasin%NULL%1,  Joseph M.%Feinglass%NULL%1,  Michael P.%Angarone%NULL%1,  Elaine R.%Cohen%NULL%1,  Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,  Andrew%Gangemi%NULL%1,  Robert%Marron%NULL%1,  Junad%Chowdhury%NULL%1,  Ibraheem%Yousef%NULL%1,  Matthew%Zheng%NULL%1,  Nicole%Mills%NULL%1,  Lauren%Tragesser%NULL%1,  Julie%Giurintano%NULL%1,  Rohit%Gupta%NULL%1,  Matthew%Gordon%NULL%1,  Parth%Rali%NULL%2,  Parth%Rali%NULL%0,  Gilbert%D'Alonso%NULL%1,  David%Fleece%NULL%1,  Huaqing%Zhao%NULL%1,  Nicole%Patlakh%NULL%1,  Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,  Nathan C.%Skorodin%nskorodin@midcusa.com%1,  Nicholas W.%Van Hise%NULL%1,  Robert M.%Fliegelman%NULL%1,  Jonathan%Pinsky%NULL%1,  Vishal%Didwania%NULL%1,  Michael%Anderson%NULL%1,  Melina%Diaz%NULL%1,  Kairav%Shah%NULL%1,  Vishnu V.%Chundi%NULL%1,  David W.%Hines%NULL%1,  Brian P.%Harting%NULL%1,  Kamo%Sidwha%NULL%1,  Brian%Yu%NULL%1,  Paul%Brune%NULL%1,  Anjum%Owaisi%NULL%1,  David%Beezhold%NULL%1,  Joseph%Kent%NULL%1,  Dana%Vais%NULL%1,  Alice%Han%NULL%1,  Neethi%Gowda%NULL%1,  Nishi%Sahgal%NULL%1,  Jan%Silverman%NULL%1,  Jonathan%Stake%NULL%1,  Jenie%Nepomuceno%NULL%1,  Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,  Anna%Daunt%NULL%2,  Anna%Daunt%NULL%0,  Sujit%Mukherjee%NULL%1,  Peter%Crook%NULL%1,  Roberta%Forlano%NULL%1,  Mara D%Kont%NULL%1,  Alessandra%Løchen%NULL%1,  Michaela%Vollmer%NULL%1,  Paul%Middleton%NULL%1,  Rebekah%Judge%NULL%1,  Christopher%Harlow%NULL%1,  Anet%Soubieres%NULL%1,  Graham%Cooke%NULL%1,  Peter J%White%NULL%1,  Timothy B%Hallett%NULL%1,  Paul%Aylin%NULL%1,  Neil%Ferguson%NULL%1,  Katharina%Hauck%NULL%1,  Mark R%Thursz%NULL%1,  Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,  Jeffrey%Burton%NULL%2,  Jeffrey%Burton%NULL%0,  Daniel%Fort%NULL%1,  Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,  Michael S.%Sherman%NULL%1,  Naaz%Fatteh%NULL%1,  Fabio%Vogel%NULL%1,  Jamie%Sacks%NULL%1,  Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,   P.% Mannam%null%1,   R.% Comer%null%1,   E.% Sinclair%null%1,   D. B.% McQuaid%null%1,   M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,  Farah%Kidwai-Khan%NULL%1,  Janet P.%Tate%NULL%1,  Lesley S.%Park%NULL%1,  Joseph T.%King%NULL%1,  Melissa%Skanderson%NULL%1,  Ronald G.%Hauser%NULL%1,  Anna%Schultze%NULL%0,  Christopher I.%Jarvis%NULL%1,  Mark%Holodniy%NULL%1,  Vincent Lo%Re%NULL%1,  Kathleen M.%Akgün%NULL%1,  Kristina%Crothers%NULL%1,  Tamar H.%Taddei%NULL%1,  Matthew S.%Freiberg%NULL%1,  Amy C.%Justice%NULL%1,   C. T.%Rentsch%null%1,   F.% Kidwai-Khan%null%1,   J. P.% Tate%null%1,   L. S.% Park%null%1,   J. T.% King%null%1,   M.% Skanderson%null%1,   R. G.% Hauser%null%1,   A.% Schultze%null%1,   C. I.% Jarvis%null%1,   M.% Holodniy%null%1,   V.% Lo Re%null%1,   K. M.% Akgun%null%1,   K.% Crothers%null%1,   T. H.% Taddei%null%1,   M. S.% Freiberg%null%1,   A. C. % Justice%null%1,  C. T.%Rentsch%null%1,  F.% Kidwai-Khan%null%1,  J. P.% Tate%null%1,  L. S.% Park%null%1,  J. T.% King%null%1,  M.% Skanderson%null%1,  R. G.% Hauser%null%1,  A.% Schultze%null%1,  C. I.% Jarvis%null%1,  M.% Holodniy%null%1,  V.% Lo Re%null%1,  K. M.% Akgun%null%1,  K.% Crothers%null%1,  T. H.% Taddei%null%1,  M. S.% Freiberg%null%1,  A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,  Jennifer%Beam%NULL%2,  Jennifer%Beam%NULL%0,  Haley%Maier%NULL%1,  Whitney%Haggerson%NULL%1,  Karen%Boudreau%NULL%1,  Jamie%Carlson%NULL%1,  Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,  Alexander E.%Ayala%NULL%1,  Chideraa C.%Ukeje%NULL%1,  Celeste S.%Witting%NULL%1,  William A.%Grobman%NULL%1,  Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,  Hannah C.%Jarvis%NULL%2,  Hannah C.%Jarvis%NULL%0,  Ezgi%Ozcan%NULL%1,  Thomas L. P.%Burns%NULL%1,  Rabia A.%Warraich%NULL%1,  Lisa J.%Amani%NULL%1,  Amina%Jaffer%NULL%1,  Stephanie%Paget%NULL%1,  Anand%Sivaramakrishnan%NULL%1,  Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,  Suzy%Gallier%NULL%2,  Suzy%Gallier%NULL%0,  Chris%Mainey%NULL%1,  Peter%Nightingale%NULL%2,  Peter%Nightingale%NULL%0,  David%McNulty%NULL%1,  Hannah%Crothers%NULL%1,  Felicity%Evison%NULL%1,  Katharine%Reeves%NULL%1,  Domenico%Pagano%NULL%1,  Alastair K%Denniston%NULL%1,  Krishnarajah%Nirantharakumar%NULL%0,  Peter%Diggle%NULL%1,  Simon%Ball%NULL%1,  Lylah%Irshad%NULL%1,  Maxim%Harris%NULL%1,  Theodore%Nabav%NULL%1,  A%Kolesnyk%NULL%1,  M%Ahmed%NULL%1,  A%Liaqat%NULL%1,  Tanya%Pankhurst%NULL%1,  Jamie%Coleman%NULL%1,  Chirag%Dave%NULL%1,  Khaled%ElFandi%NULL%1,  Rifat%Rashid%NULL%1,  Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,  Gregory A%Eschenauer%NULL%2,  Gregory A%Eschenauer%NULL%0,  Jonathan P%Troost%NULL%1,  Jonathan L%Golob%NULL%1,  Tejal N%Gandhi%NULL%1,  Lu%Wang%NULL%1,  Nina%Zhou%NULL%1,  Lindsay A%Petty%NULL%1,  Ji Hoon%Baang%NULL%1,  Nicholas O%Dillman%NULL%1,  David%Frame%NULL%1,  Kevin S%Gregg%NULL%1,  Dan R%Kaul%NULL%1,  Jerod%Nagel%NULL%1,  Twisha S%Patel%NULL%1,  Shiwei%Zhou%NULL%1,  Adam S%Lauring%NULL%1,  David A%Hanauer%NULL%1,  Emily%Martin%NULL%1,  Pratima%Sharma%NULL%1,  Christopher M%Fung%NULL%1,  Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,  Lei%Qian%NULL%2,  Lei%Qian%NULL%0,  Vennis%Hong%NULL%1,  Rong%Wei%NULL%2,  Rong%Wei%NULL%0,  Ron F.%Nadjafi%NULL%2,  Ron F.%Nadjafi%NULL%0,  Heidi%Fischer%NULL%1,  Zhuoxin%Li%NULL%1,  Sally F.%Shaw%NULL%1,  Susan L.%Caparosa%NULL%2,  Susan L.%Caparosa%NULL%0,  Claudia L.%Nau%NULL%1,  Tanmai%Saxena%NULL%1,  Gunter K.%Rieg%NULL%1,  Bradley K.%Ackerson%NULL%1,  Adam L.%Sharp%NULL%2,  Adam L.%Sharp%NULL%0,  Jacek%Skarbinski%NULL%2,  Jacek%Skarbinski%NULL%0,  Tej K.%Naik%NULL%1,  Sameer B.%Murali%NULL%2,  Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,  Juan Carlos%Nicolas%NULL%2,  Juan Carlos%Nicolas%NULL%0,  Jennifer R%Meeks%NULL%1,  Osman%Khan%NULL%1,  Alan%Pan%NULL%1,  Stephen L%Jones%NULL%1,  Faisal%Masud%NULL%1,  H Dirk%Sostman%NULL%1,  Robert%Phillips%NULL%1,  Julia D%Andrieni%NULL%1,  Bita A%Kash%NULL%1,  Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,  Arryn%Craney%NULL%1,  Phyllis%Ruggiero%NULL%1,  John%Sipley%NULL%1,  Lin%Cong%NULL%1,  Erika M.%Hissong%NULL%1,  Massimo%Loda%NULL%1,  Lars F.%Westblade%NULL%1,  Melissa%Cushing%NULL%2,  Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,   X.% Zhong%null%1,   Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,  Amanda%Zheutlin%NULL%2,  Amanda%Zheutlin%NULL%0,  Yu-Han%Kao%NULL%1,  Kristin%Ayers%NULL%1,  Susan%Gross%NULL%1,  Patricia%Kovatch%NULL%2,  Sharon%Nirenberg%NULL%2,  Alexander%Charney%NULL%1,  Girish%Nadkarni%NULL%1,  Jessica K%De Freitas%NULL%1,  Paul%O’Reilly%NULL%1,  Allan%Just%NULL%1,  Carol%Horowitz%NULL%1,  Glenn%Martin%NULL%1,  Andrea%Branch%NULL%1,  Benjamin S%Glicksberg%NULL%1,  Dennis%Charney%NULL%1,  David%Reich%NULL%2,  William K%Oh%NULL%1,  Eric%Schadt%NULL%2,  Rong%Chen%NULL%0,  Li%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,  Angela%Winegar%NULL%1,  Richard%Fogel%NULL%1,  Mohamad%Fakih%NULL%1,  Allison%Ottenbacher%NULL%1,  Christine%Jesser%NULL%1,  Angelo%Bufalino%NULL%1,  Ren-Huai%Huang%NULL%1,  Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,  Rebecca%Bendayan%NULL%1,  Mark%Ashworth%NULL%1,  Daniel M.%Bean%NULL%1,  Hiten%Dodhia%NULL%1,  Stevo%Durbaba%NULL%1,  Kevin%O'Gallagher%NULL%1,  Claire%Palmer%NULL%1,  Vasa%Curcin%NULL%1,  Elizabeth%Aitken%NULL%1,  William%Bernal%NULL%1,  Richard D.%Barker%NULL%1,  Sam%Norton%NULL%1,  Martin%Gulliford%NULL%1,  James T.H.%Teo%NULL%1,  James%Galloway%NULL%1,  Richard J.B.%Dobson%NULL%1,  Ajay M.%Shah%ajay.shah@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,  Carina%Marquez%NULL%1,  Emily%Crawford%NULL%1,  James%Peng%NULL%1,  Maya%Petersen%NULL%1,  Daniel%Schwab%NULL%1,  Joshua%Schwab%NULL%1,  Jackie%Martinez%NULL%1,  Diane%Jones%NULL%1,  Douglas%Black%NULL%1,  Monica%Gandhi%NULL%1,  Andrew D%Kerkhoff%NULL%1,  Vivek%Jain%NULL%1,  Francesco%Sergi%NULL%1,  Jon%Jacobo%NULL%1,  Susana%Rojas%NULL%1,  Valerie%Tulier-Laiwa%NULL%1,  Tracy%Gallardo-Brown%NULL%1,  Ayesha%Appa%NULL%1,  Charles%Chiu%NULL%1,  Mary%Rodgers%NULL%1,  John%Hackett%NULL%1,  NULL%NULL%NULL%0,  Amy%Kistler%NULL%1,  Samantha%Hao%NULL%1,  Jack%Kamm%NULL%1,  David%Dynerman%NULL%1,  Joshua%Batson%NULL%1,  Bryan%Greenhouse%NULL%1,  Joe%DeRisi%NULL%1,  Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,  Tiffany%Grimes%NULL%1,  Peng%Li%NULL%1,  Matthew%Might%NULL%1,  Fernando%Ovalle%NULL%1,  Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,  Natalie%Achamallah%NULL%1,  Hongwei%Ji%NULL%1,  Brian L.%Claggett%NULL%1,  Nancy%Sun%NULL%1,  Patrick%Botting%NULL%1,  Trevor-Trung%Nguyen%NULL%1,  Eric%Luong%NULL%1,  Elizabeth H.%Kim%NULL%1,  Eunice%Park%NULL%1,  Yunxian%Liu%NULL%1,  Ryan%Rosenberry%NULL%1,  Yuri%Matusov%NULL%1,  Steven%Zhao%NULL%1,  Isabel%Pedraza%NULL%1,  Tanzira%Zaman%NULL%1,  Michael%Thompson%NULL%1,  Koen%Raedschelders%NULL%1,  Anders H.%Berg%NULL%2,  Anders H.%Berg%NULL%0,  Jonathan D.%Grein%NULL%1,  Paul W.%Noble%NULL%1,  Sumeet S.%Chugh%NULL%1,  C. Noel%Bairey Merz%NULL%1,  Eduardo%Marbán%NULL%1,  Jennifer E.%Van Eyk%NULL%1,  Scott D.%Solomon%NULL%1,  Christine M.%Albert%NULL%1,  Peter%Chen%NULL%1,  Susan%Cheng%NULL%3,  Yu Ru%Kou%NULL%8,  Yu Ru%Kou%NULL%0,  Yu Ru%Kou%NULL%0,  Susan%Cheng%biodatacore@cshs.org%0,  Susan%Cheng%biodatacore@cshs.org%0,  Yu Ru%Kou%NULL%0,  Yu Ru%Kou%NULL%0,  Yu Ru%Kou%NULL%0,  Yu Ru%Kou%NULL%0,  Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,  Penelope%Strid%NULL%1,  Van T.%Tong%NULL%1,  Kate%Woodworth%NULL%1,  Romeo R.%Galang%NULL%1,  Laura D.%Zambrano%NULL%1,  John%Nahabedian%NULL%1,  Kayla%Anderson%NULL%1,  Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,  Jacob%Fiksel%NULL%2,  Jacob%Fiksel%NULL%0,  John%Muschelli%NULL%2,  John%Muschelli%NULL%0,  Matthew L.%Robinson%NULL%2,  Matthew L.%Robinson%NULL%0,  Masoud%Rouhizadeh%NULL%2,  Masoud%Rouhizadeh%NULL%0,  Jamie%Perin%NULL%2,  Jamie%Perin%NULL%0,  Grant%Schumock%NULL%2,  Grant%Schumock%NULL%0,  Paul%Nagy%NULL%2,  Paul%Nagy%NULL%0,  Josh H.%Gray%NULL%2,  Josh H.%Gray%NULL%0,  Harsha%Malapati%NULL%2,  Harsha%Malapati%NULL%0,  Mariam%Ghobadi-Krueger%NULL%2,  Mariam%Ghobadi-Krueger%NULL%0,  Timothy M.%Niessen%NULL%1,  Bo Soo%Kim%NULL%1,  Peter M.%Hill%NULL%1,  M. Shafeeq%Ahmed%NULL%1,  Eric D.%Dobkin%NULL%1,  Renee%Blanding%NULL%1,  Jennifer%Abele%NULL%1,  Bonnie%Woods%NULL%1,  Kenneth%Harkness%NULL%1,  David R.%Thiemann%NULL%1,  Mary G.%Bowring%NULL%1,  Aalok B.%Shah%NULL%2,  Aalok B.%Shah%NULL%0,  Mei-Cheng%Wang%NULL%1,  Karen%Bandeen-Roche%NULL%1,  Antony%Rosen%NULL%1,  Scott L.%Zeger%NULL%2,  Scott L.%Zeger%NULL%0,  Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,  Megan%McCullough%NULL%0,  Megan%McCullough%NULL%0,  Michael A.%Fuery%NULL%0,  Fouad%Chouairi%NULL%0,  Fouad%Chouairi%NULL%0,  Craig%Keating%NULL%0,  Neal G.%Ravindra%NULL%0,  P. Elliott%Miller%NULL%0,  Maricar%Malinis%NULL%0,  Nitu%Kashyap%NULL%0,  Allen%Hsiao%NULL%0,  F. Perry%Wilson%NULL%0,  Jeptha P.%Curtis%NULL%0,  Matthew%Grant%NULL%0,  Eric J.%Velazquez%NULL%0,  Nihar R.%Desai%NULL%0,  Tariq%Ahmad%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1775,6 +1934,9 @@
       <c r="H1" t="s">
         <v>73</v>
       </c>
+      <c r="I1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1790,16 +1952,19 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1981,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -1826,6 +1991,9 @@
       </c>
       <c r="H3" t="s">
         <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4">
@@ -1842,7 +2010,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -1852,6 +2020,9 @@
       </c>
       <c r="H4" t="s">
         <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="5">
@@ -1868,7 +2039,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -1878,6 +2049,9 @@
       </c>
       <c r="H5" t="s">
         <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6">
@@ -1894,16 +2068,19 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="H6" t="s">
         <v>98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7">
@@ -1920,16 +2097,19 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
         <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="8">
@@ -1946,7 +2126,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -1956,6 +2136,9 @@
       </c>
       <c r="H8" t="s">
         <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9">
@@ -1972,16 +2155,19 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
         <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10">
@@ -1998,16 +2184,19 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
         <v>114</v>
+      </c>
+      <c r="I10" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11">
@@ -2024,7 +2213,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -2034,6 +2223,9 @@
       </c>
       <c r="H11" t="s">
         <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12">
@@ -2050,7 +2242,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -2060,6 +2252,9 @@
       </c>
       <c r="H12" t="s">
         <v>123</v>
+      </c>
+      <c r="I12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="13">
@@ -2076,7 +2271,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>296</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -2086,6 +2281,9 @@
       </c>
       <c r="H13" t="s">
         <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="14">
@@ -2102,7 +2300,7 @@
         <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2112,6 +2310,9 @@
       </c>
       <c r="H14" t="s">
         <v>132</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -2128,7 +2329,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -2138,6 +2339,9 @@
       </c>
       <c r="H15" t="s">
         <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +2358,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -2164,6 +2368,9 @@
       </c>
       <c r="H16" t="s">
         <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="17">
@@ -2180,16 +2387,19 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
         <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="18">
@@ -2206,7 +2416,7 @@
         <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -2216,6 +2426,9 @@
       </c>
       <c r="H18" t="s">
         <v>149</v>
+      </c>
+      <c r="I18" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="19">
@@ -2232,7 +2445,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -2242,6 +2455,9 @@
       </c>
       <c r="H19" t="s">
         <v>154</v>
+      </c>
+      <c r="I19" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20">
@@ -2258,16 +2474,19 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
         <v>158</v>
+      </c>
+      <c r="I20" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2503,7 @@
         <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -2294,6 +2513,9 @@
       </c>
       <c r="H21" t="s">
         <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="22">
@@ -2310,7 +2532,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -2320,6 +2542,9 @@
       </c>
       <c r="H22" t="s">
         <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2561,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>307</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -2346,6 +2571,9 @@
       </c>
       <c r="H23" t="s">
         <v>171</v>
+      </c>
+      <c r="I23" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="24">
@@ -2373,6 +2601,9 @@
       <c r="H24" t="s">
         <v>94</v>
       </c>
+      <c r="I24" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -2388,7 +2619,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -2398,6 +2629,9 @@
       </c>
       <c r="H25" t="s">
         <v>176</v>
+      </c>
+      <c r="I25" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="26">
@@ -2414,7 +2648,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -2424,6 +2658,9 @@
       </c>
       <c r="H26" t="s">
         <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="27">
@@ -2440,7 +2677,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -2450,6 +2687,9 @@
       </c>
       <c r="H27" t="s">
         <v>186</v>
+      </c>
+      <c r="I27" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="28">
@@ -2466,7 +2706,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -2476,6 +2716,9 @@
       </c>
       <c r="H28" t="s">
         <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="29">
@@ -2492,7 +2735,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -2502,6 +2745,9 @@
       </c>
       <c r="H29" t="s">
         <v>94</v>
+      </c>
+      <c r="I29" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="30">
@@ -2518,16 +2764,19 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s">
         <v>198</v>
+      </c>
+      <c r="I30" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="31">
@@ -2544,16 +2793,19 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="H31" t="s">
         <v>202</v>
+      </c>
+      <c r="I31" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="32">
@@ -2581,6 +2833,9 @@
       <c r="H32" t="s">
         <v>94</v>
       </c>
+      <c r="I32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
@@ -2596,7 +2851,7 @@
         <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -2606,6 +2861,9 @@
       </c>
       <c r="H33" t="s">
         <v>207</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="34">
@@ -2622,7 +2880,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -2632,6 +2890,9 @@
       </c>
       <c r="H34" t="s">
         <v>212</v>
+      </c>
+      <c r="I34" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="35">
@@ -2648,7 +2909,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -2658,6 +2919,9 @@
       </c>
       <c r="H35" t="s">
         <v>217</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="36">
@@ -2674,7 +2938,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -2684,6 +2948,9 @@
       </c>
       <c r="H36" t="s">
         <v>222</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="37">
@@ -2700,7 +2967,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>319</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -2710,6 +2977,9 @@
       </c>
       <c r="H37" t="s">
         <v>227</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -2726,7 +2996,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -2736,6 +3006,9 @@
       </c>
       <c r="H38" t="s">
         <v>94</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="39">
@@ -2752,7 +3025,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -2762,6 +3035,9 @@
       </c>
       <c r="H39" t="s">
         <v>186</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="40">
@@ -2778,7 +3054,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -2788,6 +3064,9 @@
       </c>
       <c r="H40" t="s">
         <v>240</v>
+      </c>
+      <c r="I40" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="41">
@@ -2804,16 +3083,19 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
         <v>244</v>
+      </c>
+      <c r="I41" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="42">
@@ -2830,7 +3112,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -2840,6 +3122,9 @@
       </c>
       <c r="H42" t="s">
         <v>249</v>
+      </c>
+      <c r="I42" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="43">
@@ -2856,7 +3141,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -2866,6 +3151,9 @@
       </c>
       <c r="H43" t="s">
         <v>254</v>
+      </c>
+      <c r="I43" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="44">
@@ -2882,7 +3170,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -2892,6 +3180,9 @@
       </c>
       <c r="H44" t="s">
         <v>94</v>
+      </c>
+      <c r="I44" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="45">
@@ -2908,7 +3199,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -2918,6 +3209,9 @@
       </c>
       <c r="H45" t="s">
         <v>94</v>
+      </c>
+      <c r="I45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="46">
@@ -2934,7 +3228,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -2944,6 +3238,9 @@
       </c>
       <c r="H46" t="s">
         <v>154</v>
+      </c>
+      <c r="I46" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="47">
@@ -2960,7 +3257,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -2970,6 +3267,9 @@
       </c>
       <c r="H47" t="s">
         <v>271</v>
+      </c>
+      <c r="I47" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="48">
@@ -2986,7 +3286,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -2996,6 +3296,9 @@
       </c>
       <c r="H48" t="s">
         <v>94</v>
+      </c>
+      <c r="I48" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="49">
@@ -3012,7 +3315,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -3022,6 +3325,9 @@
       </c>
       <c r="H49" t="s">
         <v>94</v>
+      </c>
+      <c r="I49" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="50">
@@ -3038,7 +3344,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>
@@ -3048,6 +3354,9 @@
       </c>
       <c r="H50" t="s">
         <v>89</v>
+      </c>
+      <c r="I50" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="51">

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="521">
   <si>
     <t>Doi</t>
   </si>
@@ -1545,6 +1545,570 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,  Megan%McCullough%NULL%0,  Megan%McCullough%NULL%0,  Michael A.%Fuery%NULL%0,  Fouad%Chouairi%NULL%0,  Fouad%Chouairi%NULL%0,  Craig%Keating%NULL%0,  Neal G.%Ravindra%NULL%0,  P. Elliott%Miller%NULL%0,  Maricar%Malinis%NULL%0,  Nitu%Kashyap%NULL%0,  Allen%Hsiao%NULL%0,  F. Perry%Wilson%NULL%0,  Jeptha P.%Curtis%NULL%0,  Matthew%Grant%NULL%0,  Eric J.%Velazquez%NULL%0,  Nihar R.%Desai%NULL%0,  Tariq%Ahmad%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,    R. U.% Shah%null%1,    M.% Bale%null%1,    J. B.% Peacock%null%1,    B.% Berger%null%1,    A.% Brown%null%1,    S.% Mann%null%1,    W.% West%null%1,    V.% Martin%null%1,    V.% Fernandez%null%1,    S.% Grineski%null%1,    B. J.% Brintz%null%1,    M. H.% Samore%null%1,    M. J.% Ferrari%null%1,    D. T.% Leung%null%1,    L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,   Samuel L%Bruce%NULL%1,   Cody L%Slater%NULL%1,   Jonathan R%Tiao%NULL%1,   Matthew R%Baldwin%NULL%1,   R Graham%Barr%NULL%1,   Bernard P%Chang%NULL%1,   Katherine H%Chau%NULL%1,   Justin J%Choi%NULL%1,   Nicholas%Gavin%NULL%1,   Parag%Goyal%NULL%1,   Angela M%Mills%NULL%1,   Ashmi A%Patel%NULL%1,   Marie-Laure S%Romney%NULL%1,   Monika M%Safford%NULL%1,   Neil W%Schluger%NULL%1,   Soumitra%Sengupta%NULL%1,   Magdalena E%Sobieszczyk%NULL%0,   Jason E%Zucker%NULL%1,   Paul A%Asadourian%NULL%1,   Fletcher M%Bell%NULL%1,   Rebekah%Boyd%NULL%1,   Matthew F%Cohen%NULL%1,   MacAlistair I%Colquhoun%NULL%1,   Lucy A%Colville%NULL%1,   Joseph H%de Jonge%NULL%1,   Lyle B%Dershowitz%NULL%1,   Shirin A%Dey%NULL%1,   Katherine A%Eiseman%NULL%1,   Zachary P%Girvin%NULL%1,   Daniella T%Goni%NULL%1,   Amro A%Harb%NULL%1,   Nicholas%Herzik%NULL%1,   Sarah%Householder%NULL%1,   Lara E%Karaaslan%NULL%1,   Heather%Lee%NULL%1,   Evan%Lieberman%NULL%1,   Andrew%Ling%NULL%1,   Ree%Lu%NULL%1,   Arthur Y%Shou%NULL%1,   Alexander C%Sisti%NULL%1,   Zachary E%Snow%NULL%1,   Colin P%Sperring%NULL%1,   Yuqing%Xiong%NULL%1,   Henry W%Zhou%NULL%1,   Karthik%Natarajan%NULL%1,   George%Hripcsak%NULL%1,   Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,   Megan%McCullough%NULL%4,   Megan%McCullough%NULL%0,   Michael A.%Fuery%NULL%2,   Fouad%Chouairi%NULL%4,   Fouad%Chouairi%NULL%0,   Craig%Keating%NULL%2,   Neal G.%Ravindra%NULL%2,   P. Elliott%Miller%NULL%2,   Maricar%Malinis%NULL%2,   Nitu%Kashyap%NULL%2,   Allen%Hsiao%NULL%2,   F. Perry%Wilson%NULL%2,   Jeptha P.%Curtis%NULL%2,   Matthew%Grant%NULL%2,   Eric J.%Velazquez%NULL%2,   Nihar R.%Desai%NULL%2,   Tariq%Ahmad%NULL%2,   Chiara%Lazzeri%NULL%18,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,   Karen K.%Wong%NULL%1,   Christine M.%Szablewski%NULL%1,   Priti R.%Patel%NULL%1,   John%Rossow%NULL%1,   Juliana%da Silva%NULL%1,   Pavithra%Natarajan%NULL%1,   Sapna Bamrah%Morris%NULL%3,   Robyn Neblett%Fanfair%NULL%1,   Jessica%Rogers-Brown%NULL%1,   Beau B.%Bruce%NULL%1,   Sean D.%Browning%NULL%1,   Alfonso C.%Hernandez-Romieu%NULL%2,   Nathan W.%Furukawa%NULL%1,   Mohleen%Kang%NULL%1,   Mary E.%Evans%NULL%1,   Nadine%Oosmanally%NULL%1,   Melissa%Tobin-D’Angelo%NULL%1,   Cherie%Drenzek%NULL%1,   David J.%Murphy%NULL%0,   Julie%Hollberg%NULL%1,   James M.%Blum%NULL%0,   Robert%Jansen%NULL%1,   David W.%Wright%NULL%1,   William M.%Sewell%NULL%1,   Jack D.%Owens%NULL%1,   Benjamin%Lefkove%NULL%1,   Frank W.%Brown%NULL%1,   Deron C.%Burton%NULL%1,   Timothy M.%Uyeki%NULL%3,   Stephanie R.%Bialek%NULL%1,   Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,   Jasmine A.%Mack%NULL%1,   Maxwell%Salvatore%NULL%1,   Swaraaj Prabhu%Sankar%NULL%1,   Thomas S.%Valley%NULL%1,   Karandeep%Singh%NULL%1,   Brahmajee K.%Nallamothu%NULL%1,   Sachin%Kheterpal%NULL%1,   Lynda%Lisabeth%NULL%1,   Lars G.%Fritsche%NULL%1,   Bhramar%Mukherjee%NULL%1,    T.%Gu%null%1,    J. A.% Mack%null%1,    M.% Salvatore%null%1,    S. P.% Sankar%null%1,    T. S.% Valley%null%1,    K.% Singh%null%1,    B. K.% Nallamothu%null%1,    S.% Kheterpal%null%1,    L.% Lisabeth%null%1,    L. G.% Fritsche%null%1,    B. G. % Mukherjee%null%1,   T.%Gu%null%1,   J. A.% Mack%null%1,   M.% Salvatore%null%1,   S. P.% Sankar%null%1,   T. S.% Valley%null%1,   K.% Singh%null%1,   B. K.% Nallamothu%null%1,   S.% Kheterpal%null%1,   L.% Lisabeth%null%1,   L. G.% Fritsche%null%1,   B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,    S.% Nirenberg%null%1,    P.% Kovatch%null%1,    K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,   Shikha%Garg%NULL%1,   Alissa%O’Halloran%NULL%1,   Michael%Whitaker%NULL%1,   Huong%Pham%NULL%1,   Evan J%Anderson%NULL%1,   Isaac%Armistead%NULL%1,   Nancy M%Bennett%NULL%1,   Laurie%Billing%NULL%1,   Kathryn%Como-Sabetti%NULL%1,   Mary%Hill%NULL%1,   Sue%Kim%NULL%1,   Maya L%Monroe%NULL%1,   Alison%Muse%NULL%1,   Arthur L%Reingold%NULL%1,   William%Schaffner%NULL%1,   Melissa%Sutton%NULL%1,   H Keipp%Talbot%NULL%1,   Salina M%Torres%NULL%1,   Kimberly%Yousey-Hindes%NULL%1,   Rachel%Holstein%NULL%1,   Charisse%Cummings%NULL%1,   Lynette%Brammer%NULL%1,   Aron J%Hall%NULL%1,   Alicia M%Fry%NULL%1,   Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,    S.% Richardson%null%1,    K.% Coppa%null%1,    D. P.% Barnaby%null%1,    T.% McGinn%null%1,    L. B.% Becker%null%1,    K. W.% Davidson%null%1,    S. L.% Cohen%null%1,    J. S.% Hirsch%null%1,    T.% Zanos%null%1,      % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,    L. H.% Nguyen%null%1,    D. A.% Drew%null%1,    M. S.% Graham%null%1,    E. T.% Warner%null%1,    A. D.% Joshi%null%1,    C. M.% Astley%null%1,    C.-G.% Guo%null%1,    W.% Ma%null%1,    R. S.% Mehta%null%1,    S.% Kwon%null%1,    M.% Song%null%1,    R.% Davies%null%1,    J.% Capdevila%null%1,    K. A.% Lee%null%1,    M. N.% Lochlainn%null%1,    T.% Varsavsky%null%1,    C. H.% Sudre%null%1,    J.% Wolf%null%1,    Y. C.% Cozier%null%1,    L.% Rosenberg%null%1,    L. R.% Wilkens%null%1,    C. A.% Haiman%null%1,    L. L.% Marchand%null%1,    J. R.% Palmer%null%1,    T. D.% Spector%null%1,    S.% Ourselin%null%1,    C. J.% Steves%null%1,    A. T.% Chan%null%1,      % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,   Jienchi%Dorward%NULL%1,   Ana%Correa%NULL%1,   Nicholas%Jones%NULL%1,   Oluwafunmi%Akinyemi%NULL%1,   Gayatri%Amirthalingam%NULL%1,   Nick%Andrews%NULL%1,   Rachel%Byford%NULL%1,   Gavin%Dabrera%NULL%1,   Alex%Elliot%NULL%1,   Joanna%Ellis%NULL%0,   Filipa%Ferreira%NULL%1,   Jamie%Lopez Bernal%NULL%1,   Cecilia%Okusi%NULL%1,   Mary%Ramsay%NULL%1,   Julian%Sherlock%NULL%1,   Gillian%Smith%NULL%1,   John%Williams%NULL%1,   Gary%Howsam%NULL%1,   Maria%Zambon%NULL%0,   Mark%Joy%NULL%1,   F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,   Johanna%Dolle%NULL%2,   Johanna%Dolle%NULL%0,   Sheila%Grami%NULL%1,   Richard%Adule%NULL%1,   Zeyu%Li%NULL%1,   Kathleen%Tatem%NULL%1,   Chinyere%Anyaogu%NULL%1,   Stephen%Apfelroth%NULL%1,   Raji%Ayinla%NULL%2,   Raji%Ayinla%NULL%0,   Noella%Boma%NULL%1,   Terence%Brady%NULL%1,   Braulio F.%Cosme-Thormann%NULL%1,   Roseann%Costarella%NULL%1,   Kenra%Ford%NULL%1,   Kecia%Gaither%NULL%1,   Jessica%Jacobson%NULL%1,   Marc%Kanter%NULL%1,   Stuart%Kessler%NULL%1,   Ross B.%Kristal%NULL%1,   Joseph J.%Lieber%NULL%1,   Vikramjit%Mukherjee%NULL%1,   Vincent%Rizzo%NULL%1,   Madden%Rowell%NULL%1,   David%Stevens%NULL%1,   Elana%Sydney%NULL%1,   Andrew%Wallach%NULL%2,   Andrew%Wallach%NULL%0,   Dave A.%Chokshi%NULL%1,   Nichola%Davis%NULL%1,   NULL%NULL%NULL%0,   Sze Yan%Liu%NULL%2,   Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,   Mark%Caridi-Scheible%NULL%0,   James M.%Blum%NULL%0,   Chad%Robichaux%NULL%1,   Colleen%Kraft%NULL%1,   Jesse T.%Jacob%NULL%1,   Craig S.%Jabaley%NULL%0,   David%Carpenter%NULL%1,   Roberta%Kaplow%NULL%1,   Alfonso C.%Hernandez-Romieu%NULL%0,   Max W.%Adelman%NULL%0,   Greg S.%Martin%NULL%0,   Craig M.%Coopersmith%NULL%1,   David J.%Murphy%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,    Seunghee%Kim-Schulze%null%1,    Hsin-Hui%Huang%null%1,    Noam D.%Beckmann%null%1,    Sharon%Nirenberg%null%1,    Bo%Wang%null%0,    Yonit%Lavin%null%1,    Talia H.%Swartz%null%1,    Deepu%Madduri%null%1,    Aryeh%Stock%null%1,    Thomas U.%Marron%null%1,    Hui%Xie%null%1,    Manishkumar%Patel%null%1,    Kevin%Tuballes%null%1,    Oliver%Oekelen%null%1,    Adeeb%Rahman%null%1,    Patricia%Kovatch%null%0,    Judith A.%Aberg%null%1,    Eric%Schadt%null%1,    Sundar%Jagannath%null%1,    Madhu%Mazumdar%null%1,    Alexander W.%Charney%null%1,    Adolfo%Firpo-Betancourt%null%1,    Damodara Rao%Mendu%null%1,    Jeffrey%Jhang%null%2,    David%Reich%null%1,    Keith%Sigel%null%1,    Carlos%Cordon-Cardo%null%0,    Marc%Feldmann%null%1,    Samir%Parekh%null%1,    Miriam%Merad%null%1,    Sacha%Gnjatic%null%1,   Diane Marie%Del Valle%null%1,   Seunghee%Kim-Schulze%null%1,   Hsin-Hui%Huang%null%1,   Noam D.%Beckmann%null%1,   Sharon%Nirenberg%null%2,   Bo%Wang%null%2,   Yonit%Lavin%null%1,   Talia H.%Swartz%null%1,   Deepu%Madduri%null%1,   Aryeh%Stock%null%1,   Thomas U.%Marron%null%1,   Hui%Xie%null%2,   Manishkumar%Patel%null%1,   Kevin%Tuballes%null%1,   Oliver%Oekelen%null%1,   Adeeb%Rahman%null%1,   Patricia%Kovatch%null%2,   Judith A.%Aberg%null%1,   Eric%Schadt%null%2,   Sundar%Jagannath%null%1,   Madhu%Mazumdar%null%1,   Alexander W.%Charney%null%0,   Adolfo%Firpo-Betancourt%null%1,   Damodara Rao%Mendu%null%1,   Jeffrey%Jhang%null%2,   David%Reich%null%2,   Keith%Sigel%null%1,   Carlos%Cordon-Cardo%null%0,   Marc%Feldmann%null%1,   Samir%Parekh%null%1,   Miriam%Merad%null%1,   Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,   David R.%Jenkins%NULL%1,   Jatinder S.%Minhas%NULL%1,   Laura J.%Gray%NULL%1,   Julian%Tang%NULL%1,   Caroline%Williams%NULL%1,   Shirley%Sze%NULL%1,   Daniel%Pan%NULL%1,   William%Jones%NULL%1,   Raman%Verma%NULL%1,   Scott%Knapp%NULL%1,   Rupert%Major%NULL%1,   Melanie%Davies%NULL%1,   Nigel%Brunskill%NULL%1,   Martin%Wiselka%NULL%1,   Chris%Brightling%NULL%1,   Kamlesh%Khunti%NULL%1,   Pranab%Haldar%NULL%1,   Manish%Pareek%mp426@le.ac.uk%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,   Kelly E%Hathorn%NULL%2,   Kelly E%Hathorn%NULL%0,   Walker D%Redd%NULL%1,   Nicolette J%Rodriguez%NULL%1,   Joyce C%Zhou%NULL%1,   Ahmad Najdat%Bazarbashi%NULL%1,   Cheikh%Njie%NULL%1,   Danny%Wong%NULL%1,   Quoc-Dien%Trinh%NULL%1,   Lin%Shen%NULL%1,   Valerie E%Stone%NULL%2,   Valerie E%Stone%NULL%0,   Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,    S.% Apewokin%null%1,    A. A.% Wells%null%1,    A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,   Thomas E.%Webb%NULL%2,   Thomas E.%Webb%NULL%0,   Benjamin C.%Mcloughlin%NULL%2,   Benjamin C.%Mcloughlin%NULL%0,   Imran%Mannan%NULL%2,   Imran%Mannan%NULL%0,   Arshad%Rather%NULL%2,   Arshad%Rather%NULL%0,   Paul%Knopp%NULL%1,   Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,   Rajat%Suri%NULL%2,   Rajat%Suri%NULL%0,   Iheanacho O.%Emeruwa%NULL%2,   Iheanacho O.%Emeruwa%NULL%0,   Robert J.%Stretch%NULL%1,   Roxana Y.%Cortes-Lopez%NULL%2,   Roxana Y.%Cortes-Lopez%NULL%0,   Alexander%Sherman%NULL%1,   Catherine C.%Lindsay%NULL%1,   Jennifer A.%Fulcher%NULL%1,   David%Goodman-Meza%NULL%2,   David%Goodman-Meza%NULL%0,   Anil%Sapru%NULL%2,   Anil%Sapru%NULL%0,   Russell G.%Buhr%NULL%1,   Steven Y.%Chang%NULL%2,   Steven Y.%Chang%NULL%0,   Tisha%Wang%NULL%1,   Nida%Qadir%NULL%1,   Giordano%Madeddu%NULL%8,   Giordano%Madeddu%NULL%0,   Giordano%Madeddu%NULL%0,   Ana C.%Monteiro%NULL%2,   Ana C.%Monteiro%NULL%0,   Giordano%Madeddu%NULL%0,   Giordano%Madeddu%NULL%0,   Giordano%Madeddu%NULL%0,   Giordano%Madeddu%NULL%0,   Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,    D.% Stefanov%null%1,    A. S.% Chau%null%1,    A. G.% Weber%null%1,    G. S.% Marder%null%1,    B.% Kaplan%null%1,    P.% Malhotra%null%1,    O.% Bloom%null%1,    A.% Liu%null%1,    M.% Lesser%null%1,    N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,   Catherine A.%O’Donnell%NULL%2,   Bhautesh Dinesh%Jani%NULL%1,   Evangelia%Demou%NULL%1,   Frederick K.%Ho%NULL%1,   Carlos%Celis-Morales%NULL%1,   Barbara I.%Nicholl%NULL%1,   Frances S.%Mair%NULL%2,   Paul%Welsh%NULL%2,   Naveed%Sattar%NULL%2,   Jill P.%Pell%NULL%2,   S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,   Alex J%Walker%NULL%1,   Krishnan%Bhaskaran%NULL%1,   Seb%Bacon%NULL%1,   Chris%Bates%NULL%1,   Caroline E%Morton%NULL%1,   Helen J%Curtis%NULL%1,   Amir%Mehrkar%NULL%1,   David%Evans%NULL%1,   Peter%Inglesby%NULL%1,   Jonathan%Cockburn%NULL%1,   Helen I%McDonald%NULL%1,   Brian%MacKenna%NULL%1,   Laurie%Tomlinson%NULL%1,   Ian J%Douglas%NULL%1,   Christopher T%Rentsch%NULL%1,   Rohini%Mathur%NULL%1,   Angel YS%Wong%NULL%1,   Richard%Grieve%NULL%1,   David%Harrison%NULL%1,   Harriet%Forbes%NULL%1,   Anna%Schultze%NULL%2,   Richard%Croker%NULL%1,   John%Parry%NULL%1,   Frank%Hester%NULL%1,   Sam%Harper%NULL%1,   Rafael%Perera%NULL%1,   Stephen JW%Evans%NULL%1,   Liam%Smeeth%NULL%1,   Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,   Ajay%Bhasin%NULL%1,   Joseph M.%Feinglass%NULL%1,   Michael P.%Angarone%NULL%1,   Elaine R.%Cohen%NULL%1,   Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,   Andrew%Gangemi%NULL%1,   Robert%Marron%NULL%1,   Junad%Chowdhury%NULL%1,   Ibraheem%Yousef%NULL%1,   Matthew%Zheng%NULL%1,   Nicole%Mills%NULL%1,   Lauren%Tragesser%NULL%1,   Julie%Giurintano%NULL%1,   Rohit%Gupta%NULL%0,   Matthew%Gordon%NULL%0,   Parth%Rali%NULL%2,   Parth%Rali%NULL%0,   Gilbert%D'Alonso%NULL%1,   David%Fleece%NULL%1,   Huaqing%Zhao%NULL%0,   Nicole%Patlakh%NULL%0,   Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,   Nathan C.%Skorodin%nskorodin@midcusa.com%1,   Nicholas W.%Van Hise%NULL%1,   Robert M.%Fliegelman%NULL%1,   Jonathan%Pinsky%NULL%1,   Vishal%Didwania%NULL%1,   Michael%Anderson%NULL%1,   Melina%Diaz%NULL%1,   Kairav%Shah%NULL%1,   Vishnu V.%Chundi%NULL%1,   David W.%Hines%NULL%1,   Brian P.%Harting%NULL%1,   Kamo%Sidwha%NULL%1,   Brian%Yu%NULL%1,   Paul%Brune%NULL%1,   Anjum%Owaisi%NULL%1,   David%Beezhold%NULL%1,   Joseph%Kent%NULL%1,   Dana%Vais%NULL%1,   Alice%Han%NULL%1,   Neethi%Gowda%NULL%1,   Nishi%Sahgal%NULL%1,   Jan%Silverman%NULL%1,   Jonathan%Stake%NULL%1,   Jenie%Nepomuceno%NULL%1,   Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,   Anna%Daunt%NULL%2,   Anna%Daunt%NULL%0,   Sujit%Mukherjee%NULL%1,   Peter%Crook%NULL%1,   Roberta%Forlano%NULL%1,   Mara D%Kont%NULL%1,   Alessandra%Løchen%NULL%1,   Michaela%Vollmer%NULL%1,   Paul%Middleton%NULL%1,   Rebekah%Judge%NULL%1,   Christopher%Harlow%NULL%1,   Anet%Soubieres%NULL%1,   Graham%Cooke%NULL%1,   Peter J%White%NULL%1,   Timothy B%Hallett%NULL%1,   Paul%Aylin%NULL%1,   Neil%Ferguson%NULL%1,   Katharina%Hauck%NULL%1,   Mark R%Thursz%NULL%1,   Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,   Jeffrey%Burton%NULL%2,   Jeffrey%Burton%NULL%0,   Daniel%Fort%NULL%1,   Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,   Michael S.%Sherman%NULL%1,   Naaz%Fatteh%NULL%1,   Fabio%Vogel%NULL%1,   Jamie%Sacks%NULL%1,   Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,    P.% Mannam%null%1,    R.% Comer%null%1,    E.% Sinclair%null%1,    D. B.% McQuaid%null%1,    M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,   Farah%Kidwai-Khan%NULL%1,   Janet P.%Tate%NULL%1,   Lesley S.%Park%NULL%1,   Joseph T.%King%NULL%1,   Melissa%Skanderson%NULL%1,   Ronald G.%Hauser%NULL%1,   Anna%Schultze%NULL%0,   Christopher I.%Jarvis%NULL%1,   Mark%Holodniy%NULL%1,   Vincent Lo%Re%NULL%1,   Kathleen M.%Akgün%NULL%1,   Kristina%Crothers%NULL%1,   Tamar H.%Taddei%NULL%1,   Matthew S.%Freiberg%NULL%1,   Amy C.%Justice%NULL%1,    C. T.%Rentsch%null%1,    F.% Kidwai-Khan%null%1,    J. P.% Tate%null%1,    L. S.% Park%null%1,    J. T.% King%null%1,    M.% Skanderson%null%1,    R. G.% Hauser%null%1,    A.% Schultze%null%1,    C. I.% Jarvis%null%1,    M.% Holodniy%null%1,    V.% Lo Re%null%1,    K. M.% Akgun%null%1,    K.% Crothers%null%1,    T. H.% Taddei%null%1,    M. S.% Freiberg%null%1,    A. C. % Justice%null%1,   C. T.%Rentsch%null%1,   F.% Kidwai-Khan%null%1,   J. P.% Tate%null%1,   L. S.% Park%null%1,   J. T.% King%null%1,   M.% Skanderson%null%1,   R. G.% Hauser%null%1,   A.% Schultze%null%1,   C. I.% Jarvis%null%1,   M.% Holodniy%null%1,   V.% Lo Re%null%1,   K. M.% Akgun%null%1,   K.% Crothers%null%1,   T. H.% Taddei%null%1,   M. S.% Freiberg%null%1,   A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,   Jennifer%Beam%NULL%2,   Jennifer%Beam%NULL%0,   Haley%Maier%NULL%1,   Whitney%Haggerson%NULL%1,   Karen%Boudreau%NULL%1,   Jamie%Carlson%NULL%1,   Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,   Alexander E.%Ayala%NULL%1,   Chideraa C.%Ukeje%NULL%1,   Celeste S.%Witting%NULL%1,   William A.%Grobman%NULL%1,   Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,   Hannah C.%Jarvis%NULL%2,   Hannah C.%Jarvis%NULL%0,   Ezgi%Ozcan%NULL%1,   Thomas L. P.%Burns%NULL%1,   Rabia A.%Warraich%NULL%1,   Lisa J.%Amani%NULL%1,   Amina%Jaffer%NULL%1,   Stephanie%Paget%NULL%1,   Anand%Sivaramakrishnan%NULL%1,   Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,   Suzy%Gallier%NULL%2,   Suzy%Gallier%NULL%0,   Chris%Mainey%NULL%1,   Peter%Nightingale%NULL%2,   Peter%Nightingale%NULL%0,   David%McNulty%NULL%1,   Hannah%Crothers%NULL%1,   Felicity%Evison%NULL%1,   Katharine%Reeves%NULL%1,   Domenico%Pagano%NULL%1,   Alastair K%Denniston%NULL%1,   Krishnarajah%Nirantharakumar%NULL%0,   Peter%Diggle%NULL%1,   Simon%Ball%NULL%1,   Lylah%Irshad%NULL%1,   Maxim%Harris%NULL%1,   Theodore%Nabav%NULL%1,   A%Kolesnyk%NULL%1,   M%Ahmed%NULL%1,   A%Liaqat%NULL%1,   Tanya%Pankhurst%NULL%1,   Jamie%Coleman%NULL%1,   Chirag%Dave%NULL%1,   Khaled%ElFandi%NULL%1,   Rifat%Rashid%NULL%1,   Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,   Gregory A%Eschenauer%NULL%2,   Gregory A%Eschenauer%NULL%0,   Jonathan P%Troost%NULL%1,   Jonathan L%Golob%NULL%1,   Tejal N%Gandhi%NULL%1,   Lu%Wang%NULL%1,   Nina%Zhou%NULL%1,   Lindsay A%Petty%NULL%1,   Ji Hoon%Baang%NULL%1,   Nicholas O%Dillman%NULL%1,   David%Frame%NULL%1,   Kevin S%Gregg%NULL%1,   Dan R%Kaul%NULL%1,   Jerod%Nagel%NULL%1,   Twisha S%Patel%NULL%1,   Shiwei%Zhou%NULL%1,   Adam S%Lauring%NULL%1,   David A%Hanauer%NULL%1,   Emily%Martin%NULL%1,   Pratima%Sharma%NULL%1,   Christopher M%Fung%NULL%1,   Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,   Lei%Qian%NULL%2,   Lei%Qian%NULL%0,   Vennis%Hong%NULL%1,   Rong%Wei%NULL%2,   Rong%Wei%NULL%0,   Ron F.%Nadjafi%NULL%2,   Ron F.%Nadjafi%NULL%0,   Heidi%Fischer%NULL%1,   Zhuoxin%Li%NULL%1,   Sally F.%Shaw%NULL%1,   Susan L.%Caparosa%NULL%2,   Susan L.%Caparosa%NULL%0,   Claudia L.%Nau%NULL%1,   Tanmai%Saxena%NULL%1,   Gunter K.%Rieg%NULL%1,   Bradley K.%Ackerson%NULL%1,   Adam L.%Sharp%NULL%2,   Adam L.%Sharp%NULL%0,   Jacek%Skarbinski%NULL%2,   Jacek%Skarbinski%NULL%0,   Tej K.%Naik%NULL%1,   Sameer B.%Murali%NULL%2,   Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,   Juan Carlos%Nicolas%NULL%2,   Juan Carlos%Nicolas%NULL%0,   Jennifer R%Meeks%NULL%1,   Osman%Khan%NULL%1,   Alan%Pan%NULL%1,   Stephen L%Jones%NULL%1,   Faisal%Masud%NULL%1,   H Dirk%Sostman%NULL%1,   Robert%Phillips%NULL%1,   Julia D%Andrieni%NULL%1,   Bita A%Kash%NULL%1,   Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,   Arryn%Craney%NULL%1,   Phyllis%Ruggiero%NULL%1,   John%Sipley%NULL%1,   Lin%Cong%NULL%1,   Erika M.%Hissong%NULL%1,   Massimo%Loda%NULL%1,   Lars F.%Westblade%NULL%1,   Melissa%Cushing%NULL%2,   Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,    X.% Zhong%null%1,    Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,   Amanda%Zheutlin%NULL%2,   Amanda%Zheutlin%NULL%0,   Yu-Han%Kao%NULL%1,   Kristin%Ayers%NULL%1,   Susan%Gross%NULL%1,   Patricia%Kovatch%NULL%0,   Sharon%Nirenberg%NULL%0,   Alexander%Charney%NULL%1,   Girish%Nadkarni%NULL%1,   Jessica K%De Freitas%NULL%1,   Paul%O’Reilly%NULL%1,   Allan%Just%NULL%1,   Carol%Horowitz%NULL%1,   Glenn%Martin%NULL%1,   Andrea%Branch%NULL%1,   Benjamin S%Glicksberg%NULL%1,   Dennis%Charney%NULL%1,   David%Reich%NULL%0,   William K%Oh%NULL%1,   Eric%Schadt%NULL%0,   Rong%Chen%NULL%0,   Li%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,   Angela%Winegar%NULL%1,   Richard%Fogel%NULL%1,   Mohamad%Fakih%NULL%1,   Allison%Ottenbacher%NULL%1,   Christine%Jesser%NULL%1,   Angelo%Bufalino%NULL%1,   Ren-Huai%Huang%NULL%1,   Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,   Rebecca%Bendayan%NULL%0,   Mark%Ashworth%NULL%1,   Daniel M.%Bean%NULL%1,   Hiten%Dodhia%NULL%1,   Stevo%Durbaba%NULL%1,   Kevin%O'Gallagher%NULL%1,   Claire%Palmer%NULL%1,   Vasa%Curcin%NULL%1,   Elizabeth%Aitken%NULL%1,   William%Bernal%NULL%1,   Richard D.%Barker%NULL%1,   Sam%Norton%NULL%1,   Martin%Gulliford%NULL%1,   James T.H.%Teo%NULL%0,   James%Galloway%NULL%1,   Richard J.B.%Dobson%NULL%0,   Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,   Carina%Marquez%NULL%1,   Emily%Crawford%NULL%1,   James%Peng%NULL%1,   Maya%Petersen%NULL%1,   Daniel%Schwab%NULL%1,   Joshua%Schwab%NULL%1,   Jackie%Martinez%NULL%1,   Diane%Jones%NULL%1,   Douglas%Black%NULL%1,   Monica%Gandhi%NULL%1,   Andrew D%Kerkhoff%NULL%1,   Vivek%Jain%NULL%1,   Francesco%Sergi%NULL%1,   Jon%Jacobo%NULL%1,   Susana%Rojas%NULL%1,   Valerie%Tulier-Laiwa%NULL%1,   Tracy%Gallardo-Brown%NULL%1,   Ayesha%Appa%NULL%1,   Charles%Chiu%NULL%1,   Mary%Rodgers%NULL%1,   John%Hackett%NULL%1,   NULL%NULL%NULL%0,   Amy%Kistler%NULL%1,   Samantha%Hao%NULL%1,   Jack%Kamm%NULL%1,   David%Dynerman%NULL%1,   Joshua%Batson%NULL%1,   Bryan%Greenhouse%NULL%1,   Joe%DeRisi%NULL%1,   Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,   Tiffany%Grimes%NULL%1,   Peng%Li%NULL%1,   Matthew%Might%NULL%1,   Fernando%Ovalle%NULL%1,   Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,   Natalie%Achamallah%NULL%1,   Hongwei%Ji%NULL%1,   Brian L.%Claggett%NULL%1,   Nancy%Sun%NULL%1,   Patrick%Botting%NULL%1,   Trevor-Trung%Nguyen%NULL%1,   Eric%Luong%NULL%1,   Elizabeth H.%Kim%NULL%1,   Eunice%Park%NULL%1,   Yunxian%Liu%NULL%1,   Ryan%Rosenberry%NULL%1,   Yuri%Matusov%NULL%1,   Steven%Zhao%NULL%1,   Isabel%Pedraza%NULL%1,   Tanzira%Zaman%NULL%1,   Michael%Thompson%NULL%1,   Koen%Raedschelders%NULL%1,   Anders H.%Berg%NULL%2,   Anders H.%Berg%NULL%0,   Jonathan D.%Grein%NULL%1,   Paul W.%Noble%NULL%1,   Sumeet S.%Chugh%NULL%1,   C. Noel%Bairey Merz%NULL%1,   Eduardo%Marbán%NULL%1,   Jennifer E.%Van Eyk%NULL%1,   Scott D.%Solomon%NULL%1,   Christine M.%Albert%NULL%1,   Peter%Chen%NULL%1,   Susan%Cheng%NULL%3,   Yu Ru%Kou%NULL%8,   Yu Ru%Kou%NULL%0,   Yu Ru%Kou%NULL%0,   Susan%Cheng%biodatacore@cshs.org%0,   Susan%Cheng%biodatacore@cshs.org%0,   Yu Ru%Kou%NULL%0,   Yu Ru%Kou%NULL%0,   Yu Ru%Kou%NULL%0,   Yu Ru%Kou%NULL%0,   Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,   Penelope%Strid%NULL%1,   Van T.%Tong%NULL%1,   Kate%Woodworth%NULL%1,   Romeo R.%Galang%NULL%1,   Laura D.%Zambrano%NULL%1,   John%Nahabedian%NULL%1,   Kayla%Anderson%NULL%1,   Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,   Jacob%Fiksel%NULL%2,   Jacob%Fiksel%NULL%0,   John%Muschelli%NULL%2,   John%Muschelli%NULL%0,   Matthew L.%Robinson%NULL%2,   Matthew L.%Robinson%NULL%0,   Masoud%Rouhizadeh%NULL%2,   Masoud%Rouhizadeh%NULL%0,   Jamie%Perin%NULL%2,   Jamie%Perin%NULL%0,   Grant%Schumock%NULL%2,   Grant%Schumock%NULL%0,   Paul%Nagy%NULL%2,   Paul%Nagy%NULL%0,   Josh H.%Gray%NULL%2,   Josh H.%Gray%NULL%0,   Harsha%Malapati%NULL%2,   Harsha%Malapati%NULL%0,   Mariam%Ghobadi-Krueger%NULL%2,   Mariam%Ghobadi-Krueger%NULL%0,   Timothy M.%Niessen%NULL%1,   Bo Soo%Kim%NULL%1,   Peter M.%Hill%NULL%1,   M. Shafeeq%Ahmed%NULL%1,   Eric D.%Dobkin%NULL%1,   Renee%Blanding%NULL%1,   Jennifer%Abele%NULL%1,   Bonnie%Woods%NULL%1,   Kenneth%Harkness%NULL%1,   David R.%Thiemann%NULL%1,   Mary G.%Bowring%NULL%1,   Aalok B.%Shah%NULL%2,   Aalok B.%Shah%NULL%0,   Mei-Cheng%Wang%NULL%1,   Karen%Bandeen-Roche%NULL%1,   Antony%Rosen%NULL%1,   Scott L.%Zeger%NULL%2,   Scott L.%Zeger%NULL%0,   Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,   Megan%McCullough%NULL%0,   Megan%McCullough%NULL%0,   Michael A.%Fuery%NULL%0,   Fouad%Chouairi%NULL%0,   Fouad%Chouairi%NULL%0,   Craig%Keating%NULL%0,   Neal G.%Ravindra%NULL%0,   P. Elliott%Miller%NULL%0,   Maricar%Malinis%NULL%0,   Nitu%Kashyap%NULL%0,   Allen%Hsiao%NULL%0,   F. Perry%Wilson%NULL%0,   Jeptha P.%Curtis%NULL%0,   Matthew%Grant%NULL%0,   Eric J.%Velazquez%NULL%0,   Nihar R.%Desai%NULL%0,   Tariq%Ahmad%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,     R. U.% Shah%null%1,     M.% Bale%null%1,     J. B.% Peacock%null%1,     B.% Berger%null%1,     A.% Brown%null%1,     S.% Mann%null%1,     W.% West%null%1,     V.% Martin%null%1,     V.% Fernandez%null%1,     S.% Grineski%null%1,     B. J.% Brintz%null%1,     M. H.% Samore%null%1,     M. J.% Ferrari%null%1,     D. T.% Leung%null%1,     L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,    Samuel L%Bruce%NULL%1,    Cody L%Slater%NULL%1,    Jonathan R%Tiao%NULL%1,    Matthew R%Baldwin%NULL%1,    R Graham%Barr%NULL%1,    Bernard P%Chang%NULL%1,    Katherine H%Chau%NULL%1,    Justin J%Choi%NULL%1,    Nicholas%Gavin%NULL%1,    Parag%Goyal%NULL%1,    Angela M%Mills%NULL%1,    Ashmi A%Patel%NULL%1,    Marie-Laure S%Romney%NULL%1,    Monika M%Safford%NULL%1,    Neil W%Schluger%NULL%1,    Soumitra%Sengupta%NULL%1,    Magdalena E%Sobieszczyk%NULL%0,    Jason E%Zucker%NULL%1,    Paul A%Asadourian%NULL%1,    Fletcher M%Bell%NULL%1,    Rebekah%Boyd%NULL%1,    Matthew F%Cohen%NULL%1,    MacAlistair I%Colquhoun%NULL%1,    Lucy A%Colville%NULL%1,    Joseph H%de Jonge%NULL%1,    Lyle B%Dershowitz%NULL%1,    Shirin A%Dey%NULL%1,    Katherine A%Eiseman%NULL%1,    Zachary P%Girvin%NULL%1,    Daniella T%Goni%NULL%1,    Amro A%Harb%NULL%1,    Nicholas%Herzik%NULL%1,    Sarah%Householder%NULL%1,    Lara E%Karaaslan%NULL%1,    Heather%Lee%NULL%1,    Evan%Lieberman%NULL%1,    Andrew%Ling%NULL%1,    Ree%Lu%NULL%1,    Arthur Y%Shou%NULL%1,    Alexander C%Sisti%NULL%1,    Zachary E%Snow%NULL%1,    Colin P%Sperring%NULL%1,    Yuqing%Xiong%NULL%1,    Henry W%Zhou%NULL%1,    Karthik%Natarajan%NULL%1,    George%Hripcsak%NULL%1,    Ruijun%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,    Megan%McCullough%NULL%4,    Megan%McCullough%NULL%0,    Michael A.%Fuery%NULL%2,    Fouad%Chouairi%NULL%4,    Fouad%Chouairi%NULL%0,    Craig%Keating%NULL%2,    Neal G.%Ravindra%NULL%2,    P. Elliott%Miller%NULL%2,    Maricar%Malinis%NULL%2,    Nitu%Kashyap%NULL%2,    Allen%Hsiao%NULL%2,    F. Perry%Wilson%NULL%2,    Jeptha P.%Curtis%NULL%2,    Matthew%Grant%NULL%2,    Eric J.%Velazquez%NULL%2,    Nihar R.%Desai%NULL%2,    Tariq%Ahmad%NULL%2,    Chiara%Lazzeri%NULL%18,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,    Karen K.%Wong%NULL%1,    Christine M.%Szablewski%NULL%1,    Priti R.%Patel%NULL%1,    John%Rossow%NULL%1,    Juliana%da Silva%NULL%1,    Pavithra%Natarajan%NULL%1,    Sapna Bamrah%Morris%NULL%1,    Robyn Neblett%Fanfair%NULL%1,    Jessica%Rogers-Brown%NULL%1,    Beau B.%Bruce%NULL%1,    Sean D.%Browning%NULL%1,    Alfonso C.%Hernandez-Romieu%NULL%2,    Nathan W.%Furukawa%NULL%1,    Mohleen%Kang%NULL%1,    Mary E.%Evans%NULL%1,    Nadine%Oosmanally%NULL%1,    Melissa%Tobin-D’Angelo%NULL%1,    Cherie%Drenzek%NULL%1,    David J.%Murphy%NULL%0,    Julie%Hollberg%NULL%1,    James M.%Blum%NULL%0,    Robert%Jansen%NULL%1,    David W.%Wright%NULL%1,    William M.%Sewell%NULL%1,    Jack D.%Owens%NULL%1,    Benjamin%Lefkove%NULL%1,    Frank W.%Brown%NULL%1,    Deron C.%Burton%NULL%1,    Timothy M.%Uyeki%NULL%3,    Stephanie R.%Bialek%NULL%1,    Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,    Jasmine A.%Mack%NULL%1,    Maxwell%Salvatore%NULL%1,    Swaraaj Prabhu%Sankar%NULL%1,    Thomas S.%Valley%NULL%1,    Karandeep%Singh%NULL%1,    Brahmajee K.%Nallamothu%NULL%1,    Sachin%Kheterpal%NULL%1,    Lynda%Lisabeth%NULL%1,    Lars G.%Fritsche%NULL%1,    Bhramar%Mukherjee%NULL%1,     T.%Gu%null%1,     J. A.% Mack%null%1,     M.% Salvatore%null%1,     S. P.% Sankar%null%1,     T. S.% Valley%null%1,     K.% Singh%null%1,     B. K.% Nallamothu%null%1,     S.% Kheterpal%null%1,     L.% Lisabeth%null%1,     L. G.% Fritsche%null%1,     B. G. % Mukherjee%null%1,    T.%Gu%null%1,    J. A.% Mack%null%1,    M.% Salvatore%null%1,    S. P.% Sankar%null%1,    T. S.% Valley%null%1,    K.% Singh%null%1,    B. K.% Nallamothu%null%1,    S.% Kheterpal%null%1,    L.% Lisabeth%null%1,    L. G.% Fritsche%null%1,    B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,     S.% Nirenberg%null%1,     P.% Kovatch%null%2,     K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,    Shikha%Garg%NULL%1,    Alissa%O’Halloran%NULL%1,    Michael%Whitaker%NULL%1,    Huong%Pham%NULL%1,    Evan J%Anderson%NULL%1,    Isaac%Armistead%NULL%1,    Nancy M%Bennett%NULL%1,    Laurie%Billing%NULL%1,    Kathryn%Como-Sabetti%NULL%1,    Mary%Hill%NULL%1,    Sue%Kim%NULL%1,    Maya L%Monroe%NULL%1,    Alison%Muse%NULL%1,    Arthur L%Reingold%NULL%1,    William%Schaffner%NULL%1,    Melissa%Sutton%NULL%1,    H Keipp%Talbot%NULL%1,    Salina M%Torres%NULL%1,    Kimberly%Yousey-Hindes%NULL%1,    Rachel%Holstein%NULL%1,    Charisse%Cummings%NULL%1,    Lynette%Brammer%NULL%1,    Aron J%Hall%NULL%1,    Alicia M%Fry%NULL%1,    Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,     S.% Richardson%null%1,     K.% Coppa%null%1,     D. P.% Barnaby%null%1,     T.% McGinn%null%1,     L. B.% Becker%null%1,     K. W.% Davidson%null%1,     S. L.% Cohen%null%1,     J. S.% Hirsch%null%1,     T.% Zanos%null%1,       % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,     L. H.% Nguyen%null%1,     D. A.% Drew%null%1,     M. S.% Graham%null%1,     E. T.% Warner%null%1,     A. D.% Joshi%null%1,     C. M.% Astley%null%1,     C.-G.% Guo%null%1,     W.% Ma%null%1,     R. S.% Mehta%null%1,     S.% Kwon%null%1,     M.% Song%null%1,     R.% Davies%null%1,     J.% Capdevila%null%1,     K. A.% Lee%null%1,     M. N.% Lochlainn%null%1,     T.% Varsavsky%null%1,     C. H.% Sudre%null%1,     J.% Wolf%null%1,     Y. C.% Cozier%null%1,     L.% Rosenberg%null%1,     L. R.% Wilkens%null%1,     C. A.% Haiman%null%1,     L. L.% Marchand%null%1,     J. R.% Palmer%null%1,     T. D.% Spector%null%1,     S.% Ourselin%null%1,     C. J.% Steves%null%1,     A. T.% Chan%null%1,       % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,    Jienchi%Dorward%NULL%1,    Ana%Correa%NULL%1,    Nicholas%Jones%NULL%1,    Oluwafunmi%Akinyemi%NULL%1,    Gayatri%Amirthalingam%NULL%1,    Nick%Andrews%NULL%1,    Rachel%Byford%NULL%1,    Gavin%Dabrera%NULL%1,    Alex%Elliot%NULL%1,    Joanna%Ellis%NULL%0,    Filipa%Ferreira%NULL%1,    Jamie%Lopez Bernal%NULL%1,    Cecilia%Okusi%NULL%1,    Mary%Ramsay%NULL%1,    Julian%Sherlock%NULL%1,    Gillian%Smith%NULL%1,    John%Williams%NULL%1,    Gary%Howsam%NULL%1,    Maria%Zambon%NULL%0,    Mark%Joy%NULL%1,    F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,    Johanna%Dolle%NULL%2,    Johanna%Dolle%NULL%0,    Sheila%Grami%NULL%1,    Richard%Adule%NULL%1,    Zeyu%Li%NULL%1,    Kathleen%Tatem%NULL%1,    Chinyere%Anyaogu%NULL%1,    Stephen%Apfelroth%NULL%1,    Raji%Ayinla%NULL%2,    Raji%Ayinla%NULL%0,    Noella%Boma%NULL%1,    Terence%Brady%NULL%1,    Braulio F.%Cosme-Thormann%NULL%1,    Roseann%Costarella%NULL%1,    Kenra%Ford%NULL%1,    Kecia%Gaither%NULL%1,    Jessica%Jacobson%NULL%1,    Marc%Kanter%NULL%1,    Stuart%Kessler%NULL%1,    Ross B.%Kristal%NULL%1,    Joseph J.%Lieber%NULL%1,    Vikramjit%Mukherjee%NULL%1,    Vincent%Rizzo%NULL%1,    Madden%Rowell%NULL%1,    David%Stevens%NULL%1,    Elana%Sydney%NULL%1,    Andrew%Wallach%NULL%2,    Andrew%Wallach%NULL%0,    Dave A.%Chokshi%NULL%1,    Nichola%Davis%NULL%1,    NULL%NULL%NULL%0,    Sze Yan%Liu%NULL%2,    Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,    Mark%Caridi-Scheible%NULL%0,    James M.%Blum%NULL%0,    Chad%Robichaux%NULL%1,    Colleen%Kraft%NULL%1,    Jesse T.%Jacob%NULL%1,    Craig S.%Jabaley%NULL%0,    David%Carpenter%NULL%1,    Roberta%Kaplow%NULL%1,    Alfonso C.%Hernandez-Romieu%NULL%0,    Max W.%Adelman%NULL%0,    Greg S.%Martin%NULL%0,    Craig M.%Coopersmith%NULL%1,    David J.%Murphy%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,     Seunghee%Kim-Schulze%null%1,     Hsin-Hui%Huang%null%1,     Noam D.%Beckmann%null%1,     Sharon%Nirenberg%null%1,     Bo%Wang%null%0,     Yonit%Lavin%null%1,     Talia H.%Swartz%null%1,     Deepu%Madduri%null%1,     Aryeh%Stock%null%1,     Thomas U.%Marron%null%1,     Hui%Xie%null%1,     Manishkumar%Patel%null%1,     Kevin%Tuballes%null%1,     Oliver%Oekelen%null%1,     Adeeb%Rahman%null%1,     Patricia%Kovatch%null%0,     Judith A.%Aberg%null%1,     Eric%Schadt%null%1,     Sundar%Jagannath%null%1,     Madhu%Mazumdar%null%1,     Alexander W.%Charney%null%1,     Adolfo%Firpo-Betancourt%null%1,     Damodara Rao%Mendu%null%1,     Jeffrey%Jhang%null%2,     David%Reich%null%1,     Keith%Sigel%null%1,     Carlos%Cordon-Cardo%null%0,     Marc%Feldmann%null%1,     Samir%Parekh%null%1,     Miriam%Merad%null%1,     Sacha%Gnjatic%null%1,    Diane Marie%Del Valle%null%1,    Seunghee%Kim-Schulze%null%1,    Hsin-Hui%Huang%null%1,    Noam D.%Beckmann%null%1,    Sharon%Nirenberg%null%2,    Bo%Wang%null%2,    Yonit%Lavin%null%1,    Talia H.%Swartz%null%1,    Deepu%Madduri%null%1,    Aryeh%Stock%null%1,    Thomas U.%Marron%null%1,    Hui%Xie%null%2,    Manishkumar%Patel%null%1,    Kevin%Tuballes%null%1,    Oliver%Oekelen%null%1,    Adeeb%Rahman%null%1,    Patricia%Kovatch%null%2,    Judith A.%Aberg%null%1,    Eric%Schadt%null%2,    Sundar%Jagannath%null%1,    Madhu%Mazumdar%null%1,    Alexander W.%Charney%null%0,    Adolfo%Firpo-Betancourt%null%1,    Damodara Rao%Mendu%null%1,    Jeffrey%Jhang%null%2,    David%Reich%null%2,    Keith%Sigel%null%1,    Carlos%Cordon-Cardo%null%0,    Marc%Feldmann%null%1,    Samir%Parekh%null%1,    Miriam%Merad%null%1,    Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,    David R.%Jenkins%NULL%1,    Jatinder S.%Minhas%NULL%1,    Laura J.%Gray%NULL%1,    Julian%Tang%NULL%1,    Caroline%Williams%NULL%1,    Shirley%Sze%NULL%1,    Daniel%Pan%NULL%1,    William%Jones%NULL%1,    Raman%Verma%NULL%1,    Scott%Knapp%NULL%1,    Rupert%Major%NULL%1,    Melanie%Davies%NULL%1,    Nigel%Brunskill%NULL%1,    Martin%Wiselka%NULL%1,    Chris%Brightling%NULL%1,    Kamlesh%Khunti%NULL%1,    Pranab%Haldar%NULL%1,    Manish%Pareek%mp426@le.ac.uk%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,    Kelly E%Hathorn%NULL%2,    Kelly E%Hathorn%NULL%0,    Walker D%Redd%NULL%1,    Nicolette J%Rodriguez%NULL%1,    Joyce C%Zhou%NULL%1,    Ahmad Najdat%Bazarbashi%NULL%1,    Cheikh%Njie%NULL%1,    Danny%Wong%NULL%1,    Quoc-Dien%Trinh%NULL%1,    Lin%Shen%NULL%1,    Valerie E%Stone%NULL%2,    Valerie E%Stone%NULL%0,    Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,     S.% Apewokin%null%1,     A. A.% Wells%null%1,     A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,    Thomas E.%Webb%NULL%2,    Thomas E.%Webb%NULL%0,    Benjamin C.%Mcloughlin%NULL%2,    Benjamin C.%Mcloughlin%NULL%0,    Imran%Mannan%NULL%2,    Imran%Mannan%NULL%0,    Arshad%Rather%NULL%2,    Arshad%Rather%NULL%0,    Paul%Knopp%NULL%1,    Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,    Rajat%Suri%NULL%2,    Rajat%Suri%NULL%0,    Iheanacho O.%Emeruwa%NULL%2,    Iheanacho O.%Emeruwa%NULL%0,    Robert J.%Stretch%NULL%1,    Roxana Y.%Cortes-Lopez%NULL%2,    Roxana Y.%Cortes-Lopez%NULL%0,    Alexander%Sherman%NULL%1,    Catherine C.%Lindsay%NULL%1,    Jennifer A.%Fulcher%NULL%1,    David%Goodman-Meza%NULL%2,    David%Goodman-Meza%NULL%0,    Anil%Sapru%NULL%2,    Anil%Sapru%NULL%0,    Russell G.%Buhr%NULL%1,    Steven Y.%Chang%NULL%2,    Steven Y.%Chang%NULL%0,    Tisha%Wang%NULL%1,    Nida%Qadir%NULL%1,    Giordano%Madeddu%NULL%10,    Giordano%Madeddu%NULL%0,    Giordano%Madeddu%NULL%0,    Ana C.%Monteiro%NULL%2,    Ana C.%Monteiro%NULL%0,    Giordano%Madeddu%NULL%0,    Giordano%Madeddu%NULL%0,    Giordano%Madeddu%NULL%0,    Giordano%Madeddu%NULL%0,    Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,     D.% Stefanov%null%1,     A. S.% Chau%null%1,     A. G.% Weber%null%1,     G. S.% Marder%null%1,     B.% Kaplan%null%1,     P.% Malhotra%null%1,     O.% Bloom%null%1,     A.% Liu%null%1,     M.% Lesser%null%1,     N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,    Catherine A.%O’Donnell%NULL%1,    Bhautesh Dinesh%Jani%NULL%1,    Evangelia%Demou%NULL%1,    Frederick K.%Ho%NULL%1,    Carlos%Celis-Morales%NULL%1,    Barbara I.%Nicholl%NULL%1,    Frances S.%Mair%NULL%1,    Paul%Welsh%NULL%1,    Naveed%Sattar%NULL%1,    Jill P.%Pell%NULL%1,    S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,    Alex J%Walker%NULL%1,    Krishnan%Bhaskaran%NULL%1,    Seb%Bacon%NULL%1,    Chris%Bates%NULL%1,    Caroline E%Morton%NULL%1,    Helen J%Curtis%NULL%1,    Amir%Mehrkar%NULL%1,    David%Evans%NULL%1,    Peter%Inglesby%NULL%1,    Jonathan%Cockburn%NULL%1,    Helen I%McDonald%NULL%1,    Brian%MacKenna%NULL%1,    Laurie%Tomlinson%NULL%1,    Ian J%Douglas%NULL%1,    Christopher T%Rentsch%NULL%1,    Rohini%Mathur%NULL%1,    Angel YS%Wong%NULL%1,    Richard%Grieve%NULL%1,    David%Harrison%NULL%1,    Harriet%Forbes%NULL%1,    Anna%Schultze%NULL%2,    Richard%Croker%NULL%1,    John%Parry%NULL%1,    Frank%Hester%NULL%1,    Sam%Harper%NULL%1,    Rafael%Perera%NULL%1,    Stephen JW%Evans%NULL%1,    Liam%Smeeth%NULL%1,    Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,    Ajay%Bhasin%NULL%1,    Joseph M.%Feinglass%NULL%1,    Michael P.%Angarone%NULL%1,    Elaine R.%Cohen%NULL%1,    Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,    Andrew%Gangemi%NULL%1,    Robert%Marron%NULL%1,    Junad%Chowdhury%NULL%1,    Ibraheem%Yousef%NULL%1,    Matthew%Zheng%NULL%1,    Nicole%Mills%NULL%1,    Lauren%Tragesser%NULL%1,    Julie%Giurintano%NULL%1,    Rohit%Gupta%NULL%0,    Matthew%Gordon%NULL%0,    Parth%Rali%NULL%2,    Parth%Rali%NULL%0,    Gilbert%D'Alonso%NULL%1,    David%Fleece%NULL%1,    Huaqing%Zhao%NULL%0,    Nicole%Patlakh%NULL%0,    Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,    Nathan C.%Skorodin%nskorodin@midcusa.com%1,    Nicholas W.%Van Hise%NULL%1,    Robert M.%Fliegelman%NULL%1,    Jonathan%Pinsky%NULL%1,    Vishal%Didwania%NULL%1,    Michael%Anderson%NULL%1,    Melina%Diaz%NULL%1,    Kairav%Shah%NULL%1,    Vishnu V.%Chundi%NULL%1,    David W.%Hines%NULL%1,    Brian P.%Harting%NULL%1,    Kamo%Sidwha%NULL%1,    Brian%Yu%NULL%1,    Paul%Brune%NULL%1,    Anjum%Owaisi%NULL%1,    David%Beezhold%NULL%1,    Joseph%Kent%NULL%1,    Dana%Vais%NULL%1,    Alice%Han%NULL%1,    Neethi%Gowda%NULL%1,    Nishi%Sahgal%NULL%1,    Jan%Silverman%NULL%1,    Jonathan%Stake%NULL%1,    Jenie%Nepomuceno%NULL%1,    Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,    Anna%Daunt%NULL%2,    Anna%Daunt%NULL%0,    Sujit%Mukherjee%NULL%1,    Peter%Crook%NULL%1,    Roberta%Forlano%NULL%1,    Mara D%Kont%NULL%1,    Alessandra%Løchen%NULL%1,    Michaela%Vollmer%NULL%1,    Paul%Middleton%NULL%1,    Rebekah%Judge%NULL%1,    Christopher%Harlow%NULL%1,    Anet%Soubieres%NULL%1,    Graham%Cooke%NULL%1,    Peter J%White%NULL%1,    Timothy B%Hallett%NULL%1,    Paul%Aylin%NULL%1,    Neil%Ferguson%NULL%1,    Katharina%Hauck%NULL%1,    Mark R%Thursz%NULL%1,    Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,    Jeffrey%Burton%NULL%2,    Jeffrey%Burton%NULL%0,    Daniel%Fort%NULL%1,    Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,    Michael S.%Sherman%NULL%1,    Naaz%Fatteh%NULL%1,    Fabio%Vogel%NULL%1,    Jamie%Sacks%NULL%1,    Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,     P.% Mannam%null%1,     R.% Comer%null%1,     E.% Sinclair%null%1,     D. B.% McQuaid%null%1,     M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,    Farah%Kidwai-Khan%NULL%1,    Janet P.%Tate%NULL%1,    Lesley S.%Park%NULL%1,    Joseph T.%King%NULL%1,    Melissa%Skanderson%NULL%1,    Ronald G.%Hauser%NULL%1,    Anna%Schultze%NULL%0,    Christopher I.%Jarvis%NULL%1,    Mark%Holodniy%NULL%1,    Vincent Lo%Re%NULL%1,    Kathleen M.%Akgün%NULL%1,    Kristina%Crothers%NULL%1,    Tamar H.%Taddei%NULL%1,    Matthew S.%Freiberg%NULL%1,    Amy C.%Justice%NULL%1,     C. T.%Rentsch%null%1,     F.% Kidwai-Khan%null%1,     J. P.% Tate%null%1,     L. S.% Park%null%1,     J. T.% King%null%1,     M.% Skanderson%null%1,     R. G.% Hauser%null%1,     A.% Schultze%null%1,     C. I.% Jarvis%null%1,     M.% Holodniy%null%1,     V.% Lo Re%null%1,     K. M.% Akgun%null%1,     K.% Crothers%null%1,     T. H.% Taddei%null%1,     M. S.% Freiberg%null%1,     A. C. % Justice%null%1,    C. T.%Rentsch%null%1,    F.% Kidwai-Khan%null%1,    J. P.% Tate%null%1,    L. S.% Park%null%1,    J. T.% King%null%1,    M.% Skanderson%null%1,    R. G.% Hauser%null%1,    A.% Schultze%null%1,    C. I.% Jarvis%null%1,    M.% Holodniy%null%1,    V.% Lo Re%null%1,    K. M.% Akgun%null%1,    K.% Crothers%null%1,    T. H.% Taddei%null%1,    M. S.% Freiberg%null%1,    A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,    Jennifer%Beam%NULL%2,    Jennifer%Beam%NULL%0,    Haley%Maier%NULL%1,    Whitney%Haggerson%NULL%1,    Karen%Boudreau%NULL%1,    Jamie%Carlson%NULL%1,    Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,    Alexander E.%Ayala%NULL%1,    Chideraa C.%Ukeje%NULL%1,    Celeste S.%Witting%NULL%1,    William A.%Grobman%NULL%1,    Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,    Hannah C.%Jarvis%NULL%2,    Hannah C.%Jarvis%NULL%0,    Ezgi%Ozcan%NULL%1,    Thomas L. P.%Burns%NULL%1,    Rabia A.%Warraich%NULL%1,    Lisa J.%Amani%NULL%1,    Amina%Jaffer%NULL%1,    Stephanie%Paget%NULL%1,    Anand%Sivaramakrishnan%NULL%1,    Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,    Suzy%Gallier%NULL%2,    Suzy%Gallier%NULL%0,    Chris%Mainey%NULL%1,    Peter%Nightingale%NULL%2,    Peter%Nightingale%NULL%0,    David%McNulty%NULL%1,    Hannah%Crothers%NULL%1,    Felicity%Evison%NULL%1,    Katharine%Reeves%NULL%1,    Domenico%Pagano%NULL%1,    Alastair K%Denniston%NULL%1,    Krishnarajah%Nirantharakumar%NULL%0,    Peter%Diggle%NULL%1,    Simon%Ball%NULL%1,    Lylah%Irshad%NULL%1,    Maxim%Harris%NULL%1,    Theodore%Nabav%NULL%1,    A%Kolesnyk%NULL%1,    M%Ahmed%NULL%1,    A%Liaqat%NULL%1,    Tanya%Pankhurst%NULL%1,    Jamie%Coleman%NULL%1,    Chirag%Dave%NULL%1,    Khaled%ElFandi%NULL%1,    Rifat%Rashid%NULL%1,    Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,    Gregory A%Eschenauer%NULL%2,    Gregory A%Eschenauer%NULL%0,    Jonathan P%Troost%NULL%1,    Jonathan L%Golob%NULL%1,    Tejal N%Gandhi%NULL%1,    Lu%Wang%NULL%1,    Nina%Zhou%NULL%1,    Lindsay A%Petty%NULL%1,    Ji Hoon%Baang%NULL%1,    Nicholas O%Dillman%NULL%1,    David%Frame%NULL%1,    Kevin S%Gregg%NULL%1,    Dan R%Kaul%NULL%1,    Jerod%Nagel%NULL%1,    Twisha S%Patel%NULL%1,    Shiwei%Zhou%NULL%1,    Adam S%Lauring%NULL%1,    David A%Hanauer%NULL%1,    Emily%Martin%NULL%1,    Pratima%Sharma%NULL%1,    Christopher M%Fung%NULL%1,    Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,    Lei%Qian%NULL%2,    Lei%Qian%NULL%0,    Vennis%Hong%NULL%1,    Rong%Wei%NULL%2,    Rong%Wei%NULL%0,    Ron F.%Nadjafi%NULL%2,    Ron F.%Nadjafi%NULL%0,    Heidi%Fischer%NULL%1,    Zhuoxin%Li%NULL%1,    Sally F.%Shaw%NULL%1,    Susan L.%Caparosa%NULL%2,    Susan L.%Caparosa%NULL%0,    Claudia L.%Nau%NULL%1,    Tanmai%Saxena%NULL%1,    Gunter K.%Rieg%NULL%1,    Bradley K.%Ackerson%NULL%1,    Adam L.%Sharp%NULL%2,    Adam L.%Sharp%NULL%0,    Jacek%Skarbinski%NULL%2,    Jacek%Skarbinski%NULL%0,    Tej K.%Naik%NULL%1,    Sameer B.%Murali%NULL%2,    Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,    Juan Carlos%Nicolas%NULL%2,    Juan Carlos%Nicolas%NULL%0,    Jennifer R%Meeks%NULL%1,    Osman%Khan%NULL%1,    Alan%Pan%NULL%1,    Stephen L%Jones%NULL%1,    Faisal%Masud%NULL%1,    H Dirk%Sostman%NULL%1,    Robert%Phillips%NULL%1,    Julia D%Andrieni%NULL%1,    Bita A%Kash%NULL%1,    Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,    Arryn%Craney%NULL%1,    Phyllis%Ruggiero%NULL%1,    John%Sipley%NULL%1,    Lin%Cong%NULL%1,    Erika M.%Hissong%NULL%1,    Massimo%Loda%NULL%1,    Lars F.%Westblade%NULL%1,    Melissa%Cushing%NULL%2,    Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,     X.% Zhong%null%1,     Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,    Amanda%Zheutlin%NULL%2,    Amanda%Zheutlin%NULL%0,    Yu-Han%Kao%NULL%1,    Kristin%Ayers%NULL%1,    Susan%Gross%NULL%1,    Patricia%Kovatch%NULL%0,    Sharon%Nirenberg%NULL%0,    Alexander%Charney%NULL%1,    Girish%Nadkarni%NULL%1,    Jessica K%De Freitas%NULL%1,    Paul%O’Reilly%NULL%1,    Allan%Just%NULL%1,    Carol%Horowitz%NULL%1,    Glenn%Martin%NULL%1,    Andrea%Branch%NULL%1,    Benjamin S%Glicksberg%NULL%1,    Dennis%Charney%NULL%1,    David%Reich%NULL%0,    William K%Oh%NULL%1,    Eric%Schadt%NULL%0,    Rong%Chen%NULL%0,    Li%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,    Angela%Winegar%NULL%1,    Richard%Fogel%NULL%1,    Mohamad%Fakih%NULL%1,    Allison%Ottenbacher%NULL%1,    Christine%Jesser%NULL%1,    Angelo%Bufalino%NULL%1,    Ren-Huai%Huang%NULL%1,    Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,    Rebecca%Bendayan%NULL%0,    Mark%Ashworth%NULL%1,    Daniel M.%Bean%NULL%1,    Hiten%Dodhia%NULL%1,    Stevo%Durbaba%NULL%1,    Kevin%O'Gallagher%NULL%1,    Claire%Palmer%NULL%1,    Vasa%Curcin%NULL%1,    Elizabeth%Aitken%NULL%1,    William%Bernal%NULL%1,    Richard D.%Barker%NULL%1,    Sam%Norton%NULL%1,    Martin%Gulliford%NULL%1,    James T.H.%Teo%NULL%0,    James%Galloway%NULL%1,    Richard J.B.%Dobson%NULL%0,    Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,    Carina%Marquez%NULL%1,    Emily%Crawford%NULL%1,    James%Peng%NULL%1,    Maya%Petersen%NULL%1,    Daniel%Schwab%NULL%1,    Joshua%Schwab%NULL%1,    Jackie%Martinez%NULL%1,    Diane%Jones%NULL%1,    Douglas%Black%NULL%1,    Monica%Gandhi%NULL%1,    Andrew D%Kerkhoff%NULL%1,    Vivek%Jain%NULL%1,    Francesco%Sergi%NULL%1,    Jon%Jacobo%NULL%1,    Susana%Rojas%NULL%1,    Valerie%Tulier-Laiwa%NULL%1,    Tracy%Gallardo-Brown%NULL%1,    Ayesha%Appa%NULL%1,    Charles%Chiu%NULL%1,    Mary%Rodgers%NULL%1,    John%Hackett%NULL%1,    NULL%NULL%NULL%0,    Amy%Kistler%NULL%1,    Samantha%Hao%NULL%1,    Jack%Kamm%NULL%1,    David%Dynerman%NULL%1,    Joshua%Batson%NULL%1,    Bryan%Greenhouse%NULL%2,    Joe%DeRisi%NULL%1,    Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,    Tiffany%Grimes%NULL%1,    Peng%Li%NULL%1,    Matthew%Might%NULL%1,    Fernando%Ovalle%NULL%1,    Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,    Natalie%Achamallah%NULL%1,    Hongwei%Ji%NULL%1,    Brian L.%Claggett%NULL%1,    Nancy%Sun%NULL%1,    Patrick%Botting%NULL%1,    Trevor-Trung%Nguyen%NULL%1,    Eric%Luong%NULL%1,    Elizabeth H.%Kim%NULL%1,    Eunice%Park%NULL%1,    Yunxian%Liu%NULL%1,    Ryan%Rosenberry%NULL%1,    Yuri%Matusov%NULL%1,    Steven%Zhao%NULL%1,    Isabel%Pedraza%NULL%1,    Tanzira%Zaman%NULL%1,    Michael%Thompson%NULL%1,    Koen%Raedschelders%NULL%1,    Anders H.%Berg%NULL%2,    Anders H.%Berg%NULL%0,    Jonathan D.%Grein%NULL%1,    Paul W.%Noble%NULL%1,    Sumeet S.%Chugh%NULL%1,    C. Noel%Bairey Merz%NULL%1,    Eduardo%Marbán%NULL%1,    Jennifer E.%Van Eyk%NULL%1,    Scott D.%Solomon%NULL%1,    Christine M.%Albert%NULL%1,    Peter%Chen%NULL%1,    Susan%Cheng%NULL%3,    Yu Ru%Kou%NULL%8,    Yu Ru%Kou%NULL%0,    Yu Ru%Kou%NULL%0,    Susan%Cheng%biodatacore@cshs.org%0,    Susan%Cheng%biodatacore@cshs.org%0,    Yu Ru%Kou%NULL%0,    Yu Ru%Kou%NULL%0,    Yu Ru%Kou%NULL%0,    Yu Ru%Kou%NULL%0,    Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,    Penelope%Strid%NULL%1,    Van T.%Tong%NULL%1,    Kate%Woodworth%NULL%1,    Romeo R.%Galang%NULL%1,    Laura D.%Zambrano%NULL%1,    John%Nahabedian%NULL%1,    Kayla%Anderson%NULL%1,    Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,    Jacob%Fiksel%NULL%2,    Jacob%Fiksel%NULL%0,    John%Muschelli%NULL%2,    John%Muschelli%NULL%0,    Matthew L.%Robinson%NULL%2,    Matthew L.%Robinson%NULL%0,    Masoud%Rouhizadeh%NULL%2,    Masoud%Rouhizadeh%NULL%0,    Jamie%Perin%NULL%2,    Jamie%Perin%NULL%0,    Grant%Schumock%NULL%2,    Grant%Schumock%NULL%0,    Paul%Nagy%NULL%2,    Paul%Nagy%NULL%0,    Josh H.%Gray%NULL%2,    Josh H.%Gray%NULL%0,    Harsha%Malapati%NULL%2,    Harsha%Malapati%NULL%0,    Mariam%Ghobadi-Krueger%NULL%2,    Mariam%Ghobadi-Krueger%NULL%0,    Timothy M.%Niessen%NULL%1,    Bo Soo%Kim%NULL%1,    Peter M.%Hill%NULL%1,    M. Shafeeq%Ahmed%NULL%1,    Eric D.%Dobkin%NULL%1,    Renee%Blanding%NULL%1,    Jennifer%Abele%NULL%1,    Bonnie%Woods%NULL%1,    Kenneth%Harkness%NULL%1,    David R.%Thiemann%NULL%1,    Mary G.%Bowring%NULL%1,    Aalok B.%Shah%NULL%2,    Aalok B.%Shah%NULL%0,    Mei-Cheng%Wang%NULL%1,    Karen%Bandeen-Roche%NULL%1,    Antony%Rosen%NULL%1,    Scott L.%Zeger%NULL%2,    Scott L.%Zeger%NULL%0,    Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,    Megan%McCullough%NULL%0,    Megan%McCullough%NULL%0,    Michael A.%Fuery%NULL%0,    Fouad%Chouairi%NULL%0,    Fouad%Chouairi%NULL%0,    Craig%Keating%NULL%0,    Neal G.%Ravindra%NULL%0,    P. Elliott%Miller%NULL%0,    Maricar%Malinis%NULL%0,    Nitu%Kashyap%NULL%0,    Allen%Hsiao%NULL%0,    F. Perry%Wilson%NULL%0,    Jeptha P.%Curtis%NULL%0,    Matthew%Grant%NULL%0,    Eric J.%Velazquez%NULL%0,    Nihar R.%Desai%NULL%0,    Tariq%Ahmad%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0,    Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,      R. U.% Shah%null%1,      M.% Bale%null%1,      J. B.% Peacock%null%1,      B.% Berger%null%1,      A.% Brown%null%1,      S.% Mann%null%1,      W.% West%null%1,      V.% Martin%null%1,      V.% Fernandez%null%1,      S.% Grineski%null%1,      B. J.% Brintz%null%1,      M. H.% Samore%null%1,      M. J.% Ferrari%null%1,      D. T.% Leung%null%1,      L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,     Samuel L%Bruce%NULL%2,     Cody L%Slater%NULL%2,     Jonathan R%Tiao%NULL%2,     Matthew R%Baldwin%NULL%2,     R Graham%Barr%NULL%2,     Bernard P%Chang%NULL%2,     Katherine H%Chau%NULL%2,     Justin J%Choi%NULL%2,     Nicholas%Gavin%NULL%2,     Parag%Goyal%NULL%2,     Angela M%Mills%NULL%2,     Ashmi A%Patel%NULL%2,     Marie-Laure S%Romney%NULL%2,     Monika M%Safford%NULL%2,     Neil W%Schluger%NULL%2,     Soumitra%Sengupta%NULL%2,     Magdalena E%Sobieszczyk%NULL%2,     Jason E%Zucker%NULL%2,     Paul A%Asadourian%NULL%2,     Fletcher M%Bell%NULL%2,     Rebekah%Boyd%NULL%2,     Matthew F%Cohen%NULL%2,     MacAlistair I%Colquhoun%NULL%2,     Lucy A%Colville%NULL%2,     Joseph H%de Jonge%NULL%2,     Lyle B%Dershowitz%NULL%2,     Shirin A%Dey%NULL%2,     Katherine A%Eiseman%NULL%2,     Zachary P%Girvin%NULL%2,     Daniella T%Goni%NULL%2,     Amro A%Harb%NULL%2,     Nicholas%Herzik%NULL%2,     Sarah%Householder%NULL%2,     Lara E%Karaaslan%NULL%2,     Heather%Lee%NULL%2,     Evan%Lieberman%NULL%2,     Andrew%Ling%NULL%2,     Ree%Lu%NULL%2,     Arthur Y%Shou%NULL%2,     Alexander C%Sisti%NULL%2,     Zachary E%Snow%NULL%2,     Colin P%Sperring%NULL%2,     Yuqing%Xiong%NULL%2,     Henry W%Zhou%NULL%2,     Karthik%Natarajan%NULL%2,     George%Hripcsak%NULL%2,     Ruijun%Chen%NULL%4]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,     Megan%McCullough%NULL%4,     Megan%McCullough%NULL%0,     Michael A.%Fuery%NULL%2,     Fouad%Chouairi%NULL%4,     Fouad%Chouairi%NULL%0,     Craig%Keating%NULL%2,     Neal G.%Ravindra%NULL%2,     P. Elliott%Miller%NULL%2,     Maricar%Malinis%NULL%2,     Nitu%Kashyap%NULL%2,     Allen%Hsiao%NULL%2,     F. Perry%Wilson%NULL%2,     Jeptha P.%Curtis%NULL%2,     Matthew%Grant%NULL%2,     Eric J.%Velazquez%NULL%2,     Nihar R.%Desai%NULL%2,     Tariq%Ahmad%NULL%2,     Chiara%Lazzeri%NULL%20,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,     Karen K.%Wong%NULL%1,     Christine M.%Szablewski%NULL%1,     Priti R.%Patel%NULL%1,     John%Rossow%NULL%1,     Juliana%da Silva%NULL%1,     Pavithra%Natarajan%NULL%1,     Sapna Bamrah%Morris%NULL%1,     Robyn Neblett%Fanfair%NULL%1,     Jessica%Rogers-Brown%NULL%1,     Beau B.%Bruce%NULL%1,     Sean D.%Browning%NULL%1,     Alfonso C.%Hernandez-Romieu%NULL%3,     Nathan W.%Furukawa%NULL%1,     Mohleen%Kang%NULL%1,     Mary E.%Evans%NULL%1,     Nadine%Oosmanally%NULL%1,     Melissa%Tobin-D’Angelo%NULL%1,     Cherie%Drenzek%NULL%1,     David J.%Murphy%NULL%0,     Julie%Hollberg%NULL%1,     James M.%Blum%NULL%0,     Robert%Jansen%NULL%1,     David W.%Wright%NULL%1,     William M.%Sewell%NULL%1,     Jack D.%Owens%NULL%1,     Benjamin%Lefkove%NULL%1,     Frank W.%Brown%NULL%1,     Deron C.%Burton%NULL%1,     Timothy M.%Uyeki%NULL%3,     Stephanie R.%Bialek%NULL%1,     Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,     Jasmine A.%Mack%NULL%1,     Maxwell%Salvatore%NULL%1,     Swaraaj Prabhu%Sankar%NULL%1,     Thomas S.%Valley%NULL%1,     Karandeep%Singh%NULL%1,     Brahmajee K.%Nallamothu%NULL%1,     Sachin%Kheterpal%NULL%1,     Lynda%Lisabeth%NULL%1,     Lars G.%Fritsche%NULL%1,     Bhramar%Mukherjee%NULL%1,      T.%Gu%null%1,      J. A.% Mack%null%1,      M.% Salvatore%null%1,      S. P.% Sankar%null%1,      T. S.% Valley%null%1,      K.% Singh%null%1,      B. K.% Nallamothu%null%1,      S.% Kheterpal%null%1,      L.% Lisabeth%null%1,      L. G.% Fritsche%null%1,      B. G. % Mukherjee%null%1,     T.%Gu%null%1,     J. A.% Mack%null%1,     M.% Salvatore%null%1,     S. P.% Sankar%null%1,     T. S.% Valley%null%1,     K.% Singh%null%1,     B. K.% Nallamothu%null%1,     S.% Kheterpal%null%1,     L.% Lisabeth%null%1,     L. G.% Fritsche%null%1,     B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,      S.% Nirenberg%null%1,      P.% Kovatch%null%2,      K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,     Shikha%Garg%NULL%1,     Alissa%O’Halloran%NULL%1,     Michael%Whitaker%NULL%1,     Huong%Pham%NULL%1,     Evan J%Anderson%NULL%1,     Isaac%Armistead%NULL%1,     Nancy M%Bennett%NULL%1,     Laurie%Billing%NULL%1,     Kathryn%Como-Sabetti%NULL%1,     Mary%Hill%NULL%1,     Sue%Kim%NULL%1,     Maya L%Monroe%NULL%1,     Alison%Muse%NULL%1,     Arthur L%Reingold%NULL%1,     William%Schaffner%NULL%1,     Melissa%Sutton%NULL%1,     H Keipp%Talbot%NULL%1,     Salina M%Torres%NULL%1,     Kimberly%Yousey-Hindes%NULL%1,     Rachel%Holstein%NULL%1,     Charisse%Cummings%NULL%1,     Lynette%Brammer%NULL%1,     Aron J%Hall%NULL%1,     Alicia M%Fry%NULL%1,     Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,      S.% Richardson%null%1,      K.% Coppa%null%1,      D. P.% Barnaby%null%1,      T.% McGinn%null%1,      L. B.% Becker%null%1,      K. W.% Davidson%null%1,      S. L.% Cohen%null%1,      J. S.% Hirsch%null%1,      T.% Zanos%null%1,        % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,      L. H.% Nguyen%null%1,      D. A.% Drew%null%1,      M. S.% Graham%null%1,      E. T.% Warner%null%1,      A. D.% Joshi%null%1,      C. M.% Astley%null%1,      C.-G.% Guo%null%1,      W.% Ma%null%1,      R. S.% Mehta%null%1,      S.% Kwon%null%1,      M.% Song%null%1,      R.% Davies%null%1,      J.% Capdevila%null%1,      K. A.% Lee%null%1,      M. N.% Lochlainn%null%1,      T.% Varsavsky%null%1,      C. H.% Sudre%null%1,      J.% Wolf%null%1,      Y. C.% Cozier%null%1,      L.% Rosenberg%null%1,      L. R.% Wilkens%null%1,      C. A.% Haiman%null%1,      L. L.% Marchand%null%1,      J. R.% Palmer%null%1,      T. D.% Spector%null%1,      S.% Ourselin%null%1,      C. J.% Steves%null%1,      A. T.% Chan%null%1,        % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,     Jienchi%Dorward%NULL%1,     Ana%Correa%NULL%1,     Nicholas%Jones%NULL%1,     Oluwafunmi%Akinyemi%NULL%1,     Gayatri%Amirthalingam%NULL%1,     Nick%Andrews%NULL%1,     Rachel%Byford%NULL%1,     Gavin%Dabrera%NULL%1,     Alex%Elliot%NULL%1,     Joanna%Ellis%NULL%0,     Filipa%Ferreira%NULL%1,     Jamie%Lopez Bernal%NULL%1,     Cecilia%Okusi%NULL%1,     Mary%Ramsay%NULL%1,     Julian%Sherlock%NULL%1,     Gillian%Smith%NULL%1,     John%Williams%NULL%1,     Gary%Howsam%NULL%1,     Maria%Zambon%NULL%0,     Mark%Joy%NULL%1,     F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,     Johanna%Dolle%NULL%2,     Johanna%Dolle%NULL%0,     Sheila%Grami%NULL%1,     Richard%Adule%NULL%1,     Zeyu%Li%NULL%1,     Kathleen%Tatem%NULL%1,     Chinyere%Anyaogu%NULL%1,     Stephen%Apfelroth%NULL%1,     Raji%Ayinla%NULL%2,     Raji%Ayinla%NULL%0,     Noella%Boma%NULL%1,     Terence%Brady%NULL%1,     Braulio F.%Cosme-Thormann%NULL%1,     Roseann%Costarella%NULL%1,     Kenra%Ford%NULL%1,     Kecia%Gaither%NULL%1,     Jessica%Jacobson%NULL%1,     Marc%Kanter%NULL%1,     Stuart%Kessler%NULL%1,     Ross B.%Kristal%NULL%1,     Joseph J.%Lieber%NULL%1,     Vikramjit%Mukherjee%NULL%1,     Vincent%Rizzo%NULL%1,     Madden%Rowell%NULL%1,     David%Stevens%NULL%1,     Elana%Sydney%NULL%1,     Andrew%Wallach%NULL%2,     Andrew%Wallach%NULL%0,     Dave A.%Chokshi%NULL%1,     Nichola%Davis%NULL%1,     NULL%NULL%NULL%0,     Sze Yan%Liu%NULL%2,     Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,     Mark%Caridi-Scheible%NULL%0,     James M.%Blum%NULL%0,     Chad%Robichaux%NULL%2,     Colleen%Kraft%NULL%2,     Jesse T.%Jacob%NULL%2,     Craig S.%Jabaley%NULL%0,     David%Carpenter%NULL%2,     Roberta%Kaplow%NULL%2,     Alfonso C.%Hernandez-Romieu%NULL%0,     Max W.%Adelman%NULL%0,     Greg S.%Martin%NULL%0,     Craig M.%Coopersmith%NULL%2,     David J.%Murphy%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,      Seunghee%Kim-Schulze%null%1,      Hsin-Hui%Huang%null%1,      Noam D.%Beckmann%null%1,      Sharon%Nirenberg%null%1,      Bo%Wang%null%0,      Yonit%Lavin%null%1,      Talia H.%Swartz%null%1,      Deepu%Madduri%null%1,      Aryeh%Stock%null%1,      Thomas U.%Marron%null%1,      Hui%Xie%null%1,      Manishkumar%Patel%null%1,      Kevin%Tuballes%null%1,      Oliver%Oekelen%null%1,      Adeeb%Rahman%null%1,      Patricia%Kovatch%null%0,      Judith A.%Aberg%null%1,      Eric%Schadt%null%1,      Sundar%Jagannath%null%1,      Madhu%Mazumdar%null%1,      Alexander W.%Charney%null%1,      Adolfo%Firpo-Betancourt%null%1,      Damodara Rao%Mendu%null%1,      Jeffrey%Jhang%null%2,      David%Reich%null%1,      Keith%Sigel%null%1,      Carlos%Cordon-Cardo%null%0,      Marc%Feldmann%null%1,      Samir%Parekh%null%1,      Miriam%Merad%null%1,      Sacha%Gnjatic%null%1,     Diane Marie%Del Valle%null%1,     Seunghee%Kim-Schulze%null%1,     Hsin-Hui%Huang%null%1,     Noam D.%Beckmann%null%1,     Sharon%Nirenberg%null%2,     Bo%Wang%null%3,     Yonit%Lavin%null%1,     Talia H.%Swartz%null%1,     Deepu%Madduri%null%1,     Aryeh%Stock%null%1,     Thomas U.%Marron%null%1,     Hui%Xie%null%2,     Manishkumar%Patel%null%1,     Kevin%Tuballes%null%1,     Oliver%Oekelen%null%1,     Adeeb%Rahman%null%1,     Patricia%Kovatch%null%2,     Judith A.%Aberg%null%1,     Eric%Schadt%null%2,     Sundar%Jagannath%null%1,     Madhu%Mazumdar%null%1,     Alexander W.%Charney%null%0,     Adolfo%Firpo-Betancourt%null%1,     Damodara Rao%Mendu%null%1,     Jeffrey%Jhang%null%2,     David%Reich%null%2,     Keith%Sigel%null%1,     Carlos%Cordon-Cardo%null%0,     Marc%Feldmann%null%1,     Samir%Parekh%null%1,     Miriam%Merad%null%1,     Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,     David R.%Jenkins%NULL%1,     Jatinder S.%Minhas%NULL%1,     Laura J.%Gray%NULL%1,     Julian%Tang%NULL%1,     Caroline%Williams%NULL%1,     Shirley%Sze%NULL%1,     Daniel%Pan%NULL%1,     William%Jones%NULL%1,     Raman%Verma%NULL%1,     Scott%Knapp%NULL%1,     Rupert%Major%NULL%1,     Melanie%Davies%NULL%1,     Nigel%Brunskill%NULL%1,     Martin%Wiselka%NULL%1,     Chris%Brightling%NULL%1,     Kamlesh%Khunti%NULL%1,     Pranab%Haldar%NULL%1,     Manish%Pareek%mp426@le.ac.uk%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,     Kelly E%Hathorn%NULL%2,     Kelly E%Hathorn%NULL%0,     Walker D%Redd%NULL%1,     Nicolette J%Rodriguez%NULL%1,     Joyce C%Zhou%NULL%1,     Ahmad Najdat%Bazarbashi%NULL%1,     Cheikh%Njie%NULL%1,     Danny%Wong%NULL%1,     Quoc-Dien%Trinh%NULL%1,     Lin%Shen%NULL%1,     Valerie E%Stone%NULL%2,     Valerie E%Stone%NULL%0,     Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,      S.% Apewokin%null%1,      A. A.% Wells%null%1,      A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,     Thomas E.%Webb%NULL%2,     Thomas E.%Webb%NULL%0,     Benjamin C.%Mcloughlin%NULL%2,     Benjamin C.%Mcloughlin%NULL%0,     Imran%Mannan%NULL%2,     Imran%Mannan%NULL%0,     Arshad%Rather%NULL%2,     Arshad%Rather%NULL%0,     Paul%Knopp%NULL%1,     Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,     Rajat%Suri%NULL%2,     Rajat%Suri%NULL%0,     Iheanacho O.%Emeruwa%NULL%2,     Iheanacho O.%Emeruwa%NULL%0,     Robert J.%Stretch%NULL%1,     Roxana Y.%Cortes-Lopez%NULL%2,     Roxana Y.%Cortes-Lopez%NULL%0,     Alexander%Sherman%NULL%1,     Catherine C.%Lindsay%NULL%1,     Jennifer A.%Fulcher%NULL%1,     David%Goodman-Meza%NULL%2,     David%Goodman-Meza%NULL%0,     Anil%Sapru%NULL%2,     Anil%Sapru%NULL%0,     Russell G.%Buhr%NULL%1,     Steven Y.%Chang%NULL%2,     Steven Y.%Chang%NULL%0,     Tisha%Wang%NULL%1,     Nida%Qadir%NULL%1,     Giordano%Madeddu%NULL%10,     Giordano%Madeddu%NULL%0,     Giordano%Madeddu%NULL%0,     Ana C.%Monteiro%NULL%2,     Ana C.%Monteiro%NULL%0,     Giordano%Madeddu%NULL%0,     Giordano%Madeddu%NULL%0,     Giordano%Madeddu%NULL%0,     Giordano%Madeddu%NULL%0,     Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,      D.% Stefanov%null%1,      A. S.% Chau%null%1,      A. G.% Weber%null%1,      G. S.% Marder%null%1,      B.% Kaplan%null%1,      P.% Malhotra%null%1,      O.% Bloom%null%1,      A.% Liu%null%1,      M.% Lesser%null%1,      N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,     Catherine A.%O’Donnell%NULL%1,     Bhautesh Dinesh%Jani%NULL%1,     Evangelia%Demou%NULL%1,     Frederick K.%Ho%NULL%1,     Carlos%Celis-Morales%NULL%1,     Barbara I.%Nicholl%NULL%1,     Frances S.%Mair%NULL%1,     Paul%Welsh%NULL%1,     Naveed%Sattar%NULL%1,     Jill P.%Pell%NULL%1,     S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,     Alex J%Walker%NULL%1,     Krishnan%Bhaskaran%NULL%1,     Seb%Bacon%NULL%1,     Chris%Bates%NULL%1,     Caroline E%Morton%NULL%1,     Helen J%Curtis%NULL%1,     Amir%Mehrkar%NULL%1,     David%Evans%NULL%1,     Peter%Inglesby%NULL%1,     Jonathan%Cockburn%NULL%1,     Helen I%McDonald%NULL%1,     Brian%MacKenna%NULL%1,     Laurie%Tomlinson%NULL%1,     Ian J%Douglas%NULL%1,     Christopher T%Rentsch%NULL%1,     Rohini%Mathur%NULL%1,     Angel YS%Wong%NULL%1,     Richard%Grieve%NULL%1,     David%Harrison%NULL%1,     Harriet%Forbes%NULL%1,     Anna%Schultze%NULL%2,     Richard%Croker%NULL%1,     John%Parry%NULL%1,     Frank%Hester%NULL%1,     Sam%Harper%NULL%1,     Rafael%Perera%NULL%1,     Stephen JW%Evans%NULL%1,     Liam%Smeeth%NULL%1,     Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,     Ajay%Bhasin%NULL%1,     Joseph M.%Feinglass%NULL%1,     Michael P.%Angarone%NULL%1,     Elaine R.%Cohen%NULL%1,     Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,     Andrew%Gangemi%NULL%1,     Robert%Marron%NULL%1,     Junad%Chowdhury%NULL%1,     Ibraheem%Yousef%NULL%1,     Matthew%Zheng%NULL%1,     Nicole%Mills%NULL%1,     Lauren%Tragesser%NULL%1,     Julie%Giurintano%NULL%1,     Rohit%Gupta%NULL%0,     Matthew%Gordon%NULL%0,     Parth%Rali%NULL%2,     Parth%Rali%NULL%0,     Gilbert%D'Alonso%NULL%1,     David%Fleece%NULL%1,     Huaqing%Zhao%NULL%0,     Nicole%Patlakh%NULL%0,     Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,     Nathan C.%Skorodin%nskorodin@midcusa.com%1,     Nicholas W.%Van Hise%NULL%1,     Robert M.%Fliegelman%NULL%1,     Jonathan%Pinsky%NULL%1,     Vishal%Didwania%NULL%1,     Michael%Anderson%NULL%1,     Melina%Diaz%NULL%1,     Kairav%Shah%NULL%1,     Vishnu V.%Chundi%NULL%1,     David W.%Hines%NULL%1,     Brian P.%Harting%NULL%1,     Kamo%Sidwha%NULL%1,     Brian%Yu%NULL%1,     Paul%Brune%NULL%1,     Anjum%Owaisi%NULL%1,     David%Beezhold%NULL%1,     Joseph%Kent%NULL%1,     Dana%Vais%NULL%1,     Alice%Han%NULL%1,     Neethi%Gowda%NULL%1,     Nishi%Sahgal%NULL%1,     Jan%Silverman%NULL%1,     Jonathan%Stake%NULL%1,     Jenie%Nepomuceno%NULL%1,     Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,     Anna%Daunt%NULL%2,     Anna%Daunt%NULL%0,     Sujit%Mukherjee%NULL%1,     Peter%Crook%NULL%1,     Roberta%Forlano%NULL%1,     Mara D%Kont%NULL%1,     Alessandra%Løchen%NULL%1,     Michaela%Vollmer%NULL%1,     Paul%Middleton%NULL%1,     Rebekah%Judge%NULL%1,     Christopher%Harlow%NULL%1,     Anet%Soubieres%NULL%1,     Graham%Cooke%NULL%1,     Peter J%White%NULL%1,     Timothy B%Hallett%NULL%1,     Paul%Aylin%NULL%1,     Neil%Ferguson%NULL%1,     Katharina%Hauck%NULL%1,     Mark R%Thursz%NULL%1,     Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,     Jeffrey%Burton%NULL%2,     Jeffrey%Burton%NULL%0,     Daniel%Fort%NULL%1,     Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,     Michael S.%Sherman%NULL%1,     Naaz%Fatteh%NULL%1,     Fabio%Vogel%NULL%1,     Jamie%Sacks%NULL%1,     Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,      P.% Mannam%null%1,      R.% Comer%null%1,      E.% Sinclair%null%1,      D. B.% McQuaid%null%1,      M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,     Farah%Kidwai-Khan%NULL%1,     Janet P.%Tate%NULL%1,     Lesley S.%Park%NULL%1,     Joseph T.%King%NULL%1,     Melissa%Skanderson%NULL%1,     Ronald G.%Hauser%NULL%1,     Anna%Schultze%NULL%0,     Christopher I.%Jarvis%NULL%1,     Mark%Holodniy%NULL%1,     Vincent Lo%Re%NULL%1,     Kathleen M.%Akgün%NULL%1,     Kristina%Crothers%NULL%1,     Tamar H.%Taddei%NULL%1,     Matthew S.%Freiberg%NULL%1,     Amy C.%Justice%NULL%1,      C. T.%Rentsch%null%1,      F.% Kidwai-Khan%null%1,      J. P.% Tate%null%1,      L. S.% Park%null%1,      J. T.% King%null%1,      M.% Skanderson%null%1,      R. G.% Hauser%null%1,      A.% Schultze%null%1,      C. I.% Jarvis%null%1,      M.% Holodniy%null%1,      V.% Lo Re%null%1,      K. M.% Akgun%null%1,      K.% Crothers%null%1,      T. H.% Taddei%null%1,      M. S.% Freiberg%null%1,      A. C. % Justice%null%1,     C. T.%Rentsch%null%1,     F.% Kidwai-Khan%null%1,     J. P.% Tate%null%1,     L. S.% Park%null%1,     J. T.% King%null%1,     M.% Skanderson%null%1,     R. G.% Hauser%null%1,     A.% Schultze%null%1,     C. I.% Jarvis%null%1,     M.% Holodniy%null%1,     V.% Lo Re%null%1,     K. M.% Akgun%null%1,     K.% Crothers%null%1,     T. H.% Taddei%null%1,     M. S.% Freiberg%null%1,     A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,     Jennifer%Beam%NULL%2,     Jennifer%Beam%NULL%0,     Haley%Maier%NULL%1,     Whitney%Haggerson%NULL%1,     Karen%Boudreau%NULL%1,     Jamie%Carlson%NULL%1,     Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,     Alexander E.%Ayala%NULL%1,     Chideraa C.%Ukeje%NULL%1,     Celeste S.%Witting%NULL%1,     William A.%Grobman%NULL%1,     Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,     Hannah C.%Jarvis%NULL%2,     Hannah C.%Jarvis%NULL%0,     Ezgi%Ozcan%NULL%1,     Thomas L. P.%Burns%NULL%1,     Rabia A.%Warraich%NULL%1,     Lisa J.%Amani%NULL%1,     Amina%Jaffer%NULL%1,     Stephanie%Paget%NULL%1,     Anand%Sivaramakrishnan%NULL%1,     Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,     Suzy%Gallier%NULL%2,     Suzy%Gallier%NULL%0,     Chris%Mainey%NULL%1,     Peter%Nightingale%NULL%2,     Peter%Nightingale%NULL%0,     David%McNulty%NULL%1,     Hannah%Crothers%NULL%1,     Felicity%Evison%NULL%1,     Katharine%Reeves%NULL%1,     Domenico%Pagano%NULL%1,     Alastair K%Denniston%NULL%1,     Krishnarajah%Nirantharakumar%NULL%1,     Peter%Diggle%NULL%1,     Simon%Ball%NULL%1,     Lylah%Irshad%NULL%1,     Maxim%Harris%NULL%1,     Theodore%Nabav%NULL%1,     A%Kolesnyk%NULL%1,     M%Ahmed%NULL%1,     A%Liaqat%NULL%1,     Tanya%Pankhurst%NULL%1,     Jamie%Coleman%NULL%1,     Chirag%Dave%NULL%1,     Khaled%ElFandi%NULL%1,     Rifat%Rashid%NULL%1,     Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,     Gregory A%Eschenauer%NULL%2,     Gregory A%Eschenauer%NULL%0,     Jonathan P%Troost%NULL%1,     Jonathan L%Golob%NULL%1,     Tejal N%Gandhi%NULL%1,     Lu%Wang%NULL%1,     Nina%Zhou%NULL%1,     Lindsay A%Petty%NULL%1,     Ji Hoon%Baang%NULL%1,     Nicholas O%Dillman%NULL%1,     David%Frame%NULL%1,     Kevin S%Gregg%NULL%1,     Dan R%Kaul%NULL%1,     Jerod%Nagel%NULL%1,     Twisha S%Patel%NULL%1,     Shiwei%Zhou%NULL%1,     Adam S%Lauring%NULL%1,     David A%Hanauer%NULL%1,     Emily%Martin%NULL%1,     Pratima%Sharma%NULL%1,     Christopher M%Fung%NULL%1,     Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,     Lei%Qian%NULL%2,     Lei%Qian%NULL%0,     Vennis%Hong%NULL%1,     Rong%Wei%NULL%2,     Rong%Wei%NULL%0,     Ron F.%Nadjafi%NULL%2,     Ron F.%Nadjafi%NULL%0,     Heidi%Fischer%NULL%1,     Zhuoxin%Li%NULL%1,     Sally F.%Shaw%NULL%1,     Susan L.%Caparosa%NULL%2,     Susan L.%Caparosa%NULL%0,     Claudia L.%Nau%NULL%1,     Tanmai%Saxena%NULL%1,     Gunter K.%Rieg%NULL%1,     Bradley K.%Ackerson%NULL%1,     Adam L.%Sharp%NULL%2,     Adam L.%Sharp%NULL%0,     Jacek%Skarbinski%NULL%2,     Jacek%Skarbinski%NULL%0,     Tej K.%Naik%NULL%1,     Sameer B.%Murali%NULL%2,     Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,     Juan Carlos%Nicolas%NULL%2,     Juan Carlos%Nicolas%NULL%0,     Jennifer R%Meeks%NULL%1,     Osman%Khan%NULL%1,     Alan%Pan%NULL%1,     Stephen L%Jones%NULL%1,     Faisal%Masud%NULL%1,     H Dirk%Sostman%NULL%1,     Robert%Phillips%NULL%1,     Julia D%Andrieni%NULL%1,     Bita A%Kash%NULL%1,     Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,     Arryn%Craney%NULL%1,     Phyllis%Ruggiero%NULL%1,     John%Sipley%NULL%1,     Lin%Cong%NULL%1,     Erika M.%Hissong%NULL%1,     Massimo%Loda%NULL%1,     Lars F.%Westblade%NULL%1,     Melissa%Cushing%NULL%2,     Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,      X.% Zhong%null%1,      Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,     Amanda%Zheutlin%NULL%2,     Amanda%Zheutlin%NULL%0,     Yu-Han%Kao%NULL%1,     Kristin%Ayers%NULL%1,     Susan%Gross%NULL%1,     Patricia%Kovatch%NULL%0,     Sharon%Nirenberg%NULL%0,     Alexander%Charney%NULL%1,     Girish%Nadkarni%NULL%1,     Jessica K%De Freitas%NULL%1,     Paul%O’Reilly%NULL%1,     Allan%Just%NULL%1,     Carol%Horowitz%NULL%1,     Glenn%Martin%NULL%1,     Andrea%Branch%NULL%1,     Benjamin S%Glicksberg%NULL%1,     Dennis%Charney%NULL%1,     David%Reich%NULL%0,     William K%Oh%NULL%1,     Eric%Schadt%NULL%0,     Rong%Chen%NULL%0,     Li%Li%NULL%7]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,     Angela%Winegar%NULL%1,     Richard%Fogel%NULL%1,     Mohamad%Fakih%NULL%1,     Allison%Ottenbacher%NULL%1,     Christine%Jesser%NULL%1,     Angelo%Bufalino%NULL%1,     Ren-Huai%Huang%NULL%1,     Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,     Rebecca%Bendayan%NULL%0,     Mark%Ashworth%NULL%1,     Daniel M.%Bean%NULL%1,     Hiten%Dodhia%NULL%1,     Stevo%Durbaba%NULL%1,     Kevin%O'Gallagher%NULL%1,     Claire%Palmer%NULL%1,     Vasa%Curcin%NULL%1,     Elizabeth%Aitken%NULL%1,     William%Bernal%NULL%1,     Richard D.%Barker%NULL%1,     Sam%Norton%NULL%1,     Martin%Gulliford%NULL%1,     James T.H.%Teo%NULL%0,     James%Galloway%NULL%1,     Richard J.B.%Dobson%NULL%0,     Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,     Carina%Marquez%NULL%1,     Emily%Crawford%NULL%1,     James%Peng%NULL%1,     Maya%Petersen%NULL%1,     Daniel%Schwab%NULL%1,     Joshua%Schwab%NULL%1,     Jackie%Martinez%NULL%1,     Diane%Jones%NULL%1,     Douglas%Black%NULL%1,     Monica%Gandhi%NULL%1,     Andrew D%Kerkhoff%NULL%1,     Vivek%Jain%NULL%1,     Francesco%Sergi%NULL%1,     Jon%Jacobo%NULL%1,     Susana%Rojas%NULL%1,     Valerie%Tulier-Laiwa%NULL%1,     Tracy%Gallardo-Brown%NULL%1,     Ayesha%Appa%NULL%1,     Charles%Chiu%NULL%1,     Mary%Rodgers%NULL%1,     John%Hackett%NULL%1,     NULL%NULL%NULL%0,     Amy%Kistler%NULL%1,     Samantha%Hao%NULL%1,     Jack%Kamm%NULL%1,     David%Dynerman%NULL%1,     Joshua%Batson%NULL%1,     Bryan%Greenhouse%NULL%2,     Joe%DeRisi%NULL%1,     Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,     Tiffany%Grimes%NULL%1,     Peng%Li%NULL%1,     Matthew%Might%NULL%1,     Fernando%Ovalle%NULL%1,     Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,     Natalie%Achamallah%NULL%1,     Hongwei%Ji%NULL%1,     Brian L.%Claggett%NULL%1,     Nancy%Sun%NULL%1,     Patrick%Botting%NULL%1,     Trevor-Trung%Nguyen%NULL%1,     Eric%Luong%NULL%1,     Elizabeth H.%Kim%NULL%1,     Eunice%Park%NULL%1,     Yunxian%Liu%NULL%1,     Ryan%Rosenberry%NULL%1,     Yuri%Matusov%NULL%1,     Steven%Zhao%NULL%1,     Isabel%Pedraza%NULL%1,     Tanzira%Zaman%NULL%1,     Michael%Thompson%NULL%1,     Koen%Raedschelders%NULL%1,     Anders H.%Berg%NULL%2,     Anders H.%Berg%NULL%0,     Jonathan D.%Grein%NULL%1,     Paul W.%Noble%NULL%1,     Sumeet S.%Chugh%NULL%1,     C. Noel%Bairey Merz%NULL%1,     Eduardo%Marbán%NULL%1,     Jennifer E.%Van Eyk%NULL%1,     Scott D.%Solomon%NULL%1,     Christine M.%Albert%NULL%1,     Peter%Chen%NULL%1,     Susan%Cheng%NULL%3,     Yu Ru%Kou%NULL%8,     Yu Ru%Kou%NULL%0,     Yu Ru%Kou%NULL%0,     Susan%Cheng%biodatacore@cshs.org%0,     Susan%Cheng%biodatacore@cshs.org%0,     Yu Ru%Kou%NULL%0,     Yu Ru%Kou%NULL%0,     Yu Ru%Kou%NULL%0,     Yu Ru%Kou%NULL%0,     Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,     Penelope%Strid%NULL%1,     Van T.%Tong%NULL%1,     Kate%Woodworth%NULL%1,     Romeo R.%Galang%NULL%1,     Laura D.%Zambrano%NULL%1,     John%Nahabedian%NULL%1,     Kayla%Anderson%NULL%1,     Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,     Jacob%Fiksel%NULL%4,     Jacob%Fiksel%NULL%0,     John%Muschelli%NULL%4,     John%Muschelli%NULL%0,     Matthew L.%Robinson%NULL%4,     Matthew L.%Robinson%NULL%0,     Masoud%Rouhizadeh%NULL%4,     Masoud%Rouhizadeh%NULL%0,     Jamie%Perin%NULL%4,     Jamie%Perin%NULL%0,     Grant%Schumock%NULL%4,     Grant%Schumock%NULL%0,     Paul%Nagy%NULL%4,     Paul%Nagy%NULL%0,     Josh H.%Gray%NULL%4,     Josh H.%Gray%NULL%0,     Harsha%Malapati%NULL%4,     Harsha%Malapati%NULL%0,     Mariam%Ghobadi-Krueger%NULL%4,     Mariam%Ghobadi-Krueger%NULL%0,     Timothy M.%Niessen%NULL%2,     Bo Soo%Kim%NULL%2,     Peter M.%Hill%NULL%2,     M. Shafeeq%Ahmed%NULL%2,     Eric D.%Dobkin%NULL%2,     Renee%Blanding%NULL%2,     Jennifer%Abele%NULL%2,     Bonnie%Woods%NULL%2,     Kenneth%Harkness%NULL%2,     David R.%Thiemann%NULL%2,     Mary G.%Bowring%NULL%2,     Aalok B.%Shah%NULL%4,     Aalok B.%Shah%NULL%0,     Mei-Cheng%Wang%NULL%2,     Karen%Bandeen-Roche%NULL%2,     Antony%Rosen%NULL%2,     Scott L.%Zeger%NULL%4,     Scott L.%Zeger%NULL%0,     Amita%Gupta%NULL%2]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,     Megan%McCullough%NULL%0,     Megan%McCullough%NULL%0,     Michael A.%Fuery%NULL%0,     Fouad%Chouairi%NULL%0,     Fouad%Chouairi%NULL%0,     Craig%Keating%NULL%0,     Neal G.%Ravindra%NULL%0,     P. Elliott%Miller%NULL%0,     Maricar%Malinis%NULL%0,     Nitu%Kashyap%NULL%0,     Allen%Hsiao%NULL%0,     F. Perry%Wilson%NULL%0,     Jeptha P.%Curtis%NULL%0,     Matthew%Grant%NULL%0,     Eric J.%Velazquez%NULL%0,     Nihar R.%Desai%NULL%0,     Tariq%Ahmad%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,       R. U.% Shah%null%1,       M.% Bale%null%1,       J. B.% Peacock%null%1,       B.% Berger%null%1,       A.% Brown%null%1,       S.% Mann%null%1,       W.% West%null%1,       V.% Martin%null%1,       V.% Fernandez%null%1,       S.% Grineski%null%1,       B. J.% Brintz%null%1,       M. H.% Samore%null%1,       M. J.% Ferrari%null%1,       D. T.% Leung%null%1,       L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,      Samuel L%Bruce%NULL%2,      Cody L%Slater%NULL%2,      Jonathan R%Tiao%NULL%2,      Matthew R%Baldwin%NULL%2,      R Graham%Barr%NULL%2,      Bernard P%Chang%NULL%2,      Katherine H%Chau%NULL%2,      Justin J%Choi%NULL%2,      Nicholas%Gavin%NULL%2,      Parag%Goyal%NULL%2,      Angela M%Mills%NULL%2,      Ashmi A%Patel%NULL%2,      Marie-Laure S%Romney%NULL%2,      Monika M%Safford%NULL%2,      Neil W%Schluger%NULL%2,      Soumitra%Sengupta%NULL%2,      Magdalena E%Sobieszczyk%NULL%2,      Jason E%Zucker%NULL%2,      Paul A%Asadourian%NULL%2,      Fletcher M%Bell%NULL%2,      Rebekah%Boyd%NULL%2,      Matthew F%Cohen%NULL%2,      MacAlistair I%Colquhoun%NULL%2,      Lucy A%Colville%NULL%2,      Joseph H%de Jonge%NULL%2,      Lyle B%Dershowitz%NULL%2,      Shirin A%Dey%NULL%2,      Katherine A%Eiseman%NULL%2,      Zachary P%Girvin%NULL%2,      Daniella T%Goni%NULL%2,      Amro A%Harb%NULL%2,      Nicholas%Herzik%NULL%2,      Sarah%Householder%NULL%2,      Lara E%Karaaslan%NULL%2,      Heather%Lee%NULL%2,      Evan%Lieberman%NULL%2,      Andrew%Ling%NULL%2,      Ree%Lu%NULL%2,      Arthur Y%Shou%NULL%2,      Alexander C%Sisti%NULL%2,      Zachary E%Snow%NULL%2,      Colin P%Sperring%NULL%2,      Yuqing%Xiong%NULL%2,      Henry W%Zhou%NULL%2,      Karthik%Natarajan%NULL%2,      George%Hripcsak%NULL%2,      Ruijun%Chen%NULL%4]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,      Megan%McCullough%NULL%4,      Megan%McCullough%NULL%0,      Michael A.%Fuery%NULL%2,      Fouad%Chouairi%NULL%4,      Fouad%Chouairi%NULL%0,      Craig%Keating%NULL%2,      Neal G.%Ravindra%NULL%2,      P. Elliott%Miller%NULL%2,      Maricar%Malinis%NULL%2,      Nitu%Kashyap%NULL%2,      Allen%Hsiao%NULL%2,      F. Perry%Wilson%NULL%2,      Jeptha P.%Curtis%NULL%2,      Matthew%Grant%NULL%2,      Eric J.%Velazquez%NULL%2,      Nihar R.%Desai%NULL%2,      Tariq%Ahmad%NULL%2,      Chiara%Lazzeri%NULL%20,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,      Karen K.%Wong%NULL%1,      Christine M.%Szablewski%NULL%1,      Priti R.%Patel%NULL%1,      John%Rossow%NULL%1,      Juliana%da Silva%NULL%1,      Pavithra%Natarajan%NULL%1,      Sapna Bamrah%Morris%NULL%1,      Robyn Neblett%Fanfair%NULL%1,      Jessica%Rogers-Brown%NULL%1,      Beau B.%Bruce%NULL%1,      Sean D.%Browning%NULL%1,      Alfonso C.%Hernandez-Romieu%NULL%3,      Nathan W.%Furukawa%NULL%1,      Mohleen%Kang%NULL%1,      Mary E.%Evans%NULL%1,      Nadine%Oosmanally%NULL%1,      Melissa%Tobin-D’Angelo%NULL%1,      Cherie%Drenzek%NULL%1,      David J.%Murphy%NULL%0,      Julie%Hollberg%NULL%1,      James M.%Blum%NULL%0,      Robert%Jansen%NULL%1,      David W.%Wright%NULL%1,      William M.%Sewell%NULL%1,      Jack D.%Owens%NULL%1,      Benjamin%Lefkove%NULL%1,      Frank W.%Brown%NULL%1,      Deron C.%Burton%NULL%1,      Timothy M.%Uyeki%NULL%3,      Stephanie R.%Bialek%NULL%1,      Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,      Jasmine A.%Mack%NULL%1,      Maxwell%Salvatore%NULL%1,      Swaraaj Prabhu%Sankar%NULL%1,      Thomas S.%Valley%NULL%1,      Karandeep%Singh%NULL%1,      Brahmajee K.%Nallamothu%NULL%1,      Sachin%Kheterpal%NULL%1,      Lynda%Lisabeth%NULL%1,      Lars G.%Fritsche%NULL%1,      Bhramar%Mukherjee%NULL%1,       T.%Gu%null%1,       J. A.% Mack%null%1,       M.% Salvatore%null%1,       S. P.% Sankar%null%1,       T. S.% Valley%null%1,       K.% Singh%null%1,       B. K.% Nallamothu%null%1,       S.% Kheterpal%null%1,       L.% Lisabeth%null%1,       L. G.% Fritsche%null%1,       B. G. % Mukherjee%null%1,      T.%Gu%null%1,      J. A.% Mack%null%1,      M.% Salvatore%null%1,      S. P.% Sankar%null%1,      T. S.% Valley%null%1,      K.% Singh%null%1,      B. K.% Nallamothu%null%1,      S.% Kheterpal%null%1,      L.% Lisabeth%null%1,      L. G.% Fritsche%null%1,      B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,       S.% Nirenberg%null%1,       P.% Kovatch%null%2,       K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,      Shikha%Garg%NULL%1,      Alissa%O’Halloran%NULL%1,      Michael%Whitaker%NULL%1,      Huong%Pham%NULL%1,      Evan J%Anderson%NULL%1,      Isaac%Armistead%NULL%1,      Nancy M%Bennett%NULL%1,      Laurie%Billing%NULL%1,      Kathryn%Como-Sabetti%NULL%1,      Mary%Hill%NULL%1,      Sue%Kim%NULL%1,      Maya L%Monroe%NULL%1,      Alison%Muse%NULL%1,      Arthur L%Reingold%NULL%1,      William%Schaffner%NULL%1,      Melissa%Sutton%NULL%1,      H Keipp%Talbot%NULL%1,      Salina M%Torres%NULL%1,      Kimberly%Yousey-Hindes%NULL%1,      Rachel%Holstein%NULL%1,      Charisse%Cummings%NULL%1,      Lynette%Brammer%NULL%1,      Aron J%Hall%NULL%1,      Alicia M%Fry%NULL%1,      Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,       S.% Richardson%null%1,       K.% Coppa%null%1,       D. P.% Barnaby%null%1,       T.% McGinn%null%1,       L. B.% Becker%null%1,       K. W.% Davidson%null%1,       S. L.% Cohen%null%1,       J. S.% Hirsch%null%1,       T.% Zanos%null%1,         % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,       L. H.% Nguyen%null%1,       D. A.% Drew%null%1,       M. S.% Graham%null%1,       E. T.% Warner%null%1,       A. D.% Joshi%null%1,       C. M.% Astley%null%1,       C.-G.% Guo%null%1,       W.% Ma%null%1,       R. S.% Mehta%null%1,       S.% Kwon%null%1,       M.% Song%null%1,       R.% Davies%null%1,       J.% Capdevila%null%1,       K. A.% Lee%null%1,       M. N.% Lochlainn%null%1,       T.% Varsavsky%null%1,       C. H.% Sudre%null%1,       J.% Wolf%null%1,       Y. C.% Cozier%null%1,       L.% Rosenberg%null%1,       L. R.% Wilkens%null%1,       C. A.% Haiman%null%1,       L. L.% Marchand%null%1,       J. R.% Palmer%null%1,       T. D.% Spector%null%1,       S.% Ourselin%null%1,       C. J.% Steves%null%1,       A. T.% Chan%null%1,         % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,      Jienchi%Dorward%NULL%1,      Ana%Correa%NULL%1,      Nicholas%Jones%NULL%1,      Oluwafunmi%Akinyemi%NULL%1,      Gayatri%Amirthalingam%NULL%1,      Nick%Andrews%NULL%1,      Rachel%Byford%NULL%1,      Gavin%Dabrera%NULL%1,      Alex%Elliot%NULL%1,      Joanna%Ellis%NULL%0,      Filipa%Ferreira%NULL%1,      Jamie%Lopez Bernal%NULL%1,      Cecilia%Okusi%NULL%1,      Mary%Ramsay%NULL%1,      Julian%Sherlock%NULL%1,      Gillian%Smith%NULL%1,      John%Williams%NULL%1,      Gary%Howsam%NULL%1,      Maria%Zambon%NULL%0,      Mark%Joy%NULL%1,      F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,      Johanna%Dolle%NULL%2,      Johanna%Dolle%NULL%0,      Sheila%Grami%NULL%1,      Richard%Adule%NULL%1,      Zeyu%Li%NULL%1,      Kathleen%Tatem%NULL%1,      Chinyere%Anyaogu%NULL%1,      Stephen%Apfelroth%NULL%1,      Raji%Ayinla%NULL%2,      Raji%Ayinla%NULL%0,      Noella%Boma%NULL%1,      Terence%Brady%NULL%1,      Braulio F.%Cosme-Thormann%NULL%1,      Roseann%Costarella%NULL%1,      Kenra%Ford%NULL%1,      Kecia%Gaither%NULL%1,      Jessica%Jacobson%NULL%1,      Marc%Kanter%NULL%1,      Stuart%Kessler%NULL%1,      Ross B.%Kristal%NULL%1,      Joseph J.%Lieber%NULL%1,      Vikramjit%Mukherjee%NULL%1,      Vincent%Rizzo%NULL%1,      Madden%Rowell%NULL%1,      David%Stevens%NULL%1,      Elana%Sydney%NULL%1,      Andrew%Wallach%NULL%2,      Andrew%Wallach%NULL%0,      Dave A.%Chokshi%NULL%1,      Nichola%Davis%NULL%1,      NULL%NULL%NULL%0,      Sze Yan%Liu%NULL%2,      Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,      Mark%Caridi-Scheible%NULL%0,      James M.%Blum%NULL%0,      Chad%Robichaux%NULL%2,      Colleen%Kraft%NULL%2,      Jesse T.%Jacob%NULL%2,      Craig S.%Jabaley%NULL%0,      David%Carpenter%NULL%2,      Roberta%Kaplow%NULL%2,      Alfonso C.%Hernandez-Romieu%NULL%0,      Max W.%Adelman%NULL%0,      Greg S.%Martin%NULL%0,      Craig M.%Coopersmith%NULL%2,      David J.%Murphy%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,       Seunghee%Kim-Schulze%null%1,       Hsin-Hui%Huang%null%1,       Noam D.%Beckmann%null%1,       Sharon%Nirenberg%null%1,       Bo%Wang%null%0,       Yonit%Lavin%null%1,       Talia H.%Swartz%null%1,       Deepu%Madduri%null%1,       Aryeh%Stock%null%1,       Thomas U.%Marron%null%1,       Hui%Xie%null%1,       Manishkumar%Patel%null%1,       Kevin%Tuballes%null%1,       Oliver%Oekelen%null%1,       Adeeb%Rahman%null%1,       Patricia%Kovatch%null%0,       Judith A.%Aberg%null%1,       Eric%Schadt%null%1,       Sundar%Jagannath%null%1,       Madhu%Mazumdar%null%1,       Alexander W.%Charney%null%1,       Adolfo%Firpo-Betancourt%null%1,       Damodara Rao%Mendu%null%1,       Jeffrey%Jhang%null%2,       David%Reich%null%1,       Keith%Sigel%null%1,       Carlos%Cordon-Cardo%null%0,       Marc%Feldmann%null%1,       Samir%Parekh%null%1,       Miriam%Merad%null%1,       Sacha%Gnjatic%null%1,      Diane Marie%Del Valle%null%1,      Seunghee%Kim-Schulze%null%1,      Hsin-Hui%Huang%null%1,      Noam D.%Beckmann%null%1,      Sharon%Nirenberg%null%2,      Bo%Wang%null%3,      Yonit%Lavin%null%1,      Talia H.%Swartz%null%1,      Deepu%Madduri%null%1,      Aryeh%Stock%null%1,      Thomas U.%Marron%null%1,      Hui%Xie%null%2,      Manishkumar%Patel%null%1,      Kevin%Tuballes%null%1,      Oliver%Oekelen%null%1,      Adeeb%Rahman%null%1,      Patricia%Kovatch%null%2,      Judith A.%Aberg%null%1,      Eric%Schadt%null%2,      Sundar%Jagannath%null%1,      Madhu%Mazumdar%null%1,      Alexander W.%Charney%null%0,      Adolfo%Firpo-Betancourt%null%1,      Damodara Rao%Mendu%null%1,      Jeffrey%Jhang%null%2,      David%Reich%null%2,      Keith%Sigel%null%1,      Carlos%Cordon-Cardo%null%0,      Marc%Feldmann%null%1,      Samir%Parekh%null%1,      Miriam%Merad%null%1,      Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,      David R.%Jenkins%NULL%1,      Jatinder S.%Minhas%NULL%1,      Laura J.%Gray%NULL%1,      Julian%Tang%NULL%1,      Caroline%Williams%NULL%1,      Shirley%Sze%NULL%1,      Daniel%Pan%NULL%1,      William%Jones%NULL%1,      Raman%Verma%NULL%1,      Scott%Knapp%NULL%1,      Rupert%Major%NULL%1,      Melanie%Davies%NULL%1,      Nigel%Brunskill%NULL%1,      Martin%Wiselka%NULL%1,      Chris%Brightling%NULL%1,      Kamlesh%Khunti%NULL%1,      Pranab%Haldar%NULL%1,      Manish%Pareek%mp426@le.ac.uk%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,      Kelly E%Hathorn%NULL%2,      Kelly E%Hathorn%NULL%0,      Walker D%Redd%NULL%1,      Nicolette J%Rodriguez%NULL%1,      Joyce C%Zhou%NULL%1,      Ahmad Najdat%Bazarbashi%NULL%1,      Cheikh%Njie%NULL%1,      Danny%Wong%NULL%1,      Quoc-Dien%Trinh%NULL%1,      Lin%Shen%NULL%1,      Valerie E%Stone%NULL%2,      Valerie E%Stone%NULL%0,      Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,       S.% Apewokin%null%1,       A. A.% Wells%null%1,       A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,      Thomas E.%Webb%NULL%2,      Thomas E.%Webb%NULL%0,      Benjamin C.%Mcloughlin%NULL%2,      Benjamin C.%Mcloughlin%NULL%0,      Imran%Mannan%NULL%2,      Imran%Mannan%NULL%0,      Arshad%Rather%NULL%2,      Arshad%Rather%NULL%0,      Paul%Knopp%NULL%1,      Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,      Rajat%Suri%NULL%2,      Rajat%Suri%NULL%0,      Iheanacho O.%Emeruwa%NULL%2,      Iheanacho O.%Emeruwa%NULL%0,      Robert J.%Stretch%NULL%1,      Roxana Y.%Cortes-Lopez%NULL%2,      Roxana Y.%Cortes-Lopez%NULL%0,      Alexander%Sherman%NULL%1,      Catherine C.%Lindsay%NULL%1,      Jennifer A.%Fulcher%NULL%1,      David%Goodman-Meza%NULL%2,      David%Goodman-Meza%NULL%0,      Anil%Sapru%NULL%2,      Anil%Sapru%NULL%0,      Russell G.%Buhr%NULL%1,      Steven Y.%Chang%NULL%2,      Steven Y.%Chang%NULL%0,      Tisha%Wang%NULL%1,      Nida%Qadir%NULL%1,      Giordano%Madeddu%NULL%10,      Giordano%Madeddu%NULL%0,      Giordano%Madeddu%NULL%0,      Ana C.%Monteiro%NULL%2,      Ana C.%Monteiro%NULL%0,      Giordano%Madeddu%NULL%0,      Giordano%Madeddu%NULL%0,      Giordano%Madeddu%NULL%0,      Giordano%Madeddu%NULL%0,      Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,       D.% Stefanov%null%1,       A. S.% Chau%null%1,       A. G.% Weber%null%1,       G. S.% Marder%null%1,       B.% Kaplan%null%1,       P.% Malhotra%null%1,       O.% Bloom%null%1,       A.% Liu%null%1,       M.% Lesser%null%1,       N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,      Catherine A.%O’Donnell%NULL%1,      Bhautesh Dinesh%Jani%NULL%1,      Evangelia%Demou%NULL%1,      Frederick K.%Ho%NULL%1,      Carlos%Celis-Morales%NULL%1,      Barbara I.%Nicholl%NULL%1,      Frances S.%Mair%NULL%1,      Paul%Welsh%NULL%1,      Naveed%Sattar%NULL%1,      Jill P.%Pell%NULL%1,      S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,      Alex J%Walker%NULL%1,      Krishnan%Bhaskaran%NULL%1,      Seb%Bacon%NULL%1,      Chris%Bates%NULL%1,      Caroline E%Morton%NULL%1,      Helen J%Curtis%NULL%1,      Amir%Mehrkar%NULL%1,      David%Evans%NULL%1,      Peter%Inglesby%NULL%1,      Jonathan%Cockburn%NULL%1,      Helen I%McDonald%NULL%1,      Brian%MacKenna%NULL%1,      Laurie%Tomlinson%NULL%1,      Ian J%Douglas%NULL%1,      Christopher T%Rentsch%NULL%1,      Rohini%Mathur%NULL%1,      Angel YS%Wong%NULL%1,      Richard%Grieve%NULL%1,      David%Harrison%NULL%1,      Harriet%Forbes%NULL%1,      Anna%Schultze%NULL%2,      Richard%Croker%NULL%1,      John%Parry%NULL%1,      Frank%Hester%NULL%1,      Sam%Harper%NULL%1,      Rafael%Perera%NULL%1,      Stephen JW%Evans%NULL%1,      Liam%Smeeth%NULL%1,      Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,      Ajay%Bhasin%NULL%1,      Joseph M.%Feinglass%NULL%1,      Michael P.%Angarone%NULL%1,      Elaine R.%Cohen%NULL%1,      Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,      Andrew%Gangemi%NULL%1,      Robert%Marron%NULL%1,      Junad%Chowdhury%NULL%1,      Ibraheem%Yousef%NULL%1,      Matthew%Zheng%NULL%1,      Nicole%Mills%NULL%1,      Lauren%Tragesser%NULL%1,      Julie%Giurintano%NULL%1,      Rohit%Gupta%NULL%0,      Matthew%Gordon%NULL%0,      Parth%Rali%NULL%2,      Parth%Rali%NULL%0,      Gilbert%D'Alonso%NULL%1,      David%Fleece%NULL%1,      Huaqing%Zhao%NULL%0,      Nicole%Patlakh%NULL%0,      Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,      Nathan C.%Skorodin%nskorodin@midcusa.com%1,      Nicholas W.%Van Hise%NULL%1,      Robert M.%Fliegelman%NULL%1,      Jonathan%Pinsky%NULL%1,      Vishal%Didwania%NULL%1,      Michael%Anderson%NULL%1,      Melina%Diaz%NULL%1,      Kairav%Shah%NULL%1,      Vishnu V.%Chundi%NULL%1,      David W.%Hines%NULL%1,      Brian P.%Harting%NULL%1,      Kamo%Sidwha%NULL%1,      Brian%Yu%NULL%1,      Paul%Brune%NULL%1,      Anjum%Owaisi%NULL%1,      David%Beezhold%NULL%1,      Joseph%Kent%NULL%1,      Dana%Vais%NULL%1,      Alice%Han%NULL%1,      Neethi%Gowda%NULL%1,      Nishi%Sahgal%NULL%1,      Jan%Silverman%NULL%1,      Jonathan%Stake%NULL%1,      Jenie%Nepomuceno%NULL%1,      Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,      Anna%Daunt%NULL%2,      Anna%Daunt%NULL%0,      Sujit%Mukherjee%NULL%1,      Peter%Crook%NULL%1,      Roberta%Forlano%NULL%1,      Mara D%Kont%NULL%1,      Alessandra%Løchen%NULL%1,      Michaela%Vollmer%NULL%1,      Paul%Middleton%NULL%1,      Rebekah%Judge%NULL%1,      Christopher%Harlow%NULL%1,      Anet%Soubieres%NULL%1,      Graham%Cooke%NULL%1,      Peter J%White%NULL%1,      Timothy B%Hallett%NULL%1,      Paul%Aylin%NULL%1,      Neil%Ferguson%NULL%1,      Katharina%Hauck%NULL%1,      Mark R%Thursz%NULL%1,      Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,      Jeffrey%Burton%NULL%2,      Jeffrey%Burton%NULL%0,      Daniel%Fort%NULL%1,      Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,      Michael S.%Sherman%NULL%1,      Naaz%Fatteh%NULL%1,      Fabio%Vogel%NULL%1,      Jamie%Sacks%NULL%1,      Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,       P.% Mannam%null%1,       R.% Comer%null%1,       E.% Sinclair%null%1,       D. B.% McQuaid%null%1,       M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,      Farah%Kidwai-Khan%NULL%1,      Janet P.%Tate%NULL%1,      Lesley S.%Park%NULL%1,      Joseph T.%King%NULL%1,      Melissa%Skanderson%NULL%1,      Ronald G.%Hauser%NULL%1,      Anna%Schultze%NULL%0,      Christopher I.%Jarvis%NULL%1,      Mark%Holodniy%NULL%1,      Vincent Lo%Re%NULL%1,      Kathleen M.%Akgün%NULL%1,      Kristina%Crothers%NULL%1,      Tamar H.%Taddei%NULL%1,      Matthew S.%Freiberg%NULL%1,      Amy C.%Justice%NULL%1,       C. T.%Rentsch%null%1,       F.% Kidwai-Khan%null%1,       J. P.% Tate%null%1,       L. S.% Park%null%1,       J. T.% King%null%1,       M.% Skanderson%null%1,       R. G.% Hauser%null%1,       A.% Schultze%null%1,       C. I.% Jarvis%null%1,       M.% Holodniy%null%1,       V.% Lo Re%null%1,       K. M.% Akgun%null%1,       K.% Crothers%null%1,       T. H.% Taddei%null%1,       M. S.% Freiberg%null%1,       A. C. % Justice%null%1,      C. T.%Rentsch%null%1,      F.% Kidwai-Khan%null%1,      J. P.% Tate%null%1,      L. S.% Park%null%1,      J. T.% King%null%1,      M.% Skanderson%null%1,      R. G.% Hauser%null%1,      A.% Schultze%null%1,      C. I.% Jarvis%null%1,      M.% Holodniy%null%1,      V.% Lo Re%null%1,      K. M.% Akgun%null%1,      K.% Crothers%null%1,      T. H.% Taddei%null%1,      M. S.% Freiberg%null%1,      A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,      Jennifer%Beam%NULL%2,      Jennifer%Beam%NULL%0,      Haley%Maier%NULL%1,      Whitney%Haggerson%NULL%1,      Karen%Boudreau%NULL%1,      Jamie%Carlson%NULL%1,      Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,      Alexander E.%Ayala%NULL%1,      Chideraa C.%Ukeje%NULL%1,      Celeste S.%Witting%NULL%1,      William A.%Grobman%NULL%1,      Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,      Hannah C.%Jarvis%NULL%2,      Hannah C.%Jarvis%NULL%0,      Ezgi%Ozcan%NULL%1,      Thomas L. P.%Burns%NULL%1,      Rabia A.%Warraich%NULL%1,      Lisa J.%Amani%NULL%1,      Amina%Jaffer%NULL%1,      Stephanie%Paget%NULL%1,      Anand%Sivaramakrishnan%NULL%1,      Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,      Suzy%Gallier%NULL%2,      Suzy%Gallier%NULL%0,      Chris%Mainey%NULL%1,      Peter%Nightingale%NULL%2,      Peter%Nightingale%NULL%0,      David%McNulty%NULL%1,      Hannah%Crothers%NULL%1,      Felicity%Evison%NULL%1,      Katharine%Reeves%NULL%1,      Domenico%Pagano%NULL%1,      Alastair K%Denniston%NULL%1,      Krishnarajah%Nirantharakumar%NULL%1,      Peter%Diggle%NULL%1,      Simon%Ball%NULL%1,      Lylah%Irshad%NULL%1,      Maxim%Harris%NULL%1,      Theodore%Nabav%NULL%1,      A%Kolesnyk%NULL%1,      M%Ahmed%NULL%1,      A%Liaqat%NULL%1,      Tanya%Pankhurst%NULL%1,      Jamie%Coleman%NULL%1,      Chirag%Dave%NULL%1,      Khaled%ElFandi%NULL%1,      Rifat%Rashid%NULL%1,      Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,      Gregory A%Eschenauer%NULL%2,      Gregory A%Eschenauer%NULL%0,      Jonathan P%Troost%NULL%1,      Jonathan L%Golob%NULL%1,      Tejal N%Gandhi%NULL%1,      Lu%Wang%NULL%1,      Nina%Zhou%NULL%1,      Lindsay A%Petty%NULL%1,      Ji Hoon%Baang%NULL%1,      Nicholas O%Dillman%NULL%1,      David%Frame%NULL%1,      Kevin S%Gregg%NULL%1,      Dan R%Kaul%NULL%1,      Jerod%Nagel%NULL%1,      Twisha S%Patel%NULL%1,      Shiwei%Zhou%NULL%1,      Adam S%Lauring%NULL%1,      David A%Hanauer%NULL%1,      Emily%Martin%NULL%1,      Pratima%Sharma%NULL%1,      Christopher M%Fung%NULL%1,      Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,      Lei%Qian%NULL%2,      Lei%Qian%NULL%0,      Vennis%Hong%NULL%1,      Rong%Wei%NULL%2,      Rong%Wei%NULL%0,      Ron F.%Nadjafi%NULL%2,      Ron F.%Nadjafi%NULL%0,      Heidi%Fischer%NULL%1,      Zhuoxin%Li%NULL%1,      Sally F.%Shaw%NULL%1,      Susan L.%Caparosa%NULL%2,      Susan L.%Caparosa%NULL%0,      Claudia L.%Nau%NULL%1,      Tanmai%Saxena%NULL%1,      Gunter K.%Rieg%NULL%1,      Bradley K.%Ackerson%NULL%1,      Adam L.%Sharp%NULL%2,      Adam L.%Sharp%NULL%0,      Jacek%Skarbinski%NULL%2,      Jacek%Skarbinski%NULL%0,      Tej K.%Naik%NULL%1,      Sameer B.%Murali%NULL%2,      Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,      Juan Carlos%Nicolas%NULL%2,      Juan Carlos%Nicolas%NULL%0,      Jennifer R%Meeks%NULL%1,      Osman%Khan%NULL%1,      Alan%Pan%NULL%1,      Stephen L%Jones%NULL%1,      Faisal%Masud%NULL%1,      H Dirk%Sostman%NULL%1,      Robert%Phillips%NULL%1,      Julia D%Andrieni%NULL%1,      Bita A%Kash%NULL%1,      Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,      Arryn%Craney%NULL%1,      Phyllis%Ruggiero%NULL%1,      John%Sipley%NULL%1,      Lin%Cong%NULL%1,      Erika M.%Hissong%NULL%1,      Massimo%Loda%NULL%1,      Lars F.%Westblade%NULL%1,      Melissa%Cushing%NULL%2,      Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,       X.% Zhong%null%1,       Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,      Amanda%Zheutlin%NULL%2,      Amanda%Zheutlin%NULL%0,      Yu-Han%Kao%NULL%1,      Kristin%Ayers%NULL%1,      Susan%Gross%NULL%1,      Patricia%Kovatch%NULL%0,      Sharon%Nirenberg%NULL%0,      Alexander%Charney%NULL%1,      Girish%Nadkarni%NULL%1,      Jessica K%De Freitas%NULL%1,      Paul%O’Reilly%NULL%1,      Allan%Just%NULL%1,      Carol%Horowitz%NULL%1,      Glenn%Martin%NULL%1,      Andrea%Branch%NULL%1,      Benjamin S%Glicksberg%NULL%1,      Dennis%Charney%NULL%1,      David%Reich%NULL%0,      William K%Oh%NULL%1,      Eric%Schadt%NULL%0,      Rong%Chen%NULL%0,      Li%Li%NULL%7]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,      Angela%Winegar%NULL%1,      Richard%Fogel%NULL%1,      Mohamad%Fakih%NULL%1,      Allison%Ottenbacher%NULL%1,      Christine%Jesser%NULL%1,      Angelo%Bufalino%NULL%1,      Ren-Huai%Huang%NULL%1,      Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,      Rebecca%Bendayan%NULL%0,      Mark%Ashworth%NULL%1,      Daniel M.%Bean%NULL%1,      Hiten%Dodhia%NULL%1,      Stevo%Durbaba%NULL%1,      Kevin%O'Gallagher%NULL%1,      Claire%Palmer%NULL%1,      Vasa%Curcin%NULL%1,      Elizabeth%Aitken%NULL%1,      William%Bernal%NULL%1,      Richard D.%Barker%NULL%1,      Sam%Norton%NULL%1,      Martin%Gulliford%NULL%1,      James T.H.%Teo%NULL%0,      James%Galloway%NULL%1,      Richard J.B.%Dobson%NULL%0,      Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,      Carina%Marquez%NULL%1,      Emily%Crawford%NULL%1,      James%Peng%NULL%1,      Maya%Petersen%NULL%1,      Daniel%Schwab%NULL%1,      Joshua%Schwab%NULL%1,      Jackie%Martinez%NULL%1,      Diane%Jones%NULL%1,      Douglas%Black%NULL%1,      Monica%Gandhi%NULL%1,      Andrew D%Kerkhoff%NULL%1,      Vivek%Jain%NULL%1,      Francesco%Sergi%NULL%1,      Jon%Jacobo%NULL%1,      Susana%Rojas%NULL%1,      Valerie%Tulier-Laiwa%NULL%1,      Tracy%Gallardo-Brown%NULL%1,      Ayesha%Appa%NULL%1,      Charles%Chiu%NULL%1,      Mary%Rodgers%NULL%1,      John%Hackett%NULL%1,      NULL%NULL%NULL%0,      Amy%Kistler%NULL%1,      Samantha%Hao%NULL%1,      Jack%Kamm%NULL%1,      David%Dynerman%NULL%1,      Joshua%Batson%NULL%1,      Bryan%Greenhouse%NULL%2,      Joe%DeRisi%NULL%1,      Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,      Tiffany%Grimes%NULL%1,      Peng%Li%NULL%1,      Matthew%Might%NULL%1,      Fernando%Ovalle%NULL%1,      Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,      Natalie%Achamallah%NULL%1,      Hongwei%Ji%NULL%1,      Brian L.%Claggett%NULL%1,      Nancy%Sun%NULL%1,      Patrick%Botting%NULL%1,      Trevor-Trung%Nguyen%NULL%1,      Eric%Luong%NULL%1,      Elizabeth H.%Kim%NULL%1,      Eunice%Park%NULL%1,      Yunxian%Liu%NULL%1,      Ryan%Rosenberry%NULL%1,      Yuri%Matusov%NULL%1,      Steven%Zhao%NULL%1,      Isabel%Pedraza%NULL%1,      Tanzira%Zaman%NULL%1,      Michael%Thompson%NULL%1,      Koen%Raedschelders%NULL%1,      Anders H.%Berg%NULL%2,      Anders H.%Berg%NULL%0,      Jonathan D.%Grein%NULL%1,      Paul W.%Noble%NULL%1,      Sumeet S.%Chugh%NULL%1,      C. Noel%Bairey Merz%NULL%1,      Eduardo%Marbán%NULL%1,      Jennifer E.%Van Eyk%NULL%1,      Scott D.%Solomon%NULL%1,      Christine M.%Albert%NULL%1,      Peter%Chen%NULL%1,      Susan%Cheng%NULL%3,      Yu Ru%Kou%NULL%8,      Yu Ru%Kou%NULL%0,      Yu Ru%Kou%NULL%0,      Susan%Cheng%biodatacore@cshs.org%0,      Susan%Cheng%biodatacore@cshs.org%0,      Yu Ru%Kou%NULL%0,      Yu Ru%Kou%NULL%0,      Yu Ru%Kou%NULL%0,      Yu Ru%Kou%NULL%0,      Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,      Penelope%Strid%NULL%1,      Van T.%Tong%NULL%1,      Kate%Woodworth%NULL%1,      Romeo R.%Galang%NULL%1,      Laura D.%Zambrano%NULL%1,      John%Nahabedian%NULL%1,      Kayla%Anderson%NULL%1,      Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,      Jacob%Fiksel%NULL%4,      Jacob%Fiksel%NULL%0,      John%Muschelli%NULL%4,      John%Muschelli%NULL%0,      Matthew L.%Robinson%NULL%4,      Matthew L.%Robinson%NULL%0,      Masoud%Rouhizadeh%NULL%4,      Masoud%Rouhizadeh%NULL%0,      Jamie%Perin%NULL%4,      Jamie%Perin%NULL%0,      Grant%Schumock%NULL%4,      Grant%Schumock%NULL%0,      Paul%Nagy%NULL%4,      Paul%Nagy%NULL%0,      Josh H.%Gray%NULL%4,      Josh H.%Gray%NULL%0,      Harsha%Malapati%NULL%4,      Harsha%Malapati%NULL%0,      Mariam%Ghobadi-Krueger%NULL%4,      Mariam%Ghobadi-Krueger%NULL%0,      Timothy M.%Niessen%NULL%2,      Bo Soo%Kim%NULL%2,      Peter M.%Hill%NULL%2,      M. Shafeeq%Ahmed%NULL%2,      Eric D.%Dobkin%NULL%2,      Renee%Blanding%NULL%2,      Jennifer%Abele%NULL%2,      Bonnie%Woods%NULL%2,      Kenneth%Harkness%NULL%2,      David R.%Thiemann%NULL%2,      Mary G.%Bowring%NULL%2,      Aalok B.%Shah%NULL%4,      Aalok B.%Shah%NULL%0,      Mei-Cheng%Wang%NULL%2,      Karen%Bandeen-Roche%NULL%2,      Antony%Rosen%NULL%2,      Scott L.%Zeger%NULL%4,      Scott L.%Zeger%NULL%0,      Amita%Gupta%NULL%2]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,      Megan%McCullough%NULL%0,      Megan%McCullough%NULL%0,      Michael A.%Fuery%NULL%0,      Fouad%Chouairi%NULL%0,      Fouad%Chouairi%NULL%0,      Craig%Keating%NULL%0,      Neal G.%Ravindra%NULL%0,      P. Elliott%Miller%NULL%0,      Maricar%Malinis%NULL%0,      Nitu%Kashyap%NULL%0,      Allen%Hsiao%NULL%0,      F. Perry%Wilson%NULL%0,      Jeptha P.%Curtis%NULL%0,      Matthew%Grant%NULL%0,      Eric J.%Velazquez%NULL%0,      Nihar R.%Desai%NULL%0,      Tariq%Ahmad%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +2516,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>474</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -1981,7 +2545,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -2010,7 +2574,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>476</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -2039,7 +2603,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -2068,7 +2632,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>478</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -2097,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>479</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -2126,7 +2690,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -2155,7 +2719,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>481</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2184,7 +2748,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>482</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -2213,7 +2777,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>483</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -2242,7 +2806,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>484</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -2271,7 +2835,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>485</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -2300,7 +2864,7 @@
         <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>486</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2329,7 +2893,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>487</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -2358,7 +2922,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>488</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -2387,7 +2951,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>489</v>
       </c>
       <c r="F17" t="s">
         <v>71</v>
@@ -2416,7 +2980,7 @@
         <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>490</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -2445,7 +3009,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>303</v>
+        <v>491</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -2474,7 +3038,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>304</v>
+        <v>492</v>
       </c>
       <c r="F20" t="s">
         <v>71</v>
@@ -2503,7 +3067,7 @@
         <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>305</v>
+        <v>493</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -2532,7 +3096,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>494</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -2561,7 +3125,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>307</v>
+        <v>495</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -2619,7 +3183,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>496</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -2648,7 +3212,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>497</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -2677,7 +3241,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>310</v>
+        <v>498</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -2706,7 +3270,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>311</v>
+        <v>499</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -2735,7 +3299,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -2764,7 +3328,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>501</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
@@ -2793,7 +3357,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>502</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -2851,7 +3415,7 @@
         <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>503</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -2880,7 +3444,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>316</v>
+        <v>504</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -2909,7 +3473,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>317</v>
+        <v>505</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -2938,7 +3502,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>318</v>
+        <v>506</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -2967,7 +3531,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -2996,7 +3560,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>320</v>
+        <v>508</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -3025,7 +3589,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>321</v>
+        <v>509</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -3054,7 +3618,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>322</v>
+        <v>510</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -3083,7 +3647,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>323</v>
+        <v>511</v>
       </c>
       <c r="F41" t="s">
         <v>71</v>
@@ -3112,7 +3676,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>324</v>
+        <v>512</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -3141,7 +3705,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>325</v>
+        <v>513</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -3170,7 +3734,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>326</v>
+        <v>514</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -3199,7 +3763,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>327</v>
+        <v>515</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -3228,7 +3792,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>328</v>
+        <v>516</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -3257,7 +3821,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>329</v>
+        <v>517</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -3286,7 +3850,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>330</v>
+        <v>518</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -3315,7 +3879,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>331</v>
+        <v>519</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -3344,7 +3908,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>332</v>
+        <v>520</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="624">
   <si>
     <t>Doi</t>
   </si>
@@ -2109,6 +2109,315 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,      Megan%McCullough%NULL%0,      Megan%McCullough%NULL%0,      Michael A.%Fuery%NULL%0,      Fouad%Chouairi%NULL%0,      Fouad%Chouairi%NULL%0,      Craig%Keating%NULL%0,      Neal G.%Ravindra%NULL%0,      P. Elliott%Miller%NULL%0,      Maricar%Malinis%NULL%0,      Nitu%Kashyap%NULL%0,      Allen%Hsiao%NULL%0,      F. Perry%Wilson%NULL%0,      Jeptha P.%Curtis%NULL%0,      Matthew%Grant%NULL%0,      Eric J.%Velazquez%NULL%0,      Nihar R.%Desai%NULL%0,      Tariq%Ahmad%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,        R. U.% Shah%null%1,        M.% Bale%null%1,        J. B.% Peacock%null%1,        B.% Berger%null%1,        A.% Brown%null%1,        S.% Mann%null%1,        W.% West%null%1,        V.% Martin%null%1,        V.% Fernandez%null%1,        S.% Grineski%null%1,        B. J.% Brintz%null%1,        M. H.% Samore%null%1,        M. J.% Ferrari%null%1,        D. T.% Leung%null%1,        L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,       Samuel L%Bruce%NULL%1,       Cody L%Slater%NULL%1,       Jonathan R%Tiao%NULL%1,       Matthew R%Baldwin%NULL%1,       R Graham%Barr%NULL%1,       Bernard P%Chang%NULL%1,       Katherine H%Chau%NULL%1,       Justin J%Choi%NULL%1,       Nicholas%Gavin%NULL%1,       Parag%Goyal%NULL%1,       Angela M%Mills%NULL%1,       Ashmi A%Patel%NULL%1,       Marie-Laure S%Romney%NULL%1,       Monika M%Safford%NULL%1,       Neil W%Schluger%NULL%1,       Soumitra%Sengupta%NULL%1,       Magdalena E%Sobieszczyk%NULL%1,       Jason E%Zucker%NULL%1,       Paul A%Asadourian%NULL%1,       Fletcher M%Bell%NULL%1,       Rebekah%Boyd%NULL%1,       Matthew F%Cohen%NULL%1,       MacAlistair I%Colquhoun%NULL%1,       Lucy A%Colville%NULL%1,       Joseph H%de Jonge%NULL%1,       Lyle B%Dershowitz%NULL%1,       Shirin A%Dey%NULL%1,       Katherine A%Eiseman%NULL%1,       Zachary P%Girvin%NULL%1,       Daniella T%Goni%NULL%1,       Amro A%Harb%NULL%1,       Nicholas%Herzik%NULL%1,       Sarah%Householder%NULL%1,       Lara E%Karaaslan%NULL%1,       Heather%Lee%NULL%1,       Evan%Lieberman%NULL%1,       Andrew%Ling%NULL%1,       Ree%Lu%NULL%1,       Arthur Y%Shou%NULL%1,       Alexander C%Sisti%NULL%1,       Zachary E%Snow%NULL%1,       Colin P%Sperring%NULL%1,       Yuqing%Xiong%NULL%1,       Henry W%Zhou%NULL%1,       Karthik%Natarajan%NULL%1,       George%Hripcsak%NULL%1,       Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,       Megan%McCullough%NULL%4,       Megan%McCullough%NULL%0,       Michael A.%Fuery%NULL%2,       Fouad%Chouairi%NULL%4,       Fouad%Chouairi%NULL%0,       Craig%Keating%NULL%2,       Neal G.%Ravindra%NULL%2,       P. Elliott%Miller%NULL%2,       Maricar%Malinis%NULL%2,       Nitu%Kashyap%NULL%2,       Allen%Hsiao%NULL%2,       F. Perry%Wilson%NULL%2,       Jeptha P.%Curtis%NULL%2,       Matthew%Grant%NULL%2,       Eric J.%Velazquez%NULL%2,       Nihar R.%Desai%NULL%2,       Tariq%Ahmad%NULL%2,       Chiara%Lazzeri%NULL%18,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,       Karen K.%Wong%NULL%1,       Christine M.%Szablewski%NULL%1,       Priti R.%Patel%NULL%1,       John%Rossow%NULL%1,       Juliana%da Silva%NULL%1,       Pavithra%Natarajan%NULL%1,       Sapna Bamrah%Morris%NULL%1,       Robyn Neblett%Fanfair%NULL%1,       Jessica%Rogers-Brown%NULL%1,       Beau B.%Bruce%NULL%1,       Sean D.%Browning%NULL%1,       Alfonso C.%Hernandez-Romieu%NULL%2,       Nathan W.%Furukawa%NULL%1,       Mohleen%Kang%NULL%1,       Mary E.%Evans%NULL%1,       Nadine%Oosmanally%NULL%1,       Melissa%Tobin-D’Angelo%NULL%1,       Cherie%Drenzek%NULL%1,       David J.%Murphy%NULL%0,       Julie%Hollberg%NULL%1,       James M.%Blum%NULL%0,       Robert%Jansen%NULL%1,       David W.%Wright%NULL%1,       William M.%Sewell%NULL%1,       Jack D.%Owens%NULL%1,       Benjamin%Lefkove%NULL%1,       Frank W.%Brown%NULL%1,       Deron C.%Burton%NULL%1,       Timothy M.%Uyeki%NULL%3,       Stephanie R.%Bialek%NULL%1,       Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,       Jasmine A.%Mack%NULL%1,       Maxwell%Salvatore%NULL%1,       Swaraaj Prabhu%Sankar%NULL%1,       Thomas S.%Valley%NULL%1,       Karandeep%Singh%NULL%1,       Brahmajee K.%Nallamothu%NULL%1,       Sachin%Kheterpal%NULL%1,       Lynda%Lisabeth%NULL%1,       Lars G.%Fritsche%NULL%1,       Bhramar%Mukherjee%NULL%1,        T.%Gu%null%1,        J. A.% Mack%null%1,        M.% Salvatore%null%1,        S. P.% Sankar%null%1,        T. S.% Valley%null%1,        K.% Singh%null%1,        B. K.% Nallamothu%null%1,        S.% Kheterpal%null%1,        L.% Lisabeth%null%1,        L. G.% Fritsche%null%1,        B. G. % Mukherjee%null%1,       T.%Gu%null%1,       J. A.% Mack%null%1,       M.% Salvatore%null%1,       S. P.% Sankar%null%1,       T. S.% Valley%null%1,       K.% Singh%null%1,       B. K.% Nallamothu%null%1,       S.% Kheterpal%null%1,       L.% Lisabeth%null%1,       L. G.% Fritsche%null%1,       B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,        S.% Nirenberg%null%1,        P.% Kovatch%null%1,        K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,       Shikha%Garg%NULL%1,       Alissa%O’Halloran%NULL%1,       Michael%Whitaker%NULL%1,       Huong%Pham%NULL%1,       Evan J%Anderson%NULL%1,       Isaac%Armistead%NULL%1,       Nancy M%Bennett%NULL%1,       Laurie%Billing%NULL%1,       Kathryn%Como-Sabetti%NULL%1,       Mary%Hill%NULL%1,       Sue%Kim%NULL%1,       Maya L%Monroe%NULL%1,       Alison%Muse%NULL%1,       Arthur L%Reingold%NULL%1,       William%Schaffner%NULL%1,       Melissa%Sutton%NULL%1,       H Keipp%Talbot%NULL%1,       Salina M%Torres%NULL%1,       Kimberly%Yousey-Hindes%NULL%1,       Rachel%Holstein%NULL%1,       Charisse%Cummings%NULL%1,       Lynette%Brammer%NULL%1,       Aron J%Hall%NULL%1,       Alicia M%Fry%NULL%1,       Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,        S.% Richardson%null%1,        K.% Coppa%null%1,        D. P.% Barnaby%null%1,        T.% McGinn%null%1,        L. B.% Becker%null%1,        K. W.% Davidson%null%1,        S. L.% Cohen%null%1,        J. S.% Hirsch%null%1,        T.% Zanos%null%1,          % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,        L. H.% Nguyen%null%1,        D. A.% Drew%null%1,        M. S.% Graham%null%1,        E. T.% Warner%null%1,        A. D.% Joshi%null%1,        C. M.% Astley%null%1,        C.-G.% Guo%null%1,        W.% Ma%null%1,        R. S.% Mehta%null%1,        S.% Kwon%null%1,        M.% Song%null%1,        R.% Davies%null%1,        J.% Capdevila%null%1,        K. A.% Lee%null%1,        M. N.% Lochlainn%null%1,        T.% Varsavsky%null%1,        C. H.% Sudre%null%1,        J.% Wolf%null%1,        Y. C.% Cozier%null%1,        L.% Rosenberg%null%1,        L. R.% Wilkens%null%1,        C. A.% Haiman%null%1,        L. L.% Marchand%null%1,        J. R.% Palmer%null%1,        T. D.% Spector%null%1,        S.% Ourselin%null%1,        C. J.% Steves%null%1,        A. T.% Chan%null%1,          % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,       Jienchi%Dorward%NULL%1,       Ana%Correa%NULL%1,       Nicholas%Jones%NULL%1,       Oluwafunmi%Akinyemi%NULL%1,       Gayatri%Amirthalingam%NULL%1,       Nick%Andrews%NULL%1,       Rachel%Byford%NULL%1,       Gavin%Dabrera%NULL%1,       Alex%Elliot%NULL%1,       Joanna%Ellis%NULL%0,       Filipa%Ferreira%NULL%1,       Jamie%Lopez Bernal%NULL%1,       Cecilia%Okusi%NULL%1,       Mary%Ramsay%NULL%1,       Julian%Sherlock%NULL%1,       Gillian%Smith%NULL%1,       John%Williams%NULL%1,       Gary%Howsam%NULL%1,       Maria%Zambon%NULL%0,       Mark%Joy%NULL%1,       F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,       Johanna%Dolle%NULL%2,       Johanna%Dolle%NULL%0,       Sheila%Grami%NULL%1,       Richard%Adule%NULL%1,       Zeyu%Li%NULL%1,       Kathleen%Tatem%NULL%1,       Chinyere%Anyaogu%NULL%1,       Stephen%Apfelroth%NULL%1,       Raji%Ayinla%NULL%2,       Raji%Ayinla%NULL%0,       Noella%Boma%NULL%1,       Terence%Brady%NULL%1,       Braulio F.%Cosme-Thormann%NULL%1,       Roseann%Costarella%NULL%1,       Kenra%Ford%NULL%1,       Kecia%Gaither%NULL%1,       Jessica%Jacobson%NULL%1,       Marc%Kanter%NULL%1,       Stuart%Kessler%NULL%1,       Ross B.%Kristal%NULL%1,       Joseph J.%Lieber%NULL%1,       Vikramjit%Mukherjee%NULL%1,       Vincent%Rizzo%NULL%1,       Madden%Rowell%NULL%1,       David%Stevens%NULL%1,       Elana%Sydney%NULL%1,       Andrew%Wallach%NULL%2,       Andrew%Wallach%NULL%0,       Dave A.%Chokshi%NULL%1,       Nichola%Davis%NULL%1,       NULL%NULL%NULL%0,       Sze Yan%Liu%NULL%2,       Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,       Mark%Caridi-Scheible%NULL%0,       James M.%Blum%NULL%0,       Chad%Robichaux%NULL%1,       Colleen%Kraft%NULL%1,       Jesse T.%Jacob%NULL%1,       Craig S.%Jabaley%NULL%0,       David%Carpenter%NULL%1,       Roberta%Kaplow%NULL%1,       Alfonso C.%Hernandez-Romieu%NULL%0,       Max W.%Adelman%NULL%0,       Greg S.%Martin%NULL%0,       Craig M.%Coopersmith%NULL%1,       David J.%Murphy%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,        Seunghee%Kim-Schulze%null%1,        Hsin-Hui%Huang%null%1,        Noam D.%Beckmann%null%1,        Sharon%Nirenberg%null%1,        Bo%Wang%null%0,        Yonit%Lavin%null%1,        Talia H.%Swartz%null%1,        Deepu%Madduri%null%1,        Aryeh%Stock%null%1,        Thomas U.%Marron%null%1,        Hui%Xie%null%1,        Manishkumar%Patel%null%1,        Kevin%Tuballes%null%1,        Oliver%Oekelen%null%1,        Adeeb%Rahman%null%1,        Patricia%Kovatch%null%0,        Judith A.%Aberg%null%1,        Eric%Schadt%null%1,        Sundar%Jagannath%null%1,        Madhu%Mazumdar%null%1,        Alexander W.%Charney%null%1,        Adolfo%Firpo-Betancourt%null%1,        Damodara Rao%Mendu%null%1,        Jeffrey%Jhang%null%1,        David%Reich%null%1,        Keith%Sigel%null%1,        Carlos%Cordon-Cardo%null%0,        Marc%Feldmann%null%1,        Samir%Parekh%null%1,        Miriam%Merad%null%1,        Sacha%Gnjatic%null%1,       Diane Marie%Del Valle%null%1,       Seunghee%Kim-Schulze%null%1,       Hsin-Hui%Huang%null%1,       Noam D.%Beckmann%null%1,       Sharon%Nirenberg%null%2,       Bo%Wang%null%2,       Yonit%Lavin%null%1,       Talia H.%Swartz%null%1,       Deepu%Madduri%null%1,       Aryeh%Stock%null%1,       Thomas U.%Marron%null%1,       Hui%Xie%null%2,       Manishkumar%Patel%null%1,       Kevin%Tuballes%null%1,       Oliver%Oekelen%null%1,       Adeeb%Rahman%null%1,       Patricia%Kovatch%null%2,       Judith A.%Aberg%null%1,       Eric%Schadt%null%2,       Sundar%Jagannath%null%1,       Madhu%Mazumdar%null%1,       Alexander W.%Charney%null%0,       Adolfo%Firpo-Betancourt%null%1,       Damodara Rao%Mendu%null%1,       Jeffrey%Jhang%null%2,       David%Reich%null%2,       Keith%Sigel%null%1,       Carlos%Cordon-Cardo%null%0,       Marc%Feldmann%null%1,       Samir%Parekh%null%1,       Miriam%Merad%null%1,       Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,       David R.%Jenkins%NULL%1,       Jatinder S.%Minhas%NULL%1,       Laura J.%Gray%NULL%1,       Julian%Tang%NULL%1,       Caroline%Williams%NULL%1,       Shirley%Sze%NULL%1,       Daniel%Pan%NULL%1,       William%Jones%NULL%1,       Raman%Verma%NULL%1,       Scott%Knapp%NULL%1,       Rupert%Major%NULL%1,       Melanie%Davies%NULL%1,       Nigel%Brunskill%NULL%1,       Martin%Wiselka%NULL%1,       Chris%Brightling%NULL%1,       Kamlesh%Khunti%NULL%1,       Pranab%Haldar%NULL%1,       Manish%Pareek%mp426@le.ac.uk%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,       Kelly E%Hathorn%NULL%2,       Kelly E%Hathorn%NULL%0,       Walker D%Redd%NULL%1,       Nicolette J%Rodriguez%NULL%1,       Joyce C%Zhou%NULL%1,       Ahmad Najdat%Bazarbashi%NULL%1,       Cheikh%Njie%NULL%1,       Danny%Wong%NULL%1,       Quoc-Dien%Trinh%NULL%1,       Lin%Shen%NULL%1,       Valerie E%Stone%NULL%2,       Valerie E%Stone%NULL%0,       Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,        S.% Apewokin%null%1,        A. A.% Wells%null%1,        A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,       Thomas E.%Webb%NULL%2,       Thomas E.%Webb%NULL%0,       Benjamin C.%Mcloughlin%NULL%2,       Benjamin C.%Mcloughlin%NULL%0,       Imran%Mannan%NULL%2,       Imran%Mannan%NULL%0,       Arshad%Rather%NULL%2,       Arshad%Rather%NULL%0,       Paul%Knopp%NULL%1,       Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,       Rajat%Suri%NULL%2,       Rajat%Suri%NULL%0,       Iheanacho O.%Emeruwa%NULL%2,       Iheanacho O.%Emeruwa%NULL%0,       Robert J.%Stretch%NULL%1,       Roxana Y.%Cortes-Lopez%NULL%2,       Roxana Y.%Cortes-Lopez%NULL%0,       Alexander%Sherman%NULL%1,       Catherine C.%Lindsay%NULL%1,       Jennifer A.%Fulcher%NULL%1,       David%Goodman-Meza%NULL%2,       David%Goodman-Meza%NULL%0,       Anil%Sapru%NULL%2,       Anil%Sapru%NULL%0,       Russell G.%Buhr%NULL%1,       Steven Y.%Chang%NULL%2,       Steven Y.%Chang%NULL%0,       Tisha%Wang%NULL%1,       Nida%Qadir%NULL%1,       Giordano%Madeddu%NULL%8,       Giordano%Madeddu%NULL%0,       Giordano%Madeddu%NULL%0,       Ana C.%Monteiro%NULL%2,       Ana C.%Monteiro%NULL%0,       Giordano%Madeddu%NULL%0,       Giordano%Madeddu%NULL%0,       Giordano%Madeddu%NULL%0,       Giordano%Madeddu%NULL%0,       Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,        D.% Stefanov%null%1,        A. S.% Chau%null%1,        A. G.% Weber%null%1,        G. S.% Marder%null%1,        B.% Kaplan%null%1,        P.% Malhotra%null%1,        O.% Bloom%null%1,        A.% Liu%null%1,        M.% Lesser%null%1,        N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,       Catherine A.%O’Donnell%NULL%2,       Bhautesh Dinesh%Jani%NULL%1,       Evangelia%Demou%NULL%1,       Frederick K.%Ho%NULL%1,       Carlos%Celis-Morales%NULL%1,       Barbara I.%Nicholl%NULL%1,       Frances S.%Mair%NULL%2,       Paul%Welsh%NULL%2,       Naveed%Sattar%NULL%2,       Jill P.%Pell%NULL%2,       S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,       Alex J%Walker%NULL%1,       Krishnan%Bhaskaran%NULL%1,       Seb%Bacon%NULL%1,       Chris%Bates%NULL%1,       Caroline E%Morton%NULL%1,       Helen J%Curtis%NULL%1,       Amir%Mehrkar%NULL%1,       David%Evans%NULL%1,       Peter%Inglesby%NULL%1,       Jonathan%Cockburn%NULL%1,       Helen I%McDonald%NULL%1,       Brian%MacKenna%NULL%1,       Laurie%Tomlinson%NULL%1,       Ian J%Douglas%NULL%1,       Christopher T%Rentsch%NULL%1,       Rohini%Mathur%NULL%1,       Angel YS%Wong%NULL%1,       Richard%Grieve%NULL%1,       David%Harrison%NULL%1,       Harriet%Forbes%NULL%1,       Anna%Schultze%NULL%2,       Richard%Croker%NULL%1,       John%Parry%NULL%1,       Frank%Hester%NULL%1,       Sam%Harper%NULL%1,       Rafael%Perera%NULL%1,       Stephen JW%Evans%NULL%1,       Liam%Smeeth%NULL%1,       Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,       Ajay%Bhasin%NULL%1,       Joseph M.%Feinglass%NULL%1,       Michael P.%Angarone%NULL%1,       Elaine R.%Cohen%NULL%1,       Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Disparities In Outcomes Among COVID-19 Patients In A Large Health Care System In California"</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1, Zijun%Shen%xref no email%1, Robert J.%Romanelli%xref no email%1, Stephen H.%Lockhart%xref no email%1, Kelly%Smits%xref no email%1, Sarah%Robinson%xref no email%1, Stephanie%Brown%xref no email%1, Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,       Andrew%Gangemi%NULL%1,       Robert%Marron%NULL%1,       Junad%Chowdhury%NULL%1,       Ibraheem%Yousef%NULL%1,       Matthew%Zheng%NULL%1,       Nicole%Mills%NULL%1,       Lauren%Tragesser%NULL%1,       Julie%Giurintano%NULL%1,       Rohit%Gupta%NULL%0,       Matthew%Gordon%NULL%0,       Parth%Rali%NULL%2,       Parth%Rali%NULL%0,       Gilbert%D'Alonso%NULL%1,       David%Fleece%NULL%1,       Huaqing%Zhao%NULL%0,       Nicole%Patlakh%NULL%0,       Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,       Nathan C.%Skorodin%nskorodin@midcusa.com%1,       Nicholas W.%Van Hise%NULL%1,       Robert M.%Fliegelman%NULL%1,       Jonathan%Pinsky%NULL%1,       Vishal%Didwania%NULL%1,       Michael%Anderson%NULL%1,       Melina%Diaz%NULL%1,       Kairav%Shah%NULL%1,       Vishnu V.%Chundi%NULL%1,       David W.%Hines%NULL%1,       Brian P.%Harting%NULL%1,       Kamo%Sidwha%NULL%1,       Brian%Yu%NULL%1,       Paul%Brune%NULL%1,       Anjum%Owaisi%NULL%1,       David%Beezhold%NULL%1,       Joseph%Kent%NULL%1,       Dana%Vais%NULL%1,       Alice%Han%NULL%1,       Neethi%Gowda%NULL%1,       Nishi%Sahgal%NULL%1,       Jan%Silverman%NULL%1,       Jonathan%Stake%NULL%1,       Jenie%Nepomuceno%NULL%1,       Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,       Anna%Daunt%NULL%2,       Anna%Daunt%NULL%0,       Sujit%Mukherjee%NULL%1,       Peter%Crook%NULL%1,       Roberta%Forlano%NULL%1,       Mara D%Kont%NULL%1,       Alessandra%Løchen%NULL%1,       Michaela%Vollmer%NULL%1,       Paul%Middleton%NULL%1,       Rebekah%Judge%NULL%1,       Christopher%Harlow%NULL%1,       Anet%Soubieres%NULL%1,       Graham%Cooke%NULL%1,       Peter J%White%NULL%1,       Timothy B%Hallett%NULL%1,       Paul%Aylin%NULL%1,       Neil%Ferguson%NULL%1,       Katharina%Hauck%NULL%1,       Mark R%Thursz%NULL%1,       Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,       Jeffrey%Burton%NULL%2,       Jeffrey%Burton%NULL%0,       Daniel%Fort%NULL%1,       Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,       Michael S.%Sherman%NULL%1,       Naaz%Fatteh%NULL%1,       Fabio%Vogel%NULL%1,       Jamie%Sacks%NULL%1,       Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,        P.% Mannam%null%1,        R.% Comer%null%1,        E.% Sinclair%null%1,        D. B.% McQuaid%null%1,        M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,       Farah%Kidwai-Khan%NULL%1,       Janet P.%Tate%NULL%1,       Lesley S.%Park%NULL%1,       Joseph T.%King%NULL%1,       Melissa%Skanderson%NULL%1,       Ronald G.%Hauser%NULL%1,       Anna%Schultze%NULL%0,       Christopher I.%Jarvis%NULL%1,       Mark%Holodniy%NULL%1,       Vincent Lo%Re%NULL%1,       Kathleen M.%Akgün%NULL%1,       Kristina%Crothers%NULL%1,       Tamar H.%Taddei%NULL%1,       Matthew S.%Freiberg%NULL%1,       Amy C.%Justice%NULL%1,        C. T.%Rentsch%null%1,        F.% Kidwai-Khan%null%1,        J. P.% Tate%null%1,        L. S.% Park%null%1,        J. T.% King%null%1,        M.% Skanderson%null%1,        R. G.% Hauser%null%1,        A.% Schultze%null%1,        C. I.% Jarvis%null%1,        M.% Holodniy%null%1,        V.% Lo Re%null%1,        K. M.% Akgun%null%1,        K.% Crothers%null%1,        T. H.% Taddei%null%1,        M. S.% Freiberg%null%1,        A. C. % Justice%null%1,       C. T.%Rentsch%null%1,       F.% Kidwai-Khan%null%1,       J. P.% Tate%null%1,       L. S.% Park%null%1,       J. T.% King%null%1,       M.% Skanderson%null%1,       R. G.% Hauser%null%1,       A.% Schultze%null%1,       C. I.% Jarvis%null%1,       M.% Holodniy%null%1,       V.% Lo Re%null%1,       K. M.% Akgun%null%1,       K.% Crothers%null%1,       T. H.% Taddei%null%1,       M. S.% Freiberg%null%1,       A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>"Association of Treatment With Hydroxychloroquine or Azithromycin With In-Hospital Mortality in Patients With COVID-19 in New York State"</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1, Elizabeth M.%Dufort%xref no email%0, Tomoko%Udo%xref no email%1, Larissa A.%Wilberschied%xref no email%1, Jessica%Kumar%xref no email%1, James%Tesoriero%xref no email%1, Patti%Weinberg%xref no email%1, James%Kirkwood%xref no email%1, Alison%Muse%xref no email%1, Jack%DeHovitz%xref no email%1, Debra S.%Blog%xref no email%1, Brad%Hutton%xref no email%1, David R.%Holtgrave%xref no email%1, Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,       Jennifer%Beam%NULL%2,       Jennifer%Beam%NULL%0,       Haley%Maier%NULL%1,       Whitney%Haggerson%NULL%1,       Karen%Boudreau%NULL%1,       Jamie%Carlson%NULL%1,       Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,       Alexander E.%Ayala%NULL%1,       Chideraa C.%Ukeje%NULL%1,       Celeste S.%Witting%NULL%1,       William A.%Grobman%NULL%1,       Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,       Hannah C.%Jarvis%NULL%2,       Hannah C.%Jarvis%NULL%0,       Ezgi%Ozcan%NULL%1,       Thomas L. P.%Burns%NULL%1,       Rabia A.%Warraich%NULL%1,       Lisa J.%Amani%NULL%1,       Amina%Jaffer%NULL%1,       Stephanie%Paget%NULL%1,       Anand%Sivaramakrishnan%NULL%1,       Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,       Suzy%Gallier%NULL%2,       Suzy%Gallier%NULL%0,       Chris%Mainey%NULL%1,       Peter%Nightingale%NULL%2,       Peter%Nightingale%NULL%0,       David%McNulty%NULL%1,       Hannah%Crothers%NULL%1,       Felicity%Evison%NULL%1,       Katharine%Reeves%NULL%1,       Domenico%Pagano%NULL%1,       Alastair K%Denniston%NULL%1,       Krishnarajah%Nirantharakumar%NULL%1,       Peter%Diggle%NULL%1,       Simon%Ball%NULL%1,       Lylah%Irshad%NULL%1,       Maxim%Harris%NULL%1,       Theodore%Nabav%NULL%1,       A%Kolesnyk%NULL%1,       M%Ahmed%NULL%1,       A%Liaqat%NULL%1,       Tanya%Pankhurst%NULL%1,       Jamie%Coleman%NULL%1,       Chirag%Dave%NULL%1,       Khaled%ElFandi%NULL%1,       Rifat%Rashid%NULL%1,       Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,       Gregory A%Eschenauer%NULL%2,       Gregory A%Eschenauer%NULL%0,       Jonathan P%Troost%NULL%1,       Jonathan L%Golob%NULL%1,       Tejal N%Gandhi%NULL%1,       Lu%Wang%NULL%1,       Nina%Zhou%NULL%1,       Lindsay A%Petty%NULL%1,       Ji Hoon%Baang%NULL%1,       Nicholas O%Dillman%NULL%1,       David%Frame%NULL%1,       Kevin S%Gregg%NULL%1,       Dan R%Kaul%NULL%1,       Jerod%Nagel%NULL%1,       Twisha S%Patel%NULL%1,       Shiwei%Zhou%NULL%1,       Adam S%Lauring%NULL%1,       David A%Hanauer%NULL%1,       Emily%Martin%NULL%1,       Pratima%Sharma%NULL%1,       Christopher M%Fung%NULL%1,       Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,       Lei%Qian%NULL%2,       Lei%Qian%NULL%0,       Vennis%Hong%NULL%1,       Rong%Wei%NULL%2,       Rong%Wei%NULL%0,       Ron F.%Nadjafi%NULL%2,       Ron F.%Nadjafi%NULL%0,       Heidi%Fischer%NULL%1,       Zhuoxin%Li%NULL%1,       Sally F.%Shaw%NULL%1,       Susan L.%Caparosa%NULL%2,       Susan L.%Caparosa%NULL%0,       Claudia L.%Nau%NULL%1,       Tanmai%Saxena%NULL%1,       Gunter K.%Rieg%NULL%1,       Bradley K.%Ackerson%NULL%1,       Adam L.%Sharp%NULL%2,       Adam L.%Sharp%NULL%0,       Jacek%Skarbinski%NULL%2,       Jacek%Skarbinski%NULL%0,       Tej K.%Naik%NULL%1,       Sameer B.%Murali%NULL%2,       Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,       Juan Carlos%Nicolas%NULL%2,       Juan Carlos%Nicolas%NULL%0,       Jennifer R%Meeks%NULL%1,       Osman%Khan%NULL%1,       Alan%Pan%NULL%1,       Stephen L%Jones%NULL%1,       Faisal%Masud%NULL%1,       H Dirk%Sostman%NULL%1,       Robert%Phillips%NULL%1,       Julia D%Andrieni%NULL%1,       Bita A%Kash%NULL%1,       Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,       Arryn%Craney%NULL%1,       Phyllis%Ruggiero%NULL%1,       John%Sipley%NULL%1,       Lin%Cong%NULL%1,       Erika M.%Hissong%NULL%1,       Massimo%Loda%NULL%1,       Lars F.%Westblade%NULL%1,       Melissa%Cushing%NULL%2,       Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,        X.% Zhong%null%1,        Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,       Amanda%Zheutlin%NULL%2,       Amanda%Zheutlin%NULL%0,       Yu-Han%Kao%NULL%1,       Kristin%Ayers%NULL%1,       Susan%Gross%NULL%1,       Patricia%Kovatch%NULL%0,       Sharon%Nirenberg%NULL%0,       Alexander%Charney%NULL%1,       Girish%Nadkarni%NULL%1,       Jessica K%De Freitas%NULL%1,       Paul%O’Reilly%NULL%1,       Allan%Just%NULL%1,       Carol%Horowitz%NULL%1,       Glenn%Martin%NULL%1,       Andrea%Branch%NULL%1,       Benjamin S%Glicksberg%NULL%1,       Dennis%Charney%NULL%1,       David%Reich%NULL%0,       William K%Oh%NULL%1,       Eric%Schadt%NULL%0,       Rong%Chen%NULL%0,       Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,       Angela%Winegar%NULL%1,       Richard%Fogel%NULL%1,       Mohamad%Fakih%NULL%1,       Allison%Ottenbacher%NULL%1,       Christine%Jesser%NULL%1,       Angelo%Bufalino%NULL%1,       Ren-Huai%Huang%NULL%1,       Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,       Rebecca%Bendayan%NULL%0,       Mark%Ashworth%NULL%1,       Daniel M.%Bean%NULL%1,       Hiten%Dodhia%NULL%1,       Stevo%Durbaba%NULL%1,       Kevin%O'Gallagher%NULL%1,       Claire%Palmer%NULL%1,       Vasa%Curcin%NULL%1,       Elizabeth%Aitken%NULL%1,       William%Bernal%NULL%1,       Richard D.%Barker%NULL%1,       Sam%Norton%NULL%1,       Martin%Gulliford%NULL%1,       James T.H.%Teo%NULL%0,       James%Galloway%NULL%1,       Richard J.B.%Dobson%NULL%0,       Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,       Carina%Marquez%NULL%1,       Emily%Crawford%NULL%1,       James%Peng%NULL%1,       Maya%Petersen%NULL%1,       Daniel%Schwab%NULL%1,       Joshua%Schwab%NULL%1,       Jackie%Martinez%NULL%1,       Diane%Jones%NULL%1,       Douglas%Black%NULL%1,       Monica%Gandhi%NULL%1,       Andrew D%Kerkhoff%NULL%1,       Vivek%Jain%NULL%1,       Francesco%Sergi%NULL%1,       Jon%Jacobo%NULL%1,       Susana%Rojas%NULL%1,       Valerie%Tulier-Laiwa%NULL%1,       Tracy%Gallardo-Brown%NULL%1,       Ayesha%Appa%NULL%1,       Charles%Chiu%NULL%1,       Mary%Rodgers%NULL%1,       John%Hackett%NULL%1,       NULL%NULL%NULL%0,       Amy%Kistler%NULL%1,       Samantha%Hao%NULL%1,       Jack%Kamm%NULL%1,       David%Dynerman%NULL%1,       Joshua%Batson%NULL%1,       Bryan%Greenhouse%NULL%1,       Joe%DeRisi%NULL%1,       Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,       Tiffany%Grimes%NULL%1,       Peng%Li%NULL%1,       Matthew%Might%NULL%1,       Fernando%Ovalle%NULL%1,       Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,       Natalie%Achamallah%NULL%1,       Hongwei%Ji%NULL%1,       Brian L.%Claggett%NULL%1,       Nancy%Sun%NULL%1,       Patrick%Botting%NULL%1,       Trevor-Trung%Nguyen%NULL%1,       Eric%Luong%NULL%1,       Elizabeth H.%Kim%NULL%1,       Eunice%Park%NULL%1,       Yunxian%Liu%NULL%1,       Ryan%Rosenberry%NULL%1,       Yuri%Matusov%NULL%1,       Steven%Zhao%NULL%1,       Isabel%Pedraza%NULL%1,       Tanzira%Zaman%NULL%1,       Michael%Thompson%NULL%1,       Koen%Raedschelders%NULL%1,       Anders H.%Berg%NULL%2,       Anders H.%Berg%NULL%0,       Jonathan D.%Grein%NULL%1,       Paul W.%Noble%NULL%1,       Sumeet S.%Chugh%NULL%1,       C. Noel%Bairey Merz%NULL%1,       Eduardo%Marbán%NULL%1,       Jennifer E.%Van Eyk%NULL%1,       Scott D.%Solomon%NULL%1,       Christine M.%Albert%NULL%1,       Peter%Chen%NULL%1,       Susan%Cheng%NULL%3,       Yu Ru%Kou%NULL%8,       Yu Ru%Kou%NULL%0,       Yu Ru%Kou%NULL%0,       Susan%Cheng%biodatacore@cshs.org%0,       Susan%Cheng%biodatacore@cshs.org%0,       Yu Ru%Kou%NULL%0,       Yu Ru%Kou%NULL%0,       Yu Ru%Kou%NULL%0,       Yu Ru%Kou%NULL%0,       Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,       Penelope%Strid%NULL%1,       Van T.%Tong%NULL%1,       Kate%Woodworth%NULL%1,       Romeo R.%Galang%NULL%1,       Laura D.%Zambrano%NULL%1,       John%Nahabedian%NULL%1,       Kayla%Anderson%NULL%1,       Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,       Jacob%Fiksel%NULL%2,       Jacob%Fiksel%NULL%0,       John%Muschelli%NULL%2,       John%Muschelli%NULL%0,       Matthew L.%Robinson%NULL%2,       Matthew L.%Robinson%NULL%0,       Masoud%Rouhizadeh%NULL%2,       Masoud%Rouhizadeh%NULL%0,       Jamie%Perin%NULL%2,       Jamie%Perin%NULL%0,       Grant%Schumock%NULL%2,       Grant%Schumock%NULL%0,       Paul%Nagy%NULL%2,       Paul%Nagy%NULL%0,       Josh H.%Gray%NULL%2,       Josh H.%Gray%NULL%0,       Harsha%Malapati%NULL%2,       Harsha%Malapati%NULL%0,       Mariam%Ghobadi-Krueger%NULL%2,       Mariam%Ghobadi-Krueger%NULL%0,       Timothy M.%Niessen%NULL%1,       Bo Soo%Kim%NULL%1,       Peter M.%Hill%NULL%1,       M. Shafeeq%Ahmed%NULL%1,       Eric D.%Dobkin%NULL%1,       Renee%Blanding%NULL%1,       Jennifer%Abele%NULL%1,       Bonnie%Woods%NULL%1,       Kenneth%Harkness%NULL%1,       David R.%Thiemann%NULL%1,       Mary G.%Bowring%NULL%1,       Aalok B.%Shah%NULL%2,       Aalok B.%Shah%NULL%0,       Mei-Cheng%Wang%NULL%1,       Karen%Bandeen-Roche%NULL%1,       Antony%Rosen%NULL%1,       Scott L.%Zeger%NULL%2,       Scott L.%Zeger%NULL%0,       Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,       Megan%McCullough%NULL%0,       Megan%McCullough%NULL%0,       Michael A.%Fuery%NULL%0,       Fouad%Chouairi%NULL%0,       Fouad%Chouairi%NULL%0,       Craig%Keating%NULL%0,       Neal G.%Ravindra%NULL%0,       P. Elliott%Miller%NULL%0,       Maricar%Malinis%NULL%0,       Nitu%Kashyap%NULL%0,       Allen%Hsiao%NULL%0,       F. Perry%Wilson%NULL%0,       Jeptha P.%Curtis%NULL%0,       Matthew%Grant%NULL%0,       Eric J.%Velazquez%NULL%0,       Nihar R.%Desai%NULL%0,       Tariq%Ahmad%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,         R. U.% Shah%null%1,         M.% Bale%null%1,         J. B.% Peacock%null%1,         B.% Berger%null%1,         A.% Brown%null%1,         S.% Mann%null%1,         W.% West%null%1,         V.% Martin%null%1,         V.% Fernandez%null%1,         S.% Grineski%null%1,         B. J.% Brintz%null%1,         M. H.% Samore%null%1,         M. J.% Ferrari%null%1,         D. T.% Leung%null%1,         L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,        Samuel L%Bruce%NULL%1,        Cody L%Slater%NULL%1,        Jonathan R%Tiao%NULL%1,        Matthew R%Baldwin%NULL%1,        R Graham%Barr%NULL%1,        Bernard P%Chang%NULL%1,        Katherine H%Chau%NULL%1,        Justin J%Choi%NULL%1,        Nicholas%Gavin%NULL%1,        Parag%Goyal%NULL%1,        Angela M%Mills%NULL%1,        Ashmi A%Patel%NULL%1,        Marie-Laure S%Romney%NULL%1,        Monika M%Safford%NULL%1,        Neil W%Schluger%NULL%1,        Soumitra%Sengupta%NULL%1,        Magdalena E%Sobieszczyk%NULL%1,        Jason E%Zucker%NULL%1,        Paul A%Asadourian%NULL%1,        Fletcher M%Bell%NULL%1,        Rebekah%Boyd%NULL%1,        Matthew F%Cohen%NULL%1,        MacAlistair I%Colquhoun%NULL%1,        Lucy A%Colville%NULL%1,        Joseph H%de Jonge%NULL%1,        Lyle B%Dershowitz%NULL%1,        Shirin A%Dey%NULL%1,        Katherine A%Eiseman%NULL%1,        Zachary P%Girvin%NULL%1,        Daniella T%Goni%NULL%1,        Amro A%Harb%NULL%1,        Nicholas%Herzik%NULL%1,        Sarah%Householder%NULL%1,        Lara E%Karaaslan%NULL%1,        Heather%Lee%NULL%1,        Evan%Lieberman%NULL%1,        Andrew%Ling%NULL%1,        Ree%Lu%NULL%1,        Arthur Y%Shou%NULL%1,        Alexander C%Sisti%NULL%1,        Zachary E%Snow%NULL%1,        Colin P%Sperring%NULL%1,        Yuqing%Xiong%NULL%1,        Henry W%Zhou%NULL%1,        Karthik%Natarajan%NULL%1,        George%Hripcsak%NULL%1,        Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,        Megan%McCullough%NULL%4,        Megan%McCullough%NULL%0,        Michael A.%Fuery%NULL%2,        Fouad%Chouairi%NULL%4,        Fouad%Chouairi%NULL%0,        Craig%Keating%NULL%2,        Neal G.%Ravindra%NULL%2,        P. Elliott%Miller%NULL%2,        Maricar%Malinis%NULL%2,        Nitu%Kashyap%NULL%2,        Allen%Hsiao%NULL%2,        F. Perry%Wilson%NULL%2,        Jeptha P.%Curtis%NULL%2,        Matthew%Grant%NULL%2,        Eric J.%Velazquez%NULL%2,        Nihar R.%Desai%NULL%2,        Tariq%Ahmad%NULL%2,        Chiara%Lazzeri%NULL%18,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,        Karen K.%Wong%NULL%1,        Christine M.%Szablewski%NULL%1,        Priti R.%Patel%NULL%1,        John%Rossow%NULL%1,        Juliana%da Silva%NULL%1,        Pavithra%Natarajan%NULL%1,        Sapna Bamrah%Morris%NULL%1,        Robyn Neblett%Fanfair%NULL%1,        Jessica%Rogers-Brown%NULL%1,        Beau B.%Bruce%NULL%1,        Sean D.%Browning%NULL%1,        Alfonso C.%Hernandez-Romieu%NULL%2,        Nathan W.%Furukawa%NULL%1,        Mohleen%Kang%NULL%1,        Mary E.%Evans%NULL%1,        Nadine%Oosmanally%NULL%1,        Melissa%Tobin-D’Angelo%NULL%1,        Cherie%Drenzek%NULL%1,        David J.%Murphy%NULL%0,        Julie%Hollberg%NULL%1,        James M.%Blum%NULL%0,        Robert%Jansen%NULL%1,        David W.%Wright%NULL%1,        William M.%Sewell%NULL%1,        Jack D.%Owens%NULL%1,        Benjamin%Lefkove%NULL%1,        Frank W.%Brown%NULL%1,        Deron C.%Burton%NULL%1,        Timothy M.%Uyeki%NULL%3,        Stephanie R.%Bialek%NULL%1,        Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,        Jasmine A.%Mack%NULL%1,        Maxwell%Salvatore%NULL%1,        Swaraaj Prabhu%Sankar%NULL%1,        Thomas S.%Valley%NULL%1,        Karandeep%Singh%NULL%1,        Brahmajee K.%Nallamothu%NULL%1,        Sachin%Kheterpal%NULL%1,        Lynda%Lisabeth%NULL%1,        Lars G.%Fritsche%NULL%1,        Bhramar%Mukherjee%NULL%1,         T.%Gu%null%1,         J. A.% Mack%null%1,         M.% Salvatore%null%1,         S. P.% Sankar%null%1,         T. S.% Valley%null%1,         K.% Singh%null%1,         B. K.% Nallamothu%null%1,         S.% Kheterpal%null%1,         L.% Lisabeth%null%1,         L. G.% Fritsche%null%1,         B. G. % Mukherjee%null%1,        T.%Gu%null%1,        J. A.% Mack%null%1,        M.% Salvatore%null%1,        S. P.% Sankar%null%1,        T. S.% Valley%null%1,        K.% Singh%null%1,        B. K.% Nallamothu%null%1,        S.% Kheterpal%null%1,        L.% Lisabeth%null%1,        L. G.% Fritsche%null%1,        B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,         S.% Nirenberg%null%1,         P.% Kovatch%null%1,         K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,        Shikha%Garg%NULL%1,        Alissa%O’Halloran%NULL%1,        Michael%Whitaker%NULL%1,        Huong%Pham%NULL%1,        Evan J%Anderson%NULL%1,        Isaac%Armistead%NULL%1,        Nancy M%Bennett%NULL%1,        Laurie%Billing%NULL%1,        Kathryn%Como-Sabetti%NULL%1,        Mary%Hill%NULL%1,        Sue%Kim%NULL%1,        Maya L%Monroe%NULL%1,        Alison%Muse%NULL%1,        Arthur L%Reingold%NULL%1,        William%Schaffner%NULL%1,        Melissa%Sutton%NULL%1,        H Keipp%Talbot%NULL%1,        Salina M%Torres%NULL%1,        Kimberly%Yousey-Hindes%NULL%1,        Rachel%Holstein%NULL%1,        Charisse%Cummings%NULL%1,        Lynette%Brammer%NULL%1,        Aron J%Hall%NULL%1,        Alicia M%Fry%NULL%1,        Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,         S.% Richardson%null%1,         K.% Coppa%null%1,         D. P.% Barnaby%null%1,         T.% McGinn%null%1,         L. B.% Becker%null%1,         K. W.% Davidson%null%1,         S. L.% Cohen%null%1,         J. S.% Hirsch%null%1,         T.% Zanos%null%1,           % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,         L. H.% Nguyen%null%1,         D. A.% Drew%null%1,         M. S.% Graham%null%1,         E. T.% Warner%null%1,         A. D.% Joshi%null%1,         C. M.% Astley%null%1,         C.-G.% Guo%null%1,         W.% Ma%null%1,         R. S.% Mehta%null%1,         S.% Kwon%null%1,         M.% Song%null%1,         R.% Davies%null%1,         J.% Capdevila%null%1,         K. A.% Lee%null%1,         M. N.% Lochlainn%null%1,         T.% Varsavsky%null%1,         C. H.% Sudre%null%1,         J.% Wolf%null%1,         Y. C.% Cozier%null%1,         L.% Rosenberg%null%1,         L. R.% Wilkens%null%1,         C. A.% Haiman%null%1,         L. L.% Marchand%null%1,         J. R.% Palmer%null%1,         T. D.% Spector%null%1,         S.% Ourselin%null%1,         C. J.% Steves%null%1,         A. T.% Chan%null%1,           % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,        Jienchi%Dorward%NULL%1,        Ana%Correa%NULL%1,        Nicholas%Jones%NULL%1,        Oluwafunmi%Akinyemi%NULL%1,        Gayatri%Amirthalingam%NULL%1,        Nick%Andrews%NULL%1,        Rachel%Byford%NULL%1,        Gavin%Dabrera%NULL%1,        Alex%Elliot%NULL%1,        Joanna%Ellis%NULL%0,        Filipa%Ferreira%NULL%1,        Jamie%Lopez Bernal%NULL%1,        Cecilia%Okusi%NULL%1,        Mary%Ramsay%NULL%1,        Julian%Sherlock%NULL%1,        Gillian%Smith%NULL%1,        John%Williams%NULL%1,        Gary%Howsam%NULL%1,        Maria%Zambon%NULL%0,        Mark%Joy%NULL%1,        F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,        Johanna%Dolle%NULL%2,        Johanna%Dolle%NULL%0,        Sheila%Grami%NULL%1,        Richard%Adule%NULL%1,        Zeyu%Li%NULL%1,        Kathleen%Tatem%NULL%1,        Chinyere%Anyaogu%NULL%1,        Stephen%Apfelroth%NULL%1,        Raji%Ayinla%NULL%2,        Raji%Ayinla%NULL%0,        Noella%Boma%NULL%1,        Terence%Brady%NULL%1,        Braulio F.%Cosme-Thormann%NULL%1,        Roseann%Costarella%NULL%1,        Kenra%Ford%NULL%1,        Kecia%Gaither%NULL%1,        Jessica%Jacobson%NULL%1,        Marc%Kanter%NULL%1,        Stuart%Kessler%NULL%1,        Ross B.%Kristal%NULL%1,        Joseph J.%Lieber%NULL%1,        Vikramjit%Mukherjee%NULL%1,        Vincent%Rizzo%NULL%1,        Madden%Rowell%NULL%1,        David%Stevens%NULL%1,        Elana%Sydney%NULL%1,        Andrew%Wallach%NULL%2,        Andrew%Wallach%NULL%0,        Dave A.%Chokshi%NULL%1,        Nichola%Davis%NULL%1,        NULL%NULL%NULL%0,        Sze Yan%Liu%NULL%2,        Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,        Mark%Caridi-Scheible%NULL%0,        James M.%Blum%NULL%0,        Chad%Robichaux%NULL%1,        Colleen%Kraft%NULL%1,        Jesse T.%Jacob%NULL%1,        Craig S.%Jabaley%NULL%0,        David%Carpenter%NULL%1,        Roberta%Kaplow%NULL%1,        Alfonso C.%Hernandez-Romieu%NULL%0,        Max W.%Adelman%NULL%0,        Greg S.%Martin%NULL%0,        Craig M.%Coopersmith%NULL%1,        David J.%Murphy%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,         Seunghee%Kim-Schulze%null%1,         Hsin-Hui%Huang%null%1,         Noam D.%Beckmann%null%1,         Sharon%Nirenberg%null%1,         Bo%Wang%null%0,         Yonit%Lavin%null%1,         Talia H.%Swartz%null%1,         Deepu%Madduri%null%1,         Aryeh%Stock%null%1,         Thomas U.%Marron%null%1,         Hui%Xie%null%1,         Manishkumar%Patel%null%1,         Kevin%Tuballes%null%1,         Oliver%Oekelen%null%1,         Adeeb%Rahman%null%1,         Patricia%Kovatch%null%0,         Judith A.%Aberg%null%1,         Eric%Schadt%null%1,         Sundar%Jagannath%null%1,         Madhu%Mazumdar%null%1,         Alexander W.%Charney%null%1,         Adolfo%Firpo-Betancourt%null%1,         Damodara Rao%Mendu%null%1,         Jeffrey%Jhang%null%1,         David%Reich%null%1,         Keith%Sigel%null%1,         Carlos%Cordon-Cardo%null%0,         Marc%Feldmann%null%1,         Samir%Parekh%null%1,         Miriam%Merad%null%1,         Sacha%Gnjatic%null%1,        Diane Marie%Del Valle%null%1,        Seunghee%Kim-Schulze%null%1,        Hsin-Hui%Huang%null%1,        Noam D.%Beckmann%null%1,        Sharon%Nirenberg%null%2,        Bo%Wang%null%2,        Yonit%Lavin%null%1,        Talia H.%Swartz%null%1,        Deepu%Madduri%null%1,        Aryeh%Stock%null%1,        Thomas U.%Marron%null%1,        Hui%Xie%null%2,        Manishkumar%Patel%null%1,        Kevin%Tuballes%null%1,        Oliver%Oekelen%null%1,        Adeeb%Rahman%null%1,        Patricia%Kovatch%null%2,        Judith A.%Aberg%null%1,        Eric%Schadt%null%2,        Sundar%Jagannath%null%1,        Madhu%Mazumdar%null%1,        Alexander W.%Charney%null%0,        Adolfo%Firpo-Betancourt%null%1,        Damodara Rao%Mendu%null%1,        Jeffrey%Jhang%null%2,        David%Reich%null%2,        Keith%Sigel%null%1,        Carlos%Cordon-Cardo%null%0,        Marc%Feldmann%null%1,        Samir%Parekh%null%1,        Miriam%Merad%null%1,        Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,        David R.%Jenkins%NULL%1,        Jatinder S.%Minhas%NULL%1,        Laura J.%Gray%NULL%1,        Julian%Tang%NULL%1,        Caroline%Williams%NULL%1,        Shirley%Sze%NULL%1,        Daniel%Pan%NULL%1,        William%Jones%NULL%1,        Raman%Verma%NULL%1,        Scott%Knapp%NULL%1,        Rupert%Major%NULL%1,        Melanie%Davies%NULL%1,        Nigel%Brunskill%NULL%1,        Martin%Wiselka%NULL%1,        Chris%Brightling%NULL%1,        Kamlesh%Khunti%NULL%1,        Pranab%Haldar%NULL%1,        Manish%Pareek%mp426@le.ac.uk%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,        Kelly E%Hathorn%NULL%2,        Kelly E%Hathorn%NULL%0,        Walker D%Redd%NULL%1,        Nicolette J%Rodriguez%NULL%1,        Joyce C%Zhou%NULL%1,        Ahmad Najdat%Bazarbashi%NULL%1,        Cheikh%Njie%NULL%1,        Danny%Wong%NULL%1,        Quoc-Dien%Trinh%NULL%1,        Lin%Shen%NULL%1,        Valerie E%Stone%NULL%2,        Valerie E%Stone%NULL%0,        Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,         S.% Apewokin%null%1,         A. A.% Wells%null%1,         A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,        Thomas E.%Webb%NULL%2,        Thomas E.%Webb%NULL%0,        Benjamin C.%Mcloughlin%NULL%2,        Benjamin C.%Mcloughlin%NULL%0,        Imran%Mannan%NULL%2,        Imran%Mannan%NULL%0,        Arshad%Rather%NULL%2,        Arshad%Rather%NULL%0,        Paul%Knopp%NULL%1,        Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,        Rajat%Suri%NULL%2,        Rajat%Suri%NULL%0,        Iheanacho O.%Emeruwa%NULL%2,        Iheanacho O.%Emeruwa%NULL%0,        Robert J.%Stretch%NULL%1,        Roxana Y.%Cortes-Lopez%NULL%2,        Roxana Y.%Cortes-Lopez%NULL%0,        Alexander%Sherman%NULL%1,        Catherine C.%Lindsay%NULL%1,        Jennifer A.%Fulcher%NULL%1,        David%Goodman-Meza%NULL%2,        David%Goodman-Meza%NULL%0,        Anil%Sapru%NULL%2,        Anil%Sapru%NULL%0,        Russell G.%Buhr%NULL%1,        Steven Y.%Chang%NULL%2,        Steven Y.%Chang%NULL%0,        Tisha%Wang%NULL%1,        Nida%Qadir%NULL%1,        Giordano%Madeddu%NULL%8,        Giordano%Madeddu%NULL%0,        Giordano%Madeddu%NULL%0,        Ana C.%Monteiro%NULL%2,        Ana C.%Monteiro%NULL%0,        Giordano%Madeddu%NULL%0,        Giordano%Madeddu%NULL%0,        Giordano%Madeddu%NULL%0,        Giordano%Madeddu%NULL%0,        Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,         D.% Stefanov%null%1,         A. S.% Chau%null%1,         A. G.% Weber%null%1,         G. S.% Marder%null%1,         B.% Kaplan%null%1,         P.% Malhotra%null%1,         O.% Bloom%null%1,         A.% Liu%null%1,         M.% Lesser%null%1,         N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,        Catherine A.%O’Donnell%NULL%2,        Bhautesh Dinesh%Jani%NULL%1,        Evangelia%Demou%NULL%1,        Frederick K.%Ho%NULL%1,        Carlos%Celis-Morales%NULL%1,        Barbara I.%Nicholl%NULL%1,        Frances S.%Mair%NULL%2,        Paul%Welsh%NULL%2,        Naveed%Sattar%NULL%2,        Jill P.%Pell%NULL%2,        S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,        Alex J%Walker%NULL%1,        Krishnan%Bhaskaran%NULL%1,        Seb%Bacon%NULL%1,        Chris%Bates%NULL%1,        Caroline E%Morton%NULL%1,        Helen J%Curtis%NULL%1,        Amir%Mehrkar%NULL%1,        David%Evans%NULL%1,        Peter%Inglesby%NULL%1,        Jonathan%Cockburn%NULL%1,        Helen I%McDonald%NULL%1,        Brian%MacKenna%NULL%1,        Laurie%Tomlinson%NULL%1,        Ian J%Douglas%NULL%1,        Christopher T%Rentsch%NULL%1,        Rohini%Mathur%NULL%1,        Angel YS%Wong%NULL%1,        Richard%Grieve%NULL%1,        David%Harrison%NULL%1,        Harriet%Forbes%NULL%1,        Anna%Schultze%NULL%2,        Richard%Croker%NULL%1,        John%Parry%NULL%1,        Frank%Hester%NULL%1,        Sam%Harper%NULL%1,        Rafael%Perera%NULL%1,        Stephen JW%Evans%NULL%1,        Liam%Smeeth%NULL%1,        Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,        Ajay%Bhasin%NULL%1,        Joseph M.%Feinglass%NULL%1,        Michael P.%Angarone%NULL%1,        Elaine R.%Cohen%NULL%1,        Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,  Zijun%Shen%xref no email%1,  Robert J.%Romanelli%xref no email%1,  Stephen H.%Lockhart%xref no email%1,  Kelly%Smits%xref no email%1,  Sarah%Robinson%xref no email%1,  Stephanie%Brown%xref no email%1,  Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,        Andrew%Gangemi%NULL%1,        Robert%Marron%NULL%1,        Junad%Chowdhury%NULL%1,        Ibraheem%Yousef%NULL%1,        Matthew%Zheng%NULL%1,        Nicole%Mills%NULL%1,        Lauren%Tragesser%NULL%1,        Julie%Giurintano%NULL%1,        Rohit%Gupta%NULL%0,        Matthew%Gordon%NULL%0,        Parth%Rali%NULL%2,        Parth%Rali%NULL%0,        Gilbert%D'Alonso%NULL%1,        David%Fleece%NULL%1,        Huaqing%Zhao%NULL%0,        Nicole%Patlakh%NULL%0,        Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,        Nathan C.%Skorodin%nskorodin@midcusa.com%1,        Nicholas W.%Van Hise%NULL%1,        Robert M.%Fliegelman%NULL%1,        Jonathan%Pinsky%NULL%1,        Vishal%Didwania%NULL%1,        Michael%Anderson%NULL%1,        Melina%Diaz%NULL%1,        Kairav%Shah%NULL%1,        Vishnu V.%Chundi%NULL%1,        David W.%Hines%NULL%1,        Brian P.%Harting%NULL%1,        Kamo%Sidwha%NULL%1,        Brian%Yu%NULL%1,        Paul%Brune%NULL%1,        Anjum%Owaisi%NULL%1,        David%Beezhold%NULL%1,        Joseph%Kent%NULL%1,        Dana%Vais%NULL%1,        Alice%Han%NULL%1,        Neethi%Gowda%NULL%1,        Nishi%Sahgal%NULL%1,        Jan%Silverman%NULL%1,        Jonathan%Stake%NULL%1,        Jenie%Nepomuceno%NULL%1,        Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,        Anna%Daunt%NULL%2,        Anna%Daunt%NULL%0,        Sujit%Mukherjee%NULL%1,        Peter%Crook%NULL%1,        Roberta%Forlano%NULL%1,        Mara D%Kont%NULL%1,        Alessandra%Løchen%NULL%1,        Michaela%Vollmer%NULL%1,        Paul%Middleton%NULL%1,        Rebekah%Judge%NULL%1,        Christopher%Harlow%NULL%1,        Anet%Soubieres%NULL%1,        Graham%Cooke%NULL%1,        Peter J%White%NULL%1,        Timothy B%Hallett%NULL%1,        Paul%Aylin%NULL%1,        Neil%Ferguson%NULL%1,        Katharina%Hauck%NULL%1,        Mark R%Thursz%NULL%1,        Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,        Jeffrey%Burton%NULL%2,        Jeffrey%Burton%NULL%0,        Daniel%Fort%NULL%1,        Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,        Michael S.%Sherman%NULL%1,        Naaz%Fatteh%NULL%1,        Fabio%Vogel%NULL%1,        Jamie%Sacks%NULL%1,        Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,         P.% Mannam%null%1,         R.% Comer%null%1,         E.% Sinclair%null%1,         D. B.% McQuaid%null%1,         M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,        Farah%Kidwai-Khan%NULL%1,        Janet P.%Tate%NULL%1,        Lesley S.%Park%NULL%1,        Joseph T.%King%NULL%1,        Melissa%Skanderson%NULL%1,        Ronald G.%Hauser%NULL%1,        Anna%Schultze%NULL%0,        Christopher I.%Jarvis%NULL%1,        Mark%Holodniy%NULL%1,        Vincent Lo%Re%NULL%1,        Kathleen M.%Akgün%NULL%1,        Kristina%Crothers%NULL%1,        Tamar H.%Taddei%NULL%1,        Matthew S.%Freiberg%NULL%1,        Amy C.%Justice%NULL%1,         C. T.%Rentsch%null%1,         F.% Kidwai-Khan%null%1,         J. P.% Tate%null%1,         L. S.% Park%null%1,         J. T.% King%null%1,         M.% Skanderson%null%1,         R. G.% Hauser%null%1,         A.% Schultze%null%1,         C. I.% Jarvis%null%1,         M.% Holodniy%null%1,         V.% Lo Re%null%1,         K. M.% Akgun%null%1,         K.% Crothers%null%1,         T. H.% Taddei%null%1,         M. S.% Freiberg%null%1,         A. C. % Justice%null%1,        C. T.%Rentsch%null%1,        F.% Kidwai-Khan%null%1,        J. P.% Tate%null%1,        L. S.% Park%null%1,        J. T.% King%null%1,        M.% Skanderson%null%1,        R. G.% Hauser%null%1,        A.% Schultze%null%1,        C. I.% Jarvis%null%1,        M.% Holodniy%null%1,        V.% Lo Re%null%1,        K. M.% Akgun%null%1,        K.% Crothers%null%1,        T. H.% Taddei%null%1,        M. S.% Freiberg%null%1,        A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,  Elizabeth M.%Dufort%xref no email%1,  Tomoko%Udo%xref no email%1,  Larissa A.%Wilberschied%xref no email%1,  Jessica%Kumar%xref no email%1,  James%Tesoriero%xref no email%1,  Patti%Weinberg%xref no email%1,  James%Kirkwood%xref no email%1,  Alison%Muse%xref no email%1,  Jack%DeHovitz%xref no email%1,  Debra S.%Blog%xref no email%1,  Brad%Hutton%xref no email%1,  David R.%Holtgrave%xref no email%1,  Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,        Jennifer%Beam%NULL%2,        Jennifer%Beam%NULL%0,        Haley%Maier%NULL%1,        Whitney%Haggerson%NULL%1,        Karen%Boudreau%NULL%1,        Jamie%Carlson%NULL%1,        Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,        Alexander E.%Ayala%NULL%1,        Chideraa C.%Ukeje%NULL%1,        Celeste S.%Witting%NULL%1,        William A.%Grobman%NULL%1,        Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,        Hannah C.%Jarvis%NULL%2,        Hannah C.%Jarvis%NULL%0,        Ezgi%Ozcan%NULL%1,        Thomas L. P.%Burns%NULL%1,        Rabia A.%Warraich%NULL%1,        Lisa J.%Amani%NULL%1,        Amina%Jaffer%NULL%1,        Stephanie%Paget%NULL%1,        Anand%Sivaramakrishnan%NULL%1,        Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,        Suzy%Gallier%NULL%2,        Suzy%Gallier%NULL%0,        Chris%Mainey%NULL%1,        Peter%Nightingale%NULL%2,        Peter%Nightingale%NULL%0,        David%McNulty%NULL%1,        Hannah%Crothers%NULL%1,        Felicity%Evison%NULL%1,        Katharine%Reeves%NULL%1,        Domenico%Pagano%NULL%1,        Alastair K%Denniston%NULL%1,        Krishnarajah%Nirantharakumar%NULL%1,        Peter%Diggle%NULL%1,        Simon%Ball%NULL%1,        Lylah%Irshad%NULL%1,        Maxim%Harris%NULL%1,        Theodore%Nabav%NULL%1,        A%Kolesnyk%NULL%1,        M%Ahmed%NULL%1,        A%Liaqat%NULL%1,        Tanya%Pankhurst%NULL%1,        Jamie%Coleman%NULL%1,        Chirag%Dave%NULL%1,        Khaled%ElFandi%NULL%1,        Rifat%Rashid%NULL%1,        Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,        Gregory A%Eschenauer%NULL%2,        Gregory A%Eschenauer%NULL%0,        Jonathan P%Troost%NULL%1,        Jonathan L%Golob%NULL%1,        Tejal N%Gandhi%NULL%1,        Lu%Wang%NULL%1,        Nina%Zhou%NULL%1,        Lindsay A%Petty%NULL%1,        Ji Hoon%Baang%NULL%1,        Nicholas O%Dillman%NULL%1,        David%Frame%NULL%1,        Kevin S%Gregg%NULL%1,        Dan R%Kaul%NULL%1,        Jerod%Nagel%NULL%1,        Twisha S%Patel%NULL%1,        Shiwei%Zhou%NULL%1,        Adam S%Lauring%NULL%1,        David A%Hanauer%NULL%1,        Emily%Martin%NULL%1,        Pratima%Sharma%NULL%1,        Christopher M%Fung%NULL%1,        Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,        Lei%Qian%NULL%2,        Lei%Qian%NULL%0,        Vennis%Hong%NULL%1,        Rong%Wei%NULL%2,        Rong%Wei%NULL%0,        Ron F.%Nadjafi%NULL%2,        Ron F.%Nadjafi%NULL%0,        Heidi%Fischer%NULL%1,        Zhuoxin%Li%NULL%1,        Sally F.%Shaw%NULL%1,        Susan L.%Caparosa%NULL%2,        Susan L.%Caparosa%NULL%0,        Claudia L.%Nau%NULL%1,        Tanmai%Saxena%NULL%1,        Gunter K.%Rieg%NULL%1,        Bradley K.%Ackerson%NULL%1,        Adam L.%Sharp%NULL%2,        Adam L.%Sharp%NULL%0,        Jacek%Skarbinski%NULL%2,        Jacek%Skarbinski%NULL%0,        Tej K.%Naik%NULL%1,        Sameer B.%Murali%NULL%2,        Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,        Juan Carlos%Nicolas%NULL%2,        Juan Carlos%Nicolas%NULL%0,        Jennifer R%Meeks%NULL%1,        Osman%Khan%NULL%1,        Alan%Pan%NULL%1,        Stephen L%Jones%NULL%1,        Faisal%Masud%NULL%1,        H Dirk%Sostman%NULL%1,        Robert%Phillips%NULL%1,        Julia D%Andrieni%NULL%1,        Bita A%Kash%NULL%1,        Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,        Arryn%Craney%NULL%1,        Phyllis%Ruggiero%NULL%1,        John%Sipley%NULL%1,        Lin%Cong%NULL%1,        Erika M.%Hissong%NULL%1,        Massimo%Loda%NULL%1,        Lars F.%Westblade%NULL%1,        Melissa%Cushing%NULL%2,        Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,         X.% Zhong%null%1,         Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,        Amanda%Zheutlin%NULL%2,        Amanda%Zheutlin%NULL%0,        Yu-Han%Kao%NULL%1,        Kristin%Ayers%NULL%1,        Susan%Gross%NULL%1,        Patricia%Kovatch%NULL%0,        Sharon%Nirenberg%NULL%0,        Alexander%Charney%NULL%1,        Girish%Nadkarni%NULL%1,        Jessica K%De Freitas%NULL%1,        Paul%O’Reilly%NULL%1,        Allan%Just%NULL%1,        Carol%Horowitz%NULL%1,        Glenn%Martin%NULL%1,        Andrea%Branch%NULL%1,        Benjamin S%Glicksberg%NULL%1,        Dennis%Charney%NULL%1,        David%Reich%NULL%0,        William K%Oh%NULL%1,        Eric%Schadt%NULL%0,        Rong%Chen%NULL%0,        Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,        Angela%Winegar%NULL%1,        Richard%Fogel%NULL%1,        Mohamad%Fakih%NULL%1,        Allison%Ottenbacher%NULL%1,        Christine%Jesser%NULL%1,        Angelo%Bufalino%NULL%1,        Ren-Huai%Huang%NULL%1,        Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,        Rebecca%Bendayan%NULL%0,        Mark%Ashworth%NULL%1,        Daniel M.%Bean%NULL%1,        Hiten%Dodhia%NULL%1,        Stevo%Durbaba%NULL%1,        Kevin%O'Gallagher%NULL%1,        Claire%Palmer%NULL%1,        Vasa%Curcin%NULL%1,        Elizabeth%Aitken%NULL%1,        William%Bernal%NULL%1,        Richard D.%Barker%NULL%1,        Sam%Norton%NULL%1,        Martin%Gulliford%NULL%1,        James T.H.%Teo%NULL%0,        James%Galloway%NULL%1,        Richard J.B.%Dobson%NULL%0,        Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,        Carina%Marquez%NULL%1,        Emily%Crawford%NULL%1,        James%Peng%NULL%1,        Maya%Petersen%NULL%1,        Daniel%Schwab%NULL%1,        Joshua%Schwab%NULL%1,        Jackie%Martinez%NULL%1,        Diane%Jones%NULL%1,        Douglas%Black%NULL%1,        Monica%Gandhi%NULL%1,        Andrew D%Kerkhoff%NULL%1,        Vivek%Jain%NULL%1,        Francesco%Sergi%NULL%1,        Jon%Jacobo%NULL%1,        Susana%Rojas%NULL%1,        Valerie%Tulier-Laiwa%NULL%1,        Tracy%Gallardo-Brown%NULL%1,        Ayesha%Appa%NULL%1,        Charles%Chiu%NULL%1,        Mary%Rodgers%NULL%1,        John%Hackett%NULL%1,        NULL%NULL%NULL%0,        Amy%Kistler%NULL%1,        Samantha%Hao%NULL%1,        Jack%Kamm%NULL%1,        David%Dynerman%NULL%1,        Joshua%Batson%NULL%1,        Bryan%Greenhouse%NULL%1,        Joe%DeRisi%NULL%1,        Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,        Tiffany%Grimes%NULL%1,        Peng%Li%NULL%1,        Matthew%Might%NULL%1,        Fernando%Ovalle%NULL%1,        Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,        Natalie%Achamallah%NULL%1,        Hongwei%Ji%NULL%1,        Brian L.%Claggett%NULL%1,        Nancy%Sun%NULL%1,        Patrick%Botting%NULL%1,        Trevor-Trung%Nguyen%NULL%1,        Eric%Luong%NULL%1,        Elizabeth H.%Kim%NULL%1,        Eunice%Park%NULL%1,        Yunxian%Liu%NULL%1,        Ryan%Rosenberry%NULL%1,        Yuri%Matusov%NULL%1,        Steven%Zhao%NULL%1,        Isabel%Pedraza%NULL%1,        Tanzira%Zaman%NULL%1,        Michael%Thompson%NULL%1,        Koen%Raedschelders%NULL%1,        Anders H.%Berg%NULL%2,        Anders H.%Berg%NULL%0,        Jonathan D.%Grein%NULL%1,        Paul W.%Noble%NULL%1,        Sumeet S.%Chugh%NULL%1,        C. Noel%Bairey Merz%NULL%1,        Eduardo%Marbán%NULL%1,        Jennifer E.%Van Eyk%NULL%1,        Scott D.%Solomon%NULL%1,        Christine M.%Albert%NULL%1,        Peter%Chen%NULL%1,        Susan%Cheng%NULL%3,        Yu Ru%Kou%NULL%8,        Yu Ru%Kou%NULL%0,        Yu Ru%Kou%NULL%0,        Susan%Cheng%biodatacore@cshs.org%0,        Susan%Cheng%biodatacore@cshs.org%0,        Yu Ru%Kou%NULL%0,        Yu Ru%Kou%NULL%0,        Yu Ru%Kou%NULL%0,        Yu Ru%Kou%NULL%0,        Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,        Penelope%Strid%NULL%1,        Van T.%Tong%NULL%1,        Kate%Woodworth%NULL%1,        Romeo R.%Galang%NULL%1,        Laura D.%Zambrano%NULL%1,        John%Nahabedian%NULL%1,        Kayla%Anderson%NULL%1,        Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,        Jacob%Fiksel%NULL%2,        Jacob%Fiksel%NULL%0,        John%Muschelli%NULL%2,        John%Muschelli%NULL%0,        Matthew L.%Robinson%NULL%2,        Matthew L.%Robinson%NULL%0,        Masoud%Rouhizadeh%NULL%2,        Masoud%Rouhizadeh%NULL%0,        Jamie%Perin%NULL%2,        Jamie%Perin%NULL%0,        Grant%Schumock%NULL%2,        Grant%Schumock%NULL%0,        Paul%Nagy%NULL%2,        Paul%Nagy%NULL%0,        Josh H.%Gray%NULL%2,        Josh H.%Gray%NULL%0,        Harsha%Malapati%NULL%2,        Harsha%Malapati%NULL%0,        Mariam%Ghobadi-Krueger%NULL%2,        Mariam%Ghobadi-Krueger%NULL%0,        Timothy M.%Niessen%NULL%1,        Bo Soo%Kim%NULL%1,        Peter M.%Hill%NULL%1,        M. Shafeeq%Ahmed%NULL%1,        Eric D.%Dobkin%NULL%1,        Renee%Blanding%NULL%1,        Jennifer%Abele%NULL%1,        Bonnie%Woods%NULL%1,        Kenneth%Harkness%NULL%1,        David R.%Thiemann%NULL%1,        Mary G.%Bowring%NULL%1,        Aalok B.%Shah%NULL%2,        Aalok B.%Shah%NULL%0,        Mei-Cheng%Wang%NULL%1,        Karen%Bandeen-Roche%NULL%1,        Antony%Rosen%NULL%1,        Scott L.%Zeger%NULL%2,        Scott L.%Zeger%NULL%0,        Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,        Megan%McCullough%NULL%0,        Megan%McCullough%NULL%0,        Michael A.%Fuery%NULL%0,        Fouad%Chouairi%NULL%0,        Fouad%Chouairi%NULL%0,        Craig%Keating%NULL%0,        Neal G.%Ravindra%NULL%0,        P. Elliott%Miller%NULL%0,        Maricar%Malinis%NULL%0,        Nitu%Kashyap%NULL%0,        Allen%Hsiao%NULL%0,        F. Perry%Wilson%NULL%0,        Jeptha P.%Curtis%NULL%0,        Matthew%Grant%NULL%0,        Eric J.%Velazquez%NULL%0,        Nihar R.%Desai%NULL%0,        Tariq%Ahmad%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2825,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>575</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -2545,7 +2854,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>475</v>
+        <v>576</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -2574,7 +2883,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>577</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -2603,7 +2912,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>477</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -2632,7 +2941,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>478</v>
+        <v>579</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -2661,7 +2970,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>479</v>
+        <v>580</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -2690,7 +2999,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>480</v>
+        <v>581</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -2719,7 +3028,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>481</v>
+        <v>582</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2748,7 +3057,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>482</v>
+        <v>583</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -2777,7 +3086,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -2806,7 +3115,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -2835,7 +3144,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>485</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -2864,7 +3173,7 @@
         <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>486</v>
+        <v>587</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2893,7 +3202,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>487</v>
+        <v>588</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -2922,7 +3231,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>488</v>
+        <v>589</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -2951,7 +3260,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>489</v>
+        <v>590</v>
       </c>
       <c r="F17" t="s">
         <v>71</v>
@@ -2980,7 +3289,7 @@
         <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>490</v>
+        <v>591</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -3009,7 +3318,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -3038,7 +3347,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>492</v>
+        <v>593</v>
       </c>
       <c r="F20" t="s">
         <v>71</v>
@@ -3067,7 +3376,7 @@
         <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>493</v>
+        <v>594</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -3096,7 +3405,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -3125,7 +3434,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>495</v>
+        <v>596</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -3148,22 +3457,22 @@
         <v>43972.0</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>543</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>545</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>546</v>
       </c>
       <c r="I24" t="s">
         <v>91</v>
@@ -3183,7 +3492,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>496</v>
+        <v>598</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -3212,7 +3521,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -3241,7 +3550,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
+        <v>600</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -3270,7 +3579,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>499</v>
+        <v>601</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -3299,7 +3608,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>500</v>
+        <v>602</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -3328,7 +3637,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>501</v>
+        <v>603</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
@@ -3357,7 +3666,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>502</v>
+        <v>604</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -3380,22 +3689,22 @@
         <v>43962.0</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>554</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>605</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>545</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>556</v>
       </c>
       <c r="I32" t="s">
         <v>91</v>
@@ -3415,7 +3724,7 @@
         <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>503</v>
+        <v>606</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -3444,7 +3753,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>504</v>
+        <v>607</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -3473,7 +3782,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -3502,7 +3811,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>506</v>
+        <v>609</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -3531,7 +3840,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>507</v>
+        <v>610</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -3560,7 +3869,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>508</v>
+        <v>611</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -3589,7 +3898,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>509</v>
+        <v>612</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -3618,7 +3927,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>510</v>
+        <v>613</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -3647,7 +3956,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>511</v>
+        <v>614</v>
       </c>
       <c r="F41" t="s">
         <v>71</v>
@@ -3676,7 +3985,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>512</v>
+        <v>615</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -3705,7 +4014,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>513</v>
+        <v>616</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -3734,7 +4043,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>514</v>
+        <v>617</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -3763,7 +4072,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -3792,7 +4101,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>516</v>
+        <v>619</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -3821,7 +4130,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>517</v>
+        <v>620</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -3850,7 +4159,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>518</v>
+        <v>621</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -3879,7 +4188,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>519</v>
+        <v>622</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -3908,7 +4217,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>520</v>
+        <v>623</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="723">
   <si>
     <t>Doi</t>
   </si>
@@ -2418,6 +2418,312 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,        Megan%McCullough%NULL%0,        Megan%McCullough%NULL%0,        Michael A.%Fuery%NULL%0,        Fouad%Chouairi%NULL%0,        Fouad%Chouairi%NULL%0,        Craig%Keating%NULL%0,        Neal G.%Ravindra%NULL%0,        P. Elliott%Miller%NULL%0,        Maricar%Malinis%NULL%0,        Nitu%Kashyap%NULL%0,        Allen%Hsiao%NULL%0,        F. Perry%Wilson%NULL%0,        Jeptha P.%Curtis%NULL%0,        Matthew%Grant%NULL%0,        Eric J.%Velazquez%NULL%0,        Nihar R.%Desai%NULL%0,        Tariq%Ahmad%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0,        Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,          R. U.% Shah%null%1,          M.% Bale%null%1,          J. B.% Peacock%null%1,          B.% Berger%null%1,          A.% Brown%null%1,          S.% Mann%null%1,          W.% West%null%1,          V.% Martin%null%1,          V.% Fernandez%null%1,          S.% Grineski%null%1,          B. J.% Brintz%null%1,          M. H.% Samore%null%1,          M. J.% Ferrari%null%1,          D. T.% Leung%null%1,          L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,         Samuel L%Bruce%NULL%1,         Cody L%Slater%NULL%1,         Jonathan R%Tiao%NULL%1,         Matthew R%Baldwin%NULL%1,         R Graham%Barr%NULL%1,         Bernard P%Chang%NULL%1,         Katherine H%Chau%NULL%1,         Justin J%Choi%NULL%1,         Nicholas%Gavin%NULL%1,         Parag%Goyal%NULL%1,         Angela M%Mills%NULL%1,         Ashmi A%Patel%NULL%1,         Marie-Laure S%Romney%NULL%1,         Monika M%Safford%NULL%1,         Neil W%Schluger%NULL%1,         Soumitra%Sengupta%NULL%1,         Magdalena E%Sobieszczyk%NULL%1,         Jason E%Zucker%NULL%1,         Paul A%Asadourian%NULL%1,         Fletcher M%Bell%NULL%1,         Rebekah%Boyd%NULL%1,         Matthew F%Cohen%NULL%1,         MacAlistair I%Colquhoun%NULL%1,         Lucy A%Colville%NULL%1,         Joseph H%de Jonge%NULL%1,         Lyle B%Dershowitz%NULL%1,         Shirin A%Dey%NULL%1,         Katherine A%Eiseman%NULL%1,         Zachary P%Girvin%NULL%1,         Daniella T%Goni%NULL%1,         Amro A%Harb%NULL%1,         Nicholas%Herzik%NULL%1,         Sarah%Householder%NULL%1,         Lara E%Karaaslan%NULL%1,         Heather%Lee%NULL%1,         Evan%Lieberman%NULL%1,         Andrew%Ling%NULL%1,         Ree%Lu%NULL%1,         Arthur Y%Shou%NULL%1,         Alexander C%Sisti%NULL%1,         Zachary E%Snow%NULL%1,         Colin P%Sperring%NULL%1,         Yuqing%Xiong%NULL%1,         Henry W%Zhou%NULL%1,         Karthik%Natarajan%NULL%1,         George%Hripcsak%NULL%1,         Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,         Megan%McCullough%NULL%4,         Megan%McCullough%NULL%0,         Michael A.%Fuery%NULL%2,         Fouad%Chouairi%NULL%4,         Fouad%Chouairi%NULL%0,         Craig%Keating%NULL%2,         Neal G.%Ravindra%NULL%2,         P. Elliott%Miller%NULL%2,         Maricar%Malinis%NULL%2,         Nitu%Kashyap%NULL%2,         Allen%Hsiao%NULL%2,         F. Perry%Wilson%NULL%2,         Jeptha P.%Curtis%NULL%2,         Matthew%Grant%NULL%2,         Eric J.%Velazquez%NULL%2,         Nihar R.%Desai%NULL%2,         Tariq%Ahmad%NULL%2,         Chiara%Lazzeri%NULL%18,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,         Karen K.%Wong%NULL%1,         Christine M.%Szablewski%NULL%1,         Priti R.%Patel%NULL%1,         John%Rossow%NULL%1,         Juliana%da Silva%NULL%1,         Pavithra%Natarajan%NULL%1,         Sapna Bamrah%Morris%NULL%1,         Robyn Neblett%Fanfair%NULL%1,         Jessica%Rogers-Brown%NULL%1,         Beau B.%Bruce%NULL%1,         Sean D.%Browning%NULL%1,         Alfonso C.%Hernandez-Romieu%NULL%2,         Nathan W.%Furukawa%NULL%1,         Mohleen%Kang%NULL%1,         Mary E.%Evans%NULL%1,         Nadine%Oosmanally%NULL%1,         Melissa%Tobin-D’Angelo%NULL%1,         Cherie%Drenzek%NULL%1,         David J.%Murphy%NULL%0,         Julie%Hollberg%NULL%1,         James M.%Blum%NULL%0,         Robert%Jansen%NULL%1,         David W.%Wright%NULL%1,         William M.%Sewell%NULL%1,         Jack D.%Owens%NULL%1,         Benjamin%Lefkove%NULL%1,         Frank W.%Brown%NULL%1,         Deron C.%Burton%NULL%1,         Timothy M.%Uyeki%NULL%3,         Stephanie R.%Bialek%NULL%1,         Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,         Jasmine A.%Mack%NULL%1,         Maxwell%Salvatore%NULL%1,         Swaraaj Prabhu%Sankar%NULL%1,         Thomas S.%Valley%NULL%1,         Karandeep%Singh%NULL%1,         Brahmajee K.%Nallamothu%NULL%1,         Sachin%Kheterpal%NULL%1,         Lynda%Lisabeth%NULL%1,         Lars G.%Fritsche%NULL%1,         Bhramar%Mukherjee%NULL%1,          T.%Gu%null%1,          J. A.% Mack%null%1,          M.% Salvatore%null%1,          S. P.% Sankar%null%1,          T. S.% Valley%null%1,          K.% Singh%null%1,          B. K.% Nallamothu%null%1,          S.% Kheterpal%null%1,          L.% Lisabeth%null%1,          L. G.% Fritsche%null%1,          B. G. % Mukherjee%null%1,         T.%Gu%null%1,         J. A.% Mack%null%1,         M.% Salvatore%null%1,         S. P.% Sankar%null%1,         T. S.% Valley%null%1,         K.% Singh%null%1,         B. K.% Nallamothu%null%1,         S.% Kheterpal%null%1,         L.% Lisabeth%null%1,         L. G.% Fritsche%null%1,         B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,          S.% Nirenberg%null%1,          P.% Kovatch%null%1,          K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,         Shikha%Garg%NULL%1,         Alissa%O’Halloran%NULL%1,         Michael%Whitaker%NULL%1,         Huong%Pham%NULL%1,         Evan J%Anderson%NULL%1,         Isaac%Armistead%NULL%1,         Nancy M%Bennett%NULL%1,         Laurie%Billing%NULL%1,         Kathryn%Como-Sabetti%NULL%1,         Mary%Hill%NULL%1,         Sue%Kim%NULL%1,         Maya L%Monroe%NULL%1,         Alison%Muse%NULL%1,         Arthur L%Reingold%NULL%1,         William%Schaffner%NULL%1,         Melissa%Sutton%NULL%1,         H Keipp%Talbot%NULL%1,         Salina M%Torres%NULL%1,         Kimberly%Yousey-Hindes%NULL%1,         Rachel%Holstein%NULL%1,         Charisse%Cummings%NULL%1,         Lynette%Brammer%NULL%1,         Aron J%Hall%NULL%1,         Alicia M%Fry%NULL%1,         Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,          S.% Richardson%null%1,          K.% Coppa%null%1,          D. P.% Barnaby%null%1,          T.% McGinn%null%1,          L. B.% Becker%null%1,          K. W.% Davidson%null%1,          S. L.% Cohen%null%1,          J. S.% Hirsch%null%1,          T.% Zanos%null%1,            % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,          L. H.% Nguyen%null%1,          D. A.% Drew%null%1,          M. S.% Graham%null%1,          E. T.% Warner%null%1,          A. D.% Joshi%null%1,          C. M.% Astley%null%1,          C.-G.% Guo%null%1,          W.% Ma%null%1,          R. S.% Mehta%null%1,          S.% Kwon%null%1,          M.% Song%null%1,          R.% Davies%null%1,          J.% Capdevila%null%1,          K. A.% Lee%null%1,          M. N.% Lochlainn%null%1,          T.% Varsavsky%null%1,          C. H.% Sudre%null%1,          J.% Wolf%null%1,          Y. C.% Cozier%null%1,          L.% Rosenberg%null%1,          L. R.% Wilkens%null%1,          C. A.% Haiman%null%1,          L. L.% Marchand%null%1,          J. R.% Palmer%null%1,          T. D.% Spector%null%1,          S.% Ourselin%null%1,          C. J.% Steves%null%1,          A. T.% Chan%null%1,            % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,         Jienchi%Dorward%NULL%1,         Ana%Correa%NULL%1,         Nicholas%Jones%NULL%1,         Oluwafunmi%Akinyemi%NULL%1,         Gayatri%Amirthalingam%NULL%1,         Nick%Andrews%NULL%1,         Rachel%Byford%NULL%1,         Gavin%Dabrera%NULL%1,         Alex%Elliot%NULL%1,         Joanna%Ellis%NULL%0,         Filipa%Ferreira%NULL%1,         Jamie%Lopez Bernal%NULL%1,         Cecilia%Okusi%NULL%1,         Mary%Ramsay%NULL%1,         Julian%Sherlock%NULL%1,         Gillian%Smith%NULL%1,         John%Williams%NULL%1,         Gary%Howsam%NULL%1,         Maria%Zambon%NULL%0,         Mark%Joy%NULL%1,         F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,         Johanna%Dolle%NULL%2,         Johanna%Dolle%NULL%0,         Sheila%Grami%NULL%1,         Richard%Adule%NULL%1,         Zeyu%Li%NULL%1,         Kathleen%Tatem%NULL%1,         Chinyere%Anyaogu%NULL%1,         Stephen%Apfelroth%NULL%1,         Raji%Ayinla%NULL%2,         Raji%Ayinla%NULL%0,         Noella%Boma%NULL%1,         Terence%Brady%NULL%1,         Braulio F.%Cosme-Thormann%NULL%1,         Roseann%Costarella%NULL%1,         Kenra%Ford%NULL%1,         Kecia%Gaither%NULL%1,         Jessica%Jacobson%NULL%1,         Marc%Kanter%NULL%1,         Stuart%Kessler%NULL%1,         Ross B.%Kristal%NULL%1,         Joseph J.%Lieber%NULL%1,         Vikramjit%Mukherjee%NULL%1,         Vincent%Rizzo%NULL%1,         Madden%Rowell%NULL%1,         David%Stevens%NULL%1,         Elana%Sydney%NULL%1,         Andrew%Wallach%NULL%2,         Andrew%Wallach%NULL%0,         Dave A.%Chokshi%NULL%1,         Nichola%Davis%NULL%1,         NULL%NULL%NULL%0,         Sze Yan%Liu%NULL%2,         Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,         Mark%Caridi-Scheible%NULL%0,         James M.%Blum%NULL%0,         Chad%Robichaux%NULL%1,         Colleen%Kraft%NULL%1,         Jesse T.%Jacob%NULL%1,         Craig S.%Jabaley%NULL%0,         David%Carpenter%NULL%1,         Roberta%Kaplow%NULL%1,         Alfonso C.%Hernandez-Romieu%NULL%0,         Max W.%Adelman%NULL%0,         Greg S.%Martin%NULL%0,         Craig M.%Coopersmith%NULL%1,         David J.%Murphy%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,          Seunghee%Kim-Schulze%null%1,          Hsin-Hui%Huang%null%1,          Noam D.%Beckmann%null%1,          Sharon%Nirenberg%null%1,          Bo%Wang%null%0,          Yonit%Lavin%null%1,          Talia H.%Swartz%null%1,          Deepu%Madduri%null%1,          Aryeh%Stock%null%1,          Thomas U.%Marron%null%1,          Hui%Xie%null%1,          Manishkumar%Patel%null%1,          Kevin%Tuballes%null%1,          Oliver%Oekelen%null%1,          Adeeb%Rahman%null%1,          Patricia%Kovatch%null%0,          Judith A.%Aberg%null%1,          Eric%Schadt%null%1,          Sundar%Jagannath%null%1,          Madhu%Mazumdar%null%1,          Alexander W.%Charney%null%1,          Adolfo%Firpo-Betancourt%null%1,          Damodara Rao%Mendu%null%1,          Jeffrey%Jhang%null%1,          David%Reich%null%1,          Keith%Sigel%null%1,          Carlos%Cordon-Cardo%null%0,          Marc%Feldmann%null%1,          Samir%Parekh%null%1,          Miriam%Merad%null%1,          Sacha%Gnjatic%null%1,         Diane Marie%Del Valle%null%1,         Seunghee%Kim-Schulze%null%1,         Hsin-Hui%Huang%null%1,         Noam D.%Beckmann%null%1,         Sharon%Nirenberg%null%2,         Bo%Wang%null%2,         Yonit%Lavin%null%1,         Talia H.%Swartz%null%1,         Deepu%Madduri%null%1,         Aryeh%Stock%null%1,         Thomas U.%Marron%null%1,         Hui%Xie%null%2,         Manishkumar%Patel%null%1,         Kevin%Tuballes%null%1,         Oliver%Oekelen%null%1,         Adeeb%Rahman%null%1,         Patricia%Kovatch%null%2,         Judith A.%Aberg%null%1,         Eric%Schadt%null%2,         Sundar%Jagannath%null%1,         Madhu%Mazumdar%null%1,         Alexander W.%Charney%null%0,         Adolfo%Firpo-Betancourt%null%1,         Damodara Rao%Mendu%null%1,         Jeffrey%Jhang%null%2,         David%Reich%null%2,         Keith%Sigel%null%1,         Carlos%Cordon-Cardo%null%0,         Marc%Feldmann%null%1,         Samir%Parekh%null%1,         Miriam%Merad%null%1,         Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,         David R.%Jenkins%NULL%1,         Jatinder S.%Minhas%NULL%1,         Laura J.%Gray%NULL%1,         Julian%Tang%NULL%1,         Caroline%Williams%NULL%1,         Shirley%Sze%NULL%1,         Daniel%Pan%NULL%1,         William%Jones%NULL%1,         Raman%Verma%NULL%1,         Scott%Knapp%NULL%1,         Rupert%Major%NULL%1,         Melanie%Davies%NULL%1,         Nigel%Brunskill%NULL%1,         Martin%Wiselka%NULL%1,         Chris%Brightling%NULL%1,         Kamlesh%Khunti%NULL%1,         Pranab%Haldar%NULL%1,         Manish%Pareek%mp426@le.ac.uk%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,         Kelly E%Hathorn%NULL%2,         Kelly E%Hathorn%NULL%0,         Walker D%Redd%NULL%1,         Nicolette J%Rodriguez%NULL%1,         Joyce C%Zhou%NULL%1,         Ahmad Najdat%Bazarbashi%NULL%1,         Cheikh%Njie%NULL%1,         Danny%Wong%NULL%1,         Quoc-Dien%Trinh%NULL%1,         Lin%Shen%NULL%1,         Valerie E%Stone%NULL%2,         Valerie E%Stone%NULL%0,         Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,          S.% Apewokin%null%1,          A. A.% Wells%null%1,          A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,         Thomas E.%Webb%NULL%2,         Thomas E.%Webb%NULL%0,         Benjamin C.%Mcloughlin%NULL%2,         Benjamin C.%Mcloughlin%NULL%0,         Imran%Mannan%NULL%2,         Imran%Mannan%NULL%0,         Arshad%Rather%NULL%2,         Arshad%Rather%NULL%0,         Paul%Knopp%NULL%1,         Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,         Rajat%Suri%NULL%2,         Rajat%Suri%NULL%0,         Iheanacho O.%Emeruwa%NULL%2,         Iheanacho O.%Emeruwa%NULL%0,         Robert J.%Stretch%NULL%1,         Roxana Y.%Cortes-Lopez%NULL%2,         Roxana Y.%Cortes-Lopez%NULL%0,         Alexander%Sherman%NULL%1,         Catherine C.%Lindsay%NULL%1,         Jennifer A.%Fulcher%NULL%1,         David%Goodman-Meza%NULL%2,         David%Goodman-Meza%NULL%0,         Anil%Sapru%NULL%2,         Anil%Sapru%NULL%0,         Russell G.%Buhr%NULL%1,         Steven Y.%Chang%NULL%2,         Steven Y.%Chang%NULL%0,         Tisha%Wang%NULL%1,         Nida%Qadir%NULL%1,         Giordano%Madeddu%NULL%8,         Giordano%Madeddu%NULL%0,         Giordano%Madeddu%NULL%0,         Ana C.%Monteiro%NULL%2,         Ana C.%Monteiro%NULL%0,         Giordano%Madeddu%NULL%0,         Giordano%Madeddu%NULL%0,         Giordano%Madeddu%NULL%0,         Giordano%Madeddu%NULL%0,         Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,          D.% Stefanov%null%1,          A. S.% Chau%null%1,          A. G.% Weber%null%1,          G. S.% Marder%null%1,          B.% Kaplan%null%1,          P.% Malhotra%null%1,          O.% Bloom%null%1,          A.% Liu%null%1,          M.% Lesser%null%1,          N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,         Catherine A.%O’Donnell%NULL%2,         Bhautesh Dinesh%Jani%NULL%1,         Evangelia%Demou%NULL%1,         Frederick K.%Ho%NULL%1,         Carlos%Celis-Morales%NULL%1,         Barbara I.%Nicholl%NULL%1,         Frances S.%Mair%NULL%2,         Paul%Welsh%NULL%2,         Naveed%Sattar%NULL%2,         Jill P.%Pell%NULL%2,         S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,         Alex J%Walker%NULL%1,         Krishnan%Bhaskaran%NULL%1,         Seb%Bacon%NULL%1,         Chris%Bates%NULL%1,         Caroline E%Morton%NULL%1,         Helen J%Curtis%NULL%1,         Amir%Mehrkar%NULL%1,         David%Evans%NULL%1,         Peter%Inglesby%NULL%1,         Jonathan%Cockburn%NULL%1,         Helen I%McDonald%NULL%1,         Brian%MacKenna%NULL%1,         Laurie%Tomlinson%NULL%1,         Ian J%Douglas%NULL%1,         Christopher T%Rentsch%NULL%1,         Rohini%Mathur%NULL%1,         Angel YS%Wong%NULL%1,         Richard%Grieve%NULL%1,         David%Harrison%NULL%1,         Harriet%Forbes%NULL%1,         Anna%Schultze%NULL%2,         Richard%Croker%NULL%1,         John%Parry%NULL%1,         Frank%Hester%NULL%1,         Sam%Harper%NULL%1,         Rafael%Perera%NULL%1,         Stephen JW%Evans%NULL%1,         Liam%Smeeth%NULL%1,         Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,         Ajay%Bhasin%NULL%1,         Joseph M.%Feinglass%NULL%1,         Michael P.%Angarone%NULL%1,         Elaine R.%Cohen%NULL%1,         Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,   Zijun%Shen%xref no email%1,   Robert J.%Romanelli%xref no email%1,   Stephen H.%Lockhart%xref no email%1,   Kelly%Smits%xref no email%1,   Sarah%Robinson%xref no email%1,   Stephanie%Brown%xref no email%1,   Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,         Andrew%Gangemi%NULL%1,         Robert%Marron%NULL%1,         Junad%Chowdhury%NULL%1,         Ibraheem%Yousef%NULL%1,         Matthew%Zheng%NULL%1,         Nicole%Mills%NULL%1,         Lauren%Tragesser%NULL%1,         Julie%Giurintano%NULL%1,         Rohit%Gupta%NULL%0,         Matthew%Gordon%NULL%0,         Parth%Rali%NULL%2,         Parth%Rali%NULL%0,         Gilbert%D'Alonso%NULL%1,         David%Fleece%NULL%1,         Huaqing%Zhao%NULL%0,         Nicole%Patlakh%NULL%0,         Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,         Nathan C.%Skorodin%nskorodin@midcusa.com%1,         Nicholas W.%Van Hise%NULL%1,         Robert M.%Fliegelman%NULL%1,         Jonathan%Pinsky%NULL%1,         Vishal%Didwania%NULL%1,         Michael%Anderson%NULL%1,         Melina%Diaz%NULL%1,         Kairav%Shah%NULL%1,         Vishnu V.%Chundi%NULL%1,         David W.%Hines%NULL%1,         Brian P.%Harting%NULL%1,         Kamo%Sidwha%NULL%1,         Brian%Yu%NULL%1,         Paul%Brune%NULL%1,         Anjum%Owaisi%NULL%1,         David%Beezhold%NULL%1,         Joseph%Kent%NULL%1,         Dana%Vais%NULL%1,         Alice%Han%NULL%1,         Neethi%Gowda%NULL%1,         Nishi%Sahgal%NULL%1,         Jan%Silverman%NULL%1,         Jonathan%Stake%NULL%1,         Jenie%Nepomuceno%NULL%1,         Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,         Anna%Daunt%NULL%2,         Anna%Daunt%NULL%0,         Sujit%Mukherjee%NULL%1,         Peter%Crook%NULL%1,         Roberta%Forlano%NULL%1,         Mara D%Kont%NULL%1,         Alessandra%Løchen%NULL%1,         Michaela%Vollmer%NULL%1,         Paul%Middleton%NULL%1,         Rebekah%Judge%NULL%1,         Christopher%Harlow%NULL%1,         Anet%Soubieres%NULL%1,         Graham%Cooke%NULL%1,         Peter J%White%NULL%1,         Timothy B%Hallett%NULL%1,         Paul%Aylin%NULL%1,         Neil%Ferguson%NULL%1,         Katharina%Hauck%NULL%1,         Mark R%Thursz%NULL%1,         Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,         Jeffrey%Burton%NULL%2,         Jeffrey%Burton%NULL%0,         Daniel%Fort%NULL%1,         Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,         Michael S.%Sherman%NULL%1,         Naaz%Fatteh%NULL%1,         Fabio%Vogel%NULL%1,         Jamie%Sacks%NULL%1,         Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,          P.% Mannam%null%1,          R.% Comer%null%1,          E.% Sinclair%null%1,          D. B.% McQuaid%null%1,          M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,         Farah%Kidwai-Khan%NULL%1,         Janet P.%Tate%NULL%1,         Lesley S.%Park%NULL%1,         Joseph T.%King%NULL%1,         Melissa%Skanderson%NULL%1,         Ronald G.%Hauser%NULL%1,         Anna%Schultze%NULL%0,         Christopher I.%Jarvis%NULL%1,         Mark%Holodniy%NULL%1,         Vincent Lo%Re%NULL%1,         Kathleen M.%Akgün%NULL%1,         Kristina%Crothers%NULL%1,         Tamar H.%Taddei%NULL%1,         Matthew S.%Freiberg%NULL%1,         Amy C.%Justice%NULL%1,          C. T.%Rentsch%null%1,          F.% Kidwai-Khan%null%1,          J. P.% Tate%null%1,          L. S.% Park%null%1,          J. T.% King%null%1,          M.% Skanderson%null%1,          R. G.% Hauser%null%1,          A.% Schultze%null%1,          C. I.% Jarvis%null%1,          M.% Holodniy%null%1,          V.% Lo Re%null%1,          K. M.% Akgun%null%1,          K.% Crothers%null%1,          T. H.% Taddei%null%1,          M. S.% Freiberg%null%1,          A. C. % Justice%null%1,         C. T.%Rentsch%null%1,         F.% Kidwai-Khan%null%1,         J. P.% Tate%null%1,         L. S.% Park%null%1,         J. T.% King%null%1,         M.% Skanderson%null%1,         R. G.% Hauser%null%1,         A.% Schultze%null%1,         C. I.% Jarvis%null%1,         M.% Holodniy%null%1,         V.% Lo Re%null%1,         K. M.% Akgun%null%1,         K.% Crothers%null%1,         T. H.% Taddei%null%1,         M. S.% Freiberg%null%1,         A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,   Elizabeth M.%Dufort%xref no email%1,   Tomoko%Udo%xref no email%1,   Larissa A.%Wilberschied%xref no email%1,   Jessica%Kumar%xref no email%1,   James%Tesoriero%xref no email%1,   Patti%Weinberg%xref no email%1,   James%Kirkwood%xref no email%1,   Alison%Muse%xref no email%1,   Jack%DeHovitz%xref no email%1,   Debra S.%Blog%xref no email%1,   Brad%Hutton%xref no email%1,   David R.%Holtgrave%xref no email%1,   Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,         Jennifer%Beam%NULL%2,         Jennifer%Beam%NULL%0,         Haley%Maier%NULL%1,         Whitney%Haggerson%NULL%1,         Karen%Boudreau%NULL%1,         Jamie%Carlson%NULL%1,         Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,         Alexander E.%Ayala%NULL%1,         Chideraa C.%Ukeje%NULL%1,         Celeste S.%Witting%NULL%1,         William A.%Grobman%NULL%1,         Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,         Hannah C.%Jarvis%NULL%2,         Hannah C.%Jarvis%NULL%0,         Ezgi%Ozcan%NULL%1,         Thomas L. P.%Burns%NULL%1,         Rabia A.%Warraich%NULL%1,         Lisa J.%Amani%NULL%1,         Amina%Jaffer%NULL%1,         Stephanie%Paget%NULL%1,         Anand%Sivaramakrishnan%NULL%1,         Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,         Suzy%Gallier%NULL%2,         Suzy%Gallier%NULL%0,         Chris%Mainey%NULL%1,         Peter%Nightingale%NULL%2,         Peter%Nightingale%NULL%0,         David%McNulty%NULL%1,         Hannah%Crothers%NULL%1,         Felicity%Evison%NULL%1,         Katharine%Reeves%NULL%1,         Domenico%Pagano%NULL%1,         Alastair K%Denniston%NULL%1,         Krishnarajah%Nirantharakumar%NULL%1,         Peter%Diggle%NULL%1,         Simon%Ball%NULL%1,         Lylah%Irshad%NULL%1,         Maxim%Harris%NULL%1,         Theodore%Nabav%NULL%1,         A%Kolesnyk%NULL%1,         M%Ahmed%NULL%1,         A%Liaqat%NULL%1,         Tanya%Pankhurst%NULL%1,         Jamie%Coleman%NULL%1,         Chirag%Dave%NULL%1,         Khaled%ElFandi%NULL%1,         Rifat%Rashid%NULL%1,         Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,         Gregory A%Eschenauer%NULL%2,         Gregory A%Eschenauer%NULL%0,         Jonathan P%Troost%NULL%1,         Jonathan L%Golob%NULL%1,         Tejal N%Gandhi%NULL%1,         Lu%Wang%NULL%1,         Nina%Zhou%NULL%1,         Lindsay A%Petty%NULL%1,         Ji Hoon%Baang%NULL%1,         Nicholas O%Dillman%NULL%1,         David%Frame%NULL%1,         Kevin S%Gregg%NULL%1,         Dan R%Kaul%NULL%1,         Jerod%Nagel%NULL%1,         Twisha S%Patel%NULL%1,         Shiwei%Zhou%NULL%1,         Adam S%Lauring%NULL%1,         David A%Hanauer%NULL%1,         Emily%Martin%NULL%1,         Pratima%Sharma%NULL%1,         Christopher M%Fung%NULL%1,         Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,         Lei%Qian%NULL%2,         Lei%Qian%NULL%0,         Vennis%Hong%NULL%1,         Rong%Wei%NULL%2,         Rong%Wei%NULL%0,         Ron F.%Nadjafi%NULL%2,         Ron F.%Nadjafi%NULL%0,         Heidi%Fischer%NULL%1,         Zhuoxin%Li%NULL%1,         Sally F.%Shaw%NULL%1,         Susan L.%Caparosa%NULL%2,         Susan L.%Caparosa%NULL%0,         Claudia L.%Nau%NULL%1,         Tanmai%Saxena%NULL%1,         Gunter K.%Rieg%NULL%1,         Bradley K.%Ackerson%NULL%1,         Adam L.%Sharp%NULL%2,         Adam L.%Sharp%NULL%0,         Jacek%Skarbinski%NULL%2,         Jacek%Skarbinski%NULL%0,         Tej K.%Naik%NULL%1,         Sameer B.%Murali%NULL%2,         Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,         Juan Carlos%Nicolas%NULL%2,         Juan Carlos%Nicolas%NULL%0,         Jennifer R%Meeks%NULL%1,         Osman%Khan%NULL%1,         Alan%Pan%NULL%1,         Stephen L%Jones%NULL%1,         Faisal%Masud%NULL%1,         H Dirk%Sostman%NULL%1,         Robert%Phillips%NULL%1,         Julia D%Andrieni%NULL%1,         Bita A%Kash%NULL%1,         Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,         Arryn%Craney%NULL%1,         Phyllis%Ruggiero%NULL%1,         John%Sipley%NULL%1,         Lin%Cong%NULL%1,         Erika M.%Hissong%NULL%1,         Massimo%Loda%NULL%1,         Lars F.%Westblade%NULL%1,         Melissa%Cushing%NULL%2,         Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,          X.% Zhong%null%1,          Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,         Amanda%Zheutlin%NULL%2,         Amanda%Zheutlin%NULL%0,         Yu-Han%Kao%NULL%1,         Kristin%Ayers%NULL%1,         Susan%Gross%NULL%1,         Patricia%Kovatch%NULL%0,         Sharon%Nirenberg%NULL%0,         Alexander%Charney%NULL%1,         Girish%Nadkarni%NULL%1,         Jessica K%De Freitas%NULL%1,         Paul%O’Reilly%NULL%1,         Allan%Just%NULL%1,         Carol%Horowitz%NULL%1,         Glenn%Martin%NULL%1,         Andrea%Branch%NULL%1,         Benjamin S%Glicksberg%NULL%1,         Dennis%Charney%NULL%1,         David%Reich%NULL%0,         William K%Oh%NULL%1,         Eric%Schadt%NULL%0,         Rong%Chen%NULL%0,         Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,         Angela%Winegar%NULL%1,         Richard%Fogel%NULL%1,         Mohamad%Fakih%NULL%1,         Allison%Ottenbacher%NULL%1,         Christine%Jesser%NULL%1,         Angelo%Bufalino%NULL%1,         Ren-Huai%Huang%NULL%1,         Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,         Rebecca%Bendayan%NULL%0,         Mark%Ashworth%NULL%1,         Daniel M.%Bean%NULL%1,         Hiten%Dodhia%NULL%1,         Stevo%Durbaba%NULL%1,         Kevin%O'Gallagher%NULL%1,         Claire%Palmer%NULL%1,         Vasa%Curcin%NULL%1,         Elizabeth%Aitken%NULL%1,         William%Bernal%NULL%1,         Richard D.%Barker%NULL%1,         Sam%Norton%NULL%1,         Martin%Gulliford%NULL%1,         James T.H.%Teo%NULL%0,         James%Galloway%NULL%1,         Richard J.B.%Dobson%NULL%0,         Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,         Carina%Marquez%NULL%1,         Emily%Crawford%NULL%1,         James%Peng%NULL%1,         Maya%Petersen%NULL%1,         Daniel%Schwab%NULL%1,         Joshua%Schwab%NULL%1,         Jackie%Martinez%NULL%1,         Diane%Jones%NULL%1,         Douglas%Black%NULL%1,         Monica%Gandhi%NULL%1,         Andrew D%Kerkhoff%NULL%1,         Vivek%Jain%NULL%1,         Francesco%Sergi%NULL%1,         Jon%Jacobo%NULL%1,         Susana%Rojas%NULL%1,         Valerie%Tulier-Laiwa%NULL%1,         Tracy%Gallardo-Brown%NULL%1,         Ayesha%Appa%NULL%1,         Charles%Chiu%NULL%1,         Mary%Rodgers%NULL%1,         John%Hackett%NULL%1,         NULL%NULL%NULL%0,         Amy%Kistler%NULL%1,         Samantha%Hao%NULL%1,         Jack%Kamm%NULL%1,         David%Dynerman%NULL%1,         Joshua%Batson%NULL%1,         Bryan%Greenhouse%NULL%1,         Joe%DeRisi%NULL%1,         Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,         Tiffany%Grimes%NULL%1,         Peng%Li%NULL%1,         Matthew%Might%NULL%1,         Fernando%Ovalle%NULL%1,         Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,         Natalie%Achamallah%NULL%1,         Hongwei%Ji%NULL%1,         Brian L.%Claggett%NULL%1,         Nancy%Sun%NULL%1,         Patrick%Botting%NULL%1,         Trevor-Trung%Nguyen%NULL%1,         Eric%Luong%NULL%1,         Elizabeth H.%Kim%NULL%1,         Eunice%Park%NULL%1,         Yunxian%Liu%NULL%1,         Ryan%Rosenberry%NULL%1,         Yuri%Matusov%NULL%1,         Steven%Zhao%NULL%1,         Isabel%Pedraza%NULL%1,         Tanzira%Zaman%NULL%1,         Michael%Thompson%NULL%1,         Koen%Raedschelders%NULL%1,         Anders H.%Berg%NULL%2,         Anders H.%Berg%NULL%0,         Jonathan D.%Grein%NULL%1,         Paul W.%Noble%NULL%1,         Sumeet S.%Chugh%NULL%1,         C. Noel%Bairey Merz%NULL%1,         Eduardo%Marbán%NULL%1,         Jennifer E.%Van Eyk%NULL%1,         Scott D.%Solomon%NULL%1,         Christine M.%Albert%NULL%1,         Peter%Chen%NULL%1,         Susan%Cheng%NULL%3,         Yu Ru%Kou%NULL%8,         Yu Ru%Kou%NULL%0,         Yu Ru%Kou%NULL%0,         Susan%Cheng%biodatacore@cshs.org%0,         Susan%Cheng%biodatacore@cshs.org%0,         Yu Ru%Kou%NULL%0,         Yu Ru%Kou%NULL%0,         Yu Ru%Kou%NULL%0,         Yu Ru%Kou%NULL%0,         Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,         Penelope%Strid%NULL%1,         Van T.%Tong%NULL%1,         Kate%Woodworth%NULL%1,         Romeo R.%Galang%NULL%1,         Laura D.%Zambrano%NULL%1,         John%Nahabedian%NULL%1,         Kayla%Anderson%NULL%1,         Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,         Jacob%Fiksel%NULL%2,         Jacob%Fiksel%NULL%0,         John%Muschelli%NULL%2,         John%Muschelli%NULL%0,         Matthew L.%Robinson%NULL%2,         Matthew L.%Robinson%NULL%0,         Masoud%Rouhizadeh%NULL%2,         Masoud%Rouhizadeh%NULL%0,         Jamie%Perin%NULL%2,         Jamie%Perin%NULL%0,         Grant%Schumock%NULL%2,         Grant%Schumock%NULL%0,         Paul%Nagy%NULL%2,         Paul%Nagy%NULL%0,         Josh H.%Gray%NULL%2,         Josh H.%Gray%NULL%0,         Harsha%Malapati%NULL%2,         Harsha%Malapati%NULL%0,         Mariam%Ghobadi-Krueger%NULL%2,         Mariam%Ghobadi-Krueger%NULL%0,         Timothy M.%Niessen%NULL%1,         Bo Soo%Kim%NULL%1,         Peter M.%Hill%NULL%1,         M. Shafeeq%Ahmed%NULL%1,         Eric D.%Dobkin%NULL%1,         Renee%Blanding%NULL%1,         Jennifer%Abele%NULL%1,         Bonnie%Woods%NULL%1,         Kenneth%Harkness%NULL%1,         David R.%Thiemann%NULL%1,         Mary G.%Bowring%NULL%1,         Aalok B.%Shah%NULL%2,         Aalok B.%Shah%NULL%0,         Mei-Cheng%Wang%NULL%1,         Karen%Bandeen-Roche%NULL%1,         Antony%Rosen%NULL%1,         Scott L.%Zeger%NULL%2,         Scott L.%Zeger%NULL%0,         Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,         Megan%McCullough%NULL%0,         Megan%McCullough%NULL%0,         Michael A.%Fuery%NULL%0,         Fouad%Chouairi%NULL%0,         Fouad%Chouairi%NULL%0,         Craig%Keating%NULL%0,         Neal G.%Ravindra%NULL%0,         P. Elliott%Miller%NULL%0,         Maricar%Malinis%NULL%0,         Nitu%Kashyap%NULL%0,         Allen%Hsiao%NULL%0,         F. Perry%Wilson%NULL%0,         Jeptha P.%Curtis%NULL%0,         Matthew%Grant%NULL%0,         Eric J.%Velazquez%NULL%0,         Nihar R.%Desai%NULL%0,         Tariq%Ahmad%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0,         Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,           R. U.% Shah%null%1,           M.% Bale%null%1,           J. B.% Peacock%null%1,           B.% Berger%null%1,           A.% Brown%null%1,           S.% Mann%null%1,           W.% West%null%1,           V.% Martin%null%1,           V.% Fernandez%null%1,           S.% Grineski%null%1,           B. J.% Brintz%null%1,           M. H.% Samore%null%1,           M. J.% Ferrari%null%1,           D. T.% Leung%null%1,           L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,          Samuel L%Bruce%NULL%1,          Cody L%Slater%NULL%1,          Jonathan R%Tiao%NULL%1,          Matthew R%Baldwin%NULL%1,          R Graham%Barr%NULL%1,          Bernard P%Chang%NULL%1,          Katherine H%Chau%NULL%1,          Justin J%Choi%NULL%1,          Nicholas%Gavin%NULL%1,          Parag%Goyal%NULL%1,          Angela M%Mills%NULL%1,          Ashmi A%Patel%NULL%1,          Marie-Laure S%Romney%NULL%1,          Monika M%Safford%NULL%1,          Neil W%Schluger%NULL%1,          Soumitra%Sengupta%NULL%1,          Magdalena E%Sobieszczyk%NULL%1,          Jason E%Zucker%NULL%1,          Paul A%Asadourian%NULL%1,          Fletcher M%Bell%NULL%1,          Rebekah%Boyd%NULL%1,          Matthew F%Cohen%NULL%1,          MacAlistair I%Colquhoun%NULL%1,          Lucy A%Colville%NULL%1,          Joseph H%de Jonge%NULL%1,          Lyle B%Dershowitz%NULL%1,          Shirin A%Dey%NULL%1,          Katherine A%Eiseman%NULL%1,          Zachary P%Girvin%NULL%1,          Daniella T%Goni%NULL%1,          Amro A%Harb%NULL%1,          Nicholas%Herzik%NULL%1,          Sarah%Householder%NULL%1,          Lara E%Karaaslan%NULL%1,          Heather%Lee%NULL%1,          Evan%Lieberman%NULL%1,          Andrew%Ling%NULL%1,          Ree%Lu%NULL%1,          Arthur Y%Shou%NULL%1,          Alexander C%Sisti%NULL%1,          Zachary E%Snow%NULL%1,          Colin P%Sperring%NULL%1,          Yuqing%Xiong%NULL%1,          Henry W%Zhou%NULL%1,          Karthik%Natarajan%NULL%1,          George%Hripcsak%NULL%1,          Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,          Megan%McCullough%NULL%4,          Megan%McCullough%NULL%0,          Michael A.%Fuery%NULL%2,          Fouad%Chouairi%NULL%4,          Fouad%Chouairi%NULL%0,          Craig%Keating%NULL%2,          Neal G.%Ravindra%NULL%2,          P. Elliott%Miller%NULL%2,          Maricar%Malinis%NULL%2,          Nitu%Kashyap%NULL%2,          Allen%Hsiao%NULL%2,          F. Perry%Wilson%NULL%2,          Jeptha P.%Curtis%NULL%2,          Matthew%Grant%NULL%2,          Eric J.%Velazquez%NULL%2,          Nihar R.%Desai%NULL%2,          Tariq%Ahmad%NULL%2,          Chiara%Lazzeri%NULL%18,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,          Karen K.%Wong%NULL%1,          Christine M.%Szablewski%NULL%1,          Priti R.%Patel%NULL%1,          John%Rossow%NULL%1,          Juliana%da Silva%NULL%1,          Pavithra%Natarajan%NULL%1,          Sapna Bamrah%Morris%NULL%1,          Robyn Neblett%Fanfair%NULL%1,          Jessica%Rogers-Brown%NULL%1,          Beau B.%Bruce%NULL%1,          Sean D.%Browning%NULL%1,          Alfonso C.%Hernandez-Romieu%NULL%2,          Nathan W.%Furukawa%NULL%1,          Mohleen%Kang%NULL%1,          Mary E.%Evans%NULL%1,          Nadine%Oosmanally%NULL%1,          Melissa%Tobin-D’Angelo%NULL%1,          Cherie%Drenzek%NULL%1,          David J.%Murphy%NULL%0,          Julie%Hollberg%NULL%1,          James M.%Blum%NULL%0,          Robert%Jansen%NULL%1,          David W.%Wright%NULL%1,          William M.%Sewell%NULL%1,          Jack D.%Owens%NULL%1,          Benjamin%Lefkove%NULL%1,          Frank W.%Brown%NULL%1,          Deron C.%Burton%NULL%1,          Timothy M.%Uyeki%NULL%3,          Stephanie R.%Bialek%NULL%1,          Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,          Jasmine A.%Mack%NULL%1,          Maxwell%Salvatore%NULL%1,          Swaraaj Prabhu%Sankar%NULL%1,          Thomas S.%Valley%NULL%1,          Karandeep%Singh%NULL%1,          Brahmajee K.%Nallamothu%NULL%1,          Sachin%Kheterpal%NULL%1,          Lynda%Lisabeth%NULL%1,          Lars G.%Fritsche%NULL%1,          Bhramar%Mukherjee%NULL%1,           T.%Gu%null%1,           J. A.% Mack%null%1,           M.% Salvatore%null%1,           S. P.% Sankar%null%1,           T. S.% Valley%null%1,           K.% Singh%null%1,           B. K.% Nallamothu%null%1,           S.% Kheterpal%null%1,           L.% Lisabeth%null%1,           L. G.% Fritsche%null%1,           B. G. % Mukherjee%null%1,          T.%Gu%null%1,          J. A.% Mack%null%1,          M.% Salvatore%null%1,          S. P.% Sankar%null%1,          T. S.% Valley%null%1,          K.% Singh%null%1,          B. K.% Nallamothu%null%1,          S.% Kheterpal%null%1,          L.% Lisabeth%null%1,          L. G.% Fritsche%null%1,          B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,           S.% Nirenberg%null%1,           P.% Kovatch%null%1,           K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,          Shikha%Garg%NULL%1,          Alissa%O’Halloran%NULL%1,          Michael%Whitaker%NULL%1,          Huong%Pham%NULL%1,          Evan J%Anderson%NULL%1,          Isaac%Armistead%NULL%1,          Nancy M%Bennett%NULL%1,          Laurie%Billing%NULL%1,          Kathryn%Como-Sabetti%NULL%1,          Mary%Hill%NULL%1,          Sue%Kim%NULL%1,          Maya L%Monroe%NULL%1,          Alison%Muse%NULL%1,          Arthur L%Reingold%NULL%1,          William%Schaffner%NULL%1,          Melissa%Sutton%NULL%1,          H Keipp%Talbot%NULL%1,          Salina M%Torres%NULL%1,          Kimberly%Yousey-Hindes%NULL%1,          Rachel%Holstein%NULL%1,          Charisse%Cummings%NULL%1,          Lynette%Brammer%NULL%1,          Aron J%Hall%NULL%1,          Alicia M%Fry%NULL%1,          Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,           S.% Richardson%null%1,           K.% Coppa%null%1,           D. P.% Barnaby%null%1,           T.% McGinn%null%1,           L. B.% Becker%null%1,           K. W.% Davidson%null%1,           S. L.% Cohen%null%1,           J. S.% Hirsch%null%1,           T.% Zanos%null%1,             % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,           L. H.% Nguyen%null%1,           D. A.% Drew%null%1,           M. S.% Graham%null%1,           E. T.% Warner%null%1,           A. D.% Joshi%null%1,           C. M.% Astley%null%1,           C.-G.% Guo%null%1,           W.% Ma%null%1,           R. S.% Mehta%null%1,           S.% Kwon%null%1,           M.% Song%null%1,           R.% Davies%null%1,           J.% Capdevila%null%1,           K. A.% Lee%null%1,           M. N.% Lochlainn%null%1,           T.% Varsavsky%null%1,           C. H.% Sudre%null%1,           J.% Wolf%null%1,           Y. C.% Cozier%null%1,           L.% Rosenberg%null%1,           L. R.% Wilkens%null%1,           C. A.% Haiman%null%1,           L. L.% Marchand%null%1,           J. R.% Palmer%null%1,           T. D.% Spector%null%1,           S.% Ourselin%null%1,           C. J.% Steves%null%1,           A. T.% Chan%null%1,             % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,          Jienchi%Dorward%NULL%1,          Ana%Correa%NULL%1,          Nicholas%Jones%NULL%1,          Oluwafunmi%Akinyemi%NULL%1,          Gayatri%Amirthalingam%NULL%1,          Nick%Andrews%NULL%1,          Rachel%Byford%NULL%1,          Gavin%Dabrera%NULL%1,          Alex%Elliot%NULL%1,          Joanna%Ellis%NULL%0,          Filipa%Ferreira%NULL%1,          Jamie%Lopez Bernal%NULL%1,          Cecilia%Okusi%NULL%1,          Mary%Ramsay%NULL%1,          Julian%Sherlock%NULL%1,          Gillian%Smith%NULL%1,          John%Williams%NULL%1,          Gary%Howsam%NULL%1,          Maria%Zambon%NULL%0,          Mark%Joy%NULL%1,          F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,          Johanna%Dolle%NULL%2,          Johanna%Dolle%NULL%0,          Sheila%Grami%NULL%1,          Richard%Adule%NULL%1,          Zeyu%Li%NULL%1,          Kathleen%Tatem%NULL%1,          Chinyere%Anyaogu%NULL%1,          Stephen%Apfelroth%NULL%1,          Raji%Ayinla%NULL%2,          Raji%Ayinla%NULL%0,          Noella%Boma%NULL%1,          Terence%Brady%NULL%1,          Braulio F.%Cosme-Thormann%NULL%1,          Roseann%Costarella%NULL%1,          Kenra%Ford%NULL%1,          Kecia%Gaither%NULL%1,          Jessica%Jacobson%NULL%1,          Marc%Kanter%NULL%1,          Stuart%Kessler%NULL%1,          Ross B.%Kristal%NULL%1,          Joseph J.%Lieber%NULL%1,          Vikramjit%Mukherjee%NULL%1,          Vincent%Rizzo%NULL%1,          Madden%Rowell%NULL%1,          David%Stevens%NULL%1,          Elana%Sydney%NULL%1,          Andrew%Wallach%NULL%2,          Andrew%Wallach%NULL%0,          Dave A.%Chokshi%NULL%1,          Nichola%Davis%NULL%1,          NULL%NULL%NULL%0,          Sze Yan%Liu%NULL%2,          Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,          Mark%Caridi-Scheible%NULL%0,          James M.%Blum%NULL%0,          Chad%Robichaux%NULL%1,          Colleen%Kraft%NULL%1,          Jesse T.%Jacob%NULL%1,          Craig S.%Jabaley%NULL%0,          David%Carpenter%NULL%1,          Roberta%Kaplow%NULL%1,          Alfonso C.%Hernandez-Romieu%NULL%0,          Max W.%Adelman%NULL%0,          Greg S.%Martin%NULL%0,          Craig M.%Coopersmith%NULL%1,          David J.%Murphy%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Several studies have revealed that the hyper-inflammatory response induced by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is a major cause of disease severity and death.
+ However, predictive biomarkers of pathogenic inflammation to help guide targetable immune pathways are critically lacking.
+ We implemented a rapid multiplex cytokine assay to measure serum interleukin (IL)-6, IL-8, tumor necrosis factor (TNF)-α and IL-1β in hospitalized patients with coronavirus disease 2019 (COVID-19) upon admission to the Mount Sinai Health System in New York.
+ Patients (n = 1,484) were followed up to 41 d after admission (median, 8 d), and clinical information, laboratory test results and patient outcomes were collected.
+ We found that high serum IL-6, IL-8 and TNF-α levels at the time of hospitalization were strong and independent predictors of patient survival (P &amp;lt; 0.0001, P = 0.0205 and P = 0.0140, respectively).
+ Notably, when adjusting for disease severity, common laboratory inflammation markers, hypoxia and other vitals, demographics, and a range of comorbidities, IL-6 and TNF-α serum levels remained independent and significant predictors of disease severity and death.
+ These findings were validated in a second cohort of patients (n = 231).
+ We propose that serum IL-6 and TNF-α levels should be considered in the management and treatment of patients with COVID-19 to stratify prospective clinical trials, guide resource allocation and inform therapeutic options.
+Elevated levels of serum IL-6 and TNF-α at the time of hospitalization are independent and significant predictors of clinical outcome in two cohorts of patients with COVID-19.</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%0,  Seunghee%Kim-Schulze%null%1,  Hsin-Hui%Huang%null%1,  Noam D.%Beckmann%null%1,  Sharon%Nirenberg%null%1,  Bo%Wang%null%1,  Yonit%Lavin%null%1,  Talia H.%Swartz%null%1,  Deepu%Madduri%null%1,  Aryeh%Stock%null%1,  Thomas U.%Marron%null%1,  Hui%Xie%null%1,  Manishkumar%Patel%null%1,  Kevin%Tuballes%null%1,  Oliver%Oekelen%null%1,  Adeeb%Rahman%null%1,  Patricia%Kovatch%null%1,  Judith A.%Aberg%null%1,  Eric%Schadt%null%1,  Sundar%Jagannath%null%1,  Madhu%Mazumdar%null%1,  Alexander W.%Charney%null%1,  Adolfo%Firpo-Betancourt%null%1,  Damodara Rao%Mendu%null%1,  Jeffrey%Jhang%null%1,  David%Reich%null%1,  Keith%Sigel%null%1,  Carlos%Cordon-Cardo%null%1,  Marc%Feldmann%null%1,  Samir%Parekh%null%1,  Miriam%Merad%null%1,  Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,          David R.%Jenkins%NULL%1,          Jatinder S.%Minhas%NULL%1,          Laura J.%Gray%NULL%1,          Julian%Tang%NULL%1,          Caroline%Williams%NULL%1,          Shirley%Sze%NULL%1,          Daniel%Pan%NULL%1,          William%Jones%NULL%1,          Raman%Verma%NULL%1,          Scott%Knapp%NULL%1,          Rupert%Major%NULL%1,          Melanie%Davies%NULL%1,          Nigel%Brunskill%NULL%1,          Martin%Wiselka%NULL%1,          Chris%Brightling%NULL%1,          Kamlesh%Khunti%NULL%1,          Pranab%Haldar%NULL%1,          Manish%Pareek%mp426@le.ac.uk%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,          Kelly E%Hathorn%NULL%2,          Kelly E%Hathorn%NULL%0,          Walker D%Redd%NULL%1,          Nicolette J%Rodriguez%NULL%1,          Joyce C%Zhou%NULL%1,          Ahmad Najdat%Bazarbashi%NULL%1,          Cheikh%Njie%NULL%1,          Danny%Wong%NULL%1,          Quoc-Dien%Trinh%NULL%1,          Lin%Shen%NULL%1,          Valerie E%Stone%NULL%2,          Valerie E%Stone%NULL%0,          Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,           S.% Apewokin%null%1,           A. A.% Wells%null%1,           A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,          Thomas E.%Webb%NULL%2,          Thomas E.%Webb%NULL%0,          Benjamin C.%Mcloughlin%NULL%2,          Benjamin C.%Mcloughlin%NULL%0,          Imran%Mannan%NULL%2,          Imran%Mannan%NULL%0,          Arshad%Rather%NULL%2,          Arshad%Rather%NULL%0,          Paul%Knopp%NULL%1,          Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,          Rajat%Suri%NULL%2,          Rajat%Suri%NULL%0,          Iheanacho O.%Emeruwa%NULL%2,          Iheanacho O.%Emeruwa%NULL%0,          Robert J.%Stretch%NULL%1,          Roxana Y.%Cortes-Lopez%NULL%2,          Roxana Y.%Cortes-Lopez%NULL%0,          Alexander%Sherman%NULL%1,          Catherine C.%Lindsay%NULL%1,          Jennifer A.%Fulcher%NULL%1,          David%Goodman-Meza%NULL%2,          David%Goodman-Meza%NULL%0,          Anil%Sapru%NULL%2,          Anil%Sapru%NULL%0,          Russell G.%Buhr%NULL%1,          Steven Y.%Chang%NULL%2,          Steven Y.%Chang%NULL%0,          Tisha%Wang%NULL%1,          Nida%Qadir%NULL%1,          Giordano%Madeddu%NULL%8,          Giordano%Madeddu%NULL%0,          Giordano%Madeddu%NULL%0,          Ana C.%Monteiro%NULL%2,          Ana C.%Monteiro%NULL%0,          Giordano%Madeddu%NULL%0,          Giordano%Madeddu%NULL%0,          Giordano%Madeddu%NULL%0,          Giordano%Madeddu%NULL%0,          Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,           D.% Stefanov%null%1,           A. S.% Chau%null%1,           A. G.% Weber%null%1,           G. S.% Marder%null%1,           B.% Kaplan%null%1,           P.% Malhotra%null%1,           O.% Bloom%null%1,           A.% Liu%null%1,           M.% Lesser%null%1,           N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,          Catherine A.%O’Donnell%NULL%2,          Bhautesh Dinesh%Jani%NULL%1,          Evangelia%Demou%NULL%1,          Frederick K.%Ho%NULL%1,          Carlos%Celis-Morales%NULL%1,          Barbara I.%Nicholl%NULL%1,          Frances S.%Mair%NULL%2,          Paul%Welsh%NULL%2,          Naveed%Sattar%NULL%2,          Jill P.%Pell%NULL%2,          S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,          Alex J%Walker%NULL%1,          Krishnan%Bhaskaran%NULL%1,          Seb%Bacon%NULL%1,          Chris%Bates%NULL%1,          Caroline E%Morton%NULL%1,          Helen J%Curtis%NULL%1,          Amir%Mehrkar%NULL%1,          David%Evans%NULL%1,          Peter%Inglesby%NULL%1,          Jonathan%Cockburn%NULL%1,          Helen I%McDonald%NULL%1,          Brian%MacKenna%NULL%1,          Laurie%Tomlinson%NULL%1,          Ian J%Douglas%NULL%1,          Christopher T%Rentsch%NULL%1,          Rohini%Mathur%NULL%1,          Angel YS%Wong%NULL%1,          Richard%Grieve%NULL%1,          David%Harrison%NULL%1,          Harriet%Forbes%NULL%1,          Anna%Schultze%NULL%2,          Richard%Croker%NULL%1,          John%Parry%NULL%1,          Frank%Hester%NULL%1,          Sam%Harper%NULL%1,          Rafael%Perera%NULL%1,          Stephen JW%Evans%NULL%1,          Liam%Smeeth%NULL%1,          Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,          Ajay%Bhasin%NULL%1,          Joseph M.%Feinglass%NULL%1,          Michael P.%Angarone%NULL%1,          Elaine R.%Cohen%NULL%1,          Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,    Zijun%Shen%xref no email%1,    Robert J.%Romanelli%xref no email%1,    Stephen H.%Lockhart%xref no email%1,    Kelly%Smits%xref no email%1,    Sarah%Robinson%xref no email%1,    Stephanie%Brown%xref no email%1,    Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,          Andrew%Gangemi%NULL%1,          Robert%Marron%NULL%1,          Junad%Chowdhury%NULL%1,          Ibraheem%Yousef%NULL%1,          Matthew%Zheng%NULL%1,          Nicole%Mills%NULL%1,          Lauren%Tragesser%NULL%1,          Julie%Giurintano%NULL%1,          Rohit%Gupta%NULL%0,          Matthew%Gordon%NULL%0,          Parth%Rali%NULL%2,          Parth%Rali%NULL%0,          Gilbert%D'Alonso%NULL%1,          David%Fleece%NULL%1,          Huaqing%Zhao%NULL%0,          Nicole%Patlakh%NULL%0,          Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,          Nathan C.%Skorodin%nskorodin@midcusa.com%1,          Nicholas W.%Van Hise%NULL%1,          Robert M.%Fliegelman%NULL%1,          Jonathan%Pinsky%NULL%1,          Vishal%Didwania%NULL%1,          Michael%Anderson%NULL%1,          Melina%Diaz%NULL%1,          Kairav%Shah%NULL%1,          Vishnu V.%Chundi%NULL%1,          David W.%Hines%NULL%1,          Brian P.%Harting%NULL%1,          Kamo%Sidwha%NULL%1,          Brian%Yu%NULL%1,          Paul%Brune%NULL%1,          Anjum%Owaisi%NULL%1,          David%Beezhold%NULL%1,          Joseph%Kent%NULL%1,          Dana%Vais%NULL%1,          Alice%Han%NULL%1,          Neethi%Gowda%NULL%1,          Nishi%Sahgal%NULL%1,          Jan%Silverman%NULL%1,          Jonathan%Stake%NULL%1,          Jenie%Nepomuceno%NULL%1,          Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,          Anna%Daunt%NULL%2,          Anna%Daunt%NULL%0,          Sujit%Mukherjee%NULL%1,          Peter%Crook%NULL%1,          Roberta%Forlano%NULL%1,          Mara D%Kont%NULL%1,          Alessandra%Løchen%NULL%1,          Michaela%Vollmer%NULL%1,          Paul%Middleton%NULL%1,          Rebekah%Judge%NULL%1,          Christopher%Harlow%NULL%1,          Anet%Soubieres%NULL%1,          Graham%Cooke%NULL%1,          Peter J%White%NULL%1,          Timothy B%Hallett%NULL%1,          Paul%Aylin%NULL%1,          Neil%Ferguson%NULL%1,          Katharina%Hauck%NULL%1,          Mark R%Thursz%NULL%1,          Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,          Jeffrey%Burton%NULL%2,          Jeffrey%Burton%NULL%0,          Daniel%Fort%NULL%1,          Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,          Michael S.%Sherman%NULL%1,          Naaz%Fatteh%NULL%1,          Fabio%Vogel%NULL%1,          Jamie%Sacks%NULL%1,          Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,           P.% Mannam%null%1,           R.% Comer%null%1,           E.% Sinclair%null%1,           D. B.% McQuaid%null%1,           M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,          Farah%Kidwai-Khan%NULL%1,          Janet P.%Tate%NULL%1,          Lesley S.%Park%NULL%1,          Joseph T.%King%NULL%1,          Melissa%Skanderson%NULL%1,          Ronald G.%Hauser%NULL%1,          Anna%Schultze%NULL%0,          Christopher I.%Jarvis%NULL%1,          Mark%Holodniy%NULL%1,          Vincent Lo%Re%NULL%1,          Kathleen M.%Akgün%NULL%1,          Kristina%Crothers%NULL%1,          Tamar H.%Taddei%NULL%1,          Matthew S.%Freiberg%NULL%1,          Amy C.%Justice%NULL%1,           C. T.%Rentsch%null%1,           F.% Kidwai-Khan%null%1,           J. P.% Tate%null%1,           L. S.% Park%null%1,           J. T.% King%null%1,           M.% Skanderson%null%1,           R. G.% Hauser%null%1,           A.% Schultze%null%1,           C. I.% Jarvis%null%1,           M.% Holodniy%null%1,           V.% Lo Re%null%1,           K. M.% Akgun%null%1,           K.% Crothers%null%1,           T. H.% Taddei%null%1,           M. S.% Freiberg%null%1,           A. C. % Justice%null%1,          C. T.%Rentsch%null%1,          F.% Kidwai-Khan%null%1,          J. P.% Tate%null%1,          L. S.% Park%null%1,          J. T.% King%null%1,          M.% Skanderson%null%1,          R. G.% Hauser%null%1,          A.% Schultze%null%1,          C. I.% Jarvis%null%1,          M.% Holodniy%null%1,          V.% Lo Re%null%1,          K. M.% Akgun%null%1,          K.% Crothers%null%1,          T. H.% Taddei%null%1,          M. S.% Freiberg%null%1,          A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,    Elizabeth M.%Dufort%xref no email%1,    Tomoko%Udo%xref no email%1,    Larissa A.%Wilberschied%xref no email%1,    Jessica%Kumar%xref no email%1,    James%Tesoriero%xref no email%1,    Patti%Weinberg%xref no email%1,    James%Kirkwood%xref no email%1,    Alison%Muse%xref no email%1,    Jack%DeHovitz%xref no email%1,    Debra S.%Blog%xref no email%1,    Brad%Hutton%xref no email%1,    David R.%Holtgrave%xref no email%1,    Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,          Jennifer%Beam%NULL%2,          Jennifer%Beam%NULL%0,          Haley%Maier%NULL%1,          Whitney%Haggerson%NULL%1,          Karen%Boudreau%NULL%1,          Jamie%Carlson%NULL%1,          Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,          Alexander E.%Ayala%NULL%1,          Chideraa C.%Ukeje%NULL%1,          Celeste S.%Witting%NULL%1,          William A.%Grobman%NULL%1,          Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,          Hannah C.%Jarvis%NULL%2,          Hannah C.%Jarvis%NULL%0,          Ezgi%Ozcan%NULL%1,          Thomas L. P.%Burns%NULL%1,          Rabia A.%Warraich%NULL%1,          Lisa J.%Amani%NULL%1,          Amina%Jaffer%NULL%1,          Stephanie%Paget%NULL%1,          Anand%Sivaramakrishnan%NULL%1,          Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,          Suzy%Gallier%NULL%2,          Suzy%Gallier%NULL%0,          Chris%Mainey%NULL%1,          Peter%Nightingale%NULL%2,          Peter%Nightingale%NULL%0,          David%McNulty%NULL%1,          Hannah%Crothers%NULL%1,          Felicity%Evison%NULL%1,          Katharine%Reeves%NULL%1,          Domenico%Pagano%NULL%1,          Alastair K%Denniston%NULL%1,          Krishnarajah%Nirantharakumar%NULL%1,          Peter%Diggle%NULL%1,          Simon%Ball%NULL%1,          Lylah%Irshad%NULL%1,          Maxim%Harris%NULL%1,          Theodore%Nabav%NULL%1,          A%Kolesnyk%NULL%1,          M%Ahmed%NULL%1,          A%Liaqat%NULL%1,          Tanya%Pankhurst%NULL%1,          Jamie%Coleman%NULL%1,          Chirag%Dave%NULL%1,          Khaled%ElFandi%NULL%1,          Rifat%Rashid%NULL%1,          Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,          Gregory A%Eschenauer%NULL%2,          Gregory A%Eschenauer%NULL%0,          Jonathan P%Troost%NULL%1,          Jonathan L%Golob%NULL%1,          Tejal N%Gandhi%NULL%1,          Lu%Wang%NULL%1,          Nina%Zhou%NULL%1,          Lindsay A%Petty%NULL%1,          Ji Hoon%Baang%NULL%1,          Nicholas O%Dillman%NULL%1,          David%Frame%NULL%1,          Kevin S%Gregg%NULL%1,          Dan R%Kaul%NULL%1,          Jerod%Nagel%NULL%1,          Twisha S%Patel%NULL%1,          Shiwei%Zhou%NULL%1,          Adam S%Lauring%NULL%1,          David A%Hanauer%NULL%1,          Emily%Martin%NULL%1,          Pratima%Sharma%NULL%1,          Christopher M%Fung%NULL%1,          Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,          Lei%Qian%NULL%2,          Lei%Qian%NULL%0,          Vennis%Hong%NULL%1,          Rong%Wei%NULL%2,          Rong%Wei%NULL%0,          Ron F.%Nadjafi%NULL%2,          Ron F.%Nadjafi%NULL%0,          Heidi%Fischer%NULL%1,          Zhuoxin%Li%NULL%1,          Sally F.%Shaw%NULL%1,          Susan L.%Caparosa%NULL%2,          Susan L.%Caparosa%NULL%0,          Claudia L.%Nau%NULL%1,          Tanmai%Saxena%NULL%1,          Gunter K.%Rieg%NULL%1,          Bradley K.%Ackerson%NULL%1,          Adam L.%Sharp%NULL%2,          Adam L.%Sharp%NULL%0,          Jacek%Skarbinski%NULL%2,          Jacek%Skarbinski%NULL%0,          Tej K.%Naik%NULL%1,          Sameer B.%Murali%NULL%2,          Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,          Juan Carlos%Nicolas%NULL%2,          Juan Carlos%Nicolas%NULL%0,          Jennifer R%Meeks%NULL%1,          Osman%Khan%NULL%1,          Alan%Pan%NULL%1,          Stephen L%Jones%NULL%1,          Faisal%Masud%NULL%1,          H Dirk%Sostman%NULL%1,          Robert%Phillips%NULL%1,          Julia D%Andrieni%NULL%1,          Bita A%Kash%NULL%1,          Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,          Arryn%Craney%NULL%1,          Phyllis%Ruggiero%NULL%1,          John%Sipley%NULL%1,          Lin%Cong%NULL%1,          Erika M.%Hissong%NULL%1,          Massimo%Loda%NULL%1,          Lars F.%Westblade%NULL%1,          Melissa%Cushing%NULL%2,          Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,           X.% Zhong%null%1,           Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,          Amanda%Zheutlin%NULL%2,          Amanda%Zheutlin%NULL%0,          Yu-Han%Kao%NULL%1,          Kristin%Ayers%NULL%1,          Susan%Gross%NULL%1,          Patricia%Kovatch%NULL%0,          Sharon%Nirenberg%NULL%0,          Alexander%Charney%NULL%1,          Girish%Nadkarni%NULL%1,          Jessica K%De Freitas%NULL%1,          Paul%O’Reilly%NULL%1,          Allan%Just%NULL%1,          Carol%Horowitz%NULL%1,          Glenn%Martin%NULL%1,          Andrea%Branch%NULL%1,          Benjamin S%Glicksberg%NULL%1,          Dennis%Charney%NULL%1,          David%Reich%NULL%0,          William K%Oh%NULL%1,          Eric%Schadt%NULL%0,          Rong%Chen%NULL%0,          Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,          Angela%Winegar%NULL%1,          Richard%Fogel%NULL%1,          Mohamad%Fakih%NULL%1,          Allison%Ottenbacher%NULL%1,          Christine%Jesser%NULL%1,          Angelo%Bufalino%NULL%1,          Ren-Huai%Huang%NULL%1,          Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,          Rebecca%Bendayan%NULL%0,          Mark%Ashworth%NULL%1,          Daniel M.%Bean%NULL%1,          Hiten%Dodhia%NULL%1,          Stevo%Durbaba%NULL%1,          Kevin%O'Gallagher%NULL%1,          Claire%Palmer%NULL%1,          Vasa%Curcin%NULL%1,          Elizabeth%Aitken%NULL%1,          William%Bernal%NULL%1,          Richard D.%Barker%NULL%1,          Sam%Norton%NULL%1,          Martin%Gulliford%NULL%1,          James T.H.%Teo%NULL%0,          James%Galloway%NULL%1,          Richard J.B.%Dobson%NULL%0,          Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,          Carina%Marquez%NULL%1,          Emily%Crawford%NULL%1,          James%Peng%NULL%1,          Maya%Petersen%NULL%1,          Daniel%Schwab%NULL%1,          Joshua%Schwab%NULL%1,          Jackie%Martinez%NULL%1,          Diane%Jones%NULL%1,          Douglas%Black%NULL%1,          Monica%Gandhi%NULL%1,          Andrew D%Kerkhoff%NULL%1,          Vivek%Jain%NULL%1,          Francesco%Sergi%NULL%1,          Jon%Jacobo%NULL%1,          Susana%Rojas%NULL%1,          Valerie%Tulier-Laiwa%NULL%1,          Tracy%Gallardo-Brown%NULL%1,          Ayesha%Appa%NULL%1,          Charles%Chiu%NULL%1,          Mary%Rodgers%NULL%1,          John%Hackett%NULL%1,          NULL%NULL%NULL%0,          Amy%Kistler%NULL%1,          Samantha%Hao%NULL%1,          Jack%Kamm%NULL%1,          David%Dynerman%NULL%1,          Joshua%Batson%NULL%1,          Bryan%Greenhouse%NULL%1,          Joe%DeRisi%NULL%1,          Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,          Tiffany%Grimes%NULL%1,          Peng%Li%NULL%1,          Matthew%Might%NULL%1,          Fernando%Ovalle%NULL%1,          Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,          Natalie%Achamallah%NULL%1,          Hongwei%Ji%NULL%1,          Brian L.%Claggett%NULL%1,          Nancy%Sun%NULL%1,          Patrick%Botting%NULL%1,          Trevor-Trung%Nguyen%NULL%1,          Eric%Luong%NULL%1,          Elizabeth H.%Kim%NULL%1,          Eunice%Park%NULL%1,          Yunxian%Liu%NULL%1,          Ryan%Rosenberry%NULL%1,          Yuri%Matusov%NULL%1,          Steven%Zhao%NULL%1,          Isabel%Pedraza%NULL%1,          Tanzira%Zaman%NULL%1,          Michael%Thompson%NULL%1,          Koen%Raedschelders%NULL%1,          Anders H.%Berg%NULL%2,          Anders H.%Berg%NULL%0,          Jonathan D.%Grein%NULL%1,          Paul W.%Noble%NULL%1,          Sumeet S.%Chugh%NULL%1,          C. Noel%Bairey Merz%NULL%1,          Eduardo%Marbán%NULL%1,          Jennifer E.%Van Eyk%NULL%1,          Scott D.%Solomon%NULL%1,          Christine M.%Albert%NULL%1,          Peter%Chen%NULL%1,          Susan%Cheng%NULL%3,          Yu Ru%Kou%NULL%8,          Yu Ru%Kou%NULL%0,          Yu Ru%Kou%NULL%0,          Susan%Cheng%biodatacore@cshs.org%0,          Susan%Cheng%biodatacore@cshs.org%0,          Yu Ru%Kou%NULL%0,          Yu Ru%Kou%NULL%0,          Yu Ru%Kou%NULL%0,          Yu Ru%Kou%NULL%0,          Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,          Penelope%Strid%NULL%1,          Van T.%Tong%NULL%1,          Kate%Woodworth%NULL%1,          Romeo R.%Galang%NULL%1,          Laura D.%Zambrano%NULL%1,          John%Nahabedian%NULL%1,          Kayla%Anderson%NULL%1,          Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,          Jacob%Fiksel%NULL%2,          Jacob%Fiksel%NULL%0,          John%Muschelli%NULL%2,          John%Muschelli%NULL%0,          Matthew L.%Robinson%NULL%2,          Matthew L.%Robinson%NULL%0,          Masoud%Rouhizadeh%NULL%2,          Masoud%Rouhizadeh%NULL%0,          Jamie%Perin%NULL%2,          Jamie%Perin%NULL%0,          Grant%Schumock%NULL%2,          Grant%Schumock%NULL%0,          Paul%Nagy%NULL%2,          Paul%Nagy%NULL%0,          Josh H.%Gray%NULL%2,          Josh H.%Gray%NULL%0,          Harsha%Malapati%NULL%2,          Harsha%Malapati%NULL%0,          Mariam%Ghobadi-Krueger%NULL%2,          Mariam%Ghobadi-Krueger%NULL%0,          Timothy M.%Niessen%NULL%1,          Bo Soo%Kim%NULL%1,          Peter M.%Hill%NULL%1,          M. Shafeeq%Ahmed%NULL%1,          Eric D.%Dobkin%NULL%1,          Renee%Blanding%NULL%1,          Jennifer%Abele%NULL%1,          Bonnie%Woods%NULL%1,          Kenneth%Harkness%NULL%1,          David R.%Thiemann%NULL%1,          Mary G.%Bowring%NULL%1,          Aalok B.%Shah%NULL%2,          Aalok B.%Shah%NULL%0,          Mei-Cheng%Wang%NULL%1,          Karen%Bandeen-Roche%NULL%1,          Antony%Rosen%NULL%1,          Scott L.%Zeger%NULL%2,          Scott L.%Zeger%NULL%0,          Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,          Megan%McCullough%NULL%0,          Megan%McCullough%NULL%0,          Michael A.%Fuery%NULL%0,          Fouad%Chouairi%NULL%0,          Fouad%Chouairi%NULL%0,          Craig%Keating%NULL%0,          Neal G.%Ravindra%NULL%0,          P. Elliott%Miller%NULL%0,          Maricar%Malinis%NULL%0,          Nitu%Kashyap%NULL%0,          Allen%Hsiao%NULL%0,          F. Perry%Wilson%NULL%0,          Jeptha P.%Curtis%NULL%0,          Matthew%Grant%NULL%0,          Eric J.%Velazquez%NULL%0,          Nihar R.%Desai%NULL%0,          Tariq%Ahmad%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2825,7 +3131,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>673</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -2854,7 +3160,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>674</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -2883,7 +3189,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>577</v>
+        <v>675</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -2912,7 +3218,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>578</v>
+        <v>676</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -2941,7 +3247,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>579</v>
+        <v>677</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -2970,7 +3276,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>580</v>
+        <v>678</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -2999,7 +3305,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>581</v>
+        <v>679</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -3028,7 +3334,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>582</v>
+        <v>680</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -3057,7 +3363,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>583</v>
+        <v>681</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -3086,7 +3392,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>584</v>
+        <v>682</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -3115,7 +3421,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>585</v>
+        <v>683</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -3144,7 +3450,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>586</v>
+        <v>684</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -3170,10 +3476,10 @@
         <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>587</v>
+        <v>686</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -3202,7 +3508,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>588</v>
+        <v>687</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -3231,7 +3537,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>589</v>
+        <v>688</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -3260,7 +3566,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>590</v>
+        <v>689</v>
       </c>
       <c r="F17" t="s">
         <v>71</v>
@@ -3289,7 +3595,7 @@
         <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>591</v>
+        <v>690</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -3318,7 +3624,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>592</v>
+        <v>691</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -3347,7 +3653,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>593</v>
+        <v>692</v>
       </c>
       <c r="F20" t="s">
         <v>71</v>
@@ -3376,7 +3682,7 @@
         <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -3405,7 +3711,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>595</v>
+        <v>694</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -3434,7 +3740,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -3463,7 +3769,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>597</v>
+        <v>696</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -3492,7 +3798,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>598</v>
+        <v>697</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -3521,7 +3827,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -3550,7 +3856,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -3579,7 +3885,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -3608,7 +3914,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>602</v>
+        <v>701</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -3637,7 +3943,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>603</v>
+        <v>702</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
@@ -3666,7 +3972,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>604</v>
+        <v>703</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -3695,7 +4001,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>605</v>
+        <v>704</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -3724,7 +4030,7 @@
         <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>606</v>
+        <v>705</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -3753,7 +4059,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>607</v>
+        <v>706</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -3782,7 +4088,7 @@
         <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>608</v>
+        <v>707</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -3811,7 +4117,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>609</v>
+        <v>708</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -3840,7 +4146,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>610</v>
+        <v>709</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -3869,7 +4175,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>611</v>
+        <v>710</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -3898,7 +4204,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>612</v>
+        <v>711</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -3927,7 +4233,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>613</v>
+        <v>712</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -3956,7 +4262,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>614</v>
+        <v>713</v>
       </c>
       <c r="F41" t="s">
         <v>71</v>
@@ -3985,7 +4291,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>615</v>
+        <v>714</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -4014,7 +4320,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>616</v>
+        <v>715</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -4043,7 +4349,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>617</v>
+        <v>716</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -4072,7 +4378,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>618</v>
+        <v>717</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -4101,7 +4407,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>619</v>
+        <v>718</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -4130,7 +4436,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>620</v>
+        <v>719</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -4159,7 +4465,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>621</v>
+        <v>720</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -4188,7 +4494,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>622</v>
+        <v>721</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -4217,7 +4523,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>623</v>
+        <v>722</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="825">
   <si>
     <t>Doi</t>
   </si>
@@ -2724,6 +2724,366 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,          Megan%McCullough%NULL%0,          Megan%McCullough%NULL%0,          Michael A.%Fuery%NULL%0,          Fouad%Chouairi%NULL%0,          Fouad%Chouairi%NULL%0,          Craig%Keating%NULL%0,          Neal G.%Ravindra%NULL%0,          P. Elliott%Miller%NULL%0,          Maricar%Malinis%NULL%0,          Nitu%Kashyap%NULL%0,          Allen%Hsiao%NULL%0,          F. Perry%Wilson%NULL%0,          Jeptha P.%Curtis%NULL%0,          Matthew%Grant%NULL%0,          Eric J.%Velazquez%NULL%0,          Nihar R.%Desai%NULL%0,          Tariq%Ahmad%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0,          Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,            R. U.% Shah%null%1,            M.% Bale%null%1,            J. B.% Peacock%null%1,            B.% Berger%null%1,            A.% Brown%null%1,            S.% Mann%null%1,            W.% West%null%1,            V.% Martin%null%1,            V.% Fernandez%null%1,            S.% Grineski%null%1,            B. J.% Brintz%null%1,            M. H.% Samore%null%1,            M. J.% Ferrari%null%1,            D. T.% Leung%null%1,            L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,           Samuel L%Bruce%NULL%2,           Cody L%Slater%NULL%2,           Jonathan R%Tiao%NULL%2,           Matthew R%Baldwin%NULL%2,           R Graham%Barr%NULL%2,           Bernard P%Chang%NULL%2,           Katherine H%Chau%NULL%2,           Justin J%Choi%NULL%2,           Nicholas%Gavin%NULL%2,           Parag%Goyal%NULL%2,           Angela M%Mills%NULL%2,           Ashmi A%Patel%NULL%2,           Marie-Laure S%Romney%NULL%2,           Monika M%Safford%NULL%2,           Neil W%Schluger%NULL%2,           Soumitra%Sengupta%NULL%2,           Magdalena E%Sobieszczyk%NULL%2,           Jason E%Zucker%NULL%2,           Paul A%Asadourian%NULL%2,           Fletcher M%Bell%NULL%2,           Rebekah%Boyd%NULL%2,           Matthew F%Cohen%NULL%2,           MacAlistair I%Colquhoun%NULL%2,           Lucy A%Colville%NULL%2,           Joseph H%de Jonge%NULL%2,           Lyle B%Dershowitz%NULL%2,           Shirin A%Dey%NULL%2,           Katherine A%Eiseman%NULL%2,           Zachary P%Girvin%NULL%2,           Daniella T%Goni%NULL%2,           Amro A%Harb%NULL%2,           Nicholas%Herzik%NULL%2,           Sarah%Householder%NULL%2,           Lara E%Karaaslan%NULL%2,           Heather%Lee%NULL%2,           Evan%Lieberman%NULL%2,           Andrew%Ling%NULL%2,           Ree%Lu%NULL%2,           Arthur Y%Shou%NULL%2,           Alexander C%Sisti%NULL%2,           Zachary E%Snow%NULL%2,           Colin P%Sperring%NULL%2,           Yuqing%Xiong%NULL%2,           Henry W%Zhou%NULL%2,           Karthik%Natarajan%NULL%2,           George%Hripcsak%NULL%2,           Ruijun%Chen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,           Megan%McCullough%NULL%4,           Megan%McCullough%NULL%0,           Michael A.%Fuery%NULL%2,           Fouad%Chouairi%NULL%4,           Fouad%Chouairi%NULL%0,           Craig%Keating%NULL%2,           Neal G.%Ravindra%NULL%2,           P. Elliott%Miller%NULL%2,           Maricar%Malinis%NULL%2,           Nitu%Kashyap%NULL%2,           Allen%Hsiao%NULL%2,           F. Perry%Wilson%NULL%2,           Jeptha P.%Curtis%NULL%2,           Matthew%Grant%NULL%2,           Eric J.%Velazquez%NULL%2,           Nihar R.%Desai%NULL%2,           Tariq%Ahmad%NULL%2,           Chiara%Lazzeri%NULL%18,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,           Karen K.%Wong%NULL%1,           Christine M.%Szablewski%NULL%1,           Priti R.%Patel%NULL%1,           John%Rossow%NULL%1,           Juliana%da Silva%NULL%1,           Pavithra%Natarajan%NULL%1,           Sapna Bamrah%Morris%NULL%1,           Robyn Neblett%Fanfair%NULL%1,           Jessica%Rogers-Brown%NULL%1,           Beau B.%Bruce%NULL%1,           Sean D.%Browning%NULL%1,           Alfonso C.%Hernandez-Romieu%NULL%3,           Nathan W.%Furukawa%NULL%1,           Mohleen%Kang%NULL%1,           Mary E.%Evans%NULL%1,           Nadine%Oosmanally%NULL%1,           Melissa%Tobin-D’Angelo%NULL%1,           Cherie%Drenzek%NULL%1,           David J.%Murphy%NULL%0,           Julie%Hollberg%NULL%1,           James M.%Blum%NULL%0,           Robert%Jansen%NULL%1,           David W.%Wright%NULL%1,           William M.%Sewell%NULL%1,           Jack D.%Owens%NULL%1,           Benjamin%Lefkove%NULL%1,           Frank W.%Brown%NULL%1,           Deron C.%Burton%NULL%1,           Timothy M.%Uyeki%NULL%3,           Stephanie R.%Bialek%NULL%1,           Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,           Jasmine A.%Mack%NULL%1,           Maxwell%Salvatore%NULL%1,           Swaraaj Prabhu%Sankar%NULL%1,           Thomas S.%Valley%NULL%1,           Karandeep%Singh%NULL%1,           Brahmajee K.%Nallamothu%NULL%1,           Sachin%Kheterpal%NULL%1,           Lynda%Lisabeth%NULL%1,           Lars G.%Fritsche%NULL%1,           Bhramar%Mukherjee%NULL%1,            T.%Gu%null%1,            J. A.% Mack%null%1,            M.% Salvatore%null%1,            S. P.% Sankar%null%1,            T. S.% Valley%null%1,            K.% Singh%null%1,            B. K.% Nallamothu%null%1,            S.% Kheterpal%null%1,            L.% Lisabeth%null%1,            L. G.% Fritsche%null%1,            B. G. % Mukherjee%null%1,           T.%Gu%null%1,           J. A.% Mack%null%1,           M.% Salvatore%null%1,           S. P.% Sankar%null%1,           T. S.% Valley%null%1,           K.% Singh%null%1,           B. K.% Nallamothu%null%1,           S.% Kheterpal%null%1,           L.% Lisabeth%null%1,           L. G.% Fritsche%null%1,           B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,            S.% Nirenberg%null%1,            P.% Kovatch%null%1,            K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,           Shikha%Garg%NULL%1,           Alissa%O’Halloran%NULL%1,           Michael%Whitaker%NULL%1,           Huong%Pham%NULL%1,           Evan J%Anderson%NULL%1,           Isaac%Armistead%NULL%1,           Nancy M%Bennett%NULL%1,           Laurie%Billing%NULL%1,           Kathryn%Como-Sabetti%NULL%1,           Mary%Hill%NULL%1,           Sue%Kim%NULL%1,           Maya L%Monroe%NULL%1,           Alison%Muse%NULL%1,           Arthur L%Reingold%NULL%1,           William%Schaffner%NULL%1,           Melissa%Sutton%NULL%1,           H Keipp%Talbot%NULL%1,           Salina M%Torres%NULL%1,           Kimberly%Yousey-Hindes%NULL%1,           Rachel%Holstein%NULL%1,           Charisse%Cummings%NULL%1,           Lynette%Brammer%NULL%1,           Aron J%Hall%NULL%1,           Alicia M%Fry%NULL%1,           Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,            S.% Richardson%null%1,            K.% Coppa%null%1,            D. P.% Barnaby%null%1,            T.% McGinn%null%1,            L. B.% Becker%null%1,            K. W.% Davidson%null%1,            S. L.% Cohen%null%1,            J. S.% Hirsch%null%1,            T.% Zanos%null%1,              % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,            L. H.% Nguyen%null%1,            D. A.% Drew%null%1,            M. S.% Graham%null%1,            E. T.% Warner%null%1,            A. D.% Joshi%null%1,            C. M.% Astley%null%1,            C.-G.% Guo%null%1,            W.% Ma%null%1,            R. S.% Mehta%null%1,            S.% Kwon%null%1,            M.% Song%null%1,            R.% Davies%null%1,            J.% Capdevila%null%1,            K. A.% Lee%null%1,            M. N.% Lochlainn%null%1,            T.% Varsavsky%null%1,            C. H.% Sudre%null%1,            J.% Wolf%null%1,            Y. C.% Cozier%null%1,            L.% Rosenberg%null%1,            L. R.% Wilkens%null%1,            C. A.% Haiman%null%1,            L. L.% Marchand%null%1,            J. R.% Palmer%null%1,            T. D.% Spector%null%1,            S.% Ourselin%null%1,            C. J.% Steves%null%1,            A. T.% Chan%null%1,              % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,           Jienchi%Dorward%NULL%1,           Ana%Correa%NULL%1,           Nicholas%Jones%NULL%1,           Oluwafunmi%Akinyemi%NULL%1,           Gayatri%Amirthalingam%NULL%1,           Nick%Andrews%NULL%1,           Rachel%Byford%NULL%1,           Gavin%Dabrera%NULL%1,           Alex%Elliot%NULL%1,           Joanna%Ellis%NULL%0,           Filipa%Ferreira%NULL%1,           Jamie%Lopez Bernal%NULL%1,           Cecilia%Okusi%NULL%1,           Mary%Ramsay%NULL%1,           Julian%Sherlock%NULL%1,           Gillian%Smith%NULL%1,           John%Williams%NULL%1,           Gary%Howsam%NULL%1,           Maria%Zambon%NULL%0,           Mark%Joy%NULL%1,           F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,           Johanna%Dolle%NULL%2,           Johanna%Dolle%NULL%0,           Sheila%Grami%NULL%1,           Richard%Adule%NULL%1,           Zeyu%Li%NULL%1,           Kathleen%Tatem%NULL%1,           Chinyere%Anyaogu%NULL%1,           Stephen%Apfelroth%NULL%1,           Raji%Ayinla%NULL%2,           Raji%Ayinla%NULL%0,           Noella%Boma%NULL%1,           Terence%Brady%NULL%1,           Braulio F.%Cosme-Thormann%NULL%1,           Roseann%Costarella%NULL%1,           Kenra%Ford%NULL%1,           Kecia%Gaither%NULL%1,           Jessica%Jacobson%NULL%1,           Marc%Kanter%NULL%1,           Stuart%Kessler%NULL%1,           Ross B.%Kristal%NULL%1,           Joseph J.%Lieber%NULL%1,           Vikramjit%Mukherjee%NULL%1,           Vincent%Rizzo%NULL%1,           Madden%Rowell%NULL%1,           David%Stevens%NULL%1,           Elana%Sydney%NULL%1,           Andrew%Wallach%NULL%2,           Andrew%Wallach%NULL%0,           Dave A.%Chokshi%NULL%1,           Nichola%Davis%NULL%1,           NULL%NULL%NULL%0,           Sze Yan%Liu%NULL%2,           Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,           Mark%Caridi-Scheible%NULL%0,           James M.%Blum%NULL%0,           Chad%Robichaux%NULL%2,           Colleen%Kraft%NULL%2,           Jesse T.%Jacob%NULL%2,           Craig S.%Jabaley%NULL%0,           David%Carpenter%NULL%2,           Roberta%Kaplow%NULL%2,           Alfonso C.%Hernandez-Romieu%NULL%0,           Max W.%Adelman%NULL%0,           Greg S.%Martin%NULL%0,           Craig M.%Coopersmith%NULL%2,           David J.%Murphy%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,   Seunghee%Kim-Schulze%null%1,   Hsin-Hui%Huang%null%1,   Noam D.%Beckmann%null%1,   Sharon%Nirenberg%null%1,   Bo%Wang%null%1,   Yonit%Lavin%null%1,   Talia H.%Swartz%null%1,   Deepu%Madduri%null%1,   Aryeh%Stock%null%1,   Thomas U.%Marron%null%1,   Hui%Xie%null%1,   Manishkumar%Patel%null%1,   Kevin%Tuballes%null%1,   Oliver%Oekelen%null%1,   Adeeb%Rahman%null%1,   Patricia%Kovatch%null%1,   Judith A.%Aberg%null%1,   Eric%Schadt%null%1,   Sundar%Jagannath%null%1,   Madhu%Mazumdar%null%1,   Alexander W.%Charney%null%1,   Adolfo%Firpo-Betancourt%null%1,   Damodara Rao%Mendu%null%1,   Jeffrey%Jhang%null%1,   David%Reich%null%1,   Keith%Sigel%null%1,   Carlos%Cordon-Cardo%null%1,   Marc%Feldmann%null%1,   Samir%Parekh%null%1,   Miriam%Merad%null%1,   Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,           David R.%Jenkins%NULL%1,           Jatinder S.%Minhas%NULL%1,           Laura J.%Gray%NULL%1,           Julian%Tang%NULL%1,           Caroline%Williams%NULL%1,           Shirley%Sze%NULL%1,           Daniel%Pan%NULL%1,           William%Jones%NULL%1,           Raman%Verma%NULL%1,           Scott%Knapp%NULL%1,           Rupert%Major%NULL%1,           Melanie%Davies%NULL%1,           Nigel%Brunskill%NULL%1,           Martin%Wiselka%NULL%1,           Chris%Brightling%NULL%1,           Kamlesh%Khunti%NULL%1,           Pranab%Haldar%NULL%1,           Manish%Pareek%mp426@le.ac.uk%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,           Kelly E%Hathorn%NULL%2,           Kelly E%Hathorn%NULL%0,           Walker D%Redd%NULL%1,           Nicolette J%Rodriguez%NULL%1,           Joyce C%Zhou%NULL%1,           Ahmad Najdat%Bazarbashi%NULL%1,           Cheikh%Njie%NULL%1,           Danny%Wong%NULL%1,           Quoc-Dien%Trinh%NULL%1,           Lin%Shen%NULL%1,           Valerie E%Stone%NULL%2,           Valerie E%Stone%NULL%0,           Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,            S.% Apewokin%null%1,            A. A.% Wells%null%1,            A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim
+To describe associations between frailty, ethnicity, socioeconomic position and mortality in a cohort of older patients presenting to hospital with COVID-19.
+Findings
+Frailty did not appear to be associated with mortality rates after COVID-19, though an interaction was evident indicating much larger excess mortality in fitter, compared with frailer patients.
+Message
+Frailty may not be a good measure of prognosis in COVID-19 and different mechanisms may underlie pathways to death depending on pre-morbid frailty.
+</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,           Thomas E.%Webb%NULL%2,           Thomas E.%Webb%NULL%0,           Benjamin C.%Mcloughlin%NULL%2,           Benjamin C.%Mcloughlin%NULL%0,           Imran%Mannan%NULL%2,           Imran%Mannan%NULL%0,           Arshad%Rather%NULL%2,           Arshad%Rather%NULL%0,           Paul%Knopp%NULL%1,           Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,           Rajat%Suri%NULL%2,           Rajat%Suri%NULL%0,           Iheanacho O.%Emeruwa%NULL%2,           Iheanacho O.%Emeruwa%NULL%0,           Robert J.%Stretch%NULL%1,           Roxana Y.%Cortes-Lopez%NULL%2,           Roxana Y.%Cortes-Lopez%NULL%0,           Alexander%Sherman%NULL%1,           Catherine C.%Lindsay%NULL%1,           Jennifer A.%Fulcher%NULL%1,           David%Goodman-Meza%NULL%2,           David%Goodman-Meza%NULL%0,           Anil%Sapru%NULL%2,           Anil%Sapru%NULL%0,           Russell G.%Buhr%NULL%1,           Steven Y.%Chang%NULL%2,           Steven Y.%Chang%NULL%0,           Tisha%Wang%NULL%1,           Nida%Qadir%NULL%1,           Giordano%Madeddu%NULL%8,           Giordano%Madeddu%NULL%0,           Giordano%Madeddu%NULL%0,           Ana C.%Monteiro%NULL%2,           Ana C.%Monteiro%NULL%0,           Giordano%Madeddu%NULL%0,           Giordano%Madeddu%NULL%0,           Giordano%Madeddu%NULL%0,           Giordano%Madeddu%NULL%0,           Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,            D.% Stefanov%null%1,            A. S.% Chau%null%1,            A. G.% Weber%null%1,            G. S.% Marder%null%1,            B.% Kaplan%null%1,            P.% Malhotra%null%1,            O.% Bloom%null%1,            A.% Liu%null%1,            M.% Lesser%null%1,            N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Understanding of the role of ethnicity and socioeconomic position in the risk of developing SARS-CoV-2 infection is limited.
+ We investigated this in the UK Biobank study.
+Methods
+The UK Biobank study recruited 40–70-year-olds in 2006–2010 from the general population, collecting information about self-defined ethnicity and socioeconomic variables (including area-level socioeconomic deprivation and educational attainment).
+ SARS-CoV-2 test results from Public Health England were linked to baseline UK Biobank data.
+ Poisson regression with robust standard errors was used to assess risk ratios (RRs) between the exposures and dichotomous variables for being tested, having a positive test and testing positive in hospital.
+ We also investigated whether ethnicity and socioeconomic position were associated with having a positive test amongst those tested.
+ We adjusted for covariates including age, sex, social variables (including healthcare work and household size), behavioural risk factors and baseline health.
+Results
+Amongst 392,116 participants in England, 2658 had been tested for SARS-CoV-2 and 948 tested positive (726 in hospital) between 16 March and 3 May 2020. Black and south Asian groups were more likely to test positive (RR 3.35 (95% CI 2.48–4.53) and RR 2.42 (95% CI 1.75–3.36) respectively), with Pakistani ethnicity at highest risk within the south Asian group (RR 3.24 (95% CI 1.73–6.07)).
+ These ethnic groups were more likely to be hospital cases compared to the white British.
+ Adjustment for baseline health and behavioural risk factors led to little change, with only modest attenuation when accounting for socioeconomic variables.
+ Socioeconomic deprivation and having no qualifications were consistently associated with a higher risk of confirmed infection (RR 2.19 for most deprived quartile vs least (95% CI 1.80–2.66) and RR 2.00 for no qualifications vs degree (95% CI 1.66–2.42)).
+Conclusions
+Some minority ethnic groups have a higher risk of confirmed SARS-CoV-2 infection in the UK Biobank study, which was not accounted for by differences in socioeconomic conditions, baseline self-reported health or behavioural risk factors.
+ An urgent response to addressing these elevated risks is required.
+</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,           Catherine A.%O’Donnell%NULL%2,           Bhautesh Dinesh%Jani%NULL%1,           Evangelia%Demou%NULL%1,           Frederick K.%Ho%NULL%1,           Carlos%Celis-Morales%NULL%1,           Barbara I.%Nicholl%NULL%1,           Frances S.%Mair%NULL%2,           Paul%Welsh%NULL%2,           Naveed%Sattar%NULL%2,           Jill P.%Pell%NULL%2,           S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,           Alex J%Walker%NULL%1,           Krishnan%Bhaskaran%NULL%1,           Seb%Bacon%NULL%1,           Chris%Bates%NULL%1,           Caroline E%Morton%NULL%1,           Helen J%Curtis%NULL%1,           Amir%Mehrkar%NULL%1,           David%Evans%NULL%1,           Peter%Inglesby%NULL%1,           Jonathan%Cockburn%NULL%1,           Helen I%McDonald%NULL%1,           Brian%MacKenna%NULL%1,           Laurie%Tomlinson%NULL%1,           Ian J%Douglas%NULL%1,           Christopher T%Rentsch%NULL%1,           Rohini%Mathur%NULL%1,           Angel YS%Wong%NULL%1,           Richard%Grieve%NULL%1,           David%Harrison%NULL%1,           Harriet%Forbes%NULL%1,           Anna%Schultze%NULL%2,           Richard%Croker%NULL%1,           John%Parry%NULL%1,           Frank%Hester%NULL%1,           Sam%Harper%NULL%1,           Rafael%Perera%NULL%1,           Stephen JW%Evans%NULL%1,           Liam%Smeeth%NULL%1,           Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,           Ajay%Bhasin%NULL%1,           Joseph M.%Feinglass%NULL%1,           Michael P.%Angarone%NULL%1,           Elaine R.%Cohen%NULL%1,           Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,     Zijun%Shen%xref no email%1,     Robert J.%Romanelli%xref no email%1,     Stephen H.%Lockhart%xref no email%1,     Kelly%Smits%xref no email%1,     Sarah%Robinson%xref no email%1,     Stephanie%Brown%xref no email%1,     Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,           Andrew%Gangemi%NULL%1,           Robert%Marron%NULL%1,           Junad%Chowdhury%NULL%1,           Ibraheem%Yousef%NULL%1,           Matthew%Zheng%NULL%1,           Nicole%Mills%NULL%1,           Lauren%Tragesser%NULL%1,           Julie%Giurintano%NULL%1,           Rohit%Gupta%NULL%0,           Matthew%Gordon%NULL%0,           Parth%Rali%NULL%2,           Parth%Rali%NULL%0,           Gilbert%D'Alonso%NULL%1,           David%Fleece%NULL%1,           Huaqing%Zhao%NULL%0,           Nicole%Patlakh%NULL%0,           Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,           Nathan C.%Skorodin%nskorodin@midcusa.com%1,           Nicholas W.%Van Hise%NULL%1,           Robert M.%Fliegelman%NULL%1,           Jonathan%Pinsky%NULL%1,           Vishal%Didwania%NULL%1,           Michael%Anderson%NULL%1,           Melina%Diaz%NULL%1,           Kairav%Shah%NULL%1,           Vishnu V.%Chundi%NULL%1,           David W.%Hines%NULL%1,           Brian P.%Harting%NULL%1,           Kamo%Sidwha%NULL%1,           Brian%Yu%NULL%1,           Paul%Brune%NULL%1,           Anjum%Owaisi%NULL%1,           David%Beezhold%NULL%1,           Joseph%Kent%NULL%1,           Dana%Vais%NULL%1,           Alice%Han%NULL%1,           Neethi%Gowda%NULL%1,           Nishi%Sahgal%NULL%1,           Jan%Silverman%NULL%1,           Jonathan%Stake%NULL%1,           Jenie%Nepomuceno%NULL%1,           Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,           Anna%Daunt%NULL%2,           Anna%Daunt%NULL%0,           Sujit%Mukherjee%NULL%1,           Peter%Crook%NULL%1,           Roberta%Forlano%NULL%1,           Mara D%Kont%NULL%1,           Alessandra%Løchen%NULL%1,           Michaela%Vollmer%NULL%1,           Paul%Middleton%NULL%1,           Rebekah%Judge%NULL%1,           Christopher%Harlow%NULL%1,           Anet%Soubieres%NULL%1,           Graham%Cooke%NULL%1,           Peter J%White%NULL%1,           Timothy B%Hallett%NULL%1,           Paul%Aylin%NULL%1,           Neil%Ferguson%NULL%1,           Katharina%Hauck%NULL%1,           Mark R%Thursz%NULL%1,           Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,           Jeffrey%Burton%NULL%2,           Jeffrey%Burton%NULL%0,           Daniel%Fort%NULL%1,           Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,           Michael S.%Sherman%NULL%1,           Naaz%Fatteh%NULL%1,           Fabio%Vogel%NULL%1,           Jamie%Sacks%NULL%1,           Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,            P.% Mannam%null%1,            R.% Comer%null%1,            E.% Sinclair%null%1,            D. B.% McQuaid%null%1,            M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,           Farah%Kidwai-Khan%NULL%1,           Janet P.%Tate%NULL%1,           Lesley S.%Park%NULL%1,           Joseph T.%King%NULL%1,           Melissa%Skanderson%NULL%1,           Ronald G.%Hauser%NULL%1,           Anna%Schultze%NULL%0,           Christopher I.%Jarvis%NULL%1,           Mark%Holodniy%NULL%1,           Vincent Lo%Re%NULL%1,           Kathleen M.%Akgün%NULL%1,           Kristina%Crothers%NULL%1,           Tamar H.%Taddei%NULL%1,           Matthew S.%Freiberg%NULL%1,           Amy C.%Justice%NULL%1,            C. T.%Rentsch%null%1,            F.% Kidwai-Khan%null%1,            J. P.% Tate%null%1,            L. S.% Park%null%1,            J. T.% King%null%1,            M.% Skanderson%null%1,            R. G.% Hauser%null%1,            A.% Schultze%null%1,            C. I.% Jarvis%null%1,            M.% Holodniy%null%1,            V.% Lo Re%null%1,            K. M.% Akgun%null%1,            K.% Crothers%null%1,            T. H.% Taddei%null%1,            M. S.% Freiberg%null%1,            A. C. % Justice%null%1,           C. T.%Rentsch%null%1,           F.% Kidwai-Khan%null%1,           J. P.% Tate%null%1,           L. S.% Park%null%1,           J. T.% King%null%1,           M.% Skanderson%null%1,           R. G.% Hauser%null%1,           A.% Schultze%null%1,           C. I.% Jarvis%null%1,           M.% Holodniy%null%1,           V.% Lo Re%null%1,           K. M.% Akgun%null%1,           K.% Crothers%null%1,           T. H.% Taddei%null%1,           M. S.% Freiberg%null%1,           A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,     Elizabeth M.%Dufort%xref no email%1,     Tomoko%Udo%xref no email%1,     Larissa A.%Wilberschied%xref no email%1,     Jessica%Kumar%xref no email%1,     James%Tesoriero%xref no email%1,     Patti%Weinberg%xref no email%1,     James%Kirkwood%xref no email%1,     Alison%Muse%xref no email%1,     Jack%DeHovitz%xref no email%1,     Debra S.%Blog%xref no email%1,     Brad%Hutton%xref no email%1,     David R.%Holtgrave%xref no email%1,     Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+By mid-May 2020, there were over 1.5 million cases of (SARS-CoV-2) or COVID-19 across the U.
+S.
+ with new confirmed cases continuing to rise following the re-opening of most states.
+ Prior studies have focused mainly on clinical risk factors associated with serious illness and mortality of COVID-19. Less analysis has been conducted on the clinical, sociodemographic, and environmental variables associated with initial infection of COVID-19.
+Methods
+A multivariable statistical model was used to characterize risk factors in 34,503cases of laboratory-confirmed positive or negative COVID-19 infection in the Providence Health System (U.
+S.
+) between February 28 and April 27, 2020. Publicly available data were utilized as approximations for social determinants of health, and patient-level clinical and sociodemographic factors were extracted from the electronic medical record.
+Results
+Higher risk of COVID-19 infection was associated with older age (OR 1.69; 95% CI 1.41–2.02, p &amp;lt; 0.0001), male gender (OR 1.32; 95% CI 1.21–1.44, p &amp;lt; 0.0001), Asian race (OR 1.43; 95% CI 1.18–1.72, p = 0.0002), Black/African American race (OR 1.51; 95% CI 1.25–1.83, p &amp;lt; 0.0001), Latino ethnicity (OR 2.07; 95% CI 1.77–2.41, p &amp;lt; 0.0001), non-English language (OR 2.09; 95% CI 1.7–2.57, p &amp;lt; 0.0001), residing in a neighborhood with financial insecurity (OR 1.10; 95% CI 1.01–1.25, p = 0.04), low air quality (OR 1.01; 95% CI 1.0–1.04, p = 0.05), housing insecurity (OR 1.32; 95% CI 1.16–1.5, p &amp;lt; 0.0001) or transportation insecurity (OR 1.11; 95% CI 1.02–1.23, p = 0.03), and living in senior living communities (OR 1.69; 95% CI 1.23–2.32, p = 0.001).
+Conclusion
+sisk of COVID-19 infection is higher among groups already affected by health disparities across age, race, ethnicity, language, income, and living conditions.
+ Health promotion and disease prevention strategies should prioritize groups most vulnerable to infection and address structural inequities that contribute to risk through social and economic policy.
+</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,           Jennifer%Beam%NULL%2,           Jennifer%Beam%NULL%0,           Haley%Maier%NULL%1,           Whitney%Haggerson%NULL%1,           Karen%Boudreau%NULL%1,           Jamie%Carlson%NULL%1,           Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,           Alexander E.%Ayala%NULL%1,           Chideraa C.%Ukeje%NULL%1,           Celeste S.%Witting%NULL%1,           William A.%Grobman%NULL%1,           Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,           Hannah C.%Jarvis%NULL%2,           Hannah C.%Jarvis%NULL%0,           Ezgi%Ozcan%NULL%1,           Thomas L. P.%Burns%NULL%1,           Rabia A.%Warraich%NULL%1,           Lisa J.%Amani%NULL%1,           Amina%Jaffer%NULL%1,           Stephanie%Paget%NULL%1,           Anand%Sivaramakrishnan%NULL%1,           Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,           Suzy%Gallier%NULL%2,           Suzy%Gallier%NULL%0,           Chris%Mainey%NULL%1,           Peter%Nightingale%NULL%2,           Peter%Nightingale%NULL%0,           David%McNulty%NULL%1,           Hannah%Crothers%NULL%1,           Felicity%Evison%NULL%1,           Katharine%Reeves%NULL%1,           Domenico%Pagano%NULL%1,           Alastair K%Denniston%NULL%1,           Krishnarajah%Nirantharakumar%NULL%1,           Peter%Diggle%NULL%1,           Simon%Ball%NULL%1,           Lylah%Irshad%NULL%1,           Maxim%Harris%NULL%1,           Theodore%Nabav%NULL%1,           A%Kolesnyk%NULL%1,           M%Ahmed%NULL%1,           A%Liaqat%NULL%1,           Tanya%Pankhurst%NULL%1,           Jamie%Coleman%NULL%1,           Chirag%Dave%NULL%1,           Khaled%ElFandi%NULL%1,           Rifat%Rashid%NULL%1,           Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,           Gregory A%Eschenauer%NULL%2,           Gregory A%Eschenauer%NULL%0,           Jonathan P%Troost%NULL%1,           Jonathan L%Golob%NULL%1,           Tejal N%Gandhi%NULL%1,           Lu%Wang%NULL%1,           Nina%Zhou%NULL%1,           Lindsay A%Petty%NULL%1,           Ji Hoon%Baang%NULL%1,           Nicholas O%Dillman%NULL%1,           David%Frame%NULL%1,           Kevin S%Gregg%NULL%1,           Dan R%Kaul%NULL%1,           Jerod%Nagel%NULL%1,           Twisha S%Patel%NULL%1,           Shiwei%Zhou%NULL%1,           Adam S%Lauring%NULL%1,           David A%Hanauer%NULL%1,           Emily%Martin%NULL%1,           Pratima%Sharma%NULL%1,           Christopher M%Fung%NULL%1,           Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,           Lei%Qian%NULL%2,           Lei%Qian%NULL%0,           Vennis%Hong%NULL%1,           Rong%Wei%NULL%2,           Rong%Wei%NULL%0,           Ron F.%Nadjafi%NULL%2,           Ron F.%Nadjafi%NULL%0,           Heidi%Fischer%NULL%1,           Zhuoxin%Li%NULL%1,           Sally F.%Shaw%NULL%1,           Susan L.%Caparosa%NULL%2,           Susan L.%Caparosa%NULL%0,           Claudia L.%Nau%NULL%1,           Tanmai%Saxena%NULL%1,           Gunter K.%Rieg%NULL%1,           Bradley K.%Ackerson%NULL%1,           Adam L.%Sharp%NULL%2,           Adam L.%Sharp%NULL%0,           Jacek%Skarbinski%NULL%2,           Jacek%Skarbinski%NULL%0,           Tej K.%Naik%NULL%1,           Sameer B.%Murali%NULL%2,           Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,           Juan Carlos%Nicolas%NULL%2,           Juan Carlos%Nicolas%NULL%0,           Jennifer R%Meeks%NULL%1,           Osman%Khan%NULL%1,           Alan%Pan%NULL%1,           Stephen L%Jones%NULL%1,           Faisal%Masud%NULL%1,           H Dirk%Sostman%NULL%1,           Robert%Phillips%NULL%1,           Julia D%Andrieni%NULL%1,           Bita A%Kash%NULL%1,           Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,           Arryn%Craney%NULL%1,           Phyllis%Ruggiero%NULL%1,           John%Sipley%NULL%1,           Lin%Cong%NULL%1,           Erika M.%Hissong%NULL%1,           Massimo%Loda%NULL%1,           Lars F.%Westblade%NULL%1,           Melissa%Cushing%NULL%2,           Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,            X.% Zhong%null%1,            Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,           Amanda%Zheutlin%NULL%2,           Amanda%Zheutlin%NULL%0,           Yu-Han%Kao%NULL%1,           Kristin%Ayers%NULL%1,           Susan%Gross%NULL%1,           Patricia%Kovatch%NULL%2,           Sharon%Nirenberg%NULL%1,           Alexander%Charney%NULL%1,           Girish%Nadkarni%NULL%1,           Jessica K%De Freitas%NULL%2,           Paul%O’Reilly%NULL%3,           Allan%Just%NULL%2,           Carol%Horowitz%NULL%1,           Glenn%Martin%NULL%1,           Andrea%Branch%NULL%1,           Benjamin S%Glicksberg%NULL%2,           Dennis%Charney%NULL%2,           David%Reich%NULL%1,           William K%Oh%NULL%1,           Eric%Schadt%NULL%1,           Rong%Chen%NULL%0,           Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,           Angela%Winegar%NULL%1,           Richard%Fogel%NULL%1,           Mohamad%Fakih%NULL%1,           Allison%Ottenbacher%NULL%1,           Christine%Jesser%NULL%1,           Angelo%Bufalino%NULL%1,           Ren-Huai%Huang%NULL%1,           Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,           Rebecca%Bendayan%NULL%0,           Mark%Ashworth%NULL%1,           Daniel M.%Bean%NULL%1,           Hiten%Dodhia%NULL%1,           Stevo%Durbaba%NULL%1,           Kevin%O'Gallagher%NULL%1,           Claire%Palmer%NULL%1,           Vasa%Curcin%NULL%1,           Elizabeth%Aitken%NULL%1,           William%Bernal%NULL%1,           Richard D.%Barker%NULL%1,           Sam%Norton%NULL%1,           Martin%Gulliford%NULL%1,           James T.H.%Teo%NULL%0,           James%Galloway%NULL%1,           Richard J.B.%Dobson%NULL%0,           Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,           Carina%Marquez%NULL%1,           Emily%Crawford%NULL%1,           James%Peng%NULL%1,           Maya%Petersen%NULL%1,           Daniel%Schwab%NULL%1,           Joshua%Schwab%NULL%1,           Jackie%Martinez%NULL%1,           Diane%Jones%NULL%1,           Douglas%Black%NULL%1,           Monica%Gandhi%NULL%1,           Andrew D%Kerkhoff%NULL%1,           Vivek%Jain%NULL%1,           Francesco%Sergi%NULL%1,           Jon%Jacobo%NULL%1,           Susana%Rojas%NULL%1,           Valerie%Tulier-Laiwa%NULL%1,           Tracy%Gallardo-Brown%NULL%1,           Ayesha%Appa%NULL%1,           Charles%Chiu%NULL%1,           Mary%Rodgers%NULL%1,           John%Hackett%NULL%1,           NULL%NULL%NULL%0,           Amy%Kistler%NULL%1,           Samantha%Hao%NULL%1,           Jack%Kamm%NULL%1,           David%Dynerman%NULL%1,           Joshua%Batson%NULL%1,           Bryan%Greenhouse%NULL%1,           Joe%DeRisi%NULL%1,           Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,           Tiffany%Grimes%NULL%1,           Peng%Li%NULL%1,           Matthew%Might%NULL%1,           Fernando%Ovalle%NULL%1,           Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,           Natalie%Achamallah%NULL%1,           Hongwei%Ji%NULL%1,           Brian L.%Claggett%NULL%1,           Nancy%Sun%NULL%1,           Patrick%Botting%NULL%1,           Trevor-Trung%Nguyen%NULL%1,           Eric%Luong%NULL%1,           Elizabeth H.%Kim%NULL%1,           Eunice%Park%NULL%1,           Yunxian%Liu%NULL%1,           Ryan%Rosenberry%NULL%1,           Yuri%Matusov%NULL%1,           Steven%Zhao%NULL%1,           Isabel%Pedraza%NULL%1,           Tanzira%Zaman%NULL%1,           Michael%Thompson%NULL%1,           Koen%Raedschelders%NULL%1,           Anders H.%Berg%NULL%2,           Anders H.%Berg%NULL%0,           Jonathan D.%Grein%NULL%1,           Paul W.%Noble%NULL%1,           Sumeet S.%Chugh%NULL%1,           C. Noel%Bairey Merz%NULL%1,           Eduardo%Marbán%NULL%1,           Jennifer E.%Van Eyk%NULL%1,           Scott D.%Solomon%NULL%1,           Christine M.%Albert%NULL%1,           Peter%Chen%NULL%1,           Susan%Cheng%NULL%3,           Yu Ru%Kou%NULL%8,           Yu Ru%Kou%NULL%0,           Yu Ru%Kou%NULL%0,           Susan%Cheng%biodatacore@cshs.org%0,           Susan%Cheng%biodatacore@cshs.org%0,           Yu Ru%Kou%NULL%0,           Yu Ru%Kou%NULL%0,           Yu Ru%Kou%NULL%0,           Yu Ru%Kou%NULL%0,           Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,           Penelope%Strid%NULL%1,           Van T.%Tong%NULL%1,           Kate%Woodworth%NULL%1,           Romeo R.%Galang%NULL%1,           Laura D.%Zambrano%NULL%1,           John%Nahabedian%NULL%1,           Kayla%Anderson%NULL%1,           Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,           Jacob%Fiksel%NULL%2,           Jacob%Fiksel%NULL%0,           John%Muschelli%NULL%2,           John%Muschelli%NULL%0,           Matthew L.%Robinson%NULL%2,           Matthew L.%Robinson%NULL%0,           Masoud%Rouhizadeh%NULL%2,           Masoud%Rouhizadeh%NULL%0,           Jamie%Perin%NULL%2,           Jamie%Perin%NULL%0,           Grant%Schumock%NULL%2,           Grant%Schumock%NULL%0,           Paul%Nagy%NULL%2,           Paul%Nagy%NULL%0,           Josh H.%Gray%NULL%2,           Josh H.%Gray%NULL%0,           Harsha%Malapati%NULL%2,           Harsha%Malapati%NULL%0,           Mariam%Ghobadi-Krueger%NULL%2,           Mariam%Ghobadi-Krueger%NULL%0,           Timothy M.%Niessen%NULL%1,           Bo Soo%Kim%NULL%1,           Peter M.%Hill%NULL%1,           M. Shafeeq%Ahmed%NULL%1,           Eric D.%Dobkin%NULL%1,           Renee%Blanding%NULL%1,           Jennifer%Abele%NULL%1,           Bonnie%Woods%NULL%1,           Kenneth%Harkness%NULL%1,           David R.%Thiemann%NULL%1,           Mary G.%Bowring%NULL%1,           Aalok B.%Shah%NULL%2,           Aalok B.%Shah%NULL%0,           Mei-Cheng%Wang%NULL%1,           Karen%Bandeen-Roche%NULL%1,           Antony%Rosen%NULL%1,           Scott L.%Zeger%NULL%2,           Scott L.%Zeger%NULL%0,           Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,           Megan%McCullough%NULL%0,           Megan%McCullough%NULL%0,           Michael A.%Fuery%NULL%0,           Fouad%Chouairi%NULL%0,           Fouad%Chouairi%NULL%0,           Craig%Keating%NULL%0,           Neal G.%Ravindra%NULL%0,           P. Elliott%Miller%NULL%0,           Maricar%Malinis%NULL%0,           Nitu%Kashyap%NULL%0,           Allen%Hsiao%NULL%0,           F. Perry%Wilson%NULL%0,           Jeptha P.%Curtis%NULL%0,           Matthew%Grant%NULL%0,           Eric J.%Velazquez%NULL%0,           Nihar R.%Desai%NULL%0,           Tariq%Ahmad%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0,           Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,             R. U.% Shah%null%1,             M.% Bale%null%1,             J. B.% Peacock%null%1,             B.% Berger%null%1,             A.% Brown%null%1,             S.% Mann%null%1,             W.% West%null%1,             V.% Martin%null%1,             V.% Fernandez%null%1,             S.% Grineski%null%1,             B. J.% Brintz%null%1,             M. H.% Samore%null%1,             M. J.% Ferrari%null%1,             D. T.% Leung%null%1,             L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,            Samuel L%Bruce%NULL%1,            Cody L%Slater%NULL%1,            Jonathan R%Tiao%NULL%1,            Matthew R%Baldwin%NULL%1,            R Graham%Barr%NULL%1,            Bernard P%Chang%NULL%1,            Katherine H%Chau%NULL%1,            Justin J%Choi%NULL%1,            Nicholas%Gavin%NULL%1,            Parag%Goyal%NULL%1,            Angela M%Mills%NULL%1,            Ashmi A%Patel%NULL%1,            Marie-Laure S%Romney%NULL%1,            Monika M%Safford%NULL%1,            Neil W%Schluger%NULL%1,            Soumitra%Sengupta%NULL%1,            Magdalena E%Sobieszczyk%NULL%1,            Jason E%Zucker%NULL%1,            Paul A%Asadourian%NULL%1,            Fletcher M%Bell%NULL%1,            Rebekah%Boyd%NULL%1,            Matthew F%Cohen%NULL%1,            MacAlistair I%Colquhoun%NULL%1,            Lucy A%Colville%NULL%1,            Joseph H%de Jonge%NULL%1,            Lyle B%Dershowitz%NULL%1,            Shirin A%Dey%NULL%1,            Katherine A%Eiseman%NULL%1,            Zachary P%Girvin%NULL%1,            Daniella T%Goni%NULL%1,            Amro A%Harb%NULL%1,            Nicholas%Herzik%NULL%1,            Sarah%Householder%NULL%1,            Lara E%Karaaslan%NULL%1,            Heather%Lee%NULL%1,            Evan%Lieberman%NULL%1,            Andrew%Ling%NULL%1,            Ree%Lu%NULL%1,            Arthur Y%Shou%NULL%1,            Alexander C%Sisti%NULL%1,            Zachary E%Snow%NULL%1,            Colin P%Sperring%NULL%1,            Yuqing%Xiong%NULL%1,            Henry W%Zhou%NULL%1,            Karthik%Natarajan%NULL%1,            George%Hripcsak%NULL%1,            Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,            Megan%McCullough%NULL%4,            Megan%McCullough%NULL%0,            Michael A.%Fuery%NULL%2,            Fouad%Chouairi%NULL%4,            Fouad%Chouairi%NULL%0,            Craig%Keating%NULL%2,            Neal G.%Ravindra%NULL%2,            P. Elliott%Miller%NULL%2,            Maricar%Malinis%NULL%2,            Nitu%Kashyap%NULL%2,            Allen%Hsiao%NULL%2,            F. Perry%Wilson%NULL%2,            Jeptha P.%Curtis%NULL%2,            Matthew%Grant%NULL%2,            Eric J.%Velazquez%NULL%2,            Nihar R.%Desai%NULL%2,            Tariq%Ahmad%NULL%2,            Chiara%Lazzeri%NULL%18,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,            Karen K.%Wong%NULL%1,            Christine M.%Szablewski%NULL%1,            Priti R.%Patel%NULL%1,            John%Rossow%NULL%1,            Juliana%da Silva%NULL%1,            Pavithra%Natarajan%NULL%1,            Sapna Bamrah%Morris%NULL%1,            Robyn Neblett%Fanfair%NULL%1,            Jessica%Rogers-Brown%NULL%1,            Beau B.%Bruce%NULL%1,            Sean D.%Browning%NULL%1,            Alfonso C.%Hernandez-Romieu%NULL%2,            Nathan W.%Furukawa%NULL%1,            Mohleen%Kang%NULL%1,            Mary E.%Evans%NULL%1,            Nadine%Oosmanally%NULL%1,            Melissa%Tobin-D’Angelo%NULL%1,            Cherie%Drenzek%NULL%1,            David J.%Murphy%NULL%0,            Julie%Hollberg%NULL%1,            James M.%Blum%NULL%0,            Robert%Jansen%NULL%1,            David W.%Wright%NULL%1,            William M.%Sewell%NULL%1,            Jack D.%Owens%NULL%1,            Benjamin%Lefkove%NULL%1,            Frank W.%Brown%NULL%1,            Deron C.%Burton%NULL%1,            Timothy M.%Uyeki%NULL%3,            Stephanie R.%Bialek%NULL%1,            Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,            Jasmine A.%Mack%NULL%1,            Maxwell%Salvatore%NULL%1,            Swaraaj Prabhu%Sankar%NULL%1,            Thomas S.%Valley%NULL%1,            Karandeep%Singh%NULL%1,            Brahmajee K.%Nallamothu%NULL%1,            Sachin%Kheterpal%NULL%1,            Lynda%Lisabeth%NULL%1,            Lars G.%Fritsche%NULL%1,            Bhramar%Mukherjee%NULL%1,             T.%Gu%null%1,             J. A.% Mack%null%1,             M.% Salvatore%null%1,             S. P.% Sankar%null%1,             T. S.% Valley%null%1,             K.% Singh%null%1,             B. K.% Nallamothu%null%1,             S.% Kheterpal%null%1,             L.% Lisabeth%null%1,             L. G.% Fritsche%null%1,             B. G. % Mukherjee%null%1,            T.%Gu%null%1,            J. A.% Mack%null%1,            M.% Salvatore%null%1,            S. P.% Sankar%null%1,            T. S.% Valley%null%1,            K.% Singh%null%1,            B. K.% Nallamothu%null%1,            S.% Kheterpal%null%1,            L.% Lisabeth%null%1,            L. G.% Fritsche%null%1,            B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,             S.% Nirenberg%null%1,             P.% Kovatch%null%1,             K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,            Shikha%Garg%NULL%1,            Alissa%O’Halloran%NULL%1,            Michael%Whitaker%NULL%1,            Huong%Pham%NULL%1,            Evan J%Anderson%NULL%1,            Isaac%Armistead%NULL%1,            Nancy M%Bennett%NULL%1,            Laurie%Billing%NULL%1,            Kathryn%Como-Sabetti%NULL%1,            Mary%Hill%NULL%1,            Sue%Kim%NULL%1,            Maya L%Monroe%NULL%1,            Alison%Muse%NULL%1,            Arthur L%Reingold%NULL%1,            William%Schaffner%NULL%1,            Melissa%Sutton%NULL%1,            H Keipp%Talbot%NULL%1,            Salina M%Torres%NULL%1,            Kimberly%Yousey-Hindes%NULL%1,            Rachel%Holstein%NULL%1,            Charisse%Cummings%NULL%1,            Lynette%Brammer%NULL%1,            Aron J%Hall%NULL%1,            Alicia M%Fry%NULL%1,            Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,             S.% Richardson%null%1,             K.% Coppa%null%1,             D. P.% Barnaby%null%1,             T.% McGinn%null%1,             L. B.% Becker%null%1,             K. W.% Davidson%null%1,             S. L.% Cohen%null%1,             J. S.% Hirsch%null%1,             T.% Zanos%null%1,               % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,             L. H.% Nguyen%null%1,             D. A.% Drew%null%1,             M. S.% Graham%null%1,             E. T.% Warner%null%1,             A. D.% Joshi%null%1,             C. M.% Astley%null%1,             C.-G.% Guo%null%1,             W.% Ma%null%1,             R. S.% Mehta%null%1,             S.% Kwon%null%1,             M.% Song%null%1,             R.% Davies%null%1,             J.% Capdevila%null%1,             K. A.% Lee%null%1,             M. N.% Lochlainn%null%1,             T.% Varsavsky%null%1,             C. H.% Sudre%null%1,             J.% Wolf%null%1,             Y. C.% Cozier%null%1,             L.% Rosenberg%null%1,             L. R.% Wilkens%null%1,             C. A.% Haiman%null%1,             L. L.% Marchand%null%1,             J. R.% Palmer%null%1,             T. D.% Spector%null%1,             S.% Ourselin%null%1,             C. J.% Steves%null%1,             A. T.% Chan%null%1,               % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,            Jienchi%Dorward%NULL%1,            Ana%Correa%NULL%1,            Nicholas%Jones%NULL%1,            Oluwafunmi%Akinyemi%NULL%1,            Gayatri%Amirthalingam%NULL%1,            Nick%Andrews%NULL%1,            Rachel%Byford%NULL%1,            Gavin%Dabrera%NULL%1,            Alex%Elliot%NULL%1,            Joanna%Ellis%NULL%0,            Filipa%Ferreira%NULL%1,            Jamie%Lopez Bernal%NULL%1,            Cecilia%Okusi%NULL%1,            Mary%Ramsay%NULL%1,            Julian%Sherlock%NULL%1,            Gillian%Smith%NULL%1,            John%Williams%NULL%1,            Gary%Howsam%NULL%1,            Maria%Zambon%NULL%0,            Mark%Joy%NULL%1,            F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,            Johanna%Dolle%NULL%2,            Johanna%Dolle%NULL%0,            Sheila%Grami%NULL%1,            Richard%Adule%NULL%1,            Zeyu%Li%NULL%1,            Kathleen%Tatem%NULL%1,            Chinyere%Anyaogu%NULL%1,            Stephen%Apfelroth%NULL%1,            Raji%Ayinla%NULL%2,            Raji%Ayinla%NULL%0,            Noella%Boma%NULL%1,            Terence%Brady%NULL%1,            Braulio F.%Cosme-Thormann%NULL%1,            Roseann%Costarella%NULL%1,            Kenra%Ford%NULL%1,            Kecia%Gaither%NULL%1,            Jessica%Jacobson%NULL%1,            Marc%Kanter%NULL%1,            Stuart%Kessler%NULL%1,            Ross B.%Kristal%NULL%1,            Joseph J.%Lieber%NULL%1,            Vikramjit%Mukherjee%NULL%1,            Vincent%Rizzo%NULL%1,            Madden%Rowell%NULL%1,            David%Stevens%NULL%1,            Elana%Sydney%NULL%1,            Andrew%Wallach%NULL%2,            Andrew%Wallach%NULL%0,            Dave A.%Chokshi%NULL%1,            Nichola%Davis%NULL%1,            NULL%NULL%NULL%0,            Sze Yan%Liu%NULL%2,            Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,            Mark%Caridi-Scheible%NULL%0,            James M.%Blum%NULL%0,            Chad%Robichaux%NULL%1,            Colleen%Kraft%NULL%1,            Jesse T.%Jacob%NULL%1,            Craig S.%Jabaley%NULL%0,            David%Carpenter%NULL%1,            Roberta%Kaplow%NULL%1,            Alfonso C.%Hernandez-Romieu%NULL%0,            Max W.%Adelman%NULL%0,            Greg S.%Martin%NULL%0,            Craig M.%Coopersmith%NULL%1,            David J.%Murphy%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,    Seunghee%Kim-Schulze%null%1,    Hsin-Hui%Huang%null%1,    Noam D.%Beckmann%null%1,    Sharon%Nirenberg%null%1,    Bo%Wang%null%1,    Yonit%Lavin%null%1,    Talia H.%Swartz%null%1,    Deepu%Madduri%null%1,    Aryeh%Stock%null%1,    Thomas U.%Marron%null%1,    Hui%Xie%null%1,    Manishkumar%Patel%null%1,    Kevin%Tuballes%null%1,    Oliver%Oekelen%null%1,    Adeeb%Rahman%null%1,    Patricia%Kovatch%null%1,    Judith A.%Aberg%null%1,    Eric%Schadt%null%1,    Sundar%Jagannath%null%1,    Madhu%Mazumdar%null%1,    Alexander W.%Charney%null%1,    Adolfo%Firpo-Betancourt%null%1,    Damodara Rao%Mendu%null%1,    Jeffrey%Jhang%null%1,    David%Reich%null%1,    Keith%Sigel%null%1,    Carlos%Cordon-Cardo%null%1,    Marc%Feldmann%null%1,    Samir%Parekh%null%1,    Miriam%Merad%null%1,    Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,            David R.%Jenkins%NULL%1,            Jatinder S.%Minhas%NULL%1,            Laura J.%Gray%NULL%1,            Julian%Tang%NULL%1,            Caroline%Williams%NULL%1,            Shirley%Sze%NULL%1,            Daniel%Pan%NULL%1,            William%Jones%NULL%1,            Raman%Verma%NULL%1,            Scott%Knapp%NULL%1,            Rupert%Major%NULL%1,            Melanie%Davies%NULL%1,            Nigel%Brunskill%NULL%1,            Martin%Wiselka%NULL%1,            Chris%Brightling%NULL%1,            Kamlesh%Khunti%NULL%1,            Pranab%Haldar%NULL%1,            Manish%Pareek%mp426@le.ac.uk%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,            Kelly E%Hathorn%NULL%2,            Kelly E%Hathorn%NULL%0,            Walker D%Redd%NULL%1,            Nicolette J%Rodriguez%NULL%1,            Joyce C%Zhou%NULL%1,            Ahmad Najdat%Bazarbashi%NULL%1,            Cheikh%Njie%NULL%1,            Danny%Wong%NULL%1,            Quoc-Dien%Trinh%NULL%1,            Lin%Shen%NULL%1,            Valerie E%Stone%NULL%2,            Valerie E%Stone%NULL%0,            Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,             S.% Apewokin%null%1,             A. A.% Wells%null%1,             A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,            Thomas E.%Webb%NULL%2,            Thomas E.%Webb%NULL%0,            Benjamin C.%Mcloughlin%NULL%2,            Benjamin C.%Mcloughlin%NULL%0,            Imran%Mannan%NULL%2,            Imran%Mannan%NULL%0,            Arshad%Rather%NULL%2,            Arshad%Rather%NULL%0,            Paul%Knopp%NULL%1,            Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,            Rajat%Suri%NULL%2,            Rajat%Suri%NULL%0,            Iheanacho O.%Emeruwa%NULL%2,            Iheanacho O.%Emeruwa%NULL%0,            Robert J.%Stretch%NULL%1,            Roxana Y.%Cortes-Lopez%NULL%2,            Roxana Y.%Cortes-Lopez%NULL%0,            Alexander%Sherman%NULL%1,            Catherine C.%Lindsay%NULL%1,            Jennifer A.%Fulcher%NULL%1,            David%Goodman-Meza%NULL%2,            David%Goodman-Meza%NULL%0,            Anil%Sapru%NULL%2,            Anil%Sapru%NULL%0,            Russell G.%Buhr%NULL%1,            Steven Y.%Chang%NULL%2,            Steven Y.%Chang%NULL%0,            Tisha%Wang%NULL%1,            Nida%Qadir%NULL%1,            Giordano%Madeddu%NULL%8,            Giordano%Madeddu%NULL%0,            Giordano%Madeddu%NULL%0,            Ana C.%Monteiro%NULL%2,            Ana C.%Monteiro%NULL%0,            Giordano%Madeddu%NULL%0,            Giordano%Madeddu%NULL%0,            Giordano%Madeddu%NULL%0,            Giordano%Madeddu%NULL%0,            Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,             D.% Stefanov%null%1,             A. S.% Chau%null%1,             A. G.% Weber%null%1,             G. S.% Marder%null%1,             B.% Kaplan%null%1,             P.% Malhotra%null%1,             O.% Bloom%null%1,             A.% Liu%null%1,             M.% Lesser%null%1,             N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,            Catherine A.%O’Donnell%NULL%2,            Bhautesh Dinesh%Jani%NULL%1,            Evangelia%Demou%NULL%1,            Frederick K.%Ho%NULL%1,            Carlos%Celis-Morales%NULL%1,            Barbara I.%Nicholl%NULL%1,            Frances S.%Mair%NULL%2,            Paul%Welsh%NULL%2,            Naveed%Sattar%NULL%2,            Jill P.%Pell%NULL%2,            S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,            Alex J%Walker%NULL%1,            Krishnan%Bhaskaran%NULL%1,            Seb%Bacon%NULL%1,            Chris%Bates%NULL%1,            Caroline E%Morton%NULL%1,            Helen J%Curtis%NULL%1,            Amir%Mehrkar%NULL%1,            David%Evans%NULL%1,            Peter%Inglesby%NULL%1,            Jonathan%Cockburn%NULL%1,            Helen I%McDonald%NULL%1,            Brian%MacKenna%NULL%1,            Laurie%Tomlinson%NULL%1,            Ian J%Douglas%NULL%1,            Christopher T%Rentsch%NULL%1,            Rohini%Mathur%NULL%1,            Angel YS%Wong%NULL%1,            Richard%Grieve%NULL%1,            David%Harrison%NULL%1,            Harriet%Forbes%NULL%1,            Anna%Schultze%NULL%2,            Richard%Croker%NULL%1,            John%Parry%NULL%1,            Frank%Hester%NULL%1,            Sam%Harper%NULL%1,            Rafael%Perera%NULL%1,            Stephen JW%Evans%NULL%1,            Liam%Smeeth%NULL%1,            Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,            Ajay%Bhasin%NULL%1,            Joseph M.%Feinglass%NULL%1,            Michael P.%Angarone%NULL%1,            Elaine R.%Cohen%NULL%1,            Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,      Zijun%Shen%xref no email%1,      Robert J.%Romanelli%xref no email%1,      Stephen H.%Lockhart%xref no email%1,      Kelly%Smits%xref no email%1,      Sarah%Robinson%xref no email%1,      Stephanie%Brown%xref no email%1,      Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,            Andrew%Gangemi%NULL%1,            Robert%Marron%NULL%1,            Junad%Chowdhury%NULL%1,            Ibraheem%Yousef%NULL%1,            Matthew%Zheng%NULL%1,            Nicole%Mills%NULL%1,            Lauren%Tragesser%NULL%1,            Julie%Giurintano%NULL%1,            Rohit%Gupta%NULL%0,            Matthew%Gordon%NULL%0,            Parth%Rali%NULL%2,            Parth%Rali%NULL%0,            Gilbert%D'Alonso%NULL%1,            David%Fleece%NULL%1,            Huaqing%Zhao%NULL%0,            Nicole%Patlakh%NULL%0,            Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,            Nathan C.%Skorodin%nskorodin@midcusa.com%1,            Nicholas W.%Van Hise%NULL%1,            Robert M.%Fliegelman%NULL%1,            Jonathan%Pinsky%NULL%1,            Vishal%Didwania%NULL%1,            Michael%Anderson%NULL%1,            Melina%Diaz%NULL%1,            Kairav%Shah%NULL%1,            Vishnu V.%Chundi%NULL%1,            David W.%Hines%NULL%1,            Brian P.%Harting%NULL%1,            Kamo%Sidwha%NULL%1,            Brian%Yu%NULL%1,            Paul%Brune%NULL%1,            Anjum%Owaisi%NULL%1,            David%Beezhold%NULL%1,            Joseph%Kent%NULL%1,            Dana%Vais%NULL%1,            Alice%Han%NULL%1,            Neethi%Gowda%NULL%1,            Nishi%Sahgal%NULL%1,            Jan%Silverman%NULL%1,            Jonathan%Stake%NULL%1,            Jenie%Nepomuceno%NULL%1,            Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,            Anna%Daunt%NULL%2,            Anna%Daunt%NULL%0,            Sujit%Mukherjee%NULL%1,            Peter%Crook%NULL%1,            Roberta%Forlano%NULL%1,            Mara D%Kont%NULL%1,            Alessandra%Løchen%NULL%1,            Michaela%Vollmer%NULL%1,            Paul%Middleton%NULL%1,            Rebekah%Judge%NULL%1,            Christopher%Harlow%NULL%1,            Anet%Soubieres%NULL%1,            Graham%Cooke%NULL%1,            Peter J%White%NULL%1,            Timothy B%Hallett%NULL%1,            Paul%Aylin%NULL%1,            Neil%Ferguson%NULL%1,            Katharina%Hauck%NULL%1,            Mark R%Thursz%NULL%1,            Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,            Jeffrey%Burton%NULL%2,            Jeffrey%Burton%NULL%0,            Daniel%Fort%NULL%1,            Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,            Michael S.%Sherman%NULL%1,            Naaz%Fatteh%NULL%1,            Fabio%Vogel%NULL%1,            Jamie%Sacks%NULL%1,            Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,             P.% Mannam%null%1,             R.% Comer%null%1,             E.% Sinclair%null%1,             D. B.% McQuaid%null%1,             M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,            Farah%Kidwai-Khan%NULL%1,            Janet P.%Tate%NULL%1,            Lesley S.%Park%NULL%1,            Joseph T.%King%NULL%1,            Melissa%Skanderson%NULL%1,            Ronald G.%Hauser%NULL%1,            Anna%Schultze%NULL%0,            Christopher I.%Jarvis%NULL%1,            Mark%Holodniy%NULL%1,            Vincent Lo%Re%NULL%1,            Kathleen M.%Akgün%NULL%1,            Kristina%Crothers%NULL%1,            Tamar H.%Taddei%NULL%1,            Matthew S.%Freiberg%NULL%1,            Amy C.%Justice%NULL%1,             C. T.%Rentsch%null%1,             F.% Kidwai-Khan%null%1,             J. P.% Tate%null%1,             L. S.% Park%null%1,             J. T.% King%null%1,             M.% Skanderson%null%1,             R. G.% Hauser%null%1,             A.% Schultze%null%1,             C. I.% Jarvis%null%1,             M.% Holodniy%null%1,             V.% Lo Re%null%1,             K. M.% Akgun%null%1,             K.% Crothers%null%1,             T. H.% Taddei%null%1,             M. S.% Freiberg%null%1,             A. C. % Justice%null%1,            C. T.%Rentsch%null%1,            F.% Kidwai-Khan%null%1,            J. P.% Tate%null%1,            L. S.% Park%null%1,            J. T.% King%null%1,            M.% Skanderson%null%1,            R. G.% Hauser%null%1,            A.% Schultze%null%1,            C. I.% Jarvis%null%1,            M.% Holodniy%null%1,            V.% Lo Re%null%1,            K. M.% Akgun%null%1,            K.% Crothers%null%1,            T. H.% Taddei%null%1,            M. S.% Freiberg%null%1,            A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,      Elizabeth M.%Dufort%xref no email%1,      Tomoko%Udo%xref no email%1,      Larissa A.%Wilberschied%xref no email%1,      Jessica%Kumar%xref no email%1,      James%Tesoriero%xref no email%1,      Patti%Weinberg%xref no email%1,      James%Kirkwood%xref no email%1,      Alison%Muse%xref no email%1,      Jack%DeHovitz%xref no email%1,      Debra S.%Blog%xref no email%1,      Brad%Hutton%xref no email%1,      David R.%Holtgrave%xref no email%1,      Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,            Jennifer%Beam%NULL%2,            Jennifer%Beam%NULL%0,            Haley%Maier%NULL%1,            Whitney%Haggerson%NULL%1,            Karen%Boudreau%NULL%1,            Jamie%Carlson%NULL%1,            Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,            Alexander E.%Ayala%NULL%1,            Chideraa C.%Ukeje%NULL%1,            Celeste S.%Witting%NULL%1,            William A.%Grobman%NULL%1,            Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,            Hannah C.%Jarvis%NULL%2,            Hannah C.%Jarvis%NULL%0,            Ezgi%Ozcan%NULL%1,            Thomas L. P.%Burns%NULL%1,            Rabia A.%Warraich%NULL%1,            Lisa J.%Amani%NULL%1,            Amina%Jaffer%NULL%1,            Stephanie%Paget%NULL%1,            Anand%Sivaramakrishnan%NULL%1,            Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,            Suzy%Gallier%NULL%2,            Suzy%Gallier%NULL%0,            Chris%Mainey%NULL%1,            Peter%Nightingale%NULL%2,            Peter%Nightingale%NULL%0,            David%McNulty%NULL%1,            Hannah%Crothers%NULL%1,            Felicity%Evison%NULL%1,            Katharine%Reeves%NULL%1,            Domenico%Pagano%NULL%1,            Alastair K%Denniston%NULL%1,            Krishnarajah%Nirantharakumar%NULL%1,            Peter%Diggle%NULL%1,            Simon%Ball%NULL%1,            Lylah%Irshad%NULL%1,            Maxim%Harris%NULL%1,            Theodore%Nabav%NULL%1,            A%Kolesnyk%NULL%1,            M%Ahmed%NULL%1,            A%Liaqat%NULL%1,            Tanya%Pankhurst%NULL%1,            Jamie%Coleman%NULL%1,            Chirag%Dave%NULL%1,            Khaled%ElFandi%NULL%1,            Rifat%Rashid%NULL%1,            Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,            Gregory A%Eschenauer%NULL%2,            Gregory A%Eschenauer%NULL%0,            Jonathan P%Troost%NULL%1,            Jonathan L%Golob%NULL%1,            Tejal N%Gandhi%NULL%1,            Lu%Wang%NULL%1,            Nina%Zhou%NULL%1,            Lindsay A%Petty%NULL%1,            Ji Hoon%Baang%NULL%1,            Nicholas O%Dillman%NULL%1,            David%Frame%NULL%1,            Kevin S%Gregg%NULL%1,            Dan R%Kaul%NULL%1,            Jerod%Nagel%NULL%1,            Twisha S%Patel%NULL%1,            Shiwei%Zhou%NULL%1,            Adam S%Lauring%NULL%1,            David A%Hanauer%NULL%1,            Emily%Martin%NULL%1,            Pratima%Sharma%NULL%1,            Christopher M%Fung%NULL%1,            Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,            Lei%Qian%NULL%2,            Lei%Qian%NULL%0,            Vennis%Hong%NULL%1,            Rong%Wei%NULL%2,            Rong%Wei%NULL%0,            Ron F.%Nadjafi%NULL%2,            Ron F.%Nadjafi%NULL%0,            Heidi%Fischer%NULL%1,            Zhuoxin%Li%NULL%1,            Sally F.%Shaw%NULL%1,            Susan L.%Caparosa%NULL%2,            Susan L.%Caparosa%NULL%0,            Claudia L.%Nau%NULL%1,            Tanmai%Saxena%NULL%1,            Gunter K.%Rieg%NULL%1,            Bradley K.%Ackerson%NULL%1,            Adam L.%Sharp%NULL%2,            Adam L.%Sharp%NULL%0,            Jacek%Skarbinski%NULL%2,            Jacek%Skarbinski%NULL%0,            Tej K.%Naik%NULL%1,            Sameer B.%Murali%NULL%2,            Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,            Juan Carlos%Nicolas%NULL%2,            Juan Carlos%Nicolas%NULL%0,            Jennifer R%Meeks%NULL%1,            Osman%Khan%NULL%1,            Alan%Pan%NULL%1,            Stephen L%Jones%NULL%1,            Faisal%Masud%NULL%1,            H Dirk%Sostman%NULL%1,            Robert%Phillips%NULL%1,            Julia D%Andrieni%NULL%1,            Bita A%Kash%NULL%1,            Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,            Arryn%Craney%NULL%1,            Phyllis%Ruggiero%NULL%1,            John%Sipley%NULL%1,            Lin%Cong%NULL%1,            Erika M.%Hissong%NULL%1,            Massimo%Loda%NULL%1,            Lars F.%Westblade%NULL%1,            Melissa%Cushing%NULL%2,            Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,             X.% Zhong%null%1,             Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,            Amanda%Zheutlin%NULL%2,            Amanda%Zheutlin%NULL%0,            Yu-Han%Kao%NULL%1,            Kristin%Ayers%NULL%1,            Susan%Gross%NULL%1,            Patricia%Kovatch%NULL%1,            Sharon%Nirenberg%NULL%1,            Alexander%Charney%NULL%1,            Girish%Nadkarni%NULL%1,            Jessica K%De Freitas%NULL%1,            Paul%O’Reilly%NULL%1,            Allan%Just%NULL%1,            Carol%Horowitz%NULL%1,            Glenn%Martin%NULL%1,            Andrea%Branch%NULL%1,            Benjamin S%Glicksberg%NULL%1,            Dennis%Charney%NULL%1,            David%Reich%NULL%1,            William K%Oh%NULL%1,            Eric%Schadt%NULL%1,            Rong%Chen%NULL%0,            Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,            Angela%Winegar%NULL%1,            Richard%Fogel%NULL%1,            Mohamad%Fakih%NULL%1,            Allison%Ottenbacher%NULL%1,            Christine%Jesser%NULL%1,            Angelo%Bufalino%NULL%1,            Ren-Huai%Huang%NULL%1,            Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,            Rebecca%Bendayan%NULL%0,            Mark%Ashworth%NULL%1,            Daniel M.%Bean%NULL%1,            Hiten%Dodhia%NULL%1,            Stevo%Durbaba%NULL%1,            Kevin%O'Gallagher%NULL%1,            Claire%Palmer%NULL%1,            Vasa%Curcin%NULL%1,            Elizabeth%Aitken%NULL%1,            William%Bernal%NULL%1,            Richard D.%Barker%NULL%1,            Sam%Norton%NULL%1,            Martin%Gulliford%NULL%1,            James T.H.%Teo%NULL%0,            James%Galloway%NULL%1,            Richard J.B.%Dobson%NULL%0,            Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,            Carina%Marquez%NULL%1,            Emily%Crawford%NULL%1,            James%Peng%NULL%1,            Maya%Petersen%NULL%1,            Daniel%Schwab%NULL%1,            Joshua%Schwab%NULL%1,            Jackie%Martinez%NULL%1,            Diane%Jones%NULL%1,            Douglas%Black%NULL%1,            Monica%Gandhi%NULL%1,            Andrew D%Kerkhoff%NULL%1,            Vivek%Jain%NULL%1,            Francesco%Sergi%NULL%1,            Jon%Jacobo%NULL%1,            Susana%Rojas%NULL%1,            Valerie%Tulier-Laiwa%NULL%1,            Tracy%Gallardo-Brown%NULL%1,            Ayesha%Appa%NULL%1,            Charles%Chiu%NULL%1,            Mary%Rodgers%NULL%1,            John%Hackett%NULL%1,            NULL%NULL%NULL%0,            Amy%Kistler%NULL%1,            Samantha%Hao%NULL%1,            Jack%Kamm%NULL%1,            David%Dynerman%NULL%1,            Joshua%Batson%NULL%1,            Bryan%Greenhouse%NULL%1,            Joe%DeRisi%NULL%1,            Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,            Tiffany%Grimes%NULL%1,            Peng%Li%NULL%1,            Matthew%Might%NULL%1,            Fernando%Ovalle%NULL%1,            Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,            Natalie%Achamallah%NULL%1,            Hongwei%Ji%NULL%1,            Brian L.%Claggett%NULL%1,            Nancy%Sun%NULL%1,            Patrick%Botting%NULL%1,            Trevor-Trung%Nguyen%NULL%1,            Eric%Luong%NULL%1,            Elizabeth H.%Kim%NULL%1,            Eunice%Park%NULL%1,            Yunxian%Liu%NULL%1,            Ryan%Rosenberry%NULL%1,            Yuri%Matusov%NULL%1,            Steven%Zhao%NULL%1,            Isabel%Pedraza%NULL%1,            Tanzira%Zaman%NULL%1,            Michael%Thompson%NULL%1,            Koen%Raedschelders%NULL%1,            Anders H.%Berg%NULL%2,            Anders H.%Berg%NULL%0,            Jonathan D.%Grein%NULL%1,            Paul W.%Noble%NULL%1,            Sumeet S.%Chugh%NULL%1,            C. Noel%Bairey Merz%NULL%1,            Eduardo%Marbán%NULL%1,            Jennifer E.%Van Eyk%NULL%1,            Scott D.%Solomon%NULL%1,            Christine M.%Albert%NULL%1,            Peter%Chen%NULL%1,            Susan%Cheng%NULL%3,            Yu Ru%Kou%NULL%8,            Yu Ru%Kou%NULL%0,            Yu Ru%Kou%NULL%0,            Susan%Cheng%biodatacore@cshs.org%0,            Susan%Cheng%biodatacore@cshs.org%0,            Yu Ru%Kou%NULL%0,            Yu Ru%Kou%NULL%0,            Yu Ru%Kou%NULL%0,            Yu Ru%Kou%NULL%0,            Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,            Penelope%Strid%NULL%1,            Van T.%Tong%NULL%1,            Kate%Woodworth%NULL%1,            Romeo R.%Galang%NULL%1,            Laura D.%Zambrano%NULL%1,            John%Nahabedian%NULL%1,            Kayla%Anderson%NULL%1,            Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,            Jacob%Fiksel%NULL%2,            Jacob%Fiksel%NULL%0,            John%Muschelli%NULL%2,            John%Muschelli%NULL%0,            Matthew L.%Robinson%NULL%2,            Matthew L.%Robinson%NULL%0,            Masoud%Rouhizadeh%NULL%2,            Masoud%Rouhizadeh%NULL%0,            Jamie%Perin%NULL%2,            Jamie%Perin%NULL%0,            Grant%Schumock%NULL%2,            Grant%Schumock%NULL%0,            Paul%Nagy%NULL%2,            Paul%Nagy%NULL%0,            Josh H.%Gray%NULL%2,            Josh H.%Gray%NULL%0,            Harsha%Malapati%NULL%2,            Harsha%Malapati%NULL%0,            Mariam%Ghobadi-Krueger%NULL%2,            Mariam%Ghobadi-Krueger%NULL%0,            Timothy M.%Niessen%NULL%1,            Bo Soo%Kim%NULL%1,            Peter M.%Hill%NULL%1,            M. Shafeeq%Ahmed%NULL%1,            Eric D.%Dobkin%NULL%1,            Renee%Blanding%NULL%1,            Jennifer%Abele%NULL%1,            Bonnie%Woods%NULL%1,            Kenneth%Harkness%NULL%1,            David R.%Thiemann%NULL%1,            Mary G.%Bowring%NULL%1,            Aalok B.%Shah%NULL%2,            Aalok B.%Shah%NULL%0,            Mei-Cheng%Wang%NULL%1,            Karen%Bandeen-Roche%NULL%1,            Antony%Rosen%NULL%1,            Scott L.%Zeger%NULL%2,            Scott L.%Zeger%NULL%0,            Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,            Megan%McCullough%NULL%0,            Megan%McCullough%NULL%0,            Michael A.%Fuery%NULL%0,            Fouad%Chouairi%NULL%0,            Fouad%Chouairi%NULL%0,            Craig%Keating%NULL%0,            Neal G.%Ravindra%NULL%0,            P. Elliott%Miller%NULL%0,            Maricar%Malinis%NULL%0,            Nitu%Kashyap%NULL%0,            Allen%Hsiao%NULL%0,            F. Perry%Wilson%NULL%0,            Jeptha P.%Curtis%NULL%0,            Matthew%Grant%NULL%0,            Eric J.%Velazquez%NULL%0,            Nihar R.%Desai%NULL%0,            Tariq%Ahmad%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3131,7 +3491,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>776</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -3160,7 +3520,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>674</v>
+        <v>777</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -3189,7 +3549,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -3218,7 +3578,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>676</v>
+        <v>779</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -3247,7 +3607,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>677</v>
+        <v>780</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3276,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>678</v>
+        <v>781</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -3305,7 +3665,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>679</v>
+        <v>782</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -3334,7 +3694,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>680</v>
+        <v>783</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -3363,7 +3723,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>681</v>
+        <v>784</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -3392,7 +3752,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>682</v>
+        <v>785</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -3421,7 +3781,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>683</v>
+        <v>786</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -3450,7 +3810,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -3479,7 +3839,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>686</v>
+        <v>788</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -3508,7 +3868,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>687</v>
+        <v>789</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -3537,7 +3897,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>688</v>
+        <v>790</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -3566,7 +3926,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>689</v>
+        <v>791</v>
       </c>
       <c r="F17" t="s">
         <v>71</v>
@@ -3592,10 +3952,10 @@
         <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>690</v>
+        <v>792</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -3624,7 +3984,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>691</v>
+        <v>793</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -3653,7 +4013,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>692</v>
+        <v>794</v>
       </c>
       <c r="F20" t="s">
         <v>71</v>
@@ -3679,10 +4039,10 @@
         <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>693</v>
+        <v>795</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -3711,7 +4071,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>694</v>
+        <v>796</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -3740,7 +4100,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>695</v>
+        <v>797</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -3769,7 +4129,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -3798,7 +4158,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>697</v>
+        <v>799</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -3827,7 +4187,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>698</v>
+        <v>800</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -3856,7 +4216,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>699</v>
+        <v>801</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -3885,7 +4245,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>700</v>
+        <v>802</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -3914,7 +4274,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>701</v>
+        <v>803</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -3943,7 +4303,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>702</v>
+        <v>804</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
@@ -3972,7 +4332,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>703</v>
+        <v>805</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -4001,7 +4361,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>704</v>
+        <v>806</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -4027,10 +4387,10 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>705</v>
+        <v>807</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -4059,7 +4419,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>706</v>
+        <v>808</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -4085,10 +4445,10 @@
         <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>707</v>
+        <v>809</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -4117,7 +4477,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>708</v>
+        <v>810</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -4146,7 +4506,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>709</v>
+        <v>811</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -4175,7 +4535,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>710</v>
+        <v>812</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -4204,7 +4564,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>711</v>
+        <v>813</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -4233,7 +4593,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>712</v>
+        <v>814</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -4262,7 +4622,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>713</v>
+        <v>815</v>
       </c>
       <c r="F41" t="s">
         <v>71</v>
@@ -4291,7 +4651,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>714</v>
+        <v>816</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -4320,7 +4680,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>715</v>
+        <v>817</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -4349,7 +4709,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>716</v>
+        <v>818</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -4378,7 +4738,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>717</v>
+        <v>819</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -4407,7 +4767,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>718</v>
+        <v>820</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -4436,7 +4796,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>719</v>
+        <v>821</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -4465,7 +4825,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>720</v>
+        <v>822</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -4494,7 +4854,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>721</v>
+        <v>823</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -4523,7 +4883,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>722</v>
+        <v>824</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4965" uniqueCount="874">
   <si>
     <t>Doi</t>
   </si>
@@ -3084,6 +3084,153 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,            Megan%McCullough%NULL%0,            Megan%McCullough%NULL%0,            Michael A.%Fuery%NULL%0,            Fouad%Chouairi%NULL%0,            Fouad%Chouairi%NULL%0,            Craig%Keating%NULL%0,            Neal G.%Ravindra%NULL%0,            P. Elliott%Miller%NULL%0,            Maricar%Malinis%NULL%0,            Nitu%Kashyap%NULL%0,            Allen%Hsiao%NULL%0,            F. Perry%Wilson%NULL%0,            Jeptha P.%Curtis%NULL%0,            Matthew%Grant%NULL%0,            Eric J.%Velazquez%NULL%0,            Nihar R.%Desai%NULL%0,            Tariq%Ahmad%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0,            Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,              R. U.% Shah%null%1,              M.% Bale%null%1,              J. B.% Peacock%null%1,              B.% Berger%null%1,              A.% Brown%null%1,              S.% Mann%null%1,              W.% West%null%1,              V.% Martin%null%1,              V.% Fernandez%null%1,              S.% Grineski%null%1,              B. J.% Brintz%null%1,              M. H.% Samore%null%1,              M. J.% Ferrari%null%1,              D. T.% Leung%null%1,              L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,             Samuel L%Bruce%NULL%1,             Cody L%Slater%NULL%1,             Jonathan R%Tiao%NULL%1,             Matthew R%Baldwin%NULL%1,             R Graham%Barr%NULL%1,             Bernard P%Chang%NULL%1,             Katherine H%Chau%NULL%1,             Justin J%Choi%NULL%1,             Nicholas%Gavin%NULL%1,             Parag%Goyal%NULL%1,             Angela M%Mills%NULL%1,             Ashmi A%Patel%NULL%1,             Marie-Laure S%Romney%NULL%1,             Monika M%Safford%NULL%1,             Neil W%Schluger%NULL%1,             Soumitra%Sengupta%NULL%1,             Magdalena E%Sobieszczyk%NULL%1,             Jason E%Zucker%NULL%1,             Paul A%Asadourian%NULL%1,             Fletcher M%Bell%NULL%1,             Rebekah%Boyd%NULL%1,             Matthew F%Cohen%NULL%1,             MacAlistair I%Colquhoun%NULL%1,             Lucy A%Colville%NULL%1,             Joseph H%de Jonge%NULL%1,             Lyle B%Dershowitz%NULL%1,             Shirin A%Dey%NULL%1,             Katherine A%Eiseman%NULL%1,             Zachary P%Girvin%NULL%1,             Daniella T%Goni%NULL%1,             Amro A%Harb%NULL%1,             Nicholas%Herzik%NULL%1,             Sarah%Householder%NULL%1,             Lara E%Karaaslan%NULL%1,             Heather%Lee%NULL%1,             Evan%Lieberman%NULL%1,             Andrew%Ling%NULL%1,             Ree%Lu%NULL%1,             Arthur Y%Shou%NULL%1,             Alexander C%Sisti%NULL%1,             Zachary E%Snow%NULL%1,             Colin P%Sperring%NULL%1,             Yuqing%Xiong%NULL%1,             Henry W%Zhou%NULL%1,             Karthik%Natarajan%NULL%1,             George%Hripcsak%NULL%1,             Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,             Megan%McCullough%NULL%4,             Megan%McCullough%NULL%0,             Michael A.%Fuery%NULL%2,             Fouad%Chouairi%NULL%4,             Fouad%Chouairi%NULL%0,             Craig%Keating%NULL%2,             Neal G.%Ravindra%NULL%2,             P. Elliott%Miller%NULL%2,             Maricar%Malinis%NULL%2,             Nitu%Kashyap%NULL%2,             Allen%Hsiao%NULL%2,             F. Perry%Wilson%NULL%2,             Jeptha P.%Curtis%NULL%2,             Matthew%Grant%NULL%2,             Eric J.%Velazquez%NULL%2,             Nihar R.%Desai%NULL%2,             Tariq%Ahmad%NULL%2,             Chiara%Lazzeri%NULL%18,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,             Karen K.%Wong%NULL%1,             Christine M.%Szablewski%NULL%1,             Priti R.%Patel%NULL%1,             John%Rossow%NULL%1,             Juliana%da Silva%NULL%1,             Pavithra%Natarajan%NULL%1,             Sapna Bamrah%Morris%NULL%1,             Robyn Neblett%Fanfair%NULL%1,             Jessica%Rogers-Brown%NULL%1,             Beau B.%Bruce%NULL%1,             Sean D.%Browning%NULL%1,             Alfonso C.%Hernandez-Romieu%NULL%2,             Nathan W.%Furukawa%NULL%1,             Mohleen%Kang%NULL%1,             Mary E.%Evans%NULL%1,             Nadine%Oosmanally%NULL%1,             Melissa%Tobin-D’Angelo%NULL%1,             Cherie%Drenzek%NULL%1,             David J.%Murphy%NULL%0,             Julie%Hollberg%NULL%1,             James M.%Blum%NULL%0,             Robert%Jansen%NULL%1,             David W.%Wright%NULL%1,             William M.%Sewell%NULL%1,             Jack D.%Owens%NULL%1,             Benjamin%Lefkove%NULL%1,             Frank W.%Brown%NULL%1,             Deron C.%Burton%NULL%1,             Timothy M.%Uyeki%NULL%3,             Stephanie R.%Bialek%NULL%1,             Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,             Jasmine A.%Mack%NULL%1,             Maxwell%Salvatore%NULL%1,             Swaraaj Prabhu%Sankar%NULL%1,             Thomas S.%Valley%NULL%1,             Karandeep%Singh%NULL%1,             Brahmajee K.%Nallamothu%NULL%1,             Sachin%Kheterpal%NULL%1,             Lynda%Lisabeth%NULL%1,             Lars G.%Fritsche%NULL%1,             Bhramar%Mukherjee%NULL%1,              T.%Gu%null%1,              J. A.% Mack%null%1,              M.% Salvatore%null%1,              S. P.% Sankar%null%1,              T. S.% Valley%null%1,              K.% Singh%null%1,              B. K.% Nallamothu%null%1,              S.% Kheterpal%null%1,              L.% Lisabeth%null%1,              L. G.% Fritsche%null%1,              B. G. % Mukherjee%null%1,             T.%Gu%null%1,             J. A.% Mack%null%1,             M.% Salvatore%null%1,             S. P.% Sankar%null%1,             T. S.% Valley%null%1,             K.% Singh%null%1,             B. K.% Nallamothu%null%1,             S.% Kheterpal%null%1,             L.% Lisabeth%null%1,             L. G.% Fritsche%null%1,             B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,              S.% Nirenberg%null%1,              P.% Kovatch%null%1,              K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,             Shikha%Garg%NULL%1,             Alissa%O’Halloran%NULL%1,             Michael%Whitaker%NULL%1,             Huong%Pham%NULL%1,             Evan J%Anderson%NULL%1,             Isaac%Armistead%NULL%1,             Nancy M%Bennett%NULL%1,             Laurie%Billing%NULL%1,             Kathryn%Como-Sabetti%NULL%1,             Mary%Hill%NULL%1,             Sue%Kim%NULL%1,             Maya L%Monroe%NULL%1,             Alison%Muse%NULL%1,             Arthur L%Reingold%NULL%1,             William%Schaffner%NULL%1,             Melissa%Sutton%NULL%1,             H Keipp%Talbot%NULL%1,             Salina M%Torres%NULL%1,             Kimberly%Yousey-Hindes%NULL%1,             Rachel%Holstein%NULL%1,             Charisse%Cummings%NULL%1,             Lynette%Brammer%NULL%1,             Aron J%Hall%NULL%1,             Alicia M%Fry%NULL%1,             Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,              S.% Richardson%null%1,              K.% Coppa%null%1,              D. P.% Barnaby%null%1,              T.% McGinn%null%1,              L. B.% Becker%null%1,              K. W.% Davidson%null%1,              S. L.% Cohen%null%1,              J. S.% Hirsch%null%1,              T.% Zanos%null%1,                % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,              L. H.% Nguyen%null%1,              D. A.% Drew%null%1,              M. S.% Graham%null%1,              E. T.% Warner%null%1,              A. D.% Joshi%null%1,              C. M.% Astley%null%1,              C.-G.% Guo%null%1,              W.% Ma%null%1,              R. S.% Mehta%null%1,              S.% Kwon%null%1,              M.% Song%null%1,              R.% Davies%null%1,              J.% Capdevila%null%1,              K. A.% Lee%null%1,              M. N.% Lochlainn%null%1,              T.% Varsavsky%null%1,              C. H.% Sudre%null%1,              J.% Wolf%null%1,              Y. C.% Cozier%null%1,              L.% Rosenberg%null%1,              L. R.% Wilkens%null%1,              C. A.% Haiman%null%1,              L. L.% Marchand%null%1,              J. R.% Palmer%null%1,              T. D.% Spector%null%1,              S.% Ourselin%null%1,              C. J.% Steves%null%1,              A. T.% Chan%null%1,                % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,             Jienchi%Dorward%NULL%1,             Ana%Correa%NULL%1,             Nicholas%Jones%NULL%1,             Oluwafunmi%Akinyemi%NULL%1,             Gayatri%Amirthalingam%NULL%1,             Nick%Andrews%NULL%1,             Rachel%Byford%NULL%1,             Gavin%Dabrera%NULL%1,             Alex%Elliot%NULL%1,             Joanna%Ellis%NULL%0,             Filipa%Ferreira%NULL%1,             Jamie%Lopez Bernal%NULL%1,             Cecilia%Okusi%NULL%1,             Mary%Ramsay%NULL%1,             Julian%Sherlock%NULL%1,             Gillian%Smith%NULL%1,             John%Williams%NULL%1,             Gary%Howsam%NULL%1,             Maria%Zambon%NULL%0,             Mark%Joy%NULL%1,             F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,             Johanna%Dolle%NULL%2,             Johanna%Dolle%NULL%0,             Sheila%Grami%NULL%1,             Richard%Adule%NULL%1,             Zeyu%Li%NULL%1,             Kathleen%Tatem%NULL%1,             Chinyere%Anyaogu%NULL%1,             Stephen%Apfelroth%NULL%1,             Raji%Ayinla%NULL%2,             Raji%Ayinla%NULL%0,             Noella%Boma%NULL%1,             Terence%Brady%NULL%1,             Braulio F.%Cosme-Thormann%NULL%1,             Roseann%Costarella%NULL%1,             Kenra%Ford%NULL%1,             Kecia%Gaither%NULL%1,             Jessica%Jacobson%NULL%1,             Marc%Kanter%NULL%1,             Stuart%Kessler%NULL%1,             Ross B.%Kristal%NULL%1,             Joseph J.%Lieber%NULL%1,             Vikramjit%Mukherjee%NULL%1,             Vincent%Rizzo%NULL%1,             Madden%Rowell%NULL%1,             David%Stevens%NULL%1,             Elana%Sydney%NULL%1,             Andrew%Wallach%NULL%2,             Andrew%Wallach%NULL%0,             Dave A.%Chokshi%NULL%1,             Nichola%Davis%NULL%1,             NULL%NULL%NULL%0,             Sze Yan%Liu%NULL%2,             Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,             Mark%Caridi-Scheible%NULL%0,             James M.%Blum%NULL%0,             Chad%Robichaux%NULL%1,             Colleen%Kraft%NULL%1,             Jesse T.%Jacob%NULL%1,             Craig S.%Jabaley%NULL%0,             David%Carpenter%NULL%1,             Roberta%Kaplow%NULL%1,             Alfonso C.%Hernandez-Romieu%NULL%0,             Max W.%Adelman%NULL%0,             Greg S.%Martin%NULL%0,             Craig M.%Coopersmith%NULL%1,             David J.%Murphy%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,     Seunghee%Kim-Schulze%null%1,     Hsin-Hui%Huang%null%1,     Noam D.%Beckmann%null%1,     Sharon%Nirenberg%null%1,     Bo%Wang%null%1,     Yonit%Lavin%null%1,     Talia H.%Swartz%null%1,     Deepu%Madduri%null%1,     Aryeh%Stock%null%1,     Thomas U.%Marron%null%1,     Hui%Xie%null%1,     Manishkumar%Patel%null%1,     Kevin%Tuballes%null%1,     Oliver%Oekelen%null%1,     Adeeb%Rahman%null%1,     Patricia%Kovatch%null%1,     Judith A.%Aberg%null%1,     Eric%Schadt%null%1,     Sundar%Jagannath%null%1,     Madhu%Mazumdar%null%1,     Alexander W.%Charney%null%1,     Adolfo%Firpo-Betancourt%null%1,     Damodara Rao%Mendu%null%1,     Jeffrey%Jhang%null%1,     David%Reich%null%1,     Keith%Sigel%null%1,     Carlos%Cordon-Cardo%null%1,     Marc%Feldmann%null%1,     Samir%Parekh%null%1,     Miriam%Merad%null%1,     Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,             David R.%Jenkins%NULL%1,             Jatinder S.%Minhas%NULL%1,             Laura J.%Gray%NULL%1,             Julian%Tang%NULL%1,             Caroline%Williams%NULL%1,             Shirley%Sze%NULL%1,             Daniel%Pan%NULL%1,             William%Jones%NULL%1,             Raman%Verma%NULL%1,             Scott%Knapp%NULL%1,             Rupert%Major%NULL%1,             Melanie%Davies%NULL%1,             Nigel%Brunskill%NULL%1,             Martin%Wiselka%NULL%1,             Chris%Brightling%NULL%1,             Kamlesh%Khunti%NULL%1,             Pranab%Haldar%NULL%1,             Manish%Pareek%mp426@le.ac.uk%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,             Kelly E%Hathorn%NULL%2,             Kelly E%Hathorn%NULL%0,             Walker D%Redd%NULL%1,             Nicolette J%Rodriguez%NULL%1,             Joyce C%Zhou%NULL%1,             Ahmad Najdat%Bazarbashi%NULL%1,             Cheikh%Njie%NULL%1,             Danny%Wong%NULL%1,             Quoc-Dien%Trinh%NULL%1,             Lin%Shen%NULL%1,             Valerie E%Stone%NULL%2,             Valerie E%Stone%NULL%0,             Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,              S.% Apewokin%null%1,              A. A.% Wells%null%1,              A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,             Thomas E.%Webb%NULL%2,             Thomas E.%Webb%NULL%0,             Benjamin C.%Mcloughlin%NULL%2,             Benjamin C.%Mcloughlin%NULL%0,             Imran%Mannan%NULL%2,             Imran%Mannan%NULL%0,             Arshad%Rather%NULL%2,             Arshad%Rather%NULL%0,             Paul%Knopp%NULL%1,             Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,             Rajat%Suri%NULL%2,             Rajat%Suri%NULL%0,             Iheanacho O.%Emeruwa%NULL%2,             Iheanacho O.%Emeruwa%NULL%0,             Robert J.%Stretch%NULL%1,             Roxana Y.%Cortes-Lopez%NULL%2,             Roxana Y.%Cortes-Lopez%NULL%0,             Alexander%Sherman%NULL%1,             Catherine C.%Lindsay%NULL%1,             Jennifer A.%Fulcher%NULL%1,             David%Goodman-Meza%NULL%2,             David%Goodman-Meza%NULL%0,             Anil%Sapru%NULL%2,             Anil%Sapru%NULL%0,             Russell G.%Buhr%NULL%1,             Steven Y.%Chang%NULL%2,             Steven Y.%Chang%NULL%0,             Tisha%Wang%NULL%1,             Nida%Qadir%NULL%1,             Giordano%Madeddu%NULL%8,             Giordano%Madeddu%NULL%0,             Giordano%Madeddu%NULL%0,             Ana C.%Monteiro%NULL%2,             Ana C.%Monteiro%NULL%0,             Giordano%Madeddu%NULL%0,             Giordano%Madeddu%NULL%0,             Giordano%Madeddu%NULL%0,             Giordano%Madeddu%NULL%0,             Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,              D.% Stefanov%null%1,              A. S.% Chau%null%1,              A. G.% Weber%null%1,              G. S.% Marder%null%1,              B.% Kaplan%null%1,              P.% Malhotra%null%1,              O.% Bloom%null%1,              A.% Liu%null%1,              M.% Lesser%null%1,              N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,             Catherine A.%O’Donnell%NULL%2,             Bhautesh Dinesh%Jani%NULL%1,             Evangelia%Demou%NULL%1,             Frederick K.%Ho%NULL%1,             Carlos%Celis-Morales%NULL%1,             Barbara I.%Nicholl%NULL%1,             Frances S.%Mair%NULL%2,             Paul%Welsh%NULL%2,             Naveed%Sattar%NULL%2,             Jill P.%Pell%NULL%2,             S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,             Alex J%Walker%NULL%1,             Krishnan%Bhaskaran%NULL%1,             Seb%Bacon%NULL%1,             Chris%Bates%NULL%1,             Caroline E%Morton%NULL%1,             Helen J%Curtis%NULL%1,             Amir%Mehrkar%NULL%1,             David%Evans%NULL%1,             Peter%Inglesby%NULL%1,             Jonathan%Cockburn%NULL%1,             Helen I%McDonald%NULL%1,             Brian%MacKenna%NULL%1,             Laurie%Tomlinson%NULL%1,             Ian J%Douglas%NULL%1,             Christopher T%Rentsch%NULL%1,             Rohini%Mathur%NULL%1,             Angel YS%Wong%NULL%1,             Richard%Grieve%NULL%1,             David%Harrison%NULL%1,             Harriet%Forbes%NULL%1,             Anna%Schultze%NULL%2,             Richard%Croker%NULL%1,             John%Parry%NULL%1,             Frank%Hester%NULL%1,             Sam%Harper%NULL%1,             Rafael%Perera%NULL%1,             Stephen JW%Evans%NULL%1,             Liam%Smeeth%NULL%1,             Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,             Ajay%Bhasin%NULL%1,             Joseph M.%Feinglass%NULL%1,             Michael P.%Angarone%NULL%1,             Elaine R.%Cohen%NULL%1,             Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,       Zijun%Shen%xref no email%1,       Robert J.%Romanelli%xref no email%1,       Stephen H.%Lockhart%xref no email%1,       Kelly%Smits%xref no email%1,       Sarah%Robinson%xref no email%1,       Stephanie%Brown%xref no email%1,       Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,             Andrew%Gangemi%NULL%1,             Robert%Marron%NULL%1,             Junad%Chowdhury%NULL%1,             Ibraheem%Yousef%NULL%1,             Matthew%Zheng%NULL%1,             Nicole%Mills%NULL%1,             Lauren%Tragesser%NULL%1,             Julie%Giurintano%NULL%1,             Rohit%Gupta%NULL%0,             Matthew%Gordon%NULL%0,             Parth%Rali%NULL%2,             Parth%Rali%NULL%0,             Gilbert%D'Alonso%NULL%1,             David%Fleece%NULL%1,             Huaqing%Zhao%NULL%0,             Nicole%Patlakh%NULL%0,             Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,             Nathan C.%Skorodin%nskorodin@midcusa.com%1,             Nicholas W.%Van Hise%NULL%1,             Robert M.%Fliegelman%NULL%1,             Jonathan%Pinsky%NULL%1,             Vishal%Didwania%NULL%1,             Michael%Anderson%NULL%1,             Melina%Diaz%NULL%1,             Kairav%Shah%NULL%1,             Vishnu V.%Chundi%NULL%1,             David W.%Hines%NULL%1,             Brian P.%Harting%NULL%1,             Kamo%Sidwha%NULL%1,             Brian%Yu%NULL%1,             Paul%Brune%NULL%1,             Anjum%Owaisi%NULL%1,             David%Beezhold%NULL%1,             Joseph%Kent%NULL%1,             Dana%Vais%NULL%1,             Alice%Han%NULL%1,             Neethi%Gowda%NULL%1,             Nishi%Sahgal%NULL%1,             Jan%Silverman%NULL%1,             Jonathan%Stake%NULL%1,             Jenie%Nepomuceno%NULL%1,             Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,             Anna%Daunt%NULL%2,             Anna%Daunt%NULL%0,             Sujit%Mukherjee%NULL%1,             Peter%Crook%NULL%1,             Roberta%Forlano%NULL%1,             Mara D%Kont%NULL%1,             Alessandra%Løchen%NULL%1,             Michaela%Vollmer%NULL%1,             Paul%Middleton%NULL%1,             Rebekah%Judge%NULL%1,             Christopher%Harlow%NULL%1,             Anet%Soubieres%NULL%1,             Graham%Cooke%NULL%1,             Peter J%White%NULL%1,             Timothy B%Hallett%NULL%1,             Paul%Aylin%NULL%1,             Neil%Ferguson%NULL%1,             Katharina%Hauck%NULL%1,             Mark R%Thursz%NULL%1,             Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,             Jeffrey%Burton%NULL%2,             Jeffrey%Burton%NULL%0,             Daniel%Fort%NULL%1,             Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,             Michael S.%Sherman%NULL%1,             Naaz%Fatteh%NULL%1,             Fabio%Vogel%NULL%1,             Jamie%Sacks%NULL%1,             Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,              P.% Mannam%null%1,              R.% Comer%null%1,              E.% Sinclair%null%1,              D. B.% McQuaid%null%1,              M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,             Farah%Kidwai-Khan%NULL%1,             Janet P.%Tate%NULL%1,             Lesley S.%Park%NULL%1,             Joseph T.%King%NULL%1,             Melissa%Skanderson%NULL%1,             Ronald G.%Hauser%NULL%1,             Anna%Schultze%NULL%0,             Christopher I.%Jarvis%NULL%1,             Mark%Holodniy%NULL%1,             Vincent Lo%Re%NULL%1,             Kathleen M.%Akgün%NULL%1,             Kristina%Crothers%NULL%1,             Tamar H.%Taddei%NULL%1,             Matthew S.%Freiberg%NULL%1,             Amy C.%Justice%NULL%1,              C. T.%Rentsch%null%1,              F.% Kidwai-Khan%null%1,              J. P.% Tate%null%1,              L. S.% Park%null%1,              J. T.% King%null%1,              M.% Skanderson%null%1,              R. G.% Hauser%null%1,              A.% Schultze%null%1,              C. I.% Jarvis%null%1,              M.% Holodniy%null%1,              V.% Lo Re%null%1,              K. M.% Akgun%null%1,              K.% Crothers%null%1,              T. H.% Taddei%null%1,              M. S.% Freiberg%null%1,              A. C. % Justice%null%1,             C. T.%Rentsch%null%1,             F.% Kidwai-Khan%null%1,             J. P.% Tate%null%1,             L. S.% Park%null%1,             J. T.% King%null%1,             M.% Skanderson%null%1,             R. G.% Hauser%null%1,             A.% Schultze%null%1,             C. I.% Jarvis%null%1,             M.% Holodniy%null%1,             V.% Lo Re%null%1,             K. M.% Akgun%null%1,             K.% Crothers%null%1,             T. H.% Taddei%null%1,             M. S.% Freiberg%null%1,             A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,       Elizabeth M.%Dufort%xref no email%1,       Tomoko%Udo%xref no email%1,       Larissa A.%Wilberschied%xref no email%1,       Jessica%Kumar%xref no email%1,       James%Tesoriero%xref no email%1,       Patti%Weinberg%xref no email%1,       James%Kirkwood%xref no email%1,       Alison%Muse%xref no email%1,       Jack%DeHovitz%xref no email%1,       Debra S.%Blog%xref no email%1,       Brad%Hutton%xref no email%1,       David R.%Holtgrave%xref no email%1,       Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,             Jennifer%Beam%NULL%2,             Jennifer%Beam%NULL%0,             Haley%Maier%NULL%1,             Whitney%Haggerson%NULL%1,             Karen%Boudreau%NULL%1,             Jamie%Carlson%NULL%1,             Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,             Alexander E.%Ayala%NULL%1,             Chideraa C.%Ukeje%NULL%1,             Celeste S.%Witting%NULL%1,             William A.%Grobman%NULL%1,             Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,             Hannah C.%Jarvis%NULL%2,             Hannah C.%Jarvis%NULL%0,             Ezgi%Ozcan%NULL%1,             Thomas L. P.%Burns%NULL%1,             Rabia A.%Warraich%NULL%1,             Lisa J.%Amani%NULL%1,             Amina%Jaffer%NULL%1,             Stephanie%Paget%NULL%1,             Anand%Sivaramakrishnan%NULL%1,             Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,             Suzy%Gallier%NULL%2,             Suzy%Gallier%NULL%0,             Chris%Mainey%NULL%1,             Peter%Nightingale%NULL%2,             Peter%Nightingale%NULL%0,             David%McNulty%NULL%1,             Hannah%Crothers%NULL%1,             Felicity%Evison%NULL%1,             Katharine%Reeves%NULL%1,             Domenico%Pagano%NULL%1,             Alastair K%Denniston%NULL%1,             Krishnarajah%Nirantharakumar%NULL%1,             Peter%Diggle%NULL%1,             Simon%Ball%NULL%1,             Lylah%Irshad%NULL%1,             Maxim%Harris%NULL%1,             Theodore%Nabav%NULL%1,             A%Kolesnyk%NULL%1,             M%Ahmed%NULL%1,             A%Liaqat%NULL%1,             Tanya%Pankhurst%NULL%1,             Jamie%Coleman%NULL%1,             Chirag%Dave%NULL%1,             Khaled%ElFandi%NULL%1,             Rifat%Rashid%NULL%1,             Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,             Gregory A%Eschenauer%NULL%2,             Gregory A%Eschenauer%NULL%0,             Jonathan P%Troost%NULL%1,             Jonathan L%Golob%NULL%1,             Tejal N%Gandhi%NULL%1,             Lu%Wang%NULL%1,             Nina%Zhou%NULL%1,             Lindsay A%Petty%NULL%1,             Ji Hoon%Baang%NULL%1,             Nicholas O%Dillman%NULL%1,             David%Frame%NULL%1,             Kevin S%Gregg%NULL%1,             Dan R%Kaul%NULL%1,             Jerod%Nagel%NULL%1,             Twisha S%Patel%NULL%1,             Shiwei%Zhou%NULL%1,             Adam S%Lauring%NULL%1,             David A%Hanauer%NULL%1,             Emily%Martin%NULL%1,             Pratima%Sharma%NULL%1,             Christopher M%Fung%NULL%1,             Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,             Lei%Qian%NULL%2,             Lei%Qian%NULL%0,             Vennis%Hong%NULL%1,             Rong%Wei%NULL%2,             Rong%Wei%NULL%0,             Ron F.%Nadjafi%NULL%2,             Ron F.%Nadjafi%NULL%0,             Heidi%Fischer%NULL%1,             Zhuoxin%Li%NULL%1,             Sally F.%Shaw%NULL%1,             Susan L.%Caparosa%NULL%2,             Susan L.%Caparosa%NULL%0,             Claudia L.%Nau%NULL%1,             Tanmai%Saxena%NULL%1,             Gunter K.%Rieg%NULL%1,             Bradley K.%Ackerson%NULL%1,             Adam L.%Sharp%NULL%2,             Adam L.%Sharp%NULL%0,             Jacek%Skarbinski%NULL%2,             Jacek%Skarbinski%NULL%0,             Tej K.%Naik%NULL%1,             Sameer B.%Murali%NULL%2,             Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,             Juan Carlos%Nicolas%NULL%2,             Juan Carlos%Nicolas%NULL%0,             Jennifer R%Meeks%NULL%1,             Osman%Khan%NULL%1,             Alan%Pan%NULL%1,             Stephen L%Jones%NULL%1,             Faisal%Masud%NULL%1,             H Dirk%Sostman%NULL%1,             Robert%Phillips%NULL%1,             Julia D%Andrieni%NULL%1,             Bita A%Kash%NULL%1,             Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,             Arryn%Craney%NULL%1,             Phyllis%Ruggiero%NULL%1,             John%Sipley%NULL%1,             Lin%Cong%NULL%1,             Erika M.%Hissong%NULL%1,             Massimo%Loda%NULL%1,             Lars F.%Westblade%NULL%1,             Melissa%Cushing%NULL%2,             Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,              X.% Zhong%null%1,              Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,             Amanda%Zheutlin%NULL%2,             Amanda%Zheutlin%NULL%0,             Yu-Han%Kao%NULL%1,             Kristin%Ayers%NULL%1,             Susan%Gross%NULL%1,             Patricia%Kovatch%NULL%1,             Sharon%Nirenberg%NULL%1,             Alexander%Charney%NULL%1,             Girish%Nadkarni%NULL%1,             Jessica K%De Freitas%NULL%1,             Paul%O’Reilly%NULL%1,             Allan%Just%NULL%1,             Carol%Horowitz%NULL%1,             Glenn%Martin%NULL%1,             Andrea%Branch%NULL%1,             Benjamin S%Glicksberg%NULL%1,             Dennis%Charney%NULL%1,             David%Reich%NULL%1,             William K%Oh%NULL%1,             Eric%Schadt%NULL%1,             Rong%Chen%NULL%0,             Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,             Angela%Winegar%NULL%1,             Richard%Fogel%NULL%1,             Mohamad%Fakih%NULL%1,             Allison%Ottenbacher%NULL%1,             Christine%Jesser%NULL%1,             Angelo%Bufalino%NULL%1,             Ren-Huai%Huang%NULL%1,             Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,             Rebecca%Bendayan%NULL%0,             Mark%Ashworth%NULL%1,             Daniel M.%Bean%NULL%1,             Hiten%Dodhia%NULL%1,             Stevo%Durbaba%NULL%1,             Kevin%O'Gallagher%NULL%1,             Claire%Palmer%NULL%1,             Vasa%Curcin%NULL%1,             Elizabeth%Aitken%NULL%1,             William%Bernal%NULL%1,             Richard D.%Barker%NULL%1,             Sam%Norton%NULL%1,             Martin%Gulliford%NULL%1,             James T.H.%Teo%NULL%0,             James%Galloway%NULL%1,             Richard J.B.%Dobson%NULL%0,             Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,             Carina%Marquez%NULL%1,             Emily%Crawford%NULL%1,             James%Peng%NULL%1,             Maya%Petersen%NULL%1,             Daniel%Schwab%NULL%1,             Joshua%Schwab%NULL%1,             Jackie%Martinez%NULL%1,             Diane%Jones%NULL%1,             Douglas%Black%NULL%1,             Monica%Gandhi%NULL%1,             Andrew D%Kerkhoff%NULL%1,             Vivek%Jain%NULL%1,             Francesco%Sergi%NULL%1,             Jon%Jacobo%NULL%1,             Susana%Rojas%NULL%1,             Valerie%Tulier-Laiwa%NULL%1,             Tracy%Gallardo-Brown%NULL%1,             Ayesha%Appa%NULL%1,             Charles%Chiu%NULL%1,             Mary%Rodgers%NULL%1,             John%Hackett%NULL%1,             NULL%NULL%NULL%0,             Amy%Kistler%NULL%1,             Samantha%Hao%NULL%1,             Jack%Kamm%NULL%1,             David%Dynerman%NULL%1,             Joshua%Batson%NULL%1,             Bryan%Greenhouse%NULL%1,             Joe%DeRisi%NULL%1,             Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,             Tiffany%Grimes%NULL%1,             Peng%Li%NULL%1,             Matthew%Might%NULL%1,             Fernando%Ovalle%NULL%1,             Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,             Natalie%Achamallah%NULL%1,             Hongwei%Ji%NULL%1,             Brian L.%Claggett%NULL%1,             Nancy%Sun%NULL%1,             Patrick%Botting%NULL%1,             Trevor-Trung%Nguyen%NULL%1,             Eric%Luong%NULL%1,             Elizabeth H.%Kim%NULL%1,             Eunice%Park%NULL%1,             Yunxian%Liu%NULL%1,             Ryan%Rosenberry%NULL%1,             Yuri%Matusov%NULL%1,             Steven%Zhao%NULL%1,             Isabel%Pedraza%NULL%1,             Tanzira%Zaman%NULL%1,             Michael%Thompson%NULL%1,             Koen%Raedschelders%NULL%1,             Anders H.%Berg%NULL%2,             Anders H.%Berg%NULL%0,             Jonathan D.%Grein%NULL%1,             Paul W.%Noble%NULL%1,             Sumeet S.%Chugh%NULL%1,             C. Noel%Bairey Merz%NULL%1,             Eduardo%Marbán%NULL%1,             Jennifer E.%Van Eyk%NULL%1,             Scott D.%Solomon%NULL%1,             Christine M.%Albert%NULL%1,             Peter%Chen%NULL%1,             Susan%Cheng%NULL%3,             Yu Ru%Kou%NULL%8,             Yu Ru%Kou%NULL%0,             Yu Ru%Kou%NULL%0,             Susan%Cheng%biodatacore@cshs.org%0,             Susan%Cheng%biodatacore@cshs.org%0,             Yu Ru%Kou%NULL%0,             Yu Ru%Kou%NULL%0,             Yu Ru%Kou%NULL%0,             Yu Ru%Kou%NULL%0,             Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,             Penelope%Strid%NULL%1,             Van T.%Tong%NULL%1,             Kate%Woodworth%NULL%1,             Romeo R.%Galang%NULL%1,             Laura D.%Zambrano%NULL%1,             John%Nahabedian%NULL%1,             Kayla%Anderson%NULL%1,             Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,             Jacob%Fiksel%NULL%2,             Jacob%Fiksel%NULL%0,             John%Muschelli%NULL%2,             John%Muschelli%NULL%0,             Matthew L.%Robinson%NULL%2,             Matthew L.%Robinson%NULL%0,             Masoud%Rouhizadeh%NULL%2,             Masoud%Rouhizadeh%NULL%0,             Jamie%Perin%NULL%2,             Jamie%Perin%NULL%0,             Grant%Schumock%NULL%2,             Grant%Schumock%NULL%0,             Paul%Nagy%NULL%2,             Paul%Nagy%NULL%0,             Josh H.%Gray%NULL%2,             Josh H.%Gray%NULL%0,             Harsha%Malapati%NULL%2,             Harsha%Malapati%NULL%0,             Mariam%Ghobadi-Krueger%NULL%2,             Mariam%Ghobadi-Krueger%NULL%0,             Timothy M.%Niessen%NULL%1,             Bo Soo%Kim%NULL%1,             Peter M.%Hill%NULL%1,             M. Shafeeq%Ahmed%NULL%1,             Eric D.%Dobkin%NULL%1,             Renee%Blanding%NULL%1,             Jennifer%Abele%NULL%1,             Bonnie%Woods%NULL%1,             Kenneth%Harkness%NULL%1,             David R.%Thiemann%NULL%1,             Mary G.%Bowring%NULL%1,             Aalok B.%Shah%NULL%2,             Aalok B.%Shah%NULL%0,             Mei-Cheng%Wang%NULL%1,             Karen%Bandeen-Roche%NULL%1,             Antony%Rosen%NULL%1,             Scott L.%Zeger%NULL%2,             Scott L.%Zeger%NULL%0,             Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,             Megan%McCullough%NULL%0,             Megan%McCullough%NULL%0,             Michael A.%Fuery%NULL%0,             Fouad%Chouairi%NULL%0,             Fouad%Chouairi%NULL%0,             Craig%Keating%NULL%0,             Neal G.%Ravindra%NULL%0,             P. Elliott%Miller%NULL%0,             Maricar%Malinis%NULL%0,             Nitu%Kashyap%NULL%0,             Allen%Hsiao%NULL%0,             F. Perry%Wilson%NULL%0,             Jeptha P.%Curtis%NULL%0,             Matthew%Grant%NULL%0,             Eric J.%Velazquez%NULL%0,             Nihar R.%Desai%NULL%0,             Tariq%Ahmad%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3491,13 +3638,13 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
         <v>78</v>
@@ -3520,7 +3667,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>777</v>
+        <v>826</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -3549,7 +3696,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>778</v>
+        <v>827</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -3578,7 +3725,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>779</v>
+        <v>828</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -3607,7 +3754,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>780</v>
+        <v>829</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3636,13 +3783,13 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>781</v>
+        <v>830</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H7" t="s">
         <v>102</v>
@@ -3665,7 +3812,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>782</v>
+        <v>831</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -3694,13 +3841,13 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>783</v>
+        <v>832</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
         <v>110</v>
@@ -3723,13 +3870,13 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>784</v>
+        <v>833</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H10" t="s">
         <v>114</v>
@@ -3752,7 +3899,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>785</v>
+        <v>834</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -3781,7 +3928,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>786</v>
+        <v>835</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -3810,7 +3957,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>787</v>
+        <v>836</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -3839,7 +3986,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>788</v>
+        <v>837</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -3868,7 +4015,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>789</v>
+        <v>838</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -3897,7 +4044,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>790</v>
+        <v>839</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -3926,13 +4073,13 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>791</v>
+        <v>840</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H17" t="s">
         <v>144</v>
@@ -3955,7 +4102,7 @@
         <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>792</v>
+        <v>841</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -3984,7 +4131,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>793</v>
+        <v>842</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -4013,13 +4160,13 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>794</v>
+        <v>843</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H20" t="s">
         <v>158</v>
@@ -4042,7 +4189,7 @@
         <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>795</v>
+        <v>844</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -4071,7 +4218,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>796</v>
+        <v>845</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -4100,7 +4247,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>797</v>
+        <v>846</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -4129,7 +4276,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>798</v>
+        <v>847</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -4158,7 +4305,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>799</v>
+        <v>848</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -4187,7 +4334,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>800</v>
+        <v>849</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -4216,7 +4363,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>801</v>
+        <v>850</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -4245,7 +4392,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>802</v>
+        <v>851</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -4274,7 +4421,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>803</v>
+        <v>852</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -4303,13 +4450,13 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>804</v>
+        <v>853</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H30" t="s">
         <v>198</v>
@@ -4332,7 +4479,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -4361,7 +4508,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>806</v>
+        <v>855</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -4390,7 +4537,7 @@
         <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>807</v>
+        <v>856</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -4419,7 +4566,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -4448,7 +4595,7 @@
         <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>809</v>
+        <v>858</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -4477,7 +4624,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>810</v>
+        <v>859</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -4506,7 +4653,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>811</v>
+        <v>860</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -4535,7 +4682,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>812</v>
+        <v>861</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -4564,7 +4711,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>813</v>
+        <v>862</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -4593,7 +4740,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>814</v>
+        <v>863</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -4622,13 +4769,13 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>815</v>
+        <v>864</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H41" t="s">
         <v>244</v>
@@ -4651,7 +4798,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>816</v>
+        <v>865</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -4680,7 +4827,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>817</v>
+        <v>866</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -4709,7 +4856,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>818</v>
+        <v>867</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -4738,7 +4885,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>819</v>
+        <v>868</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -4767,7 +4914,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>820</v>
+        <v>869</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -4796,7 +4943,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -4825,7 +4972,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>822</v>
+        <v>871</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -4854,7 +5001,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>823</v>
+        <v>872</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -4883,7 +5030,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>824</v>
+        <v>873</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4965" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="923">
   <si>
     <t>Doi</t>
   </si>
@@ -3231,6 +3231,153 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,             Megan%McCullough%NULL%0,             Megan%McCullough%NULL%0,             Michael A.%Fuery%NULL%0,             Fouad%Chouairi%NULL%0,             Fouad%Chouairi%NULL%0,             Craig%Keating%NULL%0,             Neal G.%Ravindra%NULL%0,             P. Elliott%Miller%NULL%0,             Maricar%Malinis%NULL%0,             Nitu%Kashyap%NULL%0,             Allen%Hsiao%NULL%0,             F. Perry%Wilson%NULL%0,             Jeptha P.%Curtis%NULL%0,             Matthew%Grant%NULL%0,             Eric J.%Velazquez%NULL%0,             Nihar R.%Desai%NULL%0,             Tariq%Ahmad%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0,             Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,               R. U.% Shah%null%1,               M.% Bale%null%1,               J. B.% Peacock%null%1,               B.% Berger%null%1,               A.% Brown%null%1,               S.% Mann%null%1,               W.% West%null%1,               V.% Martin%null%1,               V.% Fernandez%null%1,               S.% Grineski%null%1,               B. J.% Brintz%null%1,               M. H.% Samore%null%1,               M. J.% Ferrari%null%1,               D. T.% Leung%null%1,               L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,              Samuel L%Bruce%NULL%1,              Cody L%Slater%NULL%1,              Jonathan R%Tiao%NULL%1,              Matthew R%Baldwin%NULL%1,              R Graham%Barr%NULL%1,              Bernard P%Chang%NULL%1,              Katherine H%Chau%NULL%1,              Justin J%Choi%NULL%1,              Nicholas%Gavin%NULL%1,              Parag%Goyal%NULL%1,              Angela M%Mills%NULL%1,              Ashmi A%Patel%NULL%1,              Marie-Laure S%Romney%NULL%1,              Monika M%Safford%NULL%1,              Neil W%Schluger%NULL%1,              Soumitra%Sengupta%NULL%1,              Magdalena E%Sobieszczyk%NULL%1,              Jason E%Zucker%NULL%1,              Paul A%Asadourian%NULL%1,              Fletcher M%Bell%NULL%1,              Rebekah%Boyd%NULL%1,              Matthew F%Cohen%NULL%1,              MacAlistair I%Colquhoun%NULL%1,              Lucy A%Colville%NULL%1,              Joseph H%de Jonge%NULL%1,              Lyle B%Dershowitz%NULL%1,              Shirin A%Dey%NULL%1,              Katherine A%Eiseman%NULL%1,              Zachary P%Girvin%NULL%1,              Daniella T%Goni%NULL%1,              Amro A%Harb%NULL%1,              Nicholas%Herzik%NULL%1,              Sarah%Householder%NULL%1,              Lara E%Karaaslan%NULL%1,              Heather%Lee%NULL%1,              Evan%Lieberman%NULL%1,              Andrew%Ling%NULL%1,              Ree%Lu%NULL%1,              Arthur Y%Shou%NULL%1,              Alexander C%Sisti%NULL%1,              Zachary E%Snow%NULL%1,              Colin P%Sperring%NULL%1,              Yuqing%Xiong%NULL%1,              Henry W%Zhou%NULL%1,              Karthik%Natarajan%NULL%1,              George%Hripcsak%NULL%1,              Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,              Megan%McCullough%NULL%4,              Megan%McCullough%NULL%0,              Michael A.%Fuery%NULL%2,              Fouad%Chouairi%NULL%4,              Fouad%Chouairi%NULL%0,              Craig%Keating%NULL%2,              Neal G.%Ravindra%NULL%2,              P. Elliott%Miller%NULL%2,              Maricar%Malinis%NULL%2,              Nitu%Kashyap%NULL%2,              Allen%Hsiao%NULL%2,              F. Perry%Wilson%NULL%2,              Jeptha P.%Curtis%NULL%2,              Matthew%Grant%NULL%2,              Eric J.%Velazquez%NULL%2,              Nihar R.%Desai%NULL%2,              Tariq%Ahmad%NULL%2,              Chiara%Lazzeri%NULL%18,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,              Karen K.%Wong%NULL%1,              Christine M.%Szablewski%NULL%1,              Priti R.%Patel%NULL%1,              John%Rossow%NULL%1,              Juliana%da Silva%NULL%1,              Pavithra%Natarajan%NULL%1,              Sapna Bamrah%Morris%NULL%1,              Robyn Neblett%Fanfair%NULL%1,              Jessica%Rogers-Brown%NULL%1,              Beau B.%Bruce%NULL%1,              Sean D.%Browning%NULL%1,              Alfonso C.%Hernandez-Romieu%NULL%2,              Nathan W.%Furukawa%NULL%1,              Mohleen%Kang%NULL%1,              Mary E.%Evans%NULL%1,              Nadine%Oosmanally%NULL%1,              Melissa%Tobin-D’Angelo%NULL%1,              Cherie%Drenzek%NULL%1,              David J.%Murphy%NULL%0,              Julie%Hollberg%NULL%1,              James M.%Blum%NULL%0,              Robert%Jansen%NULL%1,              David W.%Wright%NULL%1,              William M.%Sewell%NULL%1,              Jack D.%Owens%NULL%1,              Benjamin%Lefkove%NULL%1,              Frank W.%Brown%NULL%1,              Deron C.%Burton%NULL%1,              Timothy M.%Uyeki%NULL%3,              Stephanie R.%Bialek%NULL%1,              Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,              Jasmine A.%Mack%NULL%1,              Maxwell%Salvatore%NULL%1,              Swaraaj Prabhu%Sankar%NULL%1,              Thomas S.%Valley%NULL%1,              Karandeep%Singh%NULL%1,              Brahmajee K.%Nallamothu%NULL%1,              Sachin%Kheterpal%NULL%1,              Lynda%Lisabeth%NULL%1,              Lars G.%Fritsche%NULL%1,              Bhramar%Mukherjee%NULL%1,               T.%Gu%null%1,               J. A.% Mack%null%1,               M.% Salvatore%null%1,               S. P.% Sankar%null%1,               T. S.% Valley%null%1,               K.% Singh%null%1,               B. K.% Nallamothu%null%1,               S.% Kheterpal%null%1,               L.% Lisabeth%null%1,               L. G.% Fritsche%null%1,               B. G. % Mukherjee%null%1,              T.%Gu%null%1,              J. A.% Mack%null%1,              M.% Salvatore%null%1,              S. P.% Sankar%null%1,              T. S.% Valley%null%1,              K.% Singh%null%1,              B. K.% Nallamothu%null%1,              S.% Kheterpal%null%1,              L.% Lisabeth%null%1,              L. G.% Fritsche%null%1,              B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,               S.% Nirenberg%null%1,               P.% Kovatch%null%1,               K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,              Shikha%Garg%NULL%1,              Alissa%O’Halloran%NULL%1,              Michael%Whitaker%NULL%1,              Huong%Pham%NULL%1,              Evan J%Anderson%NULL%1,              Isaac%Armistead%NULL%1,              Nancy M%Bennett%NULL%1,              Laurie%Billing%NULL%1,              Kathryn%Como-Sabetti%NULL%1,              Mary%Hill%NULL%1,              Sue%Kim%NULL%1,              Maya L%Monroe%NULL%1,              Alison%Muse%NULL%1,              Arthur L%Reingold%NULL%1,              William%Schaffner%NULL%1,              Melissa%Sutton%NULL%1,              H Keipp%Talbot%NULL%1,              Salina M%Torres%NULL%1,              Kimberly%Yousey-Hindes%NULL%1,              Rachel%Holstein%NULL%1,              Charisse%Cummings%NULL%1,              Lynette%Brammer%NULL%1,              Aron J%Hall%NULL%1,              Alicia M%Fry%NULL%1,              Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,               S.% Richardson%null%1,               K.% Coppa%null%1,               D. P.% Barnaby%null%1,               T.% McGinn%null%1,               L. B.% Becker%null%1,               K. W.% Davidson%null%1,               S. L.% Cohen%null%1,               J. S.% Hirsch%null%1,               T.% Zanos%null%1,                 % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,               L. H.% Nguyen%null%1,               D. A.% Drew%null%1,               M. S.% Graham%null%1,               E. T.% Warner%null%1,               A. D.% Joshi%null%1,               C. M.% Astley%null%1,               C.-G.% Guo%null%1,               W.% Ma%null%1,               R. S.% Mehta%null%1,               S.% Kwon%null%1,               M.% Song%null%1,               R.% Davies%null%1,               J.% Capdevila%null%1,               K. A.% Lee%null%1,               M. N.% Lochlainn%null%1,               T.% Varsavsky%null%1,               C. H.% Sudre%null%1,               J.% Wolf%null%1,               Y. C.% Cozier%null%1,               L.% Rosenberg%null%1,               L. R.% Wilkens%null%1,               C. A.% Haiman%null%1,               L. L.% Marchand%null%1,               J. R.% Palmer%null%1,               T. D.% Spector%null%1,               S.% Ourselin%null%1,               C. J.% Steves%null%1,               A. T.% Chan%null%1,                 % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,              Jienchi%Dorward%NULL%1,              Ana%Correa%NULL%1,              Nicholas%Jones%NULL%1,              Oluwafunmi%Akinyemi%NULL%1,              Gayatri%Amirthalingam%NULL%1,              Nick%Andrews%NULL%1,              Rachel%Byford%NULL%1,              Gavin%Dabrera%NULL%1,              Alex%Elliot%NULL%1,              Joanna%Ellis%NULL%0,              Filipa%Ferreira%NULL%1,              Jamie%Lopez Bernal%NULL%1,              Cecilia%Okusi%NULL%1,              Mary%Ramsay%NULL%1,              Julian%Sherlock%NULL%1,              Gillian%Smith%NULL%1,              John%Williams%NULL%1,              Gary%Howsam%NULL%1,              Maria%Zambon%NULL%0,              Mark%Joy%NULL%1,              F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,              Johanna%Dolle%NULL%2,              Johanna%Dolle%NULL%0,              Sheila%Grami%NULL%1,              Richard%Adule%NULL%1,              Zeyu%Li%NULL%1,              Kathleen%Tatem%NULL%1,              Chinyere%Anyaogu%NULL%1,              Stephen%Apfelroth%NULL%1,              Raji%Ayinla%NULL%2,              Raji%Ayinla%NULL%0,              Noella%Boma%NULL%1,              Terence%Brady%NULL%1,              Braulio F.%Cosme-Thormann%NULL%1,              Roseann%Costarella%NULL%1,              Kenra%Ford%NULL%1,              Kecia%Gaither%NULL%1,              Jessica%Jacobson%NULL%1,              Marc%Kanter%NULL%1,              Stuart%Kessler%NULL%1,              Ross B.%Kristal%NULL%1,              Joseph J.%Lieber%NULL%1,              Vikramjit%Mukherjee%NULL%1,              Vincent%Rizzo%NULL%1,              Madden%Rowell%NULL%1,              David%Stevens%NULL%1,              Elana%Sydney%NULL%1,              Andrew%Wallach%NULL%2,              Andrew%Wallach%NULL%0,              Dave A.%Chokshi%NULL%1,              Nichola%Davis%NULL%1,              NULL%NULL%NULL%0,              Sze Yan%Liu%NULL%2,              Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,              Mark%Caridi-Scheible%NULL%0,              James M.%Blum%NULL%0,              Chad%Robichaux%NULL%1,              Colleen%Kraft%NULL%1,              Jesse T.%Jacob%NULL%1,              Craig S.%Jabaley%NULL%0,              David%Carpenter%NULL%1,              Roberta%Kaplow%NULL%1,              Alfonso C.%Hernandez-Romieu%NULL%0,              Max W.%Adelman%NULL%0,              Greg S.%Martin%NULL%0,              Craig M.%Coopersmith%NULL%1,              David J.%Murphy%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,      Seunghee%Kim-Schulze%null%1,      Hsin-Hui%Huang%null%1,      Noam D.%Beckmann%null%1,      Sharon%Nirenberg%null%1,      Bo%Wang%null%1,      Yonit%Lavin%null%1,      Talia H.%Swartz%null%1,      Deepu%Madduri%null%1,      Aryeh%Stock%null%1,      Thomas U.%Marron%null%1,      Hui%Xie%null%1,      Manishkumar%Patel%null%1,      Kevin%Tuballes%null%1,      Oliver%Oekelen%null%1,      Adeeb%Rahman%null%1,      Patricia%Kovatch%null%1,      Judith A.%Aberg%null%1,      Eric%Schadt%null%1,      Sundar%Jagannath%null%1,      Madhu%Mazumdar%null%1,      Alexander W.%Charney%null%1,      Adolfo%Firpo-Betancourt%null%1,      Damodara Rao%Mendu%null%1,      Jeffrey%Jhang%null%1,      David%Reich%null%1,      Keith%Sigel%null%1,      Carlos%Cordon-Cardo%null%1,      Marc%Feldmann%null%1,      Samir%Parekh%null%1,      Miriam%Merad%null%1,      Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,              David R.%Jenkins%NULL%1,              Jatinder S.%Minhas%NULL%1,              Laura J.%Gray%NULL%1,              Julian%Tang%NULL%1,              Caroline%Williams%NULL%1,              Shirley%Sze%NULL%1,              Daniel%Pan%NULL%1,              William%Jones%NULL%1,              Raman%Verma%NULL%1,              Scott%Knapp%NULL%1,              Rupert%Major%NULL%1,              Melanie%Davies%NULL%1,              Nigel%Brunskill%NULL%1,              Martin%Wiselka%NULL%1,              Chris%Brightling%NULL%1,              Kamlesh%Khunti%NULL%1,              Pranab%Haldar%NULL%1,              Manish%Pareek%mp426@le.ac.uk%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,              Kelly E%Hathorn%NULL%2,              Kelly E%Hathorn%NULL%0,              Walker D%Redd%NULL%1,              Nicolette J%Rodriguez%NULL%1,              Joyce C%Zhou%NULL%1,              Ahmad Najdat%Bazarbashi%NULL%1,              Cheikh%Njie%NULL%1,              Danny%Wong%NULL%1,              Quoc-Dien%Trinh%NULL%1,              Lin%Shen%NULL%1,              Valerie E%Stone%NULL%2,              Valerie E%Stone%NULL%0,              Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,               S.% Apewokin%null%1,               A. A.% Wells%null%1,               A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,              Thomas E.%Webb%NULL%2,              Thomas E.%Webb%NULL%0,              Benjamin C.%Mcloughlin%NULL%2,              Benjamin C.%Mcloughlin%NULL%0,              Imran%Mannan%NULL%2,              Imran%Mannan%NULL%0,              Arshad%Rather%NULL%2,              Arshad%Rather%NULL%0,              Paul%Knopp%NULL%1,              Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,              Rajat%Suri%NULL%2,              Rajat%Suri%NULL%0,              Iheanacho O.%Emeruwa%NULL%2,              Iheanacho O.%Emeruwa%NULL%0,              Robert J.%Stretch%NULL%1,              Roxana Y.%Cortes-Lopez%NULL%2,              Roxana Y.%Cortes-Lopez%NULL%0,              Alexander%Sherman%NULL%1,              Catherine C.%Lindsay%NULL%1,              Jennifer A.%Fulcher%NULL%1,              David%Goodman-Meza%NULL%2,              David%Goodman-Meza%NULL%0,              Anil%Sapru%NULL%2,              Anil%Sapru%NULL%0,              Russell G.%Buhr%NULL%1,              Steven Y.%Chang%NULL%2,              Steven Y.%Chang%NULL%0,              Tisha%Wang%NULL%1,              Nida%Qadir%NULL%1,              Giordano%Madeddu%NULL%8,              Giordano%Madeddu%NULL%0,              Giordano%Madeddu%NULL%0,              Ana C.%Monteiro%NULL%2,              Ana C.%Monteiro%NULL%0,              Giordano%Madeddu%NULL%0,              Giordano%Madeddu%NULL%0,              Giordano%Madeddu%NULL%0,              Giordano%Madeddu%NULL%0,              Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,               D.% Stefanov%null%1,               A. S.% Chau%null%1,               A. G.% Weber%null%1,               G. S.% Marder%null%1,               B.% Kaplan%null%1,               P.% Malhotra%null%1,               O.% Bloom%null%1,               A.% Liu%null%1,               M.% Lesser%null%1,               N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,              Catherine A.%O’Donnell%NULL%2,              Bhautesh Dinesh%Jani%NULL%1,              Evangelia%Demou%NULL%1,              Frederick K.%Ho%NULL%1,              Carlos%Celis-Morales%NULL%1,              Barbara I.%Nicholl%NULL%1,              Frances S.%Mair%NULL%2,              Paul%Welsh%NULL%2,              Naveed%Sattar%NULL%2,              Jill P.%Pell%NULL%2,              S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,              Alex J%Walker%NULL%1,              Krishnan%Bhaskaran%NULL%1,              Seb%Bacon%NULL%1,              Chris%Bates%NULL%1,              Caroline E%Morton%NULL%1,              Helen J%Curtis%NULL%1,              Amir%Mehrkar%NULL%1,              David%Evans%NULL%1,              Peter%Inglesby%NULL%1,              Jonathan%Cockburn%NULL%1,              Helen I%McDonald%NULL%1,              Brian%MacKenna%NULL%1,              Laurie%Tomlinson%NULL%1,              Ian J%Douglas%NULL%1,              Christopher T%Rentsch%NULL%1,              Rohini%Mathur%NULL%1,              Angel YS%Wong%NULL%1,              Richard%Grieve%NULL%1,              David%Harrison%NULL%1,              Harriet%Forbes%NULL%1,              Anna%Schultze%NULL%2,              Richard%Croker%NULL%1,              John%Parry%NULL%1,              Frank%Hester%NULL%1,              Sam%Harper%NULL%1,              Rafael%Perera%NULL%1,              Stephen JW%Evans%NULL%1,              Liam%Smeeth%NULL%1,              Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,              Ajay%Bhasin%NULL%1,              Joseph M.%Feinglass%NULL%1,              Michael P.%Angarone%NULL%1,              Elaine R.%Cohen%NULL%1,              Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,        Zijun%Shen%xref no email%1,        Robert J.%Romanelli%xref no email%1,        Stephen H.%Lockhart%xref no email%1,        Kelly%Smits%xref no email%1,        Sarah%Robinson%xref no email%1,        Stephanie%Brown%xref no email%1,        Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,              Andrew%Gangemi%NULL%1,              Robert%Marron%NULL%1,              Junad%Chowdhury%NULL%1,              Ibraheem%Yousef%NULL%1,              Matthew%Zheng%NULL%1,              Nicole%Mills%NULL%1,              Lauren%Tragesser%NULL%1,              Julie%Giurintano%NULL%1,              Rohit%Gupta%NULL%0,              Matthew%Gordon%NULL%0,              Parth%Rali%NULL%2,              Parth%Rali%NULL%0,              Gilbert%D'Alonso%NULL%1,              David%Fleece%NULL%1,              Huaqing%Zhao%NULL%0,              Nicole%Patlakh%NULL%0,              Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,              Nathan C.%Skorodin%nskorodin@midcusa.com%1,              Nicholas W.%Van Hise%NULL%1,              Robert M.%Fliegelman%NULL%1,              Jonathan%Pinsky%NULL%1,              Vishal%Didwania%NULL%1,              Michael%Anderson%NULL%1,              Melina%Diaz%NULL%1,              Kairav%Shah%NULL%1,              Vishnu V.%Chundi%NULL%1,              David W.%Hines%NULL%1,              Brian P.%Harting%NULL%1,              Kamo%Sidwha%NULL%1,              Brian%Yu%NULL%1,              Paul%Brune%NULL%1,              Anjum%Owaisi%NULL%1,              David%Beezhold%NULL%1,              Joseph%Kent%NULL%1,              Dana%Vais%NULL%1,              Alice%Han%NULL%1,              Neethi%Gowda%NULL%1,              Nishi%Sahgal%NULL%1,              Jan%Silverman%NULL%1,              Jonathan%Stake%NULL%1,              Jenie%Nepomuceno%NULL%1,              Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,              Anna%Daunt%NULL%2,              Anna%Daunt%NULL%0,              Sujit%Mukherjee%NULL%1,              Peter%Crook%NULL%1,              Roberta%Forlano%NULL%1,              Mara D%Kont%NULL%1,              Alessandra%Løchen%NULL%1,              Michaela%Vollmer%NULL%1,              Paul%Middleton%NULL%1,              Rebekah%Judge%NULL%1,              Christopher%Harlow%NULL%1,              Anet%Soubieres%NULL%1,              Graham%Cooke%NULL%1,              Peter J%White%NULL%1,              Timothy B%Hallett%NULL%1,              Paul%Aylin%NULL%1,              Neil%Ferguson%NULL%1,              Katharina%Hauck%NULL%1,              Mark R%Thursz%NULL%1,              Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,              Jeffrey%Burton%NULL%2,              Jeffrey%Burton%NULL%0,              Daniel%Fort%NULL%1,              Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,              Michael S.%Sherman%NULL%1,              Naaz%Fatteh%NULL%1,              Fabio%Vogel%NULL%1,              Jamie%Sacks%NULL%1,              Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,               P.% Mannam%null%1,               R.% Comer%null%1,               E.% Sinclair%null%1,               D. B.% McQuaid%null%1,               M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,              Farah%Kidwai-Khan%NULL%1,              Janet P.%Tate%NULL%1,              Lesley S.%Park%NULL%1,              Joseph T.%King%NULL%1,              Melissa%Skanderson%NULL%1,              Ronald G.%Hauser%NULL%1,              Anna%Schultze%NULL%0,              Christopher I.%Jarvis%NULL%1,              Mark%Holodniy%NULL%1,              Vincent Lo%Re%NULL%1,              Kathleen M.%Akgün%NULL%1,              Kristina%Crothers%NULL%1,              Tamar H.%Taddei%NULL%1,              Matthew S.%Freiberg%NULL%1,              Amy C.%Justice%NULL%1,               C. T.%Rentsch%null%1,               F.% Kidwai-Khan%null%1,               J. P.% Tate%null%1,               L. S.% Park%null%1,               J. T.% King%null%1,               M.% Skanderson%null%1,               R. G.% Hauser%null%1,               A.% Schultze%null%1,               C. I.% Jarvis%null%1,               M.% Holodniy%null%1,               V.% Lo Re%null%1,               K. M.% Akgun%null%1,               K.% Crothers%null%1,               T. H.% Taddei%null%1,               M. S.% Freiberg%null%1,               A. C. % Justice%null%1,              C. T.%Rentsch%null%1,              F.% Kidwai-Khan%null%1,              J. P.% Tate%null%1,              L. S.% Park%null%1,              J. T.% King%null%1,              M.% Skanderson%null%1,              R. G.% Hauser%null%1,              A.% Schultze%null%1,              C. I.% Jarvis%null%1,              M.% Holodniy%null%1,              V.% Lo Re%null%1,              K. M.% Akgun%null%1,              K.% Crothers%null%1,              T. H.% Taddei%null%1,              M. S.% Freiberg%null%1,              A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,        Elizabeth M.%Dufort%xref no email%1,        Tomoko%Udo%xref no email%1,        Larissa A.%Wilberschied%xref no email%1,        Jessica%Kumar%xref no email%1,        James%Tesoriero%xref no email%1,        Patti%Weinberg%xref no email%1,        James%Kirkwood%xref no email%1,        Alison%Muse%xref no email%1,        Jack%DeHovitz%xref no email%1,        Debra S.%Blog%xref no email%1,        Brad%Hutton%xref no email%1,        David R.%Holtgrave%xref no email%1,        Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,              Jennifer%Beam%NULL%2,              Jennifer%Beam%NULL%0,              Haley%Maier%NULL%1,              Whitney%Haggerson%NULL%1,              Karen%Boudreau%NULL%1,              Jamie%Carlson%NULL%1,              Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,              Alexander E.%Ayala%NULL%1,              Chideraa C.%Ukeje%NULL%1,              Celeste S.%Witting%NULL%1,              William A.%Grobman%NULL%1,              Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,              Hannah C.%Jarvis%NULL%2,              Hannah C.%Jarvis%NULL%0,              Ezgi%Ozcan%NULL%1,              Thomas L. P.%Burns%NULL%1,              Rabia A.%Warraich%NULL%1,              Lisa J.%Amani%NULL%1,              Amina%Jaffer%NULL%1,              Stephanie%Paget%NULL%1,              Anand%Sivaramakrishnan%NULL%1,              Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,              Suzy%Gallier%NULL%2,              Suzy%Gallier%NULL%0,              Chris%Mainey%NULL%1,              Peter%Nightingale%NULL%2,              Peter%Nightingale%NULL%0,              David%McNulty%NULL%1,              Hannah%Crothers%NULL%1,              Felicity%Evison%NULL%1,              Katharine%Reeves%NULL%1,              Domenico%Pagano%NULL%1,              Alastair K%Denniston%NULL%1,              Krishnarajah%Nirantharakumar%NULL%1,              Peter%Diggle%NULL%1,              Simon%Ball%NULL%1,              Lylah%Irshad%NULL%1,              Maxim%Harris%NULL%1,              Theodore%Nabav%NULL%1,              A%Kolesnyk%NULL%1,              M%Ahmed%NULL%1,              A%Liaqat%NULL%1,              Tanya%Pankhurst%NULL%1,              Jamie%Coleman%NULL%1,              Chirag%Dave%NULL%1,              Khaled%ElFandi%NULL%1,              Rifat%Rashid%NULL%1,              Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,              Gregory A%Eschenauer%NULL%2,              Gregory A%Eschenauer%NULL%0,              Jonathan P%Troost%NULL%1,              Jonathan L%Golob%NULL%1,              Tejal N%Gandhi%NULL%1,              Lu%Wang%NULL%1,              Nina%Zhou%NULL%1,              Lindsay A%Petty%NULL%1,              Ji Hoon%Baang%NULL%1,              Nicholas O%Dillman%NULL%1,              David%Frame%NULL%1,              Kevin S%Gregg%NULL%1,              Dan R%Kaul%NULL%1,              Jerod%Nagel%NULL%1,              Twisha S%Patel%NULL%1,              Shiwei%Zhou%NULL%1,              Adam S%Lauring%NULL%1,              David A%Hanauer%NULL%1,              Emily%Martin%NULL%1,              Pratima%Sharma%NULL%1,              Christopher M%Fung%NULL%1,              Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,              Lei%Qian%NULL%2,              Lei%Qian%NULL%0,              Vennis%Hong%NULL%1,              Rong%Wei%NULL%2,              Rong%Wei%NULL%0,              Ron F.%Nadjafi%NULL%2,              Ron F.%Nadjafi%NULL%0,              Heidi%Fischer%NULL%1,              Zhuoxin%Li%NULL%1,              Sally F.%Shaw%NULL%1,              Susan L.%Caparosa%NULL%2,              Susan L.%Caparosa%NULL%0,              Claudia L.%Nau%NULL%1,              Tanmai%Saxena%NULL%1,              Gunter K.%Rieg%NULL%1,              Bradley K.%Ackerson%NULL%1,              Adam L.%Sharp%NULL%2,              Adam L.%Sharp%NULL%0,              Jacek%Skarbinski%NULL%2,              Jacek%Skarbinski%NULL%0,              Tej K.%Naik%NULL%1,              Sameer B.%Murali%NULL%2,              Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,              Juan Carlos%Nicolas%NULL%2,              Juan Carlos%Nicolas%NULL%0,              Jennifer R%Meeks%NULL%1,              Osman%Khan%NULL%1,              Alan%Pan%NULL%1,              Stephen L%Jones%NULL%1,              Faisal%Masud%NULL%1,              H Dirk%Sostman%NULL%1,              Robert%Phillips%NULL%1,              Julia D%Andrieni%NULL%1,              Bita A%Kash%NULL%1,              Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,              Arryn%Craney%NULL%1,              Phyllis%Ruggiero%NULL%1,              John%Sipley%NULL%1,              Lin%Cong%NULL%1,              Erika M.%Hissong%NULL%1,              Massimo%Loda%NULL%1,              Lars F.%Westblade%NULL%1,              Melissa%Cushing%NULL%2,              Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,               X.% Zhong%null%1,               Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,              Amanda%Zheutlin%NULL%2,              Amanda%Zheutlin%NULL%0,              Yu-Han%Kao%NULL%1,              Kristin%Ayers%NULL%1,              Susan%Gross%NULL%1,              Patricia%Kovatch%NULL%1,              Sharon%Nirenberg%NULL%1,              Alexander%Charney%NULL%1,              Girish%Nadkarni%NULL%1,              Jessica K%De Freitas%NULL%1,              Paul%O’Reilly%NULL%1,              Allan%Just%NULL%1,              Carol%Horowitz%NULL%1,              Glenn%Martin%NULL%1,              Andrea%Branch%NULL%1,              Benjamin S%Glicksberg%NULL%1,              Dennis%Charney%NULL%1,              David%Reich%NULL%1,              William K%Oh%NULL%1,              Eric%Schadt%NULL%1,              Rong%Chen%NULL%0,              Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,              Angela%Winegar%NULL%1,              Richard%Fogel%NULL%1,              Mohamad%Fakih%NULL%1,              Allison%Ottenbacher%NULL%1,              Christine%Jesser%NULL%1,              Angelo%Bufalino%NULL%1,              Ren-Huai%Huang%NULL%1,              Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,              Rebecca%Bendayan%NULL%0,              Mark%Ashworth%NULL%1,              Daniel M.%Bean%NULL%1,              Hiten%Dodhia%NULL%1,              Stevo%Durbaba%NULL%1,              Kevin%O'Gallagher%NULL%1,              Claire%Palmer%NULL%1,              Vasa%Curcin%NULL%1,              Elizabeth%Aitken%NULL%1,              William%Bernal%NULL%1,              Richard D.%Barker%NULL%1,              Sam%Norton%NULL%1,              Martin%Gulliford%NULL%1,              James T.H.%Teo%NULL%0,              James%Galloway%NULL%1,              Richard J.B.%Dobson%NULL%0,              Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,              Carina%Marquez%NULL%1,              Emily%Crawford%NULL%1,              James%Peng%NULL%1,              Maya%Petersen%NULL%1,              Daniel%Schwab%NULL%1,              Joshua%Schwab%NULL%1,              Jackie%Martinez%NULL%1,              Diane%Jones%NULL%1,              Douglas%Black%NULL%1,              Monica%Gandhi%NULL%1,              Andrew D%Kerkhoff%NULL%1,              Vivek%Jain%NULL%1,              Francesco%Sergi%NULL%1,              Jon%Jacobo%NULL%1,              Susana%Rojas%NULL%1,              Valerie%Tulier-Laiwa%NULL%1,              Tracy%Gallardo-Brown%NULL%1,              Ayesha%Appa%NULL%1,              Charles%Chiu%NULL%1,              Mary%Rodgers%NULL%1,              John%Hackett%NULL%1,              NULL%NULL%NULL%0,              Amy%Kistler%NULL%1,              Samantha%Hao%NULL%1,              Jack%Kamm%NULL%1,              David%Dynerman%NULL%1,              Joshua%Batson%NULL%1,              Bryan%Greenhouse%NULL%1,              Joe%DeRisi%NULL%1,              Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,              Tiffany%Grimes%NULL%1,              Peng%Li%NULL%1,              Matthew%Might%NULL%1,              Fernando%Ovalle%NULL%1,              Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,              Natalie%Achamallah%NULL%1,              Hongwei%Ji%NULL%1,              Brian L.%Claggett%NULL%1,              Nancy%Sun%NULL%1,              Patrick%Botting%NULL%1,              Trevor-Trung%Nguyen%NULL%1,              Eric%Luong%NULL%1,              Elizabeth H.%Kim%NULL%1,              Eunice%Park%NULL%1,              Yunxian%Liu%NULL%1,              Ryan%Rosenberry%NULL%1,              Yuri%Matusov%NULL%1,              Steven%Zhao%NULL%1,              Isabel%Pedraza%NULL%1,              Tanzira%Zaman%NULL%1,              Michael%Thompson%NULL%1,              Koen%Raedschelders%NULL%1,              Anders H.%Berg%NULL%2,              Anders H.%Berg%NULL%0,              Jonathan D.%Grein%NULL%1,              Paul W.%Noble%NULL%1,              Sumeet S.%Chugh%NULL%1,              C. Noel%Bairey Merz%NULL%1,              Eduardo%Marbán%NULL%1,              Jennifer E.%Van Eyk%NULL%1,              Scott D.%Solomon%NULL%1,              Christine M.%Albert%NULL%1,              Peter%Chen%NULL%1,              Susan%Cheng%NULL%3,              Yu Ru%Kou%NULL%8,              Yu Ru%Kou%NULL%0,              Yu Ru%Kou%NULL%0,              Susan%Cheng%biodatacore@cshs.org%0,              Susan%Cheng%biodatacore@cshs.org%0,              Yu Ru%Kou%NULL%0,              Yu Ru%Kou%NULL%0,              Yu Ru%Kou%NULL%0,              Yu Ru%Kou%NULL%0,              Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,              Penelope%Strid%NULL%1,              Van T.%Tong%NULL%1,              Kate%Woodworth%NULL%1,              Romeo R.%Galang%NULL%1,              Laura D.%Zambrano%NULL%1,              John%Nahabedian%NULL%1,              Kayla%Anderson%NULL%1,              Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,              Jacob%Fiksel%NULL%2,              Jacob%Fiksel%NULL%0,              John%Muschelli%NULL%2,              John%Muschelli%NULL%0,              Matthew L.%Robinson%NULL%2,              Matthew L.%Robinson%NULL%0,              Masoud%Rouhizadeh%NULL%2,              Masoud%Rouhizadeh%NULL%0,              Jamie%Perin%NULL%2,              Jamie%Perin%NULL%0,              Grant%Schumock%NULL%2,              Grant%Schumock%NULL%0,              Paul%Nagy%NULL%2,              Paul%Nagy%NULL%0,              Josh H.%Gray%NULL%2,              Josh H.%Gray%NULL%0,              Harsha%Malapati%NULL%2,              Harsha%Malapati%NULL%0,              Mariam%Ghobadi-Krueger%NULL%2,              Mariam%Ghobadi-Krueger%NULL%0,              Timothy M.%Niessen%NULL%1,              Bo Soo%Kim%NULL%1,              Peter M.%Hill%NULL%1,              M. Shafeeq%Ahmed%NULL%1,              Eric D.%Dobkin%NULL%1,              Renee%Blanding%NULL%1,              Jennifer%Abele%NULL%1,              Bonnie%Woods%NULL%1,              Kenneth%Harkness%NULL%1,              David R.%Thiemann%NULL%1,              Mary G.%Bowring%NULL%1,              Aalok B.%Shah%NULL%2,              Aalok B.%Shah%NULL%0,              Mei-Cheng%Wang%NULL%1,              Karen%Bandeen-Roche%NULL%1,              Antony%Rosen%NULL%1,              Scott L.%Zeger%NULL%2,              Scott L.%Zeger%NULL%0,              Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,              Megan%McCullough%NULL%0,              Megan%McCullough%NULL%0,              Michael A.%Fuery%NULL%0,              Fouad%Chouairi%NULL%0,              Fouad%Chouairi%NULL%0,              Craig%Keating%NULL%0,              Neal G.%Ravindra%NULL%0,              P. Elliott%Miller%NULL%0,              Maricar%Malinis%NULL%0,              Nitu%Kashyap%NULL%0,              Allen%Hsiao%NULL%0,              F. Perry%Wilson%NULL%0,              Jeptha P.%Curtis%NULL%0,              Matthew%Grant%NULL%0,              Eric J.%Velazquez%NULL%0,              Nihar R.%Desai%NULL%0,              Tariq%Ahmad%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3638,7 +3785,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3667,7 +3814,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>826</v>
+        <v>875</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -3696,7 +3843,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>827</v>
+        <v>876</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -3725,7 +3872,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>828</v>
+        <v>877</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -3754,7 +3901,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>829</v>
+        <v>878</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3783,7 +3930,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>830</v>
+        <v>879</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -3812,7 +3959,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>831</v>
+        <v>880</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -3841,7 +3988,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>832</v>
+        <v>881</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -3870,7 +4017,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>833</v>
+        <v>882</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -3899,7 +4046,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>834</v>
+        <v>883</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -3928,7 +4075,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>835</v>
+        <v>884</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -3957,7 +4104,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>836</v>
+        <v>885</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -3986,7 +4133,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>837</v>
+        <v>886</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -4015,7 +4162,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>838</v>
+        <v>887</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -4044,7 +4191,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>839</v>
+        <v>888</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -4073,7 +4220,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>840</v>
+        <v>889</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -4102,7 +4249,7 @@
         <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>841</v>
+        <v>890</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -4131,7 +4278,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>842</v>
+        <v>891</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -4160,7 +4307,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>843</v>
+        <v>892</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -4189,7 +4336,7 @@
         <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>844</v>
+        <v>893</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -4218,7 +4365,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>845</v>
+        <v>894</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -4247,7 +4394,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -4276,7 +4423,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>847</v>
+        <v>896</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -4305,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>848</v>
+        <v>897</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -4334,7 +4481,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>849</v>
+        <v>898</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -4363,7 +4510,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>850</v>
+        <v>899</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -4392,7 +4539,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -4421,7 +4568,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>852</v>
+        <v>901</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -4450,7 +4597,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>853</v>
+        <v>902</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -4479,7 +4626,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>854</v>
+        <v>903</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -4508,7 +4655,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>855</v>
+        <v>904</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -4537,7 +4684,7 @@
         <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>856</v>
+        <v>905</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -4566,7 +4713,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>857</v>
+        <v>906</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -4595,7 +4742,7 @@
         <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>858</v>
+        <v>907</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -4624,7 +4771,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>859</v>
+        <v>908</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -4653,7 +4800,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>860</v>
+        <v>909</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -4682,7 +4829,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -4711,7 +4858,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>862</v>
+        <v>911</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -4740,7 +4887,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>863</v>
+        <v>912</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -4769,7 +4916,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>864</v>
+        <v>913</v>
       </c>
       <c r="F41" t="s">
         <v>52</v>
@@ -4798,7 +4945,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>865</v>
+        <v>914</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -4827,7 +4974,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>866</v>
+        <v>915</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -4856,7 +5003,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>867</v>
+        <v>916</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -4885,7 +5032,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>868</v>
+        <v>917</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -4914,7 +5061,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>869</v>
+        <v>918</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -4943,7 +5090,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>870</v>
+        <v>919</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -4972,7 +5119,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -5001,7 +5148,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>872</v>
+        <v>921</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -5030,7 +5177,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>873</v>
+        <v>922</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="1021">
   <si>
     <t>Doi</t>
   </si>
@@ -3378,6 +3378,300 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,              Megan%McCullough%NULL%0,              Megan%McCullough%NULL%0,              Michael A.%Fuery%NULL%0,              Fouad%Chouairi%NULL%0,              Fouad%Chouairi%NULL%0,              Craig%Keating%NULL%0,              Neal G.%Ravindra%NULL%0,              P. Elliott%Miller%NULL%0,              Maricar%Malinis%NULL%0,              Nitu%Kashyap%NULL%0,              Allen%Hsiao%NULL%0,              F. Perry%Wilson%NULL%0,              Jeptha P.%Curtis%NULL%0,              Matthew%Grant%NULL%0,              Eric J.%Velazquez%NULL%0,              Nihar R.%Desai%NULL%0,              Tariq%Ahmad%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0,              Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                R. U.% Shah%null%1,                M.% Bale%null%1,                J. B.% Peacock%null%1,                B.% Berger%null%1,                A.% Brown%null%1,                S.% Mann%null%1,                W.% West%null%1,                V.% Martin%null%1,                V.% Fernandez%null%1,                S.% Grineski%null%1,                B. J.% Brintz%null%1,                M. H.% Samore%null%1,                M. J.% Ferrari%null%1,                D. T.% Leung%null%1,                L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,               Samuel L%Bruce%NULL%1,               Cody L%Slater%NULL%1,               Jonathan R%Tiao%NULL%1,               Matthew R%Baldwin%NULL%1,               R Graham%Barr%NULL%1,               Bernard P%Chang%NULL%1,               Katherine H%Chau%NULL%1,               Justin J%Choi%NULL%1,               Nicholas%Gavin%NULL%1,               Parag%Goyal%NULL%1,               Angela M%Mills%NULL%1,               Ashmi A%Patel%NULL%1,               Marie-Laure S%Romney%NULL%1,               Monika M%Safford%NULL%1,               Neil W%Schluger%NULL%1,               Soumitra%Sengupta%NULL%1,               Magdalena E%Sobieszczyk%NULL%1,               Jason E%Zucker%NULL%1,               Paul A%Asadourian%NULL%1,               Fletcher M%Bell%NULL%1,               Rebekah%Boyd%NULL%1,               Matthew F%Cohen%NULL%1,               MacAlistair I%Colquhoun%NULL%1,               Lucy A%Colville%NULL%1,               Joseph H%de Jonge%NULL%1,               Lyle B%Dershowitz%NULL%1,               Shirin A%Dey%NULL%1,               Katherine A%Eiseman%NULL%1,               Zachary P%Girvin%NULL%1,               Daniella T%Goni%NULL%1,               Amro A%Harb%NULL%1,               Nicholas%Herzik%NULL%1,               Sarah%Householder%NULL%1,               Lara E%Karaaslan%NULL%1,               Heather%Lee%NULL%1,               Evan%Lieberman%NULL%1,               Andrew%Ling%NULL%1,               Ree%Lu%NULL%1,               Arthur Y%Shou%NULL%1,               Alexander C%Sisti%NULL%1,               Zachary E%Snow%NULL%1,               Colin P%Sperring%NULL%1,               Yuqing%Xiong%NULL%1,               Henry W%Zhou%NULL%1,               Karthik%Natarajan%NULL%1,               George%Hripcsak%NULL%1,               Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,               Megan%McCullough%NULL%4,               Megan%McCullough%NULL%0,               Michael A.%Fuery%NULL%2,               Fouad%Chouairi%NULL%4,               Fouad%Chouairi%NULL%0,               Craig%Keating%NULL%2,               Neal G.%Ravindra%NULL%2,               P. Elliott%Miller%NULL%2,               Maricar%Malinis%NULL%2,               Nitu%Kashyap%NULL%2,               Allen%Hsiao%NULL%2,               F. Perry%Wilson%NULL%2,               Jeptha P.%Curtis%NULL%2,               Matthew%Grant%NULL%2,               Eric J.%Velazquez%NULL%2,               Nihar R.%Desai%NULL%2,               Tariq%Ahmad%NULL%2,               Chiara%Lazzeri%NULL%18,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,               Karen K.%Wong%NULL%1,               Christine M.%Szablewski%NULL%1,               Priti R.%Patel%NULL%1,               John%Rossow%NULL%1,               Juliana%da Silva%NULL%1,               Pavithra%Natarajan%NULL%1,               Sapna Bamrah%Morris%NULL%1,               Robyn Neblett%Fanfair%NULL%1,               Jessica%Rogers-Brown%NULL%1,               Beau B.%Bruce%NULL%1,               Sean D.%Browning%NULL%1,               Alfonso C.%Hernandez-Romieu%NULL%2,               Nathan W.%Furukawa%NULL%1,               Mohleen%Kang%NULL%1,               Mary E.%Evans%NULL%1,               Nadine%Oosmanally%NULL%1,               Melissa%Tobin-D’Angelo%NULL%1,               Cherie%Drenzek%NULL%1,               David J.%Murphy%NULL%0,               Julie%Hollberg%NULL%1,               James M.%Blum%NULL%0,               Robert%Jansen%NULL%1,               David W.%Wright%NULL%1,               William M.%Sewell%NULL%1,               Jack D.%Owens%NULL%1,               Benjamin%Lefkove%NULL%1,               Frank W.%Brown%NULL%1,               Deron C.%Burton%NULL%1,               Timothy M.%Uyeki%NULL%3,               Stephanie R.%Bialek%NULL%1,               Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,               Jasmine A.%Mack%NULL%1,               Maxwell%Salvatore%NULL%1,               Swaraaj Prabhu%Sankar%NULL%1,               Thomas S.%Valley%NULL%1,               Karandeep%Singh%NULL%1,               Brahmajee K.%Nallamothu%NULL%1,               Sachin%Kheterpal%NULL%1,               Lynda%Lisabeth%NULL%1,               Lars G.%Fritsche%NULL%1,               Bhramar%Mukherjee%NULL%1,                T.%Gu%null%1,                J. A.% Mack%null%1,                M.% Salvatore%null%1,                S. P.% Sankar%null%1,                T. S.% Valley%null%1,                K.% Singh%null%1,                B. K.% Nallamothu%null%1,                S.% Kheterpal%null%1,                L.% Lisabeth%null%1,                L. G.% Fritsche%null%1,                B. G. % Mukherjee%null%1,               T.%Gu%null%1,               J. A.% Mack%null%1,               M.% Salvatore%null%1,               S. P.% Sankar%null%1,               T. S.% Valley%null%1,               K.% Singh%null%1,               B. K.% Nallamothu%null%1,               S.% Kheterpal%null%1,               L.% Lisabeth%null%1,               L. G.% Fritsche%null%1,               B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                S.% Nirenberg%null%1,                P.% Kovatch%null%1,                K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,               Shikha%Garg%NULL%1,               Alissa%O’Halloran%NULL%1,               Michael%Whitaker%NULL%1,               Huong%Pham%NULL%1,               Evan J%Anderson%NULL%1,               Isaac%Armistead%NULL%1,               Nancy M%Bennett%NULL%1,               Laurie%Billing%NULL%1,               Kathryn%Como-Sabetti%NULL%1,               Mary%Hill%NULL%1,               Sue%Kim%NULL%1,               Maya L%Monroe%NULL%1,               Alison%Muse%NULL%1,               Arthur L%Reingold%NULL%1,               William%Schaffner%NULL%1,               Melissa%Sutton%NULL%1,               H Keipp%Talbot%NULL%1,               Salina M%Torres%NULL%1,               Kimberly%Yousey-Hindes%NULL%1,               Rachel%Holstein%NULL%1,               Charisse%Cummings%NULL%1,               Lynette%Brammer%NULL%1,               Aron J%Hall%NULL%1,               Alicia M%Fry%NULL%1,               Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                S.% Richardson%null%1,                K.% Coppa%null%1,                D. P.% Barnaby%null%1,                T.% McGinn%null%1,                L. B.% Becker%null%1,                K. W.% Davidson%null%1,                S. L.% Cohen%null%1,                J. S.% Hirsch%null%1,                T.% Zanos%null%1,                  % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                L. H.% Nguyen%null%1,                D. A.% Drew%null%1,                M. S.% Graham%null%1,                E. T.% Warner%null%1,                A. D.% Joshi%null%1,                C. M.% Astley%null%1,                C.-G.% Guo%null%1,                W.% Ma%null%1,                R. S.% Mehta%null%1,                S.% Kwon%null%1,                M.% Song%null%1,                R.% Davies%null%1,                J.% Capdevila%null%1,                K. A.% Lee%null%1,                M. N.% Lochlainn%null%1,                T.% Varsavsky%null%1,                C. H.% Sudre%null%1,                J.% Wolf%null%1,                Y. C.% Cozier%null%1,                L.% Rosenberg%null%1,                L. R.% Wilkens%null%1,                C. A.% Haiman%null%1,                L. L.% Marchand%null%1,                J. R.% Palmer%null%1,                T. D.% Spector%null%1,                S.% Ourselin%null%1,                C. J.% Steves%null%1,                A. T.% Chan%null%1,                  % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,               Jienchi%Dorward%NULL%1,               Ana%Correa%NULL%1,               Nicholas%Jones%NULL%1,               Oluwafunmi%Akinyemi%NULL%1,               Gayatri%Amirthalingam%NULL%1,               Nick%Andrews%NULL%1,               Rachel%Byford%NULL%1,               Gavin%Dabrera%NULL%1,               Alex%Elliot%NULL%1,               Joanna%Ellis%NULL%0,               Filipa%Ferreira%NULL%1,               Jamie%Lopez Bernal%NULL%1,               Cecilia%Okusi%NULL%1,               Mary%Ramsay%NULL%1,               Julian%Sherlock%NULL%1,               Gillian%Smith%NULL%1,               John%Williams%NULL%1,               Gary%Howsam%NULL%1,               Maria%Zambon%NULL%0,               Mark%Joy%NULL%1,               F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,               Johanna%Dolle%NULL%2,               Johanna%Dolle%NULL%0,               Sheila%Grami%NULL%1,               Richard%Adule%NULL%1,               Zeyu%Li%NULL%1,               Kathleen%Tatem%NULL%1,               Chinyere%Anyaogu%NULL%1,               Stephen%Apfelroth%NULL%1,               Raji%Ayinla%NULL%2,               Raji%Ayinla%NULL%0,               Noella%Boma%NULL%1,               Terence%Brady%NULL%1,               Braulio F.%Cosme-Thormann%NULL%1,               Roseann%Costarella%NULL%1,               Kenra%Ford%NULL%1,               Kecia%Gaither%NULL%1,               Jessica%Jacobson%NULL%1,               Marc%Kanter%NULL%1,               Stuart%Kessler%NULL%1,               Ross B.%Kristal%NULL%1,               Joseph J.%Lieber%NULL%1,               Vikramjit%Mukherjee%NULL%1,               Vincent%Rizzo%NULL%1,               Madden%Rowell%NULL%1,               David%Stevens%NULL%1,               Elana%Sydney%NULL%1,               Andrew%Wallach%NULL%2,               Andrew%Wallach%NULL%0,               Dave A.%Chokshi%NULL%1,               Nichola%Davis%NULL%1,               NULL%NULL%NULL%0,               Sze Yan%Liu%NULL%2,               Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,               Mark%Caridi-Scheible%NULL%0,               James M.%Blum%NULL%0,               Chad%Robichaux%NULL%1,               Colleen%Kraft%NULL%1,               Jesse T.%Jacob%NULL%1,               Craig S.%Jabaley%NULL%0,               David%Carpenter%NULL%1,               Roberta%Kaplow%NULL%1,               Alfonso C.%Hernandez-Romieu%NULL%0,               Max W.%Adelman%NULL%0,               Greg S.%Martin%NULL%0,               Craig M.%Coopersmith%NULL%1,               David J.%Murphy%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,       Seunghee%Kim-Schulze%null%1,       Hsin-Hui%Huang%null%1,       Noam D.%Beckmann%null%1,       Sharon%Nirenberg%null%1,       Bo%Wang%null%1,       Yonit%Lavin%null%1,       Talia H.%Swartz%null%1,       Deepu%Madduri%null%1,       Aryeh%Stock%null%1,       Thomas U.%Marron%null%1,       Hui%Xie%null%1,       Manishkumar%Patel%null%1,       Kevin%Tuballes%null%1,       Oliver%Oekelen%null%1,       Adeeb%Rahman%null%1,       Patricia%Kovatch%null%1,       Judith A.%Aberg%null%1,       Eric%Schadt%null%1,       Sundar%Jagannath%null%1,       Madhu%Mazumdar%null%1,       Alexander W.%Charney%null%1,       Adolfo%Firpo-Betancourt%null%1,       Damodara Rao%Mendu%null%1,       Jeffrey%Jhang%null%1,       David%Reich%null%1,       Keith%Sigel%null%1,       Carlos%Cordon-Cardo%null%1,       Marc%Feldmann%null%1,       Samir%Parekh%null%1,       Miriam%Merad%null%1,       Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,               David R.%Jenkins%NULL%1,               Jatinder S.%Minhas%NULL%1,               Laura J.%Gray%NULL%1,               Julian%Tang%NULL%1,               Caroline%Williams%NULL%1,               Shirley%Sze%NULL%1,               Daniel%Pan%NULL%1,               William%Jones%NULL%1,               Raman%Verma%NULL%1,               Scott%Knapp%NULL%1,               Rupert%Major%NULL%1,               Melanie%Davies%NULL%1,               Nigel%Brunskill%NULL%1,               Martin%Wiselka%NULL%1,               Chris%Brightling%NULL%1,               Kamlesh%Khunti%NULL%1,               Pranab%Haldar%NULL%1,               Manish%Pareek%mp426@le.ac.uk%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,               Kelly E%Hathorn%NULL%2,               Kelly E%Hathorn%NULL%0,               Walker D%Redd%NULL%1,               Nicolette J%Rodriguez%NULL%1,               Joyce C%Zhou%NULL%1,               Ahmad Najdat%Bazarbashi%NULL%1,               Cheikh%Njie%NULL%1,               Danny%Wong%NULL%1,               Quoc-Dien%Trinh%NULL%1,               Lin%Shen%NULL%1,               Valerie E%Stone%NULL%2,               Valerie E%Stone%NULL%0,               Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                S.% Apewokin%null%1,                A. A.% Wells%null%1,                A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,               Thomas E.%Webb%NULL%2,               Thomas E.%Webb%NULL%0,               Benjamin C.%Mcloughlin%NULL%2,               Benjamin C.%Mcloughlin%NULL%0,               Imran%Mannan%NULL%2,               Imran%Mannan%NULL%0,               Arshad%Rather%NULL%2,               Arshad%Rather%NULL%0,               Paul%Knopp%NULL%1,               Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,               Rajat%Suri%NULL%2,               Rajat%Suri%NULL%0,               Iheanacho O.%Emeruwa%NULL%2,               Iheanacho O.%Emeruwa%NULL%0,               Robert J.%Stretch%NULL%1,               Roxana Y.%Cortes-Lopez%NULL%2,               Roxana Y.%Cortes-Lopez%NULL%0,               Alexander%Sherman%NULL%1,               Catherine C.%Lindsay%NULL%1,               Jennifer A.%Fulcher%NULL%1,               David%Goodman-Meza%NULL%2,               David%Goodman-Meza%NULL%0,               Anil%Sapru%NULL%2,               Anil%Sapru%NULL%0,               Russell G.%Buhr%NULL%1,               Steven Y.%Chang%NULL%2,               Steven Y.%Chang%NULL%0,               Tisha%Wang%NULL%1,               Nida%Qadir%NULL%1,               Giordano%Madeddu%NULL%8,               Giordano%Madeddu%NULL%0,               Giordano%Madeddu%NULL%0,               Ana C.%Monteiro%NULL%2,               Ana C.%Monteiro%NULL%0,               Giordano%Madeddu%NULL%0,               Giordano%Madeddu%NULL%0,               Giordano%Madeddu%NULL%0,               Giordano%Madeddu%NULL%0,               Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                D.% Stefanov%null%1,                A. S.% Chau%null%1,                A. G.% Weber%null%1,                G. S.% Marder%null%1,                B.% Kaplan%null%1,                P.% Malhotra%null%1,                O.% Bloom%null%1,                A.% Liu%null%1,                M.% Lesser%null%1,                N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,               Catherine A.%O’Donnell%NULL%2,               Bhautesh Dinesh%Jani%NULL%1,               Evangelia%Demou%NULL%1,               Frederick K.%Ho%NULL%1,               Carlos%Celis-Morales%NULL%1,               Barbara I.%Nicholl%NULL%1,               Frances S.%Mair%NULL%2,               Paul%Welsh%NULL%2,               Naveed%Sattar%NULL%2,               Jill P.%Pell%NULL%2,               S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,               Alex J%Walker%NULL%1,               Krishnan%Bhaskaran%NULL%1,               Seb%Bacon%NULL%1,               Chris%Bates%NULL%1,               Caroline E%Morton%NULL%1,               Helen J%Curtis%NULL%1,               Amir%Mehrkar%NULL%1,               David%Evans%NULL%1,               Peter%Inglesby%NULL%1,               Jonathan%Cockburn%NULL%1,               Helen I%McDonald%NULL%1,               Brian%MacKenna%NULL%1,               Laurie%Tomlinson%NULL%1,               Ian J%Douglas%NULL%1,               Christopher T%Rentsch%NULL%1,               Rohini%Mathur%NULL%1,               Angel YS%Wong%NULL%1,               Richard%Grieve%NULL%1,               David%Harrison%NULL%1,               Harriet%Forbes%NULL%1,               Anna%Schultze%NULL%2,               Richard%Croker%NULL%1,               John%Parry%NULL%1,               Frank%Hester%NULL%1,               Sam%Harper%NULL%1,               Rafael%Perera%NULL%1,               Stephen JW%Evans%NULL%1,               Liam%Smeeth%NULL%1,               Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,               Ajay%Bhasin%NULL%1,               Joseph M.%Feinglass%NULL%1,               Michael P.%Angarone%NULL%1,               Elaine R.%Cohen%NULL%1,               Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,         Zijun%Shen%xref no email%1,         Robert J.%Romanelli%xref no email%1,         Stephen H.%Lockhart%xref no email%1,         Kelly%Smits%xref no email%1,         Sarah%Robinson%xref no email%1,         Stephanie%Brown%xref no email%1,         Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,               Andrew%Gangemi%NULL%1,               Robert%Marron%NULL%1,               Junad%Chowdhury%NULL%1,               Ibraheem%Yousef%NULL%1,               Matthew%Zheng%NULL%1,               Nicole%Mills%NULL%1,               Lauren%Tragesser%NULL%1,               Julie%Giurintano%NULL%1,               Rohit%Gupta%NULL%0,               Matthew%Gordon%NULL%0,               Parth%Rali%NULL%2,               Parth%Rali%NULL%0,               Gilbert%D'Alonso%NULL%1,               David%Fleece%NULL%1,               Huaqing%Zhao%NULL%0,               Nicole%Patlakh%NULL%0,               Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,               Nathan C.%Skorodin%nskorodin@midcusa.com%1,               Nicholas W.%Van Hise%NULL%1,               Robert M.%Fliegelman%NULL%1,               Jonathan%Pinsky%NULL%1,               Vishal%Didwania%NULL%1,               Michael%Anderson%NULL%1,               Melina%Diaz%NULL%1,               Kairav%Shah%NULL%1,               Vishnu V.%Chundi%NULL%1,               David W.%Hines%NULL%1,               Brian P.%Harting%NULL%1,               Kamo%Sidwha%NULL%1,               Brian%Yu%NULL%1,               Paul%Brune%NULL%1,               Anjum%Owaisi%NULL%1,               David%Beezhold%NULL%1,               Joseph%Kent%NULL%1,               Dana%Vais%NULL%1,               Alice%Han%NULL%1,               Neethi%Gowda%NULL%1,               Nishi%Sahgal%NULL%1,               Jan%Silverman%NULL%1,               Jonathan%Stake%NULL%1,               Jenie%Nepomuceno%NULL%1,               Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,               Anna%Daunt%NULL%2,               Anna%Daunt%NULL%0,               Sujit%Mukherjee%NULL%1,               Peter%Crook%NULL%1,               Roberta%Forlano%NULL%1,               Mara D%Kont%NULL%1,               Alessandra%Løchen%NULL%1,               Michaela%Vollmer%NULL%1,               Paul%Middleton%NULL%1,               Rebekah%Judge%NULL%1,               Christopher%Harlow%NULL%1,               Anet%Soubieres%NULL%1,               Graham%Cooke%NULL%1,               Peter J%White%NULL%1,               Timothy B%Hallett%NULL%1,               Paul%Aylin%NULL%1,               Neil%Ferguson%NULL%1,               Katharina%Hauck%NULL%1,               Mark R%Thursz%NULL%1,               Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,               Jeffrey%Burton%NULL%2,               Jeffrey%Burton%NULL%0,               Daniel%Fort%NULL%1,               Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,               Michael S.%Sherman%NULL%1,               Naaz%Fatteh%NULL%1,               Fabio%Vogel%NULL%1,               Jamie%Sacks%NULL%1,               Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                P.% Mannam%null%1,                R.% Comer%null%1,                E.% Sinclair%null%1,                D. B.% McQuaid%null%1,                M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,               Farah%Kidwai-Khan%NULL%1,               Janet P.%Tate%NULL%1,               Lesley S.%Park%NULL%1,               Joseph T.%King%NULL%1,               Melissa%Skanderson%NULL%1,               Ronald G.%Hauser%NULL%1,               Anna%Schultze%NULL%0,               Christopher I.%Jarvis%NULL%1,               Mark%Holodniy%NULL%1,               Vincent Lo%Re%NULL%1,               Kathleen M.%Akgün%NULL%1,               Kristina%Crothers%NULL%1,               Tamar H.%Taddei%NULL%1,               Matthew S.%Freiberg%NULL%1,               Amy C.%Justice%NULL%1,                C. T.%Rentsch%null%1,                F.% Kidwai-Khan%null%1,                J. P.% Tate%null%1,                L. S.% Park%null%1,                J. T.% King%null%1,                M.% Skanderson%null%1,                R. G.% Hauser%null%1,                A.% Schultze%null%1,                C. I.% Jarvis%null%1,                M.% Holodniy%null%1,                V.% Lo Re%null%1,                K. M.% Akgun%null%1,                K.% Crothers%null%1,                T. H.% Taddei%null%1,                M. S.% Freiberg%null%1,                A. C. % Justice%null%1,               C. T.%Rentsch%null%1,               F.% Kidwai-Khan%null%1,               J. P.% Tate%null%1,               L. S.% Park%null%1,               J. T.% King%null%1,               M.% Skanderson%null%1,               R. G.% Hauser%null%1,               A.% Schultze%null%1,               C. I.% Jarvis%null%1,               M.% Holodniy%null%1,               V.% Lo Re%null%1,               K. M.% Akgun%null%1,               K.% Crothers%null%1,               T. H.% Taddei%null%1,               M. S.% Freiberg%null%1,               A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,         Elizabeth M.%Dufort%xref no email%1,         Tomoko%Udo%xref no email%1,         Larissa A.%Wilberschied%xref no email%1,         Jessica%Kumar%xref no email%1,         James%Tesoriero%xref no email%1,         Patti%Weinberg%xref no email%1,         James%Kirkwood%xref no email%1,         Alison%Muse%xref no email%1,         Jack%DeHovitz%xref no email%1,         Debra S.%Blog%xref no email%1,         Brad%Hutton%xref no email%1,         David R.%Holtgrave%xref no email%1,         Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,               Jennifer%Beam%NULL%2,               Jennifer%Beam%NULL%0,               Haley%Maier%NULL%1,               Whitney%Haggerson%NULL%1,               Karen%Boudreau%NULL%1,               Jamie%Carlson%NULL%1,               Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,               Alexander E.%Ayala%NULL%1,               Chideraa C.%Ukeje%NULL%1,               Celeste S.%Witting%NULL%1,               William A.%Grobman%NULL%1,               Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,               Hannah C.%Jarvis%NULL%2,               Hannah C.%Jarvis%NULL%0,               Ezgi%Ozcan%NULL%1,               Thomas L. P.%Burns%NULL%1,               Rabia A.%Warraich%NULL%1,               Lisa J.%Amani%NULL%1,               Amina%Jaffer%NULL%1,               Stephanie%Paget%NULL%1,               Anand%Sivaramakrishnan%NULL%1,               Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,               Suzy%Gallier%NULL%2,               Suzy%Gallier%NULL%0,               Chris%Mainey%NULL%1,               Peter%Nightingale%NULL%2,               Peter%Nightingale%NULL%0,               David%McNulty%NULL%1,               Hannah%Crothers%NULL%1,               Felicity%Evison%NULL%1,               Katharine%Reeves%NULL%1,               Domenico%Pagano%NULL%1,               Alastair K%Denniston%NULL%1,               Krishnarajah%Nirantharakumar%NULL%1,               Peter%Diggle%NULL%1,               Simon%Ball%NULL%1,               Lylah%Irshad%NULL%1,               Maxim%Harris%NULL%1,               Theodore%Nabav%NULL%1,               A%Kolesnyk%NULL%1,               M%Ahmed%NULL%1,               A%Liaqat%NULL%1,               Tanya%Pankhurst%NULL%1,               Jamie%Coleman%NULL%1,               Chirag%Dave%NULL%1,               Khaled%ElFandi%NULL%1,               Rifat%Rashid%NULL%1,               Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,               Gregory A%Eschenauer%NULL%2,               Gregory A%Eschenauer%NULL%0,               Jonathan P%Troost%NULL%1,               Jonathan L%Golob%NULL%1,               Tejal N%Gandhi%NULL%1,               Lu%Wang%NULL%1,               Nina%Zhou%NULL%1,               Lindsay A%Petty%NULL%1,               Ji Hoon%Baang%NULL%1,               Nicholas O%Dillman%NULL%1,               David%Frame%NULL%1,               Kevin S%Gregg%NULL%1,               Dan R%Kaul%NULL%1,               Jerod%Nagel%NULL%1,               Twisha S%Patel%NULL%1,               Shiwei%Zhou%NULL%1,               Adam S%Lauring%NULL%1,               David A%Hanauer%NULL%1,               Emily%Martin%NULL%1,               Pratima%Sharma%NULL%1,               Christopher M%Fung%NULL%1,               Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,               Lei%Qian%NULL%2,               Lei%Qian%NULL%0,               Vennis%Hong%NULL%1,               Rong%Wei%NULL%2,               Rong%Wei%NULL%0,               Ron F.%Nadjafi%NULL%2,               Ron F.%Nadjafi%NULL%0,               Heidi%Fischer%NULL%1,               Zhuoxin%Li%NULL%1,               Sally F.%Shaw%NULL%1,               Susan L.%Caparosa%NULL%2,               Susan L.%Caparosa%NULL%0,               Claudia L.%Nau%NULL%1,               Tanmai%Saxena%NULL%1,               Gunter K.%Rieg%NULL%1,               Bradley K.%Ackerson%NULL%1,               Adam L.%Sharp%NULL%2,               Adam L.%Sharp%NULL%0,               Jacek%Skarbinski%NULL%2,               Jacek%Skarbinski%NULL%0,               Tej K.%Naik%NULL%1,               Sameer B.%Murali%NULL%2,               Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,               Juan Carlos%Nicolas%NULL%2,               Juan Carlos%Nicolas%NULL%0,               Jennifer R%Meeks%NULL%1,               Osman%Khan%NULL%1,               Alan%Pan%NULL%1,               Stephen L%Jones%NULL%1,               Faisal%Masud%NULL%1,               H Dirk%Sostman%NULL%1,               Robert%Phillips%NULL%1,               Julia D%Andrieni%NULL%1,               Bita A%Kash%NULL%1,               Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,               Arryn%Craney%NULL%1,               Phyllis%Ruggiero%NULL%1,               John%Sipley%NULL%1,               Lin%Cong%NULL%1,               Erika M.%Hissong%NULL%1,               Massimo%Loda%NULL%1,               Lars F.%Westblade%NULL%1,               Melissa%Cushing%NULL%2,               Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                X.% Zhong%null%1,                Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,               Amanda%Zheutlin%NULL%2,               Amanda%Zheutlin%NULL%0,               Yu-Han%Kao%NULL%1,               Kristin%Ayers%NULL%1,               Susan%Gross%NULL%1,               Patricia%Kovatch%NULL%1,               Sharon%Nirenberg%NULL%1,               Alexander%Charney%NULL%1,               Girish%Nadkarni%NULL%1,               Jessica K%De Freitas%NULL%1,               Paul%O’Reilly%NULL%1,               Allan%Just%NULL%1,               Carol%Horowitz%NULL%1,               Glenn%Martin%NULL%1,               Andrea%Branch%NULL%1,               Benjamin S%Glicksberg%NULL%1,               Dennis%Charney%NULL%1,               David%Reich%NULL%1,               William K%Oh%NULL%1,               Eric%Schadt%NULL%1,               Rong%Chen%NULL%0,               Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,               Angela%Winegar%NULL%1,               Richard%Fogel%NULL%1,               Mohamad%Fakih%NULL%1,               Allison%Ottenbacher%NULL%1,               Christine%Jesser%NULL%1,               Angelo%Bufalino%NULL%1,               Ren-Huai%Huang%NULL%1,               Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,               Rebecca%Bendayan%NULL%0,               Mark%Ashworth%NULL%1,               Daniel M.%Bean%NULL%1,               Hiten%Dodhia%NULL%1,               Stevo%Durbaba%NULL%1,               Kevin%O'Gallagher%NULL%1,               Claire%Palmer%NULL%1,               Vasa%Curcin%NULL%1,               Elizabeth%Aitken%NULL%1,               William%Bernal%NULL%1,               Richard D.%Barker%NULL%1,               Sam%Norton%NULL%1,               Martin%Gulliford%NULL%1,               James T.H.%Teo%NULL%0,               James%Galloway%NULL%1,               Richard J.B.%Dobson%NULL%0,               Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,               Carina%Marquez%NULL%1,               Emily%Crawford%NULL%1,               James%Peng%NULL%1,               Maya%Petersen%NULL%1,               Daniel%Schwab%NULL%1,               Joshua%Schwab%NULL%1,               Jackie%Martinez%NULL%1,               Diane%Jones%NULL%1,               Douglas%Black%NULL%1,               Monica%Gandhi%NULL%1,               Andrew D%Kerkhoff%NULL%1,               Vivek%Jain%NULL%1,               Francesco%Sergi%NULL%1,               Jon%Jacobo%NULL%1,               Susana%Rojas%NULL%1,               Valerie%Tulier-Laiwa%NULL%1,               Tracy%Gallardo-Brown%NULL%1,               Ayesha%Appa%NULL%1,               Charles%Chiu%NULL%1,               Mary%Rodgers%NULL%1,               John%Hackett%NULL%1,               NULL%NULL%NULL%0,               Amy%Kistler%NULL%1,               Samantha%Hao%NULL%1,               Jack%Kamm%NULL%1,               David%Dynerman%NULL%1,               Joshua%Batson%NULL%1,               Bryan%Greenhouse%NULL%1,               Joe%DeRisi%NULL%1,               Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,               Tiffany%Grimes%NULL%1,               Peng%Li%NULL%1,               Matthew%Might%NULL%1,               Fernando%Ovalle%NULL%1,               Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,               Natalie%Achamallah%NULL%1,               Hongwei%Ji%NULL%1,               Brian L.%Claggett%NULL%1,               Nancy%Sun%NULL%1,               Patrick%Botting%NULL%1,               Trevor-Trung%Nguyen%NULL%1,               Eric%Luong%NULL%1,               Elizabeth H.%Kim%NULL%1,               Eunice%Park%NULL%1,               Yunxian%Liu%NULL%1,               Ryan%Rosenberry%NULL%1,               Yuri%Matusov%NULL%1,               Steven%Zhao%NULL%1,               Isabel%Pedraza%NULL%1,               Tanzira%Zaman%NULL%1,               Michael%Thompson%NULL%1,               Koen%Raedschelders%NULL%1,               Anders H.%Berg%NULL%2,               Anders H.%Berg%NULL%0,               Jonathan D.%Grein%NULL%1,               Paul W.%Noble%NULL%1,               Sumeet S.%Chugh%NULL%1,               C. Noel%Bairey Merz%NULL%1,               Eduardo%Marbán%NULL%1,               Jennifer E.%Van Eyk%NULL%1,               Scott D.%Solomon%NULL%1,               Christine M.%Albert%NULL%1,               Peter%Chen%NULL%1,               Susan%Cheng%NULL%3,               Yu Ru%Kou%NULL%8,               Yu Ru%Kou%NULL%0,               Yu Ru%Kou%NULL%0,               Susan%Cheng%biodatacore@cshs.org%0,               Susan%Cheng%biodatacore@cshs.org%0,               Yu Ru%Kou%NULL%0,               Yu Ru%Kou%NULL%0,               Yu Ru%Kou%NULL%0,               Yu Ru%Kou%NULL%0,               Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,               Penelope%Strid%NULL%1,               Van T.%Tong%NULL%1,               Kate%Woodworth%NULL%1,               Romeo R.%Galang%NULL%1,               Laura D.%Zambrano%NULL%1,               John%Nahabedian%NULL%1,               Kayla%Anderson%NULL%1,               Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,               Jacob%Fiksel%NULL%2,               Jacob%Fiksel%NULL%0,               John%Muschelli%NULL%2,               John%Muschelli%NULL%0,               Matthew L.%Robinson%NULL%2,               Matthew L.%Robinson%NULL%0,               Masoud%Rouhizadeh%NULL%2,               Masoud%Rouhizadeh%NULL%0,               Jamie%Perin%NULL%2,               Jamie%Perin%NULL%0,               Grant%Schumock%NULL%2,               Grant%Schumock%NULL%0,               Paul%Nagy%NULL%2,               Paul%Nagy%NULL%0,               Josh H.%Gray%NULL%2,               Josh H.%Gray%NULL%0,               Harsha%Malapati%NULL%2,               Harsha%Malapati%NULL%0,               Mariam%Ghobadi-Krueger%NULL%2,               Mariam%Ghobadi-Krueger%NULL%0,               Timothy M.%Niessen%NULL%1,               Bo Soo%Kim%NULL%1,               Peter M.%Hill%NULL%1,               M. Shafeeq%Ahmed%NULL%1,               Eric D.%Dobkin%NULL%1,               Renee%Blanding%NULL%1,               Jennifer%Abele%NULL%1,               Bonnie%Woods%NULL%1,               Kenneth%Harkness%NULL%1,               David R.%Thiemann%NULL%1,               Mary G.%Bowring%NULL%1,               Aalok B.%Shah%NULL%2,               Aalok B.%Shah%NULL%0,               Mei-Cheng%Wang%NULL%1,               Karen%Bandeen-Roche%NULL%1,               Antony%Rosen%NULL%1,               Scott L.%Zeger%NULL%2,               Scott L.%Zeger%NULL%0,               Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,               Megan%McCullough%NULL%0,               Megan%McCullough%NULL%0,               Michael A.%Fuery%NULL%0,               Fouad%Chouairi%NULL%0,               Fouad%Chouairi%NULL%0,               Craig%Keating%NULL%0,               Neal G.%Ravindra%NULL%0,               P. Elliott%Miller%NULL%0,               Maricar%Malinis%NULL%0,               Nitu%Kashyap%NULL%0,               Allen%Hsiao%NULL%0,               F. Perry%Wilson%NULL%0,               Jeptha P.%Curtis%NULL%0,               Matthew%Grant%NULL%0,               Eric J.%Velazquez%NULL%0,               Nihar R.%Desai%NULL%0,               Tariq%Ahmad%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0,               Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                 R. U.% Shah%null%1,                 M.% Bale%null%1,                 J. B.% Peacock%null%1,                 B.% Berger%null%1,                 A.% Brown%null%1,                 S.% Mann%null%1,                 W.% West%null%1,                 V.% Martin%null%1,                 V.% Fernandez%null%1,                 S.% Grineski%null%1,                 B. J.% Brintz%null%1,                 M. H.% Samore%null%1,                 M. J.% Ferrari%null%1,                 D. T.% Leung%null%1,                 L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                Samuel L%Bruce%NULL%1,                Cody L%Slater%NULL%1,                Jonathan R%Tiao%NULL%1,                Matthew R%Baldwin%NULL%1,                R Graham%Barr%NULL%1,                Bernard P%Chang%NULL%1,                Katherine H%Chau%NULL%1,                Justin J%Choi%NULL%1,                Nicholas%Gavin%NULL%1,                Parag%Goyal%NULL%1,                Angela M%Mills%NULL%1,                Ashmi A%Patel%NULL%1,                Marie-Laure S%Romney%NULL%1,                Monika M%Safford%NULL%1,                Neil W%Schluger%NULL%1,                Soumitra%Sengupta%NULL%1,                Magdalena E%Sobieszczyk%NULL%1,                Jason E%Zucker%NULL%1,                Paul A%Asadourian%NULL%1,                Fletcher M%Bell%NULL%1,                Rebekah%Boyd%NULL%1,                Matthew F%Cohen%NULL%1,                MacAlistair I%Colquhoun%NULL%1,                Lucy A%Colville%NULL%1,                Joseph H%de Jonge%NULL%1,                Lyle B%Dershowitz%NULL%1,                Shirin A%Dey%NULL%1,                Katherine A%Eiseman%NULL%1,                Zachary P%Girvin%NULL%1,                Daniella T%Goni%NULL%1,                Amro A%Harb%NULL%1,                Nicholas%Herzik%NULL%1,                Sarah%Householder%NULL%1,                Lara E%Karaaslan%NULL%1,                Heather%Lee%NULL%1,                Evan%Lieberman%NULL%1,                Andrew%Ling%NULL%1,                Ree%Lu%NULL%1,                Arthur Y%Shou%NULL%1,                Alexander C%Sisti%NULL%1,                Zachary E%Snow%NULL%1,                Colin P%Sperring%NULL%1,                Yuqing%Xiong%NULL%1,                Henry W%Zhou%NULL%1,                Karthik%Natarajan%NULL%1,                George%Hripcsak%NULL%1,                Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                Megan%McCullough%NULL%4,                Megan%McCullough%NULL%0,                Michael A.%Fuery%NULL%2,                Fouad%Chouairi%NULL%4,                Fouad%Chouairi%NULL%0,                Craig%Keating%NULL%2,                Neal G.%Ravindra%NULL%2,                P. Elliott%Miller%NULL%2,                Maricar%Malinis%NULL%2,                Nitu%Kashyap%NULL%2,                Allen%Hsiao%NULL%2,                F. Perry%Wilson%NULL%2,                Jeptha P.%Curtis%NULL%2,                Matthew%Grant%NULL%2,                Eric J.%Velazquez%NULL%2,                Nihar R.%Desai%NULL%2,                Tariq%Ahmad%NULL%2,                Chiara%Lazzeri%NULL%18,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,                Karen K.%Wong%NULL%1,                Christine M.%Szablewski%NULL%1,                Priti R.%Patel%NULL%1,                John%Rossow%NULL%1,                Juliana%da Silva%NULL%1,                Pavithra%Natarajan%NULL%1,                Sapna Bamrah%Morris%NULL%1,                Robyn Neblett%Fanfair%NULL%1,                Jessica%Rogers-Brown%NULL%1,                Beau B.%Bruce%NULL%1,                Sean D.%Browning%NULL%1,                Alfonso C.%Hernandez-Romieu%NULL%2,                Nathan W.%Furukawa%NULL%1,                Mohleen%Kang%NULL%1,                Mary E.%Evans%NULL%1,                Nadine%Oosmanally%NULL%1,                Melissa%Tobin-D’Angelo%NULL%1,                Cherie%Drenzek%NULL%1,                David J.%Murphy%NULL%0,                Julie%Hollberg%NULL%1,                James M.%Blum%NULL%0,                Robert%Jansen%NULL%1,                David W.%Wright%NULL%1,                William M.%Sewell%NULL%1,                Jack D.%Owens%NULL%1,                Benjamin%Lefkove%NULL%1,                Frank W.%Brown%NULL%1,                Deron C.%Burton%NULL%1,                Timothy M.%Uyeki%NULL%3,                Stephanie R.%Bialek%NULL%1,                Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                Jasmine A.%Mack%NULL%1,                Maxwell%Salvatore%NULL%1,                Swaraaj Prabhu%Sankar%NULL%1,                Thomas S.%Valley%NULL%1,                Karandeep%Singh%NULL%1,                Brahmajee K.%Nallamothu%NULL%1,                Sachin%Kheterpal%NULL%1,                Lynda%Lisabeth%NULL%1,                Lars G.%Fritsche%NULL%1,                Bhramar%Mukherjee%NULL%1,                 T.%Gu%null%1,                 J. A.% Mack%null%1,                 M.% Salvatore%null%1,                 S. P.% Sankar%null%1,                 T. S.% Valley%null%1,                 K.% Singh%null%1,                 B. K.% Nallamothu%null%1,                 S.% Kheterpal%null%1,                 L.% Lisabeth%null%1,                 L. G.% Fritsche%null%1,                 B. G. % Mukherjee%null%1,                T.%Gu%null%1,                J. A.% Mack%null%1,                M.% Salvatore%null%1,                S. P.% Sankar%null%1,                T. S.% Valley%null%1,                K.% Singh%null%1,                B. K.% Nallamothu%null%1,                S.% Kheterpal%null%1,                L.% Lisabeth%null%1,                L. G.% Fritsche%null%1,                B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                 S.% Nirenberg%null%1,                 P.% Kovatch%null%1,                 K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                Shikha%Garg%NULL%1,                Alissa%O’Halloran%NULL%1,                Michael%Whitaker%NULL%1,                Huong%Pham%NULL%1,                Evan J%Anderson%NULL%1,                Isaac%Armistead%NULL%1,                Nancy M%Bennett%NULL%1,                Laurie%Billing%NULL%1,                Kathryn%Como-Sabetti%NULL%1,                Mary%Hill%NULL%1,                Sue%Kim%NULL%1,                Maya L%Monroe%NULL%1,                Alison%Muse%NULL%1,                Arthur L%Reingold%NULL%1,                William%Schaffner%NULL%1,                Melissa%Sutton%NULL%1,                H Keipp%Talbot%NULL%1,                Salina M%Torres%NULL%1,                Kimberly%Yousey-Hindes%NULL%1,                Rachel%Holstein%NULL%1,                Charisse%Cummings%NULL%1,                Lynette%Brammer%NULL%1,                Aron J%Hall%NULL%1,                Alicia M%Fry%NULL%1,                Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                 S.% Richardson%null%1,                 K.% Coppa%null%1,                 D. P.% Barnaby%null%1,                 T.% McGinn%null%1,                 L. B.% Becker%null%1,                 K. W.% Davidson%null%1,                 S. L.% Cohen%null%1,                 J. S.% Hirsch%null%1,                 T.% Zanos%null%1,                   % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                 L. H.% Nguyen%null%1,                 D. A.% Drew%null%1,                 M. S.% Graham%null%1,                 E. T.% Warner%null%1,                 A. D.% Joshi%null%1,                 C. M.% Astley%null%1,                 C.-G.% Guo%null%1,                 W.% Ma%null%1,                 R. S.% Mehta%null%1,                 S.% Kwon%null%1,                 M.% Song%null%1,                 R.% Davies%null%1,                 J.% Capdevila%null%1,                 K. A.% Lee%null%1,                 M. N.% Lochlainn%null%1,                 T.% Varsavsky%null%1,                 C. H.% Sudre%null%1,                 J.% Wolf%null%1,                 Y. C.% Cozier%null%1,                 L.% Rosenberg%null%1,                 L. R.% Wilkens%null%1,                 C. A.% Haiman%null%1,                 L. L.% Marchand%null%1,                 J. R.% Palmer%null%1,                 T. D.% Spector%null%1,                 S.% Ourselin%null%1,                 C. J.% Steves%null%1,                 A. T.% Chan%null%1,                   % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                Jienchi%Dorward%NULL%1,                Ana%Correa%NULL%1,                Nicholas%Jones%NULL%1,                Oluwafunmi%Akinyemi%NULL%1,                Gayatri%Amirthalingam%NULL%1,                Nick%Andrews%NULL%1,                Rachel%Byford%NULL%1,                Gavin%Dabrera%NULL%1,                Alex%Elliot%NULL%1,                Joanna%Ellis%NULL%0,                Filipa%Ferreira%NULL%1,                Jamie%Lopez Bernal%NULL%1,                Cecilia%Okusi%NULL%1,                Mary%Ramsay%NULL%1,                Julian%Sherlock%NULL%1,                Gillian%Smith%NULL%1,                John%Williams%NULL%1,                Gary%Howsam%NULL%1,                Maria%Zambon%NULL%0,                Mark%Joy%NULL%1,                F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                Johanna%Dolle%NULL%2,                Johanna%Dolle%NULL%0,                Sheila%Grami%NULL%1,                Richard%Adule%NULL%1,                Zeyu%Li%NULL%1,                Kathleen%Tatem%NULL%1,                Chinyere%Anyaogu%NULL%1,                Stephen%Apfelroth%NULL%1,                Raji%Ayinla%NULL%2,                Raji%Ayinla%NULL%0,                Noella%Boma%NULL%1,                Terence%Brady%NULL%1,                Braulio F.%Cosme-Thormann%NULL%1,                Roseann%Costarella%NULL%1,                Kenra%Ford%NULL%1,                Kecia%Gaither%NULL%1,                Jessica%Jacobson%NULL%1,                Marc%Kanter%NULL%1,                Stuart%Kessler%NULL%1,                Ross B.%Kristal%NULL%1,                Joseph J.%Lieber%NULL%1,                Vikramjit%Mukherjee%NULL%1,                Vincent%Rizzo%NULL%1,                Madden%Rowell%NULL%1,                David%Stevens%NULL%1,                Elana%Sydney%NULL%1,                Andrew%Wallach%NULL%2,                Andrew%Wallach%NULL%0,                Dave A.%Chokshi%NULL%1,                Nichola%Davis%NULL%1,                NULL%NULL%NULL%0,                Sze Yan%Liu%NULL%2,                Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                Mark%Caridi-Scheible%NULL%0,                James M.%Blum%NULL%0,                Chad%Robichaux%NULL%1,                Colleen%Kraft%NULL%1,                Jesse T.%Jacob%NULL%1,                Craig S.%Jabaley%NULL%0,                David%Carpenter%NULL%1,                Roberta%Kaplow%NULL%1,                Alfonso C.%Hernandez-Romieu%NULL%0,                Max W.%Adelman%NULL%0,                Greg S.%Martin%NULL%0,                Craig M.%Coopersmith%NULL%1,                David J.%Murphy%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,        Seunghee%Kim-Schulze%null%1,        Hsin-Hui%Huang%null%1,        Noam D.%Beckmann%null%1,        Sharon%Nirenberg%null%1,        Bo%Wang%null%1,        Yonit%Lavin%null%1,        Talia H.%Swartz%null%1,        Deepu%Madduri%null%1,        Aryeh%Stock%null%1,        Thomas U.%Marron%null%1,        Hui%Xie%null%1,        Manishkumar%Patel%null%1,        Kevin%Tuballes%null%1,        Oliver%Oekelen%null%1,        Adeeb%Rahman%null%1,        Patricia%Kovatch%null%1,        Judith A.%Aberg%null%1,        Eric%Schadt%null%1,        Sundar%Jagannath%null%1,        Madhu%Mazumdar%null%1,        Alexander W.%Charney%null%1,        Adolfo%Firpo-Betancourt%null%1,        Damodara Rao%Mendu%null%1,        Jeffrey%Jhang%null%1,        David%Reich%null%1,        Keith%Sigel%null%1,        Carlos%Cordon-Cardo%null%1,        Marc%Feldmann%null%1,        Samir%Parekh%null%1,        Miriam%Merad%null%1,        Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                David R.%Jenkins%NULL%1,                Jatinder S.%Minhas%NULL%1,                Laura J.%Gray%NULL%1,                Julian%Tang%NULL%1,                Caroline%Williams%NULL%1,                Shirley%Sze%NULL%1,                Daniel%Pan%NULL%1,                William%Jones%NULL%1,                Raman%Verma%NULL%1,                Scott%Knapp%NULL%1,                Rupert%Major%NULL%1,                Melanie%Davies%NULL%1,                Nigel%Brunskill%NULL%1,                Martin%Wiselka%NULL%1,                Chris%Brightling%NULL%1,                Kamlesh%Khunti%NULL%1,                Pranab%Haldar%NULL%1,                Manish%Pareek%mp426@le.ac.uk%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                Kelly E%Hathorn%NULL%2,                Kelly E%Hathorn%NULL%0,                Walker D%Redd%NULL%1,                Nicolette J%Rodriguez%NULL%1,                Joyce C%Zhou%NULL%1,                Ahmad Najdat%Bazarbashi%NULL%1,                Cheikh%Njie%NULL%1,                Danny%Wong%NULL%1,                Quoc-Dien%Trinh%NULL%1,                Lin%Shen%NULL%1,                Valerie E%Stone%NULL%2,                Valerie E%Stone%NULL%0,                Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                 S.% Apewokin%null%1,                 A. A.% Wells%null%1,                 A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                Thomas E.%Webb%NULL%2,                Thomas E.%Webb%NULL%0,                Benjamin C.%Mcloughlin%NULL%2,                Benjamin C.%Mcloughlin%NULL%0,                Imran%Mannan%NULL%2,                Imran%Mannan%NULL%0,                Arshad%Rather%NULL%2,                Arshad%Rather%NULL%0,                Paul%Knopp%NULL%1,                Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                Rajat%Suri%NULL%2,                Rajat%Suri%NULL%0,                Iheanacho O.%Emeruwa%NULL%2,                Iheanacho O.%Emeruwa%NULL%0,                Robert J.%Stretch%NULL%1,                Roxana Y.%Cortes-Lopez%NULL%2,                Roxana Y.%Cortes-Lopez%NULL%0,                Alexander%Sherman%NULL%1,                Catherine C.%Lindsay%NULL%1,                Jennifer A.%Fulcher%NULL%1,                David%Goodman-Meza%NULL%2,                David%Goodman-Meza%NULL%0,                Anil%Sapru%NULL%2,                Anil%Sapru%NULL%0,                Russell G.%Buhr%NULL%1,                Steven Y.%Chang%NULL%2,                Steven Y.%Chang%NULL%0,                Tisha%Wang%NULL%1,                Nida%Qadir%NULL%1,                Giordano%Madeddu%NULL%8,                Giordano%Madeddu%NULL%0,                Giordano%Madeddu%NULL%0,                Ana C.%Monteiro%NULL%2,                Ana C.%Monteiro%NULL%0,                Giordano%Madeddu%NULL%0,                Giordano%Madeddu%NULL%0,                Giordano%Madeddu%NULL%0,                Giordano%Madeddu%NULL%0,                Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                 D.% Stefanov%null%1,                 A. S.% Chau%null%1,                 A. G.% Weber%null%1,                 G. S.% Marder%null%1,                 B.% Kaplan%null%1,                 P.% Malhotra%null%1,                 O.% Bloom%null%1,                 A.% Liu%null%1,                 M.% Lesser%null%1,                 N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                Catherine A.%O’Donnell%NULL%2,                Bhautesh Dinesh%Jani%NULL%1,                Evangelia%Demou%NULL%1,                Frederick K.%Ho%NULL%1,                Carlos%Celis-Morales%NULL%1,                Barbara I.%Nicholl%NULL%1,                Frances S.%Mair%NULL%2,                Paul%Welsh%NULL%2,                Naveed%Sattar%NULL%2,                Jill P.%Pell%NULL%2,                S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                Alex J%Walker%NULL%1,                Krishnan%Bhaskaran%NULL%1,                Seb%Bacon%NULL%1,                Chris%Bates%NULL%1,                Caroline E%Morton%NULL%1,                Helen J%Curtis%NULL%1,                Amir%Mehrkar%NULL%1,                David%Evans%NULL%1,                Peter%Inglesby%NULL%1,                Jonathan%Cockburn%NULL%1,                Helen I%McDonald%NULL%1,                Brian%MacKenna%NULL%1,                Laurie%Tomlinson%NULL%1,                Ian J%Douglas%NULL%1,                Christopher T%Rentsch%NULL%1,                Rohini%Mathur%NULL%1,                Angel YS%Wong%NULL%1,                Richard%Grieve%NULL%1,                David%Harrison%NULL%1,                Harriet%Forbes%NULL%1,                Anna%Schultze%NULL%2,                Richard%Croker%NULL%1,                John%Parry%NULL%1,                Frank%Hester%NULL%1,                Sam%Harper%NULL%1,                Rafael%Perera%NULL%1,                Stephen JW%Evans%NULL%1,                Liam%Smeeth%NULL%1,                Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                Ajay%Bhasin%NULL%1,                Joseph M.%Feinglass%NULL%1,                Michael P.%Angarone%NULL%1,                Elaine R.%Cohen%NULL%1,                Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,          Zijun%Shen%xref no email%1,          Robert J.%Romanelli%xref no email%1,          Stephen H.%Lockhart%xref no email%1,          Kelly%Smits%xref no email%1,          Sarah%Robinson%xref no email%1,          Stephanie%Brown%xref no email%1,          Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                Andrew%Gangemi%NULL%1,                Robert%Marron%NULL%1,                Junad%Chowdhury%NULL%1,                Ibraheem%Yousef%NULL%1,                Matthew%Zheng%NULL%1,                Nicole%Mills%NULL%1,                Lauren%Tragesser%NULL%1,                Julie%Giurintano%NULL%1,                Rohit%Gupta%NULL%0,                Matthew%Gordon%NULL%0,                Parth%Rali%NULL%2,                Parth%Rali%NULL%0,                Gilbert%D'Alonso%NULL%1,                David%Fleece%NULL%1,                Huaqing%Zhao%NULL%0,                Nicole%Patlakh%NULL%0,                Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                Nathan C.%Skorodin%nskorodin@midcusa.com%1,                Nicholas W.%Van Hise%NULL%1,                Robert M.%Fliegelman%NULL%1,                Jonathan%Pinsky%NULL%1,                Vishal%Didwania%NULL%1,                Michael%Anderson%NULL%1,                Melina%Diaz%NULL%1,                Kairav%Shah%NULL%1,                Vishnu V.%Chundi%NULL%1,                David W.%Hines%NULL%1,                Brian P.%Harting%NULL%1,                Kamo%Sidwha%NULL%1,                Brian%Yu%NULL%1,                Paul%Brune%NULL%1,                Anjum%Owaisi%NULL%1,                David%Beezhold%NULL%1,                Joseph%Kent%NULL%1,                Dana%Vais%NULL%1,                Alice%Han%NULL%1,                Neethi%Gowda%NULL%1,                Nishi%Sahgal%NULL%1,                Jan%Silverman%NULL%1,                Jonathan%Stake%NULL%1,                Jenie%Nepomuceno%NULL%1,                Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                Anna%Daunt%NULL%2,                Anna%Daunt%NULL%0,                Sujit%Mukherjee%NULL%1,                Peter%Crook%NULL%1,                Roberta%Forlano%NULL%1,                Mara D%Kont%NULL%1,                Alessandra%Løchen%NULL%1,                Michaela%Vollmer%NULL%1,                Paul%Middleton%NULL%1,                Rebekah%Judge%NULL%1,                Christopher%Harlow%NULL%1,                Anet%Soubieres%NULL%1,                Graham%Cooke%NULL%1,                Peter J%White%NULL%1,                Timothy B%Hallett%NULL%1,                Paul%Aylin%NULL%1,                Neil%Ferguson%NULL%1,                Katharina%Hauck%NULL%1,                Mark R%Thursz%NULL%1,                Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                Jeffrey%Burton%NULL%2,                Jeffrey%Burton%NULL%0,                Daniel%Fort%NULL%1,                Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                Michael S.%Sherman%NULL%1,                Naaz%Fatteh%NULL%1,                Fabio%Vogel%NULL%1,                Jamie%Sacks%NULL%1,                Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                 P.% Mannam%null%1,                 R.% Comer%null%1,                 E.% Sinclair%null%1,                 D. B.% McQuaid%null%1,                 M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                Farah%Kidwai-Khan%NULL%1,                Janet P.%Tate%NULL%1,                Lesley S.%Park%NULL%1,                Joseph T.%King%NULL%1,                Melissa%Skanderson%NULL%1,                Ronald G.%Hauser%NULL%1,                Anna%Schultze%NULL%0,                Christopher I.%Jarvis%NULL%1,                Mark%Holodniy%NULL%1,                Vincent Lo%Re%NULL%1,                Kathleen M.%Akgün%NULL%1,                Kristina%Crothers%NULL%1,                Tamar H.%Taddei%NULL%1,                Matthew S.%Freiberg%NULL%1,                Amy C.%Justice%NULL%1,                 C. T.%Rentsch%null%1,                 F.% Kidwai-Khan%null%1,                 J. P.% Tate%null%1,                 L. S.% Park%null%1,                 J. T.% King%null%1,                 M.% Skanderson%null%1,                 R. G.% Hauser%null%1,                 A.% Schultze%null%1,                 C. I.% Jarvis%null%1,                 M.% Holodniy%null%1,                 V.% Lo Re%null%1,                 K. M.% Akgun%null%1,                 K.% Crothers%null%1,                 T. H.% Taddei%null%1,                 M. S.% Freiberg%null%1,                 A. C. % Justice%null%1,                C. T.%Rentsch%null%1,                F.% Kidwai-Khan%null%1,                J. P.% Tate%null%1,                L. S.% Park%null%1,                J. T.% King%null%1,                M.% Skanderson%null%1,                R. G.% Hauser%null%1,                A.% Schultze%null%1,                C. I.% Jarvis%null%1,                M.% Holodniy%null%1,                V.% Lo Re%null%1,                K. M.% Akgun%null%1,                K.% Crothers%null%1,                T. H.% Taddei%null%1,                M. S.% Freiberg%null%1,                A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,          Elizabeth M.%Dufort%xref no email%1,          Tomoko%Udo%xref no email%1,          Larissa A.%Wilberschied%xref no email%1,          Jessica%Kumar%xref no email%1,          James%Tesoriero%xref no email%1,          Patti%Weinberg%xref no email%1,          James%Kirkwood%xref no email%1,          Alison%Muse%xref no email%1,          Jack%DeHovitz%xref no email%1,          Debra S.%Blog%xref no email%1,          Brad%Hutton%xref no email%1,          David R.%Holtgrave%xref no email%1,          Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                Jennifer%Beam%NULL%2,                Jennifer%Beam%NULL%0,                Haley%Maier%NULL%1,                Whitney%Haggerson%NULL%1,                Karen%Boudreau%NULL%1,                Jamie%Carlson%NULL%1,                Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                Alexander E.%Ayala%NULL%1,                Chideraa C.%Ukeje%NULL%1,                Celeste S.%Witting%NULL%1,                William A.%Grobman%NULL%1,                Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                Hannah C.%Jarvis%NULL%2,                Hannah C.%Jarvis%NULL%0,                Ezgi%Ozcan%NULL%1,                Thomas L. P.%Burns%NULL%1,                Rabia A.%Warraich%NULL%1,                Lisa J.%Amani%NULL%1,                Amina%Jaffer%NULL%1,                Stephanie%Paget%NULL%1,                Anand%Sivaramakrishnan%NULL%1,                Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                Suzy%Gallier%NULL%2,                Suzy%Gallier%NULL%0,                Chris%Mainey%NULL%1,                Peter%Nightingale%NULL%2,                Peter%Nightingale%NULL%0,                David%McNulty%NULL%1,                Hannah%Crothers%NULL%1,                Felicity%Evison%NULL%1,                Katharine%Reeves%NULL%1,                Domenico%Pagano%NULL%1,                Alastair K%Denniston%NULL%1,                Krishnarajah%Nirantharakumar%NULL%1,                Peter%Diggle%NULL%1,                Simon%Ball%NULL%1,                Lylah%Irshad%NULL%1,                Maxim%Harris%NULL%1,                Theodore%Nabav%NULL%1,                A%Kolesnyk%NULL%1,                M%Ahmed%NULL%1,                A%Liaqat%NULL%1,                Tanya%Pankhurst%NULL%1,                Jamie%Coleman%NULL%1,                Chirag%Dave%NULL%1,                Khaled%ElFandi%NULL%1,                Rifat%Rashid%NULL%1,                Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                Gregory A%Eschenauer%NULL%2,                Gregory A%Eschenauer%NULL%0,                Jonathan P%Troost%NULL%1,                Jonathan L%Golob%NULL%1,                Tejal N%Gandhi%NULL%1,                Lu%Wang%NULL%1,                Nina%Zhou%NULL%1,                Lindsay A%Petty%NULL%1,                Ji Hoon%Baang%NULL%1,                Nicholas O%Dillman%NULL%1,                David%Frame%NULL%1,                Kevin S%Gregg%NULL%1,                Dan R%Kaul%NULL%1,                Jerod%Nagel%NULL%1,                Twisha S%Patel%NULL%1,                Shiwei%Zhou%NULL%1,                Adam S%Lauring%NULL%1,                David A%Hanauer%NULL%1,                Emily%Martin%NULL%1,                Pratima%Sharma%NULL%1,                Christopher M%Fung%NULL%1,                Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                Lei%Qian%NULL%2,                Lei%Qian%NULL%0,                Vennis%Hong%NULL%1,                Rong%Wei%NULL%2,                Rong%Wei%NULL%0,                Ron F.%Nadjafi%NULL%2,                Ron F.%Nadjafi%NULL%0,                Heidi%Fischer%NULL%1,                Zhuoxin%Li%NULL%1,                Sally F.%Shaw%NULL%1,                Susan L.%Caparosa%NULL%2,                Susan L.%Caparosa%NULL%0,                Claudia L.%Nau%NULL%1,                Tanmai%Saxena%NULL%1,                Gunter K.%Rieg%NULL%1,                Bradley K.%Ackerson%NULL%1,                Adam L.%Sharp%NULL%2,                Adam L.%Sharp%NULL%0,                Jacek%Skarbinski%NULL%2,                Jacek%Skarbinski%NULL%0,                Tej K.%Naik%NULL%1,                Sameer B.%Murali%NULL%2,                Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                Juan Carlos%Nicolas%NULL%2,                Juan Carlos%Nicolas%NULL%0,                Jennifer R%Meeks%NULL%1,                Osman%Khan%NULL%1,                Alan%Pan%NULL%1,                Stephen L%Jones%NULL%1,                Faisal%Masud%NULL%1,                H Dirk%Sostman%NULL%1,                Robert%Phillips%NULL%1,                Julia D%Andrieni%NULL%1,                Bita A%Kash%NULL%1,                Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                Arryn%Craney%NULL%1,                Phyllis%Ruggiero%NULL%1,                John%Sipley%NULL%1,                Lin%Cong%NULL%1,                Erika M.%Hissong%NULL%1,                Massimo%Loda%NULL%1,                Lars F.%Westblade%NULL%1,                Melissa%Cushing%NULL%2,                Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                 X.% Zhong%null%1,                 Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                Amanda%Zheutlin%NULL%2,                Amanda%Zheutlin%NULL%0,                Yu-Han%Kao%NULL%1,                Kristin%Ayers%NULL%1,                Susan%Gross%NULL%1,                Patricia%Kovatch%NULL%1,                Sharon%Nirenberg%NULL%1,                Alexander%Charney%NULL%1,                Girish%Nadkarni%NULL%1,                Jessica K%De Freitas%NULL%1,                Paul%O’Reilly%NULL%1,                Allan%Just%NULL%1,                Carol%Horowitz%NULL%1,                Glenn%Martin%NULL%1,                Andrea%Branch%NULL%1,                Benjamin S%Glicksberg%NULL%1,                Dennis%Charney%NULL%1,                David%Reich%NULL%1,                William K%Oh%NULL%1,                Eric%Schadt%NULL%1,                Rong%Chen%NULL%0,                Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                Angela%Winegar%NULL%1,                Richard%Fogel%NULL%1,                Mohamad%Fakih%NULL%1,                Allison%Ottenbacher%NULL%1,                Christine%Jesser%NULL%1,                Angelo%Bufalino%NULL%1,                Ren-Huai%Huang%NULL%1,                Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                Rebecca%Bendayan%NULL%0,                Mark%Ashworth%NULL%1,                Daniel M.%Bean%NULL%1,                Hiten%Dodhia%NULL%1,                Stevo%Durbaba%NULL%1,                Kevin%O'Gallagher%NULL%1,                Claire%Palmer%NULL%1,                Vasa%Curcin%NULL%1,                Elizabeth%Aitken%NULL%1,                William%Bernal%NULL%1,                Richard D.%Barker%NULL%1,                Sam%Norton%NULL%1,                Martin%Gulliford%NULL%1,                James T.H.%Teo%NULL%0,                James%Galloway%NULL%1,                Richard J.B.%Dobson%NULL%0,                Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                Carina%Marquez%NULL%1,                Emily%Crawford%NULL%1,                James%Peng%NULL%1,                Maya%Petersen%NULL%1,                Daniel%Schwab%NULL%1,                Joshua%Schwab%NULL%1,                Jackie%Martinez%NULL%1,                Diane%Jones%NULL%1,                Douglas%Black%NULL%1,                Monica%Gandhi%NULL%1,                Andrew D%Kerkhoff%NULL%1,                Vivek%Jain%NULL%1,                Francesco%Sergi%NULL%1,                Jon%Jacobo%NULL%1,                Susana%Rojas%NULL%1,                Valerie%Tulier-Laiwa%NULL%1,                Tracy%Gallardo-Brown%NULL%1,                Ayesha%Appa%NULL%1,                Charles%Chiu%NULL%1,                Mary%Rodgers%NULL%1,                John%Hackett%NULL%1,                NULL%NULL%NULL%0,                Amy%Kistler%NULL%1,                Samantha%Hao%NULL%1,                Jack%Kamm%NULL%1,                David%Dynerman%NULL%1,                Joshua%Batson%NULL%1,                Bryan%Greenhouse%NULL%1,                Joe%DeRisi%NULL%1,                Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                Tiffany%Grimes%NULL%1,                Peng%Li%NULL%1,                Matthew%Might%NULL%1,                Fernando%Ovalle%NULL%1,                Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                Natalie%Achamallah%NULL%1,                Hongwei%Ji%NULL%1,                Brian L.%Claggett%NULL%1,                Nancy%Sun%NULL%1,                Patrick%Botting%NULL%1,                Trevor-Trung%Nguyen%NULL%1,                Eric%Luong%NULL%1,                Elizabeth H.%Kim%NULL%1,                Eunice%Park%NULL%1,                Yunxian%Liu%NULL%1,                Ryan%Rosenberry%NULL%1,                Yuri%Matusov%NULL%1,                Steven%Zhao%NULL%1,                Isabel%Pedraza%NULL%1,                Tanzira%Zaman%NULL%1,                Michael%Thompson%NULL%1,                Koen%Raedschelders%NULL%1,                Anders H.%Berg%NULL%2,                Anders H.%Berg%NULL%0,                Jonathan D.%Grein%NULL%1,                Paul W.%Noble%NULL%1,                Sumeet S.%Chugh%NULL%1,                C. Noel%Bairey Merz%NULL%1,                Eduardo%Marbán%NULL%1,                Jennifer E.%Van Eyk%NULL%1,                Scott D.%Solomon%NULL%1,                Christine M.%Albert%NULL%1,                Peter%Chen%NULL%1,                Susan%Cheng%NULL%3,                Yu Ru%Kou%NULL%8,                Yu Ru%Kou%NULL%0,                Yu Ru%Kou%NULL%0,                Susan%Cheng%biodatacore@cshs.org%0,                Susan%Cheng%biodatacore@cshs.org%0,                Yu Ru%Kou%NULL%0,                Yu Ru%Kou%NULL%0,                Yu Ru%Kou%NULL%0,                Yu Ru%Kou%NULL%0,                Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                Penelope%Strid%NULL%1,                Van T.%Tong%NULL%1,                Kate%Woodworth%NULL%1,                Romeo R.%Galang%NULL%1,                Laura D.%Zambrano%NULL%1,                John%Nahabedian%NULL%1,                Kayla%Anderson%NULL%1,                Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                Jacob%Fiksel%NULL%2,                Jacob%Fiksel%NULL%0,                John%Muschelli%NULL%2,                John%Muschelli%NULL%0,                Matthew L.%Robinson%NULL%2,                Matthew L.%Robinson%NULL%0,                Masoud%Rouhizadeh%NULL%2,                Masoud%Rouhizadeh%NULL%0,                Jamie%Perin%NULL%2,                Jamie%Perin%NULL%0,                Grant%Schumock%NULL%2,                Grant%Schumock%NULL%0,                Paul%Nagy%NULL%2,                Paul%Nagy%NULL%0,                Josh H.%Gray%NULL%2,                Josh H.%Gray%NULL%0,                Harsha%Malapati%NULL%2,                Harsha%Malapati%NULL%0,                Mariam%Ghobadi-Krueger%NULL%2,                Mariam%Ghobadi-Krueger%NULL%0,                Timothy M.%Niessen%NULL%1,                Bo Soo%Kim%NULL%1,                Peter M.%Hill%NULL%1,                M. Shafeeq%Ahmed%NULL%1,                Eric D.%Dobkin%NULL%1,                Renee%Blanding%NULL%1,                Jennifer%Abele%NULL%1,                Bonnie%Woods%NULL%1,                Kenneth%Harkness%NULL%1,                David R.%Thiemann%NULL%1,                Mary G.%Bowring%NULL%1,                Aalok B.%Shah%NULL%2,                Aalok B.%Shah%NULL%0,                Mei-Cheng%Wang%NULL%1,                Karen%Bandeen-Roche%NULL%1,                Antony%Rosen%NULL%1,                Scott L.%Zeger%NULL%2,                Scott L.%Zeger%NULL%0,                Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                Megan%McCullough%NULL%0,                Megan%McCullough%NULL%0,                Michael A.%Fuery%NULL%0,                Fouad%Chouairi%NULL%0,                Fouad%Chouairi%NULL%0,                Craig%Keating%NULL%0,                Neal G.%Ravindra%NULL%0,                P. Elliott%Miller%NULL%0,                Maricar%Malinis%NULL%0,                Nitu%Kashyap%NULL%0,                Allen%Hsiao%NULL%0,                F. Perry%Wilson%NULL%0,                Jeptha P.%Curtis%NULL%0,                Matthew%Grant%NULL%0,                Eric J.%Velazquez%NULL%0,                Nihar R.%Desai%NULL%0,                Tariq%Ahmad%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3785,7 +4079,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>874</v>
+        <v>972</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3814,7 +4108,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>875</v>
+        <v>973</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -3843,7 +4137,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>876</v>
+        <v>974</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -3872,7 +4166,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>877</v>
+        <v>975</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -3901,7 +4195,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>878</v>
+        <v>976</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3930,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>879</v>
+        <v>977</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -3959,7 +4253,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>880</v>
+        <v>978</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -3988,7 +4282,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>881</v>
+        <v>979</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -4017,7 +4311,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>882</v>
+        <v>980</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -4046,7 +4340,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>883</v>
+        <v>981</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -4075,7 +4369,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>884</v>
+        <v>982</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -4104,7 +4398,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>885</v>
+        <v>983</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -4133,7 +4427,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>886</v>
+        <v>984</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -4162,7 +4456,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>887</v>
+        <v>985</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -4191,7 +4485,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>888</v>
+        <v>986</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -4220,7 +4514,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>889</v>
+        <v>987</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -4249,7 +4543,7 @@
         <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>890</v>
+        <v>988</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -4278,7 +4572,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>891</v>
+        <v>989</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -4307,7 +4601,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>892</v>
+        <v>990</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -4336,7 +4630,7 @@
         <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>893</v>
+        <v>991</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -4365,7 +4659,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>894</v>
+        <v>992</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -4394,7 +4688,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>895</v>
+        <v>993</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -4423,7 +4717,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>896</v>
+        <v>994</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -4452,7 +4746,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>897</v>
+        <v>995</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -4481,7 +4775,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>898</v>
+        <v>996</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -4510,7 +4804,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>899</v>
+        <v>997</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -4539,7 +4833,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>900</v>
+        <v>998</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -4568,7 +4862,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>901</v>
+        <v>999</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -4597,7 +4891,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>902</v>
+        <v>1000</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -4626,7 +4920,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>903</v>
+        <v>1001</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -4655,7 +4949,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>904</v>
+        <v>1002</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -4684,7 +4978,7 @@
         <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>905</v>
+        <v>1003</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -4713,7 +5007,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>906</v>
+        <v>1004</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -4742,7 +5036,7 @@
         <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>907</v>
+        <v>1005</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -4771,7 +5065,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>908</v>
+        <v>1006</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -4800,7 +5094,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>909</v>
+        <v>1007</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -4829,7 +5123,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>910</v>
+        <v>1008</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -4858,7 +5152,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>911</v>
+        <v>1009</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -4887,7 +5181,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>912</v>
+        <v>1010</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -4916,7 +5210,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>913</v>
+        <v>1011</v>
       </c>
       <c r="F41" t="s">
         <v>52</v>
@@ -4945,7 +5239,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>914</v>
+        <v>1012</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -4974,7 +5268,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>915</v>
+        <v>1013</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -5003,7 +5297,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>916</v>
+        <v>1014</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -5032,7 +5326,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>917</v>
+        <v>1015</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -5061,7 +5355,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>918</v>
+        <v>1016</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -5090,7 +5384,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>919</v>
+        <v>1017</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -5119,7 +5413,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>920</v>
+        <v>1018</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -5148,7 +5442,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>921</v>
+        <v>1019</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -5177,7 +5471,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>922</v>
+        <v>1020</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6365" uniqueCount="1070">
   <si>
     <t>Doi</t>
   </si>
@@ -3672,6 +3672,153 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,                Megan%McCullough%NULL%0,                Megan%McCullough%NULL%0,                Michael A.%Fuery%NULL%0,                Fouad%Chouairi%NULL%0,                Fouad%Chouairi%NULL%0,                Craig%Keating%NULL%0,                Neal G.%Ravindra%NULL%0,                P. Elliott%Miller%NULL%0,                Maricar%Malinis%NULL%0,                Nitu%Kashyap%NULL%0,                Allen%Hsiao%NULL%0,                F. Perry%Wilson%NULL%0,                Jeptha P.%Curtis%NULL%0,                Matthew%Grant%NULL%0,                Eric J.%Velazquez%NULL%0,                Nihar R.%Desai%NULL%0,                Tariq%Ahmad%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0,                Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                  R. U.% Shah%null%1,                  M.% Bale%null%1,                  J. B.% Peacock%null%1,                  B.% Berger%null%1,                  A.% Brown%null%1,                  S.% Mann%null%1,                  W.% West%null%1,                  V.% Martin%null%1,                  V.% Fernandez%null%1,                  S.% Grineski%null%1,                  B. J.% Brintz%null%1,                  M. H.% Samore%null%1,                  M. J.% Ferrari%null%1,                  D. T.% Leung%null%1,                  L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                 Samuel L%Bruce%NULL%1,                 Cody L%Slater%NULL%1,                 Jonathan R%Tiao%NULL%1,                 Matthew R%Baldwin%NULL%1,                 R Graham%Barr%NULL%1,                 Bernard P%Chang%NULL%1,                 Katherine H%Chau%NULL%1,                 Justin J%Choi%NULL%1,                 Nicholas%Gavin%NULL%1,                 Parag%Goyal%NULL%1,                 Angela M%Mills%NULL%1,                 Ashmi A%Patel%NULL%1,                 Marie-Laure S%Romney%NULL%1,                 Monika M%Safford%NULL%1,                 Neil W%Schluger%NULL%1,                 Soumitra%Sengupta%NULL%1,                 Magdalena E%Sobieszczyk%NULL%1,                 Jason E%Zucker%NULL%1,                 Paul A%Asadourian%NULL%1,                 Fletcher M%Bell%NULL%1,                 Rebekah%Boyd%NULL%1,                 Matthew F%Cohen%NULL%1,                 MacAlistair I%Colquhoun%NULL%1,                 Lucy A%Colville%NULL%1,                 Joseph H%de Jonge%NULL%1,                 Lyle B%Dershowitz%NULL%1,                 Shirin A%Dey%NULL%1,                 Katherine A%Eiseman%NULL%1,                 Zachary P%Girvin%NULL%1,                 Daniella T%Goni%NULL%1,                 Amro A%Harb%NULL%1,                 Nicholas%Herzik%NULL%1,                 Sarah%Householder%NULL%1,                 Lara E%Karaaslan%NULL%1,                 Heather%Lee%NULL%1,                 Evan%Lieberman%NULL%1,                 Andrew%Ling%NULL%1,                 Ree%Lu%NULL%1,                 Arthur Y%Shou%NULL%1,                 Alexander C%Sisti%NULL%1,                 Zachary E%Snow%NULL%1,                 Colin P%Sperring%NULL%1,                 Yuqing%Xiong%NULL%1,                 Henry W%Zhou%NULL%1,                 Karthik%Natarajan%NULL%1,                 George%Hripcsak%NULL%1,                 Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                 Megan%McCullough%NULL%4,                 Megan%McCullough%NULL%0,                 Michael A.%Fuery%NULL%2,                 Fouad%Chouairi%NULL%4,                 Fouad%Chouairi%NULL%0,                 Craig%Keating%NULL%2,                 Neal G.%Ravindra%NULL%2,                 P. Elliott%Miller%NULL%2,                 Maricar%Malinis%NULL%2,                 Nitu%Kashyap%NULL%2,                 Allen%Hsiao%NULL%2,                 F. Perry%Wilson%NULL%2,                 Jeptha P.%Curtis%NULL%2,                 Matthew%Grant%NULL%2,                 Eric J.%Velazquez%NULL%2,                 Nihar R.%Desai%NULL%2,                 Tariq%Ahmad%NULL%2,                 Chiara%Lazzeri%NULL%18,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,                 Karen K.%Wong%NULL%1,                 Christine M.%Szablewski%NULL%1,                 Priti R.%Patel%NULL%1,                 John%Rossow%NULL%1,                 Juliana%da Silva%NULL%1,                 Pavithra%Natarajan%NULL%1,                 Sapna Bamrah%Morris%NULL%1,                 Robyn Neblett%Fanfair%NULL%1,                 Jessica%Rogers-Brown%NULL%1,                 Beau B.%Bruce%NULL%1,                 Sean D.%Browning%NULL%1,                 Alfonso C.%Hernandez-Romieu%NULL%2,                 Nathan W.%Furukawa%NULL%1,                 Mohleen%Kang%NULL%1,                 Mary E.%Evans%NULL%1,                 Nadine%Oosmanally%NULL%1,                 Melissa%Tobin-D’Angelo%NULL%1,                 Cherie%Drenzek%NULL%1,                 David J.%Murphy%NULL%0,                 Julie%Hollberg%NULL%1,                 James M.%Blum%NULL%0,                 Robert%Jansen%NULL%1,                 David W.%Wright%NULL%1,                 William M.%Sewell%NULL%1,                 Jack D.%Owens%NULL%1,                 Benjamin%Lefkove%NULL%1,                 Frank W.%Brown%NULL%1,                 Deron C.%Burton%NULL%1,                 Timothy M.%Uyeki%NULL%3,                 Stephanie R.%Bialek%NULL%1,                 Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                 Jasmine A.%Mack%NULL%1,                 Maxwell%Salvatore%NULL%1,                 Swaraaj Prabhu%Sankar%NULL%1,                 Thomas S.%Valley%NULL%1,                 Karandeep%Singh%NULL%1,                 Brahmajee K.%Nallamothu%NULL%1,                 Sachin%Kheterpal%NULL%1,                 Lynda%Lisabeth%NULL%1,                 Lars G.%Fritsche%NULL%1,                 Bhramar%Mukherjee%NULL%1,                  T.%Gu%null%1,                  J. A.% Mack%null%1,                  M.% Salvatore%null%1,                  S. P.% Sankar%null%1,                  T. S.% Valley%null%1,                  K.% Singh%null%1,                  B. K.% Nallamothu%null%1,                  S.% Kheterpal%null%1,                  L.% Lisabeth%null%1,                  L. G.% Fritsche%null%1,                  B. G. % Mukherjee%null%1,                 T.%Gu%null%1,                 J. A.% Mack%null%1,                 M.% Salvatore%null%1,                 S. P.% Sankar%null%1,                 T. S.% Valley%null%1,                 K.% Singh%null%1,                 B. K.% Nallamothu%null%1,                 S.% Kheterpal%null%1,                 L.% Lisabeth%null%1,                 L. G.% Fritsche%null%1,                 B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                  S.% Nirenberg%null%1,                  P.% Kovatch%null%1,                  K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                 Shikha%Garg%NULL%1,                 Alissa%O’Halloran%NULL%1,                 Michael%Whitaker%NULL%1,                 Huong%Pham%NULL%1,                 Evan J%Anderson%NULL%1,                 Isaac%Armistead%NULL%1,                 Nancy M%Bennett%NULL%1,                 Laurie%Billing%NULL%1,                 Kathryn%Como-Sabetti%NULL%1,                 Mary%Hill%NULL%1,                 Sue%Kim%NULL%1,                 Maya L%Monroe%NULL%1,                 Alison%Muse%NULL%1,                 Arthur L%Reingold%NULL%1,                 William%Schaffner%NULL%1,                 Melissa%Sutton%NULL%1,                 H Keipp%Talbot%NULL%1,                 Salina M%Torres%NULL%1,                 Kimberly%Yousey-Hindes%NULL%1,                 Rachel%Holstein%NULL%1,                 Charisse%Cummings%NULL%1,                 Lynette%Brammer%NULL%1,                 Aron J%Hall%NULL%1,                 Alicia M%Fry%NULL%1,                 Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                  S.% Richardson%null%1,                  K.% Coppa%null%1,                  D. P.% Barnaby%null%1,                  T.% McGinn%null%1,                  L. B.% Becker%null%1,                  K. W.% Davidson%null%1,                  S. L.% Cohen%null%1,                  J. S.% Hirsch%null%1,                  T.% Zanos%null%1,                    % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                  L. H.% Nguyen%null%1,                  D. A.% Drew%null%1,                  M. S.% Graham%null%1,                  E. T.% Warner%null%1,                  A. D.% Joshi%null%1,                  C. M.% Astley%null%1,                  C.-G.% Guo%null%1,                  W.% Ma%null%1,                  R. S.% Mehta%null%1,                  S.% Kwon%null%1,                  M.% Song%null%1,                  R.% Davies%null%1,                  J.% Capdevila%null%1,                  K. A.% Lee%null%1,                  M. N.% Lochlainn%null%1,                  T.% Varsavsky%null%1,                  C. H.% Sudre%null%1,                  J.% Wolf%null%1,                  Y. C.% Cozier%null%1,                  L.% Rosenberg%null%1,                  L. R.% Wilkens%null%1,                  C. A.% Haiman%null%1,                  L. L.% Marchand%null%1,                  J. R.% Palmer%null%1,                  T. D.% Spector%null%1,                  S.% Ourselin%null%1,                  C. J.% Steves%null%1,                  A. T.% Chan%null%1,                    % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                 Jienchi%Dorward%NULL%1,                 Ana%Correa%NULL%1,                 Nicholas%Jones%NULL%1,                 Oluwafunmi%Akinyemi%NULL%1,                 Gayatri%Amirthalingam%NULL%1,                 Nick%Andrews%NULL%1,                 Rachel%Byford%NULL%1,                 Gavin%Dabrera%NULL%1,                 Alex%Elliot%NULL%1,                 Joanna%Ellis%NULL%0,                 Filipa%Ferreira%NULL%1,                 Jamie%Lopez Bernal%NULL%1,                 Cecilia%Okusi%NULL%1,                 Mary%Ramsay%NULL%1,                 Julian%Sherlock%NULL%1,                 Gillian%Smith%NULL%1,                 John%Williams%NULL%1,                 Gary%Howsam%NULL%1,                 Maria%Zambon%NULL%0,                 Mark%Joy%NULL%1,                 F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                 Johanna%Dolle%NULL%2,                 Johanna%Dolle%NULL%0,                 Sheila%Grami%NULL%1,                 Richard%Adule%NULL%1,                 Zeyu%Li%NULL%1,                 Kathleen%Tatem%NULL%1,                 Chinyere%Anyaogu%NULL%1,                 Stephen%Apfelroth%NULL%1,                 Raji%Ayinla%NULL%2,                 Raji%Ayinla%NULL%0,                 Noella%Boma%NULL%1,                 Terence%Brady%NULL%1,                 Braulio F.%Cosme-Thormann%NULL%1,                 Roseann%Costarella%NULL%1,                 Kenra%Ford%NULL%1,                 Kecia%Gaither%NULL%1,                 Jessica%Jacobson%NULL%1,                 Marc%Kanter%NULL%1,                 Stuart%Kessler%NULL%1,                 Ross B.%Kristal%NULL%1,                 Joseph J.%Lieber%NULL%1,                 Vikramjit%Mukherjee%NULL%1,                 Vincent%Rizzo%NULL%1,                 Madden%Rowell%NULL%1,                 David%Stevens%NULL%1,                 Elana%Sydney%NULL%1,                 Andrew%Wallach%NULL%2,                 Andrew%Wallach%NULL%0,                 Dave A.%Chokshi%NULL%1,                 Nichola%Davis%NULL%1,                 NULL%NULL%NULL%0,                 Sze Yan%Liu%NULL%2,                 Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                 Mark%Caridi-Scheible%NULL%0,                 James M.%Blum%NULL%0,                 Chad%Robichaux%NULL%1,                 Colleen%Kraft%NULL%1,                 Jesse T.%Jacob%NULL%1,                 Craig S.%Jabaley%NULL%0,                 David%Carpenter%NULL%1,                 Roberta%Kaplow%NULL%1,                 Alfonso C.%Hernandez-Romieu%NULL%0,                 Max W.%Adelman%NULL%0,                 Greg S.%Martin%NULL%0,                 Craig M.%Coopersmith%NULL%1,                 David J.%Murphy%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,         Seunghee%Kim-Schulze%null%1,         Hsin-Hui%Huang%null%1,         Noam D.%Beckmann%null%1,         Sharon%Nirenberg%null%1,         Bo%Wang%null%1,         Yonit%Lavin%null%1,         Talia H.%Swartz%null%1,         Deepu%Madduri%null%1,         Aryeh%Stock%null%1,         Thomas U.%Marron%null%1,         Hui%Xie%null%1,         Manishkumar%Patel%null%1,         Kevin%Tuballes%null%1,         Oliver%Oekelen%null%1,         Adeeb%Rahman%null%1,         Patricia%Kovatch%null%1,         Judith A.%Aberg%null%1,         Eric%Schadt%null%1,         Sundar%Jagannath%null%1,         Madhu%Mazumdar%null%1,         Alexander W.%Charney%null%1,         Adolfo%Firpo-Betancourt%null%1,         Damodara Rao%Mendu%null%1,         Jeffrey%Jhang%null%1,         David%Reich%null%1,         Keith%Sigel%null%1,         Carlos%Cordon-Cardo%null%1,         Marc%Feldmann%null%1,         Samir%Parekh%null%1,         Miriam%Merad%null%1,         Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                 David R.%Jenkins%NULL%1,                 Jatinder S.%Minhas%NULL%1,                 Laura J.%Gray%NULL%1,                 Julian%Tang%NULL%1,                 Caroline%Williams%NULL%1,                 Shirley%Sze%NULL%1,                 Daniel%Pan%NULL%1,                 William%Jones%NULL%1,                 Raman%Verma%NULL%1,                 Scott%Knapp%NULL%1,                 Rupert%Major%NULL%1,                 Melanie%Davies%NULL%1,                 Nigel%Brunskill%NULL%1,                 Martin%Wiselka%NULL%1,                 Chris%Brightling%NULL%1,                 Kamlesh%Khunti%NULL%1,                 Pranab%Haldar%NULL%1,                 Manish%Pareek%mp426@le.ac.uk%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                 Kelly E%Hathorn%NULL%2,                 Kelly E%Hathorn%NULL%0,                 Walker D%Redd%NULL%1,                 Nicolette J%Rodriguez%NULL%1,                 Joyce C%Zhou%NULL%1,                 Ahmad Najdat%Bazarbashi%NULL%1,                 Cheikh%Njie%NULL%1,                 Danny%Wong%NULL%1,                 Quoc-Dien%Trinh%NULL%1,                 Lin%Shen%NULL%1,                 Valerie E%Stone%NULL%2,                 Valerie E%Stone%NULL%0,                 Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                  S.% Apewokin%null%1,                  A. A.% Wells%null%1,                  A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                 Thomas E.%Webb%NULL%2,                 Thomas E.%Webb%NULL%0,                 Benjamin C.%Mcloughlin%NULL%2,                 Benjamin C.%Mcloughlin%NULL%0,                 Imran%Mannan%NULL%2,                 Imran%Mannan%NULL%0,                 Arshad%Rather%NULL%2,                 Arshad%Rather%NULL%0,                 Paul%Knopp%NULL%1,                 Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                 Rajat%Suri%NULL%2,                 Rajat%Suri%NULL%0,                 Iheanacho O.%Emeruwa%NULL%2,                 Iheanacho O.%Emeruwa%NULL%0,                 Robert J.%Stretch%NULL%1,                 Roxana Y.%Cortes-Lopez%NULL%2,                 Roxana Y.%Cortes-Lopez%NULL%0,                 Alexander%Sherman%NULL%1,                 Catherine C.%Lindsay%NULL%1,                 Jennifer A.%Fulcher%NULL%1,                 David%Goodman-Meza%NULL%2,                 David%Goodman-Meza%NULL%0,                 Anil%Sapru%NULL%2,                 Anil%Sapru%NULL%0,                 Russell G.%Buhr%NULL%1,                 Steven Y.%Chang%NULL%2,                 Steven Y.%Chang%NULL%0,                 Tisha%Wang%NULL%1,                 Nida%Qadir%NULL%1,                 Giordano%Madeddu%NULL%8,                 Giordano%Madeddu%NULL%0,                 Giordano%Madeddu%NULL%0,                 Ana C.%Monteiro%NULL%2,                 Ana C.%Monteiro%NULL%0,                 Giordano%Madeddu%NULL%0,                 Giordano%Madeddu%NULL%0,                 Giordano%Madeddu%NULL%0,                 Giordano%Madeddu%NULL%0,                 Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                  D.% Stefanov%null%1,                  A. S.% Chau%null%1,                  A. G.% Weber%null%1,                  G. S.% Marder%null%1,                  B.% Kaplan%null%1,                  P.% Malhotra%null%1,                  O.% Bloom%null%1,                  A.% Liu%null%1,                  M.% Lesser%null%1,                  N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                 Catherine A.%O’Donnell%NULL%2,                 Bhautesh Dinesh%Jani%NULL%1,                 Evangelia%Demou%NULL%1,                 Frederick K.%Ho%NULL%1,                 Carlos%Celis-Morales%NULL%1,                 Barbara I.%Nicholl%NULL%1,                 Frances S.%Mair%NULL%2,                 Paul%Welsh%NULL%2,                 Naveed%Sattar%NULL%2,                 Jill P.%Pell%NULL%2,                 S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                 Alex J%Walker%NULL%1,                 Krishnan%Bhaskaran%NULL%1,                 Seb%Bacon%NULL%1,                 Chris%Bates%NULL%1,                 Caroline E%Morton%NULL%1,                 Helen J%Curtis%NULL%1,                 Amir%Mehrkar%NULL%1,                 David%Evans%NULL%1,                 Peter%Inglesby%NULL%1,                 Jonathan%Cockburn%NULL%1,                 Helen I%McDonald%NULL%1,                 Brian%MacKenna%NULL%1,                 Laurie%Tomlinson%NULL%1,                 Ian J%Douglas%NULL%1,                 Christopher T%Rentsch%NULL%1,                 Rohini%Mathur%NULL%1,                 Angel YS%Wong%NULL%1,                 Richard%Grieve%NULL%1,                 David%Harrison%NULL%1,                 Harriet%Forbes%NULL%1,                 Anna%Schultze%NULL%2,                 Richard%Croker%NULL%1,                 John%Parry%NULL%1,                 Frank%Hester%NULL%1,                 Sam%Harper%NULL%1,                 Rafael%Perera%NULL%1,                 Stephen JW%Evans%NULL%1,                 Liam%Smeeth%NULL%1,                 Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                 Ajay%Bhasin%NULL%1,                 Joseph M.%Feinglass%NULL%1,                 Michael P.%Angarone%NULL%1,                 Elaine R.%Cohen%NULL%1,                 Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,           Zijun%Shen%xref no email%1,           Robert J.%Romanelli%xref no email%1,           Stephen H.%Lockhart%xref no email%1,           Kelly%Smits%xref no email%1,           Sarah%Robinson%xref no email%1,           Stephanie%Brown%xref no email%1,           Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                 Andrew%Gangemi%NULL%1,                 Robert%Marron%NULL%1,                 Junad%Chowdhury%NULL%1,                 Ibraheem%Yousef%NULL%1,                 Matthew%Zheng%NULL%1,                 Nicole%Mills%NULL%1,                 Lauren%Tragesser%NULL%1,                 Julie%Giurintano%NULL%1,                 Rohit%Gupta%NULL%0,                 Matthew%Gordon%NULL%0,                 Parth%Rali%NULL%2,                 Parth%Rali%NULL%0,                 Gilbert%D'Alonso%NULL%1,                 David%Fleece%NULL%1,                 Huaqing%Zhao%NULL%0,                 Nicole%Patlakh%NULL%0,                 Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                 Nathan C.%Skorodin%nskorodin@midcusa.com%1,                 Nicholas W.%Van Hise%NULL%1,                 Robert M.%Fliegelman%NULL%1,                 Jonathan%Pinsky%NULL%1,                 Vishal%Didwania%NULL%1,                 Michael%Anderson%NULL%1,                 Melina%Diaz%NULL%1,                 Kairav%Shah%NULL%1,                 Vishnu V.%Chundi%NULL%1,                 David W.%Hines%NULL%1,                 Brian P.%Harting%NULL%1,                 Kamo%Sidwha%NULL%1,                 Brian%Yu%NULL%1,                 Paul%Brune%NULL%1,                 Anjum%Owaisi%NULL%1,                 David%Beezhold%NULL%1,                 Joseph%Kent%NULL%1,                 Dana%Vais%NULL%1,                 Alice%Han%NULL%1,                 Neethi%Gowda%NULL%1,                 Nishi%Sahgal%NULL%1,                 Jan%Silverman%NULL%1,                 Jonathan%Stake%NULL%1,                 Jenie%Nepomuceno%NULL%1,                 Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                 Anna%Daunt%NULL%2,                 Anna%Daunt%NULL%0,                 Sujit%Mukherjee%NULL%1,                 Peter%Crook%NULL%1,                 Roberta%Forlano%NULL%1,                 Mara D%Kont%NULL%1,                 Alessandra%Løchen%NULL%1,                 Michaela%Vollmer%NULL%1,                 Paul%Middleton%NULL%1,                 Rebekah%Judge%NULL%1,                 Christopher%Harlow%NULL%1,                 Anet%Soubieres%NULL%1,                 Graham%Cooke%NULL%1,                 Peter J%White%NULL%1,                 Timothy B%Hallett%NULL%1,                 Paul%Aylin%NULL%1,                 Neil%Ferguson%NULL%1,                 Katharina%Hauck%NULL%1,                 Mark R%Thursz%NULL%1,                 Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                 Jeffrey%Burton%NULL%2,                 Jeffrey%Burton%NULL%0,                 Daniel%Fort%NULL%1,                 Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                 Michael S.%Sherman%NULL%1,                 Naaz%Fatteh%NULL%1,                 Fabio%Vogel%NULL%1,                 Jamie%Sacks%NULL%1,                 Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                  P.% Mannam%null%1,                  R.% Comer%null%1,                  E.% Sinclair%null%1,                  D. B.% McQuaid%null%1,                  M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                 Farah%Kidwai-Khan%NULL%1,                 Janet P.%Tate%NULL%1,                 Lesley S.%Park%NULL%1,                 Joseph T.%King%NULL%1,                 Melissa%Skanderson%NULL%1,                 Ronald G.%Hauser%NULL%1,                 Anna%Schultze%NULL%0,                 Christopher I.%Jarvis%NULL%1,                 Mark%Holodniy%NULL%1,                 Vincent Lo%Re%NULL%1,                 Kathleen M.%Akgün%NULL%1,                 Kristina%Crothers%NULL%1,                 Tamar H.%Taddei%NULL%1,                 Matthew S.%Freiberg%NULL%1,                 Amy C.%Justice%NULL%1,                  C. T.%Rentsch%null%1,                  F.% Kidwai-Khan%null%1,                  J. P.% Tate%null%1,                  L. S.% Park%null%1,                  J. T.% King%null%1,                  M.% Skanderson%null%1,                  R. G.% Hauser%null%1,                  A.% Schultze%null%1,                  C. I.% Jarvis%null%1,                  M.% Holodniy%null%1,                  V.% Lo Re%null%1,                  K. M.% Akgun%null%1,                  K.% Crothers%null%1,                  T. H.% Taddei%null%1,                  M. S.% Freiberg%null%1,                  A. C. % Justice%null%1,                 C. T.%Rentsch%null%1,                 F.% Kidwai-Khan%null%1,                 J. P.% Tate%null%1,                 L. S.% Park%null%1,                 J. T.% King%null%1,                 M.% Skanderson%null%1,                 R. G.% Hauser%null%1,                 A.% Schultze%null%1,                 C. I.% Jarvis%null%1,                 M.% Holodniy%null%1,                 V.% Lo Re%null%1,                 K. M.% Akgun%null%1,                 K.% Crothers%null%1,                 T. H.% Taddei%null%1,                 M. S.% Freiberg%null%1,                 A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,           Elizabeth M.%Dufort%xref no email%1,           Tomoko%Udo%xref no email%1,           Larissa A.%Wilberschied%xref no email%1,           Jessica%Kumar%xref no email%1,           James%Tesoriero%xref no email%1,           Patti%Weinberg%xref no email%1,           James%Kirkwood%xref no email%1,           Alison%Muse%xref no email%1,           Jack%DeHovitz%xref no email%1,           Debra S.%Blog%xref no email%1,           Brad%Hutton%xref no email%1,           David R.%Holtgrave%xref no email%1,           Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                 Jennifer%Beam%NULL%2,                 Jennifer%Beam%NULL%0,                 Haley%Maier%NULL%1,                 Whitney%Haggerson%NULL%1,                 Karen%Boudreau%NULL%1,                 Jamie%Carlson%NULL%1,                 Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                 Alexander E.%Ayala%NULL%1,                 Chideraa C.%Ukeje%NULL%1,                 Celeste S.%Witting%NULL%1,                 William A.%Grobman%NULL%1,                 Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                 Hannah C.%Jarvis%NULL%2,                 Hannah C.%Jarvis%NULL%0,                 Ezgi%Ozcan%NULL%1,                 Thomas L. P.%Burns%NULL%1,                 Rabia A.%Warraich%NULL%1,                 Lisa J.%Amani%NULL%1,                 Amina%Jaffer%NULL%1,                 Stephanie%Paget%NULL%1,                 Anand%Sivaramakrishnan%NULL%1,                 Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                 Suzy%Gallier%NULL%2,                 Suzy%Gallier%NULL%0,                 Chris%Mainey%NULL%1,                 Peter%Nightingale%NULL%2,                 Peter%Nightingale%NULL%0,                 David%McNulty%NULL%1,                 Hannah%Crothers%NULL%1,                 Felicity%Evison%NULL%1,                 Katharine%Reeves%NULL%1,                 Domenico%Pagano%NULL%1,                 Alastair K%Denniston%NULL%1,                 Krishnarajah%Nirantharakumar%NULL%1,                 Peter%Diggle%NULL%1,                 Simon%Ball%NULL%1,                 Lylah%Irshad%NULL%1,                 Maxim%Harris%NULL%1,                 Theodore%Nabav%NULL%1,                 A%Kolesnyk%NULL%1,                 M%Ahmed%NULL%1,                 A%Liaqat%NULL%1,                 Tanya%Pankhurst%NULL%1,                 Jamie%Coleman%NULL%1,                 Chirag%Dave%NULL%1,                 Khaled%ElFandi%NULL%1,                 Rifat%Rashid%NULL%1,                 Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                 Gregory A%Eschenauer%NULL%2,                 Gregory A%Eschenauer%NULL%0,                 Jonathan P%Troost%NULL%1,                 Jonathan L%Golob%NULL%1,                 Tejal N%Gandhi%NULL%1,                 Lu%Wang%NULL%1,                 Nina%Zhou%NULL%1,                 Lindsay A%Petty%NULL%1,                 Ji Hoon%Baang%NULL%1,                 Nicholas O%Dillman%NULL%1,                 David%Frame%NULL%1,                 Kevin S%Gregg%NULL%1,                 Dan R%Kaul%NULL%1,                 Jerod%Nagel%NULL%1,                 Twisha S%Patel%NULL%1,                 Shiwei%Zhou%NULL%1,                 Adam S%Lauring%NULL%1,                 David A%Hanauer%NULL%1,                 Emily%Martin%NULL%1,                 Pratima%Sharma%NULL%1,                 Christopher M%Fung%NULL%1,                 Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                 Lei%Qian%NULL%2,                 Lei%Qian%NULL%0,                 Vennis%Hong%NULL%1,                 Rong%Wei%NULL%2,                 Rong%Wei%NULL%0,                 Ron F.%Nadjafi%NULL%2,                 Ron F.%Nadjafi%NULL%0,                 Heidi%Fischer%NULL%1,                 Zhuoxin%Li%NULL%1,                 Sally F.%Shaw%NULL%1,                 Susan L.%Caparosa%NULL%2,                 Susan L.%Caparosa%NULL%0,                 Claudia L.%Nau%NULL%1,                 Tanmai%Saxena%NULL%1,                 Gunter K.%Rieg%NULL%1,                 Bradley K.%Ackerson%NULL%1,                 Adam L.%Sharp%NULL%2,                 Adam L.%Sharp%NULL%0,                 Jacek%Skarbinski%NULL%2,                 Jacek%Skarbinski%NULL%0,                 Tej K.%Naik%NULL%1,                 Sameer B.%Murali%NULL%2,                 Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                 Juan Carlos%Nicolas%NULL%2,                 Juan Carlos%Nicolas%NULL%0,                 Jennifer R%Meeks%NULL%1,                 Osman%Khan%NULL%1,                 Alan%Pan%NULL%1,                 Stephen L%Jones%NULL%1,                 Faisal%Masud%NULL%1,                 H Dirk%Sostman%NULL%1,                 Robert%Phillips%NULL%1,                 Julia D%Andrieni%NULL%1,                 Bita A%Kash%NULL%1,                 Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                 Arryn%Craney%NULL%1,                 Phyllis%Ruggiero%NULL%1,                 John%Sipley%NULL%1,                 Lin%Cong%NULL%1,                 Erika M.%Hissong%NULL%1,                 Massimo%Loda%NULL%1,                 Lars F.%Westblade%NULL%1,                 Melissa%Cushing%NULL%2,                 Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                  X.% Zhong%null%1,                  Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                 Amanda%Zheutlin%NULL%2,                 Amanda%Zheutlin%NULL%0,                 Yu-Han%Kao%NULL%1,                 Kristin%Ayers%NULL%1,                 Susan%Gross%NULL%1,                 Patricia%Kovatch%NULL%1,                 Sharon%Nirenberg%NULL%1,                 Alexander%Charney%NULL%1,                 Girish%Nadkarni%NULL%1,                 Jessica K%De Freitas%NULL%1,                 Paul%O’Reilly%NULL%1,                 Allan%Just%NULL%1,                 Carol%Horowitz%NULL%1,                 Glenn%Martin%NULL%1,                 Andrea%Branch%NULL%1,                 Benjamin S%Glicksberg%NULL%1,                 Dennis%Charney%NULL%1,                 David%Reich%NULL%1,                 William K%Oh%NULL%1,                 Eric%Schadt%NULL%1,                 Rong%Chen%NULL%0,                 Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                 Angela%Winegar%NULL%1,                 Richard%Fogel%NULL%1,                 Mohamad%Fakih%NULL%1,                 Allison%Ottenbacher%NULL%1,                 Christine%Jesser%NULL%1,                 Angelo%Bufalino%NULL%1,                 Ren-Huai%Huang%NULL%1,                 Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                 Rebecca%Bendayan%NULL%0,                 Mark%Ashworth%NULL%1,                 Daniel M.%Bean%NULL%1,                 Hiten%Dodhia%NULL%1,                 Stevo%Durbaba%NULL%1,                 Kevin%O'Gallagher%NULL%1,                 Claire%Palmer%NULL%1,                 Vasa%Curcin%NULL%1,                 Elizabeth%Aitken%NULL%1,                 William%Bernal%NULL%1,                 Richard D.%Barker%NULL%1,                 Sam%Norton%NULL%1,                 Martin%Gulliford%NULL%1,                 James T.H.%Teo%NULL%0,                 James%Galloway%NULL%1,                 Richard J.B.%Dobson%NULL%0,                 Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                 Carina%Marquez%NULL%1,                 Emily%Crawford%NULL%1,                 James%Peng%NULL%1,                 Maya%Petersen%NULL%1,                 Daniel%Schwab%NULL%1,                 Joshua%Schwab%NULL%1,                 Jackie%Martinez%NULL%1,                 Diane%Jones%NULL%1,                 Douglas%Black%NULL%1,                 Monica%Gandhi%NULL%1,                 Andrew D%Kerkhoff%NULL%1,                 Vivek%Jain%NULL%1,                 Francesco%Sergi%NULL%1,                 Jon%Jacobo%NULL%1,                 Susana%Rojas%NULL%1,                 Valerie%Tulier-Laiwa%NULL%1,                 Tracy%Gallardo-Brown%NULL%1,                 Ayesha%Appa%NULL%1,                 Charles%Chiu%NULL%1,                 Mary%Rodgers%NULL%1,                 John%Hackett%NULL%1,                 NULL%NULL%NULL%0,                 Amy%Kistler%NULL%1,                 Samantha%Hao%NULL%1,                 Jack%Kamm%NULL%1,                 David%Dynerman%NULL%1,                 Joshua%Batson%NULL%1,                 Bryan%Greenhouse%NULL%1,                 Joe%DeRisi%NULL%1,                 Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                 Tiffany%Grimes%NULL%1,                 Peng%Li%NULL%1,                 Matthew%Might%NULL%1,                 Fernando%Ovalle%NULL%1,                 Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                 Natalie%Achamallah%NULL%1,                 Hongwei%Ji%NULL%1,                 Brian L.%Claggett%NULL%1,                 Nancy%Sun%NULL%1,                 Patrick%Botting%NULL%1,                 Trevor-Trung%Nguyen%NULL%1,                 Eric%Luong%NULL%1,                 Elizabeth H.%Kim%NULL%1,                 Eunice%Park%NULL%1,                 Yunxian%Liu%NULL%1,                 Ryan%Rosenberry%NULL%1,                 Yuri%Matusov%NULL%1,                 Steven%Zhao%NULL%1,                 Isabel%Pedraza%NULL%1,                 Tanzira%Zaman%NULL%1,                 Michael%Thompson%NULL%1,                 Koen%Raedschelders%NULL%1,                 Anders H.%Berg%NULL%2,                 Anders H.%Berg%NULL%0,                 Jonathan D.%Grein%NULL%1,                 Paul W.%Noble%NULL%1,                 Sumeet S.%Chugh%NULL%1,                 C. Noel%Bairey Merz%NULL%1,                 Eduardo%Marbán%NULL%1,                 Jennifer E.%Van Eyk%NULL%1,                 Scott D.%Solomon%NULL%1,                 Christine M.%Albert%NULL%1,                 Peter%Chen%NULL%1,                 Susan%Cheng%NULL%3,                 Yu Ru%Kou%NULL%8,                 Yu Ru%Kou%NULL%0,                 Yu Ru%Kou%NULL%0,                 Susan%Cheng%biodatacore@cshs.org%0,                 Susan%Cheng%biodatacore@cshs.org%0,                 Yu Ru%Kou%NULL%0,                 Yu Ru%Kou%NULL%0,                 Yu Ru%Kou%NULL%0,                 Yu Ru%Kou%NULL%0,                 Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                 Penelope%Strid%NULL%1,                 Van T.%Tong%NULL%1,                 Kate%Woodworth%NULL%1,                 Romeo R.%Galang%NULL%1,                 Laura D.%Zambrano%NULL%1,                 John%Nahabedian%NULL%1,                 Kayla%Anderson%NULL%1,                 Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                 Jacob%Fiksel%NULL%2,                 Jacob%Fiksel%NULL%0,                 John%Muschelli%NULL%2,                 John%Muschelli%NULL%0,                 Matthew L.%Robinson%NULL%2,                 Matthew L.%Robinson%NULL%0,                 Masoud%Rouhizadeh%NULL%2,                 Masoud%Rouhizadeh%NULL%0,                 Jamie%Perin%NULL%2,                 Jamie%Perin%NULL%0,                 Grant%Schumock%NULL%2,                 Grant%Schumock%NULL%0,                 Paul%Nagy%NULL%2,                 Paul%Nagy%NULL%0,                 Josh H.%Gray%NULL%2,                 Josh H.%Gray%NULL%0,                 Harsha%Malapati%NULL%2,                 Harsha%Malapati%NULL%0,                 Mariam%Ghobadi-Krueger%NULL%2,                 Mariam%Ghobadi-Krueger%NULL%0,                 Timothy M.%Niessen%NULL%1,                 Bo Soo%Kim%NULL%1,                 Peter M.%Hill%NULL%1,                 M. Shafeeq%Ahmed%NULL%1,                 Eric D.%Dobkin%NULL%1,                 Renee%Blanding%NULL%1,                 Jennifer%Abele%NULL%1,                 Bonnie%Woods%NULL%1,                 Kenneth%Harkness%NULL%1,                 David R.%Thiemann%NULL%1,                 Mary G.%Bowring%NULL%1,                 Aalok B.%Shah%NULL%2,                 Aalok B.%Shah%NULL%0,                 Mei-Cheng%Wang%NULL%1,                 Karen%Bandeen-Roche%NULL%1,                 Antony%Rosen%NULL%1,                 Scott L.%Zeger%NULL%2,                 Scott L.%Zeger%NULL%0,                 Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                 Megan%McCullough%NULL%0,                 Megan%McCullough%NULL%0,                 Michael A.%Fuery%NULL%0,                 Fouad%Chouairi%NULL%0,                 Fouad%Chouairi%NULL%0,                 Craig%Keating%NULL%0,                 Neal G.%Ravindra%NULL%0,                 P. Elliott%Miller%NULL%0,                 Maricar%Malinis%NULL%0,                 Nitu%Kashyap%NULL%0,                 Allen%Hsiao%NULL%0,                 F. Perry%Wilson%NULL%0,                 Jeptha P.%Curtis%NULL%0,                 Matthew%Grant%NULL%0,                 Eric J.%Velazquez%NULL%0,                 Nihar R.%Desai%NULL%0,                 Tariq%Ahmad%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4079,7 +4226,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>972</v>
+        <v>1021</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4108,7 +4255,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>973</v>
+        <v>1022</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -4137,7 +4284,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>974</v>
+        <v>1023</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -4166,7 +4313,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>975</v>
+        <v>1024</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -4195,7 +4342,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>976</v>
+        <v>1025</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -4224,7 +4371,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>977</v>
+        <v>1026</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -4253,7 +4400,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>978</v>
+        <v>1027</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -4282,7 +4429,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -4311,7 +4458,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>980</v>
+        <v>1029</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -4340,7 +4487,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>981</v>
+        <v>1030</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -4369,7 +4516,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>982</v>
+        <v>1031</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -4398,7 +4545,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>983</v>
+        <v>1032</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -4427,7 +4574,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>984</v>
+        <v>1033</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -4456,7 +4603,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>985</v>
+        <v>1034</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -4485,7 +4632,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>986</v>
+        <v>1035</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -4514,7 +4661,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>987</v>
+        <v>1036</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -4543,7 +4690,7 @@
         <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>988</v>
+        <v>1037</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -4572,7 +4719,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>989</v>
+        <v>1038</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -4601,7 +4748,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>990</v>
+        <v>1039</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -4630,7 +4777,7 @@
         <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>991</v>
+        <v>1040</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -4659,7 +4806,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>992</v>
+        <v>1041</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -4688,7 +4835,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>993</v>
+        <v>1042</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -4717,7 +4864,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>994</v>
+        <v>1043</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -4746,7 +4893,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>995</v>
+        <v>1044</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -4775,7 +4922,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>996</v>
+        <v>1045</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -4804,7 +4951,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -4833,7 +4980,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -4862,7 +5009,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>999</v>
+        <v>1048</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -4891,7 +5038,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -4920,7 +5067,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>1001</v>
+        <v>1050</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -4949,7 +5096,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>1002</v>
+        <v>1051</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -4978,7 +5125,7 @@
         <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>1003</v>
+        <v>1052</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -5007,7 +5154,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>1004</v>
+        <v>1053</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -5036,7 +5183,7 @@
         <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>1005</v>
+        <v>1054</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -5065,7 +5212,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>1006</v>
+        <v>1055</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -5094,7 +5241,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>1007</v>
+        <v>1056</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -5123,7 +5270,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>1008</v>
+        <v>1057</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -5152,7 +5299,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>1009</v>
+        <v>1058</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -5181,7 +5328,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>1010</v>
+        <v>1059</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -5210,7 +5357,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="F41" t="s">
         <v>52</v>
@@ -5239,7 +5386,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>1012</v>
+        <v>1061</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -5268,7 +5415,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>1013</v>
+        <v>1062</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -5297,7 +5444,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>1014</v>
+        <v>1063</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -5326,7 +5473,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>1015</v>
+        <v>1064</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -5355,7 +5502,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>1016</v>
+        <v>1065</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -5384,7 +5531,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>1017</v>
+        <v>1066</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -5413,7 +5560,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>1018</v>
+        <v>1067</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -5442,7 +5589,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>1019</v>
+        <v>1068</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -5471,7 +5618,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>1020</v>
+        <v>1069</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6365" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6715" uniqueCount="1124">
   <si>
     <t>Doi</t>
   </si>
@@ -3819,6 +3819,168 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,                 Megan%McCullough%NULL%0,                 Megan%McCullough%NULL%0,                 Michael A.%Fuery%NULL%0,                 Fouad%Chouairi%NULL%0,                 Fouad%Chouairi%NULL%0,                 Craig%Keating%NULL%0,                 Neal G.%Ravindra%NULL%0,                 P. Elliott%Miller%NULL%0,                 Maricar%Malinis%NULL%0,                 Nitu%Kashyap%NULL%0,                 Allen%Hsiao%NULL%0,                 F. Perry%Wilson%NULL%0,                 Jeptha P.%Curtis%NULL%0,                 Matthew%Grant%NULL%0,                 Eric J.%Velazquez%NULL%0,                 Nihar R.%Desai%NULL%0,                 Tariq%Ahmad%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0,                 Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                   R. U.% Shah%null%1,                   M.% Bale%null%1,                   J. B.% Peacock%null%1,                   B.% Berger%null%1,                   A.% Brown%null%1,                   S.% Mann%null%1,                   W.% West%null%1,                   V.% Martin%null%1,                   V.% Fernandez%null%1,                   S.% Grineski%null%1,                   B. J.% Brintz%null%1,                   M. H.% Samore%null%1,                   M. J.% Ferrari%null%1,                   D. T.% Leung%null%1,                   L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                  Samuel L%Bruce%NULL%1,                  Cody L%Slater%NULL%1,                  Jonathan R%Tiao%NULL%1,                  Matthew R%Baldwin%NULL%1,                  R Graham%Barr%NULL%1,                  Bernard P%Chang%NULL%1,                  Katherine H%Chau%NULL%1,                  Justin J%Choi%NULL%1,                  Nicholas%Gavin%NULL%1,                  Parag%Goyal%NULL%1,                  Angela M%Mills%NULL%1,                  Ashmi A%Patel%NULL%1,                  Marie-Laure S%Romney%NULL%1,                  Monika M%Safford%NULL%1,                  Neil W%Schluger%NULL%1,                  Soumitra%Sengupta%NULL%1,                  Magdalena E%Sobieszczyk%NULL%1,                  Jason E%Zucker%NULL%1,                  Paul A%Asadourian%NULL%1,                  Fletcher M%Bell%NULL%1,                  Rebekah%Boyd%NULL%1,                  Matthew F%Cohen%NULL%1,                  MacAlistair I%Colquhoun%NULL%1,                  Lucy A%Colville%NULL%1,                  Joseph H%de Jonge%NULL%1,                  Lyle B%Dershowitz%NULL%1,                  Shirin A%Dey%NULL%1,                  Katherine A%Eiseman%NULL%1,                  Zachary P%Girvin%NULL%1,                  Daniella T%Goni%NULL%1,                  Amro A%Harb%NULL%1,                  Nicholas%Herzik%NULL%1,                  Sarah%Householder%NULL%1,                  Lara E%Karaaslan%NULL%1,                  Heather%Lee%NULL%1,                  Evan%Lieberman%NULL%1,                  Andrew%Ling%NULL%1,                  Ree%Lu%NULL%1,                  Arthur Y%Shou%NULL%1,                  Alexander C%Sisti%NULL%1,                  Zachary E%Snow%NULL%1,                  Colin P%Sperring%NULL%1,                  Yuqing%Xiong%NULL%1,                  Henry W%Zhou%NULL%1,                  Karthik%Natarajan%NULL%1,                  George%Hripcsak%NULL%1,                  Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                  Megan%McCullough%NULL%4,                  Megan%McCullough%NULL%0,                  Michael A.%Fuery%NULL%2,                  Fouad%Chouairi%NULL%4,                  Fouad%Chouairi%NULL%0,                  Craig%Keating%NULL%2,                  Neal G.%Ravindra%NULL%2,                  P. Elliott%Miller%NULL%2,                  Maricar%Malinis%NULL%2,                  Nitu%Kashyap%NULL%2,                  Allen%Hsiao%NULL%2,                  F. Perry%Wilson%NULL%2,                  Jeptha P.%Curtis%NULL%2,                  Matthew%Grant%NULL%2,                  Eric J.%Velazquez%NULL%2,                  Nihar R.%Desai%NULL%2,                  Tariq%Ahmad%NULL%2,                  Chiara%Lazzeri%NULL%18,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                  Karen K.%Wong%NULL%1,                  Christine M.%Szablewski%NULL%1,                  Priti R.%Patel%NULL%1,                  John%Rossow%NULL%1,                  Juliana%da Silva%NULL%1,                  Pavithra%Natarajan%NULL%1,                  Sapna Bamrah%Morris%NULL%1,                  Robyn Neblett%Fanfair%NULL%1,                  Jessica%Rogers-Brown%NULL%1,                  Beau B.%Bruce%NULL%1,                  Sean D.%Browning%NULL%1,                  Alfonso C.%Hernandez-Romieu%NULL%2,                  Nathan W.%Furukawa%NULL%1,                  Mohleen%Kang%NULL%1,                  Mary E.%Evans%NULL%1,                  Nadine%Oosmanally%NULL%1,                  Melissa%Tobin-D’Angelo%NULL%1,                  Cherie%Drenzek%NULL%1,                  David J.%Murphy%NULL%0,                  Julie%Hollberg%NULL%1,                  James M.%Blum%NULL%0,                  Robert%Jansen%NULL%1,                  David W.%Wright%NULL%1,                  William M.%Sewell%NULL%1,                  Jack D.%Owens%NULL%1,                  Benjamin%Lefkove%NULL%1,                  Frank W.%Brown%NULL%1,                  Deron C.%Burton%NULL%1,                  Timothy M.%Uyeki%NULL%3,                  Stephanie R.%Bialek%NULL%1,                  Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                  Jasmine A.%Mack%NULL%1,                  Maxwell%Salvatore%NULL%1,                  Swaraaj Prabhu%Sankar%NULL%1,                  Thomas S.%Valley%NULL%1,                  Karandeep%Singh%NULL%1,                  Brahmajee K.%Nallamothu%NULL%1,                  Sachin%Kheterpal%NULL%1,                  Lynda%Lisabeth%NULL%1,                  Lars G.%Fritsche%NULL%1,                  Bhramar%Mukherjee%NULL%1,                   T.%Gu%null%1,                   J. A.% Mack%null%1,                   M.% Salvatore%null%1,                   S. P.% Sankar%null%1,                   T. S.% Valley%null%1,                   K.% Singh%null%1,                   B. K.% Nallamothu%null%1,                   S.% Kheterpal%null%1,                   L.% Lisabeth%null%1,                   L. G.% Fritsche%null%1,                   B. G. % Mukherjee%null%1,                  T.%Gu%null%1,                  J. A.% Mack%null%1,                  M.% Salvatore%null%1,                  S. P.% Sankar%null%1,                  T. S.% Valley%null%1,                  K.% Singh%null%1,                  B. K.% Nallamothu%null%1,                  S.% Kheterpal%null%1,                  L.% Lisabeth%null%1,                  L. G.% Fritsche%null%1,                  B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                   S.% Nirenberg%null%1,                   P.% Kovatch%null%1,                   K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                  Shikha%Garg%NULL%1,                  Alissa%O’Halloran%NULL%1,                  Michael%Whitaker%NULL%1,                  Huong%Pham%NULL%1,                  Evan J%Anderson%NULL%1,                  Isaac%Armistead%NULL%1,                  Nancy M%Bennett%NULL%1,                  Laurie%Billing%NULL%1,                  Kathryn%Como-Sabetti%NULL%1,                  Mary%Hill%NULL%1,                  Sue%Kim%NULL%1,                  Maya L%Monroe%NULL%1,                  Alison%Muse%NULL%1,                  Arthur L%Reingold%NULL%1,                  William%Schaffner%NULL%1,                  Melissa%Sutton%NULL%1,                  H Keipp%Talbot%NULL%1,                  Salina M%Torres%NULL%1,                  Kimberly%Yousey-Hindes%NULL%1,                  Rachel%Holstein%NULL%1,                  Charisse%Cummings%NULL%1,                  Lynette%Brammer%NULL%1,                  Aron J%Hall%NULL%1,                  Alicia M%Fry%NULL%1,                  Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                   S.% Richardson%null%1,                   K.% Coppa%null%1,                   D. P.% Barnaby%null%1,                   T.% McGinn%null%1,                   L. B.% Becker%null%1,                   K. W.% Davidson%null%1,                   S. L.% Cohen%null%1,                   J. S.% Hirsch%null%1,                   T.% Zanos%null%1,                     % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                   L. H.% Nguyen%null%1,                   D. A.% Drew%null%1,                   M. S.% Graham%null%1,                   E. T.% Warner%null%1,                   A. D.% Joshi%null%1,                   C. M.% Astley%null%1,                   C.-G.% Guo%null%1,                   W.% Ma%null%1,                   R. S.% Mehta%null%1,                   S.% Kwon%null%1,                   M.% Song%null%1,                   R.% Davies%null%1,                   J.% Capdevila%null%1,                   K. A.% Lee%null%1,                   M. N.% Lochlainn%null%1,                   T.% Varsavsky%null%1,                   C. H.% Sudre%null%1,                   J.% Wolf%null%1,                   Y. C.% Cozier%null%1,                   L.% Rosenberg%null%1,                   L. R.% Wilkens%null%1,                   C. A.% Haiman%null%1,                   L. L.% Marchand%null%1,                   J. R.% Palmer%null%1,                   T. D.% Spector%null%1,                   S.% Ourselin%null%1,                   C. J.% Steves%null%1,                   A. T.% Chan%null%1,                     % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                  Jienchi%Dorward%NULL%1,                  Ana%Correa%NULL%1,                  Nicholas%Jones%NULL%1,                  Oluwafunmi%Akinyemi%NULL%1,                  Gayatri%Amirthalingam%NULL%1,                  Nick%Andrews%NULL%1,                  Rachel%Byford%NULL%1,                  Gavin%Dabrera%NULL%1,                  Alex%Elliot%NULL%1,                  Joanna%Ellis%NULL%0,                  Filipa%Ferreira%NULL%1,                  Jamie%Lopez Bernal%NULL%1,                  Cecilia%Okusi%NULL%1,                  Mary%Ramsay%NULL%1,                  Julian%Sherlock%NULL%1,                  Gillian%Smith%NULL%1,                  John%Williams%NULL%1,                  Gary%Howsam%NULL%1,                  Maria%Zambon%NULL%0,                  Mark%Joy%NULL%1,                  F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                  Johanna%Dolle%NULL%2,                  Johanna%Dolle%NULL%0,                  Sheila%Grami%NULL%1,                  Richard%Adule%NULL%1,                  Zeyu%Li%NULL%1,                  Kathleen%Tatem%NULL%1,                  Chinyere%Anyaogu%NULL%1,                  Stephen%Apfelroth%NULL%1,                  Raji%Ayinla%NULL%2,                  Raji%Ayinla%NULL%0,                  Noella%Boma%NULL%1,                  Terence%Brady%NULL%1,                  Braulio F.%Cosme-Thormann%NULL%1,                  Roseann%Costarella%NULL%1,                  Kenra%Ford%NULL%1,                  Kecia%Gaither%NULL%1,                  Jessica%Jacobson%NULL%1,                  Marc%Kanter%NULL%1,                  Stuart%Kessler%NULL%1,                  Ross B.%Kristal%NULL%1,                  Joseph J.%Lieber%NULL%1,                  Vikramjit%Mukherjee%NULL%1,                  Vincent%Rizzo%NULL%1,                  Madden%Rowell%NULL%1,                  David%Stevens%NULL%1,                  Elana%Sydney%NULL%1,                  Andrew%Wallach%NULL%2,                  Andrew%Wallach%NULL%0,                  Dave A.%Chokshi%NULL%1,                  Nichola%Davis%NULL%1,                  NULL%NULL%NULL%0,                  Sze Yan%Liu%NULL%2,                  Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                  Mark%Caridi-Scheible%NULL%0,                  James M.%Blum%NULL%0,                  Chad%Robichaux%NULL%1,                  Colleen%Kraft%NULL%1,                  Jesse T.%Jacob%NULL%1,                  Craig S.%Jabaley%NULL%0,                  David%Carpenter%NULL%1,                  Roberta%Kaplow%NULL%1,                  Alfonso C.%Hernandez-Romieu%NULL%0,                  Max W.%Adelman%NULL%0,                  Greg S.%Martin%NULL%0,                  Craig M.%Coopersmith%NULL%1,                  David J.%Murphy%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,          Seunghee%Kim-Schulze%null%1,          Hsin-Hui%Huang%null%1,          Noam D.%Beckmann%null%1,          Sharon%Nirenberg%null%1,          Bo%Wang%null%1,          Yonit%Lavin%null%1,          Talia H.%Swartz%null%1,          Deepu%Madduri%null%1,          Aryeh%Stock%null%1,          Thomas U.%Marron%null%1,          Hui%Xie%null%1,          Manishkumar%Patel%null%1,          Kevin%Tuballes%null%1,          Oliver%Oekelen%null%1,          Adeeb%Rahman%null%1,          Patricia%Kovatch%null%1,          Judith A.%Aberg%null%1,          Eric%Schadt%null%1,          Sundar%Jagannath%null%1,          Madhu%Mazumdar%null%1,          Alexander W.%Charney%null%1,          Adolfo%Firpo-Betancourt%null%1,          Damodara Rao%Mendu%null%1,          Jeffrey%Jhang%null%1,          David%Reich%null%1,          Keith%Sigel%null%1,          Carlos%Cordon-Cardo%null%1,          Marc%Feldmann%null%1,          Samir%Parekh%null%1,          Miriam%Merad%null%1,          Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                  David R.%Jenkins%NULL%1,                  Jatinder S.%Minhas%NULL%1,                  Laura J.%Gray%NULL%1,                  Julian%Tang%NULL%1,                  Caroline%Williams%NULL%1,                  Shirley%Sze%NULL%1,                  Daniel%Pan%NULL%1,                  William%Jones%NULL%1,                  Raman%Verma%NULL%1,                  Scott%Knapp%NULL%1,                  Rupert%Major%NULL%1,                  Melanie%Davies%NULL%1,                  Nigel%Brunskill%NULL%1,                  Martin%Wiselka%NULL%1,                  Chris%Brightling%NULL%1,                  Kamlesh%Khunti%NULL%1,                  Pranab%Haldar%NULL%1,                  Manish%Pareek%mp426@le.ac.uk%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                  Kelly E%Hathorn%NULL%2,                  Kelly E%Hathorn%NULL%0,                  Walker D%Redd%NULL%1,                  Nicolette J%Rodriguez%NULL%1,                  Joyce C%Zhou%NULL%1,                  Ahmad Najdat%Bazarbashi%NULL%1,                  Cheikh%Njie%NULL%1,                  Danny%Wong%NULL%1,                  Quoc-Dien%Trinh%NULL%1,                  Lin%Shen%NULL%1,                  Valerie E%Stone%NULL%2,                  Valerie E%Stone%NULL%0,                  Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                   S.% Apewokin%null%1,                   A. A.% Wells%null%1,                   A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                  Thomas E.%Webb%NULL%2,                  Thomas E.%Webb%NULL%0,                  Benjamin C.%Mcloughlin%NULL%2,                  Benjamin C.%Mcloughlin%NULL%0,                  Imran%Mannan%NULL%2,                  Imran%Mannan%NULL%0,                  Arshad%Rather%NULL%2,                  Arshad%Rather%NULL%0,                  Paul%Knopp%NULL%1,                  Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                  Rajat%Suri%NULL%2,                  Rajat%Suri%NULL%0,                  Iheanacho O.%Emeruwa%NULL%2,                  Iheanacho O.%Emeruwa%NULL%0,                  Robert J.%Stretch%NULL%1,                  Roxana Y.%Cortes-Lopez%NULL%2,                  Roxana Y.%Cortes-Lopez%NULL%0,                  Alexander%Sherman%NULL%1,                  Catherine C.%Lindsay%NULL%1,                  Jennifer A.%Fulcher%NULL%1,                  David%Goodman-Meza%NULL%2,                  David%Goodman-Meza%NULL%0,                  Anil%Sapru%NULL%2,                  Anil%Sapru%NULL%0,                  Russell G.%Buhr%NULL%1,                  Steven Y.%Chang%NULL%2,                  Steven Y.%Chang%NULL%0,                  Tisha%Wang%NULL%1,                  Nida%Qadir%NULL%1,                  Giordano%Madeddu%NULL%8,                  Giordano%Madeddu%NULL%0,                  Giordano%Madeddu%NULL%0,                  Ana C.%Monteiro%NULL%2,                  Ana C.%Monteiro%NULL%0,                  Giordano%Madeddu%NULL%0,                  Giordano%Madeddu%NULL%0,                  Giordano%Madeddu%NULL%0,                  Giordano%Madeddu%NULL%0,                  Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                   D.% Stefanov%null%1,                   A. S.% Chau%null%1,                   A. G.% Weber%null%1,                   G. S.% Marder%null%1,                   B.% Kaplan%null%1,                   P.% Malhotra%null%1,                   O.% Bloom%null%1,                   A.% Liu%null%1,                   M.% Lesser%null%1,                   N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                  Catherine A.%O’Donnell%NULL%2,                  Bhautesh Dinesh%Jani%NULL%1,                  Evangelia%Demou%NULL%1,                  Frederick K.%Ho%NULL%1,                  Carlos%Celis-Morales%NULL%1,                  Barbara I.%Nicholl%NULL%1,                  Frances S.%Mair%NULL%2,                  Paul%Welsh%NULL%2,                  Naveed%Sattar%NULL%2,                  Jill P.%Pell%NULL%2,                  S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                  Alex J%Walker%NULL%1,                  Krishnan%Bhaskaran%NULL%1,                  Seb%Bacon%NULL%1,                  Chris%Bates%NULL%1,                  Caroline E%Morton%NULL%1,                  Helen J%Curtis%NULL%1,                  Amir%Mehrkar%NULL%1,                  David%Evans%NULL%1,                  Peter%Inglesby%NULL%1,                  Jonathan%Cockburn%NULL%1,                  Helen I%McDonald%NULL%1,                  Brian%MacKenna%NULL%1,                  Laurie%Tomlinson%NULL%1,                  Ian J%Douglas%NULL%1,                  Christopher T%Rentsch%NULL%1,                  Rohini%Mathur%NULL%1,                  Angel YS%Wong%NULL%1,                  Richard%Grieve%NULL%1,                  David%Harrison%NULL%1,                  Harriet%Forbes%NULL%1,                  Anna%Schultze%NULL%2,                  Richard%Croker%NULL%1,                  John%Parry%NULL%1,                  Frank%Hester%NULL%1,                  Sam%Harper%NULL%1,                  Rafael%Perera%NULL%1,                  Stephen JW%Evans%NULL%1,                  Liam%Smeeth%NULL%1,                  Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                  Ajay%Bhasin%NULL%1,                  Joseph M.%Feinglass%NULL%1,                  Michael P.%Angarone%NULL%1,                  Elaine R.%Cohen%NULL%1,                  Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,            Zijun%Shen%xref no email%1,            Robert J.%Romanelli%xref no email%1,            Stephen H.%Lockhart%xref no email%1,            Kelly%Smits%xref no email%1,            Sarah%Robinson%xref no email%1,            Stephanie%Brown%xref no email%1,            Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                  Andrew%Gangemi%NULL%1,                  Robert%Marron%NULL%1,                  Junad%Chowdhury%NULL%1,                  Ibraheem%Yousef%NULL%1,                  Matthew%Zheng%NULL%1,                  Nicole%Mills%NULL%1,                  Lauren%Tragesser%NULL%1,                  Julie%Giurintano%NULL%1,                  Rohit%Gupta%NULL%0,                  Matthew%Gordon%NULL%0,                  Parth%Rali%NULL%2,                  Parth%Rali%NULL%0,                  Gilbert%D'Alonso%NULL%1,                  David%Fleece%NULL%1,                  Huaqing%Zhao%NULL%0,                  Nicole%Patlakh%NULL%0,                  Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                  Nathan C.%Skorodin%nskorodin@midcusa.com%1,                  Nicholas W.%Van Hise%NULL%1,                  Robert M.%Fliegelman%NULL%1,                  Jonathan%Pinsky%NULL%1,                  Vishal%Didwania%NULL%1,                  Michael%Anderson%NULL%1,                  Melina%Diaz%NULL%1,                  Kairav%Shah%NULL%1,                  Vishnu V.%Chundi%NULL%1,                  David W.%Hines%NULL%1,                  Brian P.%Harting%NULL%1,                  Kamo%Sidwha%NULL%1,                  Brian%Yu%NULL%1,                  Paul%Brune%NULL%1,                  Anjum%Owaisi%NULL%1,                  David%Beezhold%NULL%1,                  Joseph%Kent%NULL%1,                  Dana%Vais%NULL%1,                  Alice%Han%NULL%1,                  Neethi%Gowda%NULL%1,                  Nishi%Sahgal%NULL%1,                  Jan%Silverman%NULL%1,                  Jonathan%Stake%NULL%1,                  Jenie%Nepomuceno%NULL%1,                  Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                  Anna%Daunt%NULL%2,                  Anna%Daunt%NULL%0,                  Sujit%Mukherjee%NULL%1,                  Peter%Crook%NULL%1,                  Roberta%Forlano%NULL%1,                  Mara D%Kont%NULL%1,                  Alessandra%Løchen%NULL%1,                  Michaela%Vollmer%NULL%1,                  Paul%Middleton%NULL%1,                  Rebekah%Judge%NULL%1,                  Christopher%Harlow%NULL%1,                  Anet%Soubieres%NULL%1,                  Graham%Cooke%NULL%1,                  Peter J%White%NULL%1,                  Timothy B%Hallett%NULL%1,                  Paul%Aylin%NULL%1,                  Neil%Ferguson%NULL%1,                  Katharina%Hauck%NULL%1,                  Mark R%Thursz%NULL%1,                  Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                  Jeffrey%Burton%NULL%2,                  Jeffrey%Burton%NULL%0,                  Daniel%Fort%NULL%1,                  Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                  Michael S.%Sherman%NULL%1,                  Naaz%Fatteh%NULL%1,                  Fabio%Vogel%NULL%1,                  Jamie%Sacks%NULL%1,                  Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                   P.% Mannam%null%1,                   R.% Comer%null%1,                   E.% Sinclair%null%1,                   D. B.% McQuaid%null%1,                   M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                  Farah%Kidwai-Khan%NULL%1,                  Janet P.%Tate%NULL%1,                  Lesley S.%Park%NULL%1,                  Joseph T.%King%NULL%1,                  Melissa%Skanderson%NULL%1,                  Ronald G.%Hauser%NULL%1,                  Anna%Schultze%NULL%0,                  Christopher I.%Jarvis%NULL%1,                  Mark%Holodniy%NULL%1,                  Vincent Lo%Re%NULL%1,                  Kathleen M.%Akgün%NULL%1,                  Kristina%Crothers%NULL%1,                  Tamar H.%Taddei%NULL%1,                  Matthew S.%Freiberg%NULL%1,                  Amy C.%Justice%NULL%1,                   C. T.%Rentsch%null%1,                   F.% Kidwai-Khan%null%1,                   J. P.% Tate%null%1,                   L. S.% Park%null%1,                   J. T.% King%null%1,                   M.% Skanderson%null%1,                   R. G.% Hauser%null%1,                   A.% Schultze%null%1,                   C. I.% Jarvis%null%1,                   M.% Holodniy%null%1,                   V.% Lo Re%null%1,                   K. M.% Akgun%null%1,                   K.% Crothers%null%1,                   T. H.% Taddei%null%1,                   M. S.% Freiberg%null%1,                   A. C. % Justice%null%1,                  C. T.%Rentsch%null%1,                  F.% Kidwai-Khan%null%1,                  J. P.% Tate%null%1,                  L. S.% Park%null%1,                  J. T.% King%null%1,                  M.% Skanderson%null%1,                  R. G.% Hauser%null%1,                  A.% Schultze%null%1,                  C. I.% Jarvis%null%1,                  M.% Holodniy%null%1,                  V.% Lo Re%null%1,                  K. M.% Akgun%null%1,                  K.% Crothers%null%1,                  T. H.% Taddei%null%1,                  M. S.% Freiberg%null%1,                  A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,            Elizabeth M.%Dufort%xref no email%1,            Tomoko%Udo%xref no email%1,            Larissa A.%Wilberschied%xref no email%1,            Jessica%Kumar%xref no email%1,            James%Tesoriero%xref no email%1,            Patti%Weinberg%xref no email%1,            James%Kirkwood%xref no email%1,            Alison%Muse%xref no email%1,            Jack%DeHovitz%xref no email%1,            Debra S.%Blog%xref no email%1,            Brad%Hutton%xref no email%1,            David R.%Holtgrave%xref no email%1,            Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                  Jennifer%Beam%NULL%2,                  Jennifer%Beam%NULL%0,                  Haley%Maier%NULL%1,                  Whitney%Haggerson%NULL%1,                  Karen%Boudreau%NULL%1,                  Jamie%Carlson%NULL%1,                  Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                  Alexander E.%Ayala%NULL%1,                  Chideraa C.%Ukeje%NULL%1,                  Celeste S.%Witting%NULL%1,                  William A.%Grobman%NULL%1,                  Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                  Hannah C.%Jarvis%NULL%2,                  Hannah C.%Jarvis%NULL%0,                  Ezgi%Ozcan%NULL%1,                  Thomas L. P.%Burns%NULL%1,                  Rabia A.%Warraich%NULL%1,                  Lisa J.%Amani%NULL%1,                  Amina%Jaffer%NULL%1,                  Stephanie%Paget%NULL%1,                  Anand%Sivaramakrishnan%NULL%1,                  Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                  Suzy%Gallier%NULL%2,                  Suzy%Gallier%NULL%0,                  Chris%Mainey%NULL%1,                  Peter%Nightingale%NULL%2,                  Peter%Nightingale%NULL%0,                  David%McNulty%NULL%1,                  Hannah%Crothers%NULL%1,                  Felicity%Evison%NULL%1,                  Katharine%Reeves%NULL%1,                  Domenico%Pagano%NULL%1,                  Alastair K%Denniston%NULL%1,                  Krishnarajah%Nirantharakumar%NULL%1,                  Peter%Diggle%NULL%1,                  Simon%Ball%NULL%1,                  Lylah%Irshad%NULL%1,                  Maxim%Harris%NULL%1,                  Theodore%Nabav%NULL%1,                  A%Kolesnyk%NULL%1,                  M%Ahmed%NULL%1,                  A%Liaqat%NULL%1,                  Tanya%Pankhurst%NULL%1,                  Jamie%Coleman%NULL%1,                  Chirag%Dave%NULL%1,                  Khaled%ElFandi%NULL%1,                  Rifat%Rashid%NULL%1,                  Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                  Gregory A%Eschenauer%NULL%2,                  Gregory A%Eschenauer%NULL%0,                  Jonathan P%Troost%NULL%1,                  Jonathan L%Golob%NULL%1,                  Tejal N%Gandhi%NULL%1,                  Lu%Wang%NULL%1,                  Nina%Zhou%NULL%1,                  Lindsay A%Petty%NULL%1,                  Ji Hoon%Baang%NULL%1,                  Nicholas O%Dillman%NULL%1,                  David%Frame%NULL%1,                  Kevin S%Gregg%NULL%1,                  Dan R%Kaul%NULL%1,                  Jerod%Nagel%NULL%1,                  Twisha S%Patel%NULL%1,                  Shiwei%Zhou%NULL%1,                  Adam S%Lauring%NULL%1,                  David A%Hanauer%NULL%1,                  Emily%Martin%NULL%1,                  Pratima%Sharma%NULL%1,                  Christopher M%Fung%NULL%1,                  Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                  Lei%Qian%NULL%2,                  Lei%Qian%NULL%0,                  Vennis%Hong%NULL%1,                  Rong%Wei%NULL%2,                  Rong%Wei%NULL%0,                  Ron F.%Nadjafi%NULL%2,                  Ron F.%Nadjafi%NULL%0,                  Heidi%Fischer%NULL%1,                  Zhuoxin%Li%NULL%1,                  Sally F.%Shaw%NULL%1,                  Susan L.%Caparosa%NULL%2,                  Susan L.%Caparosa%NULL%0,                  Claudia L.%Nau%NULL%1,                  Tanmai%Saxena%NULL%1,                  Gunter K.%Rieg%NULL%1,                  Bradley K.%Ackerson%NULL%1,                  Adam L.%Sharp%NULL%2,                  Adam L.%Sharp%NULL%0,                  Jacek%Skarbinski%NULL%2,                  Jacek%Skarbinski%NULL%0,                  Tej K.%Naik%NULL%1,                  Sameer B.%Murali%NULL%2,                  Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                  Juan Carlos%Nicolas%NULL%2,                  Juan Carlos%Nicolas%NULL%0,                  Jennifer R%Meeks%NULL%1,                  Osman%Khan%NULL%1,                  Alan%Pan%NULL%1,                  Stephen L%Jones%NULL%1,                  Faisal%Masud%NULL%1,                  H Dirk%Sostman%NULL%1,                  Robert%Phillips%NULL%1,                  Julia D%Andrieni%NULL%1,                  Bita A%Kash%NULL%1,                  Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                  Arryn%Craney%NULL%1,                  Phyllis%Ruggiero%NULL%1,                  John%Sipley%NULL%1,                  Lin%Cong%NULL%1,                  Erika M.%Hissong%NULL%1,                  Massimo%Loda%NULL%1,                  Lars F.%Westblade%NULL%1,                  Melissa%Cushing%NULL%2,                  Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                   X.% Zhong%null%1,                   Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                  Amanda%Zheutlin%NULL%2,                  Amanda%Zheutlin%NULL%0,                  Yu-Han%Kao%NULL%1,                  Kristin%Ayers%NULL%1,                  Susan%Gross%NULL%1,                  Patricia%Kovatch%NULL%1,                  Sharon%Nirenberg%NULL%1,                  Alexander%Charney%NULL%1,                  Girish%Nadkarni%NULL%1,                  Jessica K%De Freitas%NULL%1,                  Paul%O’Reilly%NULL%1,                  Allan%Just%NULL%1,                  Carol%Horowitz%NULL%1,                  Glenn%Martin%NULL%1,                  Andrea%Branch%NULL%1,                  Benjamin S%Glicksberg%NULL%1,                  Dennis%Charney%NULL%1,                  David%Reich%NULL%1,                  William K%Oh%NULL%1,                  Eric%Schadt%NULL%1,                  Rong%Chen%NULL%0,                  Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                  Angela%Winegar%NULL%1,                  Richard%Fogel%NULL%1,                  Mohamad%Fakih%NULL%1,                  Allison%Ottenbacher%NULL%1,                  Christine%Jesser%NULL%1,                  Angelo%Bufalino%NULL%1,                  Ren-Huai%Huang%NULL%1,                  Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                  Rebecca%Bendayan%NULL%0,                  Mark%Ashworth%NULL%1,                  Daniel M.%Bean%NULL%1,                  Hiten%Dodhia%NULL%1,                  Stevo%Durbaba%NULL%1,                  Kevin%O'Gallagher%NULL%1,                  Claire%Palmer%NULL%1,                  Vasa%Curcin%NULL%1,                  Elizabeth%Aitken%NULL%1,                  William%Bernal%NULL%1,                  Richard D.%Barker%NULL%1,                  Sam%Norton%NULL%1,                  Martin%Gulliford%NULL%1,                  James T.H.%Teo%NULL%0,                  James%Galloway%NULL%1,                  Richard J.B.%Dobson%NULL%0,                  Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                  Carina%Marquez%NULL%1,                  Emily%Crawford%NULL%1,                  James%Peng%NULL%1,                  Maya%Petersen%NULL%1,                  Daniel%Schwab%NULL%1,                  Joshua%Schwab%NULL%1,                  Jackie%Martinez%NULL%1,                  Diane%Jones%NULL%1,                  Douglas%Black%NULL%1,                  Monica%Gandhi%NULL%1,                  Andrew D%Kerkhoff%NULL%1,                  Vivek%Jain%NULL%1,                  Francesco%Sergi%NULL%1,                  Jon%Jacobo%NULL%1,                  Susana%Rojas%NULL%1,                  Valerie%Tulier-Laiwa%NULL%1,                  Tracy%Gallardo-Brown%NULL%1,                  Ayesha%Appa%NULL%1,                  Charles%Chiu%NULL%1,                  Mary%Rodgers%NULL%1,                  John%Hackett%NULL%1,                  NULL%NULL%NULL%0,                  Amy%Kistler%NULL%1,                  Samantha%Hao%NULL%1,                  Jack%Kamm%NULL%1,                  David%Dynerman%NULL%1,                  Joshua%Batson%NULL%1,                  Bryan%Greenhouse%NULL%1,                  Joe%DeRisi%NULL%1,                  Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                  Tiffany%Grimes%NULL%1,                  Peng%Li%NULL%1,                  Matthew%Might%NULL%1,                  Fernando%Ovalle%NULL%1,                  Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                  Natalie%Achamallah%NULL%1,                  Hongwei%Ji%NULL%1,                  Brian L.%Claggett%NULL%1,                  Nancy%Sun%NULL%1,                  Patrick%Botting%NULL%1,                  Trevor-Trung%Nguyen%NULL%1,                  Eric%Luong%NULL%1,                  Elizabeth H.%Kim%NULL%1,                  Eunice%Park%NULL%1,                  Yunxian%Liu%NULL%1,                  Ryan%Rosenberry%NULL%1,                  Yuri%Matusov%NULL%1,                  Steven%Zhao%NULL%1,                  Isabel%Pedraza%NULL%1,                  Tanzira%Zaman%NULL%1,                  Michael%Thompson%NULL%1,                  Koen%Raedschelders%NULL%1,                  Anders H.%Berg%NULL%2,                  Anders H.%Berg%NULL%0,                  Jonathan D.%Grein%NULL%1,                  Paul W.%Noble%NULL%1,                  Sumeet S.%Chugh%NULL%1,                  C. Noel%Bairey Merz%NULL%1,                  Eduardo%Marbán%NULL%1,                  Jennifer E.%Van Eyk%NULL%1,                  Scott D.%Solomon%NULL%1,                  Christine M.%Albert%NULL%1,                  Peter%Chen%NULL%1,                  Susan%Cheng%NULL%3,                  Yu Ru%Kou%NULL%8,                  Yu Ru%Kou%NULL%0,                  Yu Ru%Kou%NULL%0,                  Susan%Cheng%biodatacore@cshs.org%0,                  Susan%Cheng%biodatacore@cshs.org%0,                  Yu Ru%Kou%NULL%0,                  Yu Ru%Kou%NULL%0,                  Yu Ru%Kou%NULL%0,                  Yu Ru%Kou%NULL%0,                  Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                  Penelope%Strid%NULL%1,                  Van T.%Tong%NULL%1,                  Kate%Woodworth%NULL%1,                  Romeo R.%Galang%NULL%1,                  Laura D.%Zambrano%NULL%1,                  John%Nahabedian%NULL%1,                  Kayla%Anderson%NULL%1,                  Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                  Jacob%Fiksel%NULL%2,                  Jacob%Fiksel%NULL%0,                  John%Muschelli%NULL%2,                  John%Muschelli%NULL%0,                  Matthew L.%Robinson%NULL%2,                  Matthew L.%Robinson%NULL%0,                  Masoud%Rouhizadeh%NULL%2,                  Masoud%Rouhizadeh%NULL%0,                  Jamie%Perin%NULL%2,                  Jamie%Perin%NULL%0,                  Grant%Schumock%NULL%2,                  Grant%Schumock%NULL%0,                  Paul%Nagy%NULL%2,                  Paul%Nagy%NULL%0,                  Josh H.%Gray%NULL%2,                  Josh H.%Gray%NULL%0,                  Harsha%Malapati%NULL%2,                  Harsha%Malapati%NULL%0,                  Mariam%Ghobadi-Krueger%NULL%2,                  Mariam%Ghobadi-Krueger%NULL%0,                  Timothy M.%Niessen%NULL%1,                  Bo Soo%Kim%NULL%1,                  Peter M.%Hill%NULL%1,                  M. Shafeeq%Ahmed%NULL%1,                  Eric D.%Dobkin%NULL%1,                  Renee%Blanding%NULL%1,                  Jennifer%Abele%NULL%1,                  Bonnie%Woods%NULL%1,                  Kenneth%Harkness%NULL%1,                  David R.%Thiemann%NULL%1,                  Mary G.%Bowring%NULL%1,                  Aalok B.%Shah%NULL%2,                  Aalok B.%Shah%NULL%0,                  Mei-Cheng%Wang%NULL%1,                  Karen%Bandeen-Roche%NULL%1,                  Antony%Rosen%NULL%1,                  Scott L.%Zeger%NULL%2,                  Scott L.%Zeger%NULL%0,                  Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                  Megan%McCullough%NULL%0,                  Megan%McCullough%NULL%0,                  Michael A.%Fuery%NULL%0,                  Fouad%Chouairi%NULL%0,                  Fouad%Chouairi%NULL%0,                  Craig%Keating%NULL%0,                  Neal G.%Ravindra%NULL%0,                  P. Elliott%Miller%NULL%0,                  Maricar%Malinis%NULL%0,                  Nitu%Kashyap%NULL%0,                  Allen%Hsiao%NULL%0,                  F. Perry%Wilson%NULL%0,                  Jeptha P.%Curtis%NULL%0,                  Matthew%Grant%NULL%0,                  Eric J.%Velazquez%NULL%0,                  Nihar R.%Desai%NULL%0,                  Tariq%Ahmad%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4226,7 +4388,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1021</v>
+        <v>1070</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4238,7 +4400,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>282</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3">
@@ -4255,7 +4417,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>1022</v>
+        <v>1072</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -4267,7 +4429,7 @@
         <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4">
@@ -4284,7 +4446,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>1023</v>
+        <v>1074</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -4296,7 +4458,7 @@
         <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5">
@@ -4313,7 +4475,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>1024</v>
+        <v>1075</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -4325,7 +4487,7 @@
         <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="6">
@@ -4342,7 +4504,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>1025</v>
+        <v>1076</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -4354,7 +4516,7 @@
         <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="7">
@@ -4371,7 +4533,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>1026</v>
+        <v>1077</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -4383,7 +4545,7 @@
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>282</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="8">
@@ -4400,7 +4562,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>1027</v>
+        <v>1078</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -4412,7 +4574,7 @@
         <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9">
@@ -4429,7 +4591,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>1028</v>
+        <v>1079</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -4441,7 +4603,7 @@
         <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="10">
@@ -4458,7 +4620,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>1029</v>
+        <v>1080</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -4470,7 +4632,7 @@
         <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>282</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="11">
@@ -4487,7 +4649,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>1030</v>
+        <v>1081</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -4499,7 +4661,7 @@
         <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>294</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="12">
@@ -4516,7 +4678,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>1031</v>
+        <v>1083</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -4528,7 +4690,7 @@
         <v>123</v>
       </c>
       <c r="I12" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13">
@@ -4545,7 +4707,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>1032</v>
+        <v>1084</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -4557,7 +4719,7 @@
         <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="14">
@@ -4574,7 +4736,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>1033</v>
+        <v>1085</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -4586,7 +4748,7 @@
         <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15">
@@ -4603,7 +4765,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>1034</v>
+        <v>1087</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -4615,7 +4777,7 @@
         <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>294</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="16">
@@ -4632,7 +4794,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>1035</v>
+        <v>1088</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -4644,7 +4806,7 @@
         <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17">
@@ -4661,7 +4823,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>1036</v>
+        <v>1089</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -4673,7 +4835,7 @@
         <v>144</v>
       </c>
       <c r="I17" t="s">
-        <v>282</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18">
@@ -4690,7 +4852,7 @@
         <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>1037</v>
+        <v>1090</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -4702,7 +4864,7 @@
         <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>302</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="19">
@@ -4719,7 +4881,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>1038</v>
+        <v>1092</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -4731,7 +4893,7 @@
         <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20">
@@ -4748,7 +4910,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>1039</v>
+        <v>1093</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -4760,7 +4922,7 @@
         <v>158</v>
       </c>
       <c r="I20" t="s">
-        <v>282</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="21">
@@ -4777,7 +4939,7 @@
         <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>1040</v>
+        <v>1094</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -4789,7 +4951,7 @@
         <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>302</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="22">
@@ -4806,7 +4968,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>1041</v>
+        <v>1095</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -4818,7 +4980,7 @@
         <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>302</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="23">
@@ -4835,7 +4997,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>1042</v>
+        <v>1096</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -4847,7 +5009,7 @@
         <v>171</v>
       </c>
       <c r="I23" t="s">
-        <v>294</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="24">
@@ -4864,7 +5026,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>1043</v>
+        <v>1097</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -4876,7 +5038,7 @@
         <v>546</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="25">
@@ -4893,7 +5055,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>1044</v>
+        <v>1098</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -4905,7 +5067,7 @@
         <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="26">
@@ -4922,7 +5084,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>1045</v>
+        <v>1099</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -4934,7 +5096,7 @@
         <v>181</v>
       </c>
       <c r="I26" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="27">
@@ -4951,7 +5113,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>1046</v>
+        <v>1100</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -4963,7 +5125,7 @@
         <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="28">
@@ -4980,7 +5142,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>1047</v>
+        <v>1101</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -4992,7 +5154,7 @@
         <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="29">
@@ -5009,7 +5171,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1048</v>
+        <v>1102</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -5021,7 +5183,7 @@
         <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>294</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="30">
@@ -5038,7 +5200,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>1049</v>
+        <v>1103</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -5067,7 +5229,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>1050</v>
+        <v>1104</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -5079,7 +5241,7 @@
         <v>202</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="32">
@@ -5096,7 +5258,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>1051</v>
+        <v>1105</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -5108,7 +5270,7 @@
         <v>556</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="33">
@@ -5125,7 +5287,7 @@
         <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>1052</v>
+        <v>1106</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -5137,7 +5299,7 @@
         <v>207</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="34">
@@ -5154,7 +5316,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>1053</v>
+        <v>1107</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -5166,7 +5328,7 @@
         <v>212</v>
       </c>
       <c r="I34" t="s">
-        <v>294</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="35">
@@ -5183,7 +5345,7 @@
         <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>1054</v>
+        <v>1108</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -5195,7 +5357,7 @@
         <v>217</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="36">
@@ -5212,7 +5374,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>1055</v>
+        <v>1109</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -5224,7 +5386,7 @@
         <v>222</v>
       </c>
       <c r="I36" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="37">
@@ -5241,7 +5403,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>1056</v>
+        <v>1110</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -5253,7 +5415,7 @@
         <v>227</v>
       </c>
       <c r="I37" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="38">
@@ -5270,7 +5432,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>1057</v>
+        <v>1111</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -5282,7 +5444,7 @@
         <v>94</v>
       </c>
       <c r="I38" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="39">
@@ -5299,7 +5461,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>1058</v>
+        <v>1112</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -5311,7 +5473,7 @@
         <v>186</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="40">
@@ -5328,7 +5490,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>1059</v>
+        <v>1113</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -5340,7 +5502,7 @@
         <v>240</v>
       </c>
       <c r="I40" t="s">
-        <v>294</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="41">
@@ -5357,7 +5519,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>1060</v>
+        <v>1114</v>
       </c>
       <c r="F41" t="s">
         <v>52</v>
@@ -5369,7 +5531,7 @@
         <v>244</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="42">
@@ -5386,7 +5548,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>1061</v>
+        <v>1115</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -5398,7 +5560,7 @@
         <v>249</v>
       </c>
       <c r="I42" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="43">
@@ -5415,7 +5577,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>1062</v>
+        <v>1116</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -5427,7 +5589,7 @@
         <v>254</v>
       </c>
       <c r="I43" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="44">
@@ -5444,7 +5606,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>1063</v>
+        <v>1117</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -5456,7 +5618,7 @@
         <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>294</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="45">
@@ -5473,7 +5635,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>1064</v>
+        <v>1118</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -5485,7 +5647,7 @@
         <v>94</v>
       </c>
       <c r="I45" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="46">
@@ -5502,7 +5664,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>1065</v>
+        <v>1119</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -5514,7 +5676,7 @@
         <v>154</v>
       </c>
       <c r="I46" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="47">
@@ -5531,7 +5693,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>1066</v>
+        <v>1120</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -5543,7 +5705,7 @@
         <v>271</v>
       </c>
       <c r="I47" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="48">
@@ -5560,7 +5722,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>1067</v>
+        <v>1121</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -5572,7 +5734,7 @@
         <v>94</v>
       </c>
       <c r="I48" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="49">
@@ -5589,7 +5751,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>1068</v>
+        <v>1122</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -5601,7 +5763,7 @@
         <v>94</v>
       </c>
       <c r="I49" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="50">
@@ -5618,7 +5780,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>1069</v>
+        <v>1123</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>
@@ -5630,7 +5792,7 @@
         <v>89</v>
       </c>
       <c r="I50" t="s">
-        <v>284</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="51">

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6715" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7065" uniqueCount="1173">
   <si>
     <t>Doi</t>
   </si>
@@ -3981,6 +3981,153 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,                  Megan%McCullough%NULL%0,                  Megan%McCullough%NULL%0,                  Michael A.%Fuery%NULL%0,                  Fouad%Chouairi%NULL%0,                  Fouad%Chouairi%NULL%0,                  Craig%Keating%NULL%0,                  Neal G.%Ravindra%NULL%0,                  P. Elliott%Miller%NULL%0,                  Maricar%Malinis%NULL%0,                  Nitu%Kashyap%NULL%0,                  Allen%Hsiao%NULL%0,                  F. Perry%Wilson%NULL%0,                  Jeptha P.%Curtis%NULL%0,                  Matthew%Grant%NULL%0,                  Eric J.%Velazquez%NULL%0,                  Nihar R.%Desai%NULL%0,                  Tariq%Ahmad%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0,                  Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%2,                    R. U.% Shah%null%1,                    M.% Bale%null%1,                    J. B.% Peacock%null%1,                    B.% Berger%null%1,                    A.% Brown%null%1,                    S.% Mann%null%1,                    W.% West%null%1,                    V.% Martin%null%1,                    V.% Fernandez%null%1,                    S.% Grineski%null%1,                    B. J.% Brintz%null%1,                    M. H.% Samore%null%1,                    M. J.% Ferrari%null%1,                    D. T.% Leung%null%1,                    L. T. % Keegan%null%1,  S. M.%Ahmed%null%0,  R. U.% Shah%null%1,  M.% Bale%null%1,  J. B.% Peacock%null%1,  B.% Berger%null%1,  A.% Brown%null%1,  S.% Mann%null%1,  W.% West%null%1,  V.% Martin%null%1,  V.% Fernandez%null%1,  S.% Grineski%null%1,  B. J.% Brintz%null%1,  M. H.% Samore%null%1,  M. J.% Ferrari%null%1,  D. T.% Leung%null%1,  L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                   Samuel L%Bruce%NULL%1,                   Cody L%Slater%NULL%1,                   Jonathan R%Tiao%NULL%1,                   Matthew R%Baldwin%NULL%1,                   R Graham%Barr%NULL%1,                   Bernard P%Chang%NULL%1,                   Katherine H%Chau%NULL%1,                   Justin J%Choi%NULL%1,                   Nicholas%Gavin%NULL%1,                   Parag%Goyal%NULL%1,                   Angela M%Mills%NULL%1,                   Ashmi A%Patel%NULL%1,                   Marie-Laure S%Romney%NULL%1,                   Monika M%Safford%NULL%1,                   Neil W%Schluger%NULL%1,                   Soumitra%Sengupta%NULL%1,                   Magdalena E%Sobieszczyk%NULL%1,                   Jason E%Zucker%NULL%1,                   Paul A%Asadourian%NULL%1,                   Fletcher M%Bell%NULL%1,                   Rebekah%Boyd%NULL%1,                   Matthew F%Cohen%NULL%1,                   MacAlistair I%Colquhoun%NULL%1,                   Lucy A%Colville%NULL%1,                   Joseph H%de Jonge%NULL%1,                   Lyle B%Dershowitz%NULL%1,                   Shirin A%Dey%NULL%1,                   Katherine A%Eiseman%NULL%1,                   Zachary P%Girvin%NULL%1,                   Daniella T%Goni%NULL%1,                   Amro A%Harb%NULL%1,                   Nicholas%Herzik%NULL%1,                   Sarah%Householder%NULL%1,                   Lara E%Karaaslan%NULL%1,                   Heather%Lee%NULL%1,                   Evan%Lieberman%NULL%1,                   Andrew%Ling%NULL%1,                   Ree%Lu%NULL%1,                   Arthur Y%Shou%NULL%1,                   Alexander C%Sisti%NULL%1,                   Zachary E%Snow%NULL%1,                   Colin P%Sperring%NULL%1,                   Yuqing%Xiong%NULL%1,                   Henry W%Zhou%NULL%1,                   Karthik%Natarajan%NULL%1,                   George%Hripcsak%NULL%1,                   Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                   Megan%McCullough%NULL%4,                   Megan%McCullough%NULL%0,                   Michael A.%Fuery%NULL%2,                   Fouad%Chouairi%NULL%4,                   Fouad%Chouairi%NULL%0,                   Craig%Keating%NULL%2,                   Neal G.%Ravindra%NULL%2,                   P. Elliott%Miller%NULL%2,                   Maricar%Malinis%NULL%2,                   Nitu%Kashyap%NULL%2,                   Allen%Hsiao%NULL%2,                   F. Perry%Wilson%NULL%2,                   Jeptha P.%Curtis%NULL%2,                   Matthew%Grant%NULL%2,                   Eric J.%Velazquez%NULL%2,                   Nihar R.%Desai%NULL%2,                   Tariq%Ahmad%NULL%2,                   Chiara%Lazzeri%NULL%18,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                   Karen K.%Wong%NULL%1,                   Christine M.%Szablewski%NULL%1,                   Priti R.%Patel%NULL%1,                   John%Rossow%NULL%1,                   Juliana%da Silva%NULL%1,                   Pavithra%Natarajan%NULL%1,                   Sapna Bamrah%Morris%NULL%1,                   Robyn Neblett%Fanfair%NULL%1,                   Jessica%Rogers-Brown%NULL%1,                   Beau B.%Bruce%NULL%1,                   Sean D.%Browning%NULL%1,                   Alfonso C.%Hernandez-Romieu%NULL%2,                   Nathan W.%Furukawa%NULL%1,                   Mohleen%Kang%NULL%1,                   Mary E.%Evans%NULL%1,                   Nadine%Oosmanally%NULL%1,                   Melissa%Tobin-D’Angelo%NULL%1,                   Cherie%Drenzek%NULL%1,                   David J.%Murphy%NULL%0,                   Julie%Hollberg%NULL%1,                   James M.%Blum%NULL%0,                   Robert%Jansen%NULL%1,                   David W.%Wright%NULL%1,                   William M.%Sewell%NULL%1,                   Jack D.%Owens%NULL%1,                   Benjamin%Lefkove%NULL%1,                   Frank W.%Brown%NULL%1,                   Deron C.%Burton%NULL%1,                   Timothy M.%Uyeki%NULL%3,                   Stephanie R.%Bialek%NULL%1,                   Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                   Jasmine A.%Mack%NULL%1,                   Maxwell%Salvatore%NULL%1,                   Swaraaj Prabhu%Sankar%NULL%1,                   Thomas S.%Valley%NULL%1,                   Karandeep%Singh%NULL%1,                   Brahmajee K.%Nallamothu%NULL%1,                   Sachin%Kheterpal%NULL%1,                   Lynda%Lisabeth%NULL%1,                   Lars G.%Fritsche%NULL%1,                   Bhramar%Mukherjee%NULL%1,                    T.%Gu%null%1,                    J. A.% Mack%null%1,                    M.% Salvatore%null%1,                    S. P.% Sankar%null%1,                    T. S.% Valley%null%1,                    K.% Singh%null%1,                    B. K.% Nallamothu%null%1,                    S.% Kheterpal%null%1,                    L.% Lisabeth%null%1,                    L. G.% Fritsche%null%1,                    B. G. % Mukherjee%null%1,                   T.%Gu%null%1,                   J. A.% Mack%null%1,                   M.% Salvatore%null%1,                   S. P.% Sankar%null%1,                   T. S.% Valley%null%1,                   K.% Singh%null%1,                   B. K.% Nallamothu%null%1,                   S.% Kheterpal%null%1,                   L.% Lisabeth%null%1,                   L. G.% Fritsche%null%1,                   B. G. % Mukherjee%null%1,  T.%Gu%null%1,  J. A.% Mack%null%1,  M.% Salvatore%null%1,  S. P.% Sankar%null%1,  T. S.% Valley%null%1,  K.% Singh%null%1,  B. K.% Nallamothu%null%1,  S.% Kheterpal%null%1,  L.% Lisabeth%null%1,  L. G.% Fritsche%null%1,  B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%2,                    S.% Nirenberg%null%1,                    P.% Kovatch%null%1,                    K.-l. % Huang%null%1,  T.%Jun%null%0,  S.% Nirenberg%null%1,  P.% Kovatch%null%2,  K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                   Shikha%Garg%NULL%1,                   Alissa%O’Halloran%NULL%1,                   Michael%Whitaker%NULL%1,                   Huong%Pham%NULL%1,                   Evan J%Anderson%NULL%1,                   Isaac%Armistead%NULL%1,                   Nancy M%Bennett%NULL%1,                   Laurie%Billing%NULL%1,                   Kathryn%Como-Sabetti%NULL%1,                   Mary%Hill%NULL%1,                   Sue%Kim%NULL%1,                   Maya L%Monroe%NULL%1,                   Alison%Muse%NULL%1,                   Arthur L%Reingold%NULL%1,                   William%Schaffner%NULL%1,                   Melissa%Sutton%NULL%1,                   H Keipp%Talbot%NULL%1,                   Salina M%Torres%NULL%1,                   Kimberly%Yousey-Hindes%NULL%1,                   Rachel%Holstein%NULL%1,                   Charisse%Cummings%NULL%1,                   Lynette%Brammer%NULL%1,                   Aron J%Hall%NULL%1,                   Alicia M%Fry%NULL%1,                   Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%2,                    S.% Richardson%null%1,                    K.% Coppa%null%1,                    D. P.% Barnaby%null%1,                    T.% McGinn%null%1,                    L. B.% Becker%null%1,                    K. W.% Davidson%null%1,                    S. L.% Cohen%null%1,                    J. S.% Hirsch%null%1,                    T.% Zanos%null%1,                      % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1,  T. J.%Levy%null%0,  S.% Richardson%null%1,  K.% Coppa%null%1,  D. P.% Barnaby%null%1,  T.% McGinn%null%1,  L. B.% Becker%null%1,  K. W.% Davidson%null%1,  S. L.% Cohen%null%1,  J. S.% Hirsch%null%1,  T.% Zanos%null%1,    % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%2,                    L. H.% Nguyen%null%1,                    D. A.% Drew%null%1,                    M. S.% Graham%null%1,                    E. T.% Warner%null%1,                    A. D.% Joshi%null%1,                    C. M.% Astley%null%1,                    C.-G.% Guo%null%1,                    W.% Ma%null%1,                    R. S.% Mehta%null%1,                    S.% Kwon%null%1,                    M.% Song%null%1,                    R.% Davies%null%1,                    J.% Capdevila%null%1,                    K. A.% Lee%null%1,                    M. N.% Lochlainn%null%1,                    T.% Varsavsky%null%1,                    C. H.% Sudre%null%1,                    J.% Wolf%null%1,                    Y. C.% Cozier%null%1,                    L.% Rosenberg%null%1,                    L. R.% Wilkens%null%1,                    C. A.% Haiman%null%1,                    L. L.% Marchand%null%1,                    J. R.% Palmer%null%1,                    T. D.% Spector%null%1,                    S.% Ourselin%null%1,                    C. J.% Steves%null%1,                    A. T.% Chan%null%1,                      % COPE Consortium%null%1,  C.-H.%Lo%null%0,  L. H.% Nguyen%null%1,  D. A.% Drew%null%1,  M. S.% Graham%null%1,  E. T.% Warner%null%1,  A. D.% Joshi%null%1,  C. M.% Astley%null%1,  C.-G.% Guo%null%1,  W.% Ma%null%1,  R. S.% Mehta%null%1,  S.% Kwon%null%1,  M.% Song%null%1,  R.% Davies%null%1,  J.% Capdevila%null%1,  K. A.% Lee%null%1,  M. N.% Lochlainn%null%1,  T.% Varsavsky%null%1,  C. H.% Sudre%null%1,  J.% Wolf%null%1,  Y. C.% Cozier%null%1,  L.% Rosenberg%null%1,  L. R.% Wilkens%null%1,  C. A.% Haiman%null%1,  L. L.% Marchand%null%1,  J. R.% Palmer%null%1,  T. D.% Spector%null%1,  S.% Ourselin%null%1,  C. J.% Steves%null%1,  A. T.% Chan%null%1,    % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                   Jienchi%Dorward%NULL%1,                   Ana%Correa%NULL%1,                   Nicholas%Jones%NULL%1,                   Oluwafunmi%Akinyemi%NULL%1,                   Gayatri%Amirthalingam%NULL%1,                   Nick%Andrews%NULL%1,                   Rachel%Byford%NULL%1,                   Gavin%Dabrera%NULL%1,                   Alex%Elliot%NULL%1,                   Joanna%Ellis%NULL%0,                   Filipa%Ferreira%NULL%1,                   Jamie%Lopez Bernal%NULL%1,                   Cecilia%Okusi%NULL%1,                   Mary%Ramsay%NULL%1,                   Julian%Sherlock%NULL%1,                   Gillian%Smith%NULL%1,                   John%Williams%NULL%1,                   Gary%Howsam%NULL%1,                   Maria%Zambon%NULL%0,                   Mark%Joy%NULL%1,                   F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                   Johanna%Dolle%NULL%2,                   Johanna%Dolle%NULL%0,                   Sheila%Grami%NULL%1,                   Richard%Adule%NULL%1,                   Zeyu%Li%NULL%1,                   Kathleen%Tatem%NULL%1,                   Chinyere%Anyaogu%NULL%1,                   Stephen%Apfelroth%NULL%1,                   Raji%Ayinla%NULL%2,                   Raji%Ayinla%NULL%0,                   Noella%Boma%NULL%1,                   Terence%Brady%NULL%1,                   Braulio F.%Cosme-Thormann%NULL%1,                   Roseann%Costarella%NULL%1,                   Kenra%Ford%NULL%1,                   Kecia%Gaither%NULL%1,                   Jessica%Jacobson%NULL%1,                   Marc%Kanter%NULL%1,                   Stuart%Kessler%NULL%1,                   Ross B.%Kristal%NULL%1,                   Joseph J.%Lieber%NULL%1,                   Vikramjit%Mukherjee%NULL%1,                   Vincent%Rizzo%NULL%1,                   Madden%Rowell%NULL%1,                   David%Stevens%NULL%1,                   Elana%Sydney%NULL%1,                   Andrew%Wallach%NULL%2,                   Andrew%Wallach%NULL%0,                   Dave A.%Chokshi%NULL%1,                   Nichola%Davis%NULL%1,                   NULL%NULL%NULL%0,                   Sze Yan%Liu%NULL%2,                   Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                   Mark%Caridi-Scheible%NULL%0,                   James M.%Blum%NULL%0,                   Chad%Robichaux%NULL%1,                   Colleen%Kraft%NULL%1,                   Jesse T.%Jacob%NULL%1,                   Craig S.%Jabaley%NULL%0,                   David%Carpenter%NULL%1,                   Roberta%Kaplow%NULL%1,                   Alfonso C.%Hernandez-Romieu%NULL%0,                   Max W.%Adelman%NULL%0,                   Greg S.%Martin%NULL%0,                   Craig M.%Coopersmith%NULL%1,                   David J.%Murphy%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,           Seunghee%Kim-Schulze%null%1,           Hsin-Hui%Huang%null%1,           Noam D.%Beckmann%null%1,           Sharon%Nirenberg%null%1,           Bo%Wang%null%1,           Yonit%Lavin%null%1,           Talia H.%Swartz%null%1,           Deepu%Madduri%null%1,           Aryeh%Stock%null%1,           Thomas U.%Marron%null%1,           Hui%Xie%null%1,           Manishkumar%Patel%null%1,           Kevin%Tuballes%null%1,           Oliver%Oekelen%null%1,           Adeeb%Rahman%null%1,           Patricia%Kovatch%null%2,           Judith A.%Aberg%null%1,           Eric%Schadt%null%1,           Sundar%Jagannath%null%1,           Madhu%Mazumdar%null%1,           Alexander W.%Charney%null%1,           Adolfo%Firpo-Betancourt%null%1,           Damodara Rao%Mendu%null%1,           Jeffrey%Jhang%null%2,           David%Reich%null%1,           Keith%Sigel%null%1,           Carlos%Cordon-Cardo%null%2,           Marc%Feldmann%null%1,           Samir%Parekh%null%1,           Miriam%Merad%null%1,           Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                   David R.%Jenkins%NULL%1,                   Jatinder S.%Minhas%NULL%1,                   Laura J.%Gray%NULL%1,                   Julian%Tang%NULL%1,                   Caroline%Williams%NULL%1,                   Shirley%Sze%NULL%1,                   Daniel%Pan%NULL%1,                   William%Jones%NULL%1,                   Raman%Verma%NULL%1,                   Scott%Knapp%NULL%1,                   Rupert%Major%NULL%1,                   Melanie%Davies%NULL%1,                   Nigel%Brunskill%NULL%1,                   Martin%Wiselka%NULL%1,                   Chris%Brightling%NULL%1,                   Kamlesh%Khunti%NULL%1,                   Pranab%Haldar%NULL%1,                   Manish%Pareek%mp426@le.ac.uk%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                   Kelly E%Hathorn%NULL%2,                   Kelly E%Hathorn%NULL%0,                   Walker D%Redd%NULL%1,                   Nicolette J%Rodriguez%NULL%1,                   Joyce C%Zhou%NULL%1,                   Ahmad Najdat%Bazarbashi%NULL%1,                   Cheikh%Njie%NULL%1,                   Danny%Wong%NULL%1,                   Quoc-Dien%Trinh%NULL%1,                   Lin%Shen%NULL%1,                   Valerie E%Stone%NULL%2,                   Valerie E%Stone%NULL%0,                   Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%2,                    S.% Apewokin%null%1,                    A. A.% Wells%null%1,                    A. L. % Morrow%null%1,  A.%Mendy%null%0,  S.% Apewokin%null%1,  A. A.% Wells%null%1,  A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                   Thomas E.%Webb%NULL%2,                   Thomas E.%Webb%NULL%0,                   Benjamin C.%Mcloughlin%NULL%2,                   Benjamin C.%Mcloughlin%NULL%0,                   Imran%Mannan%NULL%2,                   Imran%Mannan%NULL%0,                   Arshad%Rather%NULL%2,                   Arshad%Rather%NULL%0,                   Paul%Knopp%NULL%1,                   Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                   Rajat%Suri%NULL%2,                   Rajat%Suri%NULL%0,                   Iheanacho O.%Emeruwa%NULL%2,                   Iheanacho O.%Emeruwa%NULL%0,                   Robert J.%Stretch%NULL%1,                   Roxana Y.%Cortes-Lopez%NULL%2,                   Roxana Y.%Cortes-Lopez%NULL%0,                   Alexander%Sherman%NULL%1,                   Catherine C.%Lindsay%NULL%1,                   Jennifer A.%Fulcher%NULL%1,                   David%Goodman-Meza%NULL%2,                   David%Goodman-Meza%NULL%0,                   Anil%Sapru%NULL%2,                   Anil%Sapru%NULL%0,                   Russell G.%Buhr%NULL%1,                   Steven Y.%Chang%NULL%2,                   Steven Y.%Chang%NULL%0,                   Tisha%Wang%NULL%1,                   Nida%Qadir%NULL%1,                   Giordano%Madeddu%NULL%8,                   Giordano%Madeddu%NULL%0,                   Giordano%Madeddu%NULL%0,                   Ana C.%Monteiro%NULL%2,                   Ana C.%Monteiro%NULL%0,                   Giordano%Madeddu%NULL%0,                   Giordano%Madeddu%NULL%0,                   Giordano%Madeddu%NULL%0,                   Giordano%Madeddu%NULL%0,                   Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%2,                    D.% Stefanov%null%1,                    A. S.% Chau%null%1,                    A. G.% Weber%null%1,                    G. S.% Marder%null%1,                    B.% Kaplan%null%1,                    P.% Malhotra%null%1,                    O.% Bloom%null%1,                    A.% Liu%null%1,                    M.% Lesser%null%1,                    N. % Hajizadeh%null%1,  S.%Narain%null%0,  D.% Stefanov%null%1,  A. S.% Chau%null%1,  A. G.% Weber%null%1,  G. S.% Marder%null%1,  B.% Kaplan%null%1,  P.% Malhotra%null%1,  O.% Bloom%null%1,  A.% Liu%null%1,  M.% Lesser%null%1,  N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                   Catherine A.%O’Donnell%NULL%2,                   Bhautesh Dinesh%Jani%NULL%1,                   Evangelia%Demou%NULL%1,                   Frederick K.%Ho%NULL%1,                   Carlos%Celis-Morales%NULL%1,                   Barbara I.%Nicholl%NULL%1,                   Frances S.%Mair%NULL%2,                   Paul%Welsh%NULL%2,                   Naveed%Sattar%NULL%2,                   Jill P.%Pell%NULL%2,                   S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                   Alex J%Walker%NULL%1,                   Krishnan%Bhaskaran%NULL%1,                   Seb%Bacon%NULL%1,                   Chris%Bates%NULL%1,                   Caroline E%Morton%NULL%1,                   Helen J%Curtis%NULL%1,                   Amir%Mehrkar%NULL%1,                   David%Evans%NULL%1,                   Peter%Inglesby%NULL%1,                   Jonathan%Cockburn%NULL%1,                   Helen I%McDonald%NULL%1,                   Brian%MacKenna%NULL%1,                   Laurie%Tomlinson%NULL%1,                   Ian J%Douglas%NULL%1,                   Christopher T%Rentsch%NULL%1,                   Rohini%Mathur%NULL%1,                   Angel YS%Wong%NULL%1,                   Richard%Grieve%NULL%1,                   David%Harrison%NULL%1,                   Harriet%Forbes%NULL%1,                   Anna%Schultze%NULL%2,                   Richard%Croker%NULL%1,                   John%Parry%NULL%1,                   Frank%Hester%NULL%1,                   Sam%Harper%NULL%1,                   Rafael%Perera%NULL%1,                   Stephen JW%Evans%NULL%1,                   Liam%Smeeth%NULL%1,                   Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                   Ajay%Bhasin%NULL%1,                   Joseph M.%Feinglass%NULL%1,                   Michael P.%Angarone%NULL%1,                   Elaine R.%Cohen%NULL%1,                   Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%1,             Zijun%Shen%xref no email%1,             Robert J.%Romanelli%xref no email%1,             Stephen H.%Lockhart%xref no email%1,             Kelly%Smits%xref no email%1,             Sarah%Robinson%xref no email%1,             Stephanie%Brown%xref no email%1,             Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                   Andrew%Gangemi%NULL%1,                   Robert%Marron%NULL%1,                   Junad%Chowdhury%NULL%1,                   Ibraheem%Yousef%NULL%1,                   Matthew%Zheng%NULL%1,                   Nicole%Mills%NULL%1,                   Lauren%Tragesser%NULL%1,                   Julie%Giurintano%NULL%1,                   Rohit%Gupta%NULL%0,                   Matthew%Gordon%NULL%0,                   Parth%Rali%NULL%2,                   Parth%Rali%NULL%0,                   Gilbert%D'Alonso%NULL%1,                   David%Fleece%NULL%1,                   Huaqing%Zhao%NULL%0,                   Nicole%Patlakh%NULL%0,                   Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                   Nathan C.%Skorodin%nskorodin@midcusa.com%1,                   Nicholas W.%Van Hise%NULL%1,                   Robert M.%Fliegelman%NULL%1,                   Jonathan%Pinsky%NULL%1,                   Vishal%Didwania%NULL%1,                   Michael%Anderson%NULL%1,                   Melina%Diaz%NULL%1,                   Kairav%Shah%NULL%1,                   Vishnu V.%Chundi%NULL%1,                   David W.%Hines%NULL%1,                   Brian P.%Harting%NULL%1,                   Kamo%Sidwha%NULL%1,                   Brian%Yu%NULL%1,                   Paul%Brune%NULL%1,                   Anjum%Owaisi%NULL%1,                   David%Beezhold%NULL%1,                   Joseph%Kent%NULL%1,                   Dana%Vais%NULL%1,                   Alice%Han%NULL%1,                   Neethi%Gowda%NULL%1,                   Nishi%Sahgal%NULL%1,                   Jan%Silverman%NULL%1,                   Jonathan%Stake%NULL%1,                   Jenie%Nepomuceno%NULL%1,                   Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                   Anna%Daunt%NULL%2,                   Anna%Daunt%NULL%0,                   Sujit%Mukherjee%NULL%1,                   Peter%Crook%NULL%1,                   Roberta%Forlano%NULL%1,                   Mara D%Kont%NULL%1,                   Alessandra%Løchen%NULL%1,                   Michaela%Vollmer%NULL%1,                   Paul%Middleton%NULL%1,                   Rebekah%Judge%NULL%1,                   Christopher%Harlow%NULL%1,                   Anet%Soubieres%NULL%1,                   Graham%Cooke%NULL%1,                   Peter J%White%NULL%1,                   Timothy B%Hallett%NULL%1,                   Paul%Aylin%NULL%1,                   Neil%Ferguson%NULL%1,                   Katharina%Hauck%NULL%1,                   Mark R%Thursz%NULL%1,                   Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                   Jeffrey%Burton%NULL%2,                   Jeffrey%Burton%NULL%0,                   Daniel%Fort%NULL%1,                   Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                   Michael S.%Sherman%NULL%1,                   Naaz%Fatteh%NULL%1,                   Fabio%Vogel%NULL%1,                   Jamie%Sacks%NULL%1,                   Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%2,                    P.% Mannam%null%1,                    R.% Comer%null%1,                    E.% Sinclair%null%1,                    D. B.% McQuaid%null%1,                    M. L. % Schmidt%null%1,  M.%Ramaswamy%null%0,  P.% Mannam%null%1,  R.% Comer%null%1,  E.% Sinclair%null%1,  D. B.% McQuaid%null%1,  M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                   Farah%Kidwai-Khan%NULL%1,                   Janet P.%Tate%NULL%1,                   Lesley S.%Park%NULL%1,                   Joseph T.%King%NULL%1,                   Melissa%Skanderson%NULL%1,                   Ronald G.%Hauser%NULL%1,                   Anna%Schultze%NULL%0,                   Christopher I.%Jarvis%NULL%1,                   Mark%Holodniy%NULL%1,                   Vincent Lo%Re%NULL%1,                   Kathleen M.%Akgün%NULL%1,                   Kristina%Crothers%NULL%1,                   Tamar H.%Taddei%NULL%1,                   Matthew S.%Freiberg%NULL%1,                   Amy C.%Justice%NULL%1,                    C. T.%Rentsch%null%1,                    F.% Kidwai-Khan%null%1,                    J. P.% Tate%null%1,                    L. S.% Park%null%1,                    J. T.% King%null%1,                    M.% Skanderson%null%1,                    R. G.% Hauser%null%1,                    A.% Schultze%null%1,                    C. I.% Jarvis%null%1,                    M.% Holodniy%null%1,                    V.% Lo Re%null%1,                    K. M.% Akgun%null%1,                    K.% Crothers%null%1,                    T. H.% Taddei%null%1,                    M. S.% Freiberg%null%1,                    A. C. % Justice%null%1,                   C. T.%Rentsch%null%1,                   F.% Kidwai-Khan%null%1,                   J. P.% Tate%null%1,                   L. S.% Park%null%1,                   J. T.% King%null%1,                   M.% Skanderson%null%1,                   R. G.% Hauser%null%1,                   A.% Schultze%null%1,                   C. I.% Jarvis%null%1,                   M.% Holodniy%null%1,                   V.% Lo Re%null%1,                   K. M.% Akgun%null%1,                   K.% Crothers%null%1,                   T. H.% Taddei%null%1,                   M. S.% Freiberg%null%1,                   A. C. % Justice%null%1,  C. T.%Rentsch%null%1,  F.% Kidwai-Khan%null%1,  J. P.% Tate%null%1,  L. S.% Park%null%1,  J. T.% King%null%1,  M.% Skanderson%null%1,  R. G.% Hauser%null%1,  A.% Schultze%null%1,  C. I.% Jarvis%null%1,  M.% Holodniy%null%1,  V.% Lo Re%null%1,  K. M.% Akgun%null%1,  K.% Crothers%null%1,  T. H.% Taddei%null%1,  M. S.% Freiberg%null%1,  A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%1,             Elizabeth M.%Dufort%xref no email%1,             Tomoko%Udo%xref no email%1,             Larissa A.%Wilberschied%xref no email%1,             Jessica%Kumar%xref no email%1,             James%Tesoriero%xref no email%1,             Patti%Weinberg%xref no email%1,             James%Kirkwood%xref no email%1,             Alison%Muse%xref no email%1,             Jack%DeHovitz%xref no email%1,             Debra S.%Blog%xref no email%1,             Brad%Hutton%xref no email%1,             David R.%Holtgrave%xref no email%1,             Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                   Jennifer%Beam%NULL%2,                   Jennifer%Beam%NULL%0,                   Haley%Maier%NULL%1,                   Whitney%Haggerson%NULL%1,                   Karen%Boudreau%NULL%1,                   Jamie%Carlson%NULL%1,                   Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                   Alexander E.%Ayala%NULL%1,                   Chideraa C.%Ukeje%NULL%1,                   Celeste S.%Witting%NULL%1,                   William A.%Grobman%NULL%1,                   Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                   Hannah C.%Jarvis%NULL%2,                   Hannah C.%Jarvis%NULL%0,                   Ezgi%Ozcan%NULL%1,                   Thomas L. P.%Burns%NULL%1,                   Rabia A.%Warraich%NULL%1,                   Lisa J.%Amani%NULL%1,                   Amina%Jaffer%NULL%1,                   Stephanie%Paget%NULL%1,                   Anand%Sivaramakrishnan%NULL%1,                   Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                   Suzy%Gallier%NULL%2,                   Suzy%Gallier%NULL%0,                   Chris%Mainey%NULL%1,                   Peter%Nightingale%NULL%2,                   Peter%Nightingale%NULL%0,                   David%McNulty%NULL%1,                   Hannah%Crothers%NULL%1,                   Felicity%Evison%NULL%1,                   Katharine%Reeves%NULL%1,                   Domenico%Pagano%NULL%1,                   Alastair K%Denniston%NULL%1,                   Krishnarajah%Nirantharakumar%NULL%1,                   Peter%Diggle%NULL%1,                   Simon%Ball%NULL%1,                   Lylah%Irshad%NULL%1,                   Maxim%Harris%NULL%1,                   Theodore%Nabav%NULL%1,                   A%Kolesnyk%NULL%1,                   M%Ahmed%NULL%1,                   A%Liaqat%NULL%1,                   Tanya%Pankhurst%NULL%1,                   Jamie%Coleman%NULL%1,                   Chirag%Dave%NULL%1,                   Khaled%ElFandi%NULL%1,                   Rifat%Rashid%NULL%1,                   Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                   Gregory A%Eschenauer%NULL%2,                   Gregory A%Eschenauer%NULL%0,                   Jonathan P%Troost%NULL%1,                   Jonathan L%Golob%NULL%1,                   Tejal N%Gandhi%NULL%1,                   Lu%Wang%NULL%1,                   Nina%Zhou%NULL%1,                   Lindsay A%Petty%NULL%1,                   Ji Hoon%Baang%NULL%1,                   Nicholas O%Dillman%NULL%1,                   David%Frame%NULL%1,                   Kevin S%Gregg%NULL%1,                   Dan R%Kaul%NULL%1,                   Jerod%Nagel%NULL%1,                   Twisha S%Patel%NULL%1,                   Shiwei%Zhou%NULL%1,                   Adam S%Lauring%NULL%1,                   David A%Hanauer%NULL%1,                   Emily%Martin%NULL%1,                   Pratima%Sharma%NULL%1,                   Christopher M%Fung%NULL%1,                   Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                   Lei%Qian%NULL%2,                   Lei%Qian%NULL%0,                   Vennis%Hong%NULL%1,                   Rong%Wei%NULL%2,                   Rong%Wei%NULL%0,                   Ron F.%Nadjafi%NULL%2,                   Ron F.%Nadjafi%NULL%0,                   Heidi%Fischer%NULL%1,                   Zhuoxin%Li%NULL%1,                   Sally F.%Shaw%NULL%1,                   Susan L.%Caparosa%NULL%2,                   Susan L.%Caparosa%NULL%0,                   Claudia L.%Nau%NULL%1,                   Tanmai%Saxena%NULL%1,                   Gunter K.%Rieg%NULL%1,                   Bradley K.%Ackerson%NULL%1,                   Adam L.%Sharp%NULL%2,                   Adam L.%Sharp%NULL%0,                   Jacek%Skarbinski%NULL%2,                   Jacek%Skarbinski%NULL%0,                   Tej K.%Naik%NULL%1,                   Sameer B.%Murali%NULL%2,                   Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                   Juan Carlos%Nicolas%NULL%2,                   Juan Carlos%Nicolas%NULL%0,                   Jennifer R%Meeks%NULL%1,                   Osman%Khan%NULL%1,                   Alan%Pan%NULL%1,                   Stephen L%Jones%NULL%1,                   Faisal%Masud%NULL%1,                   H Dirk%Sostman%NULL%1,                   Robert%Phillips%NULL%1,                   Julia D%Andrieni%NULL%1,                   Bita A%Kash%NULL%1,                   Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                   Arryn%Craney%NULL%1,                   Phyllis%Ruggiero%NULL%1,                   John%Sipley%NULL%1,                   Lin%Cong%NULL%1,                   Erika M.%Hissong%NULL%1,                   Massimo%Loda%NULL%1,                   Lars F.%Westblade%NULL%1,                   Melissa%Cushing%NULL%2,                   Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%2,                    X.% Zhong%null%1,                    Y. % Hurd%null%1,  A.-L.%WANG%null%0,  X.% Zhong%null%1,  Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                   Amanda%Zheutlin%NULL%2,                   Amanda%Zheutlin%NULL%0,                   Yu-Han%Kao%NULL%1,                   Kristin%Ayers%NULL%1,                   Susan%Gross%NULL%1,                   Patricia%Kovatch%NULL%1,                   Sharon%Nirenberg%NULL%1,                   Alexander%Charney%NULL%1,                   Girish%Nadkarni%NULL%1,                   Jessica K%De Freitas%NULL%1,                   Paul%O’Reilly%NULL%1,                   Allan%Just%NULL%1,                   Carol%Horowitz%NULL%1,                   Glenn%Martin%NULL%1,                   Andrea%Branch%NULL%1,                   Benjamin S%Glicksberg%NULL%1,                   Dennis%Charney%NULL%1,                   David%Reich%NULL%1,                   William K%Oh%NULL%1,                   Eric%Schadt%NULL%1,                   Rong%Chen%NULL%0,                   Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                   Angela%Winegar%NULL%1,                   Richard%Fogel%NULL%1,                   Mohamad%Fakih%NULL%1,                   Allison%Ottenbacher%NULL%1,                   Christine%Jesser%NULL%1,                   Angelo%Bufalino%NULL%1,                   Ren-Huai%Huang%NULL%1,                   Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                   Rebecca%Bendayan%NULL%0,                   Mark%Ashworth%NULL%1,                   Daniel M.%Bean%NULL%1,                   Hiten%Dodhia%NULL%1,                   Stevo%Durbaba%NULL%1,                   Kevin%O'Gallagher%NULL%1,                   Claire%Palmer%NULL%1,                   Vasa%Curcin%NULL%1,                   Elizabeth%Aitken%NULL%1,                   William%Bernal%NULL%1,                   Richard D.%Barker%NULL%1,                   Sam%Norton%NULL%1,                   Martin%Gulliford%NULL%1,                   James T.H.%Teo%NULL%0,                   James%Galloway%NULL%1,                   Richard J.B.%Dobson%NULL%0,                   Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                   Carina%Marquez%NULL%1,                   Emily%Crawford%NULL%1,                   James%Peng%NULL%1,                   Maya%Petersen%NULL%1,                   Daniel%Schwab%NULL%1,                   Joshua%Schwab%NULL%1,                   Jackie%Martinez%NULL%1,                   Diane%Jones%NULL%1,                   Douglas%Black%NULL%1,                   Monica%Gandhi%NULL%1,                   Andrew D%Kerkhoff%NULL%1,                   Vivek%Jain%NULL%1,                   Francesco%Sergi%NULL%1,                   Jon%Jacobo%NULL%1,                   Susana%Rojas%NULL%1,                   Valerie%Tulier-Laiwa%NULL%1,                   Tracy%Gallardo-Brown%NULL%1,                   Ayesha%Appa%NULL%1,                   Charles%Chiu%NULL%1,                   Mary%Rodgers%NULL%1,                   John%Hackett%NULL%1,                   NULL%NULL%NULL%0,                   Amy%Kistler%NULL%1,                   Samantha%Hao%NULL%1,                   Jack%Kamm%NULL%1,                   David%Dynerman%NULL%1,                   Joshua%Batson%NULL%1,                   Bryan%Greenhouse%NULL%1,                   Joe%DeRisi%NULL%1,                   Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                   Tiffany%Grimes%NULL%1,                   Peng%Li%NULL%1,                   Matthew%Might%NULL%1,                   Fernando%Ovalle%NULL%1,                   Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                   Natalie%Achamallah%NULL%1,                   Hongwei%Ji%NULL%1,                   Brian L.%Claggett%NULL%1,                   Nancy%Sun%NULL%1,                   Patrick%Botting%NULL%1,                   Trevor-Trung%Nguyen%NULL%1,                   Eric%Luong%NULL%1,                   Elizabeth H.%Kim%NULL%1,                   Eunice%Park%NULL%1,                   Yunxian%Liu%NULL%1,                   Ryan%Rosenberry%NULL%1,                   Yuri%Matusov%NULL%1,                   Steven%Zhao%NULL%1,                   Isabel%Pedraza%NULL%1,                   Tanzira%Zaman%NULL%1,                   Michael%Thompson%NULL%1,                   Koen%Raedschelders%NULL%1,                   Anders H.%Berg%NULL%2,                   Anders H.%Berg%NULL%0,                   Jonathan D.%Grein%NULL%1,                   Paul W.%Noble%NULL%1,                   Sumeet S.%Chugh%NULL%1,                   C. Noel%Bairey Merz%NULL%1,                   Eduardo%Marbán%NULL%1,                   Jennifer E.%Van Eyk%NULL%1,                   Scott D.%Solomon%NULL%1,                   Christine M.%Albert%NULL%1,                   Peter%Chen%NULL%1,                   Susan%Cheng%NULL%3,                   Yu Ru%Kou%NULL%8,                   Yu Ru%Kou%NULL%0,                   Yu Ru%Kou%NULL%0,                   Susan%Cheng%biodatacore@cshs.org%0,                   Susan%Cheng%biodatacore@cshs.org%0,                   Yu Ru%Kou%NULL%0,                   Yu Ru%Kou%NULL%0,                   Yu Ru%Kou%NULL%0,                   Yu Ru%Kou%NULL%0,                   Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                   Penelope%Strid%NULL%1,                   Van T.%Tong%NULL%1,                   Kate%Woodworth%NULL%1,                   Romeo R.%Galang%NULL%1,                   Laura D.%Zambrano%NULL%1,                   John%Nahabedian%NULL%1,                   Kayla%Anderson%NULL%1,                   Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                   Jacob%Fiksel%NULL%2,                   Jacob%Fiksel%NULL%0,                   John%Muschelli%NULL%2,                   John%Muschelli%NULL%0,                   Matthew L.%Robinson%NULL%2,                   Matthew L.%Robinson%NULL%0,                   Masoud%Rouhizadeh%NULL%2,                   Masoud%Rouhizadeh%NULL%0,                   Jamie%Perin%NULL%2,                   Jamie%Perin%NULL%0,                   Grant%Schumock%NULL%2,                   Grant%Schumock%NULL%0,                   Paul%Nagy%NULL%2,                   Paul%Nagy%NULL%0,                   Josh H.%Gray%NULL%2,                   Josh H.%Gray%NULL%0,                   Harsha%Malapati%NULL%2,                   Harsha%Malapati%NULL%0,                   Mariam%Ghobadi-Krueger%NULL%2,                   Mariam%Ghobadi-Krueger%NULL%0,                   Timothy M.%Niessen%NULL%1,                   Bo Soo%Kim%NULL%1,                   Peter M.%Hill%NULL%1,                   M. Shafeeq%Ahmed%NULL%1,                   Eric D.%Dobkin%NULL%1,                   Renee%Blanding%NULL%1,                   Jennifer%Abele%NULL%1,                   Bonnie%Woods%NULL%1,                   Kenneth%Harkness%NULL%1,                   David R.%Thiemann%NULL%1,                   Mary G.%Bowring%NULL%1,                   Aalok B.%Shah%NULL%2,                   Aalok B.%Shah%NULL%0,                   Mei-Cheng%Wang%NULL%1,                   Karen%Bandeen-Roche%NULL%1,                   Antony%Rosen%NULL%1,                   Scott L.%Zeger%NULL%2,                   Scott L.%Zeger%NULL%0,                   Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                   Megan%McCullough%NULL%0,                   Megan%McCullough%NULL%0,                   Michael A.%Fuery%NULL%0,                   Fouad%Chouairi%NULL%0,                   Fouad%Chouairi%NULL%0,                   Craig%Keating%NULL%0,                   Neal G.%Ravindra%NULL%0,                   P. Elliott%Miller%NULL%0,                   Maricar%Malinis%NULL%0,                   Nitu%Kashyap%NULL%0,                   Allen%Hsiao%NULL%0,                   F. Perry%Wilson%NULL%0,                   Jeptha P.%Curtis%NULL%0,                   Matthew%Grant%NULL%0,                   Eric J.%Velazquez%NULL%0,                   Nihar R.%Desai%NULL%0,                   Tariq%Ahmad%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4388,7 +4535,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1070</v>
+        <v>1124</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4417,7 +4564,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>1072</v>
+        <v>1125</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -4446,7 +4593,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>1074</v>
+        <v>1126</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -4475,7 +4622,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>1075</v>
+        <v>1127</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -4504,7 +4651,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>1076</v>
+        <v>1128</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -4533,7 +4680,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>1077</v>
+        <v>1129</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -4562,7 +4709,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>1078</v>
+        <v>1130</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -4591,7 +4738,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>1079</v>
+        <v>1131</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -4620,7 +4767,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>1080</v>
+        <v>1132</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -4649,7 +4796,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>1081</v>
+        <v>1133</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -4678,7 +4825,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>1083</v>
+        <v>1134</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -4707,7 +4854,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>1084</v>
+        <v>1135</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -4736,7 +4883,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>1085</v>
+        <v>1136</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -4765,7 +4912,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>1087</v>
+        <v>1137</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -4794,7 +4941,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>1088</v>
+        <v>1138</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -4823,7 +4970,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>1089</v>
+        <v>1139</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -4852,7 +4999,7 @@
         <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>1090</v>
+        <v>1140</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -4881,7 +5028,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>1092</v>
+        <v>1141</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -4910,7 +5057,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>1093</v>
+        <v>1142</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -4939,7 +5086,7 @@
         <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>1094</v>
+        <v>1143</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -4968,7 +5115,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>1095</v>
+        <v>1144</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -4997,7 +5144,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>1096</v>
+        <v>1145</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -5026,7 +5173,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>1097</v>
+        <v>1146</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -5055,7 +5202,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>1098</v>
+        <v>1147</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -5084,7 +5231,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>1099</v>
+        <v>1148</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -5113,7 +5260,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>1100</v>
+        <v>1149</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -5142,7 +5289,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>1101</v>
+        <v>1150</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -5171,7 +5318,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1102</v>
+        <v>1151</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -5200,7 +5347,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>1103</v>
+        <v>1152</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -5229,7 +5376,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>1104</v>
+        <v>1153</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -5258,7 +5405,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>1105</v>
+        <v>1154</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -5287,7 +5434,7 @@
         <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>1106</v>
+        <v>1155</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -5316,7 +5463,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>1107</v>
+        <v>1156</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -5345,7 +5492,7 @@
         <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>1108</v>
+        <v>1157</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -5374,7 +5521,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>1109</v>
+        <v>1158</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -5403,7 +5550,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>1110</v>
+        <v>1159</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -5432,7 +5579,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>1111</v>
+        <v>1160</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -5461,7 +5608,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>1112</v>
+        <v>1161</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -5490,7 +5637,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>1113</v>
+        <v>1162</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -5519,7 +5666,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>1114</v>
+        <v>1163</v>
       </c>
       <c r="F41" t="s">
         <v>52</v>
@@ -5548,7 +5695,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>1115</v>
+        <v>1164</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -5577,7 +5724,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>1116</v>
+        <v>1165</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -5606,7 +5753,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>1117</v>
+        <v>1166</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -5635,7 +5782,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>1118</v>
+        <v>1167</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -5664,7 +5811,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>1119</v>
+        <v>1168</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -5693,7 +5840,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>1120</v>
+        <v>1169</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -5722,7 +5869,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>1121</v>
+        <v>1170</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -5751,7 +5898,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>1122</v>
+        <v>1171</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -5780,7 +5927,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>1123</v>
+        <v>1172</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7065" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9065" uniqueCount="1414">
   <si>
     <t>Doi</t>
   </si>
@@ -4128,6 +4128,729 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,                   Megan%McCullough%NULL%0,                   Megan%McCullough%NULL%0,                   Michael A.%Fuery%NULL%0,                   Fouad%Chouairi%NULL%0,                   Fouad%Chouairi%NULL%0,                   Craig%Keating%NULL%0,                   Neal G.%Ravindra%NULL%0,                   P. Elliott%Miller%NULL%0,                   Maricar%Malinis%NULL%0,                   Nitu%Kashyap%NULL%0,                   Allen%Hsiao%NULL%0,                   F. Perry%Wilson%NULL%0,                   Jeptha P.%Curtis%NULL%0,                   Matthew%Grant%NULL%0,                   Eric J.%Velazquez%NULL%0,                   Nihar R.%Desai%NULL%0,                   Tariq%Ahmad%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0,                   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                     R. U.% Shah%null%1,                     M.% Bale%null%1,                     J. B.% Peacock%null%1,                     B.% Berger%null%1,                     A.% Brown%null%1,                     S.% Mann%null%1,                     W.% West%null%1,                     V.% Martin%null%1,                     V.% Fernandez%null%1,                     S.% Grineski%null%1,                     B. J.% Brintz%null%1,                     M. H.% Samore%null%1,                     M. J.% Ferrari%null%1,                     D. T.% Leung%null%1,                     L. T. % Keegan%null%1,   S. M.%Ahmed%null%1,   R. U.% Shah%null%1,   M.% Bale%null%1,   J. B.% Peacock%null%1,   B.% Berger%null%1,   A.% Brown%null%1,   S.% Mann%null%1,   W.% West%null%1,   V.% Martin%null%1,   V.% Fernandez%null%1,   S.% Grineski%null%1,   B. J.% Brintz%null%1,   M. H.% Samore%null%1,   M. J.% Ferrari%null%1,   D. T.% Leung%null%1,   L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                    Samuel L%Bruce%NULL%1,                    Cody L%Slater%NULL%1,                    Jonathan R%Tiao%NULL%1,                    Matthew R%Baldwin%NULL%1,                    R Graham%Barr%NULL%1,                    Bernard P%Chang%NULL%1,                    Katherine H%Chau%NULL%1,                    Justin J%Choi%NULL%1,                    Nicholas%Gavin%NULL%1,                    Parag%Goyal%NULL%1,                    Angela M%Mills%NULL%1,                    Ashmi A%Patel%NULL%1,                    Marie-Laure S%Romney%NULL%1,                    Monika M%Safford%NULL%1,                    Neil W%Schluger%NULL%1,                    Soumitra%Sengupta%NULL%1,                    Magdalena E%Sobieszczyk%NULL%1,                    Jason E%Zucker%NULL%1,                    Paul A%Asadourian%NULL%1,                    Fletcher M%Bell%NULL%1,                    Rebekah%Boyd%NULL%1,                    Matthew F%Cohen%NULL%1,                    MacAlistair I%Colquhoun%NULL%1,                    Lucy A%Colville%NULL%1,                    Joseph H%de Jonge%NULL%1,                    Lyle B%Dershowitz%NULL%1,                    Shirin A%Dey%NULL%1,                    Katherine A%Eiseman%NULL%1,                    Zachary P%Girvin%NULL%1,                    Daniella T%Goni%NULL%1,                    Amro A%Harb%NULL%1,                    Nicholas%Herzik%NULL%1,                    Sarah%Householder%NULL%1,                    Lara E%Karaaslan%NULL%1,                    Heather%Lee%NULL%1,                    Evan%Lieberman%NULL%1,                    Andrew%Ling%NULL%1,                    Ree%Lu%NULL%1,                    Arthur Y%Shou%NULL%1,                    Alexander C%Sisti%NULL%1,                    Zachary E%Snow%NULL%1,                    Colin P%Sperring%NULL%1,                    Yuqing%Xiong%NULL%1,                    Henry W%Zhou%NULL%1,                    Karthik%Natarajan%NULL%1,                    George%Hripcsak%NULL%1,                    Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                    Megan%McCullough%NULL%4,                    Megan%McCullough%NULL%0,                    Michael A.%Fuery%NULL%2,                    Fouad%Chouairi%NULL%4,                    Fouad%Chouairi%NULL%0,                    Craig%Keating%NULL%2,                    Neal G.%Ravindra%NULL%2,                    P. Elliott%Miller%NULL%2,                    Maricar%Malinis%NULL%2,                    Nitu%Kashyap%NULL%2,                    Allen%Hsiao%NULL%2,                    F. Perry%Wilson%NULL%2,                    Jeptha P.%Curtis%NULL%2,                    Matthew%Grant%NULL%2,                    Eric J.%Velazquez%NULL%2,                    Nihar R.%Desai%NULL%2,                    Tariq%Ahmad%NULL%2,                    Chiara%Lazzeri%NULL%18,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%3,                    Karen K.%Wong%NULL%1,                    Christine M.%Szablewski%NULL%1,                    Priti R.%Patel%NULL%1,                    John%Rossow%NULL%1,                    Juliana%da Silva%NULL%1,                    Pavithra%Natarajan%NULL%1,                    Sapna Bamrah%Morris%NULL%1,                    Robyn Neblett%Fanfair%NULL%1,                    Jessica%Rogers-Brown%NULL%1,                    Beau B.%Bruce%NULL%1,                    Sean D.%Browning%NULL%1,                    Alfonso C.%Hernandez-Romieu%NULL%2,                    Nathan W.%Furukawa%NULL%1,                    Mohleen%Kang%NULL%1,                    Mary E.%Evans%NULL%1,                    Nadine%Oosmanally%NULL%1,                    Melissa%Tobin-D’Angelo%NULL%1,                    Cherie%Drenzek%NULL%1,                    David J.%Murphy%NULL%0,                    Julie%Hollberg%NULL%1,                    James M.%Blum%NULL%0,                    Robert%Jansen%NULL%1,                    David W.%Wright%NULL%1,                    William M.%Sewell%NULL%1,                    Jack D.%Owens%NULL%1,                    Benjamin%Lefkove%NULL%1,                    Frank W.%Brown%NULL%1,                    Deron C.%Burton%NULL%1,                    Timothy M.%Uyeki%NULL%3,                    Stephanie R.%Bialek%NULL%1,                    Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                    Jasmine A.%Mack%NULL%1,                    Maxwell%Salvatore%NULL%1,                    Swaraaj Prabhu%Sankar%NULL%1,                    Thomas S.%Valley%NULL%1,                    Karandeep%Singh%NULL%1,                    Brahmajee K.%Nallamothu%NULL%1,                    Sachin%Kheterpal%NULL%1,                    Lynda%Lisabeth%NULL%1,                    Lars G.%Fritsche%NULL%1,                    Bhramar%Mukherjee%NULL%1,                     T.%Gu%null%1,                     J. A.% Mack%null%1,                     M.% Salvatore%null%1,                     S. P.% Sankar%null%1,                     T. S.% Valley%null%1,                     K.% Singh%null%1,                     B. K.% Nallamothu%null%1,                     S.% Kheterpal%null%1,                     L.% Lisabeth%null%1,                     L. G.% Fritsche%null%1,                     B. G. % Mukherjee%null%1,                    T.%Gu%null%1,                    J. A.% Mack%null%1,                    M.% Salvatore%null%1,                    S. P.% Sankar%null%1,                    T. S.% Valley%null%1,                    K.% Singh%null%1,                    B. K.% Nallamothu%null%1,                    S.% Kheterpal%null%1,                    L.% Lisabeth%null%1,                    L. G.% Fritsche%null%1,                    B. G. % Mukherjee%null%1,   T.%Gu%null%1,   J. A.% Mack%null%1,   M.% Salvatore%null%1,   S. P.% Sankar%null%1,   T. S.% Valley%null%1,   K.% Singh%null%1,   B. K.% Nallamothu%null%1,   S.% Kheterpal%null%1,   L.% Lisabeth%null%1,   L. G.% Fritsche%null%1,   B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                     S.% Nirenberg%null%1,                     P.% Kovatch%null%1,                     K.-l. % Huang%null%1,   T.%Jun%null%1,   S.% Nirenberg%null%1,   P.% Kovatch%null%2,   K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                    Shikha%Garg%NULL%1,                    Alissa%O’Halloran%NULL%1,                    Michael%Whitaker%NULL%1,                    Huong%Pham%NULL%1,                    Evan J%Anderson%NULL%1,                    Isaac%Armistead%NULL%1,                    Nancy M%Bennett%NULL%1,                    Laurie%Billing%NULL%1,                    Kathryn%Como-Sabetti%NULL%1,                    Mary%Hill%NULL%1,                    Sue%Kim%NULL%1,                    Maya L%Monroe%NULL%1,                    Alison%Muse%NULL%1,                    Arthur L%Reingold%NULL%1,                    William%Schaffner%NULL%1,                    Melissa%Sutton%NULL%1,                    H Keipp%Talbot%NULL%1,                    Salina M%Torres%NULL%1,                    Kimberly%Yousey-Hindes%NULL%1,                    Rachel%Holstein%NULL%1,                    Charisse%Cummings%NULL%1,                    Lynette%Brammer%NULL%1,                    Aron J%Hall%NULL%1,                    Alicia M%Fry%NULL%1,                    Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                     S.% Richardson%null%1,                     K.% Coppa%null%1,                     D. P.% Barnaby%null%1,                     T.% McGinn%null%1,                     L. B.% Becker%null%1,                     K. W.% Davidson%null%1,                     S. L.% Cohen%null%1,                     J. S.% Hirsch%null%1,                     T.% Zanos%null%1,                       % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1,   T. J.%Levy%null%1,   S.% Richardson%null%1,   K.% Coppa%null%1,   D. P.% Barnaby%null%1,   T.% McGinn%null%1,   L. B.% Becker%null%1,   K. W.% Davidson%null%1,   S. L.% Cohen%null%1,   J. S.% Hirsch%null%1,   T.% Zanos%null%1,     % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                     L. H.% Nguyen%null%1,                     D. A.% Drew%null%1,                     M. S.% Graham%null%1,                     E. T.% Warner%null%1,                     A. D.% Joshi%null%1,                     C. M.% Astley%null%1,                     C.-G.% Guo%null%1,                     W.% Ma%null%1,                     R. S.% Mehta%null%1,                     S.% Kwon%null%1,                     M.% Song%null%1,                     R.% Davies%null%1,                     J.% Capdevila%null%1,                     K. A.% Lee%null%1,                     M. N.% Lochlainn%null%1,                     T.% Varsavsky%null%1,                     C. H.% Sudre%null%1,                     J.% Wolf%null%1,                     Y. C.% Cozier%null%1,                     L.% Rosenberg%null%1,                     L. R.% Wilkens%null%1,                     C. A.% Haiman%null%1,                     L. L.% Marchand%null%1,                     J. R.% Palmer%null%1,                     T. D.% Spector%null%1,                     S.% Ourselin%null%1,                     C. J.% Steves%null%1,                     A. T.% Chan%null%1,                       % COPE Consortium%null%1,   C.-H.%Lo%null%1,   L. H.% Nguyen%null%1,   D. A.% Drew%null%1,   M. S.% Graham%null%1,   E. T.% Warner%null%1,   A. D.% Joshi%null%1,   C. M.% Astley%null%1,   C.-G.% Guo%null%1,   W.% Ma%null%1,   R. S.% Mehta%null%1,   S.% Kwon%null%1,   M.% Song%null%1,   R.% Davies%null%1,   J.% Capdevila%null%1,   K. A.% Lee%null%1,   M. N.% Lochlainn%null%1,   T.% Varsavsky%null%1,   C. H.% Sudre%null%1,   J.% Wolf%null%1,   Y. C.% Cozier%null%1,   L.% Rosenberg%null%1,   L. R.% Wilkens%null%1,   C. A.% Haiman%null%1,   L. L.% Marchand%null%1,   J. R.% Palmer%null%1,   T. D.% Spector%null%1,   S.% Ourselin%null%1,   C. J.% Steves%null%1,   A. T.% Chan%null%1,     % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                    Jienchi%Dorward%NULL%1,                    Ana%Correa%NULL%1,                    Nicholas%Jones%NULL%1,                    Oluwafunmi%Akinyemi%NULL%1,                    Gayatri%Amirthalingam%NULL%1,                    Nick%Andrews%NULL%1,                    Rachel%Byford%NULL%1,                    Gavin%Dabrera%NULL%1,                    Alex%Elliot%NULL%1,                    Joanna%Ellis%NULL%0,                    Filipa%Ferreira%NULL%1,                    Jamie%Lopez Bernal%NULL%1,                    Cecilia%Okusi%NULL%1,                    Mary%Ramsay%NULL%1,                    Julian%Sherlock%NULL%1,                    Gillian%Smith%NULL%1,                    John%Williams%NULL%1,                    Gary%Howsam%NULL%1,                    Maria%Zambon%NULL%0,                    Mark%Joy%NULL%1,                    F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                    Johanna%Dolle%NULL%2,                    Johanna%Dolle%NULL%0,                    Sheila%Grami%NULL%1,                    Richard%Adule%NULL%1,                    Zeyu%Li%NULL%1,                    Kathleen%Tatem%NULL%1,                    Chinyere%Anyaogu%NULL%1,                    Stephen%Apfelroth%NULL%1,                    Raji%Ayinla%NULL%2,                    Raji%Ayinla%NULL%0,                    Noella%Boma%NULL%1,                    Terence%Brady%NULL%1,                    Braulio F.%Cosme-Thormann%NULL%1,                    Roseann%Costarella%NULL%1,                    Kenra%Ford%NULL%1,                    Kecia%Gaither%NULL%1,                    Jessica%Jacobson%NULL%1,                    Marc%Kanter%NULL%1,                    Stuart%Kessler%NULL%1,                    Ross B.%Kristal%NULL%1,                    Joseph J.%Lieber%NULL%1,                    Vikramjit%Mukherjee%NULL%1,                    Vincent%Rizzo%NULL%1,                    Madden%Rowell%NULL%1,                    David%Stevens%NULL%1,                    Elana%Sydney%NULL%1,                    Andrew%Wallach%NULL%2,                    Andrew%Wallach%NULL%0,                    Dave A.%Chokshi%NULL%1,                    Nichola%Davis%NULL%1,                    NULL%NULL%NULL%0,                    Sze Yan%Liu%NULL%2,                    Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                    Mark%Caridi-Scheible%NULL%0,                    James M.%Blum%NULL%0,                    Chad%Robichaux%NULL%1,                    Colleen%Kraft%NULL%1,                    Jesse T.%Jacob%NULL%1,                    Craig S.%Jabaley%NULL%0,                    David%Carpenter%NULL%1,                    Roberta%Kaplow%NULL%1,                    Alfonso C.%Hernandez-Romieu%NULL%0,                    Max W.%Adelman%NULL%0,                    Greg S.%Martin%NULL%0,                    Craig M.%Coopersmith%NULL%1,                    David J.%Murphy%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,            Seunghee%Kim-Schulze%null%1,            Hsin-Hui%Huang%null%1,            Noam D.%Beckmann%null%1,            Sharon%Nirenberg%null%1,            Bo%Wang%null%1,            Yonit%Lavin%null%1,            Talia H.%Swartz%null%1,            Deepu%Madduri%null%1,            Aryeh%Stock%null%1,            Thomas U.%Marron%null%1,            Hui%Xie%null%1,            Manishkumar%Patel%null%1,            Kevin%Tuballes%null%1,            Oliver%Oekelen%null%1,            Adeeb%Rahman%null%1,            Patricia%Kovatch%null%1,            Judith A.%Aberg%null%1,            Eric%Schadt%null%1,            Sundar%Jagannath%null%1,            Madhu%Mazumdar%null%1,            Alexander W.%Charney%null%1,            Adolfo%Firpo-Betancourt%null%1,            Damodara Rao%Mendu%null%1,            Jeffrey%Jhang%null%1,            David%Reich%null%1,            Keith%Sigel%null%1,            Carlos%Cordon-Cardo%null%1,            Marc%Feldmann%null%1,            Samir%Parekh%null%1,            Miriam%Merad%null%1,            Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                    David R.%Jenkins%NULL%1,                    Jatinder S.%Minhas%NULL%1,                    Laura J.%Gray%NULL%1,                    Julian%Tang%NULL%1,                    Caroline%Williams%NULL%1,                    Shirley%Sze%NULL%1,                    Daniel%Pan%NULL%1,                    William%Jones%NULL%1,                    Raman%Verma%NULL%1,                    Scott%Knapp%NULL%1,                    Rupert%Major%NULL%1,                    Melanie%Davies%NULL%1,                    Nigel%Brunskill%NULL%1,                    Martin%Wiselka%NULL%1,                    Chris%Brightling%NULL%1,                    Kamlesh%Khunti%NULL%1,                    Pranab%Haldar%NULL%1,                    Manish%Pareek%mp426@le.ac.uk%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                    Kelly E%Hathorn%NULL%2,                    Kelly E%Hathorn%NULL%0,                    Walker D%Redd%NULL%1,                    Nicolette J%Rodriguez%NULL%1,                    Joyce C%Zhou%NULL%1,                    Ahmad Najdat%Bazarbashi%NULL%1,                    Cheikh%Njie%NULL%1,                    Danny%Wong%NULL%1,                    Quoc-Dien%Trinh%NULL%1,                    Lin%Shen%NULL%1,                    Valerie E%Stone%NULL%2,                    Valerie E%Stone%NULL%0,                    Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                     S.% Apewokin%null%1,                     A. A.% Wells%null%1,                     A. L. % Morrow%null%1,   A.%Mendy%null%1,   S.% Apewokin%null%1,   A. A.% Wells%null%1,   A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                    Thomas E.%Webb%NULL%2,                    Thomas E.%Webb%NULL%0,                    Benjamin C.%Mcloughlin%NULL%2,                    Benjamin C.%Mcloughlin%NULL%0,                    Imran%Mannan%NULL%2,                    Imran%Mannan%NULL%0,                    Arshad%Rather%NULL%2,                    Arshad%Rather%NULL%0,                    Paul%Knopp%NULL%1,                    Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                    Rajat%Suri%NULL%2,                    Rajat%Suri%NULL%0,                    Iheanacho O.%Emeruwa%NULL%2,                    Iheanacho O.%Emeruwa%NULL%0,                    Robert J.%Stretch%NULL%1,                    Roxana Y.%Cortes-Lopez%NULL%2,                    Roxana Y.%Cortes-Lopez%NULL%0,                    Alexander%Sherman%NULL%1,                    Catherine C.%Lindsay%NULL%1,                    Jennifer A.%Fulcher%NULL%1,                    David%Goodman-Meza%NULL%2,                    David%Goodman-Meza%NULL%0,                    Anil%Sapru%NULL%2,                    Anil%Sapru%NULL%0,                    Russell G.%Buhr%NULL%1,                    Steven Y.%Chang%NULL%2,                    Steven Y.%Chang%NULL%0,                    Tisha%Wang%NULL%1,                    Nida%Qadir%NULL%1,                    Giordano%Madeddu%NULL%8,                    Giordano%Madeddu%NULL%0,                    Giordano%Madeddu%NULL%0,                    Ana C.%Monteiro%NULL%2,                    Ana C.%Monteiro%NULL%0,                    Giordano%Madeddu%NULL%0,                    Giordano%Madeddu%NULL%0,                    Giordano%Madeddu%NULL%0,                    Giordano%Madeddu%NULL%0,                    Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                     D.% Stefanov%null%1,                     A. S.% Chau%null%1,                     A. G.% Weber%null%1,                     G. S.% Marder%null%1,                     B.% Kaplan%null%1,                     P.% Malhotra%null%1,                     O.% Bloom%null%1,                     A.% Liu%null%1,                     M.% Lesser%null%1,                     N. % Hajizadeh%null%1,   S.%Narain%null%1,   D.% Stefanov%null%1,   A. S.% Chau%null%1,   A. G.% Weber%null%1,   G. S.% Marder%null%1,   B.% Kaplan%null%1,   P.% Malhotra%null%1,   O.% Bloom%null%1,   A.% Liu%null%1,   M.% Lesser%null%1,   N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                    Catherine A.%O’Donnell%NULL%2,                    Bhautesh Dinesh%Jani%NULL%1,                    Evangelia%Demou%NULL%1,                    Frederick K.%Ho%NULL%1,                    Carlos%Celis-Morales%NULL%1,                    Barbara I.%Nicholl%NULL%1,                    Frances S.%Mair%NULL%2,                    Paul%Welsh%NULL%2,                    Naveed%Sattar%NULL%2,                    Jill P.%Pell%NULL%2,                    S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                    Alex J%Walker%NULL%1,                    Krishnan%Bhaskaran%NULL%1,                    Seb%Bacon%NULL%1,                    Chris%Bates%NULL%1,                    Caroline E%Morton%NULL%1,                    Helen J%Curtis%NULL%1,                    Amir%Mehrkar%NULL%1,                    David%Evans%NULL%1,                    Peter%Inglesby%NULL%1,                    Jonathan%Cockburn%NULL%1,                    Helen I%McDonald%NULL%1,                    Brian%MacKenna%NULL%1,                    Laurie%Tomlinson%NULL%1,                    Ian J%Douglas%NULL%1,                    Christopher T%Rentsch%NULL%1,                    Rohini%Mathur%NULL%1,                    Angel YS%Wong%NULL%1,                    Richard%Grieve%NULL%1,                    David%Harrison%NULL%1,                    Harriet%Forbes%NULL%1,                    Anna%Schultze%NULL%2,                    Richard%Croker%NULL%1,                    John%Parry%NULL%1,                    Frank%Hester%NULL%1,                    Sam%Harper%NULL%1,                    Rafael%Perera%NULL%1,                    Stephen JW%Evans%NULL%1,                    Liam%Smeeth%NULL%1,                    Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                    Ajay%Bhasin%NULL%1,                    Joseph M.%Feinglass%NULL%1,                    Michael P.%Angarone%NULL%1,                    Elaine R.%Cohen%NULL%1,                    Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kristen M. J.%Azar%xref no email%0, Zijun%Shen%xref no email%1, Robert J.%Romanelli%xref no email%1, Stephen H.%Lockhart%xref no email%1, Kelly%Smits%xref no email%1, Sarah%Robinson%xref no email%1, Stephanie%Brown%xref no email%1, Alice R.%Pressman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Health Affairs (Project Hope)</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                    Andrew%Gangemi%NULL%1,                    Robert%Marron%NULL%1,                    Junad%Chowdhury%NULL%1,                    Ibraheem%Yousef%NULL%1,                    Matthew%Zheng%NULL%1,                    Nicole%Mills%NULL%1,                    Lauren%Tragesser%NULL%1,                    Julie%Giurintano%NULL%1,                    Rohit%Gupta%NULL%0,                    Matthew%Gordon%NULL%0,                    Parth%Rali%NULL%2,                    Parth%Rali%NULL%0,                    Gilbert%D'Alonso%NULL%1,                    David%Fleece%NULL%1,                    Huaqing%Zhao%NULL%0,                    Nicole%Patlakh%NULL%0,                    Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                    Nathan C.%Skorodin%nskorodin@midcusa.com%1,                    Nicholas W.%Van Hise%NULL%1,                    Robert M.%Fliegelman%NULL%1,                    Jonathan%Pinsky%NULL%1,                    Vishal%Didwania%NULL%1,                    Michael%Anderson%NULL%1,                    Melina%Diaz%NULL%1,                    Kairav%Shah%NULL%1,                    Vishnu V.%Chundi%NULL%1,                    David W.%Hines%NULL%1,                    Brian P.%Harting%NULL%1,                    Kamo%Sidwha%NULL%1,                    Brian%Yu%NULL%1,                    Paul%Brune%NULL%1,                    Anjum%Owaisi%NULL%1,                    David%Beezhold%NULL%1,                    Joseph%Kent%NULL%1,                    Dana%Vais%NULL%1,                    Alice%Han%NULL%1,                    Neethi%Gowda%NULL%1,                    Nishi%Sahgal%NULL%1,                    Jan%Silverman%NULL%1,                    Jonathan%Stake%NULL%1,                    Jenie%Nepomuceno%NULL%1,                    Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                    Anna%Daunt%NULL%2,                    Anna%Daunt%NULL%0,                    Sujit%Mukherjee%NULL%1,                    Peter%Crook%NULL%1,                    Roberta%Forlano%NULL%1,                    Mara D%Kont%NULL%1,                    Alessandra%Løchen%NULL%1,                    Michaela%Vollmer%NULL%1,                    Paul%Middleton%NULL%1,                    Rebekah%Judge%NULL%1,                    Christopher%Harlow%NULL%1,                    Anet%Soubieres%NULL%1,                    Graham%Cooke%NULL%1,                    Peter J%White%NULL%1,                    Timothy B%Hallett%NULL%1,                    Paul%Aylin%NULL%1,                    Neil%Ferguson%NULL%1,                    Katharina%Hauck%NULL%1,                    Mark R%Thursz%NULL%1,                    Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                    Jeffrey%Burton%NULL%2,                    Jeffrey%Burton%NULL%0,                    Daniel%Fort%NULL%1,                    Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                    Michael S.%Sherman%NULL%1,                    Naaz%Fatteh%NULL%1,                    Fabio%Vogel%NULL%1,                    Jamie%Sacks%NULL%1,                    Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                     P.% Mannam%null%1,                     R.% Comer%null%1,                     E.% Sinclair%null%1,                     D. B.% McQuaid%null%1,                     M. L. % Schmidt%null%1,   M.%Ramaswamy%null%1,   P.% Mannam%null%1,   R.% Comer%null%1,   E.% Sinclair%null%1,   D. B.% McQuaid%null%1,   M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                    Farah%Kidwai-Khan%NULL%1,                    Janet P.%Tate%NULL%1,                    Lesley S.%Park%NULL%1,                    Joseph T.%King%NULL%1,                    Melissa%Skanderson%NULL%1,                    Ronald G.%Hauser%NULL%1,                    Anna%Schultze%NULL%0,                    Christopher I.%Jarvis%NULL%1,                    Mark%Holodniy%NULL%1,                    Vincent Lo%Re%NULL%1,                    Kathleen M.%Akgün%NULL%1,                    Kristina%Crothers%NULL%1,                    Tamar H.%Taddei%NULL%1,                    Matthew S.%Freiberg%NULL%1,                    Amy C.%Justice%NULL%1,                     C. T.%Rentsch%null%1,                     F.% Kidwai-Khan%null%1,                     J. P.% Tate%null%1,                     L. S.% Park%null%1,                     J. T.% King%null%1,                     M.% Skanderson%null%1,                     R. G.% Hauser%null%1,                     A.% Schultze%null%1,                     C. I.% Jarvis%null%1,                     M.% Holodniy%null%1,                     V.% Lo Re%null%1,                     K. M.% Akgun%null%1,                     K.% Crothers%null%1,                     T. H.% Taddei%null%1,                     M. S.% Freiberg%null%1,                     A. C. % Justice%null%1,                    C. T.%Rentsch%null%1,                    F.% Kidwai-Khan%null%1,                    J. P.% Tate%null%1,                    L. S.% Park%null%1,                    J. T.% King%null%1,                    M.% Skanderson%null%1,                    R. G.% Hauser%null%1,                    A.% Schultze%null%1,                    C. I.% Jarvis%null%1,                    M.% Holodniy%null%1,                    V.% Lo Re%null%1,                    K. M.% Akgun%null%1,                    K.% Crothers%null%1,                    T. H.% Taddei%null%1,                    M. S.% Freiberg%null%1,                    A. C. % Justice%null%1,   C. T.%Rentsch%null%1,   F.% Kidwai-Khan%null%1,   J. P.% Tate%null%1,   L. S.% Park%null%1,   J. T.% King%null%1,   M.% Skanderson%null%1,   R. G.% Hauser%null%1,   A.% Schultze%null%1,   C. I.% Jarvis%null%1,   M.% Holodniy%null%1,   V.% Lo Re%null%1,   K. M.% Akgun%null%1,   K.% Crothers%null%1,   T. H.% Taddei%null%1,   M. S.% Freiberg%null%1,   A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Eli S.%Rosenberg%xref no email%0, Elizabeth M.%Dufort%xref no email%0, Tomoko%Udo%xref no email%1, Larissa A.%Wilberschied%xref no email%1, Jessica%Kumar%xref no email%1, James%Tesoriero%xref no email%1, Patti%Weinberg%xref no email%1, James%Kirkwood%xref no email%1, Alison%Muse%xref no email%1, Jack%DeHovitz%xref no email%1, Debra S.%Blog%xref no email%1, Brad%Hutton%xref no email%1, David R.%Holtgrave%xref no email%1, Howard A.%Zucker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                    Jennifer%Beam%NULL%2,                    Jennifer%Beam%NULL%0,                    Haley%Maier%NULL%1,                    Whitney%Haggerson%NULL%1,                    Karen%Boudreau%NULL%1,                    Jamie%Carlson%NULL%1,                    Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                    Alexander E.%Ayala%NULL%1,                    Chideraa C.%Ukeje%NULL%1,                    Celeste S.%Witting%NULL%1,                    William A.%Grobman%NULL%1,                    Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                    Hannah C.%Jarvis%NULL%2,                    Hannah C.%Jarvis%NULL%0,                    Ezgi%Ozcan%NULL%1,                    Thomas L. P.%Burns%NULL%1,                    Rabia A.%Warraich%NULL%1,                    Lisa J.%Amani%NULL%1,                    Amina%Jaffer%NULL%1,                    Stephanie%Paget%NULL%1,                    Anand%Sivaramakrishnan%NULL%1,                    Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                    Suzy%Gallier%NULL%2,                    Suzy%Gallier%NULL%0,                    Chris%Mainey%NULL%1,                    Peter%Nightingale%NULL%2,                    Peter%Nightingale%NULL%0,                    David%McNulty%NULL%1,                    Hannah%Crothers%NULL%1,                    Felicity%Evison%NULL%1,                    Katharine%Reeves%NULL%1,                    Domenico%Pagano%NULL%1,                    Alastair K%Denniston%NULL%1,                    Krishnarajah%Nirantharakumar%NULL%1,                    Peter%Diggle%NULL%1,                    Simon%Ball%NULL%1,                    Lylah%Irshad%NULL%1,                    Maxim%Harris%NULL%1,                    Theodore%Nabav%NULL%1,                    A%Kolesnyk%NULL%1,                    M%Ahmed%NULL%1,                    A%Liaqat%NULL%1,                    Tanya%Pankhurst%NULL%1,                    Jamie%Coleman%NULL%1,                    Chirag%Dave%NULL%1,                    Khaled%ElFandi%NULL%1,                    Rifat%Rashid%NULL%1,                    Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                    Gregory A%Eschenauer%NULL%2,                    Gregory A%Eschenauer%NULL%0,                    Jonathan P%Troost%NULL%1,                    Jonathan L%Golob%NULL%1,                    Tejal N%Gandhi%NULL%1,                    Lu%Wang%NULL%1,                    Nina%Zhou%NULL%1,                    Lindsay A%Petty%NULL%1,                    Ji Hoon%Baang%NULL%1,                    Nicholas O%Dillman%NULL%1,                    David%Frame%NULL%1,                    Kevin S%Gregg%NULL%1,                    Dan R%Kaul%NULL%1,                    Jerod%Nagel%NULL%1,                    Twisha S%Patel%NULL%1,                    Shiwei%Zhou%NULL%1,                    Adam S%Lauring%NULL%1,                    David A%Hanauer%NULL%1,                    Emily%Martin%NULL%1,                    Pratima%Sharma%NULL%1,                    Christopher M%Fung%NULL%1,                    Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                    Lei%Qian%NULL%2,                    Lei%Qian%NULL%0,                    Vennis%Hong%NULL%1,                    Rong%Wei%NULL%2,                    Rong%Wei%NULL%0,                    Ron F.%Nadjafi%NULL%2,                    Ron F.%Nadjafi%NULL%0,                    Heidi%Fischer%NULL%1,                    Zhuoxin%Li%NULL%1,                    Sally F.%Shaw%NULL%1,                    Susan L.%Caparosa%NULL%2,                    Susan L.%Caparosa%NULL%0,                    Claudia L.%Nau%NULL%1,                    Tanmai%Saxena%NULL%1,                    Gunter K.%Rieg%NULL%1,                    Bradley K.%Ackerson%NULL%1,                    Adam L.%Sharp%NULL%2,                    Adam L.%Sharp%NULL%0,                    Jacek%Skarbinski%NULL%2,                    Jacek%Skarbinski%NULL%0,                    Tej K.%Naik%NULL%1,                    Sameer B.%Murali%NULL%2,                    Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                    Juan Carlos%Nicolas%NULL%2,                    Juan Carlos%Nicolas%NULL%0,                    Jennifer R%Meeks%NULL%1,                    Osman%Khan%NULL%1,                    Alan%Pan%NULL%1,                    Stephen L%Jones%NULL%1,                    Faisal%Masud%NULL%1,                    H Dirk%Sostman%NULL%1,                    Robert%Phillips%NULL%1,                    Julia D%Andrieni%NULL%1,                    Bita A%Kash%NULL%1,                    Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                    Arryn%Craney%NULL%1,                    Phyllis%Ruggiero%NULL%1,                    John%Sipley%NULL%1,                    Lin%Cong%NULL%1,                    Erika M.%Hissong%NULL%1,                    Massimo%Loda%NULL%1,                    Lars F.%Westblade%NULL%1,                    Melissa%Cushing%NULL%2,                    Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                     X.% Zhong%null%1,                     Y. % Hurd%null%1,   A.-L.%WANG%null%1,   X.% Zhong%null%1,   Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                    Amanda%Zheutlin%NULL%2,                    Amanda%Zheutlin%NULL%0,                    Yu-Han%Kao%NULL%1,                    Kristin%Ayers%NULL%1,                    Susan%Gross%NULL%1,                    Patricia%Kovatch%NULL%1,                    Sharon%Nirenberg%NULL%1,                    Alexander%Charney%NULL%1,                    Girish%Nadkarni%NULL%1,                    Jessica K%De Freitas%NULL%1,                    Paul%O’Reilly%NULL%1,                    Allan%Just%NULL%1,                    Carol%Horowitz%NULL%1,                    Glenn%Martin%NULL%1,                    Andrea%Branch%NULL%1,                    Benjamin S%Glicksberg%NULL%1,                    Dennis%Charney%NULL%1,                    David%Reich%NULL%1,                    William K%Oh%NULL%1,                    Eric%Schadt%NULL%1,                    Rong%Chen%NULL%0,                    Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                    Angela%Winegar%NULL%1,                    Richard%Fogel%NULL%1,                    Mohamad%Fakih%NULL%1,                    Allison%Ottenbacher%NULL%1,                    Christine%Jesser%NULL%1,                    Angelo%Bufalino%NULL%1,                    Ren-Huai%Huang%NULL%1,                    Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                    Rebecca%Bendayan%NULL%0,                    Mark%Ashworth%NULL%1,                    Daniel M.%Bean%NULL%1,                    Hiten%Dodhia%NULL%1,                    Stevo%Durbaba%NULL%1,                    Kevin%O'Gallagher%NULL%1,                    Claire%Palmer%NULL%1,                    Vasa%Curcin%NULL%1,                    Elizabeth%Aitken%NULL%1,                    William%Bernal%NULL%1,                    Richard D.%Barker%NULL%1,                    Sam%Norton%NULL%1,                    Martin%Gulliford%NULL%1,                    James T.H.%Teo%NULL%0,                    James%Galloway%NULL%1,                    Richard J.B.%Dobson%NULL%0,                    Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                    Carina%Marquez%NULL%1,                    Emily%Crawford%NULL%1,                    James%Peng%NULL%1,                    Maya%Petersen%NULL%1,                    Daniel%Schwab%NULL%1,                    Joshua%Schwab%NULL%1,                    Jackie%Martinez%NULL%1,                    Diane%Jones%NULL%1,                    Douglas%Black%NULL%1,                    Monica%Gandhi%NULL%1,                    Andrew D%Kerkhoff%NULL%1,                    Vivek%Jain%NULL%1,                    Francesco%Sergi%NULL%1,                    Jon%Jacobo%NULL%1,                    Susana%Rojas%NULL%1,                    Valerie%Tulier-Laiwa%NULL%1,                    Tracy%Gallardo-Brown%NULL%1,                    Ayesha%Appa%NULL%1,                    Charles%Chiu%NULL%1,                    Mary%Rodgers%NULL%1,                    John%Hackett%NULL%1,                    NULL%NULL%NULL%0,                    Amy%Kistler%NULL%1,                    Samantha%Hao%NULL%1,                    Jack%Kamm%NULL%1,                    David%Dynerman%NULL%1,                    Joshua%Batson%NULL%1,                    Bryan%Greenhouse%NULL%1,                    Joe%DeRisi%NULL%1,                    Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                    Tiffany%Grimes%NULL%1,                    Peng%Li%NULL%1,                    Matthew%Might%NULL%1,                    Fernando%Ovalle%NULL%1,                    Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                    Natalie%Achamallah%NULL%1,                    Hongwei%Ji%NULL%1,                    Brian L.%Claggett%NULL%1,                    Nancy%Sun%NULL%1,                    Patrick%Botting%NULL%1,                    Trevor-Trung%Nguyen%NULL%1,                    Eric%Luong%NULL%1,                    Elizabeth H.%Kim%NULL%1,                    Eunice%Park%NULL%1,                    Yunxian%Liu%NULL%1,                    Ryan%Rosenberry%NULL%1,                    Yuri%Matusov%NULL%1,                    Steven%Zhao%NULL%1,                    Isabel%Pedraza%NULL%1,                    Tanzira%Zaman%NULL%1,                    Michael%Thompson%NULL%1,                    Koen%Raedschelders%NULL%1,                    Anders H.%Berg%NULL%2,                    Anders H.%Berg%NULL%0,                    Jonathan D.%Grein%NULL%1,                    Paul W.%Noble%NULL%1,                    Sumeet S.%Chugh%NULL%1,                    C. Noel%Bairey Merz%NULL%1,                    Eduardo%Marbán%NULL%1,                    Jennifer E.%Van Eyk%NULL%1,                    Scott D.%Solomon%NULL%1,                    Christine M.%Albert%NULL%1,                    Peter%Chen%NULL%1,                    Susan%Cheng%NULL%3,                    Yu Ru%Kou%NULL%8,                    Yu Ru%Kou%NULL%0,                    Yu Ru%Kou%NULL%0,                    Susan%Cheng%biodatacore@cshs.org%0,                    Susan%Cheng%biodatacore@cshs.org%0,                    Yu Ru%Kou%NULL%0,                    Yu Ru%Kou%NULL%0,                    Yu Ru%Kou%NULL%0,                    Yu Ru%Kou%NULL%0,                    Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                    Penelope%Strid%NULL%1,                    Van T.%Tong%NULL%1,                    Kate%Woodworth%NULL%1,                    Romeo R.%Galang%NULL%1,                    Laura D.%Zambrano%NULL%1,                    John%Nahabedian%NULL%1,                    Kayla%Anderson%NULL%1,                    Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                    Jacob%Fiksel%NULL%2,                    Jacob%Fiksel%NULL%0,                    John%Muschelli%NULL%2,                    John%Muschelli%NULL%0,                    Matthew L.%Robinson%NULL%2,                    Matthew L.%Robinson%NULL%0,                    Masoud%Rouhizadeh%NULL%2,                    Masoud%Rouhizadeh%NULL%0,                    Jamie%Perin%NULL%2,                    Jamie%Perin%NULL%0,                    Grant%Schumock%NULL%2,                    Grant%Schumock%NULL%0,                    Paul%Nagy%NULL%2,                    Paul%Nagy%NULL%0,                    Josh H.%Gray%NULL%2,                    Josh H.%Gray%NULL%0,                    Harsha%Malapati%NULL%2,                    Harsha%Malapati%NULL%0,                    Mariam%Ghobadi-Krueger%NULL%2,                    Mariam%Ghobadi-Krueger%NULL%0,                    Timothy M.%Niessen%NULL%1,                    Bo Soo%Kim%NULL%1,                    Peter M.%Hill%NULL%1,                    M. Shafeeq%Ahmed%NULL%1,                    Eric D.%Dobkin%NULL%1,                    Renee%Blanding%NULL%1,                    Jennifer%Abele%NULL%1,                    Bonnie%Woods%NULL%1,                    Kenneth%Harkness%NULL%1,                    David R.%Thiemann%NULL%1,                    Mary G.%Bowring%NULL%1,                    Aalok B.%Shah%NULL%2,                    Aalok B.%Shah%NULL%0,                    Mei-Cheng%Wang%NULL%1,                    Karen%Bandeen-Roche%NULL%1,                    Antony%Rosen%NULL%1,                    Scott L.%Zeger%NULL%2,                    Scott L.%Zeger%NULL%0,                    Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                    Megan%McCullough%NULL%0,                    Megan%McCullough%NULL%0,                    Michael A.%Fuery%NULL%0,                    Fouad%Chouairi%NULL%0,                    Fouad%Chouairi%NULL%0,                    Craig%Keating%NULL%0,                    Neal G.%Ravindra%NULL%0,                    P. Elliott%Miller%NULL%0,                    Maricar%Malinis%NULL%0,                    Nitu%Kashyap%NULL%0,                    Allen%Hsiao%NULL%0,                    F. Perry%Wilson%NULL%0,                    Jeptha P.%Curtis%NULL%0,                    Matthew%Grant%NULL%0,                    Eric J.%Velazquez%NULL%0,                    Nihar R.%Desai%NULL%0,                    Tariq%Ahmad%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0,                    Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                      R. U.% Shah%null%1,                      M.% Bale%null%1,                      J. B.% Peacock%null%1,                      B.% Berger%null%1,                      A.% Brown%null%1,                      S.% Mann%null%1,                      W.% West%null%1,                      V.% Martin%null%1,                      V.% Fernandez%null%1,                      S.% Grineski%null%1,                      B. J.% Brintz%null%1,                      M. H.% Samore%null%1,                      M. J.% Ferrari%null%1,                      D. T.% Leung%null%1,                      L. T. % Keegan%null%1,    S. M.%Ahmed%null%1,    R. U.% Shah%null%1,    M.% Bale%null%1,    J. B.% Peacock%null%1,    B.% Berger%null%1,    A.% Brown%null%1,    S.% Mann%null%1,    W.% West%null%1,    V.% Martin%null%1,    V.% Fernandez%null%1,    S.% Grineski%null%1,    B. J.% Brintz%null%1,    M. H.% Samore%null%1,    M. J.% Ferrari%null%1,    D. T.% Leung%null%1,    L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                     Samuel L%Bruce%NULL%1,                     Cody L%Slater%NULL%1,                     Jonathan R%Tiao%NULL%1,                     Matthew R%Baldwin%NULL%1,                     R Graham%Barr%NULL%1,                     Bernard P%Chang%NULL%1,                     Katherine H%Chau%NULL%1,                     Justin J%Choi%NULL%1,                     Nicholas%Gavin%NULL%1,                     Parag%Goyal%NULL%1,                     Angela M%Mills%NULL%1,                     Ashmi A%Patel%NULL%1,                     Marie-Laure S%Romney%NULL%1,                     Monika M%Safford%NULL%1,                     Neil W%Schluger%NULL%1,                     Soumitra%Sengupta%NULL%1,                     Magdalena E%Sobieszczyk%NULL%1,                     Jason E%Zucker%NULL%1,                     Paul A%Asadourian%NULL%1,                     Fletcher M%Bell%NULL%1,                     Rebekah%Boyd%NULL%1,                     Matthew F%Cohen%NULL%1,                     MacAlistair I%Colquhoun%NULL%1,                     Lucy A%Colville%NULL%1,                     Joseph H%de Jonge%NULL%1,                     Lyle B%Dershowitz%NULL%1,                     Shirin A%Dey%NULL%1,                     Katherine A%Eiseman%NULL%1,                     Zachary P%Girvin%NULL%1,                     Daniella T%Goni%NULL%1,                     Amro A%Harb%NULL%1,                     Nicholas%Herzik%NULL%1,                     Sarah%Householder%NULL%1,                     Lara E%Karaaslan%NULL%1,                     Heather%Lee%NULL%1,                     Evan%Lieberman%NULL%1,                     Andrew%Ling%NULL%1,                     Ree%Lu%NULL%1,                     Arthur Y%Shou%NULL%1,                     Alexander C%Sisti%NULL%1,                     Zachary E%Snow%NULL%1,                     Colin P%Sperring%NULL%1,                     Yuqing%Xiong%NULL%1,                     Henry W%Zhou%NULL%1,                     Karthik%Natarajan%NULL%1,                     George%Hripcsak%NULL%1,                     Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                     Megan%McCullough%NULL%4,                     Megan%McCullough%NULL%0,                     Michael A.%Fuery%NULL%2,                     Fouad%Chouairi%NULL%4,                     Fouad%Chouairi%NULL%0,                     Craig%Keating%NULL%2,                     Neal G.%Ravindra%NULL%2,                     P. Elliott%Miller%NULL%2,                     Maricar%Malinis%NULL%2,                     Nitu%Kashyap%NULL%2,                     Allen%Hsiao%NULL%2,                     F. Perry%Wilson%NULL%2,                     Jeptha P.%Curtis%NULL%2,                     Matthew%Grant%NULL%2,                     Eric J.%Velazquez%NULL%2,                     Nihar R.%Desai%NULL%2,                     Tariq%Ahmad%NULL%2,                     Chiara%Lazzeri%NULL%18,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                     Karen K.%Wong%NULL%1,                     Christine M.%Szablewski%NULL%1,                     Priti R.%Patel%NULL%1,                     John%Rossow%NULL%1,                     Juliana%da Silva%NULL%1,                     Pavithra%Natarajan%NULL%1,                     Sapna Bamrah%Morris%NULL%1,                     Robyn Neblett%Fanfair%NULL%1,                     Jessica%Rogers-Brown%NULL%1,                     Beau B.%Bruce%NULL%1,                     Sean D.%Browning%NULL%1,                     Alfonso C.%Hernandez-Romieu%NULL%2,                     Nathan W.%Furukawa%NULL%1,                     Mohleen%Kang%NULL%1,                     Mary E.%Evans%NULL%1,                     Nadine%Oosmanally%NULL%1,                     Melissa%Tobin-D’Angelo%NULL%1,                     Cherie%Drenzek%NULL%1,                     David J.%Murphy%NULL%0,                     Julie%Hollberg%NULL%1,                     James M.%Blum%NULL%0,                     Robert%Jansen%NULL%1,                     David W.%Wright%NULL%1,                     William M.%Sewell%NULL%1,                     Jack D.%Owens%NULL%1,                     Benjamin%Lefkove%NULL%1,                     Frank W.%Brown%NULL%1,                     Deron C.%Burton%NULL%1,                     Timothy M.%Uyeki%NULL%3,                     Stephanie R.%Bialek%NULL%1,                     Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                     Jasmine A.%Mack%NULL%1,                     Maxwell%Salvatore%NULL%1,                     Swaraaj Prabhu%Sankar%NULL%1,                     Thomas S.%Valley%NULL%1,                     Karandeep%Singh%NULL%1,                     Brahmajee K.%Nallamothu%NULL%1,                     Sachin%Kheterpal%NULL%1,                     Lynda%Lisabeth%NULL%1,                     Lars G.%Fritsche%NULL%1,                     Bhramar%Mukherjee%NULL%1,                      T.%Gu%null%1,                      J. A.% Mack%null%1,                      M.% Salvatore%null%1,                      S. P.% Sankar%null%1,                      T. S.% Valley%null%1,                      K.% Singh%null%1,                      B. K.% Nallamothu%null%1,                      S.% Kheterpal%null%1,                      L.% Lisabeth%null%1,                      L. G.% Fritsche%null%1,                      B. G. % Mukherjee%null%1,                     T.%Gu%null%1,                     J. A.% Mack%null%1,                     M.% Salvatore%null%1,                     S. P.% Sankar%null%1,                     T. S.% Valley%null%1,                     K.% Singh%null%1,                     B. K.% Nallamothu%null%1,                     S.% Kheterpal%null%1,                     L.% Lisabeth%null%1,                     L. G.% Fritsche%null%1,                     B. G. % Mukherjee%null%1,    T.%Gu%null%1,    J. A.% Mack%null%1,    M.% Salvatore%null%1,    S. P.% Sankar%null%1,    T. S.% Valley%null%1,    K.% Singh%null%1,    B. K.% Nallamothu%null%1,    S.% Kheterpal%null%1,    L.% Lisabeth%null%1,    L. G.% Fritsche%null%1,    B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                      S.% Nirenberg%null%1,                      P.% Kovatch%null%1,                      K.-l. % Huang%null%1,    T.%Jun%null%1,    S.% Nirenberg%null%1,    P.% Kovatch%null%2,    K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                     Shikha%Garg%NULL%1,                     Alissa%O’Halloran%NULL%1,                     Michael%Whitaker%NULL%1,                     Huong%Pham%NULL%1,                     Evan J%Anderson%NULL%1,                     Isaac%Armistead%NULL%1,                     Nancy M%Bennett%NULL%1,                     Laurie%Billing%NULL%1,                     Kathryn%Como-Sabetti%NULL%1,                     Mary%Hill%NULL%1,                     Sue%Kim%NULL%1,                     Maya L%Monroe%NULL%1,                     Alison%Muse%NULL%1,                     Arthur L%Reingold%NULL%1,                     William%Schaffner%NULL%1,                     Melissa%Sutton%NULL%1,                     H Keipp%Talbot%NULL%1,                     Salina M%Torres%NULL%1,                     Kimberly%Yousey-Hindes%NULL%1,                     Rachel%Holstein%NULL%1,                     Charisse%Cummings%NULL%1,                     Lynette%Brammer%NULL%1,                     Aron J%Hall%NULL%1,                     Alicia M%Fry%NULL%1,                     Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                      S.% Richardson%null%1,                      K.% Coppa%null%1,                      D. P.% Barnaby%null%1,                      T.% McGinn%null%1,                      L. B.% Becker%null%1,                      K. W.% Davidson%null%1,                      S. L.% Cohen%null%1,                      J. S.% Hirsch%null%1,                      T.% Zanos%null%1,                        % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1,    T. J.%Levy%null%1,    S.% Richardson%null%1,    K.% Coppa%null%1,    D. P.% Barnaby%null%1,    T.% McGinn%null%1,    L. B.% Becker%null%1,    K. W.% Davidson%null%1,    S. L.% Cohen%null%1,    J. S.% Hirsch%null%1,    T.% Zanos%null%1,      % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                      L. H.% Nguyen%null%1,                      D. A.% Drew%null%1,                      M. S.% Graham%null%1,                      E. T.% Warner%null%1,                      A. D.% Joshi%null%1,                      C. M.% Astley%null%1,                      C.-G.% Guo%null%1,                      W.% Ma%null%1,                      R. S.% Mehta%null%1,                      S.% Kwon%null%1,                      M.% Song%null%1,                      R.% Davies%null%1,                      J.% Capdevila%null%1,                      K. A.% Lee%null%1,                      M. N.% Lochlainn%null%1,                      T.% Varsavsky%null%1,                      C. H.% Sudre%null%1,                      J.% Wolf%null%1,                      Y. C.% Cozier%null%1,                      L.% Rosenberg%null%1,                      L. R.% Wilkens%null%1,                      C. A.% Haiman%null%1,                      L. L.% Marchand%null%1,                      J. R.% Palmer%null%1,                      T. D.% Spector%null%1,                      S.% Ourselin%null%1,                      C. J.% Steves%null%1,                      A. T.% Chan%null%1,                        % COPE Consortium%null%1,    C.-H.%Lo%null%1,    L. H.% Nguyen%null%1,    D. A.% Drew%null%1,    M. S.% Graham%null%1,    E. T.% Warner%null%1,    A. D.% Joshi%null%1,    C. M.% Astley%null%1,    C.-G.% Guo%null%1,    W.% Ma%null%1,    R. S.% Mehta%null%1,    S.% Kwon%null%1,    M.% Song%null%1,    R.% Davies%null%1,    J.% Capdevila%null%1,    K. A.% Lee%null%1,    M. N.% Lochlainn%null%1,    T.% Varsavsky%null%1,    C. H.% Sudre%null%1,    J.% Wolf%null%1,    Y. C.% Cozier%null%1,    L.% Rosenberg%null%1,    L. R.% Wilkens%null%1,    C. A.% Haiman%null%1,    L. L.% Marchand%null%1,    J. R.% Palmer%null%1,    T. D.% Spector%null%1,    S.% Ourselin%null%1,    C. J.% Steves%null%1,    A. T.% Chan%null%1,      % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                     Jienchi%Dorward%NULL%1,                     Ana%Correa%NULL%1,                     Nicholas%Jones%NULL%1,                     Oluwafunmi%Akinyemi%NULL%1,                     Gayatri%Amirthalingam%NULL%1,                     Nick%Andrews%NULL%1,                     Rachel%Byford%NULL%1,                     Gavin%Dabrera%NULL%1,                     Alex%Elliot%NULL%1,                     Joanna%Ellis%NULL%0,                     Filipa%Ferreira%NULL%1,                     Jamie%Lopez Bernal%NULL%1,                     Cecilia%Okusi%NULL%1,                     Mary%Ramsay%NULL%1,                     Julian%Sherlock%NULL%1,                     Gillian%Smith%NULL%1,                     John%Williams%NULL%1,                     Gary%Howsam%NULL%1,                     Maria%Zambon%NULL%0,                     Mark%Joy%NULL%1,                     F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                     Johanna%Dolle%NULL%2,                     Johanna%Dolle%NULL%0,                     Sheila%Grami%NULL%1,                     Richard%Adule%NULL%1,                     Zeyu%Li%NULL%1,                     Kathleen%Tatem%NULL%1,                     Chinyere%Anyaogu%NULL%1,                     Stephen%Apfelroth%NULL%1,                     Raji%Ayinla%NULL%2,                     Raji%Ayinla%NULL%0,                     Noella%Boma%NULL%1,                     Terence%Brady%NULL%1,                     Braulio F.%Cosme-Thormann%NULL%1,                     Roseann%Costarella%NULL%1,                     Kenra%Ford%NULL%1,                     Kecia%Gaither%NULL%1,                     Jessica%Jacobson%NULL%1,                     Marc%Kanter%NULL%1,                     Stuart%Kessler%NULL%1,                     Ross B.%Kristal%NULL%1,                     Joseph J.%Lieber%NULL%1,                     Vikramjit%Mukherjee%NULL%1,                     Vincent%Rizzo%NULL%1,                     Madden%Rowell%NULL%1,                     David%Stevens%NULL%1,                     Elana%Sydney%NULL%1,                     Andrew%Wallach%NULL%2,                     Andrew%Wallach%NULL%0,                     Dave A.%Chokshi%NULL%1,                     Nichola%Davis%NULL%1,                     NULL%NULL%NULL%0,                     Sze Yan%Liu%NULL%2,                     Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                     Mark%Caridi-Scheible%NULL%0,                     James M.%Blum%NULL%0,                     Chad%Robichaux%NULL%1,                     Colleen%Kraft%NULL%1,                     Jesse T.%Jacob%NULL%1,                     Craig S.%Jabaley%NULL%0,                     David%Carpenter%NULL%1,                     Roberta%Kaplow%NULL%1,                     Alfonso C.%Hernandez-Romieu%NULL%0,                     Max W.%Adelman%NULL%0,                     Greg S.%Martin%NULL%0,                     Craig M.%Coopersmith%NULL%1,                     David J.%Murphy%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,             Seunghee%Kim-Schulze%null%1,             Hsin-Hui%Huang%null%1,             Noam D.%Beckmann%null%1,             Sharon%Nirenberg%null%1,             Bo%Wang%null%1,             Yonit%Lavin%null%1,             Talia H.%Swartz%null%1,             Deepu%Madduri%null%1,             Aryeh%Stock%null%1,             Thomas U.%Marron%null%1,             Hui%Xie%null%1,             Manishkumar%Patel%null%1,             Kevin%Tuballes%null%1,             Oliver%Oekelen%null%1,             Adeeb%Rahman%null%1,             Patricia%Kovatch%null%1,             Judith A.%Aberg%null%1,             Eric%Schadt%null%1,             Sundar%Jagannath%null%1,             Madhu%Mazumdar%null%1,             Alexander W.%Charney%null%1,             Adolfo%Firpo-Betancourt%null%1,             Damodara Rao%Mendu%null%1,             Jeffrey%Jhang%null%1,             David%Reich%null%1,             Keith%Sigel%null%1,             Carlos%Cordon-Cardo%null%1,             Marc%Feldmann%null%1,             Samir%Parekh%null%1,             Miriam%Merad%null%1,             Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                     David R.%Jenkins%NULL%1,                     Jatinder S.%Minhas%NULL%1,                     Laura J.%Gray%NULL%1,                     Julian%Tang%NULL%1,                     Caroline%Williams%NULL%1,                     Shirley%Sze%NULL%1,                     Daniel%Pan%NULL%1,                     William%Jones%NULL%1,                     Raman%Verma%NULL%1,                     Scott%Knapp%NULL%1,                     Rupert%Major%NULL%1,                     Melanie%Davies%NULL%1,                     Nigel%Brunskill%NULL%1,                     Martin%Wiselka%NULL%1,                     Chris%Brightling%NULL%1,                     Kamlesh%Khunti%NULL%1,                     Pranab%Haldar%NULL%1,                     Manish%Pareek%mp426@le.ac.uk%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                     Kelly E%Hathorn%NULL%2,                     Kelly E%Hathorn%NULL%0,                     Walker D%Redd%NULL%1,                     Nicolette J%Rodriguez%NULL%1,                     Joyce C%Zhou%NULL%1,                     Ahmad Najdat%Bazarbashi%NULL%1,                     Cheikh%Njie%NULL%1,                     Danny%Wong%NULL%1,                     Quoc-Dien%Trinh%NULL%1,                     Lin%Shen%NULL%1,                     Valerie E%Stone%NULL%2,                     Valerie E%Stone%NULL%0,                     Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                      S.% Apewokin%null%1,                      A. A.% Wells%null%1,                      A. L. % Morrow%null%1,    A.%Mendy%null%1,    S.% Apewokin%null%1,    A. A.% Wells%null%1,    A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                     Thomas E.%Webb%NULL%2,                     Thomas E.%Webb%NULL%0,                     Benjamin C.%Mcloughlin%NULL%2,                     Benjamin C.%Mcloughlin%NULL%0,                     Imran%Mannan%NULL%2,                     Imran%Mannan%NULL%0,                     Arshad%Rather%NULL%2,                     Arshad%Rather%NULL%0,                     Paul%Knopp%NULL%1,                     Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                     Rajat%Suri%NULL%2,                     Rajat%Suri%NULL%0,                     Iheanacho O.%Emeruwa%NULL%2,                     Iheanacho O.%Emeruwa%NULL%0,                     Robert J.%Stretch%NULL%1,                     Roxana Y.%Cortes-Lopez%NULL%2,                     Roxana Y.%Cortes-Lopez%NULL%0,                     Alexander%Sherman%NULL%1,                     Catherine C.%Lindsay%NULL%1,                     Jennifer A.%Fulcher%NULL%1,                     David%Goodman-Meza%NULL%2,                     David%Goodman-Meza%NULL%0,                     Anil%Sapru%NULL%2,                     Anil%Sapru%NULL%0,                     Russell G.%Buhr%NULL%1,                     Steven Y.%Chang%NULL%2,                     Steven Y.%Chang%NULL%0,                     Tisha%Wang%NULL%1,                     Nida%Qadir%NULL%1,                     Giordano%Madeddu%NULL%8,                     Giordano%Madeddu%NULL%0,                     Giordano%Madeddu%NULL%0,                     Ana C.%Monteiro%NULL%2,                     Ana C.%Monteiro%NULL%0,                     Giordano%Madeddu%NULL%0,                     Giordano%Madeddu%NULL%0,                     Giordano%Madeddu%NULL%0,                     Giordano%Madeddu%NULL%0,                     Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                      D.% Stefanov%null%1,                      A. S.% Chau%null%1,                      A. G.% Weber%null%1,                      G. S.% Marder%null%1,                      B.% Kaplan%null%1,                      P.% Malhotra%null%1,                      O.% Bloom%null%1,                      A.% Liu%null%1,                      M.% Lesser%null%1,                      N. % Hajizadeh%null%1,    S.%Narain%null%1,    D.% Stefanov%null%1,    A. S.% Chau%null%1,    A. G.% Weber%null%1,    G. S.% Marder%null%1,    B.% Kaplan%null%1,    P.% Malhotra%null%1,    O.% Bloom%null%1,    A.% Liu%null%1,    M.% Lesser%null%1,    N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                     Catherine A.%O’Donnell%NULL%2,                     Bhautesh Dinesh%Jani%NULL%1,                     Evangelia%Demou%NULL%1,                     Frederick K.%Ho%NULL%1,                     Carlos%Celis-Morales%NULL%1,                     Barbara I.%Nicholl%NULL%1,                     Frances S.%Mair%NULL%2,                     Paul%Welsh%NULL%2,                     Naveed%Sattar%NULL%2,                     Jill P.%Pell%NULL%2,                     S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                     Alex J%Walker%NULL%1,                     Krishnan%Bhaskaran%NULL%1,                     Seb%Bacon%NULL%1,                     Chris%Bates%NULL%1,                     Caroline E%Morton%NULL%1,                     Helen J%Curtis%NULL%1,                     Amir%Mehrkar%NULL%1,                     David%Evans%NULL%1,                     Peter%Inglesby%NULL%1,                     Jonathan%Cockburn%NULL%1,                     Helen I%McDonald%NULL%1,                     Brian%MacKenna%NULL%1,                     Laurie%Tomlinson%NULL%1,                     Ian J%Douglas%NULL%1,                     Christopher T%Rentsch%NULL%1,                     Rohini%Mathur%NULL%1,                     Angel YS%Wong%NULL%1,                     Richard%Grieve%NULL%1,                     David%Harrison%NULL%1,                     Harriet%Forbes%NULL%1,                     Anna%Schultze%NULL%2,                     Richard%Croker%NULL%1,                     John%Parry%NULL%1,                     Frank%Hester%NULL%1,                     Sam%Harper%NULL%1,                     Rafael%Perera%NULL%1,                     Stephen JW%Evans%NULL%1,                     Liam%Smeeth%NULL%1,                     Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                     Ajay%Bhasin%NULL%1,                     Joseph M.%Feinglass%NULL%1,                     Michael P.%Angarone%NULL%1,                     Elaine R.%Cohen%NULL%1,                     Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                     Andrew%Gangemi%NULL%1,                     Robert%Marron%NULL%1,                     Junad%Chowdhury%NULL%1,                     Ibraheem%Yousef%NULL%1,                     Matthew%Zheng%NULL%1,                     Nicole%Mills%NULL%1,                     Lauren%Tragesser%NULL%1,                     Julie%Giurintano%NULL%1,                     Rohit%Gupta%NULL%0,                     Matthew%Gordon%NULL%0,                     Parth%Rali%NULL%2,                     Parth%Rali%NULL%0,                     Gilbert%D'Alonso%NULL%1,                     David%Fleece%NULL%1,                     Huaqing%Zhao%NULL%0,                     Nicole%Patlakh%NULL%0,                     Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                     Nathan C.%Skorodin%nskorodin@midcusa.com%1,                     Nicholas W.%Van Hise%NULL%1,                     Robert M.%Fliegelman%NULL%1,                     Jonathan%Pinsky%NULL%1,                     Vishal%Didwania%NULL%1,                     Michael%Anderson%NULL%1,                     Melina%Diaz%NULL%1,                     Kairav%Shah%NULL%1,                     Vishnu V.%Chundi%NULL%1,                     David W.%Hines%NULL%1,                     Brian P.%Harting%NULL%1,                     Kamo%Sidwha%NULL%1,                     Brian%Yu%NULL%1,                     Paul%Brune%NULL%1,                     Anjum%Owaisi%NULL%1,                     David%Beezhold%NULL%1,                     Joseph%Kent%NULL%1,                     Dana%Vais%NULL%1,                     Alice%Han%NULL%1,                     Neethi%Gowda%NULL%1,                     Nishi%Sahgal%NULL%1,                     Jan%Silverman%NULL%1,                     Jonathan%Stake%NULL%1,                     Jenie%Nepomuceno%NULL%1,                     Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                     Anna%Daunt%NULL%2,                     Anna%Daunt%NULL%0,                     Sujit%Mukherjee%NULL%1,                     Peter%Crook%NULL%1,                     Roberta%Forlano%NULL%1,                     Mara D%Kont%NULL%1,                     Alessandra%Løchen%NULL%1,                     Michaela%Vollmer%NULL%1,                     Paul%Middleton%NULL%1,                     Rebekah%Judge%NULL%1,                     Christopher%Harlow%NULL%1,                     Anet%Soubieres%NULL%1,                     Graham%Cooke%NULL%1,                     Peter J%White%NULL%1,                     Timothy B%Hallett%NULL%1,                     Paul%Aylin%NULL%1,                     Neil%Ferguson%NULL%1,                     Katharina%Hauck%NULL%1,                     Mark R%Thursz%NULL%1,                     Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                     Jeffrey%Burton%NULL%2,                     Jeffrey%Burton%NULL%0,                     Daniel%Fort%NULL%1,                     Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                     Michael S.%Sherman%NULL%1,                     Naaz%Fatteh%NULL%1,                     Fabio%Vogel%NULL%1,                     Jamie%Sacks%NULL%1,                     Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                      P.% Mannam%null%1,                      R.% Comer%null%1,                      E.% Sinclair%null%1,                      D. B.% McQuaid%null%1,                      M. L. % Schmidt%null%1,    M.%Ramaswamy%null%1,    P.% Mannam%null%1,    R.% Comer%null%1,    E.% Sinclair%null%1,    D. B.% McQuaid%null%1,    M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                     Farah%Kidwai-Khan%NULL%1,                     Janet P.%Tate%NULL%1,                     Lesley S.%Park%NULL%1,                     Joseph T.%King%NULL%1,                     Melissa%Skanderson%NULL%1,                     Ronald G.%Hauser%NULL%1,                     Anna%Schultze%NULL%0,                     Christopher I.%Jarvis%NULL%1,                     Mark%Holodniy%NULL%1,                     Vincent Lo%Re%NULL%1,                     Kathleen M.%Akgün%NULL%1,                     Kristina%Crothers%NULL%1,                     Tamar H.%Taddei%NULL%1,                     Matthew S.%Freiberg%NULL%1,                     Amy C.%Justice%NULL%1,                      C. T.%Rentsch%null%1,                      F.% Kidwai-Khan%null%1,                      J. P.% Tate%null%1,                      L. S.% Park%null%1,                      J. T.% King%null%1,                      M.% Skanderson%null%1,                      R. G.% Hauser%null%1,                      A.% Schultze%null%1,                      C. I.% Jarvis%null%1,                      M.% Holodniy%null%1,                      V.% Lo Re%null%1,                      K. M.% Akgun%null%1,                      K.% Crothers%null%1,                      T. H.% Taddei%null%1,                      M. S.% Freiberg%null%1,                      A. C. % Justice%null%1,                     C. T.%Rentsch%null%1,                     F.% Kidwai-Khan%null%1,                     J. P.% Tate%null%1,                     L. S.% Park%null%1,                     J. T.% King%null%1,                     M.% Skanderson%null%1,                     R. G.% Hauser%null%1,                     A.% Schultze%null%1,                     C. I.% Jarvis%null%1,                     M.% Holodniy%null%1,                     V.% Lo Re%null%1,                     K. M.% Akgun%null%1,                     K.% Crothers%null%1,                     T. H.% Taddei%null%1,                     M. S.% Freiberg%null%1,                     A. C. % Justice%null%1,    C. T.%Rentsch%null%1,    F.% Kidwai-Khan%null%1,    J. P.% Tate%null%1,    L. S.% Park%null%1,    J. T.% King%null%1,    M.% Skanderson%null%1,    R. G.% Hauser%null%1,    A.% Schultze%null%1,    C. I.% Jarvis%null%1,    M.% Holodniy%null%1,    V.% Lo Re%null%1,    K. M.% Akgun%null%1,    K.% Crothers%null%1,    T. H.% Taddei%null%1,    M. S.% Freiberg%null%1,    A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                     Jennifer%Beam%NULL%2,                     Jennifer%Beam%NULL%0,                     Haley%Maier%NULL%1,                     Whitney%Haggerson%NULL%1,                     Karen%Boudreau%NULL%1,                     Jamie%Carlson%NULL%1,                     Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                     Alexander E.%Ayala%NULL%1,                     Chideraa C.%Ukeje%NULL%1,                     Celeste S.%Witting%NULL%1,                     William A.%Grobman%NULL%1,                     Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                     Hannah C.%Jarvis%NULL%2,                     Hannah C.%Jarvis%NULL%0,                     Ezgi%Ozcan%NULL%1,                     Thomas L. P.%Burns%NULL%1,                     Rabia A.%Warraich%NULL%1,                     Lisa J.%Amani%NULL%1,                     Amina%Jaffer%NULL%1,                     Stephanie%Paget%NULL%1,                     Anand%Sivaramakrishnan%NULL%1,                     Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                     Suzy%Gallier%NULL%2,                     Suzy%Gallier%NULL%0,                     Chris%Mainey%NULL%1,                     Peter%Nightingale%NULL%2,                     Peter%Nightingale%NULL%0,                     David%McNulty%NULL%1,                     Hannah%Crothers%NULL%1,                     Felicity%Evison%NULL%1,                     Katharine%Reeves%NULL%1,                     Domenico%Pagano%NULL%1,                     Alastair K%Denniston%NULL%1,                     Krishnarajah%Nirantharakumar%NULL%1,                     Peter%Diggle%NULL%1,                     Simon%Ball%NULL%1,                     Lylah%Irshad%NULL%1,                     Maxim%Harris%NULL%1,                     Theodore%Nabav%NULL%1,                     A%Kolesnyk%NULL%1,                     M%Ahmed%NULL%1,                     A%Liaqat%NULL%1,                     Tanya%Pankhurst%NULL%1,                     Jamie%Coleman%NULL%1,                     Chirag%Dave%NULL%1,                     Khaled%ElFandi%NULL%1,                     Rifat%Rashid%NULL%1,                     Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                     Gregory A%Eschenauer%NULL%2,                     Gregory A%Eschenauer%NULL%0,                     Jonathan P%Troost%NULL%1,                     Jonathan L%Golob%NULL%1,                     Tejal N%Gandhi%NULL%1,                     Lu%Wang%NULL%1,                     Nina%Zhou%NULL%1,                     Lindsay A%Petty%NULL%1,                     Ji Hoon%Baang%NULL%1,                     Nicholas O%Dillman%NULL%1,                     David%Frame%NULL%1,                     Kevin S%Gregg%NULL%1,                     Dan R%Kaul%NULL%1,                     Jerod%Nagel%NULL%1,                     Twisha S%Patel%NULL%1,                     Shiwei%Zhou%NULL%1,                     Adam S%Lauring%NULL%1,                     David A%Hanauer%NULL%1,                     Emily%Martin%NULL%1,                     Pratima%Sharma%NULL%1,                     Christopher M%Fung%NULL%1,                     Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                     Lei%Qian%NULL%2,                     Lei%Qian%NULL%0,                     Vennis%Hong%NULL%1,                     Rong%Wei%NULL%2,                     Rong%Wei%NULL%0,                     Ron F.%Nadjafi%NULL%2,                     Ron F.%Nadjafi%NULL%0,                     Heidi%Fischer%NULL%1,                     Zhuoxin%Li%NULL%1,                     Sally F.%Shaw%NULL%1,                     Susan L.%Caparosa%NULL%2,                     Susan L.%Caparosa%NULL%0,                     Claudia L.%Nau%NULL%1,                     Tanmai%Saxena%NULL%1,                     Gunter K.%Rieg%NULL%1,                     Bradley K.%Ackerson%NULL%1,                     Adam L.%Sharp%NULL%2,                     Adam L.%Sharp%NULL%0,                     Jacek%Skarbinski%NULL%2,                     Jacek%Skarbinski%NULL%0,                     Tej K.%Naik%NULL%1,                     Sameer B.%Murali%NULL%2,                     Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                     Juan Carlos%Nicolas%NULL%2,                     Juan Carlos%Nicolas%NULL%0,                     Jennifer R%Meeks%NULL%1,                     Osman%Khan%NULL%1,                     Alan%Pan%NULL%1,                     Stephen L%Jones%NULL%1,                     Faisal%Masud%NULL%1,                     H Dirk%Sostman%NULL%1,                     Robert%Phillips%NULL%1,                     Julia D%Andrieni%NULL%1,                     Bita A%Kash%NULL%1,                     Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                     Arryn%Craney%NULL%1,                     Phyllis%Ruggiero%NULL%1,                     John%Sipley%NULL%1,                     Lin%Cong%NULL%1,                     Erika M.%Hissong%NULL%1,                     Massimo%Loda%NULL%1,                     Lars F.%Westblade%NULL%1,                     Melissa%Cushing%NULL%2,                     Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                      X.% Zhong%null%1,                      Y. % Hurd%null%1,    A.-L.%WANG%null%1,    X.% Zhong%null%1,    Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                     Amanda%Zheutlin%NULL%2,                     Amanda%Zheutlin%NULL%0,                     Yu-Han%Kao%NULL%1,                     Kristin%Ayers%NULL%1,                     Susan%Gross%NULL%1,                     Patricia%Kovatch%NULL%1,                     Sharon%Nirenberg%NULL%1,                     Alexander%Charney%NULL%1,                     Girish%Nadkarni%NULL%1,                     Jessica K%De Freitas%NULL%1,                     Paul%O’Reilly%NULL%1,                     Allan%Just%NULL%1,                     Carol%Horowitz%NULL%1,                     Glenn%Martin%NULL%1,                     Andrea%Branch%NULL%1,                     Benjamin S%Glicksberg%NULL%1,                     Dennis%Charney%NULL%1,                     David%Reich%NULL%1,                     William K%Oh%NULL%1,                     Eric%Schadt%NULL%1,                     Rong%Chen%NULL%0,                     Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                     Angela%Winegar%NULL%1,                     Richard%Fogel%NULL%1,                     Mohamad%Fakih%NULL%1,                     Allison%Ottenbacher%NULL%1,                     Christine%Jesser%NULL%1,                     Angelo%Bufalino%NULL%1,                     Ren-Huai%Huang%NULL%1,                     Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                     Rebecca%Bendayan%NULL%0,                     Mark%Ashworth%NULL%1,                     Daniel M.%Bean%NULL%1,                     Hiten%Dodhia%NULL%1,                     Stevo%Durbaba%NULL%1,                     Kevin%O'Gallagher%NULL%1,                     Claire%Palmer%NULL%1,                     Vasa%Curcin%NULL%1,                     Elizabeth%Aitken%NULL%1,                     William%Bernal%NULL%1,                     Richard D.%Barker%NULL%1,                     Sam%Norton%NULL%1,                     Martin%Gulliford%NULL%1,                     James T.H.%Teo%NULL%0,                     James%Galloway%NULL%1,                     Richard J.B.%Dobson%NULL%0,                     Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                     Carina%Marquez%NULL%1,                     Emily%Crawford%NULL%1,                     James%Peng%NULL%1,                     Maya%Petersen%NULL%1,                     Daniel%Schwab%NULL%1,                     Joshua%Schwab%NULL%1,                     Jackie%Martinez%NULL%1,                     Diane%Jones%NULL%1,                     Douglas%Black%NULL%1,                     Monica%Gandhi%NULL%1,                     Andrew D%Kerkhoff%NULL%1,                     Vivek%Jain%NULL%1,                     Francesco%Sergi%NULL%1,                     Jon%Jacobo%NULL%1,                     Susana%Rojas%NULL%1,                     Valerie%Tulier-Laiwa%NULL%1,                     Tracy%Gallardo-Brown%NULL%1,                     Ayesha%Appa%NULL%1,                     Charles%Chiu%NULL%1,                     Mary%Rodgers%NULL%1,                     John%Hackett%NULL%1,                     NULL%NULL%NULL%0,                     Amy%Kistler%NULL%1,                     Samantha%Hao%NULL%1,                     Jack%Kamm%NULL%1,                     David%Dynerman%NULL%1,                     Joshua%Batson%NULL%1,                     Bryan%Greenhouse%NULL%1,                     Joe%DeRisi%NULL%1,                     Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                     Tiffany%Grimes%NULL%1,                     Peng%Li%NULL%1,                     Matthew%Might%NULL%1,                     Fernando%Ovalle%NULL%1,                     Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                     Natalie%Achamallah%NULL%1,                     Hongwei%Ji%NULL%1,                     Brian L.%Claggett%NULL%1,                     Nancy%Sun%NULL%1,                     Patrick%Botting%NULL%1,                     Trevor-Trung%Nguyen%NULL%1,                     Eric%Luong%NULL%1,                     Elizabeth H.%Kim%NULL%1,                     Eunice%Park%NULL%1,                     Yunxian%Liu%NULL%1,                     Ryan%Rosenberry%NULL%1,                     Yuri%Matusov%NULL%1,                     Steven%Zhao%NULL%1,                     Isabel%Pedraza%NULL%1,                     Tanzira%Zaman%NULL%1,                     Michael%Thompson%NULL%1,                     Koen%Raedschelders%NULL%1,                     Anders H.%Berg%NULL%2,                     Anders H.%Berg%NULL%0,                     Jonathan D.%Grein%NULL%1,                     Paul W.%Noble%NULL%1,                     Sumeet S.%Chugh%NULL%1,                     C. Noel%Bairey Merz%NULL%1,                     Eduardo%Marbán%NULL%1,                     Jennifer E.%Van Eyk%NULL%1,                     Scott D.%Solomon%NULL%1,                     Christine M.%Albert%NULL%1,                     Peter%Chen%NULL%1,                     Susan%Cheng%NULL%3,                     Yu Ru%Kou%NULL%8,                     Yu Ru%Kou%NULL%0,                     Yu Ru%Kou%NULL%0,                     Susan%Cheng%biodatacore@cshs.org%0,                     Susan%Cheng%biodatacore@cshs.org%0,                     Yu Ru%Kou%NULL%0,                     Yu Ru%Kou%NULL%0,                     Yu Ru%Kou%NULL%0,                     Yu Ru%Kou%NULL%0,                     Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                     Penelope%Strid%NULL%1,                     Van T.%Tong%NULL%1,                     Kate%Woodworth%NULL%1,                     Romeo R.%Galang%NULL%1,                     Laura D.%Zambrano%NULL%1,                     John%Nahabedian%NULL%1,                     Kayla%Anderson%NULL%1,                     Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                     Jacob%Fiksel%NULL%2,                     Jacob%Fiksel%NULL%0,                     John%Muschelli%NULL%2,                     John%Muschelli%NULL%0,                     Matthew L.%Robinson%NULL%2,                     Matthew L.%Robinson%NULL%0,                     Masoud%Rouhizadeh%NULL%2,                     Masoud%Rouhizadeh%NULL%0,                     Jamie%Perin%NULL%2,                     Jamie%Perin%NULL%0,                     Grant%Schumock%NULL%2,                     Grant%Schumock%NULL%0,                     Paul%Nagy%NULL%2,                     Paul%Nagy%NULL%0,                     Josh H.%Gray%NULL%2,                     Josh H.%Gray%NULL%0,                     Harsha%Malapati%NULL%2,                     Harsha%Malapati%NULL%0,                     Mariam%Ghobadi-Krueger%NULL%2,                     Mariam%Ghobadi-Krueger%NULL%0,                     Timothy M.%Niessen%NULL%1,                     Bo Soo%Kim%NULL%1,                     Peter M.%Hill%NULL%1,                     M. Shafeeq%Ahmed%NULL%1,                     Eric D.%Dobkin%NULL%1,                     Renee%Blanding%NULL%1,                     Jennifer%Abele%NULL%1,                     Bonnie%Woods%NULL%1,                     Kenneth%Harkness%NULL%1,                     David R.%Thiemann%NULL%1,                     Mary G.%Bowring%NULL%1,                     Aalok B.%Shah%NULL%2,                     Aalok B.%Shah%NULL%0,                     Mei-Cheng%Wang%NULL%1,                     Karen%Bandeen-Roche%NULL%1,                     Antony%Rosen%NULL%1,                     Scott L.%Zeger%NULL%2,                     Scott L.%Zeger%NULL%0,                     Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                     Megan%McCullough%NULL%0,                     Megan%McCullough%NULL%0,                     Michael A.%Fuery%NULL%0,                     Fouad%Chouairi%NULL%0,                     Fouad%Chouairi%NULL%0,                     Craig%Keating%NULL%0,                     Neal G.%Ravindra%NULL%0,                     P. Elliott%Miller%NULL%0,                     Maricar%Malinis%NULL%0,                     Nitu%Kashyap%NULL%0,                     Allen%Hsiao%NULL%0,                     F. Perry%Wilson%NULL%0,                     Jeptha P.%Curtis%NULL%0,                     Matthew%Grant%NULL%0,                     Eric J.%Velazquez%NULL%0,                     Nihar R.%Desai%NULL%0,                     Tariq%Ahmad%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0,                     Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                       R. U.% Shah%null%1,                       M.% Bale%null%1,                       J. B.% Peacock%null%1,                       B.% Berger%null%1,                       A.% Brown%null%1,                       S.% Mann%null%1,                       W.% West%null%1,                       V.% Martin%null%1,                       V.% Fernandez%null%1,                       S.% Grineski%null%1,                       B. J.% Brintz%null%1,                       M. H.% Samore%null%1,                       M. J.% Ferrari%null%1,                       D. T.% Leung%null%1,                       L. T. % Keegan%null%1,     S. M.%Ahmed%null%1,     R. U.% Shah%null%1,     M.% Bale%null%1,     J. B.% Peacock%null%1,     B.% Berger%null%1,     A.% Brown%null%1,     S.% Mann%null%1,     W.% West%null%1,     V.% Martin%null%1,     V.% Fernandez%null%1,     S.% Grineski%null%1,     B. J.% Brintz%null%1,     M. H.% Samore%null%1,     M. J.% Ferrari%null%1,     D. T.% Leung%null%1,     L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                      Samuel L%Bruce%NULL%1,                      Cody L%Slater%NULL%1,                      Jonathan R%Tiao%NULL%1,                      Matthew R%Baldwin%NULL%1,                      R Graham%Barr%NULL%1,                      Bernard P%Chang%NULL%1,                      Katherine H%Chau%NULL%1,                      Justin J%Choi%NULL%1,                      Nicholas%Gavin%NULL%1,                      Parag%Goyal%NULL%1,                      Angela M%Mills%NULL%1,                      Ashmi A%Patel%NULL%1,                      Marie-Laure S%Romney%NULL%1,                      Monika M%Safford%NULL%1,                      Neil W%Schluger%NULL%1,                      Soumitra%Sengupta%NULL%1,                      Magdalena E%Sobieszczyk%NULL%1,                      Jason E%Zucker%NULL%1,                      Paul A%Asadourian%NULL%1,                      Fletcher M%Bell%NULL%1,                      Rebekah%Boyd%NULL%1,                      Matthew F%Cohen%NULL%1,                      MacAlistair I%Colquhoun%NULL%1,                      Lucy A%Colville%NULL%1,                      Joseph H%de Jonge%NULL%1,                      Lyle B%Dershowitz%NULL%1,                      Shirin A%Dey%NULL%1,                      Katherine A%Eiseman%NULL%1,                      Zachary P%Girvin%NULL%1,                      Daniella T%Goni%NULL%1,                      Amro A%Harb%NULL%1,                      Nicholas%Herzik%NULL%1,                      Sarah%Householder%NULL%1,                      Lara E%Karaaslan%NULL%1,                      Heather%Lee%NULL%1,                      Evan%Lieberman%NULL%1,                      Andrew%Ling%NULL%1,                      Ree%Lu%NULL%1,                      Arthur Y%Shou%NULL%1,                      Alexander C%Sisti%NULL%1,                      Zachary E%Snow%NULL%1,                      Colin P%Sperring%NULL%1,                      Yuqing%Xiong%NULL%1,                      Henry W%Zhou%NULL%1,                      Karthik%Natarajan%NULL%1,                      George%Hripcsak%NULL%1,                      Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                      Megan%McCullough%NULL%4,                      Megan%McCullough%NULL%0,                      Michael A.%Fuery%NULL%2,                      Fouad%Chouairi%NULL%4,                      Fouad%Chouairi%NULL%0,                      Craig%Keating%NULL%2,                      Neal G.%Ravindra%NULL%2,                      P. Elliott%Miller%NULL%2,                      Maricar%Malinis%NULL%2,                      Nitu%Kashyap%NULL%2,                      Allen%Hsiao%NULL%2,                      F. Perry%Wilson%NULL%2,                      Jeptha P.%Curtis%NULL%2,                      Matthew%Grant%NULL%2,                      Eric J.%Velazquez%NULL%2,                      Nihar R.%Desai%NULL%2,                      Tariq%Ahmad%NULL%2,                      Chiara%Lazzeri%NULL%18,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                      Karen K.%Wong%NULL%1,                      Christine M.%Szablewski%NULL%1,                      Priti R.%Patel%NULL%1,                      John%Rossow%NULL%1,                      Juliana%da Silva%NULL%1,                      Pavithra%Natarajan%NULL%1,                      Sapna Bamrah%Morris%NULL%1,                      Robyn Neblett%Fanfair%NULL%1,                      Jessica%Rogers-Brown%NULL%1,                      Beau B.%Bruce%NULL%1,                      Sean D.%Browning%NULL%1,                      Alfonso C.%Hernandez-Romieu%NULL%2,                      Nathan W.%Furukawa%NULL%1,                      Mohleen%Kang%NULL%1,                      Mary E.%Evans%NULL%1,                      Nadine%Oosmanally%NULL%1,                      Melissa%Tobin-D’Angelo%NULL%1,                      Cherie%Drenzek%NULL%1,                      David J.%Murphy%NULL%0,                      Julie%Hollberg%NULL%1,                      James M.%Blum%NULL%0,                      Robert%Jansen%NULL%1,                      David W.%Wright%NULL%1,                      William M.%Sewell%NULL%1,                      Jack D.%Owens%NULL%1,                      Benjamin%Lefkove%NULL%1,                      Frank W.%Brown%NULL%1,                      Deron C.%Burton%NULL%1,                      Timothy M.%Uyeki%NULL%3,                      Stephanie R.%Bialek%NULL%1,                      Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                      Jasmine A.%Mack%NULL%1,                      Maxwell%Salvatore%NULL%1,                      Swaraaj Prabhu%Sankar%NULL%1,                      Thomas S.%Valley%NULL%1,                      Karandeep%Singh%NULL%1,                      Brahmajee K.%Nallamothu%NULL%1,                      Sachin%Kheterpal%NULL%1,                      Lynda%Lisabeth%NULL%1,                      Lars G.%Fritsche%NULL%1,                      Bhramar%Mukherjee%NULL%1,                       T.%Gu%null%1,                       J. A.% Mack%null%1,                       M.% Salvatore%null%1,                       S. P.% Sankar%null%1,                       T. S.% Valley%null%1,                       K.% Singh%null%1,                       B. K.% Nallamothu%null%1,                       S.% Kheterpal%null%1,                       L.% Lisabeth%null%1,                       L. G.% Fritsche%null%1,                       B. G. % Mukherjee%null%1,                      T.%Gu%null%1,                      J. A.% Mack%null%1,                      M.% Salvatore%null%1,                      S. P.% Sankar%null%1,                      T. S.% Valley%null%1,                      K.% Singh%null%1,                      B. K.% Nallamothu%null%1,                      S.% Kheterpal%null%1,                      L.% Lisabeth%null%1,                      L. G.% Fritsche%null%1,                      B. G. % Mukherjee%null%1,     T.%Gu%null%1,     J. A.% Mack%null%1,     M.% Salvatore%null%1,     S. P.% Sankar%null%1,     T. S.% Valley%null%1,     K.% Singh%null%1,     B. K.% Nallamothu%null%1,     S.% Kheterpal%null%1,     L.% Lisabeth%null%1,     L. G.% Fritsche%null%1,     B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                       S.% Nirenberg%null%1,                       P.% Kovatch%null%1,                       K.-l. % Huang%null%1,     T.%Jun%null%1,     S.% Nirenberg%null%1,     P.% Kovatch%null%2,     K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                      Shikha%Garg%NULL%1,                      Alissa%O’Halloran%NULL%1,                      Michael%Whitaker%NULL%1,                      Huong%Pham%NULL%1,                      Evan J%Anderson%NULL%1,                      Isaac%Armistead%NULL%1,                      Nancy M%Bennett%NULL%1,                      Laurie%Billing%NULL%1,                      Kathryn%Como-Sabetti%NULL%1,                      Mary%Hill%NULL%1,                      Sue%Kim%NULL%1,                      Maya L%Monroe%NULL%1,                      Alison%Muse%NULL%1,                      Arthur L%Reingold%NULL%1,                      William%Schaffner%NULL%1,                      Melissa%Sutton%NULL%1,                      H Keipp%Talbot%NULL%1,                      Salina M%Torres%NULL%1,                      Kimberly%Yousey-Hindes%NULL%1,                      Rachel%Holstein%NULL%1,                      Charisse%Cummings%NULL%1,                      Lynette%Brammer%NULL%1,                      Aron J%Hall%NULL%1,                      Alicia M%Fry%NULL%1,                      Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                       S.% Richardson%null%1,                       K.% Coppa%null%1,                       D. P.% Barnaby%null%1,                       T.% McGinn%null%1,                       L. B.% Becker%null%1,                       K. W.% Davidson%null%1,                       S. L.% Cohen%null%1,                       J. S.% Hirsch%null%1,                       T.% Zanos%null%1,                         % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1,     T. J.%Levy%null%1,     S.% Richardson%null%1,     K.% Coppa%null%1,     D. P.% Barnaby%null%1,     T.% McGinn%null%1,     L. B.% Becker%null%1,     K. W.% Davidson%null%1,     S. L.% Cohen%null%1,     J. S.% Hirsch%null%1,     T.% Zanos%null%1,       % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                       L. H.% Nguyen%null%1,                       D. A.% Drew%null%1,                       M. S.% Graham%null%1,                       E. T.% Warner%null%1,                       A. D.% Joshi%null%1,                       C. M.% Astley%null%1,                       C.-G.% Guo%null%1,                       W.% Ma%null%1,                       R. S.% Mehta%null%1,                       S.% Kwon%null%1,                       M.% Song%null%1,                       R.% Davies%null%1,                       J.% Capdevila%null%1,                       K. A.% Lee%null%1,                       M. N.% Lochlainn%null%1,                       T.% Varsavsky%null%1,                       C. H.% Sudre%null%1,                       J.% Wolf%null%1,                       Y. C.% Cozier%null%1,                       L.% Rosenberg%null%1,                       L. R.% Wilkens%null%1,                       C. A.% Haiman%null%1,                       L. L.% Marchand%null%1,                       J. R.% Palmer%null%1,                       T. D.% Spector%null%1,                       S.% Ourselin%null%1,                       C. J.% Steves%null%1,                       A. T.% Chan%null%1,                         % COPE Consortium%null%1,     C.-H.%Lo%null%1,     L. H.% Nguyen%null%1,     D. A.% Drew%null%1,     M. S.% Graham%null%1,     E. T.% Warner%null%1,     A. D.% Joshi%null%1,     C. M.% Astley%null%1,     C.-G.% Guo%null%1,     W.% Ma%null%1,     R. S.% Mehta%null%1,     S.% Kwon%null%1,     M.% Song%null%1,     R.% Davies%null%1,     J.% Capdevila%null%1,     K. A.% Lee%null%1,     M. N.% Lochlainn%null%1,     T.% Varsavsky%null%1,     C. H.% Sudre%null%1,     J.% Wolf%null%1,     Y. C.% Cozier%null%1,     L.% Rosenberg%null%1,     L. R.% Wilkens%null%1,     C. A.% Haiman%null%1,     L. L.% Marchand%null%1,     J. R.% Palmer%null%1,     T. D.% Spector%null%1,     S.% Ourselin%null%1,     C. J.% Steves%null%1,     A. T.% Chan%null%1,       % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                      Jienchi%Dorward%NULL%1,                      Ana%Correa%NULL%1,                      Nicholas%Jones%NULL%1,                      Oluwafunmi%Akinyemi%NULL%1,                      Gayatri%Amirthalingam%NULL%1,                      Nick%Andrews%NULL%1,                      Rachel%Byford%NULL%1,                      Gavin%Dabrera%NULL%1,                      Alex%Elliot%NULL%1,                      Joanna%Ellis%NULL%0,                      Filipa%Ferreira%NULL%1,                      Jamie%Lopez Bernal%NULL%1,                      Cecilia%Okusi%NULL%1,                      Mary%Ramsay%NULL%1,                      Julian%Sherlock%NULL%1,                      Gillian%Smith%NULL%1,                      John%Williams%NULL%1,                      Gary%Howsam%NULL%1,                      Maria%Zambon%NULL%0,                      Mark%Joy%NULL%1,                      F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                      Johanna%Dolle%NULL%2,                      Johanna%Dolle%NULL%0,                      Sheila%Grami%NULL%1,                      Richard%Adule%NULL%1,                      Zeyu%Li%NULL%1,                      Kathleen%Tatem%NULL%1,                      Chinyere%Anyaogu%NULL%1,                      Stephen%Apfelroth%NULL%1,                      Raji%Ayinla%NULL%2,                      Raji%Ayinla%NULL%0,                      Noella%Boma%NULL%1,                      Terence%Brady%NULL%1,                      Braulio F.%Cosme-Thormann%NULL%1,                      Roseann%Costarella%NULL%1,                      Kenra%Ford%NULL%1,                      Kecia%Gaither%NULL%1,                      Jessica%Jacobson%NULL%1,                      Marc%Kanter%NULL%1,                      Stuart%Kessler%NULL%1,                      Ross B.%Kristal%NULL%1,                      Joseph J.%Lieber%NULL%1,                      Vikramjit%Mukherjee%NULL%1,                      Vincent%Rizzo%NULL%1,                      Madden%Rowell%NULL%1,                      David%Stevens%NULL%1,                      Elana%Sydney%NULL%1,                      Andrew%Wallach%NULL%2,                      Andrew%Wallach%NULL%0,                      Dave A.%Chokshi%NULL%1,                      Nichola%Davis%NULL%1,                      NULL%NULL%NULL%0,                      Sze Yan%Liu%NULL%2,                      Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                      Mark%Caridi-Scheible%NULL%0,                      James M.%Blum%NULL%0,                      Chad%Robichaux%NULL%1,                      Colleen%Kraft%NULL%1,                      Jesse T.%Jacob%NULL%1,                      Craig S.%Jabaley%NULL%0,                      David%Carpenter%NULL%1,                      Roberta%Kaplow%NULL%1,                      Alfonso C.%Hernandez-Romieu%NULL%0,                      Max W.%Adelman%NULL%0,                      Greg S.%Martin%NULL%0,                      Craig M.%Coopersmith%NULL%1,                      David J.%Murphy%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,              Seunghee%Kim-Schulze%null%1,              Hsin-Hui%Huang%null%1,              Noam D.%Beckmann%null%1,              Sharon%Nirenberg%null%1,              Bo%Wang%null%1,              Yonit%Lavin%null%1,              Talia H.%Swartz%null%1,              Deepu%Madduri%null%1,              Aryeh%Stock%null%1,              Thomas U.%Marron%null%1,              Hui%Xie%null%1,              Manishkumar%Patel%null%1,              Kevin%Tuballes%null%1,              Oliver%Oekelen%null%1,              Adeeb%Rahman%null%1,              Patricia%Kovatch%null%1,              Judith A.%Aberg%null%1,              Eric%Schadt%null%1,              Sundar%Jagannath%null%1,              Madhu%Mazumdar%null%1,              Alexander W.%Charney%null%1,              Adolfo%Firpo-Betancourt%null%1,              Damodara Rao%Mendu%null%1,              Jeffrey%Jhang%null%1,              David%Reich%null%1,              Keith%Sigel%null%1,              Carlos%Cordon-Cardo%null%1,              Marc%Feldmann%null%1,              Samir%Parekh%null%1,              Miriam%Merad%null%1,              Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                      David R.%Jenkins%NULL%1,                      Jatinder S.%Minhas%NULL%1,                      Laura J.%Gray%NULL%1,                      Julian%Tang%NULL%1,                      Caroline%Williams%NULL%1,                      Shirley%Sze%NULL%1,                      Daniel%Pan%NULL%1,                      William%Jones%NULL%1,                      Raman%Verma%NULL%1,                      Scott%Knapp%NULL%1,                      Rupert%Major%NULL%1,                      Melanie%Davies%NULL%1,                      Nigel%Brunskill%NULL%1,                      Martin%Wiselka%NULL%1,                      Chris%Brightling%NULL%1,                      Kamlesh%Khunti%NULL%1,                      Pranab%Haldar%NULL%1,                      Manish%Pareek%mp426@le.ac.uk%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                      Kelly E%Hathorn%NULL%2,                      Kelly E%Hathorn%NULL%0,                      Walker D%Redd%NULL%1,                      Nicolette J%Rodriguez%NULL%1,                      Joyce C%Zhou%NULL%1,                      Ahmad Najdat%Bazarbashi%NULL%1,                      Cheikh%Njie%NULL%1,                      Danny%Wong%NULL%1,                      Quoc-Dien%Trinh%NULL%1,                      Lin%Shen%NULL%1,                      Valerie E%Stone%NULL%2,                      Valerie E%Stone%NULL%0,                      Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                       S.% Apewokin%null%1,                       A. A.% Wells%null%1,                       A. L. % Morrow%null%1,     A.%Mendy%null%1,     S.% Apewokin%null%1,     A. A.% Wells%null%1,     A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                      Thomas E.%Webb%NULL%2,                      Thomas E.%Webb%NULL%0,                      Benjamin C.%Mcloughlin%NULL%2,                      Benjamin C.%Mcloughlin%NULL%0,                      Imran%Mannan%NULL%2,                      Imran%Mannan%NULL%0,                      Arshad%Rather%NULL%2,                      Arshad%Rather%NULL%0,                      Paul%Knopp%NULL%1,                      Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                      Rajat%Suri%NULL%2,                      Rajat%Suri%NULL%0,                      Iheanacho O.%Emeruwa%NULL%2,                      Iheanacho O.%Emeruwa%NULL%0,                      Robert J.%Stretch%NULL%1,                      Roxana Y.%Cortes-Lopez%NULL%2,                      Roxana Y.%Cortes-Lopez%NULL%0,                      Alexander%Sherman%NULL%1,                      Catherine C.%Lindsay%NULL%1,                      Jennifer A.%Fulcher%NULL%1,                      David%Goodman-Meza%NULL%2,                      David%Goodman-Meza%NULL%0,                      Anil%Sapru%NULL%2,                      Anil%Sapru%NULL%0,                      Russell G.%Buhr%NULL%1,                      Steven Y.%Chang%NULL%2,                      Steven Y.%Chang%NULL%0,                      Tisha%Wang%NULL%1,                      Nida%Qadir%NULL%1,                      Giordano%Madeddu%NULL%8,                      Giordano%Madeddu%NULL%0,                      Giordano%Madeddu%NULL%0,                      Ana C.%Monteiro%NULL%2,                      Ana C.%Monteiro%NULL%0,                      Giordano%Madeddu%NULL%0,                      Giordano%Madeddu%NULL%0,                      Giordano%Madeddu%NULL%0,                      Giordano%Madeddu%NULL%0,                      Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                       D.% Stefanov%null%1,                       A. S.% Chau%null%1,                       A. G.% Weber%null%1,                       G. S.% Marder%null%1,                       B.% Kaplan%null%1,                       P.% Malhotra%null%1,                       O.% Bloom%null%1,                       A.% Liu%null%1,                       M.% Lesser%null%1,                       N. % Hajizadeh%null%1,     S.%Narain%null%1,     D.% Stefanov%null%1,     A. S.% Chau%null%1,     A. G.% Weber%null%1,     G. S.% Marder%null%1,     B.% Kaplan%null%1,     P.% Malhotra%null%1,     O.% Bloom%null%1,     A.% Liu%null%1,     M.% Lesser%null%1,     N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                      Catherine A.%O’Donnell%NULL%2,                      Bhautesh Dinesh%Jani%NULL%1,                      Evangelia%Demou%NULL%1,                      Frederick K.%Ho%NULL%1,                      Carlos%Celis-Morales%NULL%1,                      Barbara I.%Nicholl%NULL%1,                      Frances S.%Mair%NULL%2,                      Paul%Welsh%NULL%2,                      Naveed%Sattar%NULL%2,                      Jill P.%Pell%NULL%2,                      S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                      Alex J%Walker%NULL%1,                      Krishnan%Bhaskaran%NULL%1,                      Seb%Bacon%NULL%1,                      Chris%Bates%NULL%1,                      Caroline E%Morton%NULL%1,                      Helen J%Curtis%NULL%1,                      Amir%Mehrkar%NULL%1,                      David%Evans%NULL%1,                      Peter%Inglesby%NULL%1,                      Jonathan%Cockburn%NULL%1,                      Helen I%McDonald%NULL%1,                      Brian%MacKenna%NULL%1,                      Laurie%Tomlinson%NULL%1,                      Ian J%Douglas%NULL%1,                      Christopher T%Rentsch%NULL%1,                      Rohini%Mathur%NULL%1,                      Angel YS%Wong%NULL%1,                      Richard%Grieve%NULL%1,                      David%Harrison%NULL%1,                      Harriet%Forbes%NULL%1,                      Anna%Schultze%NULL%2,                      Richard%Croker%NULL%1,                      John%Parry%NULL%1,                      Frank%Hester%NULL%1,                      Sam%Harper%NULL%1,                      Rafael%Perera%NULL%1,                      Stephen JW%Evans%NULL%1,                      Liam%Smeeth%NULL%1,                      Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                      Ajay%Bhasin%NULL%1,                      Joseph M.%Feinglass%NULL%1,                      Michael P.%Angarone%NULL%1,                      Elaine R.%Cohen%NULL%1,                      Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                      Andrew%Gangemi%NULL%1,                      Robert%Marron%NULL%1,                      Junad%Chowdhury%NULL%1,                      Ibraheem%Yousef%NULL%1,                      Matthew%Zheng%NULL%1,                      Nicole%Mills%NULL%1,                      Lauren%Tragesser%NULL%1,                      Julie%Giurintano%NULL%1,                      Rohit%Gupta%NULL%0,                      Matthew%Gordon%NULL%0,                      Parth%Rali%NULL%2,                      Parth%Rali%NULL%0,                      Gilbert%D'Alonso%NULL%1,                      David%Fleece%NULL%1,                      Huaqing%Zhao%NULL%0,                      Nicole%Patlakh%NULL%0,                      Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                      Nathan C.%Skorodin%nskorodin@midcusa.com%1,                      Nicholas W.%Van Hise%NULL%1,                      Robert M.%Fliegelman%NULL%1,                      Jonathan%Pinsky%NULL%1,                      Vishal%Didwania%NULL%1,                      Michael%Anderson%NULL%1,                      Melina%Diaz%NULL%1,                      Kairav%Shah%NULL%1,                      Vishnu V.%Chundi%NULL%1,                      David W.%Hines%NULL%1,                      Brian P.%Harting%NULL%1,                      Kamo%Sidwha%NULL%1,                      Brian%Yu%NULL%1,                      Paul%Brune%NULL%1,                      Anjum%Owaisi%NULL%1,                      David%Beezhold%NULL%1,                      Joseph%Kent%NULL%1,                      Dana%Vais%NULL%1,                      Alice%Han%NULL%1,                      Neethi%Gowda%NULL%1,                      Nishi%Sahgal%NULL%1,                      Jan%Silverman%NULL%1,                      Jonathan%Stake%NULL%1,                      Jenie%Nepomuceno%NULL%1,                      Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                      Anna%Daunt%NULL%2,                      Anna%Daunt%NULL%0,                      Sujit%Mukherjee%NULL%1,                      Peter%Crook%NULL%1,                      Roberta%Forlano%NULL%1,                      Mara D%Kont%NULL%1,                      Alessandra%Løchen%NULL%1,                      Michaela%Vollmer%NULL%1,                      Paul%Middleton%NULL%1,                      Rebekah%Judge%NULL%1,                      Christopher%Harlow%NULL%1,                      Anet%Soubieres%NULL%1,                      Graham%Cooke%NULL%1,                      Peter J%White%NULL%1,                      Timothy B%Hallett%NULL%1,                      Paul%Aylin%NULL%1,                      Neil%Ferguson%NULL%1,                      Katharina%Hauck%NULL%1,                      Mark R%Thursz%NULL%1,                      Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                      Jeffrey%Burton%NULL%2,                      Jeffrey%Burton%NULL%0,                      Daniel%Fort%NULL%1,                      Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                      Michael S.%Sherman%NULL%1,                      Naaz%Fatteh%NULL%1,                      Fabio%Vogel%NULL%1,                      Jamie%Sacks%NULL%1,                      Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                       P.% Mannam%null%1,                       R.% Comer%null%1,                       E.% Sinclair%null%1,                       D. B.% McQuaid%null%1,                       M. L. % Schmidt%null%1,     M.%Ramaswamy%null%1,     P.% Mannam%null%1,     R.% Comer%null%1,     E.% Sinclair%null%1,     D. B.% McQuaid%null%1,     M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                      Farah%Kidwai-Khan%NULL%1,                      Janet P.%Tate%NULL%1,                      Lesley S.%Park%NULL%1,                      Joseph T.%King%NULL%1,                      Melissa%Skanderson%NULL%1,                      Ronald G.%Hauser%NULL%1,                      Anna%Schultze%NULL%0,                      Christopher I.%Jarvis%NULL%1,                      Mark%Holodniy%NULL%1,                      Vincent Lo%Re%NULL%1,                      Kathleen M.%Akgün%NULL%1,                      Kristina%Crothers%NULL%1,                      Tamar H.%Taddei%NULL%1,                      Matthew S.%Freiberg%NULL%1,                      Amy C.%Justice%NULL%1,                       C. T.%Rentsch%null%1,                       F.% Kidwai-Khan%null%1,                       J. P.% Tate%null%1,                       L. S.% Park%null%1,                       J. T.% King%null%1,                       M.% Skanderson%null%1,                       R. G.% Hauser%null%1,                       A.% Schultze%null%1,                       C. I.% Jarvis%null%1,                       M.% Holodniy%null%1,                       V.% Lo Re%null%1,                       K. M.% Akgun%null%1,                       K.% Crothers%null%1,                       T. H.% Taddei%null%1,                       M. S.% Freiberg%null%1,                       A. C. % Justice%null%1,                      C. T.%Rentsch%null%1,                      F.% Kidwai-Khan%null%1,                      J. P.% Tate%null%1,                      L. S.% Park%null%1,                      J. T.% King%null%1,                      M.% Skanderson%null%1,                      R. G.% Hauser%null%1,                      A.% Schultze%null%1,                      C. I.% Jarvis%null%1,                      M.% Holodniy%null%1,                      V.% Lo Re%null%1,                      K. M.% Akgun%null%1,                      K.% Crothers%null%1,                      T. H.% Taddei%null%1,                      M. S.% Freiberg%null%1,                      A. C. % Justice%null%1,     C. T.%Rentsch%null%1,     F.% Kidwai-Khan%null%1,     J. P.% Tate%null%1,     L. S.% Park%null%1,     J. T.% King%null%1,     M.% Skanderson%null%1,     R. G.% Hauser%null%1,     A.% Schultze%null%1,     C. I.% Jarvis%null%1,     M.% Holodniy%null%1,     V.% Lo Re%null%1,     K. M.% Akgun%null%1,     K.% Crothers%null%1,     T. H.% Taddei%null%1,     M. S.% Freiberg%null%1,     A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                      Jennifer%Beam%NULL%2,                      Jennifer%Beam%NULL%0,                      Haley%Maier%NULL%1,                      Whitney%Haggerson%NULL%1,                      Karen%Boudreau%NULL%1,                      Jamie%Carlson%NULL%1,                      Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                      Alexander E.%Ayala%NULL%1,                      Chideraa C.%Ukeje%NULL%1,                      Celeste S.%Witting%NULL%1,                      William A.%Grobman%NULL%1,                      Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                      Hannah C.%Jarvis%NULL%2,                      Hannah C.%Jarvis%NULL%0,                      Ezgi%Ozcan%NULL%1,                      Thomas L. P.%Burns%NULL%1,                      Rabia A.%Warraich%NULL%1,                      Lisa J.%Amani%NULL%1,                      Amina%Jaffer%NULL%1,                      Stephanie%Paget%NULL%1,                      Anand%Sivaramakrishnan%NULL%1,                      Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                      Suzy%Gallier%NULL%2,                      Suzy%Gallier%NULL%0,                      Chris%Mainey%NULL%1,                      Peter%Nightingale%NULL%2,                      Peter%Nightingale%NULL%0,                      David%McNulty%NULL%1,                      Hannah%Crothers%NULL%1,                      Felicity%Evison%NULL%1,                      Katharine%Reeves%NULL%1,                      Domenico%Pagano%NULL%1,                      Alastair K%Denniston%NULL%1,                      Krishnarajah%Nirantharakumar%NULL%1,                      Peter%Diggle%NULL%1,                      Simon%Ball%NULL%1,                      Lylah%Irshad%NULL%1,                      Maxim%Harris%NULL%1,                      Theodore%Nabav%NULL%1,                      A%Kolesnyk%NULL%1,                      M%Ahmed%NULL%1,                      A%Liaqat%NULL%1,                      Tanya%Pankhurst%NULL%1,                      Jamie%Coleman%NULL%1,                      Chirag%Dave%NULL%1,                      Khaled%ElFandi%NULL%1,                      Rifat%Rashid%NULL%1,                      Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                      Gregory A%Eschenauer%NULL%2,                      Gregory A%Eschenauer%NULL%0,                      Jonathan P%Troost%NULL%1,                      Jonathan L%Golob%NULL%1,                      Tejal N%Gandhi%NULL%1,                      Lu%Wang%NULL%1,                      Nina%Zhou%NULL%1,                      Lindsay A%Petty%NULL%1,                      Ji Hoon%Baang%NULL%1,                      Nicholas O%Dillman%NULL%1,                      David%Frame%NULL%1,                      Kevin S%Gregg%NULL%1,                      Dan R%Kaul%NULL%1,                      Jerod%Nagel%NULL%1,                      Twisha S%Patel%NULL%1,                      Shiwei%Zhou%NULL%1,                      Adam S%Lauring%NULL%1,                      David A%Hanauer%NULL%1,                      Emily%Martin%NULL%1,                      Pratima%Sharma%NULL%1,                      Christopher M%Fung%NULL%1,                      Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                      Lei%Qian%NULL%2,                      Lei%Qian%NULL%0,                      Vennis%Hong%NULL%1,                      Rong%Wei%NULL%2,                      Rong%Wei%NULL%0,                      Ron F.%Nadjafi%NULL%2,                      Ron F.%Nadjafi%NULL%0,                      Heidi%Fischer%NULL%1,                      Zhuoxin%Li%NULL%1,                      Sally F.%Shaw%NULL%1,                      Susan L.%Caparosa%NULL%2,                      Susan L.%Caparosa%NULL%0,                      Claudia L.%Nau%NULL%1,                      Tanmai%Saxena%NULL%1,                      Gunter K.%Rieg%NULL%1,                      Bradley K.%Ackerson%NULL%1,                      Adam L.%Sharp%NULL%2,                      Adam L.%Sharp%NULL%0,                      Jacek%Skarbinski%NULL%2,                      Jacek%Skarbinski%NULL%0,                      Tej K.%Naik%NULL%1,                      Sameer B.%Murali%NULL%2,                      Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                      Juan Carlos%Nicolas%NULL%2,                      Juan Carlos%Nicolas%NULL%0,                      Jennifer R%Meeks%NULL%1,                      Osman%Khan%NULL%1,                      Alan%Pan%NULL%1,                      Stephen L%Jones%NULL%1,                      Faisal%Masud%NULL%1,                      H Dirk%Sostman%NULL%1,                      Robert%Phillips%NULL%1,                      Julia D%Andrieni%NULL%1,                      Bita A%Kash%NULL%1,                      Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                      Arryn%Craney%NULL%1,                      Phyllis%Ruggiero%NULL%1,                      John%Sipley%NULL%1,                      Lin%Cong%NULL%1,                      Erika M.%Hissong%NULL%1,                      Massimo%Loda%NULL%1,                      Lars F.%Westblade%NULL%1,                      Melissa%Cushing%NULL%2,                      Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                       X.% Zhong%null%1,                       Y. % Hurd%null%1,     A.-L.%WANG%null%1,     X.% Zhong%null%1,     Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                      Amanda%Zheutlin%NULL%2,                      Amanda%Zheutlin%NULL%0,                      Yu-Han%Kao%NULL%1,                      Kristin%Ayers%NULL%1,                      Susan%Gross%NULL%1,                      Patricia%Kovatch%NULL%1,                      Sharon%Nirenberg%NULL%1,                      Alexander%Charney%NULL%1,                      Girish%Nadkarni%NULL%1,                      Jessica K%De Freitas%NULL%1,                      Paul%O’Reilly%NULL%1,                      Allan%Just%NULL%1,                      Carol%Horowitz%NULL%1,                      Glenn%Martin%NULL%1,                      Andrea%Branch%NULL%1,                      Benjamin S%Glicksberg%NULL%1,                      Dennis%Charney%NULL%1,                      David%Reich%NULL%1,                      William K%Oh%NULL%1,                      Eric%Schadt%NULL%1,                      Rong%Chen%NULL%0,                      Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                      Angela%Winegar%NULL%1,                      Richard%Fogel%NULL%1,                      Mohamad%Fakih%NULL%1,                      Allison%Ottenbacher%NULL%1,                      Christine%Jesser%NULL%1,                      Angelo%Bufalino%NULL%1,                      Ren-Huai%Huang%NULL%1,                      Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                      Rebecca%Bendayan%NULL%0,                      Mark%Ashworth%NULL%1,                      Daniel M.%Bean%NULL%1,                      Hiten%Dodhia%NULL%1,                      Stevo%Durbaba%NULL%1,                      Kevin%O'Gallagher%NULL%1,                      Claire%Palmer%NULL%1,                      Vasa%Curcin%NULL%1,                      Elizabeth%Aitken%NULL%1,                      William%Bernal%NULL%1,                      Richard D.%Barker%NULL%1,                      Sam%Norton%NULL%1,                      Martin%Gulliford%NULL%1,                      James T.H.%Teo%NULL%0,                      James%Galloway%NULL%1,                      Richard J.B.%Dobson%NULL%0,                      Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                      Carina%Marquez%NULL%1,                      Emily%Crawford%NULL%1,                      James%Peng%NULL%1,                      Maya%Petersen%NULL%1,                      Daniel%Schwab%NULL%1,                      Joshua%Schwab%NULL%1,                      Jackie%Martinez%NULL%1,                      Diane%Jones%NULL%1,                      Douglas%Black%NULL%1,                      Monica%Gandhi%NULL%1,                      Andrew D%Kerkhoff%NULL%1,                      Vivek%Jain%NULL%1,                      Francesco%Sergi%NULL%1,                      Jon%Jacobo%NULL%1,                      Susana%Rojas%NULL%1,                      Valerie%Tulier-Laiwa%NULL%1,                      Tracy%Gallardo-Brown%NULL%1,                      Ayesha%Appa%NULL%1,                      Charles%Chiu%NULL%1,                      Mary%Rodgers%NULL%1,                      John%Hackett%NULL%1,                      NULL%NULL%NULL%0,                      Amy%Kistler%NULL%1,                      Samantha%Hao%NULL%1,                      Jack%Kamm%NULL%1,                      David%Dynerman%NULL%1,                      Joshua%Batson%NULL%1,                      Bryan%Greenhouse%NULL%1,                      Joe%DeRisi%NULL%1,                      Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                      Tiffany%Grimes%NULL%1,                      Peng%Li%NULL%1,                      Matthew%Might%NULL%1,                      Fernando%Ovalle%NULL%1,                      Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                      Natalie%Achamallah%NULL%1,                      Hongwei%Ji%NULL%1,                      Brian L.%Claggett%NULL%1,                      Nancy%Sun%NULL%1,                      Patrick%Botting%NULL%1,                      Trevor-Trung%Nguyen%NULL%1,                      Eric%Luong%NULL%1,                      Elizabeth H.%Kim%NULL%1,                      Eunice%Park%NULL%1,                      Yunxian%Liu%NULL%1,                      Ryan%Rosenberry%NULL%1,                      Yuri%Matusov%NULL%1,                      Steven%Zhao%NULL%1,                      Isabel%Pedraza%NULL%1,                      Tanzira%Zaman%NULL%1,                      Michael%Thompson%NULL%1,                      Koen%Raedschelders%NULL%1,                      Anders H.%Berg%NULL%2,                      Anders H.%Berg%NULL%0,                      Jonathan D.%Grein%NULL%1,                      Paul W.%Noble%NULL%1,                      Sumeet S.%Chugh%NULL%1,                      C. Noel%Bairey Merz%NULL%1,                      Eduardo%Marbán%NULL%1,                      Jennifer E.%Van Eyk%NULL%1,                      Scott D.%Solomon%NULL%1,                      Christine M.%Albert%NULL%1,                      Peter%Chen%NULL%1,                      Susan%Cheng%NULL%3,                      Yu Ru%Kou%NULL%8,                      Yu Ru%Kou%NULL%0,                      Yu Ru%Kou%NULL%0,                      Susan%Cheng%biodatacore@cshs.org%0,                      Susan%Cheng%biodatacore@cshs.org%0,                      Yu Ru%Kou%NULL%0,                      Yu Ru%Kou%NULL%0,                      Yu Ru%Kou%NULL%0,                      Yu Ru%Kou%NULL%0,                      Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                      Penelope%Strid%NULL%1,                      Van T.%Tong%NULL%1,                      Kate%Woodworth%NULL%1,                      Romeo R.%Galang%NULL%1,                      Laura D.%Zambrano%NULL%1,                      John%Nahabedian%NULL%1,                      Kayla%Anderson%NULL%1,                      Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                      Jacob%Fiksel%NULL%2,                      Jacob%Fiksel%NULL%0,                      John%Muschelli%NULL%2,                      John%Muschelli%NULL%0,                      Matthew L.%Robinson%NULL%2,                      Matthew L.%Robinson%NULL%0,                      Masoud%Rouhizadeh%NULL%2,                      Masoud%Rouhizadeh%NULL%0,                      Jamie%Perin%NULL%2,                      Jamie%Perin%NULL%0,                      Grant%Schumock%NULL%2,                      Grant%Schumock%NULL%0,                      Paul%Nagy%NULL%2,                      Paul%Nagy%NULL%0,                      Josh H.%Gray%NULL%2,                      Josh H.%Gray%NULL%0,                      Harsha%Malapati%NULL%2,                      Harsha%Malapati%NULL%0,                      Mariam%Ghobadi-Krueger%NULL%2,                      Mariam%Ghobadi-Krueger%NULL%0,                      Timothy M.%Niessen%NULL%1,                      Bo Soo%Kim%NULL%1,                      Peter M.%Hill%NULL%1,                      M. Shafeeq%Ahmed%NULL%1,                      Eric D.%Dobkin%NULL%1,                      Renee%Blanding%NULL%1,                      Jennifer%Abele%NULL%1,                      Bonnie%Woods%NULL%1,                      Kenneth%Harkness%NULL%1,                      David R.%Thiemann%NULL%1,                      Mary G.%Bowring%NULL%1,                      Aalok B.%Shah%NULL%2,                      Aalok B.%Shah%NULL%0,                      Mei-Cheng%Wang%NULL%1,                      Karen%Bandeen-Roche%NULL%1,                      Antony%Rosen%NULL%1,                      Scott L.%Zeger%NULL%2,                      Scott L.%Zeger%NULL%0,                      Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                      Megan%McCullough%NULL%0,                      Megan%McCullough%NULL%0,                      Michael A.%Fuery%NULL%0,                      Fouad%Chouairi%NULL%0,                      Fouad%Chouairi%NULL%0,                      Craig%Keating%NULL%0,                      Neal G.%Ravindra%NULL%0,                      P. Elliott%Miller%NULL%0,                      Maricar%Malinis%NULL%0,                      Nitu%Kashyap%NULL%0,                      Allen%Hsiao%NULL%0,                      F. Perry%Wilson%NULL%0,                      Jeptha P.%Curtis%NULL%0,                      Matthew%Grant%NULL%0,                      Eric J.%Velazquez%NULL%0,                      Nihar R.%Desai%NULL%0,                      Tariq%Ahmad%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0,                      Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                        R. U.% Shah%null%1,                        M.% Bale%null%1,                        J. B.% Peacock%null%1,                        B.% Berger%null%1,                        A.% Brown%null%1,                        S.% Mann%null%1,                        W.% West%null%1,                        V.% Martin%null%1,                        V.% Fernandez%null%1,                        S.% Grineski%null%1,                        B. J.% Brintz%null%1,                        M. H.% Samore%null%1,                        M. J.% Ferrari%null%1,                        D. T.% Leung%null%1,                        L. T. % Keegan%null%1,      S. M.%Ahmed%null%1,      R. U.% Shah%null%1,      M.% Bale%null%1,      J. B.% Peacock%null%1,      B.% Berger%null%1,      A.% Brown%null%1,      S.% Mann%null%1,      W.% West%null%1,      V.% Martin%null%1,      V.% Fernandez%null%1,      S.% Grineski%null%1,      B. J.% Brintz%null%1,      M. H.% Samore%null%1,      M. J.% Ferrari%null%1,      D. T.% Leung%null%1,      L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                       Samuel L%Bruce%NULL%1,                       Cody L%Slater%NULL%1,                       Jonathan R%Tiao%NULL%1,                       Matthew R%Baldwin%NULL%1,                       R Graham%Barr%NULL%1,                       Bernard P%Chang%NULL%1,                       Katherine H%Chau%NULL%1,                       Justin J%Choi%NULL%1,                       Nicholas%Gavin%NULL%1,                       Parag%Goyal%NULL%1,                       Angela M%Mills%NULL%1,                       Ashmi A%Patel%NULL%1,                       Marie-Laure S%Romney%NULL%1,                       Monika M%Safford%NULL%1,                       Neil W%Schluger%NULL%1,                       Soumitra%Sengupta%NULL%1,                       Magdalena E%Sobieszczyk%NULL%1,                       Jason E%Zucker%NULL%1,                       Paul A%Asadourian%NULL%1,                       Fletcher M%Bell%NULL%1,                       Rebekah%Boyd%NULL%1,                       Matthew F%Cohen%NULL%1,                       MacAlistair I%Colquhoun%NULL%1,                       Lucy A%Colville%NULL%1,                       Joseph H%de Jonge%NULL%1,                       Lyle B%Dershowitz%NULL%1,                       Shirin A%Dey%NULL%1,                       Katherine A%Eiseman%NULL%1,                       Zachary P%Girvin%NULL%1,                       Daniella T%Goni%NULL%1,                       Amro A%Harb%NULL%1,                       Nicholas%Herzik%NULL%1,                       Sarah%Householder%NULL%1,                       Lara E%Karaaslan%NULL%1,                       Heather%Lee%NULL%1,                       Evan%Lieberman%NULL%1,                       Andrew%Ling%NULL%1,                       Ree%Lu%NULL%1,                       Arthur Y%Shou%NULL%1,                       Alexander C%Sisti%NULL%1,                       Zachary E%Snow%NULL%1,                       Colin P%Sperring%NULL%1,                       Yuqing%Xiong%NULL%1,                       Henry W%Zhou%NULL%1,                       Karthik%Natarajan%NULL%1,                       George%Hripcsak%NULL%1,                       Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                       Megan%McCullough%NULL%4,                       Megan%McCullough%NULL%0,                       Michael A.%Fuery%NULL%2,                       Fouad%Chouairi%NULL%4,                       Fouad%Chouairi%NULL%0,                       Craig%Keating%NULL%2,                       Neal G.%Ravindra%NULL%2,                       P. Elliott%Miller%NULL%2,                       Maricar%Malinis%NULL%2,                       Nitu%Kashyap%NULL%2,                       Allen%Hsiao%NULL%2,                       F. Perry%Wilson%NULL%2,                       Jeptha P.%Curtis%NULL%2,                       Matthew%Grant%NULL%2,                       Eric J.%Velazquez%NULL%2,                       Nihar R.%Desai%NULL%2,                       Tariq%Ahmad%NULL%2,                       Chiara%Lazzeri%NULL%18,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                       Karen K.%Wong%NULL%1,                       Christine M.%Szablewski%NULL%1,                       Priti R.%Patel%NULL%1,                       John%Rossow%NULL%1,                       Juliana%da Silva%NULL%1,                       Pavithra%Natarajan%NULL%1,                       Sapna Bamrah%Morris%NULL%1,                       Robyn Neblett%Fanfair%NULL%1,                       Jessica%Rogers-Brown%NULL%1,                       Beau B.%Bruce%NULL%1,                       Sean D.%Browning%NULL%1,                       Alfonso C.%Hernandez-Romieu%NULL%2,                       Nathan W.%Furukawa%NULL%1,                       Mohleen%Kang%NULL%1,                       Mary E.%Evans%NULL%1,                       Nadine%Oosmanally%NULL%1,                       Melissa%Tobin-D’Angelo%NULL%1,                       Cherie%Drenzek%NULL%1,                       David J.%Murphy%NULL%0,                       Julie%Hollberg%NULL%1,                       James M.%Blum%NULL%0,                       Robert%Jansen%NULL%1,                       David W.%Wright%NULL%1,                       William M.%Sewell%NULL%1,                       Jack D.%Owens%NULL%1,                       Benjamin%Lefkove%NULL%1,                       Frank W.%Brown%NULL%1,                       Deron C.%Burton%NULL%1,                       Timothy M.%Uyeki%NULL%3,                       Stephanie R.%Bialek%NULL%1,                       Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                       Jasmine A.%Mack%NULL%1,                       Maxwell%Salvatore%NULL%1,                       Swaraaj Prabhu%Sankar%NULL%1,                       Thomas S.%Valley%NULL%1,                       Karandeep%Singh%NULL%1,                       Brahmajee K.%Nallamothu%NULL%1,                       Sachin%Kheterpal%NULL%1,                       Lynda%Lisabeth%NULL%1,                       Lars G.%Fritsche%NULL%1,                       Bhramar%Mukherjee%NULL%1,                        T.%Gu%null%1,                        J. A.% Mack%null%1,                        M.% Salvatore%null%1,                        S. P.% Sankar%null%1,                        T. S.% Valley%null%1,                        K.% Singh%null%1,                        B. K.% Nallamothu%null%1,                        S.% Kheterpal%null%1,                        L.% Lisabeth%null%1,                        L. G.% Fritsche%null%1,                        B. G. % Mukherjee%null%1,                       T.%Gu%null%1,                       J. A.% Mack%null%1,                       M.% Salvatore%null%1,                       S. P.% Sankar%null%1,                       T. S.% Valley%null%1,                       K.% Singh%null%1,                       B. K.% Nallamothu%null%1,                       S.% Kheterpal%null%1,                       L.% Lisabeth%null%1,                       L. G.% Fritsche%null%1,                       B. G. % Mukherjee%null%1,      T.%Gu%null%1,      J. A.% Mack%null%1,      M.% Salvatore%null%1,      S. P.% Sankar%null%1,      T. S.% Valley%null%1,      K.% Singh%null%1,      B. K.% Nallamothu%null%1,      S.% Kheterpal%null%1,      L.% Lisabeth%null%1,      L. G.% Fritsche%null%1,      B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                        S.% Nirenberg%null%1,                        P.% Kovatch%null%1,                        K.-l. % Huang%null%1,      T.%Jun%null%1,      S.% Nirenberg%null%1,      P.% Kovatch%null%2,      K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                       Shikha%Garg%NULL%1,                       Alissa%O’Halloran%NULL%1,                       Michael%Whitaker%NULL%1,                       Huong%Pham%NULL%1,                       Evan J%Anderson%NULL%1,                       Isaac%Armistead%NULL%1,                       Nancy M%Bennett%NULL%1,                       Laurie%Billing%NULL%1,                       Kathryn%Como-Sabetti%NULL%1,                       Mary%Hill%NULL%1,                       Sue%Kim%NULL%1,                       Maya L%Monroe%NULL%1,                       Alison%Muse%NULL%1,                       Arthur L%Reingold%NULL%1,                       William%Schaffner%NULL%1,                       Melissa%Sutton%NULL%1,                       H Keipp%Talbot%NULL%1,                       Salina M%Torres%NULL%1,                       Kimberly%Yousey-Hindes%NULL%1,                       Rachel%Holstein%NULL%1,                       Charisse%Cummings%NULL%1,                       Lynette%Brammer%NULL%1,                       Aron J%Hall%NULL%1,                       Alicia M%Fry%NULL%1,                       Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                        S.% Richardson%null%1,                        K.% Coppa%null%1,                        D. P.% Barnaby%null%1,                        T.% McGinn%null%1,                        L. B.% Becker%null%1,                        K. W.% Davidson%null%1,                        S. L.% Cohen%null%1,                        J. S.% Hirsch%null%1,                        T.% Zanos%null%1,                          % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1,      T. J.%Levy%null%1,      S.% Richardson%null%1,      K.% Coppa%null%1,      D. P.% Barnaby%null%1,      T.% McGinn%null%1,      L. B.% Becker%null%1,      K. W.% Davidson%null%1,      S. L.% Cohen%null%1,      J. S.% Hirsch%null%1,      T.% Zanos%null%1,        % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                        L. H.% Nguyen%null%1,                        D. A.% Drew%null%1,                        M. S.% Graham%null%1,                        E. T.% Warner%null%1,                        A. D.% Joshi%null%1,                        C. M.% Astley%null%1,                        C.-G.% Guo%null%1,                        W.% Ma%null%1,                        R. S.% Mehta%null%1,                        S.% Kwon%null%1,                        M.% Song%null%1,                        R.% Davies%null%1,                        J.% Capdevila%null%1,                        K. A.% Lee%null%1,                        M. N.% Lochlainn%null%1,                        T.% Varsavsky%null%1,                        C. H.% Sudre%null%1,                        J.% Wolf%null%1,                        Y. C.% Cozier%null%1,                        L.% Rosenberg%null%1,                        L. R.% Wilkens%null%1,                        C. A.% Haiman%null%1,                        L. L.% Marchand%null%1,                        J. R.% Palmer%null%1,                        T. D.% Spector%null%1,                        S.% Ourselin%null%1,                        C. J.% Steves%null%1,                        A. T.% Chan%null%1,                          % COPE Consortium%null%1,      C.-H.%Lo%null%1,      L. H.% Nguyen%null%1,      D. A.% Drew%null%1,      M. S.% Graham%null%1,      E. T.% Warner%null%1,      A. D.% Joshi%null%1,      C. M.% Astley%null%1,      C.-G.% Guo%null%1,      W.% Ma%null%1,      R. S.% Mehta%null%1,      S.% Kwon%null%1,      M.% Song%null%1,      R.% Davies%null%1,      J.% Capdevila%null%1,      K. A.% Lee%null%1,      M. N.% Lochlainn%null%1,      T.% Varsavsky%null%1,      C. H.% Sudre%null%1,      J.% Wolf%null%1,      Y. C.% Cozier%null%1,      L.% Rosenberg%null%1,      L. R.% Wilkens%null%1,      C. A.% Haiman%null%1,      L. L.% Marchand%null%1,      J. R.% Palmer%null%1,      T. D.% Spector%null%1,      S.% Ourselin%null%1,      C. J.% Steves%null%1,      A. T.% Chan%null%1,        % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                       Jienchi%Dorward%NULL%1,                       Ana%Correa%NULL%1,                       Nicholas%Jones%NULL%1,                       Oluwafunmi%Akinyemi%NULL%1,                       Gayatri%Amirthalingam%NULL%1,                       Nick%Andrews%NULL%1,                       Rachel%Byford%NULL%1,                       Gavin%Dabrera%NULL%1,                       Alex%Elliot%NULL%1,                       Joanna%Ellis%NULL%0,                       Filipa%Ferreira%NULL%1,                       Jamie%Lopez Bernal%NULL%1,                       Cecilia%Okusi%NULL%1,                       Mary%Ramsay%NULL%1,                       Julian%Sherlock%NULL%1,                       Gillian%Smith%NULL%1,                       John%Williams%NULL%1,                       Gary%Howsam%NULL%1,                       Maria%Zambon%NULL%0,                       Mark%Joy%NULL%1,                       F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                       Johanna%Dolle%NULL%2,                       Johanna%Dolle%NULL%0,                       Sheila%Grami%NULL%1,                       Richard%Adule%NULL%1,                       Zeyu%Li%NULL%1,                       Kathleen%Tatem%NULL%1,                       Chinyere%Anyaogu%NULL%1,                       Stephen%Apfelroth%NULL%1,                       Raji%Ayinla%NULL%2,                       Raji%Ayinla%NULL%0,                       Noella%Boma%NULL%1,                       Terence%Brady%NULL%1,                       Braulio F.%Cosme-Thormann%NULL%1,                       Roseann%Costarella%NULL%1,                       Kenra%Ford%NULL%1,                       Kecia%Gaither%NULL%1,                       Jessica%Jacobson%NULL%1,                       Marc%Kanter%NULL%1,                       Stuart%Kessler%NULL%1,                       Ross B.%Kristal%NULL%1,                       Joseph J.%Lieber%NULL%1,                       Vikramjit%Mukherjee%NULL%1,                       Vincent%Rizzo%NULL%1,                       Madden%Rowell%NULL%1,                       David%Stevens%NULL%1,                       Elana%Sydney%NULL%1,                       Andrew%Wallach%NULL%2,                       Andrew%Wallach%NULL%0,                       Dave A.%Chokshi%NULL%1,                       Nichola%Davis%NULL%1,                       NULL%NULL%NULL%0,                       Sze Yan%Liu%NULL%2,                       Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                       Mark%Caridi-Scheible%NULL%0,                       James M.%Blum%NULL%0,                       Chad%Robichaux%NULL%1,                       Colleen%Kraft%NULL%1,                       Jesse T.%Jacob%NULL%1,                       Craig S.%Jabaley%NULL%0,                       David%Carpenter%NULL%1,                       Roberta%Kaplow%NULL%1,                       Alfonso C.%Hernandez-Romieu%NULL%0,                       Max W.%Adelman%NULL%0,                       Greg S.%Martin%NULL%0,                       Craig M.%Coopersmith%NULL%1,                       David J.%Murphy%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,               Seunghee%Kim-Schulze%null%1,               Hsin-Hui%Huang%null%1,               Noam D.%Beckmann%null%1,               Sharon%Nirenberg%null%1,               Bo%Wang%null%1,               Yonit%Lavin%null%1,               Talia H.%Swartz%null%1,               Deepu%Madduri%null%1,               Aryeh%Stock%null%1,               Thomas U.%Marron%null%1,               Hui%Xie%null%1,               Manishkumar%Patel%null%1,               Kevin%Tuballes%null%1,               Oliver%Oekelen%null%1,               Adeeb%Rahman%null%1,               Patricia%Kovatch%null%1,               Judith A.%Aberg%null%1,               Eric%Schadt%null%1,               Sundar%Jagannath%null%1,               Madhu%Mazumdar%null%1,               Alexander W.%Charney%null%1,               Adolfo%Firpo-Betancourt%null%1,               Damodara Rao%Mendu%null%1,               Jeffrey%Jhang%null%1,               David%Reich%null%1,               Keith%Sigel%null%1,               Carlos%Cordon-Cardo%null%1,               Marc%Feldmann%null%1,               Samir%Parekh%null%1,               Miriam%Merad%null%1,               Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                       David R.%Jenkins%NULL%1,                       Jatinder S.%Minhas%NULL%1,                       Laura J.%Gray%NULL%1,                       Julian%Tang%NULL%1,                       Caroline%Williams%NULL%1,                       Shirley%Sze%NULL%1,                       Daniel%Pan%NULL%1,                       William%Jones%NULL%1,                       Raman%Verma%NULL%1,                       Scott%Knapp%NULL%1,                       Rupert%Major%NULL%1,                       Melanie%Davies%NULL%1,                       Nigel%Brunskill%NULL%1,                       Martin%Wiselka%NULL%1,                       Chris%Brightling%NULL%1,                       Kamlesh%Khunti%NULL%1,                       Pranab%Haldar%NULL%1,                       Manish%Pareek%mp426@le.ac.uk%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                       Kelly E%Hathorn%NULL%2,                       Kelly E%Hathorn%NULL%0,                       Walker D%Redd%NULL%1,                       Nicolette J%Rodriguez%NULL%1,                       Joyce C%Zhou%NULL%1,                       Ahmad Najdat%Bazarbashi%NULL%1,                       Cheikh%Njie%NULL%1,                       Danny%Wong%NULL%1,                       Quoc-Dien%Trinh%NULL%1,                       Lin%Shen%NULL%1,                       Valerie E%Stone%NULL%2,                       Valerie E%Stone%NULL%0,                       Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                        S.% Apewokin%null%1,                        A. A.% Wells%null%1,                        A. L. % Morrow%null%1,      A.%Mendy%null%1,      S.% Apewokin%null%1,      A. A.% Wells%null%1,      A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                       Thomas E.%Webb%NULL%2,                       Thomas E.%Webb%NULL%0,                       Benjamin C.%Mcloughlin%NULL%2,                       Benjamin C.%Mcloughlin%NULL%0,                       Imran%Mannan%NULL%2,                       Imran%Mannan%NULL%0,                       Arshad%Rather%NULL%2,                       Arshad%Rather%NULL%0,                       Paul%Knopp%NULL%1,                       Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                       Rajat%Suri%NULL%2,                       Rajat%Suri%NULL%0,                       Iheanacho O.%Emeruwa%NULL%2,                       Iheanacho O.%Emeruwa%NULL%0,                       Robert J.%Stretch%NULL%1,                       Roxana Y.%Cortes-Lopez%NULL%2,                       Roxana Y.%Cortes-Lopez%NULL%0,                       Alexander%Sherman%NULL%1,                       Catherine C.%Lindsay%NULL%1,                       Jennifer A.%Fulcher%NULL%1,                       David%Goodman-Meza%NULL%2,                       David%Goodman-Meza%NULL%0,                       Anil%Sapru%NULL%2,                       Anil%Sapru%NULL%0,                       Russell G.%Buhr%NULL%1,                       Steven Y.%Chang%NULL%2,                       Steven Y.%Chang%NULL%0,                       Tisha%Wang%NULL%1,                       Nida%Qadir%NULL%1,                       Giordano%Madeddu%NULL%8,                       Giordano%Madeddu%NULL%0,                       Giordano%Madeddu%NULL%0,                       Ana C.%Monteiro%NULL%2,                       Ana C.%Monteiro%NULL%0,                       Giordano%Madeddu%NULL%0,                       Giordano%Madeddu%NULL%0,                       Giordano%Madeddu%NULL%0,                       Giordano%Madeddu%NULL%0,                       Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                        D.% Stefanov%null%1,                        A. S.% Chau%null%1,                        A. G.% Weber%null%1,                        G. S.% Marder%null%1,                        B.% Kaplan%null%1,                        P.% Malhotra%null%1,                        O.% Bloom%null%1,                        A.% Liu%null%1,                        M.% Lesser%null%1,                        N. % Hajizadeh%null%1,      S.%Narain%null%1,      D.% Stefanov%null%1,      A. S.% Chau%null%1,      A. G.% Weber%null%1,      G. S.% Marder%null%1,      B.% Kaplan%null%1,      P.% Malhotra%null%1,      O.% Bloom%null%1,      A.% Liu%null%1,      M.% Lesser%null%1,      N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                       Catherine A.%O’Donnell%NULL%2,                       Bhautesh Dinesh%Jani%NULL%1,                       Evangelia%Demou%NULL%1,                       Frederick K.%Ho%NULL%1,                       Carlos%Celis-Morales%NULL%1,                       Barbara I.%Nicholl%NULL%1,                       Frances S.%Mair%NULL%2,                       Paul%Welsh%NULL%2,                       Naveed%Sattar%NULL%2,                       Jill P.%Pell%NULL%2,                       S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                       Alex J%Walker%NULL%1,                       Krishnan%Bhaskaran%NULL%1,                       Seb%Bacon%NULL%1,                       Chris%Bates%NULL%1,                       Caroline E%Morton%NULL%1,                       Helen J%Curtis%NULL%1,                       Amir%Mehrkar%NULL%1,                       David%Evans%NULL%1,                       Peter%Inglesby%NULL%1,                       Jonathan%Cockburn%NULL%1,                       Helen I%McDonald%NULL%1,                       Brian%MacKenna%NULL%1,                       Laurie%Tomlinson%NULL%1,                       Ian J%Douglas%NULL%1,                       Christopher T%Rentsch%NULL%1,                       Rohini%Mathur%NULL%1,                       Angel YS%Wong%NULL%1,                       Richard%Grieve%NULL%1,                       David%Harrison%NULL%1,                       Harriet%Forbes%NULL%1,                       Anna%Schultze%NULL%2,                       Richard%Croker%NULL%1,                       John%Parry%NULL%1,                       Frank%Hester%NULL%1,                       Sam%Harper%NULL%1,                       Rafael%Perera%NULL%1,                       Stephen JW%Evans%NULL%1,                       Liam%Smeeth%NULL%1,                       Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                       Ajay%Bhasin%NULL%1,                       Joseph M.%Feinglass%NULL%1,                       Michael P.%Angarone%NULL%1,                       Elaine R.%Cohen%NULL%1,                       Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                       Andrew%Gangemi%NULL%1,                       Robert%Marron%NULL%1,                       Junad%Chowdhury%NULL%1,                       Ibraheem%Yousef%NULL%1,                       Matthew%Zheng%NULL%1,                       Nicole%Mills%NULL%1,                       Lauren%Tragesser%NULL%1,                       Julie%Giurintano%NULL%1,                       Rohit%Gupta%NULL%0,                       Matthew%Gordon%NULL%0,                       Parth%Rali%NULL%2,                       Parth%Rali%NULL%0,                       Gilbert%D'Alonso%NULL%1,                       David%Fleece%NULL%1,                       Huaqing%Zhao%NULL%0,                       Nicole%Patlakh%NULL%0,                       Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                       Nathan C.%Skorodin%nskorodin@midcusa.com%1,                       Nicholas W.%Van Hise%NULL%1,                       Robert M.%Fliegelman%NULL%1,                       Jonathan%Pinsky%NULL%1,                       Vishal%Didwania%NULL%1,                       Michael%Anderson%NULL%1,                       Melina%Diaz%NULL%1,                       Kairav%Shah%NULL%1,                       Vishnu V.%Chundi%NULL%1,                       David W.%Hines%NULL%1,                       Brian P.%Harting%NULL%1,                       Kamo%Sidwha%NULL%1,                       Brian%Yu%NULL%1,                       Paul%Brune%NULL%1,                       Anjum%Owaisi%NULL%1,                       David%Beezhold%NULL%1,                       Joseph%Kent%NULL%1,                       Dana%Vais%NULL%1,                       Alice%Han%NULL%1,                       Neethi%Gowda%NULL%1,                       Nishi%Sahgal%NULL%1,                       Jan%Silverman%NULL%1,                       Jonathan%Stake%NULL%1,                       Jenie%Nepomuceno%NULL%1,                       Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                       Anna%Daunt%NULL%2,                       Anna%Daunt%NULL%0,                       Sujit%Mukherjee%NULL%1,                       Peter%Crook%NULL%1,                       Roberta%Forlano%NULL%1,                       Mara D%Kont%NULL%1,                       Alessandra%Løchen%NULL%1,                       Michaela%Vollmer%NULL%1,                       Paul%Middleton%NULL%1,                       Rebekah%Judge%NULL%1,                       Christopher%Harlow%NULL%1,                       Anet%Soubieres%NULL%1,                       Graham%Cooke%NULL%1,                       Peter J%White%NULL%1,                       Timothy B%Hallett%NULL%1,                       Paul%Aylin%NULL%1,                       Neil%Ferguson%NULL%1,                       Katharina%Hauck%NULL%1,                       Mark R%Thursz%NULL%1,                       Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                       Jeffrey%Burton%NULL%2,                       Jeffrey%Burton%NULL%0,                       Daniel%Fort%NULL%1,                       Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                       Michael S.%Sherman%NULL%1,                       Naaz%Fatteh%NULL%1,                       Fabio%Vogel%NULL%1,                       Jamie%Sacks%NULL%1,                       Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                        P.% Mannam%null%1,                        R.% Comer%null%1,                        E.% Sinclair%null%1,                        D. B.% McQuaid%null%1,                        M. L. % Schmidt%null%1,      M.%Ramaswamy%null%1,      P.% Mannam%null%1,      R.% Comer%null%1,      E.% Sinclair%null%1,      D. B.% McQuaid%null%1,      M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                       Farah%Kidwai-Khan%NULL%1,                       Janet P.%Tate%NULL%1,                       Lesley S.%Park%NULL%1,                       Joseph T.%King%NULL%1,                       Melissa%Skanderson%NULL%1,                       Ronald G.%Hauser%NULL%1,                       Anna%Schultze%NULL%0,                       Christopher I.%Jarvis%NULL%1,                       Mark%Holodniy%NULL%1,                       Vincent Lo%Re%NULL%1,                       Kathleen M.%Akgün%NULL%1,                       Kristina%Crothers%NULL%1,                       Tamar H.%Taddei%NULL%1,                       Matthew S.%Freiberg%NULL%1,                       Amy C.%Justice%NULL%1,                        C. T.%Rentsch%null%1,                        F.% Kidwai-Khan%null%1,                        J. P.% Tate%null%1,                        L. S.% Park%null%1,                        J. T.% King%null%1,                        M.% Skanderson%null%1,                        R. G.% Hauser%null%1,                        A.% Schultze%null%1,                        C. I.% Jarvis%null%1,                        M.% Holodniy%null%1,                        V.% Lo Re%null%1,                        K. M.% Akgun%null%1,                        K.% Crothers%null%1,                        T. H.% Taddei%null%1,                        M. S.% Freiberg%null%1,                        A. C. % Justice%null%1,                       C. T.%Rentsch%null%1,                       F.% Kidwai-Khan%null%1,                       J. P.% Tate%null%1,                       L. S.% Park%null%1,                       J. T.% King%null%1,                       M.% Skanderson%null%1,                       R. G.% Hauser%null%1,                       A.% Schultze%null%1,                       C. I.% Jarvis%null%1,                       M.% Holodniy%null%1,                       V.% Lo Re%null%1,                       K. M.% Akgun%null%1,                       K.% Crothers%null%1,                       T. H.% Taddei%null%1,                       M. S.% Freiberg%null%1,                       A. C. % Justice%null%1,      C. T.%Rentsch%null%1,      F.% Kidwai-Khan%null%1,      J. P.% Tate%null%1,      L. S.% Park%null%1,      J. T.% King%null%1,      M.% Skanderson%null%1,      R. G.% Hauser%null%1,      A.% Schultze%null%1,      C. I.% Jarvis%null%1,      M.% Holodniy%null%1,      V.% Lo Re%null%1,      K. M.% Akgun%null%1,      K.% Crothers%null%1,      T. H.% Taddei%null%1,      M. S.% Freiberg%null%1,      A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                       Jennifer%Beam%NULL%2,                       Jennifer%Beam%NULL%0,                       Haley%Maier%NULL%1,                       Whitney%Haggerson%NULL%1,                       Karen%Boudreau%NULL%1,                       Jamie%Carlson%NULL%1,                       Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                       Alexander E.%Ayala%NULL%1,                       Chideraa C.%Ukeje%NULL%1,                       Celeste S.%Witting%NULL%1,                       William A.%Grobman%NULL%1,                       Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                       Hannah C.%Jarvis%NULL%2,                       Hannah C.%Jarvis%NULL%0,                       Ezgi%Ozcan%NULL%1,                       Thomas L. P.%Burns%NULL%1,                       Rabia A.%Warraich%NULL%1,                       Lisa J.%Amani%NULL%1,                       Amina%Jaffer%NULL%1,                       Stephanie%Paget%NULL%1,                       Anand%Sivaramakrishnan%NULL%1,                       Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                       Suzy%Gallier%NULL%2,                       Suzy%Gallier%NULL%0,                       Chris%Mainey%NULL%1,                       Peter%Nightingale%NULL%2,                       Peter%Nightingale%NULL%0,                       David%McNulty%NULL%1,                       Hannah%Crothers%NULL%1,                       Felicity%Evison%NULL%1,                       Katharine%Reeves%NULL%1,                       Domenico%Pagano%NULL%1,                       Alastair K%Denniston%NULL%1,                       Krishnarajah%Nirantharakumar%NULL%1,                       Peter%Diggle%NULL%1,                       Simon%Ball%NULL%1,                       Lylah%Irshad%NULL%1,                       Maxim%Harris%NULL%1,                       Theodore%Nabav%NULL%1,                       A%Kolesnyk%NULL%1,                       M%Ahmed%NULL%1,                       A%Liaqat%NULL%1,                       Tanya%Pankhurst%NULL%1,                       Jamie%Coleman%NULL%1,                       Chirag%Dave%NULL%1,                       Khaled%ElFandi%NULL%1,                       Rifat%Rashid%NULL%1,                       Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                       Gregory A%Eschenauer%NULL%2,                       Gregory A%Eschenauer%NULL%0,                       Jonathan P%Troost%NULL%1,                       Jonathan L%Golob%NULL%1,                       Tejal N%Gandhi%NULL%1,                       Lu%Wang%NULL%1,                       Nina%Zhou%NULL%1,                       Lindsay A%Petty%NULL%1,                       Ji Hoon%Baang%NULL%1,                       Nicholas O%Dillman%NULL%1,                       David%Frame%NULL%1,                       Kevin S%Gregg%NULL%1,                       Dan R%Kaul%NULL%1,                       Jerod%Nagel%NULL%1,                       Twisha S%Patel%NULL%1,                       Shiwei%Zhou%NULL%1,                       Adam S%Lauring%NULL%1,                       David A%Hanauer%NULL%1,                       Emily%Martin%NULL%1,                       Pratima%Sharma%NULL%1,                       Christopher M%Fung%NULL%1,                       Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                       Lei%Qian%NULL%2,                       Lei%Qian%NULL%0,                       Vennis%Hong%NULL%1,                       Rong%Wei%NULL%2,                       Rong%Wei%NULL%0,                       Ron F.%Nadjafi%NULL%2,                       Ron F.%Nadjafi%NULL%0,                       Heidi%Fischer%NULL%1,                       Zhuoxin%Li%NULL%1,                       Sally F.%Shaw%NULL%1,                       Susan L.%Caparosa%NULL%2,                       Susan L.%Caparosa%NULL%0,                       Claudia L.%Nau%NULL%1,                       Tanmai%Saxena%NULL%1,                       Gunter K.%Rieg%NULL%1,                       Bradley K.%Ackerson%NULL%1,                       Adam L.%Sharp%NULL%2,                       Adam L.%Sharp%NULL%0,                       Jacek%Skarbinski%NULL%2,                       Jacek%Skarbinski%NULL%0,                       Tej K.%Naik%NULL%1,                       Sameer B.%Murali%NULL%2,                       Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                       Juan Carlos%Nicolas%NULL%2,                       Juan Carlos%Nicolas%NULL%0,                       Jennifer R%Meeks%NULL%1,                       Osman%Khan%NULL%1,                       Alan%Pan%NULL%1,                       Stephen L%Jones%NULL%1,                       Faisal%Masud%NULL%1,                       H Dirk%Sostman%NULL%1,                       Robert%Phillips%NULL%1,                       Julia D%Andrieni%NULL%1,                       Bita A%Kash%NULL%1,                       Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                       Arryn%Craney%NULL%1,                       Phyllis%Ruggiero%NULL%1,                       John%Sipley%NULL%1,                       Lin%Cong%NULL%1,                       Erika M.%Hissong%NULL%1,                       Massimo%Loda%NULL%1,                       Lars F.%Westblade%NULL%1,                       Melissa%Cushing%NULL%2,                       Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                        X.% Zhong%null%1,                        Y. % Hurd%null%1,      A.-L.%WANG%null%1,      X.% Zhong%null%1,      Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                       Amanda%Zheutlin%NULL%2,                       Amanda%Zheutlin%NULL%0,                       Yu-Han%Kao%NULL%1,                       Kristin%Ayers%NULL%1,                       Susan%Gross%NULL%1,                       Patricia%Kovatch%NULL%1,                       Sharon%Nirenberg%NULL%1,                       Alexander%Charney%NULL%1,                       Girish%Nadkarni%NULL%1,                       Jessica K%De Freitas%NULL%1,                       Paul%O’Reilly%NULL%1,                       Allan%Just%NULL%1,                       Carol%Horowitz%NULL%1,                       Glenn%Martin%NULL%1,                       Andrea%Branch%NULL%1,                       Benjamin S%Glicksberg%NULL%1,                       Dennis%Charney%NULL%1,                       David%Reich%NULL%1,                       William K%Oh%NULL%1,                       Eric%Schadt%NULL%1,                       Rong%Chen%NULL%0,                       Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                       Angela%Winegar%NULL%1,                       Richard%Fogel%NULL%1,                       Mohamad%Fakih%NULL%1,                       Allison%Ottenbacher%NULL%1,                       Christine%Jesser%NULL%1,                       Angelo%Bufalino%NULL%1,                       Ren-Huai%Huang%NULL%1,                       Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                       Rebecca%Bendayan%NULL%0,                       Mark%Ashworth%NULL%1,                       Daniel M.%Bean%NULL%1,                       Hiten%Dodhia%NULL%1,                       Stevo%Durbaba%NULL%1,                       Kevin%O'Gallagher%NULL%1,                       Claire%Palmer%NULL%1,                       Vasa%Curcin%NULL%1,                       Elizabeth%Aitken%NULL%1,                       William%Bernal%NULL%1,                       Richard D.%Barker%NULL%1,                       Sam%Norton%NULL%1,                       Martin%Gulliford%NULL%1,                       James T.H.%Teo%NULL%0,                       James%Galloway%NULL%1,                       Richard J.B.%Dobson%NULL%0,                       Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                       Carina%Marquez%NULL%1,                       Emily%Crawford%NULL%1,                       James%Peng%NULL%1,                       Maya%Petersen%NULL%1,                       Daniel%Schwab%NULL%1,                       Joshua%Schwab%NULL%1,                       Jackie%Martinez%NULL%1,                       Diane%Jones%NULL%1,                       Douglas%Black%NULL%1,                       Monica%Gandhi%NULL%1,                       Andrew D%Kerkhoff%NULL%1,                       Vivek%Jain%NULL%1,                       Francesco%Sergi%NULL%1,                       Jon%Jacobo%NULL%1,                       Susana%Rojas%NULL%1,                       Valerie%Tulier-Laiwa%NULL%1,                       Tracy%Gallardo-Brown%NULL%1,                       Ayesha%Appa%NULL%1,                       Charles%Chiu%NULL%1,                       Mary%Rodgers%NULL%1,                       John%Hackett%NULL%1,                       NULL%NULL%NULL%0,                       Amy%Kistler%NULL%1,                       Samantha%Hao%NULL%1,                       Jack%Kamm%NULL%1,                       David%Dynerman%NULL%1,                       Joshua%Batson%NULL%1,                       Bryan%Greenhouse%NULL%1,                       Joe%DeRisi%NULL%1,                       Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                       Tiffany%Grimes%NULL%1,                       Peng%Li%NULL%1,                       Matthew%Might%NULL%1,                       Fernando%Ovalle%NULL%1,                       Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                       Natalie%Achamallah%NULL%1,                       Hongwei%Ji%NULL%1,                       Brian L.%Claggett%NULL%1,                       Nancy%Sun%NULL%1,                       Patrick%Botting%NULL%1,                       Trevor-Trung%Nguyen%NULL%1,                       Eric%Luong%NULL%1,                       Elizabeth H.%Kim%NULL%1,                       Eunice%Park%NULL%1,                       Yunxian%Liu%NULL%1,                       Ryan%Rosenberry%NULL%1,                       Yuri%Matusov%NULL%1,                       Steven%Zhao%NULL%1,                       Isabel%Pedraza%NULL%1,                       Tanzira%Zaman%NULL%1,                       Michael%Thompson%NULL%1,                       Koen%Raedschelders%NULL%1,                       Anders H.%Berg%NULL%2,                       Anders H.%Berg%NULL%0,                       Jonathan D.%Grein%NULL%1,                       Paul W.%Noble%NULL%1,                       Sumeet S.%Chugh%NULL%1,                       C. Noel%Bairey Merz%NULL%1,                       Eduardo%Marbán%NULL%1,                       Jennifer E.%Van Eyk%NULL%1,                       Scott D.%Solomon%NULL%1,                       Christine M.%Albert%NULL%1,                       Peter%Chen%NULL%1,                       Susan%Cheng%NULL%3,                       Yu Ru%Kou%NULL%8,                       Yu Ru%Kou%NULL%0,                       Yu Ru%Kou%NULL%0,                       Susan%Cheng%biodatacore@cshs.org%0,                       Susan%Cheng%biodatacore@cshs.org%0,                       Yu Ru%Kou%NULL%0,                       Yu Ru%Kou%NULL%0,                       Yu Ru%Kou%NULL%0,                       Yu Ru%Kou%NULL%0,                       Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                       Penelope%Strid%NULL%1,                       Van T.%Tong%NULL%1,                       Kate%Woodworth%NULL%1,                       Romeo R.%Galang%NULL%1,                       Laura D.%Zambrano%NULL%1,                       John%Nahabedian%NULL%1,                       Kayla%Anderson%NULL%1,                       Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                       Jacob%Fiksel%NULL%2,                       Jacob%Fiksel%NULL%0,                       John%Muschelli%NULL%2,                       John%Muschelli%NULL%0,                       Matthew L.%Robinson%NULL%2,                       Matthew L.%Robinson%NULL%0,                       Masoud%Rouhizadeh%NULL%2,                       Masoud%Rouhizadeh%NULL%0,                       Jamie%Perin%NULL%2,                       Jamie%Perin%NULL%0,                       Grant%Schumock%NULL%2,                       Grant%Schumock%NULL%0,                       Paul%Nagy%NULL%2,                       Paul%Nagy%NULL%0,                       Josh H.%Gray%NULL%2,                       Josh H.%Gray%NULL%0,                       Harsha%Malapati%NULL%2,                       Harsha%Malapati%NULL%0,                       Mariam%Ghobadi-Krueger%NULL%2,                       Mariam%Ghobadi-Krueger%NULL%0,                       Timothy M.%Niessen%NULL%1,                       Bo Soo%Kim%NULL%1,                       Peter M.%Hill%NULL%1,                       M. Shafeeq%Ahmed%NULL%1,                       Eric D.%Dobkin%NULL%1,                       Renee%Blanding%NULL%1,                       Jennifer%Abele%NULL%1,                       Bonnie%Woods%NULL%1,                       Kenneth%Harkness%NULL%1,                       David R.%Thiemann%NULL%1,                       Mary G.%Bowring%NULL%1,                       Aalok B.%Shah%NULL%2,                       Aalok B.%Shah%NULL%0,                       Mei-Cheng%Wang%NULL%1,                       Karen%Bandeen-Roche%NULL%1,                       Antony%Rosen%NULL%1,                       Scott L.%Zeger%NULL%2,                       Scott L.%Zeger%NULL%0,                       Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                       Megan%McCullough%NULL%0,                       Megan%McCullough%NULL%0,                       Michael A.%Fuery%NULL%0,                       Fouad%Chouairi%NULL%0,                       Fouad%Chouairi%NULL%0,                       Craig%Keating%NULL%0,                       Neal G.%Ravindra%NULL%0,                       P. Elliott%Miller%NULL%0,                       Maricar%Malinis%NULL%0,                       Nitu%Kashyap%NULL%0,                       Allen%Hsiao%NULL%0,                       F. Perry%Wilson%NULL%0,                       Jeptha P.%Curtis%NULL%0,                       Matthew%Grant%NULL%0,                       Eric J.%Velazquez%NULL%0,                       Nihar R.%Desai%NULL%0,                       Tariq%Ahmad%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0,                       Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                         R. U.% Shah%null%1,                         M.% Bale%null%1,                         J. B.% Peacock%null%1,                         B.% Berger%null%1,                         A.% Brown%null%1,                         S.% Mann%null%1,                         W.% West%null%1,                         V.% Martin%null%1,                         V.% Fernandez%null%1,                         S.% Grineski%null%1,                         B. J.% Brintz%null%1,                         M. H.% Samore%null%1,                         M. J.% Ferrari%null%1,                         D. T.% Leung%null%1,                         L. T. % Keegan%null%1,       S. M.%Ahmed%null%1,       R. U.% Shah%null%1,       M.% Bale%null%1,       J. B.% Peacock%null%1,       B.% Berger%null%1,       A.% Brown%null%1,       S.% Mann%null%1,       W.% West%null%1,       V.% Martin%null%1,       V.% Fernandez%null%1,       S.% Grineski%null%1,       B. J.% Brintz%null%1,       M. H.% Samore%null%1,       M. J.% Ferrari%null%1,       D. T.% Leung%null%1,       L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                        Samuel L%Bruce%NULL%1,                        Cody L%Slater%NULL%1,                        Jonathan R%Tiao%NULL%1,                        Matthew R%Baldwin%NULL%1,                        R Graham%Barr%NULL%1,                        Bernard P%Chang%NULL%1,                        Katherine H%Chau%NULL%1,                        Justin J%Choi%NULL%1,                        Nicholas%Gavin%NULL%1,                        Parag%Goyal%NULL%1,                        Angela M%Mills%NULL%1,                        Ashmi A%Patel%NULL%1,                        Marie-Laure S%Romney%NULL%1,                        Monika M%Safford%NULL%1,                        Neil W%Schluger%NULL%1,                        Soumitra%Sengupta%NULL%1,                        Magdalena E%Sobieszczyk%NULL%1,                        Jason E%Zucker%NULL%1,                        Paul A%Asadourian%NULL%1,                        Fletcher M%Bell%NULL%1,                        Rebekah%Boyd%NULL%1,                        Matthew F%Cohen%NULL%1,                        MacAlistair I%Colquhoun%NULL%1,                        Lucy A%Colville%NULL%1,                        Joseph H%de Jonge%NULL%1,                        Lyle B%Dershowitz%NULL%1,                        Shirin A%Dey%NULL%1,                        Katherine A%Eiseman%NULL%1,                        Zachary P%Girvin%NULL%1,                        Daniella T%Goni%NULL%1,                        Amro A%Harb%NULL%1,                        Nicholas%Herzik%NULL%1,                        Sarah%Householder%NULL%1,                        Lara E%Karaaslan%NULL%1,                        Heather%Lee%NULL%1,                        Evan%Lieberman%NULL%1,                        Andrew%Ling%NULL%1,                        Ree%Lu%NULL%1,                        Arthur Y%Shou%NULL%1,                        Alexander C%Sisti%NULL%1,                        Zachary E%Snow%NULL%1,                        Colin P%Sperring%NULL%1,                        Yuqing%Xiong%NULL%1,                        Henry W%Zhou%NULL%1,                        Karthik%Natarajan%NULL%1,                        George%Hripcsak%NULL%1,                        Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                        Megan%McCullough%NULL%4,                        Megan%McCullough%NULL%0,                        Michael A.%Fuery%NULL%2,                        Fouad%Chouairi%NULL%4,                        Fouad%Chouairi%NULL%0,                        Craig%Keating%NULL%2,                        Neal G.%Ravindra%NULL%2,                        P. Elliott%Miller%NULL%2,                        Maricar%Malinis%NULL%2,                        Nitu%Kashyap%NULL%2,                        Allen%Hsiao%NULL%2,                        F. Perry%Wilson%NULL%2,                        Jeptha P.%Curtis%NULL%2,                        Matthew%Grant%NULL%2,                        Eric J.%Velazquez%NULL%2,                        Nihar R.%Desai%NULL%2,                        Tariq%Ahmad%NULL%2,                        Chiara%Lazzeri%NULL%18,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                        Karen K.%Wong%NULL%1,                        Christine M.%Szablewski%NULL%1,                        Priti R.%Patel%NULL%1,                        John%Rossow%NULL%1,                        Juliana%da Silva%NULL%1,                        Pavithra%Natarajan%NULL%1,                        Sapna Bamrah%Morris%NULL%1,                        Robyn Neblett%Fanfair%NULL%1,                        Jessica%Rogers-Brown%NULL%1,                        Beau B.%Bruce%NULL%1,                        Sean D.%Browning%NULL%1,                        Alfonso C.%Hernandez-Romieu%NULL%2,                        Nathan W.%Furukawa%NULL%1,                        Mohleen%Kang%NULL%1,                        Mary E.%Evans%NULL%1,                        Nadine%Oosmanally%NULL%1,                        Melissa%Tobin-D’Angelo%NULL%1,                        Cherie%Drenzek%NULL%1,                        David J.%Murphy%NULL%0,                        Julie%Hollberg%NULL%1,                        James M.%Blum%NULL%0,                        Robert%Jansen%NULL%1,                        David W.%Wright%NULL%1,                        William M.%Sewell%NULL%1,                        Jack D.%Owens%NULL%1,                        Benjamin%Lefkove%NULL%1,                        Frank W.%Brown%NULL%1,                        Deron C.%Burton%NULL%1,                        Timothy M.%Uyeki%NULL%3,                        Stephanie R.%Bialek%NULL%1,                        Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                        Jasmine A.%Mack%NULL%1,                        Maxwell%Salvatore%NULL%1,                        Swaraaj Prabhu%Sankar%NULL%1,                        Thomas S.%Valley%NULL%1,                        Karandeep%Singh%NULL%1,                        Brahmajee K.%Nallamothu%NULL%1,                        Sachin%Kheterpal%NULL%1,                        Lynda%Lisabeth%NULL%1,                        Lars G.%Fritsche%NULL%1,                        Bhramar%Mukherjee%NULL%1,                         T.%Gu%null%1,                         J. A.% Mack%null%1,                         M.% Salvatore%null%1,                         S. P.% Sankar%null%1,                         T. S.% Valley%null%1,                         K.% Singh%null%1,                         B. K.% Nallamothu%null%1,                         S.% Kheterpal%null%1,                         L.% Lisabeth%null%1,                         L. G.% Fritsche%null%1,                         B. G. % Mukherjee%null%1,                        T.%Gu%null%1,                        J. A.% Mack%null%1,                        M.% Salvatore%null%1,                        S. P.% Sankar%null%1,                        T. S.% Valley%null%1,                        K.% Singh%null%1,                        B. K.% Nallamothu%null%1,                        S.% Kheterpal%null%1,                        L.% Lisabeth%null%1,                        L. G.% Fritsche%null%1,                        B. G. % Mukherjee%null%1,       T.%Gu%null%1,       J. A.% Mack%null%1,       M.% Salvatore%null%1,       S. P.% Sankar%null%1,       T. S.% Valley%null%1,       K.% Singh%null%1,       B. K.% Nallamothu%null%1,       S.% Kheterpal%null%1,       L.% Lisabeth%null%1,       L. G.% Fritsche%null%1,       B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                         S.% Nirenberg%null%1,                         P.% Kovatch%null%1,                         K.-l. % Huang%null%1,       T.%Jun%null%1,       S.% Nirenberg%null%1,       P.% Kovatch%null%2,       K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                        Shikha%Garg%NULL%1,                        Alissa%O’Halloran%NULL%1,                        Michael%Whitaker%NULL%1,                        Huong%Pham%NULL%1,                        Evan J%Anderson%NULL%1,                        Isaac%Armistead%NULL%1,                        Nancy M%Bennett%NULL%1,                        Laurie%Billing%NULL%1,                        Kathryn%Como-Sabetti%NULL%1,                        Mary%Hill%NULL%1,                        Sue%Kim%NULL%1,                        Maya L%Monroe%NULL%1,                        Alison%Muse%NULL%1,                        Arthur L%Reingold%NULL%1,                        William%Schaffner%NULL%1,                        Melissa%Sutton%NULL%1,                        H Keipp%Talbot%NULL%1,                        Salina M%Torres%NULL%1,                        Kimberly%Yousey-Hindes%NULL%1,                        Rachel%Holstein%NULL%1,                        Charisse%Cummings%NULL%1,                        Lynette%Brammer%NULL%1,                        Aron J%Hall%NULL%1,                        Alicia M%Fry%NULL%1,                        Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                         S.% Richardson%null%1,                         K.% Coppa%null%1,                         D. P.% Barnaby%null%1,                         T.% McGinn%null%1,                         L. B.% Becker%null%1,                         K. W.% Davidson%null%1,                         S. L.% Cohen%null%1,                         J. S.% Hirsch%null%1,                         T.% Zanos%null%1,                           % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1,       T. J.%Levy%null%1,       S.% Richardson%null%1,       K.% Coppa%null%1,       D. P.% Barnaby%null%1,       T.% McGinn%null%1,       L. B.% Becker%null%1,       K. W.% Davidson%null%1,       S. L.% Cohen%null%1,       J. S.% Hirsch%null%1,       T.% Zanos%null%1,         % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                         L. H.% Nguyen%null%1,                         D. A.% Drew%null%1,                         M. S.% Graham%null%1,                         E. T.% Warner%null%1,                         A. D.% Joshi%null%1,                         C. M.% Astley%null%1,                         C.-G.% Guo%null%1,                         W.% Ma%null%1,                         R. S.% Mehta%null%1,                         S.% Kwon%null%1,                         M.% Song%null%1,                         R.% Davies%null%1,                         J.% Capdevila%null%1,                         K. A.% Lee%null%1,                         M. N.% Lochlainn%null%1,                         T.% Varsavsky%null%1,                         C. H.% Sudre%null%1,                         J.% Wolf%null%1,                         Y. C.% Cozier%null%1,                         L.% Rosenberg%null%1,                         L. R.% Wilkens%null%1,                         C. A.% Haiman%null%1,                         L. L.% Marchand%null%1,                         J. R.% Palmer%null%1,                         T. D.% Spector%null%1,                         S.% Ourselin%null%1,                         C. J.% Steves%null%1,                         A. T.% Chan%null%1,                           % COPE Consortium%null%1,       C.-H.%Lo%null%1,       L. H.% Nguyen%null%1,       D. A.% Drew%null%1,       M. S.% Graham%null%1,       E. T.% Warner%null%1,       A. D.% Joshi%null%1,       C. M.% Astley%null%1,       C.-G.% Guo%null%1,       W.% Ma%null%1,       R. S.% Mehta%null%1,       S.% Kwon%null%1,       M.% Song%null%1,       R.% Davies%null%1,       J.% Capdevila%null%1,       K. A.% Lee%null%1,       M. N.% Lochlainn%null%1,       T.% Varsavsky%null%1,       C. H.% Sudre%null%1,       J.% Wolf%null%1,       Y. C.% Cozier%null%1,       L.% Rosenberg%null%1,       L. R.% Wilkens%null%1,       C. A.% Haiman%null%1,       L. L.% Marchand%null%1,       J. R.% Palmer%null%1,       T. D.% Spector%null%1,       S.% Ourselin%null%1,       C. J.% Steves%null%1,       A. T.% Chan%null%1,         % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                        Jienchi%Dorward%NULL%1,                        Ana%Correa%NULL%1,                        Nicholas%Jones%NULL%1,                        Oluwafunmi%Akinyemi%NULL%1,                        Gayatri%Amirthalingam%NULL%1,                        Nick%Andrews%NULL%1,                        Rachel%Byford%NULL%1,                        Gavin%Dabrera%NULL%1,                        Alex%Elliot%NULL%1,                        Joanna%Ellis%NULL%0,                        Filipa%Ferreira%NULL%1,                        Jamie%Lopez Bernal%NULL%1,                        Cecilia%Okusi%NULL%1,                        Mary%Ramsay%NULL%1,                        Julian%Sherlock%NULL%1,                        Gillian%Smith%NULL%1,                        John%Williams%NULL%1,                        Gary%Howsam%NULL%1,                        Maria%Zambon%NULL%0,                        Mark%Joy%NULL%1,                        F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                        Johanna%Dolle%NULL%2,                        Johanna%Dolle%NULL%0,                        Sheila%Grami%NULL%1,                        Richard%Adule%NULL%1,                        Zeyu%Li%NULL%1,                        Kathleen%Tatem%NULL%1,                        Chinyere%Anyaogu%NULL%1,                        Stephen%Apfelroth%NULL%1,                        Raji%Ayinla%NULL%2,                        Raji%Ayinla%NULL%0,                        Noella%Boma%NULL%1,                        Terence%Brady%NULL%1,                        Braulio F.%Cosme-Thormann%NULL%1,                        Roseann%Costarella%NULL%1,                        Kenra%Ford%NULL%1,                        Kecia%Gaither%NULL%1,                        Jessica%Jacobson%NULL%1,                        Marc%Kanter%NULL%1,                        Stuart%Kessler%NULL%1,                        Ross B.%Kristal%NULL%1,                        Joseph J.%Lieber%NULL%1,                        Vikramjit%Mukherjee%NULL%1,                        Vincent%Rizzo%NULL%1,                        Madden%Rowell%NULL%1,                        David%Stevens%NULL%1,                        Elana%Sydney%NULL%1,                        Andrew%Wallach%NULL%2,                        Andrew%Wallach%NULL%0,                        Dave A.%Chokshi%NULL%1,                        Nichola%Davis%NULL%1,                        NULL%NULL%NULL%0,                        Sze Yan%Liu%NULL%2,                        Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                        Mark%Caridi-Scheible%NULL%0,                        James M.%Blum%NULL%0,                        Chad%Robichaux%NULL%1,                        Colleen%Kraft%NULL%1,                        Jesse T.%Jacob%NULL%1,                        Craig S.%Jabaley%NULL%0,                        David%Carpenter%NULL%1,                        Roberta%Kaplow%NULL%1,                        Alfonso C.%Hernandez-Romieu%NULL%0,                        Max W.%Adelman%NULL%0,                        Greg S.%Martin%NULL%0,                        Craig M.%Coopersmith%NULL%1,                        David J.%Murphy%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,                Seunghee%Kim-Schulze%null%1,                Hsin-Hui%Huang%null%1,                Noam D.%Beckmann%null%1,                Sharon%Nirenberg%null%1,                Bo%Wang%null%1,                Yonit%Lavin%null%1,                Talia H.%Swartz%null%1,                Deepu%Madduri%null%1,                Aryeh%Stock%null%1,                Thomas U.%Marron%null%1,                Hui%Xie%null%1,                Manishkumar%Patel%null%1,                Kevin%Tuballes%null%1,                Oliver%Oekelen%null%1,                Adeeb%Rahman%null%1,                Patricia%Kovatch%null%1,                Judith A.%Aberg%null%1,                Eric%Schadt%null%1,                Sundar%Jagannath%null%1,                Madhu%Mazumdar%null%1,                Alexander W.%Charney%null%1,                Adolfo%Firpo-Betancourt%null%1,                Damodara Rao%Mendu%null%1,                Jeffrey%Jhang%null%1,                David%Reich%null%1,                Keith%Sigel%null%1,                Carlos%Cordon-Cardo%null%1,                Marc%Feldmann%null%1,                Samir%Parekh%null%1,                Miriam%Merad%null%1,                Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                        David R.%Jenkins%NULL%1,                        Jatinder S.%Minhas%NULL%1,                        Laura J.%Gray%NULL%1,                        Julian%Tang%NULL%1,                        Caroline%Williams%NULL%1,                        Shirley%Sze%NULL%1,                        Daniel%Pan%NULL%1,                        William%Jones%NULL%1,                        Raman%Verma%NULL%1,                        Scott%Knapp%NULL%1,                        Rupert%Major%NULL%1,                        Melanie%Davies%NULL%1,                        Nigel%Brunskill%NULL%1,                        Martin%Wiselka%NULL%1,                        Chris%Brightling%NULL%1,                        Kamlesh%Khunti%NULL%1,                        Pranab%Haldar%NULL%1,                        Manish%Pareek%mp426@le.ac.uk%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                        Kelly E%Hathorn%NULL%2,                        Kelly E%Hathorn%NULL%0,                        Walker D%Redd%NULL%1,                        Nicolette J%Rodriguez%NULL%1,                        Joyce C%Zhou%NULL%1,                        Ahmad Najdat%Bazarbashi%NULL%1,                        Cheikh%Njie%NULL%1,                        Danny%Wong%NULL%1,                        Quoc-Dien%Trinh%NULL%1,                        Lin%Shen%NULL%1,                        Valerie E%Stone%NULL%2,                        Valerie E%Stone%NULL%0,                        Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                         S.% Apewokin%null%1,                         A. A.% Wells%null%1,                         A. L. % Morrow%null%1,       A.%Mendy%null%1,       S.% Apewokin%null%1,       A. A.% Wells%null%1,       A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                        Thomas E.%Webb%NULL%2,                        Thomas E.%Webb%NULL%0,                        Benjamin C.%Mcloughlin%NULL%2,                        Benjamin C.%Mcloughlin%NULL%0,                        Imran%Mannan%NULL%2,                        Imran%Mannan%NULL%0,                        Arshad%Rather%NULL%2,                        Arshad%Rather%NULL%0,                        Paul%Knopp%NULL%1,                        Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                        Rajat%Suri%NULL%2,                        Rajat%Suri%NULL%0,                        Iheanacho O.%Emeruwa%NULL%2,                        Iheanacho O.%Emeruwa%NULL%0,                        Robert J.%Stretch%NULL%1,                        Roxana Y.%Cortes-Lopez%NULL%2,                        Roxana Y.%Cortes-Lopez%NULL%0,                        Alexander%Sherman%NULL%1,                        Catherine C.%Lindsay%NULL%1,                        Jennifer A.%Fulcher%NULL%1,                        David%Goodman-Meza%NULL%2,                        David%Goodman-Meza%NULL%0,                        Anil%Sapru%NULL%2,                        Anil%Sapru%NULL%0,                        Russell G.%Buhr%NULL%1,                        Steven Y.%Chang%NULL%2,                        Steven Y.%Chang%NULL%0,                        Tisha%Wang%NULL%1,                        Nida%Qadir%NULL%1,                        Giordano%Madeddu%NULL%8,                        Giordano%Madeddu%NULL%0,                        Giordano%Madeddu%NULL%0,                        Ana C.%Monteiro%NULL%2,                        Ana C.%Monteiro%NULL%0,                        Giordano%Madeddu%NULL%0,                        Giordano%Madeddu%NULL%0,                        Giordano%Madeddu%NULL%0,                        Giordano%Madeddu%NULL%0,                        Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                         D.% Stefanov%null%1,                         A. S.% Chau%null%1,                         A. G.% Weber%null%1,                         G. S.% Marder%null%1,                         B.% Kaplan%null%1,                         P.% Malhotra%null%1,                         O.% Bloom%null%1,                         A.% Liu%null%1,                         M.% Lesser%null%1,                         N. % Hajizadeh%null%1,       S.%Narain%null%1,       D.% Stefanov%null%1,       A. S.% Chau%null%1,       A. G.% Weber%null%1,       G. S.% Marder%null%1,       B.% Kaplan%null%1,       P.% Malhotra%null%1,       O.% Bloom%null%1,       A.% Liu%null%1,       M.% Lesser%null%1,       N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                        Catherine A.%O’Donnell%NULL%2,                        Bhautesh Dinesh%Jani%NULL%1,                        Evangelia%Demou%NULL%1,                        Frederick K.%Ho%NULL%1,                        Carlos%Celis-Morales%NULL%1,                        Barbara I.%Nicholl%NULL%1,                        Frances S.%Mair%NULL%2,                        Paul%Welsh%NULL%2,                        Naveed%Sattar%NULL%2,                        Jill P.%Pell%NULL%2,                        S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                        Alex J%Walker%NULL%1,                        Krishnan%Bhaskaran%NULL%1,                        Seb%Bacon%NULL%1,                        Chris%Bates%NULL%1,                        Caroline E%Morton%NULL%1,                        Helen J%Curtis%NULL%1,                        Amir%Mehrkar%NULL%1,                        David%Evans%NULL%1,                        Peter%Inglesby%NULL%1,                        Jonathan%Cockburn%NULL%1,                        Helen I%McDonald%NULL%1,                        Brian%MacKenna%NULL%1,                        Laurie%Tomlinson%NULL%1,                        Ian J%Douglas%NULL%1,                        Christopher T%Rentsch%NULL%1,                        Rohini%Mathur%NULL%1,                        Angel YS%Wong%NULL%1,                        Richard%Grieve%NULL%1,                        David%Harrison%NULL%1,                        Harriet%Forbes%NULL%1,                        Anna%Schultze%NULL%2,                        Richard%Croker%NULL%1,                        John%Parry%NULL%1,                        Frank%Hester%NULL%1,                        Sam%Harper%NULL%1,                        Rafael%Perera%NULL%1,                        Stephen JW%Evans%NULL%1,                        Liam%Smeeth%NULL%1,                        Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                        Ajay%Bhasin%NULL%1,                        Joseph M.%Feinglass%NULL%1,                        Michael P.%Angarone%NULL%1,                        Elaine R.%Cohen%NULL%1,                        Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                        Andrew%Gangemi%NULL%1,                        Robert%Marron%NULL%1,                        Junad%Chowdhury%NULL%1,                        Ibraheem%Yousef%NULL%1,                        Matthew%Zheng%NULL%1,                        Nicole%Mills%NULL%1,                        Lauren%Tragesser%NULL%1,                        Julie%Giurintano%NULL%1,                        Rohit%Gupta%NULL%0,                        Matthew%Gordon%NULL%0,                        Parth%Rali%NULL%2,                        Parth%Rali%NULL%0,                        Gilbert%D'Alonso%NULL%1,                        David%Fleece%NULL%1,                        Huaqing%Zhao%NULL%0,                        Nicole%Patlakh%NULL%0,                        Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                        Nathan C.%Skorodin%nskorodin@midcusa.com%1,                        Nicholas W.%Van Hise%NULL%1,                        Robert M.%Fliegelman%NULL%1,                        Jonathan%Pinsky%NULL%1,                        Vishal%Didwania%NULL%1,                        Michael%Anderson%NULL%1,                        Melina%Diaz%NULL%1,                        Kairav%Shah%NULL%1,                        Vishnu V.%Chundi%NULL%1,                        David W.%Hines%NULL%1,                        Brian P.%Harting%NULL%1,                        Kamo%Sidwha%NULL%1,                        Brian%Yu%NULL%1,                        Paul%Brune%NULL%1,                        Anjum%Owaisi%NULL%1,                        David%Beezhold%NULL%1,                        Joseph%Kent%NULL%1,                        Dana%Vais%NULL%1,                        Alice%Han%NULL%1,                        Neethi%Gowda%NULL%1,                        Nishi%Sahgal%NULL%1,                        Jan%Silverman%NULL%1,                        Jonathan%Stake%NULL%1,                        Jenie%Nepomuceno%NULL%1,                        Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                        Anna%Daunt%NULL%2,                        Anna%Daunt%NULL%0,                        Sujit%Mukherjee%NULL%1,                        Peter%Crook%NULL%1,                        Roberta%Forlano%NULL%1,                        Mara D%Kont%NULL%1,                        Alessandra%Løchen%NULL%1,                        Michaela%Vollmer%NULL%1,                        Paul%Middleton%NULL%1,                        Rebekah%Judge%NULL%1,                        Christopher%Harlow%NULL%1,                        Anet%Soubieres%NULL%1,                        Graham%Cooke%NULL%1,                        Peter J%White%NULL%1,                        Timothy B%Hallett%NULL%1,                        Paul%Aylin%NULL%1,                        Neil%Ferguson%NULL%1,                        Katharina%Hauck%NULL%1,                        Mark R%Thursz%NULL%1,                        Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                        Jeffrey%Burton%NULL%2,                        Jeffrey%Burton%NULL%0,                        Daniel%Fort%NULL%1,                        Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                        Michael S.%Sherman%NULL%1,                        Naaz%Fatteh%NULL%1,                        Fabio%Vogel%NULL%1,                        Jamie%Sacks%NULL%1,                        Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                         P.% Mannam%null%1,                         R.% Comer%null%1,                         E.% Sinclair%null%1,                         D. B.% McQuaid%null%1,                         M. L. % Schmidt%null%1,       M.%Ramaswamy%null%1,       P.% Mannam%null%1,       R.% Comer%null%1,       E.% Sinclair%null%1,       D. B.% McQuaid%null%1,       M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                        Farah%Kidwai-Khan%NULL%1,                        Janet P.%Tate%NULL%1,                        Lesley S.%Park%NULL%1,                        Joseph T.%King%NULL%1,                        Melissa%Skanderson%NULL%1,                        Ronald G.%Hauser%NULL%1,                        Anna%Schultze%NULL%0,                        Christopher I.%Jarvis%NULL%1,                        Mark%Holodniy%NULL%1,                        Vincent Lo%Re%NULL%1,                        Kathleen M.%Akgün%NULL%1,                        Kristina%Crothers%NULL%1,                        Tamar H.%Taddei%NULL%1,                        Matthew S.%Freiberg%NULL%1,                        Amy C.%Justice%NULL%1,                         C. T.%Rentsch%null%1,                         F.% Kidwai-Khan%null%1,                         J. P.% Tate%null%1,                         L. S.% Park%null%1,                         J. T.% King%null%1,                         M.% Skanderson%null%1,                         R. G.% Hauser%null%1,                         A.% Schultze%null%1,                         C. I.% Jarvis%null%1,                         M.% Holodniy%null%1,                         V.% Lo Re%null%1,                         K. M.% Akgun%null%1,                         K.% Crothers%null%1,                         T. H.% Taddei%null%1,                         M. S.% Freiberg%null%1,                         A. C. % Justice%null%1,                        C. T.%Rentsch%null%1,                        F.% Kidwai-Khan%null%1,                        J. P.% Tate%null%1,                        L. S.% Park%null%1,                        J. T.% King%null%1,                        M.% Skanderson%null%1,                        R. G.% Hauser%null%1,                        A.% Schultze%null%1,                        C. I.% Jarvis%null%1,                        M.% Holodniy%null%1,                        V.% Lo Re%null%1,                        K. M.% Akgun%null%1,                        K.% Crothers%null%1,                        T. H.% Taddei%null%1,                        M. S.% Freiberg%null%1,                        A. C. % Justice%null%1,       C. T.%Rentsch%null%1,       F.% Kidwai-Khan%null%1,       J. P.% Tate%null%1,       L. S.% Park%null%1,       J. T.% King%null%1,       M.% Skanderson%null%1,       R. G.% Hauser%null%1,       A.% Schultze%null%1,       C. I.% Jarvis%null%1,       M.% Holodniy%null%1,       V.% Lo Re%null%1,       K. M.% Akgun%null%1,       K.% Crothers%null%1,       T. H.% Taddei%null%1,       M. S.% Freiberg%null%1,       A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                        Jennifer%Beam%NULL%2,                        Jennifer%Beam%NULL%0,                        Haley%Maier%NULL%1,                        Whitney%Haggerson%NULL%1,                        Karen%Boudreau%NULL%1,                        Jamie%Carlson%NULL%1,                        Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                        Alexander E.%Ayala%NULL%1,                        Chideraa C.%Ukeje%NULL%1,                        Celeste S.%Witting%NULL%1,                        William A.%Grobman%NULL%1,                        Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                        Hannah C.%Jarvis%NULL%2,                        Hannah C.%Jarvis%NULL%0,                        Ezgi%Ozcan%NULL%1,                        Thomas L. P.%Burns%NULL%1,                        Rabia A.%Warraich%NULL%1,                        Lisa J.%Amani%NULL%1,                        Amina%Jaffer%NULL%1,                        Stephanie%Paget%NULL%1,                        Anand%Sivaramakrishnan%NULL%1,                        Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                        Suzy%Gallier%NULL%2,                        Suzy%Gallier%NULL%0,                        Chris%Mainey%NULL%1,                        Peter%Nightingale%NULL%2,                        Peter%Nightingale%NULL%0,                        David%McNulty%NULL%1,                        Hannah%Crothers%NULL%1,                        Felicity%Evison%NULL%1,                        Katharine%Reeves%NULL%1,                        Domenico%Pagano%NULL%1,                        Alastair K%Denniston%NULL%1,                        Krishnarajah%Nirantharakumar%NULL%1,                        Peter%Diggle%NULL%1,                        Simon%Ball%NULL%1,                        Lylah%Irshad%NULL%1,                        Maxim%Harris%NULL%1,                        Theodore%Nabav%NULL%1,                        A%Kolesnyk%NULL%1,                        M%Ahmed%NULL%1,                        A%Liaqat%NULL%1,                        Tanya%Pankhurst%NULL%1,                        Jamie%Coleman%NULL%1,                        Chirag%Dave%NULL%1,                        Khaled%ElFandi%NULL%1,                        Rifat%Rashid%NULL%1,                        Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                        Gregory A%Eschenauer%NULL%2,                        Gregory A%Eschenauer%NULL%0,                        Jonathan P%Troost%NULL%1,                        Jonathan L%Golob%NULL%1,                        Tejal N%Gandhi%NULL%1,                        Lu%Wang%NULL%1,                        Nina%Zhou%NULL%1,                        Lindsay A%Petty%NULL%1,                        Ji Hoon%Baang%NULL%1,                        Nicholas O%Dillman%NULL%1,                        David%Frame%NULL%1,                        Kevin S%Gregg%NULL%1,                        Dan R%Kaul%NULL%1,                        Jerod%Nagel%NULL%1,                        Twisha S%Patel%NULL%1,                        Shiwei%Zhou%NULL%1,                        Adam S%Lauring%NULL%1,                        David A%Hanauer%NULL%1,                        Emily%Martin%NULL%1,                        Pratima%Sharma%NULL%1,                        Christopher M%Fung%NULL%1,                        Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                        Lei%Qian%NULL%2,                        Lei%Qian%NULL%0,                        Vennis%Hong%NULL%1,                        Rong%Wei%NULL%2,                        Rong%Wei%NULL%0,                        Ron F.%Nadjafi%NULL%2,                        Ron F.%Nadjafi%NULL%0,                        Heidi%Fischer%NULL%1,                        Zhuoxin%Li%NULL%1,                        Sally F.%Shaw%NULL%1,                        Susan L.%Caparosa%NULL%2,                        Susan L.%Caparosa%NULL%0,                        Claudia L.%Nau%NULL%1,                        Tanmai%Saxena%NULL%1,                        Gunter K.%Rieg%NULL%1,                        Bradley K.%Ackerson%NULL%1,                        Adam L.%Sharp%NULL%2,                        Adam L.%Sharp%NULL%0,                        Jacek%Skarbinski%NULL%2,                        Jacek%Skarbinski%NULL%0,                        Tej K.%Naik%NULL%1,                        Sameer B.%Murali%NULL%2,                        Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                        Juan Carlos%Nicolas%NULL%2,                        Juan Carlos%Nicolas%NULL%0,                        Jennifer R%Meeks%NULL%1,                        Osman%Khan%NULL%1,                        Alan%Pan%NULL%1,                        Stephen L%Jones%NULL%1,                        Faisal%Masud%NULL%1,                        H Dirk%Sostman%NULL%1,                        Robert%Phillips%NULL%1,                        Julia D%Andrieni%NULL%1,                        Bita A%Kash%NULL%1,                        Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                        Arryn%Craney%NULL%1,                        Phyllis%Ruggiero%NULL%1,                        John%Sipley%NULL%1,                        Lin%Cong%NULL%1,                        Erika M.%Hissong%NULL%1,                        Massimo%Loda%NULL%1,                        Lars F.%Westblade%NULL%1,                        Melissa%Cushing%NULL%2,                        Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                         X.% Zhong%null%1,                         Y. % Hurd%null%1,       A.-L.%WANG%null%1,       X.% Zhong%null%1,       Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                        Amanda%Zheutlin%NULL%2,                        Amanda%Zheutlin%NULL%0,                        Yu-Han%Kao%NULL%1,                        Kristin%Ayers%NULL%1,                        Susan%Gross%NULL%1,                        Patricia%Kovatch%NULL%1,                        Sharon%Nirenberg%NULL%1,                        Alexander%Charney%NULL%1,                        Girish%Nadkarni%NULL%1,                        Jessica K%De Freitas%NULL%1,                        Paul%O’Reilly%NULL%1,                        Allan%Just%NULL%1,                        Carol%Horowitz%NULL%1,                        Glenn%Martin%NULL%1,                        Andrea%Branch%NULL%1,                        Benjamin S%Glicksberg%NULL%1,                        Dennis%Charney%NULL%1,                        David%Reich%NULL%1,                        William K%Oh%NULL%1,                        Eric%Schadt%NULL%1,                        Rong%Chen%NULL%0,                        Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                        Angela%Winegar%NULL%1,                        Richard%Fogel%NULL%1,                        Mohamad%Fakih%NULL%1,                        Allison%Ottenbacher%NULL%1,                        Christine%Jesser%NULL%1,                        Angelo%Bufalino%NULL%1,                        Ren-Huai%Huang%NULL%1,                        Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                        Rebecca%Bendayan%NULL%0,                        Mark%Ashworth%NULL%1,                        Daniel M.%Bean%NULL%1,                        Hiten%Dodhia%NULL%1,                        Stevo%Durbaba%NULL%1,                        Kevin%O'Gallagher%NULL%1,                        Claire%Palmer%NULL%1,                        Vasa%Curcin%NULL%1,                        Elizabeth%Aitken%NULL%1,                        William%Bernal%NULL%1,                        Richard D.%Barker%NULL%1,                        Sam%Norton%NULL%1,                        Martin%Gulliford%NULL%1,                        James T.H.%Teo%NULL%0,                        James%Galloway%NULL%1,                        Richard J.B.%Dobson%NULL%0,                        Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                        Carina%Marquez%NULL%1,                        Emily%Crawford%NULL%1,                        James%Peng%NULL%1,                        Maya%Petersen%NULL%1,                        Daniel%Schwab%NULL%1,                        Joshua%Schwab%NULL%1,                        Jackie%Martinez%NULL%1,                        Diane%Jones%NULL%1,                        Douglas%Black%NULL%1,                        Monica%Gandhi%NULL%1,                        Andrew D%Kerkhoff%NULL%1,                        Vivek%Jain%NULL%1,                        Francesco%Sergi%NULL%1,                        Jon%Jacobo%NULL%1,                        Susana%Rojas%NULL%1,                        Valerie%Tulier-Laiwa%NULL%1,                        Tracy%Gallardo-Brown%NULL%1,                        Ayesha%Appa%NULL%1,                        Charles%Chiu%NULL%1,                        Mary%Rodgers%NULL%1,                        John%Hackett%NULL%1,                        NULL%NULL%NULL%0,                        Amy%Kistler%NULL%1,                        Samantha%Hao%NULL%1,                        Jack%Kamm%NULL%1,                        David%Dynerman%NULL%1,                        Joshua%Batson%NULL%1,                        Bryan%Greenhouse%NULL%1,                        Joe%DeRisi%NULL%1,                        Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                        Tiffany%Grimes%NULL%1,                        Peng%Li%NULL%1,                        Matthew%Might%NULL%1,                        Fernando%Ovalle%NULL%1,                        Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                        Natalie%Achamallah%NULL%1,                        Hongwei%Ji%NULL%1,                        Brian L.%Claggett%NULL%1,                        Nancy%Sun%NULL%1,                        Patrick%Botting%NULL%1,                        Trevor-Trung%Nguyen%NULL%1,                        Eric%Luong%NULL%1,                        Elizabeth H.%Kim%NULL%1,                        Eunice%Park%NULL%1,                        Yunxian%Liu%NULL%1,                        Ryan%Rosenberry%NULL%1,                        Yuri%Matusov%NULL%1,                        Steven%Zhao%NULL%1,                        Isabel%Pedraza%NULL%1,                        Tanzira%Zaman%NULL%1,                        Michael%Thompson%NULL%1,                        Koen%Raedschelders%NULL%1,                        Anders H.%Berg%NULL%2,                        Anders H.%Berg%NULL%0,                        Jonathan D.%Grein%NULL%1,                        Paul W.%Noble%NULL%1,                        Sumeet S.%Chugh%NULL%1,                        C. Noel%Bairey Merz%NULL%1,                        Eduardo%Marbán%NULL%1,                        Jennifer E.%Van Eyk%NULL%1,                        Scott D.%Solomon%NULL%1,                        Christine M.%Albert%NULL%1,                        Peter%Chen%NULL%1,                        Susan%Cheng%NULL%3,                        Yu Ru%Kou%NULL%8,                        Yu Ru%Kou%NULL%0,                        Yu Ru%Kou%NULL%0,                        Susan%Cheng%biodatacore@cshs.org%0,                        Susan%Cheng%biodatacore@cshs.org%0,                        Yu Ru%Kou%NULL%0,                        Yu Ru%Kou%NULL%0,                        Yu Ru%Kou%NULL%0,                        Yu Ru%Kou%NULL%0,                        Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                        Penelope%Strid%NULL%1,                        Van T.%Tong%NULL%1,                        Kate%Woodworth%NULL%1,                        Romeo R.%Galang%NULL%1,                        Laura D.%Zambrano%NULL%1,                        John%Nahabedian%NULL%1,                        Kayla%Anderson%NULL%1,                        Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                        Jacob%Fiksel%NULL%2,                        Jacob%Fiksel%NULL%0,                        John%Muschelli%NULL%2,                        John%Muschelli%NULL%0,                        Matthew L.%Robinson%NULL%2,                        Matthew L.%Robinson%NULL%0,                        Masoud%Rouhizadeh%NULL%2,                        Masoud%Rouhizadeh%NULL%0,                        Jamie%Perin%NULL%2,                        Jamie%Perin%NULL%0,                        Grant%Schumock%NULL%2,                        Grant%Schumock%NULL%0,                        Paul%Nagy%NULL%2,                        Paul%Nagy%NULL%0,                        Josh H.%Gray%NULL%2,                        Josh H.%Gray%NULL%0,                        Harsha%Malapati%NULL%2,                        Harsha%Malapati%NULL%0,                        Mariam%Ghobadi-Krueger%NULL%2,                        Mariam%Ghobadi-Krueger%NULL%0,                        Timothy M.%Niessen%NULL%1,                        Bo Soo%Kim%NULL%1,                        Peter M.%Hill%NULL%1,                        M. Shafeeq%Ahmed%NULL%1,                        Eric D.%Dobkin%NULL%1,                        Renee%Blanding%NULL%1,                        Jennifer%Abele%NULL%1,                        Bonnie%Woods%NULL%1,                        Kenneth%Harkness%NULL%1,                        David R.%Thiemann%NULL%1,                        Mary G.%Bowring%NULL%1,                        Aalok B.%Shah%NULL%2,                        Aalok B.%Shah%NULL%0,                        Mei-Cheng%Wang%NULL%1,                        Karen%Bandeen-Roche%NULL%1,                        Antony%Rosen%NULL%1,                        Scott L.%Zeger%NULL%2,                        Scott L.%Zeger%NULL%0,                        Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                        Megan%McCullough%NULL%0,                        Megan%McCullough%NULL%0,                        Michael A.%Fuery%NULL%0,                        Fouad%Chouairi%NULL%0,                        Fouad%Chouairi%NULL%0,                        Craig%Keating%NULL%0,                        Neal G.%Ravindra%NULL%0,                        P. Elliott%Miller%NULL%0,                        Maricar%Malinis%NULL%0,                        Nitu%Kashyap%NULL%0,                        Allen%Hsiao%NULL%0,                        F. Perry%Wilson%NULL%0,                        Jeptha P.%Curtis%NULL%0,                        Matthew%Grant%NULL%0,                        Eric J.%Velazquez%NULL%0,                        Nihar R.%Desai%NULL%0,                        Tariq%Ahmad%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4520,6 +5243,9 @@
       <c r="I1" t="s">
         <v>280</v>
       </c>
+      <c r="J1" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -4535,7 +5261,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1124</v>
+        <v>1367</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4548,6 +5274,9 @@
       </c>
       <c r="I2" t="s">
         <v>1071</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -4564,7 +5293,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>1125</v>
+        <v>1368</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -4577,6 +5306,9 @@
       </c>
       <c r="I3" t="s">
         <v>1073</v>
+      </c>
+      <c r="J3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -4593,7 +5325,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>1126</v>
+        <v>1369</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -4606,6 +5338,9 @@
       </c>
       <c r="I4" t="s">
         <v>1073</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -4622,7 +5357,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>1127</v>
+        <v>1370</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -4635,6 +5370,9 @@
       </c>
       <c r="I5" t="s">
         <v>1073</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -4651,7 +5389,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>1128</v>
+        <v>1371</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -4664,6 +5402,9 @@
       </c>
       <c r="I6" t="s">
         <v>1073</v>
+      </c>
+      <c r="J6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -4680,7 +5421,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>1129</v>
+        <v>1372</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -4693,6 +5434,9 @@
       </c>
       <c r="I7" t="s">
         <v>1071</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -4709,7 +5453,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>1130</v>
+        <v>1373</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -4722,6 +5466,9 @@
       </c>
       <c r="I8" t="s">
         <v>1073</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -4738,7 +5485,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>1131</v>
+        <v>1374</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -4751,6 +5498,9 @@
       </c>
       <c r="I9" t="s">
         <v>1071</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -4767,7 +5517,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>1132</v>
+        <v>1375</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -4780,6 +5530,9 @@
       </c>
       <c r="I10" t="s">
         <v>1071</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -4796,7 +5549,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>1133</v>
+        <v>1376</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -4809,6 +5562,9 @@
       </c>
       <c r="I11" t="s">
         <v>1082</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -4825,7 +5581,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>1134</v>
+        <v>1377</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -4838,6 +5594,9 @@
       </c>
       <c r="I12" t="s">
         <v>1073</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -4854,7 +5613,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>1135</v>
+        <v>1378</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -4867,6 +5626,9 @@
       </c>
       <c r="I13" t="s">
         <v>1073</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -4883,7 +5645,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>1136</v>
+        <v>1379</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -4896,6 +5658,9 @@
       </c>
       <c r="I14" t="s">
         <v>1086</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -4912,7 +5677,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>1137</v>
+        <v>1380</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -4925,6 +5690,9 @@
       </c>
       <c r="I15" t="s">
         <v>1082</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -4941,7 +5709,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>1138</v>
+        <v>1381</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -4954,6 +5722,9 @@
       </c>
       <c r="I16" t="s">
         <v>1073</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -4970,7 +5741,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>1139</v>
+        <v>1382</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -4983,6 +5754,9 @@
       </c>
       <c r="I17" t="s">
         <v>1071</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -4999,7 +5773,7 @@
         <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>1140</v>
+        <v>1383</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -5012,6 +5786,9 @@
       </c>
       <c r="I18" t="s">
         <v>1091</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -5028,7 +5805,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>1141</v>
+        <v>1384</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -5041,6 +5818,9 @@
       </c>
       <c r="I19" t="s">
         <v>1073</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -5057,7 +5837,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>1142</v>
+        <v>1385</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -5070,6 +5850,9 @@
       </c>
       <c r="I20" t="s">
         <v>1071</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -5086,7 +5869,7 @@
         <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>1143</v>
+        <v>1386</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -5099,6 +5882,9 @@
       </c>
       <c r="I21" t="s">
         <v>1091</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -5115,7 +5901,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>1144</v>
+        <v>1387</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -5128,6 +5914,9 @@
       </c>
       <c r="I22" t="s">
         <v>1091</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -5144,7 +5933,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>1145</v>
+        <v>1388</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -5157,6 +5946,9 @@
       </c>
       <c r="I23" t="s">
         <v>1082</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -5173,7 +5965,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>1146</v>
+        <v>747</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -5182,10 +5974,13 @@
         <v>545</v>
       </c>
       <c r="H24" t="s">
-        <v>546</v>
+        <v>1197</v>
       </c>
       <c r="I24" t="s">
-        <v>1086</v>
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="25">
@@ -5202,7 +5997,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>1147</v>
+        <v>1389</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -5215,6 +6010,9 @@
       </c>
       <c r="I25" t="s">
         <v>1073</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -5231,7 +6029,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>1148</v>
+        <v>1390</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -5244,6 +6042,9 @@
       </c>
       <c r="I26" t="s">
         <v>1073</v>
+      </c>
+      <c r="J26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -5260,7 +6061,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>1149</v>
+        <v>1391</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -5273,6 +6074,9 @@
       </c>
       <c r="I27" t="s">
         <v>1073</v>
+      </c>
+      <c r="J27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -5289,7 +6093,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>1150</v>
+        <v>1392</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -5302,6 +6106,9 @@
       </c>
       <c r="I28" t="s">
         <v>1073</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -5318,7 +6125,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1151</v>
+        <v>1393</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -5331,6 +6138,9 @@
       </c>
       <c r="I29" t="s">
         <v>1082</v>
+      </c>
+      <c r="J29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -5347,7 +6157,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>1152</v>
+        <v>1394</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -5360,6 +6170,9 @@
       </c>
       <c r="I30" t="s">
         <v>282</v>
+      </c>
+      <c r="J30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -5376,7 +6189,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>1153</v>
+        <v>1395</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -5389,6 +6202,9 @@
       </c>
       <c r="I31" t="s">
         <v>1073</v>
+      </c>
+      <c r="J31" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -5405,7 +6221,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>1154</v>
+        <v>755</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -5414,10 +6230,13 @@
         <v>545</v>
       </c>
       <c r="H32" t="s">
-        <v>556</v>
+        <v>1197</v>
       </c>
       <c r="I32" t="s">
-        <v>1086</v>
+        <v>91</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="33">
@@ -5434,7 +6253,7 @@
         <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>1155</v>
+        <v>1396</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -5447,6 +6266,9 @@
       </c>
       <c r="I33" t="s">
         <v>1091</v>
+      </c>
+      <c r="J33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34">
@@ -5463,7 +6285,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>1156</v>
+        <v>1397</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -5476,6 +6298,9 @@
       </c>
       <c r="I34" t="s">
         <v>1082</v>
+      </c>
+      <c r="J34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -5492,7 +6317,7 @@
         <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>1157</v>
+        <v>1398</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -5505,6 +6330,9 @@
       </c>
       <c r="I35" t="s">
         <v>1091</v>
+      </c>
+      <c r="J35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -5521,7 +6349,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>1158</v>
+        <v>1399</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -5534,6 +6362,9 @@
       </c>
       <c r="I36" t="s">
         <v>1073</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37">
@@ -5550,7 +6381,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>1159</v>
+        <v>1400</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -5563,6 +6394,9 @@
       </c>
       <c r="I37" t="s">
         <v>1073</v>
+      </c>
+      <c r="J37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -5579,7 +6413,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>1160</v>
+        <v>1401</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -5592,6 +6426,9 @@
       </c>
       <c r="I38" t="s">
         <v>1073</v>
+      </c>
+      <c r="J38" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -5608,7 +6445,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>1161</v>
+        <v>1402</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -5621,6 +6458,9 @@
       </c>
       <c r="I39" t="s">
         <v>1073</v>
+      </c>
+      <c r="J39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40">
@@ -5637,7 +6477,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>1162</v>
+        <v>1403</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -5650,6 +6490,9 @@
       </c>
       <c r="I40" t="s">
         <v>1082</v>
+      </c>
+      <c r="J40" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -5666,7 +6509,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>1163</v>
+        <v>1404</v>
       </c>
       <c r="F41" t="s">
         <v>52</v>
@@ -5679,6 +6522,9 @@
       </c>
       <c r="I41" t="s">
         <v>1071</v>
+      </c>
+      <c r="J41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -5695,7 +6541,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>1164</v>
+        <v>1405</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -5708,6 +6554,9 @@
       </c>
       <c r="I42" t="s">
         <v>1073</v>
+      </c>
+      <c r="J42" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -5724,7 +6573,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>1165</v>
+        <v>1406</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -5737,6 +6586,9 @@
       </c>
       <c r="I43" t="s">
         <v>1073</v>
+      </c>
+      <c r="J43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44">
@@ -5753,7 +6605,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>1166</v>
+        <v>1407</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -5766,6 +6618,9 @@
       </c>
       <c r="I44" t="s">
         <v>1082</v>
+      </c>
+      <c r="J44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45">
@@ -5782,7 +6637,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>1167</v>
+        <v>1408</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -5795,6 +6650,9 @@
       </c>
       <c r="I45" t="s">
         <v>1073</v>
+      </c>
+      <c r="J45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -5811,7 +6669,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>1168</v>
+        <v>1409</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -5824,6 +6682,9 @@
       </c>
       <c r="I46" t="s">
         <v>1073</v>
+      </c>
+      <c r="J46" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -5840,7 +6701,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>1169</v>
+        <v>1410</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -5853,6 +6714,9 @@
       </c>
       <c r="I47" t="s">
         <v>1073</v>
+      </c>
+      <c r="J47" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48">
@@ -5869,7 +6733,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>1170</v>
+        <v>1411</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -5882,6 +6746,9 @@
       </c>
       <c r="I48" t="s">
         <v>1073</v>
+      </c>
+      <c r="J48" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="49">
@@ -5898,7 +6765,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>1171</v>
+        <v>1412</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -5911,6 +6778,9 @@
       </c>
       <c r="I49" t="s">
         <v>1073</v>
+      </c>
+      <c r="J49" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50">
@@ -5927,7 +6797,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>1172</v>
+        <v>1413</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>
@@ -5940,6 +6810,9 @@
       </c>
       <c r="I50" t="s">
         <v>1073</v>
+      </c>
+      <c r="J50" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51">

--- a/Covid_19_Dataset_and_References/References/20.xlsx
+++ b/Covid_19_Dataset_and_References/References/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9065" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9865" uniqueCount="1508">
   <si>
     <t>Doi</t>
   </si>
@@ -4851,6 +4851,288 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,                        Megan%McCullough%NULL%0,                        Megan%McCullough%NULL%0,                        Michael A.%Fuery%NULL%0,                        Fouad%Chouairi%NULL%0,                        Fouad%Chouairi%NULL%0,                        Craig%Keating%NULL%0,                        Neal G.%Ravindra%NULL%0,                        P. Elliott%Miller%NULL%0,                        Maricar%Malinis%NULL%0,                        Nitu%Kashyap%NULL%0,                        Allen%Hsiao%NULL%0,                        F. Perry%Wilson%NULL%0,                        Jeptha P.%Curtis%NULL%0,                        Matthew%Grant%NULL%0,                        Eric J.%Velazquez%NULL%0,                        Nihar R.%Desai%NULL%0,                        Tariq%Ahmad%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0,                        Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                          R. U.% Shah%null%1,                          M.% Bale%null%1,                          J. B.% Peacock%null%1,                          B.% Berger%null%1,                          A.% Brown%null%1,                          S.% Mann%null%1,                          W.% West%null%1,                          V.% Martin%null%1,                          V.% Fernandez%null%1,                          S.% Grineski%null%1,                          B. J.% Brintz%null%1,                          M. H.% Samore%null%1,                          M. J.% Ferrari%null%1,                          D. T.% Leung%null%1,                          L. T. % Keegan%null%1,        S. M.%Ahmed%null%1,        R. U.% Shah%null%1,        M.% Bale%null%1,        J. B.% Peacock%null%1,        B.% Berger%null%1,        A.% Brown%null%1,        S.% Mann%null%1,        W.% West%null%1,        V.% Martin%null%1,        V.% Fernandez%null%1,        S.% Grineski%null%1,        B. J.% Brintz%null%1,        M. H.% Samore%null%1,        M. J.% Ferrari%null%1,        D. T.% Leung%null%1,        L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                         Samuel L%Bruce%NULL%1,                         Cody L%Slater%NULL%1,                         Jonathan R%Tiao%NULL%1,                         Matthew R%Baldwin%NULL%1,                         R Graham%Barr%NULL%1,                         Bernard P%Chang%NULL%1,                         Katherine H%Chau%NULL%1,                         Justin J%Choi%NULL%1,                         Nicholas%Gavin%NULL%1,                         Parag%Goyal%NULL%1,                         Angela M%Mills%NULL%1,                         Ashmi A%Patel%NULL%1,                         Marie-Laure S%Romney%NULL%1,                         Monika M%Safford%NULL%1,                         Neil W%Schluger%NULL%1,                         Soumitra%Sengupta%NULL%1,                         Magdalena E%Sobieszczyk%NULL%1,                         Jason E%Zucker%NULL%1,                         Paul A%Asadourian%NULL%1,                         Fletcher M%Bell%NULL%1,                         Rebekah%Boyd%NULL%1,                         Matthew F%Cohen%NULL%1,                         MacAlistair I%Colquhoun%NULL%1,                         Lucy A%Colville%NULL%1,                         Joseph H%de Jonge%NULL%1,                         Lyle B%Dershowitz%NULL%1,                         Shirin A%Dey%NULL%1,                         Katherine A%Eiseman%NULL%1,                         Zachary P%Girvin%NULL%1,                         Daniella T%Goni%NULL%1,                         Amro A%Harb%NULL%1,                         Nicholas%Herzik%NULL%1,                         Sarah%Householder%NULL%1,                         Lara E%Karaaslan%NULL%1,                         Heather%Lee%NULL%1,                         Evan%Lieberman%NULL%1,                         Andrew%Ling%NULL%1,                         Ree%Lu%NULL%1,                         Arthur Y%Shou%NULL%1,                         Alexander C%Sisti%NULL%1,                         Zachary E%Snow%NULL%1,                         Colin P%Sperring%NULL%1,                         Yuqing%Xiong%NULL%1,                         Henry W%Zhou%NULL%1,                         Karthik%Natarajan%NULL%1,                         George%Hripcsak%NULL%1,                         Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                         Megan%McCullough%NULL%4,                         Megan%McCullough%NULL%0,                         Michael A.%Fuery%NULL%2,                         Fouad%Chouairi%NULL%4,                         Fouad%Chouairi%NULL%0,                         Craig%Keating%NULL%2,                         Neal G.%Ravindra%NULL%2,                         P. Elliott%Miller%NULL%2,                         Maricar%Malinis%NULL%2,                         Nitu%Kashyap%NULL%2,                         Allen%Hsiao%NULL%2,                         F. Perry%Wilson%NULL%2,                         Jeptha P.%Curtis%NULL%2,                         Matthew%Grant%NULL%2,                         Eric J.%Velazquez%NULL%2,                         Nihar R.%Desai%NULL%2,                         Tariq%Ahmad%NULL%2,                         Chiara%Lazzeri%NULL%18,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                         Karen K.%Wong%NULL%1,                         Christine M.%Szablewski%NULL%1,                         Priti R.%Patel%NULL%1,                         John%Rossow%NULL%1,                         Juliana%da Silva%NULL%1,                         Pavithra%Natarajan%NULL%1,                         Sapna Bamrah%Morris%NULL%1,                         Robyn Neblett%Fanfair%NULL%1,                         Jessica%Rogers-Brown%NULL%1,                         Beau B.%Bruce%NULL%1,                         Sean D.%Browning%NULL%1,                         Alfonso C.%Hernandez-Romieu%NULL%2,                         Nathan W.%Furukawa%NULL%1,                         Mohleen%Kang%NULL%1,                         Mary E.%Evans%NULL%1,                         Nadine%Oosmanally%NULL%1,                         Melissa%Tobin-D’Angelo%NULL%1,                         Cherie%Drenzek%NULL%1,                         David J.%Murphy%NULL%0,                         Julie%Hollberg%NULL%1,                         James M.%Blum%NULL%0,                         Robert%Jansen%NULL%1,                         David W.%Wright%NULL%1,                         William M.%Sewell%NULL%1,                         Jack D.%Owens%NULL%1,                         Benjamin%Lefkove%NULL%1,                         Frank W.%Brown%NULL%1,                         Deron C.%Burton%NULL%1,                         Timothy M.%Uyeki%NULL%3,                         Stephanie R.%Bialek%NULL%1,                         Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                         Jasmine A.%Mack%NULL%1,                         Maxwell%Salvatore%NULL%1,                         Swaraaj Prabhu%Sankar%NULL%1,                         Thomas S.%Valley%NULL%1,                         Karandeep%Singh%NULL%1,                         Brahmajee K.%Nallamothu%NULL%1,                         Sachin%Kheterpal%NULL%1,                         Lynda%Lisabeth%NULL%1,                         Lars G.%Fritsche%NULL%1,                         Bhramar%Mukherjee%NULL%1,                          T.%Gu%null%1,                          J. A.% Mack%null%1,                          M.% Salvatore%null%1,                          S. P.% Sankar%null%1,                          T. S.% Valley%null%1,                          K.% Singh%null%1,                          B. K.% Nallamothu%null%1,                          S.% Kheterpal%null%1,                          L.% Lisabeth%null%1,                          L. G.% Fritsche%null%1,                          B. G. % Mukherjee%null%1,                         T.%Gu%null%1,                         J. A.% Mack%null%1,                         M.% Salvatore%null%1,                         S. P.% Sankar%null%1,                         T. S.% Valley%null%1,                         K.% Singh%null%1,                         B. K.% Nallamothu%null%1,                         S.% Kheterpal%null%1,                         L.% Lisabeth%null%1,                         L. G.% Fritsche%null%1,                         B. G. % Mukherjee%null%1,        T.%Gu%null%1,        J. A.% Mack%null%1,        M.% Salvatore%null%1,        S. P.% Sankar%null%1,        T. S.% Valley%null%1,        K.% Singh%null%1,        B. K.% Nallamothu%null%1,        S.% Kheterpal%null%1,        L.% Lisabeth%null%1,        L. G.% Fritsche%null%1,        B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                          S.% Nirenberg%null%1,                          P.% Kovatch%null%1,                          K.-l. % Huang%null%1,        T.%Jun%null%1,        S.% Nirenberg%null%1,        P.% Kovatch%null%2,        K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                         Shikha%Garg%NULL%1,                         Alissa%O’Halloran%NULL%1,                         Michael%Whitaker%NULL%1,                         Huong%Pham%NULL%1,                         Evan J%Anderson%NULL%1,                         Isaac%Armistead%NULL%1,                         Nancy M%Bennett%NULL%1,                         Laurie%Billing%NULL%1,                         Kathryn%Como-Sabetti%NULL%1,                         Mary%Hill%NULL%1,                         Sue%Kim%NULL%1,                         Maya L%Monroe%NULL%1,                         Alison%Muse%NULL%1,                         Arthur L%Reingold%NULL%1,                         William%Schaffner%NULL%1,                         Melissa%Sutton%NULL%1,                         H Keipp%Talbot%NULL%1,                         Salina M%Torres%NULL%1,                         Kimberly%Yousey-Hindes%NULL%1,                         Rachel%Holstein%NULL%1,                         Charisse%Cummings%NULL%1,                         Lynette%Brammer%NULL%1,                         Aron J%Hall%NULL%1,                         Alicia M%Fry%NULL%1,                         Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                          S.% Richardson%null%1,                          K.% Coppa%null%1,                          D. P.% Barnaby%null%1,                          T.% McGinn%null%1,                          L. B.% Becker%null%1,                          K. W.% Davidson%null%1,                          S. L.% Cohen%null%1,                          J. S.% Hirsch%null%1,                          T.% Zanos%null%1,                            % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1,        T. J.%Levy%null%1,        S.% Richardson%null%1,        K.% Coppa%null%1,        D. P.% Barnaby%null%1,        T.% McGinn%null%1,        L. B.% Becker%null%1,        K. W.% Davidson%null%1,        S. L.% Cohen%null%1,        J. S.% Hirsch%null%1,        T.% Zanos%null%1,          % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                          L. H.% Nguyen%null%1,                          D. A.% Drew%null%1,                          M. S.% Graham%null%1,                          E. T.% Warner%null%1,                          A. D.% Joshi%null%1,                          C. M.% Astley%null%1,                          C.-G.% Guo%null%1,                          W.% Ma%null%1,                          R. S.% Mehta%null%1,                          S.% Kwon%null%1,                          M.% Song%null%1,                          R.% Davies%null%1,                          J.% Capdevila%null%1,                          K. A.% Lee%null%1,                          M. N.% Lochlainn%null%1,                          T.% Varsavsky%null%1,                          C. H.% Sudre%null%1,                          J.% Wolf%null%1,                          Y. C.% Cozier%null%1,                          L.% Rosenberg%null%1,                          L. R.% Wilkens%null%1,                          C. A.% Haiman%null%1,                          L. L.% Marchand%null%1,                          J. R.% Palmer%null%1,                          T. D.% Spector%null%1,                          S.% Ourselin%null%1,                          C. J.% Steves%null%1,                          A. T.% Chan%null%1,                            % COPE Consortium%null%1,        C.-H.%Lo%null%1,        L. H.% Nguyen%null%1,        D. A.% Drew%null%1,        M. S.% Graham%null%1,        E. T.% Warner%null%1,        A. D.% Joshi%null%1,        C. M.% Astley%null%1,        C.-G.% Guo%null%1,        W.% Ma%null%1,        R. S.% Mehta%null%1,        S.% Kwon%null%1,        M.% Song%null%1,        R.% Davies%null%1,        J.% Capdevila%null%1,        K. A.% Lee%null%1,        M. N.% Lochlainn%null%1,        T.% Varsavsky%null%1,        C. H.% Sudre%null%1,        J.% Wolf%null%1,        Y. C.% Cozier%null%1,        L.% Rosenberg%null%1,        L. R.% Wilkens%null%1,        C. A.% Haiman%null%1,        L. L.% Marchand%null%1,        J. R.% Palmer%null%1,        T. D.% Spector%null%1,        S.% Ourselin%null%1,        C. J.% Steves%null%1,        A. T.% Chan%null%1,          % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                         Jienchi%Dorward%NULL%1,                         Ana%Correa%NULL%1,                         Nicholas%Jones%NULL%1,                         Oluwafunmi%Akinyemi%NULL%1,                         Gayatri%Amirthalingam%NULL%1,                         Nick%Andrews%NULL%1,                         Rachel%Byford%NULL%1,                         Gavin%Dabrera%NULL%1,                         Alex%Elliot%NULL%1,                         Joanna%Ellis%NULL%0,                         Filipa%Ferreira%NULL%1,                         Jamie%Lopez Bernal%NULL%1,                         Cecilia%Okusi%NULL%1,                         Mary%Ramsay%NULL%1,                         Julian%Sherlock%NULL%1,                         Gillian%Smith%NULL%1,                         John%Williams%NULL%1,                         Gary%Howsam%NULL%1,                         Maria%Zambon%NULL%0,                         Mark%Joy%NULL%1,                         F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                         Johanna%Dolle%NULL%2,                         Johanna%Dolle%NULL%0,                         Sheila%Grami%NULL%1,                         Richard%Adule%NULL%1,                         Zeyu%Li%NULL%1,                         Kathleen%Tatem%NULL%1,                         Chinyere%Anyaogu%NULL%1,                         Stephen%Apfelroth%NULL%1,                         Raji%Ayinla%NULL%2,                         Raji%Ayinla%NULL%0,                         Noella%Boma%NULL%1,                         Terence%Brady%NULL%1,                         Braulio F.%Cosme-Thormann%NULL%1,                         Roseann%Costarella%NULL%1,                         Kenra%Ford%NULL%1,                         Kecia%Gaither%NULL%1,                         Jessica%Jacobson%NULL%1,                         Marc%Kanter%NULL%1,                         Stuart%Kessler%NULL%1,                         Ross B.%Kristal%NULL%1,                         Joseph J.%Lieber%NULL%1,                         Vikramjit%Mukherjee%NULL%1,                         Vincent%Rizzo%NULL%1,                         Madden%Rowell%NULL%1,                         David%Stevens%NULL%1,                         Elana%Sydney%NULL%1,                         Andrew%Wallach%NULL%2,                         Andrew%Wallach%NULL%0,                         Dave A.%Chokshi%NULL%1,                         Nichola%Davis%NULL%1,                         NULL%NULL%NULL%0,                         Sze Yan%Liu%NULL%2,                         Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                         Mark%Caridi-Scheible%NULL%0,                         James M.%Blum%NULL%0,                         Chad%Robichaux%NULL%1,                         Colleen%Kraft%NULL%1,                         Jesse T.%Jacob%NULL%1,                         Craig S.%Jabaley%NULL%0,                         David%Carpenter%NULL%1,                         Roberta%Kaplow%NULL%1,                         Alfonso C.%Hernandez-Romieu%NULL%0,                         Max W.%Adelman%NULL%0,                         Greg S.%Martin%NULL%0,                         Craig M.%Coopersmith%NULL%1,                         David J.%Murphy%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,                 Seunghee%Kim-Schulze%null%1,                 Hsin-Hui%Huang%null%1,                 Noam D.%Beckmann%null%1,                 Sharon%Nirenberg%null%1,                 Bo%Wang%null%1,                 Yonit%Lavin%null%1,                 Talia H.%Swartz%null%1,                 Deepu%Madduri%null%1,                 Aryeh%Stock%null%1,                 Thomas U.%Marron%null%1,                 Hui%Xie%null%1,                 Manishkumar%Patel%null%1,                 Kevin%Tuballes%null%1,                 Oliver%Oekelen%null%1,                 Adeeb%Rahman%null%1,                 Patricia%Kovatch%null%1,                 Judith A.%Aberg%null%1,                 Eric%Schadt%null%1,                 Sundar%Jagannath%null%1,                 Madhu%Mazumdar%null%1,                 Alexander W.%Charney%null%1,                 Adolfo%Firpo-Betancourt%null%1,                 Damodara Rao%Mendu%null%1,                 Jeffrey%Jhang%null%1,                 David%Reich%null%1,                 Keith%Sigel%null%1,                 Carlos%Cordon-Cardo%null%1,                 Marc%Feldmann%null%1,                 Samir%Parekh%null%1,                 Miriam%Merad%null%1,                 Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                         David R.%Jenkins%NULL%1,                         Jatinder S.%Minhas%NULL%1,                         Laura J.%Gray%NULL%1,                         Julian%Tang%NULL%1,                         Caroline%Williams%NULL%1,                         Shirley%Sze%NULL%1,                         Daniel%Pan%NULL%1,                         William%Jones%NULL%1,                         Raman%Verma%NULL%1,                         Scott%Knapp%NULL%1,                         Rupert%Major%NULL%1,                         Melanie%Davies%NULL%1,                         Nigel%Brunskill%NULL%1,                         Martin%Wiselka%NULL%1,                         Chris%Brightling%NULL%1,                         Kamlesh%Khunti%NULL%1,                         Pranab%Haldar%NULL%1,                         Manish%Pareek%mp426@le.ac.uk%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                         Kelly E%Hathorn%NULL%2,                         Kelly E%Hathorn%NULL%0,                         Walker D%Redd%NULL%1,                         Nicolette J%Rodriguez%NULL%1,                         Joyce C%Zhou%NULL%1,                         Ahmad Najdat%Bazarbashi%NULL%1,                         Cheikh%Njie%NULL%1,                         Danny%Wong%NULL%1,                         Quoc-Dien%Trinh%NULL%1,                         Lin%Shen%NULL%1,                         Valerie E%Stone%NULL%2,                         Valerie E%Stone%NULL%0,                         Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                          S.% Apewokin%null%1,                          A. A.% Wells%null%1,                          A. L. % Morrow%null%1,        A.%Mendy%null%1,        S.% Apewokin%null%1,        A. A.% Wells%null%1,        A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                         Thomas E.%Webb%NULL%2,                         Thomas E.%Webb%NULL%0,                         Benjamin C.%Mcloughlin%NULL%2,                         Benjamin C.%Mcloughlin%NULL%0,                         Imran%Mannan%NULL%2,                         Imran%Mannan%NULL%0,                         Arshad%Rather%NULL%2,                         Arshad%Rather%NULL%0,                         Paul%Knopp%NULL%1,                         Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                         Rajat%Suri%NULL%2,                         Rajat%Suri%NULL%0,                         Iheanacho O.%Emeruwa%NULL%2,                         Iheanacho O.%Emeruwa%NULL%0,                         Robert J.%Stretch%NULL%1,                         Roxana Y.%Cortes-Lopez%NULL%2,                         Roxana Y.%Cortes-Lopez%NULL%0,                         Alexander%Sherman%NULL%1,                         Catherine C.%Lindsay%NULL%1,                         Jennifer A.%Fulcher%NULL%1,                         David%Goodman-Meza%NULL%2,                         David%Goodman-Meza%NULL%0,                         Anil%Sapru%NULL%2,                         Anil%Sapru%NULL%0,                         Russell G.%Buhr%NULL%1,                         Steven Y.%Chang%NULL%2,                         Steven Y.%Chang%NULL%0,                         Tisha%Wang%NULL%1,                         Nida%Qadir%NULL%1,                         Giordano%Madeddu%NULL%8,                         Giordano%Madeddu%NULL%0,                         Giordano%Madeddu%NULL%0,                         Ana C.%Monteiro%NULL%2,                         Ana C.%Monteiro%NULL%0,                         Giordano%Madeddu%NULL%0,                         Giordano%Madeddu%NULL%0,                         Giordano%Madeddu%NULL%0,                         Giordano%Madeddu%NULL%0,                         Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                          D.% Stefanov%null%1,                          A. S.% Chau%null%1,                          A. G.% Weber%null%1,                          G. S.% Marder%null%1,                          B.% Kaplan%null%1,                          P.% Malhotra%null%1,                          O.% Bloom%null%1,                          A.% Liu%null%1,                          M.% Lesser%null%1,                          N. % Hajizadeh%null%1,        S.%Narain%null%1,        D.% Stefanov%null%1,        A. S.% Chau%null%1,        A. G.% Weber%null%1,        G. S.% Marder%null%1,        B.% Kaplan%null%1,        P.% Malhotra%null%1,        O.% Bloom%null%1,        A.% Liu%null%1,        M.% Lesser%null%1,        N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                         Catherine A.%O’Donnell%NULL%2,                         Bhautesh Dinesh%Jani%NULL%1,                         Evangelia%Demou%NULL%1,                         Frederick K.%Ho%NULL%1,                         Carlos%Celis-Morales%NULL%1,                         Barbara I.%Nicholl%NULL%1,                         Frances S.%Mair%NULL%2,                         Paul%Welsh%NULL%2,                         Naveed%Sattar%NULL%2,                         Jill P.%Pell%NULL%2,                         S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                         Alex J%Walker%NULL%1,                         Krishnan%Bhaskaran%NULL%1,                         Seb%Bacon%NULL%1,                         Chris%Bates%NULL%1,                         Caroline E%Morton%NULL%1,                         Helen J%Curtis%NULL%1,                         Amir%Mehrkar%NULL%1,                         David%Evans%NULL%1,                         Peter%Inglesby%NULL%1,                         Jonathan%Cockburn%NULL%1,                         Helen I%McDonald%NULL%1,                         Brian%MacKenna%NULL%1,                         Laurie%Tomlinson%NULL%1,                         Ian J%Douglas%NULL%1,                         Christopher T%Rentsch%NULL%1,                         Rohini%Mathur%NULL%1,                         Angel YS%Wong%NULL%1,                         Richard%Grieve%NULL%1,                         David%Harrison%NULL%1,                         Harriet%Forbes%NULL%1,                         Anna%Schultze%NULL%2,                         Richard%Croker%NULL%1,                         John%Parry%NULL%1,                         Frank%Hester%NULL%1,                         Sam%Harper%NULL%1,                         Rafael%Perera%NULL%1,                         Stephen JW%Evans%NULL%1,                         Liam%Smeeth%NULL%1,                         Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                         Ajay%Bhasin%NULL%1,                         Joseph M.%Feinglass%NULL%1,                         Michael P.%Angarone%NULL%1,                         Elaine R.%Cohen%NULL%1,                         Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                         Andrew%Gangemi%NULL%1,                         Robert%Marron%NULL%1,                         Junad%Chowdhury%NULL%1,                         Ibraheem%Yousef%NULL%1,                         Matthew%Zheng%NULL%1,                         Nicole%Mills%NULL%1,                         Lauren%Tragesser%NULL%1,                         Julie%Giurintano%NULL%1,                         Rohit%Gupta%NULL%0,                         Matthew%Gordon%NULL%0,                         Parth%Rali%NULL%2,                         Parth%Rali%NULL%0,                         Gilbert%D'Alonso%NULL%1,                         David%Fleece%NULL%1,                         Huaqing%Zhao%NULL%0,                         Nicole%Patlakh%NULL%0,                         Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                         Nathan C.%Skorodin%nskorodin@midcusa.com%1,                         Nicholas W.%Van Hise%NULL%1,                         Robert M.%Fliegelman%NULL%1,                         Jonathan%Pinsky%NULL%1,                         Vishal%Didwania%NULL%1,                         Michael%Anderson%NULL%1,                         Melina%Diaz%NULL%1,                         Kairav%Shah%NULL%1,                         Vishnu V.%Chundi%NULL%1,                         David W.%Hines%NULL%1,                         Brian P.%Harting%NULL%1,                         Kamo%Sidwha%NULL%1,                         Brian%Yu%NULL%1,                         Paul%Brune%NULL%1,                         Anjum%Owaisi%NULL%1,                         David%Beezhold%NULL%1,                         Joseph%Kent%NULL%1,                         Dana%Vais%NULL%1,                         Alice%Han%NULL%1,                         Neethi%Gowda%NULL%1,                         Nishi%Sahgal%NULL%1,                         Jan%Silverman%NULL%1,                         Jonathan%Stake%NULL%1,                         Jenie%Nepomuceno%NULL%1,                         Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                         Anna%Daunt%NULL%2,                         Anna%Daunt%NULL%0,                         Sujit%Mukherjee%NULL%1,                         Peter%Crook%NULL%1,                         Roberta%Forlano%NULL%1,                         Mara D%Kont%NULL%1,                         Alessandra%Løchen%NULL%1,                         Michaela%Vollmer%NULL%1,                         Paul%Middleton%NULL%1,                         Rebekah%Judge%NULL%1,                         Christopher%Harlow%NULL%1,                         Anet%Soubieres%NULL%1,                         Graham%Cooke%NULL%1,                         Peter J%White%NULL%1,                         Timothy B%Hallett%NULL%1,                         Paul%Aylin%NULL%1,                         Neil%Ferguson%NULL%1,                         Katharina%Hauck%NULL%1,                         Mark R%Thursz%NULL%1,                         Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                         Jeffrey%Burton%NULL%2,                         Jeffrey%Burton%NULL%0,                         Daniel%Fort%NULL%1,                         Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                         Michael S.%Sherman%NULL%1,                         Naaz%Fatteh%NULL%1,                         Fabio%Vogel%NULL%1,                         Jamie%Sacks%NULL%1,                         Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                          P.% Mannam%null%1,                          R.% Comer%null%1,                          E.% Sinclair%null%1,                          D. B.% McQuaid%null%1,                          M. L. % Schmidt%null%1,        M.%Ramaswamy%null%1,        P.% Mannam%null%1,        R.% Comer%null%1,        E.% Sinclair%null%1,        D. B.% McQuaid%null%1,        M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                         Farah%Kidwai-Khan%NULL%1,                         Janet P.%Tate%NULL%1,                         Lesley S.%Park%NULL%1,                         Joseph T.%King%NULL%1,                         Melissa%Skanderson%NULL%1,                         Ronald G.%Hauser%NULL%1,                         Anna%Schultze%NULL%0,                         Christopher I.%Jarvis%NULL%1,                         Mark%Holodniy%NULL%1,                         Vincent Lo%Re%NULL%1,                         Kathleen M.%Akgün%NULL%1,                         Kristina%Crothers%NULL%1,                         Tamar H.%Taddei%NULL%1,                         Matthew S.%Freiberg%NULL%1,                         Amy C.%Justice%NULL%1,                          C. T.%Rentsch%null%1,                          F.% Kidwai-Khan%null%1,                          J. P.% Tate%null%1,                          L. S.% Park%null%1,                          J. T.% King%null%1,                          M.% Skanderson%null%1,                          R. G.% Hauser%null%1,                          A.% Schultze%null%1,                          C. I.% Jarvis%null%1,                          M.% Holodniy%null%1,                          V.% Lo Re%null%1,                          K. M.% Akgun%null%1,                          K.% Crothers%null%1,                          T. H.% Taddei%null%1,                          M. S.% Freiberg%null%1,                          A. C. % Justice%null%1,                         C. T.%Rentsch%null%1,                         F.% Kidwai-Khan%null%1,                         J. P.% Tate%null%1,                         L. S.% Park%null%1,                         J. T.% King%null%1,                         M.% Skanderson%null%1,                         R. G.% Hauser%null%1,                         A.% Schultze%null%1,                         C. I.% Jarvis%null%1,                         M.% Holodniy%null%1,                         V.% Lo Re%null%1,                         K. M.% Akgun%null%1,                         K.% Crothers%null%1,                         T. H.% Taddei%null%1,                         M. S.% Freiberg%null%1,                         A. C. % Justice%null%1,        C. T.%Rentsch%null%1,        F.% Kidwai-Khan%null%1,        J. P.% Tate%null%1,        L. S.% Park%null%1,        J. T.% King%null%1,        M.% Skanderson%null%1,        R. G.% Hauser%null%1,        A.% Schultze%null%1,        C. I.% Jarvis%null%1,        M.% Holodniy%null%1,        V.% Lo Re%null%1,        K. M.% Akgun%null%1,        K.% Crothers%null%1,        T. H.% Taddei%null%1,        M. S.% Freiberg%null%1,        A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                         Jennifer%Beam%NULL%2,                         Jennifer%Beam%NULL%0,                         Haley%Maier%NULL%1,                         Whitney%Haggerson%NULL%1,                         Karen%Boudreau%NULL%1,                         Jamie%Carlson%NULL%1,                         Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                         Alexander E.%Ayala%NULL%1,                         Chideraa C.%Ukeje%NULL%1,                         Celeste S.%Witting%NULL%1,                         William A.%Grobman%NULL%1,                         Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                         Hannah C.%Jarvis%NULL%2,                         Hannah C.%Jarvis%NULL%0,                         Ezgi%Ozcan%NULL%1,                         Thomas L. P.%Burns%NULL%1,                         Rabia A.%Warraich%NULL%1,                         Lisa J.%Amani%NULL%1,                         Amina%Jaffer%NULL%1,                         Stephanie%Paget%NULL%1,                         Anand%Sivaramakrishnan%NULL%1,                         Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                         Suzy%Gallier%NULL%2,                         Suzy%Gallier%NULL%0,                         Chris%Mainey%NULL%1,                         Peter%Nightingale%NULL%2,                         Peter%Nightingale%NULL%0,                         David%McNulty%NULL%1,                         Hannah%Crothers%NULL%1,                         Felicity%Evison%NULL%1,                         Katharine%Reeves%NULL%1,                         Domenico%Pagano%NULL%1,                         Alastair K%Denniston%NULL%1,                         Krishnarajah%Nirantharakumar%NULL%1,                         Peter%Diggle%NULL%1,                         Simon%Ball%NULL%1,                         Lylah%Irshad%NULL%1,                         Maxim%Harris%NULL%1,                         Theodore%Nabav%NULL%1,                         A%Kolesnyk%NULL%1,                         M%Ahmed%NULL%1,                         A%Liaqat%NULL%1,                         Tanya%Pankhurst%NULL%1,                         Jamie%Coleman%NULL%1,                         Chirag%Dave%NULL%1,                         Khaled%ElFandi%NULL%1,                         Rifat%Rashid%NULL%1,                         Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                         Gregory A%Eschenauer%NULL%2,                         Gregory A%Eschenauer%NULL%0,                         Jonathan P%Troost%NULL%1,                         Jonathan L%Golob%NULL%1,                         Tejal N%Gandhi%NULL%1,                         Lu%Wang%NULL%1,                         Nina%Zhou%NULL%1,                         Lindsay A%Petty%NULL%1,                         Ji Hoon%Baang%NULL%1,                         Nicholas O%Dillman%NULL%1,                         David%Frame%NULL%1,                         Kevin S%Gregg%NULL%1,                         Dan R%Kaul%NULL%1,                         Jerod%Nagel%NULL%1,                         Twisha S%Patel%NULL%1,                         Shiwei%Zhou%NULL%1,                         Adam S%Lauring%NULL%1,                         David A%Hanauer%NULL%1,                         Emily%Martin%NULL%1,                         Pratima%Sharma%NULL%1,                         Christopher M%Fung%NULL%1,                         Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                         Lei%Qian%NULL%2,                         Lei%Qian%NULL%0,                         Vennis%Hong%NULL%1,                         Rong%Wei%NULL%2,                         Rong%Wei%NULL%0,                         Ron F.%Nadjafi%NULL%2,                         Ron F.%Nadjafi%NULL%0,                         Heidi%Fischer%NULL%1,                         Zhuoxin%Li%NULL%1,                         Sally F.%Shaw%NULL%1,                         Susan L.%Caparosa%NULL%2,                         Susan L.%Caparosa%NULL%0,                         Claudia L.%Nau%NULL%1,                         Tanmai%Saxena%NULL%1,                         Gunter K.%Rieg%NULL%1,                         Bradley K.%Ackerson%NULL%1,                         Adam L.%Sharp%NULL%2,                         Adam L.%Sharp%NULL%0,                         Jacek%Skarbinski%NULL%2,                         Jacek%Skarbinski%NULL%0,                         Tej K.%Naik%NULL%1,                         Sameer B.%Murali%NULL%2,                         Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                         Juan Carlos%Nicolas%NULL%2,                         Juan Carlos%Nicolas%NULL%0,                         Jennifer R%Meeks%NULL%1,                         Osman%Khan%NULL%1,                         Alan%Pan%NULL%1,                         Stephen L%Jones%NULL%1,                         Faisal%Masud%NULL%1,                         H Dirk%Sostman%NULL%1,                         Robert%Phillips%NULL%1,                         Julia D%Andrieni%NULL%1,                         Bita A%Kash%NULL%1,                         Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                         Arryn%Craney%NULL%1,                         Phyllis%Ruggiero%NULL%1,                         John%Sipley%NULL%1,                         Lin%Cong%NULL%1,                         Erika M.%Hissong%NULL%1,                         Massimo%Loda%NULL%1,                         Lars F.%Westblade%NULL%1,                         Melissa%Cushing%NULL%2,                         Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                          X.% Zhong%null%1,                          Y. % Hurd%null%1,        A.-L.%WANG%null%1,        X.% Zhong%null%1,        Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                         Amanda%Zheutlin%NULL%2,                         Amanda%Zheutlin%NULL%0,                         Yu-Han%Kao%NULL%1,                         Kristin%Ayers%NULL%1,                         Susan%Gross%NULL%1,                         Patricia%Kovatch%NULL%1,                         Sharon%Nirenberg%NULL%1,                         Alexander%Charney%NULL%1,                         Girish%Nadkarni%NULL%1,                         Jessica K%De Freitas%NULL%1,                         Paul%O’Reilly%NULL%1,                         Allan%Just%NULL%1,                         Carol%Horowitz%NULL%1,                         Glenn%Martin%NULL%1,                         Andrea%Branch%NULL%1,                         Benjamin S%Glicksberg%NULL%1,                         Dennis%Charney%NULL%1,                         David%Reich%NULL%1,                         William K%Oh%NULL%1,                         Eric%Schadt%NULL%1,                         Rong%Chen%NULL%0,                         Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                         Angela%Winegar%NULL%1,                         Richard%Fogel%NULL%1,                         Mohamad%Fakih%NULL%1,                         Allison%Ottenbacher%NULL%1,                         Christine%Jesser%NULL%1,                         Angelo%Bufalino%NULL%1,                         Ren-Huai%Huang%NULL%1,                         Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                         Rebecca%Bendayan%NULL%0,                         Mark%Ashworth%NULL%1,                         Daniel M.%Bean%NULL%1,                         Hiten%Dodhia%NULL%1,                         Stevo%Durbaba%NULL%1,                         Kevin%O'Gallagher%NULL%1,                         Claire%Palmer%NULL%1,                         Vasa%Curcin%NULL%1,                         Elizabeth%Aitken%NULL%1,                         William%Bernal%NULL%1,                         Richard D.%Barker%NULL%1,                         Sam%Norton%NULL%1,                         Martin%Gulliford%NULL%1,                         James T.H.%Teo%NULL%0,                         James%Galloway%NULL%1,                         Richard J.B.%Dobson%NULL%0,                         Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                         Carina%Marquez%NULL%1,                         Emily%Crawford%NULL%1,                         James%Peng%NULL%1,                         Maya%Petersen%NULL%1,                         Daniel%Schwab%NULL%1,                         Joshua%Schwab%NULL%1,                         Jackie%Martinez%NULL%1,                         Diane%Jones%NULL%1,                         Douglas%Black%NULL%1,                         Monica%Gandhi%NULL%1,                         Andrew D%Kerkhoff%NULL%1,                         Vivek%Jain%NULL%1,                         Francesco%Sergi%NULL%1,                         Jon%Jacobo%NULL%1,                         Susana%Rojas%NULL%1,                         Valerie%Tulier-Laiwa%NULL%1,                         Tracy%Gallardo-Brown%NULL%1,                         Ayesha%Appa%NULL%1,                         Charles%Chiu%NULL%1,                         Mary%Rodgers%NULL%1,                         John%Hackett%NULL%1,                         NULL%NULL%NULL%0,                         Amy%Kistler%NULL%1,                         Samantha%Hao%NULL%1,                         Jack%Kamm%NULL%1,                         David%Dynerman%NULL%1,                         Joshua%Batson%NULL%1,                         Bryan%Greenhouse%NULL%1,                         Joe%DeRisi%NULL%1,                         Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                         Tiffany%Grimes%NULL%1,                         Peng%Li%NULL%1,                         Matthew%Might%NULL%1,                         Fernando%Ovalle%NULL%1,                         Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                         Natalie%Achamallah%NULL%1,                         Hongwei%Ji%NULL%1,                         Brian L.%Claggett%NULL%1,                         Nancy%Sun%NULL%1,                         Patrick%Botting%NULL%1,                         Trevor-Trung%Nguyen%NULL%1,                         Eric%Luong%NULL%1,                         Elizabeth H.%Kim%NULL%1,                         Eunice%Park%NULL%1,                         Yunxian%Liu%NULL%1,                         Ryan%Rosenberry%NULL%1,                         Yuri%Matusov%NULL%1,                         Steven%Zhao%NULL%1,                         Isabel%Pedraza%NULL%1,                         Tanzira%Zaman%NULL%1,                         Michael%Thompson%NULL%1,                         Koen%Raedschelders%NULL%1,                         Anders H.%Berg%NULL%2,                         Anders H.%Berg%NULL%0,                         Jonathan D.%Grein%NULL%1,                         Paul W.%Noble%NULL%1,                         Sumeet S.%Chugh%NULL%1,                         C. Noel%Bairey Merz%NULL%1,                         Eduardo%Marbán%NULL%1,                         Jennifer E.%Van Eyk%NULL%1,                         Scott D.%Solomon%NULL%1,                         Christine M.%Albert%NULL%1,                         Peter%Chen%NULL%1,                         Susan%Cheng%NULL%3,                         Yu Ru%Kou%NULL%8,                         Yu Ru%Kou%NULL%0,                         Yu Ru%Kou%NULL%0,                         Susan%Cheng%biodatacore@cshs.org%0,                         Susan%Cheng%biodatacore@cshs.org%0,                         Yu Ru%Kou%NULL%0,                         Yu Ru%Kou%NULL%0,                         Yu Ru%Kou%NULL%0,                         Yu Ru%Kou%NULL%0,                         Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                         Penelope%Strid%NULL%1,                         Van T.%Tong%NULL%1,                         Kate%Woodworth%NULL%1,                         Romeo R.%Galang%NULL%1,                         Laura D.%Zambrano%NULL%1,                         John%Nahabedian%NULL%1,                         Kayla%Anderson%NULL%1,                         Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                         Jacob%Fiksel%NULL%2,                         Jacob%Fiksel%NULL%0,                         John%Muschelli%NULL%2,                         John%Muschelli%NULL%0,                         Matthew L.%Robinson%NULL%2,                         Matthew L.%Robinson%NULL%0,                         Masoud%Rouhizadeh%NULL%2,                         Masoud%Rouhizadeh%NULL%0,                         Jamie%Perin%NULL%2,                         Jamie%Perin%NULL%0,                         Grant%Schumock%NULL%2,                         Grant%Schumock%NULL%0,                         Paul%Nagy%NULL%2,                         Paul%Nagy%NULL%0,                         Josh H.%Gray%NULL%2,                         Josh H.%Gray%NULL%0,                         Harsha%Malapati%NULL%2,                         Harsha%Malapati%NULL%0,                         Mariam%Ghobadi-Krueger%NULL%2,                         Mariam%Ghobadi-Krueger%NULL%0,                         Timothy M.%Niessen%NULL%1,                         Bo Soo%Kim%NULL%1,                         Peter M.%Hill%NULL%1,                         M. Shafeeq%Ahmed%NULL%1,                         Eric D.%Dobkin%NULL%1,                         Renee%Blanding%NULL%1,                         Jennifer%Abele%NULL%1,                         Bonnie%Woods%NULL%1,                         Kenneth%Harkness%NULL%1,                         David R.%Thiemann%NULL%1,                         Mary G.%Bowring%NULL%1,                         Aalok B.%Shah%NULL%2,                         Aalok B.%Shah%NULL%0,                         Mei-Cheng%Wang%NULL%1,                         Karen%Bandeen-Roche%NULL%1,                         Antony%Rosen%NULL%1,                         Scott L.%Zeger%NULL%2,                         Scott L.%Zeger%NULL%0,                         Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                         Megan%McCullough%NULL%0,                         Megan%McCullough%NULL%0,                         Michael A.%Fuery%NULL%0,                         Fouad%Chouairi%NULL%0,                         Fouad%Chouairi%NULL%0,                         Craig%Keating%NULL%0,                         Neal G.%Ravindra%NULL%0,                         P. Elliott%Miller%NULL%0,                         Maricar%Malinis%NULL%0,                         Nitu%Kashyap%NULL%0,                         Allen%Hsiao%NULL%0,                         F. Perry%Wilson%NULL%0,                         Jeptha P.%Curtis%NULL%0,                         Matthew%Grant%NULL%0,                         Eric J.%Velazquez%NULL%0,                         Nihar R.%Desai%NULL%0,                         Tariq%Ahmad%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0,                         Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S. M.%Ahmed%null%1,                           R. U.% Shah%null%1,                           M.% Bale%null%1,                           J. B.% Peacock%null%1,                           B.% Berger%null%1,                           A.% Brown%null%1,                           S.% Mann%null%1,                           W.% West%null%1,                           V.% Martin%null%1,                           V.% Fernandez%null%1,                           S.% Grineski%null%1,                           B. J.% Brintz%null%1,                           M. H.% Samore%null%1,                           M. J.% Ferrari%null%1,                           D. T.% Leung%null%1,                           L. T. % Keegan%null%1,         S. M.%Ahmed%null%1,         R. U.% Shah%null%1,         M.% Bale%null%1,         J. B.% Peacock%null%1,         B.% Berger%null%1,         A.% Brown%null%1,         S.% Mann%null%1,         W.% West%null%1,         V.% Martin%null%1,         V.% Fernandez%null%1,         S.% Grineski%null%1,         B. J.% Brintz%null%1,         M. H.% Samore%null%1,         M. J.% Ferrari%null%1,         D. T.% Leung%null%1,         L. T. % Keegan%null%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                          Samuel L%Bruce%NULL%1,                          Cody L%Slater%NULL%1,                          Jonathan R%Tiao%NULL%1,                          Matthew R%Baldwin%NULL%1,                          R Graham%Barr%NULL%1,                          Bernard P%Chang%NULL%1,                          Katherine H%Chau%NULL%1,                          Justin J%Choi%NULL%1,                          Nicholas%Gavin%NULL%1,                          Parag%Goyal%NULL%1,                          Angela M%Mills%NULL%1,                          Ashmi A%Patel%NULL%1,                          Marie-Laure S%Romney%NULL%1,                          Monika M%Safford%NULL%1,                          Neil W%Schluger%NULL%1,                          Soumitra%Sengupta%NULL%1,                          Magdalena E%Sobieszczyk%NULL%1,                          Jason E%Zucker%NULL%1,                          Paul A%Asadourian%NULL%1,                          Fletcher M%Bell%NULL%1,                          Rebekah%Boyd%NULL%1,                          Matthew F%Cohen%NULL%1,                          MacAlistair I%Colquhoun%NULL%1,                          Lucy A%Colville%NULL%1,                          Joseph H%de Jonge%NULL%1,                          Lyle B%Dershowitz%NULL%1,                          Shirin A%Dey%NULL%1,                          Katherine A%Eiseman%NULL%1,                          Zachary P%Girvin%NULL%1,                          Daniella T%Goni%NULL%1,                          Amro A%Harb%NULL%1,                          Nicholas%Herzik%NULL%1,                          Sarah%Householder%NULL%1,                          Lara E%Karaaslan%NULL%1,                          Heather%Lee%NULL%1,                          Evan%Lieberman%NULL%1,                          Andrew%Ling%NULL%1,                          Ree%Lu%NULL%1,                          Arthur Y%Shou%NULL%1,                          Alexander C%Sisti%NULL%1,                          Zachary E%Snow%NULL%1,                          Colin P%Sperring%NULL%1,                          Yuqing%Xiong%NULL%1,                          Henry W%Zhou%NULL%1,                          Karthik%Natarajan%NULL%1,                          George%Hripcsak%NULL%1,                          Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                          Megan%McCullough%NULL%4,                          Megan%McCullough%NULL%0,                          Michael A.%Fuery%NULL%2,                          Fouad%Chouairi%NULL%4,                          Fouad%Chouairi%NULL%0,                          Craig%Keating%NULL%2,                          Neal G.%Ravindra%NULL%2,                          P. Elliott%Miller%NULL%2,                          Maricar%Malinis%NULL%2,                          Nitu%Kashyap%NULL%2,                          Allen%Hsiao%NULL%2,                          F. Perry%Wilson%NULL%2,                          Jeptha P.%Curtis%NULL%2,                          Matthew%Grant%NULL%2,                          Eric J.%Velazquez%NULL%2,                          Nihar R.%Desai%NULL%2,                          Tariq%Ahmad%NULL%2,                          Chiara%Lazzeri%NULL%18,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                          Karen K.%Wong%NULL%1,                          Christine M.%Szablewski%NULL%1,                          Priti R.%Patel%NULL%1,                          John%Rossow%NULL%1,                          Juliana%da Silva%NULL%1,                          Pavithra%Natarajan%NULL%1,                          Sapna Bamrah%Morris%NULL%1,                          Robyn Neblett%Fanfair%NULL%1,                          Jessica%Rogers-Brown%NULL%1,                          Beau B.%Bruce%NULL%1,                          Sean D.%Browning%NULL%1,                          Alfonso C.%Hernandez-Romieu%NULL%2,                          Nathan W.%Furukawa%NULL%1,                          Mohleen%Kang%NULL%1,                          Mary E.%Evans%NULL%1,                          Nadine%Oosmanally%NULL%1,                          Melissa%Tobin-D’Angelo%NULL%1,                          Cherie%Drenzek%NULL%1,                          David J.%Murphy%NULL%0,                          Julie%Hollberg%NULL%1,                          James M.%Blum%NULL%0,                          Robert%Jansen%NULL%1,                          David W.%Wright%NULL%1,                          William M.%Sewell%NULL%1,                          Jack D.%Owens%NULL%1,                          Benjamin%Lefkove%NULL%1,                          Frank W.%Brown%NULL%1,                          Deron C.%Burton%NULL%1,                          Timothy M.%Uyeki%NULL%3,                          Stephanie R.%Bialek%NULL%1,                          Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                          Jasmine A.%Mack%NULL%1,                          Maxwell%Salvatore%NULL%1,                          Swaraaj Prabhu%Sankar%NULL%1,                          Thomas S.%Valley%NULL%1,                          Karandeep%Singh%NULL%1,                          Brahmajee K.%Nallamothu%NULL%1,                          Sachin%Kheterpal%NULL%1,                          Lynda%Lisabeth%NULL%1,                          Lars G.%Fritsche%NULL%1,                          Bhramar%Mukherjee%NULL%1,                           T.%Gu%null%1,                           J. A.% Mack%null%1,                           M.% Salvatore%null%1,                           S. P.% Sankar%null%1,                           T. S.% Valley%null%1,                           K.% Singh%null%1,                           B. K.% Nallamothu%null%1,                           S.% Kheterpal%null%1,                           L.% Lisabeth%null%1,                           L. G.% Fritsche%null%1,                           B. G. % Mukherjee%null%1,                          T.%Gu%null%1,                          J. A.% Mack%null%1,                          M.% Salvatore%null%1,                          S. P.% Sankar%null%1,                          T. S.% Valley%null%1,                          K.% Singh%null%1,                          B. K.% Nallamothu%null%1,                          S.% Kheterpal%null%1,                          L.% Lisabeth%null%1,                          L. G.% Fritsche%null%1,                          B. G. % Mukherjee%null%1,         T.%Gu%null%1,         J. A.% Mack%null%1,         M.% Salvatore%null%1,         S. P.% Sankar%null%1,         T. S.% Valley%null%1,         K.% Singh%null%1,         B. K.% Nallamothu%null%1,         S.% Kheterpal%null%1,         L.% Lisabeth%null%1,         L. G.% Fritsche%null%1,         B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[ T.%Jun%null%1,                           S.% Nirenberg%null%1,                           P.% Kovatch%null%1,                           K.-l. % Huang%null%1,         T.%Jun%null%1,         S.% Nirenberg%null%1,         P.% Kovatch%null%2,         K.-l. % Huang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                          Shikha%Garg%NULL%1,                          Alissa%O’Halloran%NULL%1,                          Michael%Whitaker%NULL%1,                          Huong%Pham%NULL%1,                          Evan J%Anderson%NULL%1,                          Isaac%Armistead%NULL%1,                          Nancy M%Bennett%NULL%1,                          Laurie%Billing%NULL%1,                          Kathryn%Como-Sabetti%NULL%1,                          Mary%Hill%NULL%1,                          Sue%Kim%NULL%1,                          Maya L%Monroe%NULL%1,                          Alison%Muse%NULL%1,                          Arthur L%Reingold%NULL%1,                          William%Schaffner%NULL%1,                          Melissa%Sutton%NULL%1,                          H Keipp%Talbot%NULL%1,                          Salina M%Torres%NULL%1,                          Kimberly%Yousey-Hindes%NULL%1,                          Rachel%Holstein%NULL%1,                          Charisse%Cummings%NULL%1,                          Lynette%Brammer%NULL%1,                          Aron J%Hall%NULL%1,                          Alicia M%Fry%NULL%1,                          Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ T. J.%Levy%null%1,                           S.% Richardson%null%1,                           K.% Coppa%null%1,                           D. P.% Barnaby%null%1,                           T.% McGinn%null%1,                           L. B.% Becker%null%1,                           K. W.% Davidson%null%1,                           S. L.% Cohen%null%1,                           J. S.% Hirsch%null%1,                           T.% Zanos%null%1,                             % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1,         T. J.%Levy%null%1,         S.% Richardson%null%1,         K.% Coppa%null%1,         D. P.% Barnaby%null%1,         T.% McGinn%null%1,         L. B.% Becker%null%1,         K. W.% Davidson%null%1,         S. L.% Cohen%null%1,         J. S.% Hirsch%null%1,         T.% Zanos%null%1,           % Northwell &amp; Maimonides COVID-19 Research Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[ C.-H.%Lo%null%1,                           L. H.% Nguyen%null%1,                           D. A.% Drew%null%1,                           M. S.% Graham%null%1,                           E. T.% Warner%null%1,                           A. D.% Joshi%null%1,                           C. M.% Astley%null%1,                           C.-G.% Guo%null%1,                           W.% Ma%null%1,                           R. S.% Mehta%null%1,                           S.% Kwon%null%1,                           M.% Song%null%1,                           R.% Davies%null%1,                           J.% Capdevila%null%1,                           K. A.% Lee%null%1,                           M. N.% Lochlainn%null%1,                           T.% Varsavsky%null%1,                           C. H.% Sudre%null%1,                           J.% Wolf%null%1,                           Y. C.% Cozier%null%1,                           L.% Rosenberg%null%1,                           L. R.% Wilkens%null%1,                           C. A.% Haiman%null%1,                           L. L.% Marchand%null%1,                           J. R.% Palmer%null%1,                           T. D.% Spector%null%1,                           S.% Ourselin%null%1,                           C. J.% Steves%null%1,                           A. T.% Chan%null%1,                             % COPE Consortium%null%1,         C.-H.%Lo%null%1,         L. H.% Nguyen%null%1,         D. A.% Drew%null%1,         M. S.% Graham%null%1,         E. T.% Warner%null%1,         A. D.% Joshi%null%1,         C. M.% Astley%null%1,         C.-G.% Guo%null%1,         W.% Ma%null%1,         R. S.% Mehta%null%1,         S.% Kwon%null%1,         M.% Song%null%1,         R.% Davies%null%1,         J.% Capdevila%null%1,         K. A.% Lee%null%1,         M. N.% Lochlainn%null%1,         T.% Varsavsky%null%1,         C. H.% Sudre%null%1,         J.% Wolf%null%1,         Y. C.% Cozier%null%1,         L.% Rosenberg%null%1,         L. R.% Wilkens%null%1,         C. A.% Haiman%null%1,         L. L.% Marchand%null%1,         J. R.% Palmer%null%1,         T. D.% Spector%null%1,         S.% Ourselin%null%1,         C. J.% Steves%null%1,         A. T.% Chan%null%1,           % COPE Consortium%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                          Jienchi%Dorward%NULL%1,                          Ana%Correa%NULL%1,                          Nicholas%Jones%NULL%1,                          Oluwafunmi%Akinyemi%NULL%1,                          Gayatri%Amirthalingam%NULL%1,                          Nick%Andrews%NULL%1,                          Rachel%Byford%NULL%1,                          Gavin%Dabrera%NULL%1,                          Alex%Elliot%NULL%1,                          Joanna%Ellis%NULL%0,                          Filipa%Ferreira%NULL%1,                          Jamie%Lopez Bernal%NULL%1,                          Cecilia%Okusi%NULL%1,                          Mary%Ramsay%NULL%1,                          Julian%Sherlock%NULL%1,                          Gillian%Smith%NULL%1,                          John%Williams%NULL%1,                          Gary%Howsam%NULL%1,                          Maria%Zambon%NULL%0,                          Mark%Joy%NULL%1,                          F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                          Johanna%Dolle%NULL%2,                          Johanna%Dolle%NULL%0,                          Sheila%Grami%NULL%1,                          Richard%Adule%NULL%1,                          Zeyu%Li%NULL%1,                          Kathleen%Tatem%NULL%1,                          Chinyere%Anyaogu%NULL%1,                          Stephen%Apfelroth%NULL%1,                          Raji%Ayinla%NULL%2,                          Raji%Ayinla%NULL%0,                          Noella%Boma%NULL%1,                          Terence%Brady%NULL%1,                          Braulio F.%Cosme-Thormann%NULL%1,                          Roseann%Costarella%NULL%1,                          Kenra%Ford%NULL%1,                          Kecia%Gaither%NULL%1,                          Jessica%Jacobson%NULL%1,                          Marc%Kanter%NULL%1,                          Stuart%Kessler%NULL%1,                          Ross B.%Kristal%NULL%1,                          Joseph J.%Lieber%NULL%1,                          Vikramjit%Mukherjee%NULL%1,                          Vincent%Rizzo%NULL%1,                          Madden%Rowell%NULL%1,                          David%Stevens%NULL%1,                          Elana%Sydney%NULL%1,                          Andrew%Wallach%NULL%2,                          Andrew%Wallach%NULL%0,                          Dave A.%Chokshi%NULL%1,                          Nichola%Davis%NULL%1,                          NULL%NULL%NULL%0,                          Sze Yan%Liu%NULL%2,                          Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                          Mark%Caridi-Scheible%NULL%0,                          James M.%Blum%NULL%0,                          Chad%Robichaux%NULL%1,                          Colleen%Kraft%NULL%1,                          Jesse T.%Jacob%NULL%1,                          Craig S.%Jabaley%NULL%0,                          David%Carpenter%NULL%1,                          Roberta%Kaplow%NULL%1,                          Alfonso C.%Hernandez-Romieu%NULL%0,                          Max W.%Adelman%NULL%0,                          Greg S.%Martin%NULL%0,                          Craig M.%Coopersmith%NULL%1,                          David J.%Murphy%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Diane Marie%Del Valle%null%1,                  Seunghee%Kim-Schulze%null%1,                  Hsin-Hui%Huang%null%1,                  Noam D.%Beckmann%null%1,                  Sharon%Nirenberg%null%1,                  Bo%Wang%null%1,                  Yonit%Lavin%null%1,                  Talia H.%Swartz%null%1,                  Deepu%Madduri%null%1,                  Aryeh%Stock%null%1,                  Thomas U.%Marron%null%1,                  Hui%Xie%null%1,                  Manishkumar%Patel%null%1,                  Kevin%Tuballes%null%1,                  Oliver%Oekelen%null%1,                  Adeeb%Rahman%null%1,                  Patricia%Kovatch%null%1,                  Judith A.%Aberg%null%1,                  Eric%Schadt%null%1,                  Sundar%Jagannath%null%1,                  Madhu%Mazumdar%null%1,                  Alexander W.%Charney%null%1,                  Adolfo%Firpo-Betancourt%null%1,                  Damodara Rao%Mendu%null%1,                  Jeffrey%Jhang%null%1,                  David%Reich%null%1,                  Keith%Sigel%null%1,                  Carlos%Cordon-Cardo%null%1,                  Marc%Feldmann%null%1,                  Samir%Parekh%null%1,                  Miriam%Merad%null%1,                  Sacha%Gnjatic%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                          David R.%Jenkins%NULL%1,                          Jatinder S.%Minhas%NULL%1,                          Laura J.%Gray%NULL%1,                          Julian%Tang%NULL%1,                          Caroline%Williams%NULL%1,                          Shirley%Sze%NULL%1,                          Daniel%Pan%NULL%1,                          William%Jones%NULL%1,                          Raman%Verma%NULL%1,                          Scott%Knapp%NULL%1,                          Rupert%Major%NULL%1,                          Melanie%Davies%NULL%1,                          Nigel%Brunskill%NULL%1,                          Martin%Wiselka%NULL%1,                          Chris%Brightling%NULL%1,                          Kamlesh%Khunti%NULL%1,                          Pranab%Haldar%NULL%1,                          Manish%Pareek%mp426@le.ac.uk%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                          Kelly E%Hathorn%NULL%2,                          Kelly E%Hathorn%NULL%0,                          Walker D%Redd%NULL%1,                          Nicolette J%Rodriguez%NULL%1,                          Joyce C%Zhou%NULL%1,                          Ahmad Najdat%Bazarbashi%NULL%1,                          Cheikh%Njie%NULL%1,                          Danny%Wong%NULL%1,                          Quoc-Dien%Trinh%NULL%1,                          Lin%Shen%NULL%1,                          Valerie E%Stone%NULL%2,                          Valerie E%Stone%NULL%0,                          Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.%Mendy%null%1,                           S.% Apewokin%null%1,                           A. A.% Wells%null%1,                           A. L. % Morrow%null%1,         A.%Mendy%null%1,         S.% Apewokin%null%1,         A. A.% Wells%null%1,         A. L. % Morrow%null%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                          Thomas E.%Webb%NULL%2,                          Thomas E.%Webb%NULL%0,                          Benjamin C.%Mcloughlin%NULL%2,                          Benjamin C.%Mcloughlin%NULL%0,                          Imran%Mannan%NULL%2,                          Imran%Mannan%NULL%0,                          Arshad%Rather%NULL%2,                          Arshad%Rather%NULL%0,                          Paul%Knopp%NULL%1,                          Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                          Rajat%Suri%NULL%2,                          Rajat%Suri%NULL%0,                          Iheanacho O.%Emeruwa%NULL%2,                          Iheanacho O.%Emeruwa%NULL%0,                          Robert J.%Stretch%NULL%1,                          Roxana Y.%Cortes-Lopez%NULL%2,                          Roxana Y.%Cortes-Lopez%NULL%0,                          Alexander%Sherman%NULL%1,                          Catherine C.%Lindsay%NULL%1,                          Jennifer A.%Fulcher%NULL%1,                          David%Goodman-Meza%NULL%2,                          David%Goodman-Meza%NULL%0,                          Anil%Sapru%NULL%2,                          Anil%Sapru%NULL%0,                          Russell G.%Buhr%NULL%1,                          Steven Y.%Chang%NULL%2,                          Steven Y.%Chang%NULL%0,                          Tisha%Wang%NULL%1,                          Nida%Qadir%NULL%1,                          Giordano%Madeddu%NULL%8,                          Giordano%Madeddu%NULL%0,                          Giordano%Madeddu%NULL%0,                          Ana C.%Monteiro%NULL%2,                          Ana C.%Monteiro%NULL%0,                          Giordano%Madeddu%NULL%0,                          Giordano%Madeddu%NULL%0,                          Giordano%Madeddu%NULL%0,                          Giordano%Madeddu%NULL%0,                          Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ S.%Narain%null%1,                           D.% Stefanov%null%1,                           A. S.% Chau%null%1,                           A. G.% Weber%null%1,                           G. S.% Marder%null%1,                           B.% Kaplan%null%1,                           P.% Malhotra%null%1,                           O.% Bloom%null%1,                           A.% Liu%null%1,                           M.% Lesser%null%1,                           N. % Hajizadeh%null%1,         S.%Narain%null%1,         D.% Stefanov%null%1,         A. S.% Chau%null%1,         A. G.% Weber%null%1,         G. S.% Marder%null%1,         B.% Kaplan%null%1,         P.% Malhotra%null%1,         O.% Bloom%null%1,         A.% Liu%null%1,         M.% Lesser%null%1,         N. % Hajizadeh%null%1]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                          Catherine A.%O’Donnell%NULL%2,                          Bhautesh Dinesh%Jani%NULL%1,                          Evangelia%Demou%NULL%1,                          Frederick K.%Ho%NULL%1,                          Carlos%Celis-Morales%NULL%1,                          Barbara I.%Nicholl%NULL%1,                          Frances S.%Mair%NULL%2,                          Paul%Welsh%NULL%2,                          Naveed%Sattar%NULL%2,                          Jill P.%Pell%NULL%2,                          S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                          Alex J%Walker%NULL%1,                          Krishnan%Bhaskaran%NULL%1,                          Seb%Bacon%NULL%1,                          Chris%Bates%NULL%1,                          Caroline E%Morton%NULL%1,                          Helen J%Curtis%NULL%1,                          Amir%Mehrkar%NULL%1,                          David%Evans%NULL%1,                          Peter%Inglesby%NULL%1,                          Jonathan%Cockburn%NULL%1,                          Helen I%McDonald%NULL%1,                          Brian%MacKenna%NULL%1,                          Laurie%Tomlinson%NULL%1,                          Ian J%Douglas%NULL%1,                          Christopher T%Rentsch%NULL%1,                          Rohini%Mathur%NULL%1,                          Angel YS%Wong%NULL%1,                          Richard%Grieve%NULL%1,                          David%Harrison%NULL%1,                          Harriet%Forbes%NULL%1,                          Anna%Schultze%NULL%2,                          Richard%Croker%NULL%1,                          John%Parry%NULL%1,                          Frank%Hester%NULL%1,                          Sam%Harper%NULL%1,                          Rafael%Perera%NULL%1,                          Stephen JW%Evans%NULL%1,                          Liam%Smeeth%NULL%1,                          Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                          Ajay%Bhasin%NULL%1,                          Joseph M.%Feinglass%NULL%1,                          Michael P.%Angarone%NULL%1,                          Elaine R.%Cohen%NULL%1,                          Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                          Andrew%Gangemi%NULL%1,                          Robert%Marron%NULL%1,                          Junad%Chowdhury%NULL%1,                          Ibraheem%Yousef%NULL%1,                          Matthew%Zheng%NULL%1,                          Nicole%Mills%NULL%1,                          Lauren%Tragesser%NULL%1,                          Julie%Giurintano%NULL%1,                          Rohit%Gupta%NULL%0,                          Matthew%Gordon%NULL%0,                          Parth%Rali%NULL%2,                          Parth%Rali%NULL%0,                          Gilbert%D'Alonso%NULL%1,                          David%Fleece%NULL%1,                          Huaqing%Zhao%NULL%0,                          Nicole%Patlakh%NULL%0,                          Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                          Nathan C.%Skorodin%nskorodin@midcusa.com%1,                          Nicholas W.%Van Hise%NULL%1,                          Robert M.%Fliegelman%NULL%1,                          Jonathan%Pinsky%NULL%1,                          Vishal%Didwania%NULL%1,                          Michael%Anderson%NULL%1,                          Melina%Diaz%NULL%1,                          Kairav%Shah%NULL%1,                          Vishnu V.%Chundi%NULL%1,                          David W.%Hines%NULL%1,                          Brian P.%Harting%NULL%1,                          Kamo%Sidwha%NULL%1,                          Brian%Yu%NULL%1,                          Paul%Brune%NULL%1,                          Anjum%Owaisi%NULL%1,                          David%Beezhold%NULL%1,                          Joseph%Kent%NULL%1,                          Dana%Vais%NULL%1,                          Alice%Han%NULL%1,                          Neethi%Gowda%NULL%1,                          Nishi%Sahgal%NULL%1,                          Jan%Silverman%NULL%1,                          Jonathan%Stake%NULL%1,                          Jenie%Nepomuceno%NULL%1,                          Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                          Anna%Daunt%NULL%2,                          Anna%Daunt%NULL%0,                          Sujit%Mukherjee%NULL%1,                          Peter%Crook%NULL%1,                          Roberta%Forlano%NULL%1,                          Mara D%Kont%NULL%1,                          Alessandra%Løchen%NULL%1,                          Michaela%Vollmer%NULL%1,                          Paul%Middleton%NULL%1,                          Rebekah%Judge%NULL%1,                          Christopher%Harlow%NULL%1,                          Anet%Soubieres%NULL%1,                          Graham%Cooke%NULL%1,                          Peter J%White%NULL%1,                          Timothy B%Hallett%NULL%1,                          Paul%Aylin%NULL%1,                          Neil%Ferguson%NULL%1,                          Katharina%Hauck%NULL%1,                          Mark R%Thursz%NULL%1,                          Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                          Jeffrey%Burton%NULL%2,                          Jeffrey%Burton%NULL%0,                          Daniel%Fort%NULL%1,                          Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                          Michael S.%Sherman%NULL%1,                          Naaz%Fatteh%NULL%1,                          Fabio%Vogel%NULL%1,                          Jamie%Sacks%NULL%1,                          Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Ramaswamy%null%1,                           P.% Mannam%null%1,                           R.% Comer%null%1,                           E.% Sinclair%null%1,                           D. B.% McQuaid%null%1,                           M. L. % Schmidt%null%1,         M.%Ramaswamy%null%1,         P.% Mannam%null%1,         R.% Comer%null%1,         E.% Sinclair%null%1,         D. B.% McQuaid%null%1,         M. L. % Schmidt%null%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                          Farah%Kidwai-Khan%NULL%1,                          Janet P.%Tate%NULL%1,                          Lesley S.%Park%NULL%1,                          Joseph T.%King%NULL%1,                          Melissa%Skanderson%NULL%1,                          Ronald G.%Hauser%NULL%1,                          Anna%Schultze%NULL%0,                          Christopher I.%Jarvis%NULL%1,                          Mark%Holodniy%NULL%1,                          Vincent Lo%Re%NULL%1,                          Kathleen M.%Akgün%NULL%1,                          Kristina%Crothers%NULL%1,                          Tamar H.%Taddei%NULL%1,                          Matthew S.%Freiberg%NULL%1,                          Amy C.%Justice%NULL%1,                           C. T.%Rentsch%null%1,                           F.% Kidwai-Khan%null%1,                           J. P.% Tate%null%1,                           L. S.% Park%null%1,                           J. T.% King%null%1,                           M.% Skanderson%null%1,                           R. G.% Hauser%null%1,                           A.% Schultze%null%1,                           C. I.% Jarvis%null%1,                           M.% Holodniy%null%1,                           V.% Lo Re%null%1,                           K. M.% Akgun%null%1,                           K.% Crothers%null%1,                           T. H.% Taddei%null%1,                           M. S.% Freiberg%null%1,                           A. C. % Justice%null%1,                          C. T.%Rentsch%null%1,                          F.% Kidwai-Khan%null%1,                          J. P.% Tate%null%1,                          L. S.% Park%null%1,                          J. T.% King%null%1,                          M.% Skanderson%null%1,                          R. G.% Hauser%null%1,                          A.% Schultze%null%1,                          C. I.% Jarvis%null%1,                          M.% Holodniy%null%1,                          V.% Lo Re%null%1,                          K. M.% Akgun%null%1,                          K.% Crothers%null%1,                          T. H.% Taddei%null%1,                          M. S.% Freiberg%null%1,                          A. C. % Justice%null%1,         C. T.%Rentsch%null%1,         F.% Kidwai-Khan%null%1,         J. P.% Tate%null%1,         L. S.% Park%null%1,         J. T.% King%null%1,         M.% Skanderson%null%1,         R. G.% Hauser%null%1,         A.% Schultze%null%1,         C. I.% Jarvis%null%1,         M.% Holodniy%null%1,         V.% Lo Re%null%1,         K. M.% Akgun%null%1,         K.% Crothers%null%1,         T. H.% Taddei%null%1,         M. S.% Freiberg%null%1,         A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                          Jennifer%Beam%NULL%2,                          Jennifer%Beam%NULL%0,                          Haley%Maier%NULL%1,                          Whitney%Haggerson%NULL%1,                          Karen%Boudreau%NULL%1,                          Jamie%Carlson%NULL%1,                          Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                          Alexander E.%Ayala%NULL%1,                          Chideraa C.%Ukeje%NULL%1,                          Celeste S.%Witting%NULL%1,                          William A.%Grobman%NULL%1,                          Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                          Hannah C.%Jarvis%NULL%2,                          Hannah C.%Jarvis%NULL%0,                          Ezgi%Ozcan%NULL%1,                          Thomas L. P.%Burns%NULL%1,                          Rabia A.%Warraich%NULL%1,                          Lisa J.%Amani%NULL%1,                          Amina%Jaffer%NULL%1,                          Stephanie%Paget%NULL%1,                          Anand%Sivaramakrishnan%NULL%1,                          Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                          Suzy%Gallier%NULL%2,                          Suzy%Gallier%NULL%0,                          Chris%Mainey%NULL%1,                          Peter%Nightingale%NULL%2,                          Peter%Nightingale%NULL%0,                          David%McNulty%NULL%1,                          Hannah%Crothers%NULL%1,                          Felicity%Evison%NULL%1,                          Katharine%Reeves%NULL%1,                          Domenico%Pagano%NULL%1,                          Alastair K%Denniston%NULL%1,                          Krishnarajah%Nirantharakumar%NULL%1,                          Peter%Diggle%NULL%1,                          Simon%Ball%NULL%1,                          Lylah%Irshad%NULL%1,                          Maxim%Harris%NULL%1,                          Theodore%Nabav%NULL%1,                          A%Kolesnyk%NULL%1,                          M%Ahmed%NULL%1,                          A%Liaqat%NULL%1,                          Tanya%Pankhurst%NULL%1,                          Jamie%Coleman%NULL%1,                          Chirag%Dave%NULL%1,                          Khaled%ElFandi%NULL%1,                          Rifat%Rashid%NULL%1,                          Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                          Gregory A%Eschenauer%NULL%2,                          Gregory A%Eschenauer%NULL%0,                          Jonathan P%Troost%NULL%1,                          Jonathan L%Golob%NULL%1,                          Tejal N%Gandhi%NULL%1,                          Lu%Wang%NULL%1,                          Nina%Zhou%NULL%1,                          Lindsay A%Petty%NULL%1,                          Ji Hoon%Baang%NULL%1,                          Nicholas O%Dillman%NULL%1,                          David%Frame%NULL%1,                          Kevin S%Gregg%NULL%1,                          Dan R%Kaul%NULL%1,                          Jerod%Nagel%NULL%1,                          Twisha S%Patel%NULL%1,                          Shiwei%Zhou%NULL%1,                          Adam S%Lauring%NULL%1,                          David A%Hanauer%NULL%1,                          Emily%Martin%NULL%1,                          Pratima%Sharma%NULL%1,                          Christopher M%Fung%NULL%1,                          Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                          Lei%Qian%NULL%2,                          Lei%Qian%NULL%0,                          Vennis%Hong%NULL%1,                          Rong%Wei%NULL%2,                          Rong%Wei%NULL%0,                          Ron F.%Nadjafi%NULL%2,                          Ron F.%Nadjafi%NULL%0,                          Heidi%Fischer%NULL%1,                          Zhuoxin%Li%NULL%1,                          Sally F.%Shaw%NULL%1,                          Susan L.%Caparosa%NULL%2,                          Susan L.%Caparosa%NULL%0,                          Claudia L.%Nau%NULL%1,                          Tanmai%Saxena%NULL%1,                          Gunter K.%Rieg%NULL%1,                          Bradley K.%Ackerson%NULL%1,                          Adam L.%Sharp%NULL%2,                          Adam L.%Sharp%NULL%0,                          Jacek%Skarbinski%NULL%2,                          Jacek%Skarbinski%NULL%0,                          Tej K.%Naik%NULL%1,                          Sameer B.%Murali%NULL%2,                          Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                          Juan Carlos%Nicolas%NULL%2,                          Juan Carlos%Nicolas%NULL%0,                          Jennifer R%Meeks%NULL%1,                          Osman%Khan%NULL%1,                          Alan%Pan%NULL%1,                          Stephen L%Jones%NULL%1,                          Faisal%Masud%NULL%1,                          H Dirk%Sostman%NULL%1,                          Robert%Phillips%NULL%1,                          Julia D%Andrieni%NULL%1,                          Bita A%Kash%NULL%1,                          Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                          Arryn%Craney%NULL%1,                          Phyllis%Ruggiero%NULL%1,                          John%Sipley%NULL%1,                          Lin%Cong%NULL%1,                          Erika M.%Hissong%NULL%1,                          Massimo%Loda%NULL%1,                          Lars F.%Westblade%NULL%1,                          Melissa%Cushing%NULL%2,                          Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ A.-L.%WANG%null%1,                           X.% Zhong%null%1,                           Y. % Hurd%null%1,         A.-L.%WANG%null%1,         X.% Zhong%null%1,         Y. % Hurd%null%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                          Amanda%Zheutlin%NULL%2,                          Amanda%Zheutlin%NULL%0,                          Yu-Han%Kao%NULL%1,                          Kristin%Ayers%NULL%1,                          Susan%Gross%NULL%1,                          Patricia%Kovatch%NULL%1,                          Sharon%Nirenberg%NULL%1,                          Alexander%Charney%NULL%1,                          Girish%Nadkarni%NULL%1,                          Jessica K%De Freitas%NULL%1,                          Paul%O’Reilly%NULL%1,                          Allan%Just%NULL%1,                          Carol%Horowitz%NULL%1,                          Glenn%Martin%NULL%1,                          Andrea%Branch%NULL%1,                          Benjamin S%Glicksberg%NULL%1,                          Dennis%Charney%NULL%1,                          David%Reich%NULL%1,                          William K%Oh%NULL%1,                          Eric%Schadt%NULL%1,                          Rong%Chen%NULL%0,                          Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                          Angela%Winegar%NULL%1,                          Richard%Fogel%NULL%1,                          Mohamad%Fakih%NULL%1,                          Allison%Ottenbacher%NULL%1,                          Christine%Jesser%NULL%1,                          Angelo%Bufalino%NULL%1,                          Ren-Huai%Huang%NULL%1,                          Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                          Rebecca%Bendayan%NULL%0,                          Mark%Ashworth%NULL%1,                          Daniel M.%Bean%NULL%1,                          Hiten%Dodhia%NULL%1,                          Stevo%Durbaba%NULL%1,                          Kevin%O'Gallagher%NULL%1,                          Claire%Palmer%NULL%1,                          Vasa%Curcin%NULL%1,                          Elizabeth%Aitken%NULL%1,                          William%Bernal%NULL%1,                          Richard D.%Barker%NULL%1,                          Sam%Norton%NULL%1,                          Martin%Gulliford%NULL%1,                          James T.H.%Teo%NULL%0,                          James%Galloway%NULL%1,                          Richard J.B.%Dobson%NULL%0,                          Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                          Carina%Marquez%NULL%1,                          Emily%Crawford%NULL%1,                          James%Peng%NULL%1,                          Maya%Petersen%NULL%1,                          Daniel%Schwab%NULL%1,                          Joshua%Schwab%NULL%1,                          Jackie%Martinez%NULL%1,                          Diane%Jones%NULL%1,                          Douglas%Black%NULL%1,                          Monica%Gandhi%NULL%1,                          Andrew D%Kerkhoff%NULL%1,                          Vivek%Jain%NULL%1,                          Francesco%Sergi%NULL%1,                          Jon%Jacobo%NULL%1,                          Susana%Rojas%NULL%1,                          Valerie%Tulier-Laiwa%NULL%1,                          Tracy%Gallardo-Brown%NULL%1,                          Ayesha%Appa%NULL%1,                          Charles%Chiu%NULL%1,                          Mary%Rodgers%NULL%1,                          John%Hackett%NULL%1,                          NULL%NULL%NULL%0,                          Amy%Kistler%NULL%1,                          Samantha%Hao%NULL%1,                          Jack%Kamm%NULL%1,                          David%Dynerman%NULL%1,                          Joshua%Batson%NULL%1,                          Bryan%Greenhouse%NULL%1,                          Joe%DeRisi%NULL%1,                          Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                          Tiffany%Grimes%NULL%1,                          Peng%Li%NULL%1,                          Matthew%Might%NULL%1,                          Fernando%Ovalle%NULL%1,                          Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                          Natalie%Achamallah%NULL%1,                          Hongwei%Ji%NULL%1,                          Brian L.%Claggett%NULL%1,                          Nancy%Sun%NULL%1,                          Patrick%Botting%NULL%1,                          Trevor-Trung%Nguyen%NULL%1,                          Eric%Luong%NULL%1,                          Elizabeth H.%Kim%NULL%1,                          Eunice%Park%NULL%1,                          Yunxian%Liu%NULL%1,                          Ryan%Rosenberry%NULL%1,                          Yuri%Matusov%NULL%1,                          Steven%Zhao%NULL%1,                          Isabel%Pedraza%NULL%1,                          Tanzira%Zaman%NULL%1,                          Michael%Thompson%NULL%1,                          Koen%Raedschelders%NULL%1,                          Anders H.%Berg%NULL%2,                          Anders H.%Berg%NULL%0,                          Jonathan D.%Grein%NULL%1,                          Paul W.%Noble%NULL%1,                          Sumeet S.%Chugh%NULL%1,                          C. Noel%Bairey Merz%NULL%1,                          Eduardo%Marbán%NULL%1,                          Jennifer E.%Van Eyk%NULL%1,                          Scott D.%Solomon%NULL%1,                          Christine M.%Albert%NULL%1,                          Peter%Chen%NULL%1,                          Susan%Cheng%NULL%3,                          Yu Ru%Kou%NULL%8,                          Yu Ru%Kou%NULL%0,                          Yu Ru%Kou%NULL%0,                          Susan%Cheng%biodatacore@cshs.org%0,                          Susan%Cheng%biodatacore@cshs.org%0,                          Yu Ru%Kou%NULL%0,                          Yu Ru%Kou%NULL%0,                          Yu Ru%Kou%NULL%0,                          Yu Ru%Kou%NULL%0,                          Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                          Penelope%Strid%NULL%1,                          Van T.%Tong%NULL%1,                          Kate%Woodworth%NULL%1,                          Romeo R.%Galang%NULL%1,                          Laura D.%Zambrano%NULL%1,                          John%Nahabedian%NULL%1,                          Kayla%Anderson%NULL%1,                          Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                          Jacob%Fiksel%NULL%2,                          Jacob%Fiksel%NULL%0,                          John%Muschelli%NULL%2,                          John%Muschelli%NULL%0,                          Matthew L.%Robinson%NULL%2,                          Matthew L.%Robinson%NULL%0,                          Masoud%Rouhizadeh%NULL%2,                          Masoud%Rouhizadeh%NULL%0,                          Jamie%Perin%NULL%2,                          Jamie%Perin%NULL%0,                          Grant%Schumock%NULL%2,                          Grant%Schumock%NULL%0,                          Paul%Nagy%NULL%2,                          Paul%Nagy%NULL%0,                          Josh H.%Gray%NULL%2,                          Josh H.%Gray%NULL%0,                          Harsha%Malapati%NULL%2,                          Harsha%Malapati%NULL%0,                          Mariam%Ghobadi-Krueger%NULL%2,                          Mariam%Ghobadi-Krueger%NULL%0,                          Timothy M.%Niessen%NULL%1,                          Bo Soo%Kim%NULL%1,                          Peter M.%Hill%NULL%1,                          M. Shafeeq%Ahmed%NULL%1,                          Eric D.%Dobkin%NULL%1,                          Renee%Blanding%NULL%1,                          Jennifer%Abele%NULL%1,                          Bonnie%Woods%NULL%1,                          Kenneth%Harkness%NULL%1,                          David R.%Thiemann%NULL%1,                          Mary G.%Bowring%NULL%1,                          Aalok B.%Shah%NULL%2,                          Aalok B.%Shah%NULL%0,                          Mei-Cheng%Wang%NULL%1,                          Karen%Bandeen-Roche%NULL%1,                          Antony%Rosen%NULL%1,                          Scott L.%Zeger%NULL%2,                          Scott L.%Zeger%NULL%0,                          Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                          Megan%McCullough%NULL%0,                          Megan%McCullough%NULL%0,                          Michael A.%Fuery%NULL%0,                          Fouad%Chouairi%NULL%0,                          Fouad%Chouairi%NULL%0,                          Craig%Keating%NULL%0,                          Neal G.%Ravindra%NULL%0,                          P. Elliott%Miller%NULL%0,                          Maricar%Malinis%NULL%0,                          Nitu%Kashyap%NULL%0,                          Allen%Hsiao%NULL%0,                          F. Perry%Wilson%NULL%0,                          Jeptha P.%Curtis%NULL%0,                          Matthew%Grant%NULL%0,                          Eric J.%Velazquez%NULL%0,                          Nihar R.%Desai%NULL%0,                          Tariq%Ahmad%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -5261,7 +5543,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1367</v>
+        <v>1461</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -5293,7 +5575,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>1368</v>
+        <v>1462</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -5325,7 +5607,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>1369</v>
+        <v>1463</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -5357,7 +5639,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>1370</v>
+        <v>1464</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -5389,7 +5671,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>1371</v>
+        <v>1465</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -5421,7 +5703,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>1372</v>
+        <v>1466</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -5453,7 +5735,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>1373</v>
+        <v>1467</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -5485,7 +5767,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>1374</v>
+        <v>1468</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -5517,7 +5799,7 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>1375</v>
+        <v>1469</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -5549,7 +5831,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>1376</v>
+        <v>1470</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -5581,7 +5863,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>1377</v>
+        <v>1471</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -5613,7 +5895,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>1378</v>
+        <v>1472</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -5645,7 +5927,7 @@
         <v>685</v>
       </c>
       <c r="E14" t="s">
-        <v>1379</v>
+        <v>1473</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -5677,7 +5959,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>1380</v>
+        <v>1474</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -5709,7 +5991,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>1381</v>
+        <v>1475</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -5741,7 +6023,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>1382</v>
+        <v>1476</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -5773,7 +6055,7 @@
         <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>1383</v>
+        <v>1477</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -5805,7 +6087,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>1384</v>
+        <v>1478</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -5837,7 +6119,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>1385</v>
+        <v>1479</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -5869,7 +6151,7 @@
         <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>1386</v>
+        <v>1480</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -5901,7 +6183,7 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>1387</v>
+        <v>1481</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -5933,7 +6215,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>1388</v>
+        <v>1482</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -5965,7 +6247,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>747</v>
+        <v>847</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
@@ -5997,7 +6279,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>1389</v>
+        <v>1483</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -6029,7 +6311,7 @@
         <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>1390</v>
+        <v>1484</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -6061,7 +6343,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>1391</v>
+        <v>1485</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -6093,7 +6375,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>1392</v>
+        <v>1486</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -6125,7 +6407,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1393</v>
+        <v>1487</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -6157,7 +6439,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>1394</v>
+        <v>1488</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -6189,7 +6471,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>1395</v>
+        <v>1489</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -6221,7 +6503,7 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>755</v>
+        <v>855</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -6253,7 +6535,7 @@
         <v>756</v>
       </c>
       <c r="E33" t="s">
-        <v>1396</v>
+        <v>1490</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -6285,7 +6567,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>1397</v>
+        <v>1491</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -6317,7 +6599,7 @@
         <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>1398</v>
+        <v>1492</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -6349,7 +6631,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>1399</v>
+        <v>1493</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -6381,7 +6663,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>1400</v>
+        <v>1494</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -6413,7 +6695,7 @@
         <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>1401</v>
+        <v>1495</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -6445,7 +6727,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>1402</v>
+        <v>1496</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -6477,7 +6759,7 @@
         <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>1403</v>
+        <v>1497</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -6509,7 +6791,7 @@
         <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>1404</v>
+        <v>1498</v>
       </c>
       <c r="F41" t="s">
         <v>52</v>
@@ -6541,7 +6823,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>1405</v>
+        <v>1499</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -6573,7 +6855,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>1406</v>
+        <v>1500</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -6605,7 +6887,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>1407</v>
+        <v>1501</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -6637,7 +6919,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>1408</v>
+        <v>1502</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -6669,7 +6951,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>1409</v>
+        <v>1503</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -6701,7 +6983,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>1410</v>
+        <v>1504</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -6733,7 +7015,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>1411</v>
+        <v>1505</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -6765,7 +7047,7 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>1412</v>
+        <v>1506</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -6797,7 +7079,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>1413</v>
+        <v>1507</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>
